--- a/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E709647-4DD1-4EDF-821C-5FA6596C715E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E996C71-E3FB-4905-B417-775788BAF33F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-45" yWindow="120" windowWidth="25815" windowHeight="15975" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="1147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3330" uniqueCount="1152">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3474,6 +3474,21 @@
   </si>
   <si>
     <t>gov.gsa.conformancelib.tests.CMSTests</t>
+  </si>
+  <si>
+    <t>extended key usage (extKeyUsage) asserts id-PIV-content-signing.</t>
+  </si>
+  <si>
+    <t>Certificate Policy and Extended Key Usage</t>
+  </si>
+  <si>
+    <t>11.7.2.4.1</t>
+  </si>
+  <si>
+    <t>11.7.2.4.2</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -3724,7 +3739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3909,7 +3924,6 @@
     <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3922,6 +3936,8 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8004,9 +8020,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G445"/>
+  <dimension ref="A1:G446"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A325" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C436" sqref="C436"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -8016,11 +8034,12 @@
     <col min="4" max="4" width="13.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="24.125" style="53" customWidth="1"/>
     <col min="6" max="6" width="84.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9" style="67"/>
     <col min="8" max="1026" width="8.5" style="28" customWidth="1"/>
     <col min="1027" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="63" customFormat="1" ht="18.75">
+    <row r="1" spans="1:7" s="62" customFormat="1" ht="18.75">
       <c r="A1" s="52" t="s">
         <v>52</v>
       </c>
@@ -8039,14 +8058,14 @@
       <c r="F1" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="62"/>
+      <c r="G1" s="66"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="2">
-        <v>8</v>
+      <c r="B2" s="2" t="s">
+        <v>1151</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>0</v>
@@ -8069,7 +8088,7 @@
       <c r="E3" s="58"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="31.5">
       <c r="A4" s="3" t="s">
         <v>58</v>
       </c>
@@ -8087,7 +8106,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="31.5">
       <c r="A5" s="3" t="s">
         <v>58</v>
       </c>
@@ -8119,7 +8138,7 @@
       <c r="E6" s="55"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="31.5">
       <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
@@ -8135,7 +8154,7 @@
       <c r="E7" s="55"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="31.5">
       <c r="A8" s="3" t="s">
         <v>58</v>
       </c>
@@ -8167,7 +8186,7 @@
       <c r="E9" s="55"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="31.5">
       <c r="A10" s="3" t="s">
         <v>58</v>
       </c>
@@ -8183,7 +8202,7 @@
       <c r="E10" s="55"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="31.5">
+    <row r="11" spans="1:7" ht="47.25">
       <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
@@ -8199,7 +8218,7 @@
       <c r="E11" s="55"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="31.5">
       <c r="A12" s="3" t="s">
         <v>58</v>
       </c>
@@ -8215,7 +8234,7 @@
       <c r="E12" s="55"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="31.5">
       <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
@@ -8279,7 +8298,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="31.5">
       <c r="A17" s="3" t="s">
         <v>58</v>
       </c>
@@ -8311,7 +8330,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="31.5">
       <c r="A19" s="3" t="s">
         <v>58</v>
       </c>
@@ -8343,7 +8362,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="31.5">
       <c r="A21" s="3" t="s">
         <v>58</v>
       </c>
@@ -8359,7 +8378,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="31.5">
       <c r="A22" s="3" t="s">
         <v>58</v>
       </c>
@@ -8375,7 +8394,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="31.5">
       <c r="A23" s="3" t="s">
         <v>58</v>
       </c>
@@ -8391,7 +8410,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="31.5">
       <c r="A24" s="3" t="s">
         <v>58</v>
       </c>
@@ -8407,7 +8426,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="47.25">
       <c r="A25" s="3" t="s">
         <v>58</v>
       </c>
@@ -8423,7 +8442,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="31.5">
       <c r="A26" s="3" t="s">
         <v>58</v>
       </c>
@@ -8471,7 +8490,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="31.5">
+    <row r="29" spans="1:6" ht="47.25">
       <c r="A29" s="3" t="s">
         <v>58</v>
       </c>
@@ -8533,7 +8552,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="31.5">
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
@@ -8551,7 +8570,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="31.5">
       <c r="A34" s="3" t="s">
         <v>58</v>
       </c>
@@ -8583,7 +8602,7 @@
       <c r="E35" s="55"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="31.5">
       <c r="A36" s="3" t="s">
         <v>58</v>
       </c>
@@ -8631,7 +8650,7 @@
       <c r="E38" s="55"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" ht="31.5">
       <c r="A39" s="3" t="s">
         <v>58</v>
       </c>
@@ -8647,7 +8666,7 @@
       <c r="E39" s="55"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="31.5">
       <c r="A40" s="3" t="s">
         <v>58</v>
       </c>
@@ -8663,7 +8682,7 @@
       <c r="E40" s="55"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" ht="31.5">
       <c r="A41" s="3" t="s">
         <v>58</v>
       </c>
@@ -8709,7 +8728,7 @@
       <c r="E43" s="55"/>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" ht="31.5">
       <c r="A44" s="3" t="s">
         <v>58</v>
       </c>
@@ -8727,7 +8746,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" ht="31.5">
       <c r="A45" s="3" t="s">
         <v>58</v>
       </c>
@@ -8759,7 +8778,7 @@
       <c r="E46" s="55"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" ht="31.5">
       <c r="A47" s="3" t="s">
         <v>58</v>
       </c>
@@ -8791,7 +8810,7 @@
       <c r="E48" s="55"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" ht="31.5">
       <c r="A49" s="3" t="s">
         <v>58</v>
       </c>
@@ -8807,7 +8826,7 @@
       <c r="E49" s="55"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" ht="31.5">
       <c r="A50" s="3" t="s">
         <v>58</v>
       </c>
@@ -8823,7 +8842,7 @@
       <c r="E50" s="55"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" ht="31.5">
       <c r="A51" s="3" t="s">
         <v>58</v>
       </c>
@@ -8869,7 +8888,7 @@
       <c r="E53" s="55"/>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" ht="31.5">
       <c r="A54" s="3" t="s">
         <v>58</v>
       </c>
@@ -8887,7 +8906,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" ht="31.5">
       <c r="A55" s="3" t="s">
         <v>58</v>
       </c>
@@ -8919,7 +8938,7 @@
       <c r="E56" s="55"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" ht="31.5">
       <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
@@ -8948,12 +8967,12 @@
       <c r="D58" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="E58" s="65" t="s">
+      <c r="E58" s="64" t="s">
         <v>175</v>
       </c>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" ht="31.5">
       <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
@@ -8969,7 +8988,7 @@
       <c r="E59" s="55"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" ht="31.5">
       <c r="A60" s="3" t="s">
         <v>58</v>
       </c>
@@ -8985,7 +9004,7 @@
       <c r="E60" s="55"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" ht="31.5">
       <c r="A61" s="3" t="s">
         <v>58</v>
       </c>
@@ -9001,7 +9020,7 @@
       <c r="E61" s="55"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" ht="31.5">
       <c r="A62" s="3" t="s">
         <v>58</v>
       </c>
@@ -9047,7 +9066,7 @@
       <c r="E64" s="55"/>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" ht="31.5">
       <c r="A65" s="3" t="s">
         <v>58</v>
       </c>
@@ -9065,7 +9084,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" ht="31.5">
       <c r="A66" s="3" t="s">
         <v>58</v>
       </c>
@@ -9097,7 +9116,7 @@
       <c r="E67" s="55"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" ht="31.5">
       <c r="A68" s="3" t="s">
         <v>58</v>
       </c>
@@ -9113,7 +9132,7 @@
       <c r="E68" s="55"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" ht="31.5">
       <c r="A69" s="3" t="s">
         <v>58</v>
       </c>
@@ -9129,7 +9148,7 @@
       <c r="E69" s="55"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" ht="31.5">
       <c r="A70" s="3" t="s">
         <v>58</v>
       </c>
@@ -9191,7 +9210,7 @@
       <c r="E73" s="55"/>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" ht="31.5">
       <c r="A74" s="3" t="s">
         <v>58</v>
       </c>
@@ -9209,7 +9228,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" ht="31.5">
       <c r="A75" s="3" t="s">
         <v>58</v>
       </c>
@@ -9241,7 +9260,7 @@
       <c r="E76" s="55"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" ht="31.5">
       <c r="A77" s="3" t="s">
         <v>58</v>
       </c>
@@ -9289,7 +9308,7 @@
       <c r="E79" s="55"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" ht="31.5">
       <c r="A80" s="3" t="s">
         <v>58</v>
       </c>
@@ -9305,7 +9324,7 @@
       <c r="E80" s="55"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" ht="31.5">
       <c r="A81" s="3" t="s">
         <v>58</v>
       </c>
@@ -9321,7 +9340,7 @@
       <c r="E81" s="55"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" ht="31.5">
       <c r="A82" s="3" t="s">
         <v>58</v>
       </c>
@@ -9367,7 +9386,7 @@
       <c r="E84" s="55"/>
       <c r="F84" s="10"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" ht="31.5">
       <c r="A85" s="3" t="s">
         <v>58</v>
       </c>
@@ -9385,7 +9404,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" ht="31.5">
       <c r="A86" s="3" t="s">
         <v>58</v>
       </c>
@@ -9417,7 +9436,7 @@
       <c r="E87" s="55"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" ht="31.5">
       <c r="A88" s="3" t="s">
         <v>58</v>
       </c>
@@ -9465,7 +9484,7 @@
       <c r="E90" s="55"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" ht="31.5">
       <c r="A91" s="3" t="s">
         <v>58</v>
       </c>
@@ -9481,7 +9500,7 @@
       <c r="E91" s="55"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" ht="31.5">
       <c r="A92" s="3" t="s">
         <v>58</v>
       </c>
@@ -9497,7 +9516,7 @@
       <c r="E92" s="55"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" ht="31.5">
       <c r="A93" s="3" t="s">
         <v>58</v>
       </c>
@@ -9543,7 +9562,7 @@
       <c r="E95" s="55"/>
       <c r="F95" s="10"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" ht="31.5">
       <c r="A96" s="3" t="s">
         <v>58</v>
       </c>
@@ -9561,7 +9580,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" ht="31.5">
       <c r="A97" s="3" t="s">
         <v>58</v>
       </c>
@@ -9593,7 +9612,7 @@
       <c r="E98" s="55"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" ht="31.5">
       <c r="A99" s="3" t="s">
         <v>58</v>
       </c>
@@ -9641,7 +9660,7 @@
       <c r="E101" s="55"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" ht="31.5">
       <c r="A102" s="3" t="s">
         <v>58</v>
       </c>
@@ -9657,7 +9676,7 @@
       <c r="E102" s="55"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" ht="31.5">
       <c r="A103" s="3" t="s">
         <v>58</v>
       </c>
@@ -9673,7 +9692,7 @@
       <c r="E103" s="55"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" ht="31.5">
       <c r="A104" s="3" t="s">
         <v>58</v>
       </c>
@@ -9719,7 +9738,7 @@
       <c r="E106" s="55"/>
       <c r="F106" s="10"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" ht="31.5">
       <c r="A107" s="3" t="s">
         <v>58</v>
       </c>
@@ -9737,7 +9756,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" ht="31.5">
       <c r="A108" s="3" t="s">
         <v>58</v>
       </c>
@@ -9769,7 +9788,7 @@
       <c r="E109" s="55"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" ht="31.5">
       <c r="A110" s="3" t="s">
         <v>58</v>
       </c>
@@ -9833,7 +9852,7 @@
       <c r="E113" s="55"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6" ht="31.5">
+    <row r="114" spans="1:6" ht="47.25">
       <c r="A114" s="3" t="s">
         <v>58</v>
       </c>
@@ -9863,7 +9882,7 @@
       <c r="E115" s="55"/>
       <c r="F115" s="10"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" ht="28.5">
       <c r="A116" s="3" t="s">
         <v>58</v>
       </c>
@@ -9883,7 +9902,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" ht="28.5">
       <c r="A117" s="3" t="s">
         <v>58</v>
       </c>
@@ -9919,7 +9938,7 @@
       </c>
       <c r="F118" s="11"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" ht="28.5">
       <c r="A119" s="3" t="s">
         <v>58</v>
       </c>
@@ -9955,7 +9974,7 @@
       </c>
       <c r="F120" s="11"/>
     </row>
-    <row r="121" spans="1:6" ht="31.5">
+    <row r="121" spans="1:6" ht="47.25">
       <c r="A121" s="3" t="s">
         <v>58</v>
       </c>
@@ -9973,7 +9992,7 @@
       </c>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" ht="31.5">
       <c r="A122" s="3" t="s">
         <v>58</v>
       </c>
@@ -9991,7 +10010,7 @@
       </c>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" ht="47.25">
+    <row r="123" spans="1:6" ht="78.75">
       <c r="A123" s="3" t="s">
         <v>58</v>
       </c>
@@ -10223,7 +10242,7 @@
       <c r="E136" s="55"/>
       <c r="F136" s="18"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" ht="31.5">
       <c r="A137" s="3" t="s">
         <v>58</v>
       </c>
@@ -10303,7 +10322,7 @@
       <c r="E141" s="55"/>
       <c r="F141" s="18"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" ht="31.5">
       <c r="A142" s="3" t="s">
         <v>58</v>
       </c>
@@ -10321,7 +10340,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" ht="31.5">
       <c r="A143" s="3" t="s">
         <v>58</v>
       </c>
@@ -10337,7 +10356,7 @@
       <c r="E143" s="55"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="1:6" ht="31.5">
+    <row r="144" spans="1:6" ht="47.25">
       <c r="A144" s="3" t="s">
         <v>58</v>
       </c>
@@ -10371,7 +10390,7 @@
       </c>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6" ht="31.5">
+    <row r="146" spans="1:6" ht="47.25">
       <c r="A146" s="3" t="s">
         <v>58</v>
       </c>
@@ -10387,7 +10406,7 @@
       <c r="E146" s="55"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" ht="31.5">
       <c r="A147" s="3" t="s">
         <v>58</v>
       </c>
@@ -10403,7 +10422,7 @@
       <c r="E147" s="55"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" ht="31.5">
       <c r="A148" s="3" t="s">
         <v>58</v>
       </c>
@@ -10421,7 +10440,7 @@
       </c>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="1:6" ht="31.5">
+    <row r="149" spans="1:6" ht="63">
       <c r="A149" s="3" t="s">
         <v>58</v>
       </c>
@@ -10457,7 +10476,7 @@
       </c>
       <c r="F150" s="40"/>
     </row>
-    <row r="151" spans="1:6" ht="31.5">
+    <row r="151" spans="1:6" ht="78.75">
       <c r="A151" s="3" t="s">
         <v>58</v>
       </c>
@@ -10473,7 +10492,7 @@
       <c r="E151" s="55"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="1:6" ht="31.5">
+    <row r="152" spans="1:6" ht="47.25">
       <c r="A152" s="3" t="s">
         <v>58</v>
       </c>
@@ -10489,7 +10508,7 @@
       <c r="E152" s="55"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" ht="31.5">
       <c r="A153" s="3" t="s">
         <v>58</v>
       </c>
@@ -10533,7 +10552,7 @@
       <c r="E155" s="55"/>
       <c r="F155" s="18"/>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" ht="31.5">
       <c r="A156" s="3" t="s">
         <v>58</v>
       </c>
@@ -10613,7 +10632,7 @@
       <c r="E160" s="55"/>
       <c r="F160" s="18"/>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" ht="31.5">
       <c r="A161" s="3" t="s">
         <v>58</v>
       </c>
@@ -10631,7 +10650,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" ht="31.5">
       <c r="A162" s="3" t="s">
         <v>58</v>
       </c>
@@ -10647,7 +10666,7 @@
       <c r="E162" s="55"/>
       <c r="F162" s="3"/>
     </row>
-    <row r="163" spans="1:6" ht="31.5">
+    <row r="163" spans="1:6" ht="47.25">
       <c r="A163" s="3" t="s">
         <v>58</v>
       </c>
@@ -10681,7 +10700,7 @@
       </c>
       <c r="F164" s="3"/>
     </row>
-    <row r="165" spans="1:6" ht="31.5">
+    <row r="165" spans="1:6" ht="47.25">
       <c r="A165" s="3" t="s">
         <v>58</v>
       </c>
@@ -10697,7 +10716,7 @@
       <c r="E165" s="55"/>
       <c r="F165" s="3"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" ht="31.5">
       <c r="A166" s="3" t="s">
         <v>58</v>
       </c>
@@ -10713,7 +10732,7 @@
       <c r="E166" s="55"/>
       <c r="F166" s="3"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" ht="31.5">
       <c r="A167" s="3" t="s">
         <v>58</v>
       </c>
@@ -10731,7 +10750,7 @@
       </c>
       <c r="F167" s="3"/>
     </row>
-    <row r="168" spans="1:6" ht="31.5">
+    <row r="168" spans="1:6" ht="47.25">
       <c r="A168" s="3" t="s">
         <v>58</v>
       </c>
@@ -10767,7 +10786,7 @@
       </c>
       <c r="F169" s="3"/>
     </row>
-    <row r="170" spans="1:6" ht="31.5">
+    <row r="170" spans="1:6" ht="78.75">
       <c r="A170" s="3" t="s">
         <v>58</v>
       </c>
@@ -10783,7 +10802,7 @@
       <c r="E170" s="55"/>
       <c r="F170" s="3"/>
     </row>
-    <row r="171" spans="1:6" ht="31.5">
+    <row r="171" spans="1:6" ht="47.25">
       <c r="A171" s="3" t="s">
         <v>58</v>
       </c>
@@ -10799,7 +10818,7 @@
       <c r="E171" s="55"/>
       <c r="F171" s="3"/>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" ht="31.5">
       <c r="A172" s="3" t="s">
         <v>58</v>
       </c>
@@ -10843,7 +10862,7 @@
       <c r="E174" s="55"/>
       <c r="F174" s="18"/>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" ht="31.5">
       <c r="A175" s="3" t="s">
         <v>58</v>
       </c>
@@ -10939,7 +10958,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" ht="31.5">
       <c r="A181" s="3" t="s">
         <v>58</v>
       </c>
@@ -10989,7 +11008,7 @@
       </c>
       <c r="F183" s="3"/>
     </row>
-    <row r="184" spans="1:6" ht="31.5">
+    <row r="184" spans="1:6" ht="47.25">
       <c r="A184" s="3" t="s">
         <v>58</v>
       </c>
@@ -11005,7 +11024,7 @@
       <c r="E184" s="55"/>
       <c r="F184" s="3"/>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" ht="31.5">
       <c r="A185" s="3" t="s">
         <v>58</v>
       </c>
@@ -11021,7 +11040,7 @@
       <c r="E185" s="55"/>
       <c r="F185" s="3"/>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" ht="31.5">
       <c r="A186" s="3" t="s">
         <v>58</v>
       </c>
@@ -11039,7 +11058,7 @@
       </c>
       <c r="F186" s="3"/>
     </row>
-    <row r="187" spans="1:6" ht="31.5">
+    <row r="187" spans="1:6" ht="47.25">
       <c r="A187" s="3" t="s">
         <v>58</v>
       </c>
@@ -11075,7 +11094,7 @@
       </c>
       <c r="F188" s="3"/>
     </row>
-    <row r="189" spans="1:6" ht="31.5">
+    <row r="189" spans="1:6" ht="78.75">
       <c r="A189" s="3" t="s">
         <v>58</v>
       </c>
@@ -11091,7 +11110,7 @@
       <c r="E189" s="55"/>
       <c r="F189" s="3"/>
     </row>
-    <row r="190" spans="1:6" ht="31.5">
+    <row r="190" spans="1:6" ht="47.25">
       <c r="A190" s="3" t="s">
         <v>58</v>
       </c>
@@ -11107,7 +11126,7 @@
       <c r="E190" s="55"/>
       <c r="F190" s="3"/>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" ht="31.5">
       <c r="A191" s="3" t="s">
         <v>58</v>
       </c>
@@ -11151,7 +11170,7 @@
       <c r="E193" s="55"/>
       <c r="F193" s="18"/>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" ht="31.5">
       <c r="A194" s="3" t="s">
         <v>58</v>
       </c>
@@ -11169,7 +11188,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" ht="31.5">
       <c r="A195" s="3" t="s">
         <v>58</v>
       </c>
@@ -11185,7 +11204,7 @@
       <c r="E195" s="55"/>
       <c r="F195" s="3"/>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" ht="31.5">
       <c r="A196" s="3" t="s">
         <v>58</v>
       </c>
@@ -11201,7 +11220,7 @@
       <c r="E196" s="55"/>
       <c r="F196" s="3"/>
     </row>
-    <row r="197" spans="1:6" ht="31.5">
+    <row r="197" spans="1:6" ht="63">
       <c r="A197" s="3" t="s">
         <v>58</v>
       </c>
@@ -11217,7 +11236,7 @@
       <c r="E197" s="55"/>
       <c r="F197" s="3"/>
     </row>
-    <row r="198" spans="1:6" ht="31.5">
+    <row r="198" spans="1:6" ht="63">
       <c r="A198" s="3" t="s">
         <v>58</v>
       </c>
@@ -11233,7 +11252,7 @@
       <c r="E198" s="55"/>
       <c r="F198" s="3"/>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" ht="31.5">
       <c r="A199" s="3" t="s">
         <v>58</v>
       </c>
@@ -11267,7 +11286,7 @@
       <c r="E200" s="55"/>
       <c r="F200" s="3"/>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" ht="31.5">
       <c r="A201" s="3" t="s">
         <v>58</v>
       </c>
@@ -11399,7 +11418,7 @@
       <c r="E208" s="55"/>
       <c r="F208" s="3"/>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" ht="31.5">
       <c r="A209" s="3" t="s">
         <v>58</v>
       </c>
@@ -11431,7 +11450,7 @@
       <c r="E210" s="55"/>
       <c r="F210" s="3"/>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" ht="31.5">
       <c r="A211" s="3" t="s">
         <v>58</v>
       </c>
@@ -11444,7 +11463,7 @@
       <c r="D211" s="46" t="s">
         <v>989</v>
       </c>
-      <c r="E211" s="66" t="s">
+      <c r="E211" s="65" t="s">
         <v>1139</v>
       </c>
       <c r="F211" s="3"/>
@@ -11481,7 +11500,7 @@
       <c r="E213" s="55"/>
       <c r="F213" s="3"/>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" ht="31.5">
       <c r="A214" s="3" t="s">
         <v>58</v>
       </c>
@@ -11607,7 +11626,7 @@
       <c r="E221" s="55"/>
       <c r="F221" s="19"/>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" ht="31.5">
       <c r="A222" s="3" t="s">
         <v>58</v>
       </c>
@@ -11757,7 +11776,7 @@
       <c r="E231" s="55"/>
       <c r="F231" s="21"/>
     </row>
-    <row r="232" spans="1:6" ht="31.5">
+    <row r="232" spans="1:6" ht="63">
       <c r="A232" s="3" t="s">
         <v>58</v>
       </c>
@@ -11775,7 +11794,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" ht="31.5">
       <c r="A233" s="3" t="s">
         <v>58</v>
       </c>
@@ -11791,7 +11810,7 @@
       <c r="E233" s="55"/>
       <c r="F233" s="5"/>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" ht="31.5">
       <c r="A234" s="3" t="s">
         <v>58</v>
       </c>
@@ -11807,7 +11826,7 @@
       <c r="E234" s="55"/>
       <c r="F234" s="5"/>
     </row>
-    <row r="235" spans="1:6" ht="31.5">
+    <row r="235" spans="1:6" ht="47.25">
       <c r="A235" s="3" t="s">
         <v>58</v>
       </c>
@@ -11839,7 +11858,7 @@
       <c r="E236" s="55"/>
       <c r="F236" s="5"/>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" ht="31.5">
       <c r="A237" s="3" t="s">
         <v>58</v>
       </c>
@@ -11855,7 +11874,7 @@
       <c r="E237" s="55"/>
       <c r="F237" s="5"/>
     </row>
-    <row r="238" spans="1:6" ht="31.5">
+    <row r="238" spans="1:6" ht="63">
       <c r="A238" s="3" t="s">
         <v>58</v>
       </c>
@@ -11871,7 +11890,7 @@
       <c r="E238" s="55"/>
       <c r="F238" s="5"/>
     </row>
-    <row r="239" spans="1:6" ht="31.5">
+    <row r="239" spans="1:6" ht="63">
       <c r="A239" s="3" t="s">
         <v>58</v>
       </c>
@@ -11887,7 +11906,7 @@
       <c r="E239" s="55"/>
       <c r="F239" s="5"/>
     </row>
-    <row r="240" spans="1:6" ht="47.25">
+    <row r="240" spans="1:6" ht="94.5">
       <c r="A240" s="3" t="s">
         <v>58</v>
       </c>
@@ -11903,7 +11922,7 @@
       <c r="E240" s="55"/>
       <c r="F240" s="5"/>
     </row>
-    <row r="241" spans="1:6" ht="31.5">
+    <row r="241" spans="1:6" ht="78.75">
       <c r="A241" s="3" t="s">
         <v>58</v>
       </c>
@@ -11919,7 +11938,7 @@
       <c r="E241" s="55"/>
       <c r="F241" s="5"/>
     </row>
-    <row r="242" spans="1:6" ht="47.25">
+    <row r="242" spans="1:6" ht="94.5">
       <c r="A242" s="3" t="s">
         <v>58</v>
       </c>
@@ -11935,7 +11954,7 @@
       <c r="E242" s="55"/>
       <c r="F242" s="5"/>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" ht="31.5">
       <c r="A243" s="3" t="s">
         <v>58</v>
       </c>
@@ -11979,7 +11998,7 @@
       <c r="E245" s="55"/>
       <c r="F245" s="21"/>
     </row>
-    <row r="246" spans="1:6" ht="31.5">
+    <row r="246" spans="1:6" ht="63">
       <c r="A246" s="3" t="s">
         <v>58</v>
       </c>
@@ -12013,7 +12032,7 @@
       <c r="E247" s="55"/>
       <c r="F247" s="5"/>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" ht="31.5">
       <c r="A248" s="3" t="s">
         <v>58</v>
       </c>
@@ -12029,7 +12048,7 @@
       <c r="E248" s="55"/>
       <c r="F248" s="5"/>
     </row>
-    <row r="249" spans="1:6" ht="31.5">
+    <row r="249" spans="1:6" ht="47.25">
       <c r="A249" s="3" t="s">
         <v>58</v>
       </c>
@@ -12061,7 +12080,7 @@
       <c r="E250" s="55"/>
       <c r="F250" s="5"/>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" ht="31.5">
       <c r="A251" s="3" t="s">
         <v>58</v>
       </c>
@@ -12093,7 +12112,7 @@
       <c r="E252" s="55"/>
       <c r="F252" s="5"/>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" ht="31.5">
       <c r="A253" s="3" t="s">
         <v>58</v>
       </c>
@@ -12109,7 +12128,7 @@
       <c r="E253" s="55"/>
       <c r="F253" s="5"/>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" ht="31.5">
       <c r="A254" s="3" t="s">
         <v>58</v>
       </c>
@@ -12125,7 +12144,7 @@
       <c r="E254" s="55"/>
       <c r="F254" s="5"/>
     </row>
-    <row r="255" spans="1:6" ht="31.5">
+    <row r="255" spans="1:6" ht="47.25">
       <c r="A255" s="3" t="s">
         <v>58</v>
       </c>
@@ -12141,7 +12160,7 @@
       <c r="E255" s="55"/>
       <c r="F255" s="5"/>
     </row>
-    <row r="256" spans="1:6" ht="31.5">
+    <row r="256" spans="1:6" ht="47.25">
       <c r="A256" s="3" t="s">
         <v>58</v>
       </c>
@@ -12157,7 +12176,7 @@
       <c r="E256" s="55"/>
       <c r="F256" s="5"/>
     </row>
-    <row r="257" spans="1:6" ht="31.5">
+    <row r="257" spans="1:6" ht="78.75">
       <c r="A257" s="3" t="s">
         <v>58</v>
       </c>
@@ -12173,7 +12192,7 @@
       <c r="E257" s="55"/>
       <c r="F257" s="3"/>
     </row>
-    <row r="258" spans="1:6" ht="47.25">
+    <row r="258" spans="1:6" ht="78.75">
       <c r="A258" s="3" t="s">
         <v>58</v>
       </c>
@@ -12189,7 +12208,7 @@
       <c r="E258" s="55"/>
       <c r="F258" s="5"/>
     </row>
-    <row r="259" spans="1:6" ht="47.25">
+    <row r="259" spans="1:6" ht="94.5">
       <c r="A259" s="3" t="s">
         <v>58</v>
       </c>
@@ -12205,7 +12224,7 @@
       <c r="E259" s="55"/>
       <c r="F259" s="3"/>
     </row>
-    <row r="260" spans="1:6" ht="47.25">
+    <row r="260" spans="1:6" ht="94.5">
       <c r="A260" s="3" t="s">
         <v>58</v>
       </c>
@@ -12221,7 +12240,7 @@
       <c r="E260" s="55"/>
       <c r="F260" s="5"/>
     </row>
-    <row r="261" spans="1:6" ht="31.5">
+    <row r="261" spans="1:6" ht="63">
       <c r="A261" s="3" t="s">
         <v>58</v>
       </c>
@@ -12265,7 +12284,7 @@
       <c r="E263" s="55"/>
       <c r="F263" s="13"/>
     </row>
-    <row r="264" spans="1:6" ht="31.5">
+    <row r="264" spans="1:6" ht="63">
       <c r="A264" s="3" t="s">
         <v>58</v>
       </c>
@@ -12299,7 +12318,7 @@
       <c r="E265" s="55"/>
       <c r="F265" s="5"/>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" ht="31.5">
       <c r="A266" s="3" t="s">
         <v>58</v>
       </c>
@@ -12315,7 +12334,7 @@
       <c r="E266" s="55"/>
       <c r="F266" s="5"/>
     </row>
-    <row r="267" spans="1:6" ht="31.5">
+    <row r="267" spans="1:6" ht="47.25">
       <c r="A267" s="3" t="s">
         <v>58</v>
       </c>
@@ -12347,7 +12366,7 @@
       <c r="E268" s="55"/>
       <c r="F268" s="5"/>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" ht="31.5">
       <c r="A269" s="3" t="s">
         <v>58</v>
       </c>
@@ -12379,7 +12398,7 @@
       <c r="E270" s="55"/>
       <c r="F270" s="5"/>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" ht="31.5">
       <c r="A271" s="3" t="s">
         <v>58</v>
       </c>
@@ -12395,7 +12414,7 @@
       <c r="E271" s="55"/>
       <c r="F271" s="5"/>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" ht="31.5">
       <c r="A272" s="3" t="s">
         <v>58</v>
       </c>
@@ -12411,7 +12430,7 @@
       <c r="E272" s="55"/>
       <c r="F272" s="5"/>
     </row>
-    <row r="273" spans="1:6" ht="31.5">
+    <row r="273" spans="1:6" ht="47.25">
       <c r="A273" s="3" t="s">
         <v>58</v>
       </c>
@@ -12427,7 +12446,7 @@
       <c r="E273" s="55"/>
       <c r="F273" s="5"/>
     </row>
-    <row r="274" spans="1:6" ht="31.5">
+    <row r="274" spans="1:6" ht="47.25">
       <c r="A274" s="3" t="s">
         <v>58</v>
       </c>
@@ -12443,7 +12462,7 @@
       <c r="E274" s="55"/>
       <c r="F274" s="5"/>
     </row>
-    <row r="275" spans="1:6" ht="31.5">
+    <row r="275" spans="1:6" ht="78.75">
       <c r="A275" s="3" t="s">
         <v>58</v>
       </c>
@@ -12459,7 +12478,7 @@
       <c r="E275" s="55"/>
       <c r="F275" s="3"/>
     </row>
-    <row r="276" spans="1:6" ht="47.25">
+    <row r="276" spans="1:6" ht="78.75">
       <c r="A276" s="3" t="s">
         <v>58</v>
       </c>
@@ -12475,7 +12494,7 @@
       <c r="E276" s="55"/>
       <c r="F276" s="5"/>
     </row>
-    <row r="277" spans="1:6" ht="47.25">
+    <row r="277" spans="1:6" ht="94.5">
       <c r="A277" s="3" t="s">
         <v>58</v>
       </c>
@@ -12491,7 +12510,7 @@
       <c r="E277" s="55"/>
       <c r="F277" s="3"/>
     </row>
-    <row r="278" spans="1:6" ht="47.25">
+    <row r="278" spans="1:6" ht="94.5">
       <c r="A278" s="3" t="s">
         <v>58</v>
       </c>
@@ -12507,7 +12526,7 @@
       <c r="E278" s="55"/>
       <c r="F278" s="5"/>
     </row>
-    <row r="279" spans="1:6" ht="31.5">
+    <row r="279" spans="1:6" ht="63">
       <c r="A279" s="3" t="s">
         <v>58</v>
       </c>
@@ -12551,7 +12570,7 @@
       <c r="E281" s="55"/>
       <c r="F281" s="18"/>
     </row>
-    <row r="282" spans="1:6" ht="31.5">
+    <row r="282" spans="1:6" ht="47.25">
       <c r="A282" s="3" t="s">
         <v>58</v>
       </c>
@@ -12583,7 +12602,7 @@
       <c r="E283" s="55"/>
       <c r="F283" s="18"/>
     </row>
-    <row r="284" spans="1:6" ht="31.5">
+    <row r="284" spans="1:6" ht="47.25">
       <c r="A284" s="3" t="s">
         <v>58</v>
       </c>
@@ -12633,7 +12652,7 @@
       <c r="E286" s="55"/>
       <c r="F286" s="5"/>
     </row>
-    <row r="287" spans="1:6" ht="31.5">
+    <row r="287" spans="1:6" ht="47.25">
       <c r="A287" s="3" t="s">
         <v>58</v>
       </c>
@@ -12649,7 +12668,7 @@
       <c r="E287" s="55"/>
       <c r="F287" s="5"/>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" ht="31.5">
       <c r="A288" s="3" t="s">
         <v>58</v>
       </c>
@@ -12681,7 +12700,7 @@
       <c r="E289" s="55"/>
       <c r="F289" s="5"/>
     </row>
-    <row r="290" spans="1:6" ht="47.25">
+    <row r="290" spans="1:6" ht="94.5">
       <c r="A290" s="3" t="s">
         <v>58</v>
       </c>
@@ -12725,7 +12744,7 @@
       <c r="E292" s="55"/>
       <c r="F292" s="25"/>
     </row>
-    <row r="293" spans="1:6" ht="31.5">
+    <row r="293" spans="1:6" ht="63">
       <c r="A293" s="3" t="s">
         <v>58</v>
       </c>
@@ -12759,7 +12778,7 @@
       <c r="E294" s="55"/>
       <c r="F294" s="3"/>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" ht="31.5">
       <c r="A295" s="3" t="s">
         <v>58</v>
       </c>
@@ -12775,7 +12794,7 @@
       <c r="E295" s="55"/>
       <c r="F295" s="3"/>
     </row>
-    <row r="296" spans="1:6" ht="31.5">
+    <row r="296" spans="1:6" ht="47.25">
       <c r="A296" s="3" t="s">
         <v>58</v>
       </c>
@@ -12807,7 +12826,7 @@
       <c r="E297" s="55"/>
       <c r="F297" s="3"/>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" ht="31.5">
       <c r="A298" s="3" t="s">
         <v>58</v>
       </c>
@@ -12839,7 +12858,7 @@
       <c r="E299" s="55"/>
       <c r="F299" s="3"/>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" ht="31.5">
       <c r="A300" s="3" t="s">
         <v>58</v>
       </c>
@@ -12855,7 +12874,7 @@
       <c r="E300" s="55"/>
       <c r="F300" s="3"/>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" ht="31.5">
       <c r="A301" s="3" t="s">
         <v>58</v>
       </c>
@@ -12871,7 +12890,7 @@
       <c r="E301" s="55"/>
       <c r="F301" s="3"/>
     </row>
-    <row r="302" spans="1:6" ht="31.5">
+    <row r="302" spans="1:6" ht="47.25">
       <c r="A302" s="3" t="s">
         <v>58</v>
       </c>
@@ -12887,7 +12906,7 @@
       <c r="E302" s="55"/>
       <c r="F302" s="3"/>
     </row>
-    <row r="303" spans="1:6" ht="31.5">
+    <row r="303" spans="1:6" ht="47.25">
       <c r="A303" s="3" t="s">
         <v>58</v>
       </c>
@@ -12903,7 +12922,7 @@
       <c r="E303" s="55"/>
       <c r="F303" s="3"/>
     </row>
-    <row r="304" spans="1:6" ht="31.5">
+    <row r="304" spans="1:6" ht="78.75">
       <c r="A304" s="3" t="s">
         <v>58</v>
       </c>
@@ -12919,7 +12938,7 @@
       <c r="E304" s="55"/>
       <c r="F304" s="3"/>
     </row>
-    <row r="305" spans="1:6" ht="47.25">
+    <row r="305" spans="1:6" ht="78.75">
       <c r="A305" s="3" t="s">
         <v>58</v>
       </c>
@@ -12935,7 +12954,7 @@
       <c r="E305" s="55"/>
       <c r="F305" s="3"/>
     </row>
-    <row r="306" spans="1:6" ht="47.25">
+    <row r="306" spans="1:6" ht="94.5">
       <c r="A306" s="3" t="s">
         <v>58</v>
       </c>
@@ -12951,7 +12970,7 @@
       <c r="E306" s="55"/>
       <c r="F306" s="3"/>
     </row>
-    <row r="307" spans="1:6" ht="47.25">
+    <row r="307" spans="1:6" ht="94.5">
       <c r="A307" s="3" t="s">
         <v>58</v>
       </c>
@@ -12967,7 +12986,7 @@
       <c r="E307" s="55"/>
       <c r="F307" s="3"/>
     </row>
-    <row r="308" spans="1:6" ht="31.5">
+    <row r="308" spans="1:6" ht="63">
       <c r="A308" s="3" t="s">
         <v>58</v>
       </c>
@@ -13025,7 +13044,7 @@
       <c r="E311" s="55"/>
       <c r="F311" s="25"/>
     </row>
-    <row r="312" spans="1:6" ht="63">
+    <row r="312" spans="1:6" ht="110.25">
       <c r="A312" s="3" t="s">
         <v>58</v>
       </c>
@@ -13043,7 +13062,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" ht="31.5">
       <c r="A313" s="3" t="s">
         <v>58</v>
       </c>
@@ -13059,7 +13078,7 @@
       <c r="E313" s="55"/>
       <c r="F313" s="5"/>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" ht="31.5">
       <c r="A314" s="3" t="s">
         <v>58</v>
       </c>
@@ -13134,7 +13153,7 @@
       </c>
       <c r="F318" s="3"/>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" ht="31.5">
       <c r="A319" s="3" t="s">
         <v>58</v>
       </c>
@@ -13224,7 +13243,7 @@
       </c>
       <c r="F324" s="5"/>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" ht="47.25">
       <c r="A325" s="3" t="s">
         <v>58</v>
       </c>
@@ -13252,7 +13271,7 @@
       <c r="D326" s="3"/>
       <c r="F326" s="18"/>
     </row>
-    <row r="327" spans="1:6" ht="47.25">
+    <row r="327" spans="1:6" ht="78.75">
       <c r="A327" s="3" t="s">
         <v>58</v>
       </c>
@@ -13272,7 +13291,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="31.5">
+    <row r="328" spans="1:6" ht="63">
       <c r="A328" s="3" t="s">
         <v>58</v>
       </c>
@@ -13290,7 +13309,7 @@
       </c>
       <c r="F328" s="5"/>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" ht="31.5">
       <c r="A329" s="3" t="s">
         <v>58</v>
       </c>
@@ -13306,7 +13325,7 @@
       <c r="E329" s="55"/>
       <c r="F329" s="3"/>
     </row>
-    <row r="330" spans="1:6" ht="31.5">
+    <row r="330" spans="1:6" ht="47.25">
       <c r="A330" s="3" t="s">
         <v>58</v>
       </c>
@@ -13324,7 +13343,7 @@
       </c>
       <c r="F330" s="26"/>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" ht="31.5">
       <c r="A331" s="3" t="s">
         <v>58</v>
       </c>
@@ -13422,7 +13441,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" ht="31.5">
       <c r="A337" s="3" t="s">
         <v>58</v>
       </c>
@@ -13438,7 +13457,7 @@
       <c r="E337" s="60"/>
       <c r="F337" s="5"/>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" ht="31.5">
       <c r="A338" s="3" t="s">
         <v>58</v>
       </c>
@@ -13470,7 +13489,7 @@
       <c r="E339" s="55"/>
       <c r="F339" s="26"/>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" ht="31.5">
       <c r="A340" s="3" t="s">
         <v>58</v>
       </c>
@@ -13516,7 +13535,7 @@
       <c r="E342" s="55"/>
       <c r="F342" s="18"/>
     </row>
-    <row r="343" spans="1:6" ht="63">
+    <row r="343" spans="1:6" ht="110.25">
       <c r="A343" s="3" t="s">
         <v>58</v>
       </c>
@@ -13536,7 +13555,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" ht="31.5">
       <c r="A344" s="3" t="s">
         <v>58</v>
       </c>
@@ -13554,7 +13573,7 @@
       </c>
       <c r="F344" s="5"/>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" ht="31.5">
       <c r="A345" s="3" t="s">
         <v>58</v>
       </c>
@@ -13616,7 +13635,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" ht="31.5">
       <c r="A349" s="3" t="s">
         <v>58</v>
       </c>
@@ -13632,7 +13651,7 @@
       <c r="E349" s="55"/>
       <c r="F349" s="5"/>
     </row>
-    <row r="350" spans="1:6" ht="31.5">
+    <row r="350" spans="1:6" ht="47.25">
       <c r="A350" s="3" t="s">
         <v>58</v>
       </c>
@@ -13648,7 +13667,7 @@
       <c r="E350" s="55"/>
       <c r="F350" s="5"/>
     </row>
-    <row r="351" spans="1:6" ht="31.5">
+    <row r="351" spans="1:6" ht="47.25">
       <c r="A351" s="3" t="s">
         <v>58</v>
       </c>
@@ -13666,7 +13685,7 @@
       </c>
       <c r="F351" s="5"/>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" ht="31.5">
       <c r="A352" s="3" t="s">
         <v>58</v>
       </c>
@@ -13682,7 +13701,7 @@
       <c r="E352" s="55"/>
       <c r="F352" s="5"/>
     </row>
-    <row r="353" spans="1:6" ht="31.5">
+    <row r="353" spans="1:6" ht="47.25">
       <c r="A353" s="3" t="s">
         <v>58</v>
       </c>
@@ -13780,7 +13799,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" spans="1:6" ht="31.5">
       <c r="A359" s="3" t="s">
         <v>58</v>
       </c>
@@ -13796,7 +13815,7 @@
       <c r="E359" s="60"/>
       <c r="F359" s="26"/>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:6" ht="31.5">
       <c r="A360" s="3" t="s">
         <v>58</v>
       </c>
@@ -13828,7 +13847,7 @@
       <c r="E361" s="55"/>
       <c r="F361" s="7"/>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" ht="31.5">
       <c r="A362" s="3" t="s">
         <v>58</v>
       </c>
@@ -13874,7 +13893,7 @@
       <c r="E364" s="55"/>
       <c r="F364" s="21"/>
     </row>
-    <row r="365" spans="1:6" ht="47.25">
+    <row r="365" spans="1:6" ht="94.5">
       <c r="A365" s="3" t="s">
         <v>58</v>
       </c>
@@ -13892,7 +13911,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" spans="1:6" ht="31.5">
       <c r="A366" s="3" t="s">
         <v>58</v>
       </c>
@@ -13908,7 +13927,7 @@
       <c r="E366" s="55"/>
       <c r="F366" s="7"/>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" ht="31.5">
       <c r="A367" s="3" t="s">
         <v>58</v>
       </c>
@@ -13952,7 +13971,7 @@
       <c r="E369" s="55"/>
       <c r="F369" s="21"/>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:6" ht="47.25">
       <c r="A370" s="3" t="s">
         <v>58</v>
       </c>
@@ -13970,7 +13989,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" ht="31.5">
       <c r="A371" s="3" t="s">
         <v>58</v>
       </c>
@@ -14002,7 +14021,7 @@
       <c r="E372" s="55"/>
       <c r="F372" s="26"/>
     </row>
-    <row r="373" spans="1:6" ht="31.5">
+    <row r="373" spans="1:6" ht="47.25">
       <c r="A373" s="3" t="s">
         <v>58</v>
       </c>
@@ -14018,7 +14037,7 @@
       <c r="E373" s="55"/>
       <c r="F373" s="26"/>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:6" ht="31.5">
       <c r="A374" s="3" t="s">
         <v>58</v>
       </c>
@@ -14034,7 +14053,7 @@
       <c r="E374" s="55"/>
       <c r="F374" s="26"/>
     </row>
-    <row r="375" spans="1:6" ht="31.5">
+    <row r="375" spans="1:6" ht="47.25">
       <c r="A375" s="3" t="s">
         <v>58</v>
       </c>
@@ -14132,7 +14151,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:6" ht="31.5">
       <c r="A381" s="3" t="s">
         <v>58</v>
       </c>
@@ -14148,7 +14167,7 @@
       <c r="E381" s="60"/>
       <c r="F381" s="26"/>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:6" ht="31.5">
       <c r="A382" s="3" t="s">
         <v>58</v>
       </c>
@@ -14180,7 +14199,7 @@
       <c r="E383" s="55"/>
       <c r="F383" s="7"/>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:6" ht="31.5">
       <c r="A384" s="3" t="s">
         <v>58</v>
       </c>
@@ -14226,7 +14245,7 @@
       <c r="E386" s="55"/>
       <c r="F386" s="21"/>
     </row>
-    <row r="387" spans="1:6" ht="47.25">
+    <row r="387" spans="1:6" ht="94.5">
       <c r="A387" s="3" t="s">
         <v>58</v>
       </c>
@@ -14244,7 +14263,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388" spans="1:6" ht="31.5">
       <c r="A388" s="3" t="s">
         <v>58</v>
       </c>
@@ -14260,7 +14279,7 @@
       <c r="E388" s="55"/>
       <c r="F388" s="26"/>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" ht="31.5">
       <c r="A389" s="3" t="s">
         <v>58</v>
       </c>
@@ -14354,7 +14373,7 @@
       <c r="E394" s="55"/>
       <c r="F394" s="26"/>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:6" ht="31.5">
       <c r="A395" s="3" t="s">
         <v>58</v>
       </c>
@@ -14384,7 +14403,7 @@
       <c r="E396" s="55"/>
       <c r="F396" s="21"/>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:6" ht="31.5">
       <c r="A397" s="3" t="s">
         <v>58</v>
       </c>
@@ -14402,7 +14421,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398" spans="1:6" ht="31.5">
       <c r="A398" s="3" t="s">
         <v>58</v>
       </c>
@@ -14420,7 +14439,7 @@
       </c>
       <c r="F398" s="7"/>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" spans="1:6" ht="31.5">
       <c r="A399" s="3" t="s">
         <v>58</v>
       </c>
@@ -14486,7 +14505,7 @@
       <c r="E402" s="55"/>
       <c r="F402" s="5"/>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:6" ht="31.5">
       <c r="A403" s="3" t="s">
         <v>58</v>
       </c>
@@ -14534,7 +14553,7 @@
       <c r="E405" s="55"/>
       <c r="F405" s="5"/>
     </row>
-    <row r="406" spans="1:6" ht="31.5">
+    <row r="406" spans="1:6" ht="47.25">
       <c r="A406" s="3" t="s">
         <v>58</v>
       </c>
@@ -14564,7 +14583,7 @@
       <c r="E407" s="55"/>
       <c r="F407" s="21"/>
     </row>
-    <row r="408" spans="1:6" ht="47.25">
+    <row r="408" spans="1:6" ht="78.75">
       <c r="A408" s="3" t="s">
         <v>58</v>
       </c>
@@ -14584,7 +14603,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="409" spans="1:6" ht="31.5">
+    <row r="409" spans="1:6" ht="63">
       <c r="A409" s="3" t="s">
         <v>58</v>
       </c>
@@ -14622,7 +14641,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:6" ht="31.5">
       <c r="A411" s="3" t="s">
         <v>58</v>
       </c>
@@ -14702,7 +14721,7 @@
       <c r="E415" s="55"/>
       <c r="F415" s="21"/>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" spans="1:6" ht="31.5">
       <c r="A416" s="3" t="s">
         <v>58</v>
       </c>
@@ -14856,7 +14875,7 @@
       <c r="E425" s="55"/>
       <c r="F425" s="21"/>
     </row>
-    <row r="426" spans="1:6" ht="47.25">
+    <row r="426" spans="1:6" ht="94.5">
       <c r="A426" s="3" t="s">
         <v>58</v>
       </c>
@@ -14874,7 +14893,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427" spans="1:6" ht="31.5">
       <c r="A427" s="3" t="s">
         <v>58</v>
       </c>
@@ -14890,7 +14909,7 @@
       <c r="E427" s="55"/>
       <c r="F427" s="26"/>
     </row>
-    <row r="428" spans="1:6">
+    <row r="428" spans="1:6" ht="31.5">
       <c r="A428" s="3" t="s">
         <v>58</v>
       </c>
@@ -14934,7 +14953,7 @@
       <c r="E430" s="55"/>
       <c r="F430" s="21"/>
     </row>
-    <row r="431" spans="1:6">
+    <row r="431" spans="1:6" ht="31.5">
       <c r="A431" s="3" t="s">
         <v>58</v>
       </c>
@@ -14984,7 +15003,7 @@
       <c r="E433" s="55"/>
       <c r="F433" s="7"/>
     </row>
-    <row r="434" spans="1:6">
+    <row r="434" spans="1:6" ht="31.5">
       <c r="A434" s="3" t="s">
         <v>58</v>
       </c>
@@ -15000,187 +15019,204 @@
       <c r="E434" s="55"/>
       <c r="F434" s="7"/>
     </row>
-    <row r="435" spans="1:6" ht="31.5">
+    <row r="435" spans="1:6">
       <c r="A435" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B435" s="3" t="s">
+      <c r="B435" s="40" t="s">
         <v>774</v>
       </c>
-      <c r="C435" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="D435" s="3" t="s">
-        <v>589</v>
-      </c>
+      <c r="C435" s="40" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D435" s="3"/>
       <c r="E435" s="55"/>
       <c r="F435" s="7"/>
     </row>
-    <row r="436" spans="1:6">
+    <row r="436" spans="1:6" ht="63">
       <c r="A436" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B436" s="3" t="s">
-        <v>774</v>
+      <c r="B436" s="40" t="s">
+        <v>1149</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>728</v>
+        <v>589</v>
       </c>
       <c r="E436" s="55"/>
       <c r="F436" s="7"/>
     </row>
-    <row r="437" spans="1:6">
+    <row r="437" spans="1:6" ht="31.5">
       <c r="A437" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B437" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="C437" s="13" t="s">
-        <v>624</v>
-      </c>
-      <c r="D437" s="3"/>
+      <c r="B437" s="40" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C437" s="40" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>728</v>
+      </c>
       <c r="E437" s="55"/>
-      <c r="F437" s="21"/>
+      <c r="F437" s="7"/>
     </row>
     <row r="438" spans="1:6">
       <c r="A438" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="C438" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="D438" s="3" t="s">
-        <v>600</v>
-      </c>
+        <v>777</v>
+      </c>
+      <c r="C438" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="D438" s="3"/>
       <c r="E438" s="55"/>
-      <c r="F438" s="26" t="s">
-        <v>1123</v>
-      </c>
+      <c r="F438" s="21"/>
     </row>
     <row r="439" spans="1:6">
       <c r="A439" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="C439" s="45" t="s">
-        <v>628</v>
-      </c>
-      <c r="D439" s="41" t="s">
-        <v>1122</v>
-      </c>
-      <c r="E439" s="54" t="s">
-        <v>1122</v>
-      </c>
-      <c r="F439" s="7"/>
+        <v>778</v>
+      </c>
+      <c r="C439" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E439" s="55"/>
+      <c r="F439" s="26" t="s">
+        <v>1123</v>
+      </c>
     </row>
     <row r="440" spans="1:6">
       <c r="A440" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="C440" s="13" t="s">
-        <v>630</v>
-      </c>
-      <c r="D440" s="3"/>
-      <c r="E440" s="55"/>
-      <c r="F440" s="21"/>
+        <v>779</v>
+      </c>
+      <c r="C440" s="45" t="s">
+        <v>628</v>
+      </c>
+      <c r="D440" s="41" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E440" s="54" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F440" s="7"/>
     </row>
     <row r="441" spans="1:6">
       <c r="A441" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="C441" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="D441" s="3" t="s">
-        <v>594</v>
-      </c>
+        <v>780</v>
+      </c>
+      <c r="C441" s="13" t="s">
+        <v>630</v>
+      </c>
+      <c r="D441" s="3"/>
       <c r="E441" s="55"/>
-      <c r="F441" s="8" t="s">
-        <v>1124</v>
-      </c>
+      <c r="F441" s="21"/>
     </row>
     <row r="442" spans="1:6">
       <c r="A442" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B442" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="C442" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E442" s="55"/>
+      <c r="F442" s="8" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" ht="31.5">
+      <c r="A443" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B443" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="C442" s="5" t="s">
+      <c r="C443" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="D442" s="3" t="s">
+      <c r="D443" s="3" t="s">
         <v>597</v>
-      </c>
-      <c r="E442" s="55"/>
-      <c r="F442" s="5"/>
-    </row>
-    <row r="443" spans="1:6">
-      <c r="A443" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B443" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="C443" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="D443" s="3" t="s">
-        <v>600</v>
       </c>
       <c r="E443" s="55"/>
       <c r="F443" s="5"/>
     </row>
-    <row r="444" spans="1:6">
+    <row r="444" spans="1:6" ht="31.5">
       <c r="A444" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="C444" s="3" t="s">
-        <v>637</v>
+        <v>783</v>
+      </c>
+      <c r="C444" s="5" t="s">
+        <v>635</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>1128</v>
+        <v>600</v>
       </c>
       <c r="E444" s="55"/>
-      <c r="F444" s="3"/>
+      <c r="F444" s="5"/>
     </row>
     <row r="445" spans="1:6">
       <c r="A445" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="C445" s="45" t="s">
-        <v>639</v>
-      </c>
-      <c r="D445" s="40" t="s">
-        <v>1125</v>
+        <v>784</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>1128</v>
       </c>
       <c r="E445" s="55"/>
       <c r="F445" s="3"/>
+    </row>
+    <row r="446" spans="1:6" ht="31.5">
+      <c r="A446" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="C446" s="45" t="s">
+        <v>639</v>
+      </c>
+      <c r="D446" s="40" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E446" s="55"/>
+      <c r="F446" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B2" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -15189,7 +15225,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -15336,7 +15374,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -16189,7 +16227,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:IV49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
@@ -18643,7 +18681,7 @@
       <c r="F7" s="31" t="s">
         <v>794</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="63" t="s">
         <v>1143</v>
       </c>
     </row>
@@ -18883,7 +18921,7 @@
       <c r="F19" s="31" t="s">
         <v>794</v>
       </c>
-      <c r="G19" s="64" t="s">
+      <c r="G19" s="63" t="s">
         <v>1144</v>
       </c>
     </row>

--- a/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E996C71-E3FB-4905-B417-775788BAF33F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388FEA9C-C941-4A64-ADBD-A5FCF51136F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="120" windowWidth="25815" windowHeight="15975" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6270" yWindow="0" windowWidth="20970" windowHeight="16830" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3330" uniqueCount="1152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="1151">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3275,9 +3275,6 @@
     <t>Confirm that expiration of certificate is not later than expiration of card</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>Number of years the card is valid.  Test cards expired on 12/2/2032.</t>
   </si>
   <si>
@@ -3452,12 +3449,6 @@
     <t>PKIX_Test_26</t>
   </si>
   <si>
-    <t>Issue #62 (76.47)</t>
-  </si>
-  <si>
-    <t>Issue #63 (PKIX.24)</t>
-  </si>
-  <si>
     <t>The BDB Format Type is set to a value of 0x0501</t>
   </si>
   <si>
@@ -3489,6 +3480,12 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>Issue #63</t>
+  </si>
+  <si>
+    <t>Issue #62</t>
   </si>
 </sst>
 </file>
@@ -3603,7 +3600,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3676,12 +3673,6 @@
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -3739,7 +3730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3805,9 +3796,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3900,9 +3888,6 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3928,9 +3913,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4334,8 +4316,8 @@
     <col min="2" max="2" width="57.375" style="4" customWidth="1"/>
     <col min="3" max="5" width="10.5" style="4" customWidth="1"/>
     <col min="6" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="28" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="28"/>
+    <col min="257" max="1025" width="8.875" style="27" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.100000000000001" customHeight="1">
@@ -4721,9 +4703,9 @@
       <c r="B48" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
     </row>
     <row r="49" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A49" s="3" t="s">
@@ -4732,9 +4714,9 @@
       <c r="B49" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
     </row>
     <row r="50" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="3" t="s">
@@ -4743,9 +4725,9 @@
       <c r="B50" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
     </row>
     <row r="51" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="3" t="s">
@@ -4754,9 +4736,9 @@
       <c r="B51" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
     </row>
     <row r="52" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="3" t="s">
@@ -4765,9 +4747,9 @@
       <c r="B52" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
     </row>
     <row r="53" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A53" s="3">
@@ -4776,9 +4758,9 @@
       <c r="B53" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
     </row>
     <row r="54" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A54" s="3" t="s">
@@ -4787,9 +4769,9 @@
       <c r="B54" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
     </row>
     <row r="55" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A55" s="3" t="s">
@@ -4798,9 +4780,9 @@
       <c r="B55" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
     </row>
     <row r="56" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A56" s="3" t="s">
@@ -4809,9 +4791,9 @@
       <c r="B56" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
     </row>
     <row r="57" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A57" s="3" t="s">
@@ -4820,9 +4802,9 @@
       <c r="B57" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
     </row>
     <row r="58" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A58" s="3" t="s">
@@ -4831,9 +4813,9 @@
       <c r="B58" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
     </row>
     <row r="59" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A59" s="3" t="s">
@@ -4842,9 +4824,9 @@
       <c r="B59" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
     </row>
     <row r="60" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A60" s="3" t="s">
@@ -4853,9 +4835,9 @@
       <c r="B60" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
     </row>
     <row r="61" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A61" s="3" t="s">
@@ -4864,9 +4846,9 @@
       <c r="B61" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
     </row>
     <row r="62" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A62" s="3" t="s">
@@ -4875,9 +4857,9 @@
       <c r="B62" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
     </row>
     <row r="63" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A63" s="3" t="s">
@@ -4886,9 +4868,9 @@
       <c r="B63" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
     </row>
     <row r="64" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A64" s="3">
@@ -4897,9 +4879,9 @@
       <c r="B64" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
     </row>
     <row r="65" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A65" s="3" t="s">
@@ -4908,9 +4890,9 @@
       <c r="B65" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
     </row>
     <row r="66" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A66" s="3" t="s">
@@ -4919,9 +4901,9 @@
       <c r="B66" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
     </row>
     <row r="67" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A67" s="3" t="s">
@@ -4930,9 +4912,9 @@
       <c r="B67" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
     </row>
     <row r="68" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A68" s="3" t="s">
@@ -4941,9 +4923,9 @@
       <c r="B68" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
     </row>
     <row r="69" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A69" s="3" t="s">
@@ -4952,9 +4934,9 @@
       <c r="B69" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
     </row>
     <row r="70" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A70" s="3" t="s">
@@ -4963,9 +4945,9 @@
       <c r="B70" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="3" t="s">
@@ -7952,7 +7934,7 @@
       </c>
     </row>
     <row r="444" spans="1:2">
-      <c r="A444" s="40" t="s">
+      <c r="A444" s="39" t="s">
         <v>779</v>
       </c>
       <c r="B444" s="12" t="s">
@@ -8022,8 +8004,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C436" sqref="C436"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -8032,46 +8014,46 @@
     <col min="2" max="2" width="12" style="4" customWidth="1"/>
     <col min="3" max="3" width="43.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.125" style="53" customWidth="1"/>
+    <col min="5" max="5" width="24.125" style="52" customWidth="1"/>
     <col min="6" max="6" width="84.625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9" style="67"/>
-    <col min="8" max="1026" width="8.5" style="28" customWidth="1"/>
-    <col min="1027" max="16384" width="9" style="28"/>
+    <col min="7" max="7" width="9" style="64"/>
+    <col min="8" max="1026" width="8.5" style="27" customWidth="1"/>
+    <col min="1027" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="62" customFormat="1" ht="18.75">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:7" s="60" customFormat="1" ht="18.75">
+      <c r="A1" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="66"/>
+      <c r="G1" s="63"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="57"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="55"/>
       <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:7">
@@ -8084,8 +8066,8 @@
       <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="58"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="56"/>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:7" ht="31.5">
@@ -8101,7 +8083,7 @@
       <c r="D4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="55"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="3" t="s">
         <v>61</v>
       </c>
@@ -8119,7 +8101,7 @@
       <c r="D5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="55"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:7">
@@ -8135,7 +8117,7 @@
       <c r="D6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="53"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="31.5">
@@ -8151,7 +8133,7 @@
       <c r="D7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="55"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="31.5">
@@ -8167,7 +8149,7 @@
       <c r="D8" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="55"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:7">
@@ -8183,7 +8165,7 @@
       <c r="D9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="55"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="31.5">
@@ -8199,7 +8181,7 @@
       <c r="D10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="55"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="47.25">
@@ -8215,7 +8197,7 @@
       <c r="D11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="55"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="31.5">
@@ -8231,7 +8213,7 @@
       <c r="D12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="55"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="31.5">
@@ -8247,7 +8229,7 @@
       <c r="D13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="55"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:7">
@@ -8263,7 +8245,7 @@
       <c r="D14" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="55"/>
+      <c r="E14" s="53"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:7">
@@ -8599,7 +8581,7 @@
       <c r="D35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="55"/>
+      <c r="E35" s="53"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="31.5">
@@ -8615,7 +8597,7 @@
       <c r="D36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="55"/>
+      <c r="E36" s="53"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6">
@@ -8631,7 +8613,7 @@
       <c r="D37" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E37" s="55"/>
+      <c r="E37" s="53"/>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6">
@@ -8647,7 +8629,7 @@
       <c r="D38" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E38" s="55"/>
+      <c r="E38" s="53"/>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" ht="31.5">
@@ -8663,7 +8645,7 @@
       <c r="D39" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E39" s="55"/>
+      <c r="E39" s="53"/>
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" ht="31.5">
@@ -8679,7 +8661,7 @@
       <c r="D40" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E40" s="55"/>
+      <c r="E40" s="53"/>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" ht="31.5">
@@ -8695,7 +8677,7 @@
       <c r="D41" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E41" s="55"/>
+      <c r="E41" s="53"/>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6">
@@ -8711,7 +8693,7 @@
       <c r="D42" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="55"/>
+      <c r="E42" s="53"/>
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6">
@@ -8725,7 +8707,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="55"/>
+      <c r="E43" s="53"/>
       <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6" ht="31.5">
@@ -8741,7 +8723,7 @@
       <c r="D44" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="55"/>
+      <c r="E44" s="53"/>
       <c r="F44" s="3" t="s">
         <v>158</v>
       </c>
@@ -8759,7 +8741,7 @@
       <c r="D45" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="55"/>
+      <c r="E45" s="53"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6">
@@ -8775,7 +8757,7 @@
       <c r="D46" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="55"/>
+      <c r="E46" s="53"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" ht="31.5">
@@ -8791,7 +8773,7 @@
       <c r="D47" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="55"/>
+      <c r="E47" s="53"/>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6">
@@ -8807,7 +8789,7 @@
       <c r="D48" s="3">
         <v>76.239999999999995</v>
       </c>
-      <c r="E48" s="55"/>
+      <c r="E48" s="53"/>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" ht="31.5">
@@ -8823,7 +8805,7 @@
       <c r="D49" s="3">
         <v>76.25</v>
       </c>
-      <c r="E49" s="55"/>
+      <c r="E49" s="53"/>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" ht="31.5">
@@ -8839,7 +8821,7 @@
       <c r="D50" s="3">
         <v>76.260000000000005</v>
       </c>
-      <c r="E50" s="55"/>
+      <c r="E50" s="53"/>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" ht="31.5">
@@ -8855,7 +8837,7 @@
       <c r="D51" s="3">
         <v>76.23</v>
       </c>
-      <c r="E51" s="55"/>
+      <c r="E51" s="53"/>
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6">
@@ -8871,7 +8853,7 @@
       <c r="D52" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E52" s="55"/>
+      <c r="E52" s="53"/>
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6">
@@ -8885,7 +8867,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="3"/>
-      <c r="E53" s="55"/>
+      <c r="E53" s="53"/>
       <c r="F53" s="10"/>
     </row>
     <row r="54" spans="1:6" ht="31.5">
@@ -8901,7 +8883,7 @@
       <c r="D54" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E54" s="55"/>
+      <c r="E54" s="53"/>
       <c r="F54" s="3" t="s">
         <v>169</v>
       </c>
@@ -8919,7 +8901,7 @@
       <c r="D55" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E55" s="55"/>
+      <c r="E55" s="53"/>
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6">
@@ -8935,7 +8917,7 @@
       <c r="D56" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E56" s="55"/>
+      <c r="E56" s="53"/>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" ht="31.5">
@@ -8951,7 +8933,7 @@
       <c r="D57" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E57" s="55"/>
+      <c r="E57" s="53"/>
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6">
@@ -8964,12 +8946,10 @@
       <c r="C58" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D58" s="41" t="s">
+      <c r="D58" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="E58" s="64" t="s">
-        <v>175</v>
-      </c>
+      <c r="E58" s="62"/>
       <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:6" ht="31.5">
@@ -8985,7 +8965,7 @@
       <c r="D59" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E59" s="55"/>
+      <c r="E59" s="53"/>
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:6" ht="31.5">
@@ -9001,7 +8981,7 @@
       <c r="D60" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E60" s="55"/>
+      <c r="E60" s="53"/>
       <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" ht="31.5">
@@ -9017,7 +8997,7 @@
       <c r="D61" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E61" s="55"/>
+      <c r="E61" s="53"/>
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:6" ht="31.5">
@@ -9033,7 +9013,7 @@
       <c r="D62" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E62" s="55"/>
+      <c r="E62" s="53"/>
       <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6">
@@ -9049,7 +9029,7 @@
       <c r="D63" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E63" s="55"/>
+      <c r="E63" s="53"/>
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6">
@@ -9063,7 +9043,7 @@
         <v>6</v>
       </c>
       <c r="D64" s="3"/>
-      <c r="E64" s="55"/>
+      <c r="E64" s="53"/>
       <c r="F64" s="10"/>
     </row>
     <row r="65" spans="1:6" ht="31.5">
@@ -9079,7 +9059,7 @@
       <c r="D65" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E65" s="55"/>
+      <c r="E65" s="53"/>
       <c r="F65" s="3" t="s">
         <v>191</v>
       </c>
@@ -9097,7 +9077,7 @@
       <c r="D66" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E66" s="55"/>
+      <c r="E66" s="53"/>
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6">
@@ -9113,7 +9093,7 @@
       <c r="D67" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E67" s="55"/>
+      <c r="E67" s="53"/>
       <c r="F67" s="3"/>
     </row>
     <row r="68" spans="1:6" ht="31.5">
@@ -9129,7 +9109,7 @@
       <c r="D68" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E68" s="55"/>
+      <c r="E68" s="53"/>
       <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:6" ht="31.5">
@@ -9145,7 +9125,7 @@
       <c r="D69" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E69" s="55"/>
+      <c r="E69" s="53"/>
       <c r="F69" s="3"/>
     </row>
     <row r="70" spans="1:6" ht="31.5">
@@ -9161,7 +9141,7 @@
       <c r="D70" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E70" s="55"/>
+      <c r="E70" s="53"/>
       <c r="F70" s="3"/>
     </row>
     <row r="71" spans="1:6">
@@ -9177,7 +9157,7 @@
       <c r="D71" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E71" s="55"/>
+      <c r="E71" s="53"/>
       <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:6">
@@ -9193,7 +9173,7 @@
       <c r="D72" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E72" s="55"/>
+      <c r="E72" s="53"/>
       <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:6">
@@ -9207,7 +9187,7 @@
         <v>7</v>
       </c>
       <c r="D73" s="3"/>
-      <c r="E73" s="55"/>
+      <c r="E73" s="53"/>
       <c r="F73" s="10"/>
     </row>
     <row r="74" spans="1:6" ht="31.5">
@@ -9223,7 +9203,7 @@
       <c r="D74" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E74" s="55"/>
+      <c r="E74" s="53"/>
       <c r="F74" s="3" t="s">
         <v>207</v>
       </c>
@@ -9241,7 +9221,7 @@
       <c r="D75" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E75" s="55"/>
+      <c r="E75" s="53"/>
       <c r="F75" s="3"/>
     </row>
     <row r="76" spans="1:6">
@@ -9257,7 +9237,7 @@
       <c r="D76" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E76" s="55"/>
+      <c r="E76" s="53"/>
       <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:6" ht="31.5">
@@ -9273,7 +9253,7 @@
       <c r="D77" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E77" s="55"/>
+      <c r="E77" s="53"/>
       <c r="F77" s="3"/>
     </row>
     <row r="78" spans="1:6">
@@ -9289,7 +9269,7 @@
       <c r="D78" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E78" s="55"/>
+      <c r="E78" s="53"/>
       <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:6">
@@ -9305,7 +9285,7 @@
       <c r="D79" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E79" s="55"/>
+      <c r="E79" s="53"/>
       <c r="F79" s="3"/>
     </row>
     <row r="80" spans="1:6" ht="31.5">
@@ -9321,7 +9301,7 @@
       <c r="D80" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E80" s="55"/>
+      <c r="E80" s="53"/>
       <c r="F80" s="3"/>
     </row>
     <row r="81" spans="1:6" ht="31.5">
@@ -9337,7 +9317,7 @@
       <c r="D81" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E81" s="55"/>
+      <c r="E81" s="53"/>
       <c r="F81" s="3"/>
     </row>
     <row r="82" spans="1:6" ht="31.5">
@@ -9353,7 +9333,7 @@
       <c r="D82" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E82" s="55"/>
+      <c r="E82" s="53"/>
       <c r="F82" s="3"/>
     </row>
     <row r="83" spans="1:6">
@@ -9369,7 +9349,7 @@
       <c r="D83" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E83" s="55"/>
+      <c r="E83" s="53"/>
       <c r="F83" s="3"/>
     </row>
     <row r="84" spans="1:6">
@@ -9383,7 +9363,7 @@
         <v>8</v>
       </c>
       <c r="D84" s="3"/>
-      <c r="E84" s="55"/>
+      <c r="E84" s="53"/>
       <c r="F84" s="10"/>
     </row>
     <row r="85" spans="1:6" ht="31.5">
@@ -9399,7 +9379,7 @@
       <c r="D85" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E85" s="55"/>
+      <c r="E85" s="53"/>
       <c r="F85" s="3" t="s">
         <v>219</v>
       </c>
@@ -9417,7 +9397,7 @@
       <c r="D86" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E86" s="55"/>
+      <c r="E86" s="53"/>
       <c r="F86" s="3"/>
     </row>
     <row r="87" spans="1:6">
@@ -9433,7 +9413,7 @@
       <c r="D87" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E87" s="55"/>
+      <c r="E87" s="53"/>
       <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6" ht="31.5">
@@ -9449,7 +9429,7 @@
       <c r="D88" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E88" s="55"/>
+      <c r="E88" s="53"/>
       <c r="F88" s="3"/>
     </row>
     <row r="89" spans="1:6">
@@ -9465,7 +9445,7 @@
       <c r="D89" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E89" s="55"/>
+      <c r="E89" s="53"/>
       <c r="F89" s="3"/>
     </row>
     <row r="90" spans="1:6">
@@ -9481,7 +9461,7 @@
       <c r="D90" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E90" s="55"/>
+      <c r="E90" s="53"/>
       <c r="F90" s="3"/>
     </row>
     <row r="91" spans="1:6" ht="31.5">
@@ -9497,7 +9477,7 @@
       <c r="D91" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E91" s="55"/>
+      <c r="E91" s="53"/>
       <c r="F91" s="3"/>
     </row>
     <row r="92" spans="1:6" ht="31.5">
@@ -9513,7 +9493,7 @@
       <c r="D92" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E92" s="55"/>
+      <c r="E92" s="53"/>
       <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:6" ht="31.5">
@@ -9529,7 +9509,7 @@
       <c r="D93" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E93" s="55"/>
+      <c r="E93" s="53"/>
       <c r="F93" s="3"/>
     </row>
     <row r="94" spans="1:6">
@@ -9545,7 +9525,7 @@
       <c r="D94" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E94" s="55"/>
+      <c r="E94" s="53"/>
       <c r="F94" s="3"/>
     </row>
     <row r="95" spans="1:6">
@@ -9559,7 +9539,7 @@
         <v>9</v>
       </c>
       <c r="D95" s="3"/>
-      <c r="E95" s="55"/>
+      <c r="E95" s="53"/>
       <c r="F95" s="10"/>
     </row>
     <row r="96" spans="1:6" ht="31.5">
@@ -9575,7 +9555,7 @@
       <c r="D96" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E96" s="55"/>
+      <c r="E96" s="53"/>
       <c r="F96" s="3" t="s">
         <v>136</v>
       </c>
@@ -9593,7 +9573,7 @@
       <c r="D97" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E97" s="55"/>
+      <c r="E97" s="53"/>
       <c r="F97" s="3"/>
     </row>
     <row r="98" spans="1:6">
@@ -9609,7 +9589,7 @@
       <c r="D98" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E98" s="55"/>
+      <c r="E98" s="53"/>
       <c r="F98" s="3"/>
     </row>
     <row r="99" spans="1:6" ht="31.5">
@@ -9625,7 +9605,7 @@
       <c r="D99" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E99" s="55"/>
+      <c r="E99" s="53"/>
       <c r="F99" s="3"/>
     </row>
     <row r="100" spans="1:6">
@@ -9641,7 +9621,7 @@
       <c r="D100" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E100" s="55"/>
+      <c r="E100" s="53"/>
       <c r="F100" s="3"/>
     </row>
     <row r="101" spans="1:6">
@@ -9657,7 +9637,7 @@
       <c r="D101" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E101" s="55"/>
+      <c r="E101" s="53"/>
       <c r="F101" s="3"/>
     </row>
     <row r="102" spans="1:6" ht="31.5">
@@ -9673,7 +9653,7 @@
       <c r="D102" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E102" s="55"/>
+      <c r="E102" s="53"/>
       <c r="F102" s="3"/>
     </row>
     <row r="103" spans="1:6" ht="31.5">
@@ -9689,7 +9669,7 @@
       <c r="D103" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E103" s="55"/>
+      <c r="E103" s="53"/>
       <c r="F103" s="3"/>
     </row>
     <row r="104" spans="1:6" ht="31.5">
@@ -9705,7 +9685,7 @@
       <c r="D104" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E104" s="55"/>
+      <c r="E104" s="53"/>
       <c r="F104" s="3"/>
     </row>
     <row r="105" spans="1:6">
@@ -9721,7 +9701,7 @@
       <c r="D105" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E105" s="55"/>
+      <c r="E105" s="53"/>
       <c r="F105" s="3"/>
     </row>
     <row r="106" spans="1:6">
@@ -9735,7 +9715,7 @@
         <v>10</v>
       </c>
       <c r="D106" s="3"/>
-      <c r="E106" s="55"/>
+      <c r="E106" s="53"/>
       <c r="F106" s="10"/>
     </row>
     <row r="107" spans="1:6" ht="31.5">
@@ -9751,7 +9731,7 @@
       <c r="D107" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E107" s="55"/>
+      <c r="E107" s="53"/>
       <c r="F107" s="3" t="s">
         <v>242</v>
       </c>
@@ -9769,7 +9749,7 @@
       <c r="D108" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E108" s="55"/>
+      <c r="E108" s="53"/>
       <c r="F108" s="3"/>
     </row>
     <row r="109" spans="1:6">
@@ -9785,7 +9765,7 @@
       <c r="D109" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E109" s="55"/>
+      <c r="E109" s="53"/>
       <c r="F109" s="3"/>
     </row>
     <row r="110" spans="1:6" ht="31.5">
@@ -9801,7 +9781,7 @@
       <c r="D110" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E110" s="55"/>
+      <c r="E110" s="53"/>
       <c r="F110" s="3"/>
     </row>
     <row r="111" spans="1:6">
@@ -9817,7 +9797,7 @@
       <c r="D111" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="E111" s="55"/>
+      <c r="E111" s="53"/>
       <c r="F111" s="3"/>
     </row>
     <row r="112" spans="1:6">
@@ -9833,7 +9813,7 @@
       <c r="D112" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E112" s="55"/>
+      <c r="E112" s="53"/>
       <c r="F112" s="3"/>
     </row>
     <row r="113" spans="1:6">
@@ -9849,7 +9829,7 @@
       <c r="D113" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E113" s="55"/>
+      <c r="E113" s="53"/>
       <c r="F113" s="3"/>
     </row>
     <row r="114" spans="1:6" ht="47.25">
@@ -9865,7 +9845,7 @@
       <c r="D114" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E114" s="55"/>
+      <c r="E114" s="53"/>
       <c r="F114" s="3"/>
     </row>
     <row r="115" spans="1:6">
@@ -9879,7 +9859,7 @@
         <v>11</v>
       </c>
       <c r="D115" s="3"/>
-      <c r="E115" s="55"/>
+      <c r="E115" s="53"/>
       <c r="F115" s="10"/>
     </row>
     <row r="116" spans="1:6" ht="28.5">
@@ -9895,7 +9875,7 @@
       <c r="D116" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E116" s="55" t="s">
+      <c r="E116" s="53" t="s">
         <v>261</v>
       </c>
       <c r="F116" s="3" t="s">
@@ -9915,7 +9895,7 @@
       <c r="D117" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E117" s="55" t="s">
+      <c r="E117" s="53" t="s">
         <v>261</v>
       </c>
       <c r="F117" s="11"/>
@@ -9933,7 +9913,7 @@
       <c r="D118" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E118" s="55" t="s">
+      <c r="E118" s="53" t="s">
         <v>261</v>
       </c>
       <c r="F118" s="11"/>
@@ -9951,7 +9931,7 @@
       <c r="D119" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E119" s="55" t="s">
+      <c r="E119" s="53" t="s">
         <v>261</v>
       </c>
       <c r="F119" s="11"/>
@@ -9969,7 +9949,7 @@
       <c r="D120" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="E120" s="55" t="s">
+      <c r="E120" s="53" t="s">
         <v>261</v>
       </c>
       <c r="F120" s="11"/>
@@ -9987,7 +9967,7 @@
       <c r="D121" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="E121" s="55" t="s">
+      <c r="E121" s="53" t="s">
         <v>261</v>
       </c>
       <c r="F121" s="3"/>
@@ -10002,10 +9982,10 @@
       <c r="C122" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D122" s="40" t="s">
+      <c r="D122" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="E122" s="55" t="s">
+      <c r="E122" s="53" t="s">
         <v>261</v>
       </c>
       <c r="F122" s="3"/>
@@ -10023,7 +10003,7 @@
       <c r="D123" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="E123" s="55" t="s">
+      <c r="E123" s="53" t="s">
         <v>261</v>
       </c>
       <c r="F123" s="3"/>
@@ -10041,7 +10021,7 @@
       <c r="D124" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="E124" s="55"/>
+      <c r="E124" s="53"/>
       <c r="F124" s="3"/>
     </row>
     <row r="125" spans="1:6">
@@ -10057,7 +10037,7 @@
       <c r="D125" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E125" s="55"/>
+      <c r="E125" s="53"/>
       <c r="F125" s="3"/>
     </row>
     <row r="126" spans="1:6">
@@ -10071,7 +10051,7 @@
         <v>12</v>
       </c>
       <c r="D126" s="11"/>
-      <c r="E126" s="55" t="s">
+      <c r="E126" s="53" t="s">
         <v>282</v>
       </c>
       <c r="F126" s="10"/>
@@ -10087,7 +10067,7 @@
         <v>13</v>
       </c>
       <c r="D127" s="3"/>
-      <c r="E127" s="55" t="s">
+      <c r="E127" s="53" t="s">
         <v>282</v>
       </c>
       <c r="F127" s="10"/>
@@ -10105,7 +10085,7 @@
       <c r="D128" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="E128" s="55" t="s">
+      <c r="E128" s="53" t="s">
         <v>284</v>
       </c>
       <c r="F128" s="3" t="s">
@@ -10125,7 +10105,7 @@
       <c r="D129" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="E129" s="55" t="s">
+      <c r="E129" s="53" t="s">
         <v>284</v>
       </c>
       <c r="F129" s="7" t="s">
@@ -10145,7 +10125,7 @@
       <c r="D130" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="E130" s="55" t="s">
+      <c r="E130" s="53" t="s">
         <v>287</v>
       </c>
       <c r="F130" s="7" t="s">
@@ -10163,7 +10143,7 @@
         <v>16</v>
       </c>
       <c r="D131" s="11"/>
-      <c r="E131" s="55" t="s">
+      <c r="E131" s="53" t="s">
         <v>282</v>
       </c>
       <c r="F131" s="18"/>
@@ -10179,7 +10159,7 @@
         <v>17</v>
       </c>
       <c r="D132" s="11"/>
-      <c r="E132" s="55" t="s">
+      <c r="E132" s="53" t="s">
         <v>282</v>
       </c>
       <c r="F132" s="18"/>
@@ -10195,7 +10175,7 @@
         <v>18</v>
       </c>
       <c r="D133" s="11"/>
-      <c r="E133" s="55" t="s">
+      <c r="E133" s="53" t="s">
         <v>282</v>
       </c>
       <c r="F133" s="18"/>
@@ -10211,7 +10191,7 @@
         <v>19</v>
       </c>
       <c r="D134" s="3"/>
-      <c r="E134" s="59"/>
+      <c r="E134" s="57"/>
       <c r="F134" s="9"/>
     </row>
     <row r="135" spans="1:6">
@@ -10225,7 +10205,7 @@
         <v>20</v>
       </c>
       <c r="D135" s="3"/>
-      <c r="E135" s="55"/>
+      <c r="E135" s="53"/>
       <c r="F135" s="10"/>
     </row>
     <row r="136" spans="1:6">
@@ -10239,7 +10219,7 @@
         <v>21</v>
       </c>
       <c r="D136" s="3"/>
-      <c r="E136" s="55"/>
+      <c r="E136" s="53"/>
       <c r="F136" s="18"/>
     </row>
     <row r="137" spans="1:6" ht="31.5">
@@ -10255,7 +10235,7 @@
       <c r="D137" s="3">
         <v>76.099999999999994</v>
       </c>
-      <c r="E137" s="55"/>
+      <c r="E137" s="53"/>
       <c r="F137" s="3" t="s">
         <v>291</v>
       </c>
@@ -10273,7 +10253,7 @@
       <c r="D138" s="3">
         <v>76.2</v>
       </c>
-      <c r="E138" s="55"/>
+      <c r="E138" s="53"/>
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="1:6">
@@ -10289,7 +10269,7 @@
       <c r="D139" s="3">
         <v>76.3</v>
       </c>
-      <c r="E139" s="55"/>
+      <c r="E139" s="53"/>
       <c r="F139" s="3"/>
     </row>
     <row r="140" spans="1:6">
@@ -10305,7 +10285,7 @@
       <c r="D140" s="3">
         <v>76.400000000000006</v>
       </c>
-      <c r="E140" s="55"/>
+      <c r="E140" s="53"/>
       <c r="F140" s="3"/>
     </row>
     <row r="141" spans="1:6">
@@ -10319,7 +10299,7 @@
         <v>22</v>
       </c>
       <c r="D141" s="3"/>
-      <c r="E141" s="55"/>
+      <c r="E141" s="53"/>
       <c r="F141" s="18"/>
     </row>
     <row r="142" spans="1:6" ht="31.5">
@@ -10335,7 +10315,7 @@
       <c r="D142" s="3">
         <v>76.5</v>
       </c>
-      <c r="E142" s="55"/>
+      <c r="E142" s="53"/>
       <c r="F142" s="3" t="s">
         <v>301</v>
       </c>
@@ -10353,7 +10333,7 @@
       <c r="D143" s="3">
         <v>76.599999999999994</v>
       </c>
-      <c r="E143" s="55"/>
+      <c r="E143" s="53"/>
       <c r="F143" s="3"/>
     </row>
     <row r="144" spans="1:6" ht="47.25">
@@ -10369,7 +10349,7 @@
       <c r="D144" s="3">
         <v>76.7</v>
       </c>
-      <c r="E144" s="55"/>
+      <c r="E144" s="53"/>
       <c r="F144" s="3"/>
     </row>
     <row r="145" spans="1:6">
@@ -10379,15 +10359,13 @@
       <c r="B145" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C145" s="40" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D145" s="41" t="s">
+      <c r="C145" s="39" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D145" s="45" t="s">
         <v>958</v>
       </c>
-      <c r="E145" s="54">
-        <v>76.38</v>
-      </c>
+      <c r="E145" s="62"/>
       <c r="F145" s="3"/>
     </row>
     <row r="146" spans="1:6" ht="47.25">
@@ -10400,10 +10378,10 @@
       <c r="C146" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D146" s="3">
+      <c r="D146" s="44">
         <v>76.39</v>
       </c>
-      <c r="E146" s="55"/>
+      <c r="E146" s="62"/>
       <c r="F146" s="3"/>
     </row>
     <row r="147" spans="1:6" ht="31.5">
@@ -10416,10 +10394,10 @@
       <c r="C147" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D147" s="44">
         <v>76.400000000000006</v>
       </c>
-      <c r="E147" s="55"/>
+      <c r="E147" s="62"/>
       <c r="F147" s="3"/>
     </row>
     <row r="148" spans="1:6" ht="31.5">
@@ -10432,12 +10410,10 @@
       <c r="C148" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D148" s="54">
+      <c r="D148" s="62">
         <v>76.41</v>
       </c>
-      <c r="E148" s="54">
-        <v>76.41</v>
-      </c>
+      <c r="E148" s="62"/>
       <c r="F148" s="3"/>
     </row>
     <row r="149" spans="1:6" ht="63">
@@ -10450,12 +10426,10 @@
       <c r="C149" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D149" s="54">
+      <c r="D149" s="62">
         <v>76.42</v>
       </c>
-      <c r="E149" s="54">
-        <v>76.42</v>
-      </c>
+      <c r="E149" s="62"/>
       <c r="F149" s="3"/>
     </row>
     <row r="150" spans="1:6">
@@ -10468,13 +10442,11 @@
       <c r="C150" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D150" s="54">
+      <c r="D150" s="62">
         <v>76.430000000000007</v>
       </c>
-      <c r="E150" s="54">
-        <v>76.430000000000007</v>
-      </c>
-      <c r="F150" s="40"/>
+      <c r="E150" s="62"/>
+      <c r="F150" s="39"/>
     </row>
     <row r="151" spans="1:6" ht="78.75">
       <c r="A151" s="3" t="s">
@@ -10489,7 +10461,7 @@
       <c r="D151" s="3">
         <v>76.44</v>
       </c>
-      <c r="E151" s="55"/>
+      <c r="E151" s="53"/>
       <c r="F151" s="3"/>
     </row>
     <row r="152" spans="1:6" ht="47.25">
@@ -10505,7 +10477,7 @@
       <c r="D152" s="3">
         <v>76.45</v>
       </c>
-      <c r="E152" s="55"/>
+      <c r="E152" s="53"/>
       <c r="F152" s="3"/>
     </row>
     <row r="153" spans="1:6" ht="31.5">
@@ -10521,7 +10493,7 @@
       <c r="D153" s="3">
         <v>76.459999999999994</v>
       </c>
-      <c r="E153" s="55"/>
+      <c r="E153" s="53"/>
       <c r="F153" s="3"/>
     </row>
     <row r="154" spans="1:6">
@@ -10535,7 +10507,7 @@
         <v>23</v>
       </c>
       <c r="D154" s="3"/>
-      <c r="E154" s="55"/>
+      <c r="E154" s="53"/>
       <c r="F154" s="14"/>
     </row>
     <row r="155" spans="1:6">
@@ -10549,7 +10521,7 @@
         <v>24</v>
       </c>
       <c r="D155" s="3"/>
-      <c r="E155" s="55"/>
+      <c r="E155" s="53"/>
       <c r="F155" s="18"/>
     </row>
     <row r="156" spans="1:6" ht="31.5">
@@ -10565,7 +10537,7 @@
       <c r="D156" s="3">
         <v>76.099999999999994</v>
       </c>
-      <c r="E156" s="55"/>
+      <c r="E156" s="53"/>
       <c r="F156" s="3" t="s">
         <v>291</v>
       </c>
@@ -10583,7 +10555,7 @@
       <c r="D157" s="3">
         <v>76.2</v>
       </c>
-      <c r="E157" s="55"/>
+      <c r="E157" s="53"/>
       <c r="F157" s="3"/>
     </row>
     <row r="158" spans="1:6">
@@ -10599,7 +10571,7 @@
       <c r="D158" s="3">
         <v>76.3</v>
       </c>
-      <c r="E158" s="55"/>
+      <c r="E158" s="53"/>
       <c r="F158" s="3"/>
     </row>
     <row r="159" spans="1:6">
@@ -10615,7 +10587,7 @@
       <c r="D159" s="3">
         <v>76.400000000000006</v>
       </c>
-      <c r="E159" s="55"/>
+      <c r="E159" s="53"/>
       <c r="F159" s="3"/>
     </row>
     <row r="160" spans="1:6">
@@ -10629,7 +10601,7 @@
         <v>25</v>
       </c>
       <c r="D160" s="3"/>
-      <c r="E160" s="55"/>
+      <c r="E160" s="53"/>
       <c r="F160" s="18"/>
     </row>
     <row r="161" spans="1:6" ht="31.5">
@@ -10645,7 +10617,7 @@
       <c r="D161" s="3">
         <v>76.5</v>
       </c>
-      <c r="E161" s="55"/>
+      <c r="E161" s="53"/>
       <c r="F161" s="3" t="s">
         <v>301</v>
       </c>
@@ -10663,7 +10635,7 @@
       <c r="D162" s="3">
         <v>76.599999999999994</v>
       </c>
-      <c r="E162" s="55"/>
+      <c r="E162" s="53"/>
       <c r="F162" s="3"/>
     </row>
     <row r="163" spans="1:6" ht="47.25">
@@ -10679,7 +10651,7 @@
       <c r="D163" s="3">
         <v>76.7</v>
       </c>
-      <c r="E163" s="55"/>
+      <c r="E163" s="53"/>
       <c r="F163" s="3"/>
     </row>
     <row r="164" spans="1:6">
@@ -10689,15 +10661,13 @@
       <c r="B164" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C164" s="40" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D164" s="41" t="s">
+      <c r="C164" s="39" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D164" s="45" t="s">
         <v>958</v>
       </c>
-      <c r="E164" s="54">
-        <v>76.38</v>
-      </c>
+      <c r="E164" s="62"/>
       <c r="F164" s="3"/>
     </row>
     <row r="165" spans="1:6" ht="47.25">
@@ -10710,10 +10680,10 @@
       <c r="C165" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D165" s="3">
+      <c r="D165" s="44">
         <v>76.39</v>
       </c>
-      <c r="E165" s="55"/>
+      <c r="E165" s="62"/>
       <c r="F165" s="3"/>
     </row>
     <row r="166" spans="1:6" ht="31.5">
@@ -10726,10 +10696,10 @@
       <c r="C166" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D166" s="3">
+      <c r="D166" s="44">
         <v>76.400000000000006</v>
       </c>
-      <c r="E166" s="55"/>
+      <c r="E166" s="62"/>
       <c r="F166" s="3"/>
     </row>
     <row r="167" spans="1:6" ht="31.5">
@@ -10742,12 +10712,10 @@
       <c r="C167" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="D167" s="41">
+      <c r="D167" s="45">
         <v>76.41</v>
       </c>
-      <c r="E167" s="54">
-        <v>76.41</v>
-      </c>
+      <c r="E167" s="62"/>
       <c r="F167" s="3"/>
     </row>
     <row r="168" spans="1:6" ht="47.25">
@@ -10760,12 +10728,10 @@
       <c r="C168" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D168" s="41">
+      <c r="D168" s="45">
         <v>76.42</v>
       </c>
-      <c r="E168" s="54">
-        <v>76.42</v>
-      </c>
+      <c r="E168" s="62"/>
       <c r="F168" s="3"/>
     </row>
     <row r="169" spans="1:6">
@@ -10778,12 +10744,10 @@
       <c r="C169" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D169" s="41">
+      <c r="D169" s="45">
         <v>76.430000000000007</v>
       </c>
-      <c r="E169" s="54">
-        <v>76.430000000000007</v>
-      </c>
+      <c r="E169" s="62"/>
       <c r="F169" s="3"/>
     </row>
     <row r="170" spans="1:6" ht="78.75">
@@ -10799,7 +10763,7 @@
       <c r="D170" s="3">
         <v>76.44</v>
       </c>
-      <c r="E170" s="55"/>
+      <c r="E170" s="53"/>
       <c r="F170" s="3"/>
     </row>
     <row r="171" spans="1:6" ht="47.25">
@@ -10815,7 +10779,7 @@
       <c r="D171" s="3">
         <v>76.45</v>
       </c>
-      <c r="E171" s="55"/>
+      <c r="E171" s="53"/>
       <c r="F171" s="3"/>
     </row>
     <row r="172" spans="1:6" ht="31.5">
@@ -10831,7 +10795,7 @@
       <c r="D172" s="3">
         <v>76.459999999999994</v>
       </c>
-      <c r="E172" s="55"/>
+      <c r="E172" s="53"/>
       <c r="F172" s="3"/>
     </row>
     <row r="173" spans="1:6">
@@ -10845,7 +10809,7 @@
         <v>26</v>
       </c>
       <c r="D173" s="3"/>
-      <c r="E173" s="55"/>
+      <c r="E173" s="53"/>
       <c r="F173" s="19"/>
     </row>
     <row r="174" spans="1:6">
@@ -10859,7 +10823,7 @@
         <v>27</v>
       </c>
       <c r="D174" s="3"/>
-      <c r="E174" s="55"/>
+      <c r="E174" s="53"/>
       <c r="F174" s="18"/>
     </row>
     <row r="175" spans="1:6" ht="31.5">
@@ -10875,7 +10839,7 @@
       <c r="D175" s="3">
         <v>76.099999999999994</v>
       </c>
-      <c r="E175" s="55"/>
+      <c r="E175" s="53"/>
       <c r="F175" s="3" t="s">
         <v>291</v>
       </c>
@@ -10893,7 +10857,7 @@
       <c r="D176" s="3">
         <v>76.2</v>
       </c>
-      <c r="E176" s="55"/>
+      <c r="E176" s="53"/>
       <c r="F176" s="3"/>
     </row>
     <row r="177" spans="1:6">
@@ -10909,7 +10873,7 @@
       <c r="D177" s="3">
         <v>76.3</v>
       </c>
-      <c r="E177" s="55"/>
+      <c r="E177" s="53"/>
       <c r="F177" s="3"/>
     </row>
     <row r="178" spans="1:6">
@@ -10925,7 +10889,7 @@
       <c r="D178" s="3">
         <v>76.400000000000006</v>
       </c>
-      <c r="E178" s="55"/>
+      <c r="E178" s="53"/>
       <c r="F178" s="3"/>
     </row>
     <row r="179" spans="1:6">
@@ -10939,7 +10903,7 @@
         <v>28</v>
       </c>
       <c r="D179" s="3"/>
-      <c r="E179" s="55"/>
+      <c r="E179" s="53"/>
       <c r="F179" s="18"/>
     </row>
     <row r="180" spans="1:6">
@@ -10953,7 +10917,7 @@
         <v>353</v>
       </c>
       <c r="D180" s="3"/>
-      <c r="E180" s="55"/>
+      <c r="E180" s="53"/>
       <c r="F180" s="3" t="s">
         <v>354</v>
       </c>
@@ -10971,7 +10935,7 @@
       <c r="D181" s="3">
         <v>76.599999999999994</v>
       </c>
-      <c r="E181" s="55"/>
+      <c r="E181" s="53"/>
       <c r="F181" s="3"/>
     </row>
     <row r="182" spans="1:6">
@@ -10987,7 +10951,7 @@
       <c r="D182" s="3">
         <v>76.7</v>
       </c>
-      <c r="E182" s="55"/>
+      <c r="E182" s="53"/>
       <c r="F182" s="3"/>
     </row>
     <row r="183" spans="1:6">
@@ -10997,15 +10961,13 @@
       <c r="B183" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C183" s="40" t="s">
+      <c r="C183" s="39" t="s">
         <v>359</v>
       </c>
-      <c r="D183" s="41" t="s">
+      <c r="D183" s="45" t="s">
         <v>958</v>
       </c>
-      <c r="E183" s="54" t="s">
-        <v>958</v>
-      </c>
+      <c r="E183" s="62"/>
       <c r="F183" s="3"/>
     </row>
     <row r="184" spans="1:6" ht="47.25">
@@ -11018,10 +10980,10 @@
       <c r="C184" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D184" s="3">
+      <c r="D184" s="44">
         <v>76.39</v>
       </c>
-      <c r="E184" s="55"/>
+      <c r="E184" s="62"/>
       <c r="F184" s="3"/>
     </row>
     <row r="185" spans="1:6" ht="31.5">
@@ -11034,10 +10996,10 @@
       <c r="C185" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D185" s="3">
+      <c r="D185" s="44">
         <v>76.400000000000006</v>
       </c>
-      <c r="E185" s="55"/>
+      <c r="E185" s="62"/>
       <c r="F185" s="3"/>
     </row>
     <row r="186" spans="1:6" ht="31.5">
@@ -11050,12 +11012,10 @@
       <c r="C186" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="D186" s="41">
+      <c r="D186" s="45">
         <v>76.41</v>
       </c>
-      <c r="E186" s="54">
-        <v>76.41</v>
-      </c>
+      <c r="E186" s="62"/>
       <c r="F186" s="3"/>
     </row>
     <row r="187" spans="1:6" ht="47.25">
@@ -11068,12 +11028,10 @@
       <c r="C187" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="D187" s="41">
+      <c r="D187" s="45">
         <v>76.42</v>
       </c>
-      <c r="E187" s="54">
-        <v>76.42</v>
-      </c>
+      <c r="E187" s="62"/>
       <c r="F187" s="3"/>
     </row>
     <row r="188" spans="1:6">
@@ -11086,12 +11044,10 @@
       <c r="C188" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D188" s="41">
+      <c r="D188" s="45">
         <v>76.430000000000007</v>
       </c>
-      <c r="E188" s="54">
-        <v>76.430000000000007</v>
-      </c>
+      <c r="E188" s="62"/>
       <c r="F188" s="3"/>
     </row>
     <row r="189" spans="1:6" ht="78.75">
@@ -11107,7 +11063,7 @@
       <c r="D189" s="3">
         <v>76.44</v>
       </c>
-      <c r="E189" s="55"/>
+      <c r="E189" s="53"/>
       <c r="F189" s="3"/>
     </row>
     <row r="190" spans="1:6" ht="47.25">
@@ -11123,7 +11079,7 @@
       <c r="D190" s="3">
         <v>76.45</v>
       </c>
-      <c r="E190" s="55"/>
+      <c r="E190" s="53"/>
       <c r="F190" s="3"/>
     </row>
     <row r="191" spans="1:6" ht="31.5">
@@ -11139,7 +11095,7 @@
       <c r="D191" s="3">
         <v>76.459999999999994</v>
       </c>
-      <c r="E191" s="55"/>
+      <c r="E191" s="53"/>
       <c r="F191" s="3"/>
     </row>
     <row r="192" spans="1:6">
@@ -11153,7 +11109,7 @@
         <v>369</v>
       </c>
       <c r="D192" s="3"/>
-      <c r="E192" s="55"/>
+      <c r="E192" s="53"/>
       <c r="F192" s="20"/>
     </row>
     <row r="193" spans="1:6">
@@ -11167,7 +11123,7 @@
         <v>371</v>
       </c>
       <c r="D193" s="3"/>
-      <c r="E193" s="55"/>
+      <c r="E193" s="53"/>
       <c r="F193" s="18"/>
     </row>
     <row r="194" spans="1:6" ht="31.5">
@@ -11183,9 +11139,9 @@
       <c r="D194" s="3">
         <v>76.900000000000006</v>
       </c>
-      <c r="E194" s="55"/>
-      <c r="F194" s="40" t="s">
-        <v>1120</v>
+      <c r="E194" s="53"/>
+      <c r="F194" s="39" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="31.5">
@@ -11201,7 +11157,7 @@
       <c r="D195" s="3">
         <v>76.099999999999994</v>
       </c>
-      <c r="E195" s="55"/>
+      <c r="E195" s="53"/>
       <c r="F195" s="3"/>
     </row>
     <row r="196" spans="1:6" ht="31.5">
@@ -11217,7 +11173,7 @@
       <c r="D196" s="3">
         <v>76.11</v>
       </c>
-      <c r="E196" s="55"/>
+      <c r="E196" s="53"/>
       <c r="F196" s="3"/>
     </row>
     <row r="197" spans="1:6" ht="63">
@@ -11233,7 +11189,7 @@
       <c r="D197" s="3">
         <v>76.12</v>
       </c>
-      <c r="E197" s="55"/>
+      <c r="E197" s="53"/>
       <c r="F197" s="3"/>
     </row>
     <row r="198" spans="1:6" ht="63">
@@ -11249,7 +11205,7 @@
       <c r="D198" s="3">
         <v>76.12</v>
       </c>
-      <c r="E198" s="55"/>
+      <c r="E198" s="53"/>
       <c r="F198" s="3"/>
     </row>
     <row r="199" spans="1:6" ht="31.5">
@@ -11262,12 +11218,10 @@
       <c r="C199" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="D199" s="41" t="s">
+      <c r="D199" s="45" t="s">
         <v>898</v>
       </c>
-      <c r="E199" s="54">
-        <v>76.13</v>
-      </c>
+      <c r="E199" s="62"/>
       <c r="F199" s="3"/>
     </row>
     <row r="200" spans="1:6">
@@ -11283,7 +11237,7 @@
       <c r="D200" s="3">
         <v>76.14</v>
       </c>
-      <c r="E200" s="55"/>
+      <c r="E200" s="53"/>
       <c r="F200" s="3"/>
     </row>
     <row r="201" spans="1:6" ht="31.5">
@@ -11293,16 +11247,16 @@
       <c r="B201" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C201" s="39" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D201" s="46" t="s">
+      <c r="C201" s="38" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D201" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="E201" s="55" t="s">
-        <v>1119</v>
-      </c>
-      <c r="F201" s="40"/>
+      <c r="E201" s="53" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F201" s="39"/>
     </row>
     <row r="202" spans="1:6" ht="31.5">
       <c r="A202" s="3" t="s">
@@ -11311,14 +11265,14 @@
       <c r="B202" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C202" s="39" t="s">
+      <c r="C202" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="D202" s="46" t="s">
+      <c r="D202" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="E202" s="55" t="s">
-        <v>1119</v>
+      <c r="E202" s="53" t="s">
+        <v>1118</v>
       </c>
       <c r="F202" s="3"/>
     </row>
@@ -11329,13 +11283,13 @@
       <c r="B203" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="C203" s="40" t="s">
-        <v>1121</v>
+      <c r="C203" s="39" t="s">
+        <v>1120</v>
       </c>
       <c r="D203" s="3">
         <v>76.16</v>
       </c>
-      <c r="E203" s="55"/>
+      <c r="E203" s="53"/>
       <c r="F203" s="3"/>
     </row>
     <row r="204" spans="1:6">
@@ -11351,7 +11305,7 @@
       <c r="D204" s="3">
         <v>76.17</v>
       </c>
-      <c r="E204" s="55"/>
+      <c r="E204" s="53"/>
       <c r="F204" s="3"/>
     </row>
     <row r="205" spans="1:6">
@@ -11367,7 +11321,7 @@
       <c r="D205" s="3">
         <v>76.180000000000007</v>
       </c>
-      <c r="E205" s="55"/>
+      <c r="E205" s="53"/>
       <c r="F205" s="3"/>
     </row>
     <row r="206" spans="1:6">
@@ -11381,7 +11335,7 @@
         <v>397</v>
       </c>
       <c r="D206" s="3"/>
-      <c r="E206" s="55"/>
+      <c r="E206" s="53"/>
       <c r="F206" s="21"/>
     </row>
     <row r="207" spans="1:6">
@@ -11397,9 +11351,9 @@
       <c r="D207" s="3">
         <v>76.19</v>
       </c>
-      <c r="E207" s="55"/>
-      <c r="F207" s="40" t="s">
-        <v>1114</v>
+      <c r="E207" s="53"/>
+      <c r="F207" s="39" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -11412,10 +11366,10 @@
       <c r="C208" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="D208" s="40" t="s">
+      <c r="D208" s="39" t="s">
         <v>911</v>
       </c>
-      <c r="E208" s="55"/>
+      <c r="E208" s="53"/>
       <c r="F208" s="3"/>
     </row>
     <row r="209" spans="1:6" ht="31.5">
@@ -11431,7 +11385,7 @@
       <c r="D209" s="3">
         <v>76.209999999999994</v>
       </c>
-      <c r="E209" s="55"/>
+      <c r="E209" s="53"/>
       <c r="F209" s="3"/>
     </row>
     <row r="210" spans="1:6">
@@ -11447,7 +11401,7 @@
       <c r="D210" s="3">
         <v>76.22</v>
       </c>
-      <c r="E210" s="55"/>
+      <c r="E210" s="53"/>
       <c r="F210" s="3"/>
     </row>
     <row r="211" spans="1:6" ht="31.5">
@@ -11457,14 +11411,14 @@
       <c r="B211" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C211" s="45" t="s">
+      <c r="C211" s="44" t="s">
         <v>407</v>
       </c>
-      <c r="D211" s="46" t="s">
+      <c r="D211" s="45" t="s">
         <v>989</v>
       </c>
-      <c r="E211" s="65" t="s">
-        <v>1139</v>
+      <c r="E211" s="62" t="s">
+        <v>1150</v>
       </c>
       <c r="F211" s="3"/>
     </row>
@@ -11481,7 +11435,7 @@
       <c r="D212" s="3">
         <v>76.23</v>
       </c>
-      <c r="E212" s="55"/>
+      <c r="E212" s="53"/>
       <c r="F212" s="3"/>
     </row>
     <row r="213" spans="1:6">
@@ -11497,7 +11451,7 @@
       <c r="D213" s="3">
         <v>76.239999999999995</v>
       </c>
-      <c r="E213" s="55"/>
+      <c r="E213" s="53"/>
       <c r="F213" s="3"/>
     </row>
     <row r="214" spans="1:6" ht="31.5">
@@ -11513,7 +11467,7 @@
       <c r="D214" s="3">
         <v>76.25</v>
       </c>
-      <c r="E214" s="55"/>
+      <c r="E214" s="53"/>
       <c r="F214" s="3"/>
     </row>
     <row r="215" spans="1:6">
@@ -11529,7 +11483,7 @@
       <c r="D215" s="3">
         <v>76.260000000000005</v>
       </c>
-      <c r="E215" s="55"/>
+      <c r="E215" s="53"/>
       <c r="F215" s="3"/>
     </row>
     <row r="216" spans="1:6">
@@ -11545,7 +11499,7 @@
       <c r="D216" s="3">
         <v>76.27</v>
       </c>
-      <c r="E216" s="55"/>
+      <c r="E216" s="53"/>
       <c r="F216" s="3"/>
     </row>
     <row r="217" spans="1:6">
@@ -11561,7 +11515,7 @@
       <c r="D217" s="3">
         <v>76.28</v>
       </c>
-      <c r="E217" s="55"/>
+      <c r="E217" s="53"/>
       <c r="F217" s="3"/>
     </row>
     <row r="218" spans="1:6">
@@ -11575,7 +11529,7 @@
         <v>421</v>
       </c>
       <c r="D218" s="3"/>
-      <c r="E218" s="55"/>
+      <c r="E218" s="53"/>
       <c r="F218" s="21"/>
     </row>
     <row r="219" spans="1:6">
@@ -11591,7 +11545,7 @@
       <c r="D219" s="3">
         <v>76.239999999999995</v>
       </c>
-      <c r="E219" s="55"/>
+      <c r="E219" s="53"/>
       <c r="F219" s="3" t="s">
         <v>424</v>
       </c>
@@ -11609,7 +11563,7 @@
       <c r="D220" s="3">
         <v>76.28</v>
       </c>
-      <c r="E220" s="55"/>
+      <c r="E220" s="53"/>
       <c r="F220" s="3"/>
     </row>
     <row r="221" spans="1:6">
@@ -11623,7 +11577,7 @@
         <v>427</v>
       </c>
       <c r="D221" s="3"/>
-      <c r="E221" s="55"/>
+      <c r="E221" s="53"/>
       <c r="F221" s="19"/>
     </row>
     <row r="222" spans="1:6" ht="31.5">
@@ -11637,7 +11591,7 @@
         <v>429</v>
       </c>
       <c r="D222" s="11"/>
-      <c r="E222" s="55" t="s">
+      <c r="E222" s="53" t="s">
         <v>282</v>
       </c>
       <c r="F222" s="7"/>
@@ -11653,7 +11607,7 @@
         <v>29</v>
       </c>
       <c r="D223" s="11"/>
-      <c r="E223" s="55"/>
+      <c r="E223" s="53"/>
       <c r="F223" s="20"/>
     </row>
     <row r="224" spans="1:6">
@@ -11667,7 +11621,7 @@
         <v>30</v>
       </c>
       <c r="D224" s="11"/>
-      <c r="E224" s="55" t="s">
+      <c r="E224" s="53" t="s">
         <v>282</v>
       </c>
       <c r="F224" s="7"/>
@@ -11683,7 +11637,7 @@
         <v>31</v>
       </c>
       <c r="D225" s="11"/>
-      <c r="E225" s="55" t="s">
+      <c r="E225" s="53" t="s">
         <v>282</v>
       </c>
       <c r="F225" s="7"/>
@@ -11699,7 +11653,7 @@
         <v>32</v>
       </c>
       <c r="D226" s="11"/>
-      <c r="E226" s="55"/>
+      <c r="E226" s="53"/>
       <c r="F226" s="19"/>
     </row>
     <row r="227" spans="1:6">
@@ -11713,7 +11667,7 @@
         <v>33</v>
       </c>
       <c r="D227" s="11"/>
-      <c r="E227" s="55" t="s">
+      <c r="E227" s="53" t="s">
         <v>282</v>
       </c>
       <c r="F227" s="7"/>
@@ -11729,7 +11683,7 @@
         <v>34</v>
       </c>
       <c r="D228" s="11"/>
-      <c r="E228" s="55" t="s">
+      <c r="E228" s="53" t="s">
         <v>282</v>
       </c>
       <c r="F228" s="7"/>
@@ -11745,7 +11699,7 @@
         <v>35</v>
       </c>
       <c r="D229" s="3"/>
-      <c r="E229" s="59"/>
+      <c r="E229" s="57"/>
       <c r="F229" s="22"/>
     </row>
     <row r="230" spans="1:6">
@@ -11759,7 +11713,7 @@
         <v>2</v>
       </c>
       <c r="D230" s="3"/>
-      <c r="E230" s="55"/>
+      <c r="E230" s="53"/>
       <c r="F230" s="19"/>
     </row>
     <row r="231" spans="1:6">
@@ -11773,7 +11727,7 @@
         <v>36</v>
       </c>
       <c r="D231" s="3"/>
-      <c r="E231" s="55"/>
+      <c r="E231" s="53"/>
       <c r="F231" s="21"/>
     </row>
     <row r="232" spans="1:6" ht="63">
@@ -11789,7 +11743,7 @@
       <c r="D232" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="E232" s="55"/>
+      <c r="E232" s="53"/>
       <c r="F232" s="5" t="s">
         <v>437</v>
       </c>
@@ -11807,7 +11761,7 @@
       <c r="D233" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="E233" s="55"/>
+      <c r="E233" s="53"/>
       <c r="F233" s="5"/>
     </row>
     <row r="234" spans="1:6" ht="31.5">
@@ -11823,7 +11777,7 @@
       <c r="D234" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="E234" s="55"/>
+      <c r="E234" s="53"/>
       <c r="F234" s="5"/>
     </row>
     <row r="235" spans="1:6" ht="47.25">
@@ -11839,7 +11793,7 @@
       <c r="D235" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="E235" s="55"/>
+      <c r="E235" s="53"/>
       <c r="F235" s="5"/>
     </row>
     <row r="236" spans="1:6">
@@ -11855,7 +11809,7 @@
       <c r="D236" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="E236" s="55"/>
+      <c r="E236" s="53"/>
       <c r="F236" s="5"/>
     </row>
     <row r="237" spans="1:6" ht="31.5">
@@ -11871,7 +11825,7 @@
       <c r="D237" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E237" s="55"/>
+      <c r="E237" s="53"/>
       <c r="F237" s="5"/>
     </row>
     <row r="238" spans="1:6" ht="63">
@@ -11887,7 +11841,7 @@
       <c r="D238" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="E238" s="55"/>
+      <c r="E238" s="53"/>
       <c r="F238" s="5"/>
     </row>
     <row r="239" spans="1:6" ht="63">
@@ -11903,7 +11857,7 @@
       <c r="D239" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="E239" s="55"/>
+      <c r="E239" s="53"/>
       <c r="F239" s="5"/>
     </row>
     <row r="240" spans="1:6" ht="94.5">
@@ -11919,7 +11873,7 @@
       <c r="D240" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="E240" s="55"/>
+      <c r="E240" s="53"/>
       <c r="F240" s="5"/>
     </row>
     <row r="241" spans="1:6" ht="78.75">
@@ -11935,7 +11889,7 @@
       <c r="D241" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="E241" s="55"/>
+      <c r="E241" s="53"/>
       <c r="F241" s="5"/>
     </row>
     <row r="242" spans="1:6" ht="94.5">
@@ -11951,7 +11905,7 @@
       <c r="D242" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="E242" s="55"/>
+      <c r="E242" s="53"/>
       <c r="F242" s="5"/>
     </row>
     <row r="243" spans="1:6" ht="31.5">
@@ -11967,7 +11921,7 @@
       <c r="D243" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="E243" s="55"/>
+      <c r="E243" s="53"/>
       <c r="F243" s="5"/>
     </row>
     <row r="244" spans="1:6">
@@ -11981,7 +11935,7 @@
         <v>472</v>
       </c>
       <c r="D244" s="3"/>
-      <c r="E244" s="55"/>
+      <c r="E244" s="53"/>
       <c r="F244" s="19"/>
     </row>
     <row r="245" spans="1:6">
@@ -11995,7 +11949,7 @@
         <v>36</v>
       </c>
       <c r="D245" s="3"/>
-      <c r="E245" s="55"/>
+      <c r="E245" s="53"/>
       <c r="F245" s="21"/>
     </row>
     <row r="246" spans="1:6" ht="63">
@@ -12011,7 +11965,7 @@
       <c r="D246" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="E246" s="55"/>
+      <c r="E246" s="53"/>
       <c r="F246" s="5" t="s">
         <v>476</v>
       </c>
@@ -12029,7 +11983,7 @@
       <c r="D247" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="E247" s="55"/>
+      <c r="E247" s="53"/>
       <c r="F247" s="5"/>
     </row>
     <row r="248" spans="1:6" ht="31.5">
@@ -12045,7 +11999,7 @@
       <c r="D248" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="E248" s="55"/>
+      <c r="E248" s="53"/>
       <c r="F248" s="5"/>
     </row>
     <row r="249" spans="1:6" ht="47.25">
@@ -12061,7 +12015,7 @@
       <c r="D249" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="E249" s="55"/>
+      <c r="E249" s="53"/>
       <c r="F249" s="5"/>
     </row>
     <row r="250" spans="1:6">
@@ -12077,7 +12031,7 @@
       <c r="D250" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="E250" s="55"/>
+      <c r="E250" s="53"/>
       <c r="F250" s="5"/>
     </row>
     <row r="251" spans="1:6" ht="31.5">
@@ -12093,7 +12047,7 @@
       <c r="D251" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E251" s="55"/>
+      <c r="E251" s="53"/>
       <c r="F251" s="5"/>
     </row>
     <row r="252" spans="1:6">
@@ -12109,7 +12063,7 @@
       <c r="D252" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="E252" s="55"/>
+      <c r="E252" s="53"/>
       <c r="F252" s="5"/>
     </row>
     <row r="253" spans="1:6" ht="31.5">
@@ -12125,7 +12079,7 @@
       <c r="D253" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="E253" s="55"/>
+      <c r="E253" s="53"/>
       <c r="F253" s="5"/>
     </row>
     <row r="254" spans="1:6" ht="31.5">
@@ -12141,7 +12095,7 @@
       <c r="D254" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="E254" s="55"/>
+      <c r="E254" s="53"/>
       <c r="F254" s="5"/>
     </row>
     <row r="255" spans="1:6" ht="47.25">
@@ -12157,7 +12111,7 @@
       <c r="D255" s="3">
         <v>78.3</v>
       </c>
-      <c r="E255" s="55"/>
+      <c r="E255" s="53"/>
       <c r="F255" s="5"/>
     </row>
     <row r="256" spans="1:6" ht="47.25">
@@ -12173,7 +12127,7 @@
       <c r="D256" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="E256" s="55"/>
+      <c r="E256" s="53"/>
       <c r="F256" s="5"/>
     </row>
     <row r="257" spans="1:6" ht="78.75">
@@ -12189,7 +12143,7 @@
       <c r="D257" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="E257" s="55"/>
+      <c r="E257" s="53"/>
       <c r="F257" s="3"/>
     </row>
     <row r="258" spans="1:6" ht="78.75">
@@ -12205,7 +12159,7 @@
       <c r="D258" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="E258" s="55"/>
+      <c r="E258" s="53"/>
       <c r="F258" s="5"/>
     </row>
     <row r="259" spans="1:6" ht="94.5">
@@ -12221,7 +12175,7 @@
       <c r="D259" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="E259" s="55"/>
+      <c r="E259" s="53"/>
       <c r="F259" s="3"/>
     </row>
     <row r="260" spans="1:6" ht="94.5">
@@ -12237,7 +12191,7 @@
       <c r="D260" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="E260" s="55"/>
+      <c r="E260" s="53"/>
       <c r="F260" s="5"/>
     </row>
     <row r="261" spans="1:6" ht="63">
@@ -12253,7 +12207,7 @@
       <c r="D261" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="E261" s="55"/>
+      <c r="E261" s="53"/>
       <c r="F261" s="5"/>
     </row>
     <row r="262" spans="1:6">
@@ -12267,7 +12221,7 @@
         <v>37</v>
       </c>
       <c r="D262" s="3"/>
-      <c r="E262" s="55"/>
+      <c r="E262" s="53"/>
       <c r="F262" s="19"/>
     </row>
     <row r="263" spans="1:6">
@@ -12281,7 +12235,7 @@
         <v>36</v>
       </c>
       <c r="D263" s="3"/>
-      <c r="E263" s="55"/>
+      <c r="E263" s="53"/>
       <c r="F263" s="13"/>
     </row>
     <row r="264" spans="1:6" ht="63">
@@ -12297,7 +12251,7 @@
       <c r="D264" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="E264" s="55"/>
+      <c r="E264" s="53"/>
       <c r="F264" s="5" t="s">
         <v>476</v>
       </c>
@@ -12315,7 +12269,7 @@
       <c r="D265" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="E265" s="55"/>
+      <c r="E265" s="53"/>
       <c r="F265" s="5"/>
     </row>
     <row r="266" spans="1:6" ht="31.5">
@@ -12331,7 +12285,7 @@
       <c r="D266" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="E266" s="55"/>
+      <c r="E266" s="53"/>
       <c r="F266" s="5"/>
     </row>
     <row r="267" spans="1:6" ht="47.25">
@@ -12347,7 +12301,7 @@
       <c r="D267" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="E267" s="55"/>
+      <c r="E267" s="53"/>
       <c r="F267" s="5"/>
     </row>
     <row r="268" spans="1:6">
@@ -12363,7 +12317,7 @@
       <c r="D268" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="E268" s="55"/>
+      <c r="E268" s="53"/>
       <c r="F268" s="5"/>
     </row>
     <row r="269" spans="1:6" ht="31.5">
@@ -12379,7 +12333,7 @@
       <c r="D269" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E269" s="55"/>
+      <c r="E269" s="53"/>
       <c r="F269" s="5"/>
     </row>
     <row r="270" spans="1:6">
@@ -12395,7 +12349,7 @@
       <c r="D270" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="E270" s="55"/>
+      <c r="E270" s="53"/>
       <c r="F270" s="5"/>
     </row>
     <row r="271" spans="1:6" ht="31.5">
@@ -12411,7 +12365,7 @@
       <c r="D271" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="E271" s="55"/>
+      <c r="E271" s="53"/>
       <c r="F271" s="5"/>
     </row>
     <row r="272" spans="1:6" ht="31.5">
@@ -12427,7 +12381,7 @@
       <c r="D272" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="E272" s="55"/>
+      <c r="E272" s="53"/>
       <c r="F272" s="5"/>
     </row>
     <row r="273" spans="1:6" ht="47.25">
@@ -12443,7 +12397,7 @@
       <c r="D273" s="3">
         <v>78.3</v>
       </c>
-      <c r="E273" s="55"/>
+      <c r="E273" s="53"/>
       <c r="F273" s="5"/>
     </row>
     <row r="274" spans="1:6" ht="47.25">
@@ -12459,7 +12413,7 @@
       <c r="D274" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="E274" s="55"/>
+      <c r="E274" s="53"/>
       <c r="F274" s="5"/>
     </row>
     <row r="275" spans="1:6" ht="78.75">
@@ -12475,7 +12429,7 @@
       <c r="D275" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="E275" s="55"/>
+      <c r="E275" s="53"/>
       <c r="F275" s="3"/>
     </row>
     <row r="276" spans="1:6" ht="78.75">
@@ -12491,7 +12445,7 @@
       <c r="D276" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="E276" s="55"/>
+      <c r="E276" s="53"/>
       <c r="F276" s="5"/>
     </row>
     <row r="277" spans="1:6" ht="94.5">
@@ -12507,7 +12461,7 @@
       <c r="D277" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="E277" s="55"/>
+      <c r="E277" s="53"/>
       <c r="F277" s="3"/>
     </row>
     <row r="278" spans="1:6" ht="94.5">
@@ -12523,7 +12477,7 @@
       <c r="D278" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="E278" s="55"/>
+      <c r="E278" s="53"/>
       <c r="F278" s="5"/>
     </row>
     <row r="279" spans="1:6" ht="63">
@@ -12539,7 +12493,7 @@
       <c r="D279" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="E279" s="55"/>
+      <c r="E279" s="53"/>
       <c r="F279" s="5"/>
     </row>
     <row r="280" spans="1:6">
@@ -12553,7 +12507,7 @@
         <v>10</v>
       </c>
       <c r="D280" s="3"/>
-      <c r="E280" s="55"/>
+      <c r="E280" s="53"/>
       <c r="F280" s="19"/>
     </row>
     <row r="281" spans="1:6">
@@ -12567,7 +12521,7 @@
         <v>38</v>
       </c>
       <c r="D281" s="3"/>
-      <c r="E281" s="55"/>
+      <c r="E281" s="53"/>
       <c r="F281" s="18"/>
     </row>
     <row r="282" spans="1:6" ht="47.25">
@@ -12580,12 +12534,10 @@
       <c r="C282" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="D282" s="23" t="s">
+      <c r="D282" s="11" t="s">
         <v>529</v>
       </c>
-      <c r="E282" s="55" t="s">
-        <v>529</v>
-      </c>
+      <c r="E282" s="53"/>
       <c r="F282" s="5"/>
     </row>
     <row r="283" spans="1:6">
@@ -12599,7 +12551,7 @@
         <v>36</v>
       </c>
       <c r="D283" s="3"/>
-      <c r="E283" s="55"/>
+      <c r="E283" s="53"/>
       <c r="F283" s="18"/>
     </row>
     <row r="284" spans="1:6" ht="47.25">
@@ -12615,7 +12567,7 @@
       <c r="D284" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="E284" s="60"/>
+      <c r="E284" s="58"/>
       <c r="F284" s="3" t="s">
         <v>533</v>
       </c>
@@ -12633,7 +12585,7 @@
       <c r="D285" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="E285" s="55"/>
+      <c r="E285" s="53"/>
       <c r="F285" s="5"/>
     </row>
     <row r="286" spans="1:6">
@@ -12649,7 +12601,7 @@
       <c r="D286" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="E286" s="55"/>
+      <c r="E286" s="53"/>
       <c r="F286" s="5"/>
     </row>
     <row r="287" spans="1:6" ht="47.25">
@@ -12665,7 +12617,7 @@
       <c r="D287" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="E287" s="55"/>
+      <c r="E287" s="53"/>
       <c r="F287" s="5"/>
     </row>
     <row r="288" spans="1:6" ht="31.5">
@@ -12681,7 +12633,7 @@
       <c r="D288" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="E288" s="55"/>
+      <c r="E288" s="53"/>
       <c r="F288" s="5"/>
     </row>
     <row r="289" spans="1:6">
@@ -12697,7 +12649,7 @@
       <c r="D289" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="E289" s="55"/>
+      <c r="E289" s="53"/>
       <c r="F289" s="5"/>
     </row>
     <row r="290" spans="1:6" ht="94.5">
@@ -12713,7 +12665,7 @@
       <c r="D290" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="E290" s="55"/>
+      <c r="E290" s="53"/>
       <c r="F290" s="5"/>
     </row>
     <row r="291" spans="1:6">
@@ -12727,8 +12679,8 @@
         <v>39</v>
       </c>
       <c r="D291" s="3"/>
-      <c r="E291" s="55"/>
-      <c r="F291" s="24"/>
+      <c r="E291" s="53"/>
+      <c r="F291" s="23"/>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="3" t="s">
@@ -12741,8 +12693,8 @@
         <v>36</v>
       </c>
       <c r="D292" s="3"/>
-      <c r="E292" s="55"/>
-      <c r="F292" s="25"/>
+      <c r="E292" s="53"/>
+      <c r="F292" s="24"/>
     </row>
     <row r="293" spans="1:6" ht="63">
       <c r="A293" s="3" t="s">
@@ -12757,7 +12709,7 @@
       <c r="D293" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="E293" s="55"/>
+      <c r="E293" s="53"/>
       <c r="F293" s="3" t="s">
         <v>476</v>
       </c>
@@ -12775,7 +12727,7 @@
       <c r="D294" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="E294" s="55"/>
+      <c r="E294" s="53"/>
       <c r="F294" s="3"/>
     </row>
     <row r="295" spans="1:6" ht="31.5">
@@ -12791,7 +12743,7 @@
       <c r="D295" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="E295" s="55"/>
+      <c r="E295" s="53"/>
       <c r="F295" s="3"/>
     </row>
     <row r="296" spans="1:6" ht="47.25">
@@ -12807,7 +12759,7 @@
       <c r="D296" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="E296" s="55"/>
+      <c r="E296" s="53"/>
       <c r="F296" s="3"/>
     </row>
     <row r="297" spans="1:6">
@@ -12823,7 +12775,7 @@
       <c r="D297" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="E297" s="55"/>
+      <c r="E297" s="53"/>
       <c r="F297" s="3"/>
     </row>
     <row r="298" spans="1:6" ht="31.5">
@@ -12839,7 +12791,7 @@
       <c r="D298" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E298" s="55"/>
+      <c r="E298" s="53"/>
       <c r="F298" s="3"/>
     </row>
     <row r="299" spans="1:6">
@@ -12855,7 +12807,7 @@
       <c r="D299" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="E299" s="55"/>
+      <c r="E299" s="53"/>
       <c r="F299" s="3"/>
     </row>
     <row r="300" spans="1:6" ht="31.5">
@@ -12871,7 +12823,7 @@
       <c r="D300" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="E300" s="55"/>
+      <c r="E300" s="53"/>
       <c r="F300" s="3"/>
     </row>
     <row r="301" spans="1:6" ht="31.5">
@@ -12887,7 +12839,7 @@
       <c r="D301" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="E301" s="55"/>
+      <c r="E301" s="53"/>
       <c r="F301" s="3"/>
     </row>
     <row r="302" spans="1:6" ht="47.25">
@@ -12903,7 +12855,7 @@
       <c r="D302" s="3">
         <v>78.3</v>
       </c>
-      <c r="E302" s="55"/>
+      <c r="E302" s="53"/>
       <c r="F302" s="3"/>
     </row>
     <row r="303" spans="1:6" ht="47.25">
@@ -12919,7 +12871,7 @@
       <c r="D303" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="E303" s="55"/>
+      <c r="E303" s="53"/>
       <c r="F303" s="3"/>
     </row>
     <row r="304" spans="1:6" ht="78.75">
@@ -12935,7 +12887,7 @@
       <c r="D304" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="E304" s="55"/>
+      <c r="E304" s="53"/>
       <c r="F304" s="3"/>
     </row>
     <row r="305" spans="1:6" ht="78.75">
@@ -12951,7 +12903,7 @@
       <c r="D305" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="E305" s="55"/>
+      <c r="E305" s="53"/>
       <c r="F305" s="3"/>
     </row>
     <row r="306" spans="1:6" ht="94.5">
@@ -12967,7 +12919,7 @@
       <c r="D306" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="E306" s="55"/>
+      <c r="E306" s="53"/>
       <c r="F306" s="3"/>
     </row>
     <row r="307" spans="1:6" ht="94.5">
@@ -12983,7 +12935,7 @@
       <c r="D307" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="E307" s="55"/>
+      <c r="E307" s="53"/>
       <c r="F307" s="3"/>
     </row>
     <row r="308" spans="1:6" ht="63">
@@ -12999,7 +12951,7 @@
       <c r="D308" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="E308" s="55"/>
+      <c r="E308" s="53"/>
       <c r="F308" s="3"/>
     </row>
     <row r="309" spans="1:6">
@@ -13013,7 +12965,7 @@
         <v>40</v>
       </c>
       <c r="D309" s="3"/>
-      <c r="E309" s="55"/>
+      <c r="E309" s="53"/>
       <c r="F309" s="17"/>
     </row>
     <row r="310" spans="1:6">
@@ -13027,8 +12979,8 @@
         <v>41</v>
       </c>
       <c r="D310" s="3"/>
-      <c r="E310" s="55"/>
-      <c r="F310" s="24"/>
+      <c r="E310" s="53"/>
+      <c r="F310" s="23"/>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="3" t="s">
@@ -13041,8 +12993,8 @@
         <v>42</v>
       </c>
       <c r="D311" s="3"/>
-      <c r="E311" s="55"/>
-      <c r="F311" s="25"/>
+      <c r="E311" s="53"/>
+      <c r="F311" s="24"/>
     </row>
     <row r="312" spans="1:6" ht="110.25">
       <c r="A312" s="3" t="s">
@@ -13057,7 +13009,7 @@
       <c r="D312" s="3">
         <v>78.3</v>
       </c>
-      <c r="E312" s="55"/>
+      <c r="E312" s="53"/>
       <c r="F312" s="5" t="s">
         <v>571</v>
       </c>
@@ -13075,7 +13027,7 @@
       <c r="D313" s="3">
         <v>78.099999999999994</v>
       </c>
-      <c r="E313" s="55"/>
+      <c r="E313" s="53"/>
       <c r="F313" s="5"/>
     </row>
     <row r="314" spans="1:6" ht="31.5">
@@ -13195,7 +13147,7 @@
         <v>594</v>
       </c>
       <c r="F321" s="5" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -13221,10 +13173,10 @@
         <v>598</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F323" s="5"/>
     </row>
@@ -13281,13 +13233,11 @@
       <c r="C327" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="D327" s="54" t="s">
+      <c r="D327" s="62" t="s">
         <v>609</v>
       </c>
-      <c r="E327" s="54" t="s">
-        <v>609</v>
-      </c>
-      <c r="F327" s="26" t="s">
+      <c r="E327" s="62"/>
+      <c r="F327" s="25" t="s">
         <v>612</v>
       </c>
     </row>
@@ -13301,12 +13251,10 @@
       <c r="C328" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="D328" s="54" t="s">
+      <c r="D328" s="62" t="s">
         <v>609</v>
       </c>
-      <c r="E328" s="54" t="s">
-        <v>609</v>
-      </c>
+      <c r="E328" s="62"/>
       <c r="F328" s="5"/>
     </row>
     <row r="329" spans="1:6" ht="31.5">
@@ -13319,10 +13267,10 @@
       <c r="C329" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="D329" s="3" t="s">
+      <c r="D329" s="44" t="s">
         <v>273</v>
       </c>
-      <c r="E329" s="55"/>
+      <c r="E329" s="62"/>
       <c r="F329" s="3"/>
     </row>
     <row r="330" spans="1:6" ht="47.25">
@@ -13335,13 +13283,11 @@
       <c r="C330" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="D330" s="41" t="s">
+      <c r="D330" s="45" t="s">
         <v>619</v>
       </c>
-      <c r="E330" s="54" t="s">
-        <v>619</v>
-      </c>
-      <c r="F330" s="26"/>
+      <c r="E330" s="62"/>
+      <c r="F330" s="25"/>
     </row>
     <row r="331" spans="1:6" ht="31.5">
       <c r="A331" s="3" t="s">
@@ -13356,7 +13302,7 @@
       <c r="D331" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="E331" s="55"/>
+      <c r="E331" s="53"/>
       <c r="F331" s="5"/>
     </row>
     <row r="332" spans="1:6">
@@ -13370,7 +13316,7 @@
         <v>624</v>
       </c>
       <c r="D332" s="3"/>
-      <c r="E332" s="55"/>
+      <c r="E332" s="53"/>
       <c r="F332" s="21"/>
     </row>
     <row r="333" spans="1:6">
@@ -13386,9 +13332,9 @@
       <c r="D333" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="E333" s="55"/>
+      <c r="E333" s="53"/>
       <c r="F333" s="7" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -13398,15 +13344,13 @@
       <c r="B334" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C334" s="45" t="s">
+      <c r="C334" s="44" t="s">
         <v>628</v>
       </c>
-      <c r="D334" s="41" t="s">
-        <v>1122</v>
-      </c>
-      <c r="E334" s="54" t="s">
-        <v>1140</v>
-      </c>
+      <c r="D334" s="45" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E334" s="62"/>
       <c r="F334" s="3"/>
     </row>
     <row r="335" spans="1:6">
@@ -13420,7 +13364,7 @@
         <v>630</v>
       </c>
       <c r="D335" s="3"/>
-      <c r="E335" s="55"/>
+      <c r="E335" s="53"/>
       <c r="F335" s="18"/>
     </row>
     <row r="336" spans="1:6">
@@ -13433,12 +13377,12 @@
       <c r="C336" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="D336" s="40" t="s">
+      <c r="D336" s="39" t="s">
         <v>594</v>
       </c>
-      <c r="E336" s="55"/>
+      <c r="E336" s="53"/>
       <c r="F336" s="5" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="31.5">
@@ -13451,10 +13395,10 @@
       <c r="C337" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="D337" s="40" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E337" s="60"/>
+      <c r="D337" s="39" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E337" s="58"/>
       <c r="F337" s="5"/>
     </row>
     <row r="338" spans="1:6" ht="31.5">
@@ -13470,7 +13414,7 @@
       <c r="D338" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="E338" s="55"/>
+      <c r="E338" s="53"/>
       <c r="F338" s="5"/>
     </row>
     <row r="339" spans="1:6">
@@ -13484,10 +13428,10 @@
         <v>637</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="E339" s="55"/>
-      <c r="F339" s="26"/>
+        <v>1127</v>
+      </c>
+      <c r="E339" s="53"/>
+      <c r="F339" s="25"/>
     </row>
     <row r="340" spans="1:6" ht="31.5">
       <c r="A340" s="3" t="s">
@@ -13496,13 +13440,13 @@
       <c r="B340" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C340" s="45" t="s">
+      <c r="C340" s="44" t="s">
         <v>639</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E340" s="55" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E340" s="53" t="s">
         <v>640</v>
       </c>
       <c r="F340" s="7"/>
@@ -13518,7 +13462,7 @@
         <v>44</v>
       </c>
       <c r="D341" s="3"/>
-      <c r="E341" s="55"/>
+      <c r="E341" s="53"/>
       <c r="F341" s="19"/>
     </row>
     <row r="342" spans="1:6">
@@ -13532,7 +13476,7 @@
         <v>42</v>
       </c>
       <c r="D342" s="3"/>
-      <c r="E342" s="55"/>
+      <c r="E342" s="53"/>
       <c r="F342" s="18"/>
     </row>
     <row r="343" spans="1:6" ht="110.25">
@@ -13545,13 +13489,11 @@
       <c r="C343" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="D343" s="41" t="s">
+      <c r="D343" s="45" t="s">
         <v>1047</v>
       </c>
-      <c r="E343" s="54" t="s">
-        <v>1047</v>
-      </c>
-      <c r="F343" s="26" t="s">
+      <c r="E343" s="62"/>
+      <c r="F343" s="25" t="s">
         <v>571</v>
       </c>
     </row>
@@ -13565,12 +13507,10 @@
       <c r="C344" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="D344" s="41" t="s">
+      <c r="D344" s="45" t="s">
         <v>1039</v>
       </c>
-      <c r="E344" s="54" t="s">
-        <v>1039</v>
-      </c>
+      <c r="E344" s="62"/>
       <c r="F344" s="5"/>
     </row>
     <row r="345" spans="1:6" ht="31.5">
@@ -13586,7 +13526,7 @@
       <c r="D345" s="3">
         <v>78.099999999999994</v>
       </c>
-      <c r="E345" s="55"/>
+      <c r="E345" s="53"/>
       <c r="F345" s="5"/>
     </row>
     <row r="346" spans="1:6">
@@ -13600,7 +13540,7 @@
         <v>43</v>
       </c>
       <c r="D346" s="3"/>
-      <c r="E346" s="55"/>
+      <c r="E346" s="53"/>
       <c r="F346" s="18"/>
     </row>
     <row r="347" spans="1:6">
@@ -13614,7 +13554,7 @@
         <v>648</v>
       </c>
       <c r="D347" s="3"/>
-      <c r="E347" s="55"/>
+      <c r="E347" s="53"/>
       <c r="F347" s="18"/>
     </row>
     <row r="348" spans="1:6">
@@ -13630,7 +13570,7 @@
       <c r="D348" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="E348" s="55"/>
+      <c r="E348" s="53"/>
       <c r="F348" s="5" t="s">
         <v>651</v>
       </c>
@@ -13648,7 +13588,7 @@
       <c r="D349" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="E349" s="55"/>
+      <c r="E349" s="53"/>
       <c r="F349" s="5"/>
     </row>
     <row r="350" spans="1:6" ht="47.25">
@@ -13664,7 +13604,7 @@
       <c r="D350" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="E350" s="55"/>
+      <c r="E350" s="53"/>
       <c r="F350" s="5"/>
     </row>
     <row r="351" spans="1:6" ht="47.25">
@@ -13677,12 +13617,10 @@
       <c r="C351" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="D351" s="41" t="s">
+      <c r="D351" s="45" t="s">
         <v>619</v>
       </c>
-      <c r="E351" s="48" t="s">
-        <v>619</v>
-      </c>
+      <c r="E351" s="44"/>
       <c r="F351" s="5"/>
     </row>
     <row r="352" spans="1:6" ht="31.5">
@@ -13698,7 +13636,7 @@
       <c r="D352" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="E352" s="55"/>
+      <c r="E352" s="53"/>
       <c r="F352" s="5"/>
     </row>
     <row r="353" spans="1:6" ht="47.25">
@@ -13714,7 +13652,7 @@
       <c r="D353" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="E353" s="55"/>
+      <c r="E353" s="53"/>
       <c r="F353" s="5"/>
     </row>
     <row r="354" spans="1:6">
@@ -13728,7 +13666,7 @@
         <v>624</v>
       </c>
       <c r="D354" s="3"/>
-      <c r="E354" s="55"/>
+      <c r="E354" s="53"/>
       <c r="F354" s="18"/>
     </row>
     <row r="355" spans="1:6">
@@ -13744,9 +13682,9 @@
       <c r="D355" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="E355" s="55"/>
+      <c r="E355" s="53"/>
       <c r="F355" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -13756,14 +13694,14 @@
       <c r="B356" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="C356" s="45" t="s">
+      <c r="C356" s="44" t="s">
         <v>628</v>
       </c>
-      <c r="D356" s="41" t="s">
-        <v>1122</v>
-      </c>
-      <c r="E356" s="54" t="s">
-        <v>1140</v>
+      <c r="D356" s="45" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E356" s="62" t="s">
+        <v>1149</v>
       </c>
       <c r="F356" s="3"/>
     </row>
@@ -13778,7 +13716,7 @@
         <v>630</v>
       </c>
       <c r="D357" s="3"/>
-      <c r="E357" s="55"/>
+      <c r="E357" s="53"/>
       <c r="F357" s="18"/>
     </row>
     <row r="358" spans="1:6">
@@ -13794,9 +13732,9 @@
       <c r="D358" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="E358" s="55"/>
-      <c r="F358" s="26" t="s">
-        <v>1136</v>
+      <c r="E358" s="53"/>
+      <c r="F358" s="25" t="s">
+        <v>1135</v>
       </c>
     </row>
     <row r="359" spans="1:6" ht="31.5">
@@ -13810,10 +13748,10 @@
         <v>670</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E359" s="60"/>
-      <c r="F359" s="26"/>
+        <v>1129</v>
+      </c>
+      <c r="E359" s="58"/>
+      <c r="F359" s="25"/>
     </row>
     <row r="360" spans="1:6" ht="31.5">
       <c r="A360" s="3" t="s">
@@ -13828,8 +13766,8 @@
       <c r="D360" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="E360" s="55"/>
-      <c r="F360" s="26"/>
+      <c r="E360" s="53"/>
+      <c r="F360" s="25"/>
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="3" t="s">
@@ -13842,9 +13780,9 @@
         <v>637</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="E361" s="55"/>
+        <v>1127</v>
+      </c>
+      <c r="E361" s="53"/>
       <c r="F361" s="7"/>
     </row>
     <row r="362" spans="1:6" ht="31.5">
@@ -13854,13 +13792,13 @@
       <c r="B362" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="C362" s="45" t="s">
+      <c r="C362" s="44" t="s">
         <v>639</v>
       </c>
-      <c r="D362" s="40" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E362" s="55" t="s">
+      <c r="D362" s="39" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E362" s="53" t="s">
         <v>640</v>
       </c>
       <c r="F362" s="7"/>
@@ -13876,7 +13814,7 @@
         <v>45</v>
       </c>
       <c r="D363" s="3"/>
-      <c r="E363" s="55"/>
+      <c r="E363" s="53"/>
       <c r="F363" s="19"/>
     </row>
     <row r="364" spans="1:6">
@@ -13890,7 +13828,7 @@
         <v>42</v>
       </c>
       <c r="D364" s="3"/>
-      <c r="E364" s="55"/>
+      <c r="E364" s="53"/>
       <c r="F364" s="21"/>
     </row>
     <row r="365" spans="1:6" ht="94.5">
@@ -13906,8 +13844,8 @@
       <c r="D365" s="3">
         <v>78.3</v>
       </c>
-      <c r="E365" s="55"/>
-      <c r="F365" s="26" t="s">
+      <c r="E365" s="53"/>
+      <c r="F365" s="25" t="s">
         <v>571</v>
       </c>
     </row>
@@ -13924,7 +13862,7 @@
       <c r="D366" s="3">
         <v>78.099999999999994</v>
       </c>
-      <c r="E366" s="55"/>
+      <c r="E366" s="53"/>
       <c r="F366" s="7"/>
     </row>
     <row r="367" spans="1:6" ht="31.5">
@@ -13940,8 +13878,8 @@
       <c r="D367" s="3">
         <v>78.099999999999994</v>
       </c>
-      <c r="E367" s="55"/>
-      <c r="F367" s="26"/>
+      <c r="E367" s="53"/>
+      <c r="F367" s="25"/>
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="3" t="s">
@@ -13954,7 +13892,7 @@
         <v>43</v>
       </c>
       <c r="D368" s="3"/>
-      <c r="E368" s="55"/>
+      <c r="E368" s="53"/>
       <c r="F368" s="21"/>
     </row>
     <row r="369" spans="1:6">
@@ -13968,7 +13906,7 @@
         <v>648</v>
       </c>
       <c r="D369" s="3"/>
-      <c r="E369" s="55"/>
+      <c r="E369" s="53"/>
       <c r="F369" s="21"/>
     </row>
     <row r="370" spans="1:6" ht="47.25">
@@ -13981,10 +13919,10 @@
       <c r="C370" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="D370" s="40" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E370" s="55"/>
+      <c r="D370" s="39" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E370" s="53"/>
       <c r="F370" s="5" t="s">
         <v>685</v>
       </c>
@@ -14002,8 +13940,8 @@
       <c r="D371" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="E371" s="55"/>
-      <c r="F371" s="26"/>
+      <c r="E371" s="53"/>
+      <c r="F371" s="25"/>
     </row>
     <row r="372" spans="1:6">
       <c r="A372" s="3" t="s">
@@ -14018,8 +13956,8 @@
       <c r="D372" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="E372" s="55"/>
-      <c r="F372" s="26"/>
+      <c r="E372" s="53"/>
+      <c r="F372" s="25"/>
     </row>
     <row r="373" spans="1:6" ht="47.25">
       <c r="A373" s="3" t="s">
@@ -14034,8 +13972,8 @@
       <c r="D373" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="E373" s="55"/>
-      <c r="F373" s="26"/>
+      <c r="E373" s="53"/>
+      <c r="F373" s="25"/>
     </row>
     <row r="374" spans="1:6" ht="31.5">
       <c r="A374" s="3" t="s">
@@ -14050,8 +13988,8 @@
       <c r="D374" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="E374" s="55"/>
-      <c r="F374" s="26"/>
+      <c r="E374" s="53"/>
+      <c r="F374" s="25"/>
     </row>
     <row r="375" spans="1:6" ht="47.25">
       <c r="A375" s="3" t="s">
@@ -14066,8 +14004,8 @@
       <c r="D375" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="E375" s="55"/>
-      <c r="F375" s="26"/>
+      <c r="E375" s="53"/>
+      <c r="F375" s="25"/>
     </row>
     <row r="376" spans="1:6">
       <c r="A376" s="3" t="s">
@@ -14080,7 +14018,7 @@
         <v>624</v>
       </c>
       <c r="D376" s="3"/>
-      <c r="E376" s="55"/>
+      <c r="E376" s="53"/>
       <c r="F376" s="18"/>
     </row>
     <row r="377" spans="1:6">
@@ -14096,9 +14034,9 @@
       <c r="D377" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="E377" s="55"/>
+      <c r="E377" s="53"/>
       <c r="F377" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -14108,14 +14046,14 @@
       <c r="B378" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="C378" s="45" t="s">
+      <c r="C378" s="44" t="s">
         <v>628</v>
       </c>
-      <c r="D378" s="41" t="s">
-        <v>1122</v>
-      </c>
-      <c r="E378" s="54" t="s">
-        <v>1140</v>
+      <c r="D378" s="45" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E378" s="62" t="s">
+        <v>1149</v>
       </c>
       <c r="F378" s="3"/>
     </row>
@@ -14130,7 +14068,7 @@
         <v>630</v>
       </c>
       <c r="D379" s="3"/>
-      <c r="E379" s="55"/>
+      <c r="E379" s="53"/>
       <c r="F379" s="18"/>
     </row>
     <row r="380" spans="1:6">
@@ -14146,9 +14084,9 @@
       <c r="D380" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="E380" s="55"/>
-      <c r="F380" s="26" t="s">
-        <v>1136</v>
+      <c r="E380" s="53"/>
+      <c r="F380" s="25" t="s">
+        <v>1135</v>
       </c>
     </row>
     <row r="381" spans="1:6" ht="31.5">
@@ -14162,10 +14100,10 @@
         <v>670</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E381" s="60"/>
-      <c r="F381" s="26"/>
+        <v>1129</v>
+      </c>
+      <c r="E381" s="58"/>
+      <c r="F381" s="25"/>
     </row>
     <row r="382" spans="1:6" ht="31.5">
       <c r="A382" s="3" t="s">
@@ -14180,8 +14118,8 @@
       <c r="D382" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="E382" s="55"/>
-      <c r="F382" s="26"/>
+      <c r="E382" s="53"/>
+      <c r="F382" s="25"/>
     </row>
     <row r="383" spans="1:6">
       <c r="A383" s="3" t="s">
@@ -14194,9 +14132,9 @@
         <v>637</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="E383" s="55"/>
+        <v>1127</v>
+      </c>
+      <c r="E383" s="53"/>
       <c r="F383" s="7"/>
     </row>
     <row r="384" spans="1:6" ht="31.5">
@@ -14206,13 +14144,13 @@
       <c r="B384" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="C384" s="45" t="s">
+      <c r="C384" s="44" t="s">
         <v>639</v>
       </c>
-      <c r="D384" s="40" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E384" s="55" t="s">
+      <c r="D384" s="39" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E384" s="53" t="s">
         <v>640</v>
       </c>
       <c r="F384" s="7"/>
@@ -14228,7 +14166,7 @@
         <v>46</v>
       </c>
       <c r="D385" s="3"/>
-      <c r="E385" s="55"/>
+      <c r="E385" s="53"/>
       <c r="F385" s="19"/>
     </row>
     <row r="386" spans="1:6">
@@ -14242,7 +14180,7 @@
         <v>42</v>
       </c>
       <c r="D386" s="3"/>
-      <c r="E386" s="55"/>
+      <c r="E386" s="53"/>
       <c r="F386" s="21"/>
     </row>
     <row r="387" spans="1:6" ht="94.5">
@@ -14258,8 +14196,8 @@
       <c r="D387" s="3">
         <v>78.3</v>
       </c>
-      <c r="E387" s="55"/>
-      <c r="F387" s="26" t="s">
+      <c r="E387" s="53"/>
+      <c r="F387" s="25" t="s">
         <v>571</v>
       </c>
     </row>
@@ -14276,8 +14214,8 @@
       <c r="D388" s="3">
         <v>78.099999999999994</v>
       </c>
-      <c r="E388" s="55"/>
-      <c r="F388" s="26"/>
+      <c r="E388" s="53"/>
+      <c r="F388" s="25"/>
     </row>
     <row r="389" spans="1:6" ht="31.5">
       <c r="A389" s="3" t="s">
@@ -14292,8 +14230,8 @@
       <c r="D389" s="3">
         <v>78.099999999999994</v>
       </c>
-      <c r="E389" s="55"/>
-      <c r="F389" s="26"/>
+      <c r="E389" s="53"/>
+      <c r="F389" s="25"/>
     </row>
     <row r="390" spans="1:6">
       <c r="A390" s="3" t="s">
@@ -14306,7 +14244,7 @@
         <v>43</v>
       </c>
       <c r="D390" s="3"/>
-      <c r="E390" s="55"/>
+      <c r="E390" s="53"/>
       <c r="F390" s="21"/>
     </row>
     <row r="391" spans="1:6">
@@ -14320,7 +14258,7 @@
         <v>648</v>
       </c>
       <c r="D391" s="3"/>
-      <c r="E391" s="55"/>
+      <c r="E391" s="53"/>
       <c r="F391" s="21"/>
     </row>
     <row r="392" spans="1:6">
@@ -14336,7 +14274,7 @@
       <c r="D392" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="E392" s="55"/>
+      <c r="E392" s="53"/>
       <c r="F392" s="7" t="s">
         <v>713</v>
       </c>
@@ -14354,8 +14292,8 @@
       <c r="D393" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="E393" s="55"/>
-      <c r="F393" s="26"/>
+      <c r="E393" s="53"/>
+      <c r="F393" s="25"/>
     </row>
     <row r="394" spans="1:6">
       <c r="A394" s="3" t="s">
@@ -14370,8 +14308,8 @@
       <c r="D394" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="E394" s="55"/>
-      <c r="F394" s="26"/>
+      <c r="E394" s="53"/>
+      <c r="F394" s="25"/>
     </row>
     <row r="395" spans="1:6" ht="31.5">
       <c r="A395" s="3" t="s">
@@ -14386,7 +14324,7 @@
       <c r="D395" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="E395" s="55"/>
+      <c r="E395" s="53"/>
       <c r="F395" s="7"/>
     </row>
     <row r="396" spans="1:6">
@@ -14400,7 +14338,7 @@
         <v>721</v>
       </c>
       <c r="D396" s="3"/>
-      <c r="E396" s="55"/>
+      <c r="E396" s="53"/>
       <c r="F396" s="21"/>
     </row>
     <row r="397" spans="1:6" ht="31.5">
@@ -14416,7 +14354,7 @@
       <c r="D397" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="E397" s="55"/>
+      <c r="E397" s="53"/>
       <c r="F397" s="7" t="s">
         <v>724</v>
       </c>
@@ -14431,12 +14369,10 @@
       <c r="C398" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="D398" s="41" t="s">
+      <c r="D398" s="45" t="s">
         <v>728</v>
       </c>
-      <c r="E398" s="54" t="s">
-        <v>728</v>
-      </c>
+      <c r="E398" s="62"/>
       <c r="F398" s="7"/>
     </row>
     <row r="399" spans="1:6" ht="31.5">
@@ -14449,12 +14385,10 @@
       <c r="C399" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D399" s="41" t="s">
+      <c r="D399" s="45" t="s">
         <v>728</v>
       </c>
-      <c r="E399" s="54" t="s">
-        <v>728</v>
-      </c>
+      <c r="E399" s="62"/>
       <c r="F399" s="7"/>
     </row>
     <row r="400" spans="1:6">
@@ -14467,8 +14401,8 @@
       <c r="C400" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="D400" s="3"/>
-      <c r="E400" s="55"/>
+      <c r="D400" s="44"/>
+      <c r="E400" s="62"/>
       <c r="F400" s="18"/>
     </row>
     <row r="401" spans="1:6">
@@ -14481,11 +14415,11 @@
       <c r="C401" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="D401" s="3" t="s">
+      <c r="D401" s="44" t="s">
         <v>594</v>
       </c>
-      <c r="E401" s="55"/>
-      <c r="F401" s="26" t="s">
+      <c r="E401" s="62"/>
+      <c r="F401" s="25" t="s">
         <v>733</v>
       </c>
     </row>
@@ -14499,10 +14433,10 @@
       <c r="C402" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="D402" s="3" t="s">
+      <c r="D402" s="44" t="s">
         <v>597</v>
       </c>
-      <c r="E402" s="55"/>
+      <c r="E402" s="62"/>
       <c r="F402" s="5"/>
     </row>
     <row r="403" spans="1:6" ht="31.5">
@@ -14515,10 +14449,10 @@
       <c r="C403" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="D403" s="3" t="s">
+      <c r="D403" s="44" t="s">
         <v>600</v>
       </c>
-      <c r="E403" s="55"/>
+      <c r="E403" s="62"/>
       <c r="F403" s="5"/>
     </row>
     <row r="404" spans="1:6">
@@ -14531,10 +14465,10 @@
       <c r="C404" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="D404" s="3" t="s">
+      <c r="D404" s="44" t="s">
         <v>600</v>
       </c>
-      <c r="E404" s="55"/>
+      <c r="E404" s="62"/>
       <c r="F404" s="3"/>
     </row>
     <row r="405" spans="1:6">
@@ -14547,10 +14481,10 @@
       <c r="C405" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="D405" s="3" t="s">
+      <c r="D405" s="44" t="s">
         <v>603</v>
       </c>
-      <c r="E405" s="55"/>
+      <c r="E405" s="62"/>
       <c r="F405" s="5"/>
     </row>
     <row r="406" spans="1:6" ht="47.25">
@@ -14563,11 +14497,11 @@
       <c r="C406" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="D406" s="3" t="s">
+      <c r="D406" s="44" t="s">
         <v>606</v>
       </c>
-      <c r="E406" s="55"/>
-      <c r="F406" s="26"/>
+      <c r="E406" s="62"/>
+      <c r="F406" s="25"/>
     </row>
     <row r="407" spans="1:6">
       <c r="A407" s="3" t="s">
@@ -14579,8 +14513,8 @@
       <c r="C407" s="13" t="s">
         <v>608</v>
       </c>
-      <c r="D407" s="3"/>
-      <c r="E407" s="55"/>
+      <c r="D407" s="44"/>
+      <c r="E407" s="62"/>
       <c r="F407" s="21"/>
     </row>
     <row r="408" spans="1:6" ht="78.75">
@@ -14593,13 +14527,11 @@
       <c r="C408" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="D408" s="41" t="s">
+      <c r="D408" s="45" t="s">
         <v>609</v>
       </c>
-      <c r="E408" s="54" t="s">
-        <v>609</v>
-      </c>
-      <c r="F408" s="26" t="s">
+      <c r="E408" s="62"/>
+      <c r="F408" s="25" t="s">
         <v>742</v>
       </c>
     </row>
@@ -14613,13 +14545,11 @@
       <c r="C409" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="D409" s="41" t="s">
+      <c r="D409" s="45" t="s">
         <v>609</v>
       </c>
-      <c r="E409" s="54" t="s">
-        <v>609</v>
-      </c>
-      <c r="F409" s="26"/>
+      <c r="E409" s="62"/>
+      <c r="F409" s="25"/>
     </row>
     <row r="410" spans="1:6" ht="31.5">
       <c r="A410" s="3" t="s">
@@ -14631,13 +14561,11 @@
       <c r="C410" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="D410" s="41" t="s">
+      <c r="D410" s="45" t="s">
         <v>609</v>
       </c>
-      <c r="E410" s="54" t="s">
-        <v>609</v>
-      </c>
-      <c r="F410" s="26" t="s">
+      <c r="E410" s="62"/>
+      <c r="F410" s="25" t="s">
         <v>609</v>
       </c>
     </row>
@@ -14654,8 +14582,8 @@
       <c r="D411" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="E411" s="55"/>
-      <c r="F411" s="26"/>
+      <c r="E411" s="62"/>
+      <c r="F411" s="25"/>
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="3" t="s">
@@ -14668,7 +14596,7 @@
         <v>624</v>
       </c>
       <c r="D412" s="3"/>
-      <c r="E412" s="55"/>
+      <c r="E412" s="62"/>
       <c r="F412" s="21"/>
     </row>
     <row r="413" spans="1:6">
@@ -14684,9 +14612,9 @@
       <c r="D413" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="E413" s="55"/>
+      <c r="E413" s="62"/>
       <c r="F413" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -14696,14 +14624,14 @@
       <c r="B414" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="C414" s="45" t="s">
+      <c r="C414" s="44" t="s">
         <v>628</v>
       </c>
-      <c r="D414" s="41" t="s">
-        <v>1122</v>
-      </c>
-      <c r="E414" s="54" t="s">
-        <v>1140</v>
+      <c r="D414" s="45" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E414" s="62" t="s">
+        <v>1149</v>
       </c>
       <c r="F414" s="7"/>
     </row>
@@ -14715,10 +14643,10 @@
         <v>750</v>
       </c>
       <c r="C415" s="13" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D415" s="3"/>
-      <c r="E415" s="55"/>
+      <c r="E415" s="53"/>
       <c r="F415" s="21"/>
     </row>
     <row r="416" spans="1:6" ht="31.5">
@@ -14728,13 +14656,13 @@
       <c r="B416" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="C416" s="45" t="s">
+      <c r="C416" s="44" t="s">
         <v>639</v>
       </c>
-      <c r="D416" s="40" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E416" s="55" t="s">
+      <c r="D416" s="39" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E416" s="53" t="s">
         <v>640</v>
       </c>
       <c r="F416" s="7"/>
@@ -14750,7 +14678,7 @@
         <v>47</v>
       </c>
       <c r="D417" s="3"/>
-      <c r="E417" s="55"/>
+      <c r="E417" s="53"/>
       <c r="F417" s="10"/>
     </row>
     <row r="418" spans="1:6">
@@ -14764,10 +14692,10 @@
         <v>48</v>
       </c>
       <c r="D418" s="11"/>
-      <c r="E418" s="56" t="s">
+      <c r="E418" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="F418" s="26"/>
+      <c r="F418" s="25"/>
     </row>
     <row r="419" spans="1:6">
       <c r="A419" s="3" t="s">
@@ -14780,10 +14708,10 @@
         <v>42</v>
       </c>
       <c r="D419" s="11"/>
-      <c r="E419" s="56" t="s">
+      <c r="E419" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="F419" s="26"/>
+      <c r="F419" s="25"/>
     </row>
     <row r="420" spans="1:6">
       <c r="A420" s="3" t="s">
@@ -14796,10 +14724,10 @@
         <v>43</v>
       </c>
       <c r="D420" s="11"/>
-      <c r="E420" s="56" t="s">
+      <c r="E420" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="F420" s="26"/>
+      <c r="F420" s="25"/>
     </row>
     <row r="421" spans="1:6">
       <c r="A421" s="3" t="s">
@@ -14812,7 +14740,7 @@
         <v>49</v>
       </c>
       <c r="D421" s="11"/>
-      <c r="E421" s="61"/>
+      <c r="E421" s="59"/>
       <c r="F421" s="10"/>
     </row>
     <row r="422" spans="1:6">
@@ -14826,10 +14754,10 @@
         <v>50</v>
       </c>
       <c r="D422" s="11"/>
-      <c r="E422" s="56" t="s">
+      <c r="E422" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="F422" s="26"/>
+      <c r="F422" s="25"/>
     </row>
     <row r="423" spans="1:6">
       <c r="A423" s="3" t="s">
@@ -14842,10 +14770,10 @@
         <v>42</v>
       </c>
       <c r="D423" s="11"/>
-      <c r="E423" s="56" t="s">
+      <c r="E423" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="F423" s="26"/>
+      <c r="F423" s="25"/>
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="3" t="s">
@@ -14858,7 +14786,7 @@
         <v>51</v>
       </c>
       <c r="D424" s="3"/>
-      <c r="E424" s="55"/>
+      <c r="E424" s="53"/>
       <c r="F424" s="10"/>
     </row>
     <row r="425" spans="1:6">
@@ -14872,7 +14800,7 @@
         <v>42</v>
       </c>
       <c r="D425" s="3"/>
-      <c r="E425" s="55"/>
+      <c r="E425" s="53"/>
       <c r="F425" s="21"/>
     </row>
     <row r="426" spans="1:6" ht="94.5">
@@ -14888,8 +14816,8 @@
       <c r="D426" s="3">
         <v>78.3</v>
       </c>
-      <c r="E426" s="55"/>
-      <c r="F426" s="26" t="s">
+      <c r="E426" s="53"/>
+      <c r="F426" s="25" t="s">
         <v>571</v>
       </c>
     </row>
@@ -14906,8 +14834,8 @@
       <c r="D427" s="3">
         <v>78.099999999999994</v>
       </c>
-      <c r="E427" s="55"/>
-      <c r="F427" s="26"/>
+      <c r="E427" s="53"/>
+      <c r="F427" s="25"/>
     </row>
     <row r="428" spans="1:6" ht="31.5">
       <c r="A428" s="3" t="s">
@@ -14922,8 +14850,8 @@
       <c r="D428" s="3">
         <v>78.099999999999994</v>
       </c>
-      <c r="E428" s="55"/>
-      <c r="F428" s="26"/>
+      <c r="E428" s="53"/>
+      <c r="F428" s="25"/>
     </row>
     <row r="429" spans="1:6">
       <c r="A429" s="3" t="s">
@@ -14936,7 +14864,7 @@
         <v>43</v>
       </c>
       <c r="D429" s="3"/>
-      <c r="E429" s="55"/>
+      <c r="E429" s="53"/>
       <c r="F429" s="21"/>
     </row>
     <row r="430" spans="1:6">
@@ -14950,7 +14878,7 @@
         <v>648</v>
       </c>
       <c r="D430" s="3"/>
-      <c r="E430" s="55"/>
+      <c r="E430" s="53"/>
       <c r="F430" s="21"/>
     </row>
     <row r="431" spans="1:6" ht="31.5">
@@ -14966,9 +14894,9 @@
       <c r="D431" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="E431" s="55"/>
-      <c r="F431" s="26" t="s">
-        <v>1126</v>
+      <c r="E431" s="53"/>
+      <c r="F431" s="25" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -14984,8 +14912,8 @@
       <c r="D432" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="E432" s="55"/>
-      <c r="F432" s="26"/>
+      <c r="E432" s="53"/>
+      <c r="F432" s="25"/>
     </row>
     <row r="433" spans="1:6">
       <c r="A433" s="3" t="s">
@@ -14994,13 +14922,13 @@
       <c r="B433" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="C433" s="45" t="s">
+      <c r="C433" s="44" t="s">
         <v>771</v>
       </c>
-      <c r="D433" s="40" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E433" s="55"/>
+      <c r="D433" s="39" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E433" s="53"/>
       <c r="F433" s="7"/>
     </row>
     <row r="434" spans="1:6" ht="31.5">
@@ -15016,29 +14944,29 @@
       <c r="D434" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="E434" s="55"/>
+      <c r="E434" s="53"/>
       <c r="F434" s="7"/>
     </row>
     <row r="435" spans="1:6">
       <c r="A435" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B435" s="40" t="s">
+      <c r="B435" s="39" t="s">
         <v>774</v>
       </c>
-      <c r="C435" s="40" t="s">
-        <v>1148</v>
+      <c r="C435" s="39" t="s">
+        <v>1145</v>
       </c>
       <c r="D435" s="3"/>
-      <c r="E435" s="55"/>
+      <c r="E435" s="53"/>
       <c r="F435" s="7"/>
     </row>
     <row r="436" spans="1:6" ht="63">
       <c r="A436" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B436" s="40" t="s">
-        <v>1149</v>
+      <c r="B436" s="39" t="s">
+        <v>1146</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>775</v>
@@ -15046,23 +14974,23 @@
       <c r="D436" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="E436" s="55"/>
+      <c r="E436" s="53"/>
       <c r="F436" s="7"/>
     </row>
     <row r="437" spans="1:6" ht="31.5">
       <c r="A437" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B437" s="40" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C437" s="40" t="s">
+      <c r="B437" s="39" t="s">
         <v>1147</v>
+      </c>
+      <c r="C437" s="39" t="s">
+        <v>1144</v>
       </c>
       <c r="D437" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="E437" s="55"/>
+      <c r="E437" s="53"/>
       <c r="F437" s="7"/>
     </row>
     <row r="438" spans="1:6">
@@ -15076,7 +15004,7 @@
         <v>624</v>
       </c>
       <c r="D438" s="3"/>
-      <c r="E438" s="55"/>
+      <c r="E438" s="53"/>
       <c r="F438" s="21"/>
     </row>
     <row r="439" spans="1:6">
@@ -15092,9 +15020,9 @@
       <c r="D439" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="E439" s="55"/>
-      <c r="F439" s="26" t="s">
-        <v>1123</v>
+      <c r="E439" s="53"/>
+      <c r="F439" s="25" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -15104,15 +15032,13 @@
       <c r="B440" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="C440" s="45" t="s">
+      <c r="C440" s="44" t="s">
         <v>628</v>
       </c>
-      <c r="D440" s="41" t="s">
-        <v>1122</v>
-      </c>
-      <c r="E440" s="54" t="s">
-        <v>1122</v>
-      </c>
+      <c r="D440" s="45" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E440" s="62"/>
       <c r="F440" s="7"/>
     </row>
     <row r="441" spans="1:6">
@@ -15126,7 +15052,7 @@
         <v>630</v>
       </c>
       <c r="D441" s="3"/>
-      <c r="E441" s="55"/>
+      <c r="E441" s="53"/>
       <c r="F441" s="21"/>
     </row>
     <row r="442" spans="1:6">
@@ -15142,9 +15068,9 @@
       <c r="D442" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="E442" s="55"/>
+      <c r="E442" s="53"/>
       <c r="F442" s="8" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="443" spans="1:6" ht="31.5">
@@ -15160,7 +15086,7 @@
       <c r="D443" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="E443" s="55"/>
+      <c r="E443" s="53"/>
       <c r="F443" s="5"/>
     </row>
     <row r="444" spans="1:6" ht="31.5">
@@ -15176,7 +15102,7 @@
       <c r="D444" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="E444" s="55"/>
+      <c r="E444" s="53"/>
       <c r="F444" s="5"/>
     </row>
     <row r="445" spans="1:6">
@@ -15190,9 +15116,9 @@
         <v>637</v>
       </c>
       <c r="D445" s="3" t="s">
-        <v>1128</v>
-      </c>
-      <c r="E445" s="55"/>
+        <v>1127</v>
+      </c>
+      <c r="E445" s="53"/>
       <c r="F445" s="3"/>
     </row>
     <row r="446" spans="1:6" ht="31.5">
@@ -15202,13 +15128,13 @@
       <c r="B446" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="C446" s="45" t="s">
+      <c r="C446" s="44" t="s">
         <v>639</v>
       </c>
-      <c r="D446" s="40" t="s">
-        <v>1125</v>
-      </c>
-      <c r="E446" s="55"/>
+      <c r="D446" s="39" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E446" s="53"/>
       <c r="F446" s="3"/>
     </row>
   </sheetData>
@@ -15237,7 +15163,7 @@
     <col min="4" max="5" width="81.375" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
     <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="28"/>
+    <col min="1026" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -15267,8 +15193,8 @@
       <c r="A2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>1145</v>
+      <c r="B2" s="39" t="s">
+        <v>1142</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>793</v>
@@ -15286,8 +15212,8 @@
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>1145</v>
+      <c r="B3" s="39" t="s">
+        <v>1142</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>795</v>
@@ -15305,8 +15231,8 @@
       <c r="A4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>1145</v>
+      <c r="B4" s="39" t="s">
+        <v>1142</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>796</v>
@@ -15326,8 +15252,8 @@
       <c r="A5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>1145</v>
+      <c r="B5" s="39" t="s">
+        <v>1142</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>797</v>
@@ -15345,8 +15271,8 @@
       <c r="A6" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="B6" s="40" t="s">
-        <v>1145</v>
+      <c r="B6" s="39" t="s">
+        <v>1142</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>801</v>
@@ -15374,7 +15300,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -15385,7 +15313,7 @@
     <col min="5" max="6" width="22.875" style="4" customWidth="1"/>
     <col min="7" max="7" width="20" style="4" customWidth="1"/>
     <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="28"/>
+    <col min="1026" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -16123,7 +16051,7 @@
         <v>281</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>859</v>
@@ -16142,7 +16070,7 @@
         <v>278</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>860</v>
@@ -16161,7 +16089,7 @@
         <v>270</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>862</v>
@@ -16180,7 +16108,7 @@
         <v>267</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>864</v>
@@ -16199,7 +16127,7 @@
         <v>276</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>866</v>
@@ -16227,23 +16155,23 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:IV49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="42" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="41" customWidth="1"/>
     <col min="2" max="2" width="47.375" style="4" customWidth="1"/>
     <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
     <col min="4" max="5" width="80.875" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
     <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="28" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="28"/>
+    <col min="257" max="1025" width="8.875" style="27" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="35" customFormat="1" ht="30.95" customHeight="1">
+    <row r="1" spans="1:256" s="34" customFormat="1" ht="30.95" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>786</v>
       </c>
@@ -16265,255 +16193,255 @@
       <c r="G1" s="5" t="s">
         <v>792</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="34"/>
-      <c r="BG1" s="34"/>
-      <c r="BH1" s="34"/>
-      <c r="BI1" s="34"/>
-      <c r="BJ1" s="34"/>
-      <c r="BK1" s="34"/>
-      <c r="BL1" s="34"/>
-      <c r="BM1" s="34"/>
-      <c r="BN1" s="34"/>
-      <c r="BO1" s="34"/>
-      <c r="BP1" s="34"/>
-      <c r="BQ1" s="34"/>
-      <c r="BR1" s="34"/>
-      <c r="BS1" s="34"/>
-      <c r="BT1" s="34"/>
-      <c r="BU1" s="34"/>
-      <c r="BV1" s="34"/>
-      <c r="BW1" s="34"/>
-      <c r="BX1" s="34"/>
-      <c r="BY1" s="34"/>
-      <c r="BZ1" s="34"/>
-      <c r="CA1" s="34"/>
-      <c r="CB1" s="34"/>
-      <c r="CC1" s="34"/>
-      <c r="CD1" s="34"/>
-      <c r="CE1" s="34"/>
-      <c r="CF1" s="34"/>
-      <c r="CG1" s="34"/>
-      <c r="CH1" s="34"/>
-      <c r="CI1" s="34"/>
-      <c r="CJ1" s="34"/>
-      <c r="CK1" s="34"/>
-      <c r="CL1" s="34"/>
-      <c r="CM1" s="34"/>
-      <c r="CN1" s="34"/>
-      <c r="CO1" s="34"/>
-      <c r="CP1" s="34"/>
-      <c r="CQ1" s="34"/>
-      <c r="CR1" s="34"/>
-      <c r="CS1" s="34"/>
-      <c r="CT1" s="34"/>
-      <c r="CU1" s="34"/>
-      <c r="CV1" s="34"/>
-      <c r="CW1" s="34"/>
-      <c r="CX1" s="34"/>
-      <c r="CY1" s="34"/>
-      <c r="CZ1" s="34"/>
-      <c r="DA1" s="34"/>
-      <c r="DB1" s="34"/>
-      <c r="DC1" s="34"/>
-      <c r="DD1" s="34"/>
-      <c r="DE1" s="34"/>
-      <c r="DF1" s="34"/>
-      <c r="DG1" s="34"/>
-      <c r="DH1" s="34"/>
-      <c r="DI1" s="34"/>
-      <c r="DJ1" s="34"/>
-      <c r="DK1" s="34"/>
-      <c r="DL1" s="34"/>
-      <c r="DM1" s="34"/>
-      <c r="DN1" s="34"/>
-      <c r="DO1" s="34"/>
-      <c r="DP1" s="34"/>
-      <c r="DQ1" s="34"/>
-      <c r="DR1" s="34"/>
-      <c r="DS1" s="34"/>
-      <c r="DT1" s="34"/>
-      <c r="DU1" s="34"/>
-      <c r="DV1" s="34"/>
-      <c r="DW1" s="34"/>
-      <c r="DX1" s="34"/>
-      <c r="DY1" s="34"/>
-      <c r="DZ1" s="34"/>
-      <c r="EA1" s="34"/>
-      <c r="EB1" s="34"/>
-      <c r="EC1" s="34"/>
-      <c r="ED1" s="34"/>
-      <c r="EE1" s="34"/>
-      <c r="EF1" s="34"/>
-      <c r="EG1" s="34"/>
-      <c r="EH1" s="34"/>
-      <c r="EI1" s="34"/>
-      <c r="EJ1" s="34"/>
-      <c r="EK1" s="34"/>
-      <c r="EL1" s="34"/>
-      <c r="EM1" s="34"/>
-      <c r="EN1" s="34"/>
-      <c r="EO1" s="34"/>
-      <c r="EP1" s="34"/>
-      <c r="EQ1" s="34"/>
-      <c r="ER1" s="34"/>
-      <c r="ES1" s="34"/>
-      <c r="ET1" s="34"/>
-      <c r="EU1" s="34"/>
-      <c r="EV1" s="34"/>
-      <c r="EW1" s="34"/>
-      <c r="EX1" s="34"/>
-      <c r="EY1" s="34"/>
-      <c r="EZ1" s="34"/>
-      <c r="FA1" s="34"/>
-      <c r="FB1" s="34"/>
-      <c r="FC1" s="34"/>
-      <c r="FD1" s="34"/>
-      <c r="FE1" s="34"/>
-      <c r="FF1" s="34"/>
-      <c r="FG1" s="34"/>
-      <c r="FH1" s="34"/>
-      <c r="FI1" s="34"/>
-      <c r="FJ1" s="34"/>
-      <c r="FK1" s="34"/>
-      <c r="FL1" s="34"/>
-      <c r="FM1" s="34"/>
-      <c r="FN1" s="34"/>
-      <c r="FO1" s="34"/>
-      <c r="FP1" s="34"/>
-      <c r="FQ1" s="34"/>
-      <c r="FR1" s="34"/>
-      <c r="FS1" s="34"/>
-      <c r="FT1" s="34"/>
-      <c r="FU1" s="34"/>
-      <c r="FV1" s="34"/>
-      <c r="FW1" s="34"/>
-      <c r="FX1" s="34"/>
-      <c r="FY1" s="34"/>
-      <c r="FZ1" s="34"/>
-      <c r="GA1" s="34"/>
-      <c r="GB1" s="34"/>
-      <c r="GC1" s="34"/>
-      <c r="GD1" s="34"/>
-      <c r="GE1" s="34"/>
-      <c r="GF1" s="34"/>
-      <c r="GG1" s="34"/>
-      <c r="GH1" s="34"/>
-      <c r="GI1" s="34"/>
-      <c r="GJ1" s="34"/>
-      <c r="GK1" s="34"/>
-      <c r="GL1" s="34"/>
-      <c r="GM1" s="34"/>
-      <c r="GN1" s="34"/>
-      <c r="GO1" s="34"/>
-      <c r="GP1" s="34"/>
-      <c r="GQ1" s="34"/>
-      <c r="GR1" s="34"/>
-      <c r="GS1" s="34"/>
-      <c r="GT1" s="34"/>
-      <c r="GU1" s="34"/>
-      <c r="GV1" s="34"/>
-      <c r="GW1" s="34"/>
-      <c r="GX1" s="34"/>
-      <c r="GY1" s="34"/>
-      <c r="GZ1" s="34"/>
-      <c r="HA1" s="34"/>
-      <c r="HB1" s="34"/>
-      <c r="HC1" s="34"/>
-      <c r="HD1" s="34"/>
-      <c r="HE1" s="34"/>
-      <c r="HF1" s="34"/>
-      <c r="HG1" s="34"/>
-      <c r="HH1" s="34"/>
-      <c r="HI1" s="34"/>
-      <c r="HJ1" s="34"/>
-      <c r="HK1" s="34"/>
-      <c r="HL1" s="34"/>
-      <c r="HM1" s="34"/>
-      <c r="HN1" s="34"/>
-      <c r="HO1" s="34"/>
-      <c r="HP1" s="34"/>
-      <c r="HQ1" s="34"/>
-      <c r="HR1" s="34"/>
-      <c r="HS1" s="34"/>
-      <c r="HT1" s="34"/>
-      <c r="HU1" s="34"/>
-      <c r="HV1" s="34"/>
-      <c r="HW1" s="34"/>
-      <c r="HX1" s="34"/>
-      <c r="HY1" s="34"/>
-      <c r="HZ1" s="34"/>
-      <c r="IA1" s="34"/>
-      <c r="IB1" s="34"/>
-      <c r="IC1" s="34"/>
-      <c r="ID1" s="34"/>
-      <c r="IE1" s="34"/>
-      <c r="IF1" s="34"/>
-      <c r="IG1" s="34"/>
-      <c r="IH1" s="34"/>
-      <c r="II1" s="34"/>
-      <c r="IJ1" s="34"/>
-      <c r="IK1" s="34"/>
-      <c r="IL1" s="34"/>
-      <c r="IM1" s="34"/>
-      <c r="IN1" s="34"/>
-      <c r="IO1" s="34"/>
-      <c r="IP1" s="34"/>
-      <c r="IQ1" s="34"/>
-      <c r="IR1" s="34"/>
-      <c r="IS1" s="34"/>
-      <c r="IT1" s="34"/>
-      <c r="IU1" s="34"/>
-      <c r="IV1" s="34"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="33"/>
+      <c r="AY1" s="33"/>
+      <c r="AZ1" s="33"/>
+      <c r="BA1" s="33"/>
+      <c r="BB1" s="33"/>
+      <c r="BC1" s="33"/>
+      <c r="BD1" s="33"/>
+      <c r="BE1" s="33"/>
+      <c r="BF1" s="33"/>
+      <c r="BG1" s="33"/>
+      <c r="BH1" s="33"/>
+      <c r="BI1" s="33"/>
+      <c r="BJ1" s="33"/>
+      <c r="BK1" s="33"/>
+      <c r="BL1" s="33"/>
+      <c r="BM1" s="33"/>
+      <c r="BN1" s="33"/>
+      <c r="BO1" s="33"/>
+      <c r="BP1" s="33"/>
+      <c r="BQ1" s="33"/>
+      <c r="BR1" s="33"/>
+      <c r="BS1" s="33"/>
+      <c r="BT1" s="33"/>
+      <c r="BU1" s="33"/>
+      <c r="BV1" s="33"/>
+      <c r="BW1" s="33"/>
+      <c r="BX1" s="33"/>
+      <c r="BY1" s="33"/>
+      <c r="BZ1" s="33"/>
+      <c r="CA1" s="33"/>
+      <c r="CB1" s="33"/>
+      <c r="CC1" s="33"/>
+      <c r="CD1" s="33"/>
+      <c r="CE1" s="33"/>
+      <c r="CF1" s="33"/>
+      <c r="CG1" s="33"/>
+      <c r="CH1" s="33"/>
+      <c r="CI1" s="33"/>
+      <c r="CJ1" s="33"/>
+      <c r="CK1" s="33"/>
+      <c r="CL1" s="33"/>
+      <c r="CM1" s="33"/>
+      <c r="CN1" s="33"/>
+      <c r="CO1" s="33"/>
+      <c r="CP1" s="33"/>
+      <c r="CQ1" s="33"/>
+      <c r="CR1" s="33"/>
+      <c r="CS1" s="33"/>
+      <c r="CT1" s="33"/>
+      <c r="CU1" s="33"/>
+      <c r="CV1" s="33"/>
+      <c r="CW1" s="33"/>
+      <c r="CX1" s="33"/>
+      <c r="CY1" s="33"/>
+      <c r="CZ1" s="33"/>
+      <c r="DA1" s="33"/>
+      <c r="DB1" s="33"/>
+      <c r="DC1" s="33"/>
+      <c r="DD1" s="33"/>
+      <c r="DE1" s="33"/>
+      <c r="DF1" s="33"/>
+      <c r="DG1" s="33"/>
+      <c r="DH1" s="33"/>
+      <c r="DI1" s="33"/>
+      <c r="DJ1" s="33"/>
+      <c r="DK1" s="33"/>
+      <c r="DL1" s="33"/>
+      <c r="DM1" s="33"/>
+      <c r="DN1" s="33"/>
+      <c r="DO1" s="33"/>
+      <c r="DP1" s="33"/>
+      <c r="DQ1" s="33"/>
+      <c r="DR1" s="33"/>
+      <c r="DS1" s="33"/>
+      <c r="DT1" s="33"/>
+      <c r="DU1" s="33"/>
+      <c r="DV1" s="33"/>
+      <c r="DW1" s="33"/>
+      <c r="DX1" s="33"/>
+      <c r="DY1" s="33"/>
+      <c r="DZ1" s="33"/>
+      <c r="EA1" s="33"/>
+      <c r="EB1" s="33"/>
+      <c r="EC1" s="33"/>
+      <c r="ED1" s="33"/>
+      <c r="EE1" s="33"/>
+      <c r="EF1" s="33"/>
+      <c r="EG1" s="33"/>
+      <c r="EH1" s="33"/>
+      <c r="EI1" s="33"/>
+      <c r="EJ1" s="33"/>
+      <c r="EK1" s="33"/>
+      <c r="EL1" s="33"/>
+      <c r="EM1" s="33"/>
+      <c r="EN1" s="33"/>
+      <c r="EO1" s="33"/>
+      <c r="EP1" s="33"/>
+      <c r="EQ1" s="33"/>
+      <c r="ER1" s="33"/>
+      <c r="ES1" s="33"/>
+      <c r="ET1" s="33"/>
+      <c r="EU1" s="33"/>
+      <c r="EV1" s="33"/>
+      <c r="EW1" s="33"/>
+      <c r="EX1" s="33"/>
+      <c r="EY1" s="33"/>
+      <c r="EZ1" s="33"/>
+      <c r="FA1" s="33"/>
+      <c r="FB1" s="33"/>
+      <c r="FC1" s="33"/>
+      <c r="FD1" s="33"/>
+      <c r="FE1" s="33"/>
+      <c r="FF1" s="33"/>
+      <c r="FG1" s="33"/>
+      <c r="FH1" s="33"/>
+      <c r="FI1" s="33"/>
+      <c r="FJ1" s="33"/>
+      <c r="FK1" s="33"/>
+      <c r="FL1" s="33"/>
+      <c r="FM1" s="33"/>
+      <c r="FN1" s="33"/>
+      <c r="FO1" s="33"/>
+      <c r="FP1" s="33"/>
+      <c r="FQ1" s="33"/>
+      <c r="FR1" s="33"/>
+      <c r="FS1" s="33"/>
+      <c r="FT1" s="33"/>
+      <c r="FU1" s="33"/>
+      <c r="FV1" s="33"/>
+      <c r="FW1" s="33"/>
+      <c r="FX1" s="33"/>
+      <c r="FY1" s="33"/>
+      <c r="FZ1" s="33"/>
+      <c r="GA1" s="33"/>
+      <c r="GB1" s="33"/>
+      <c r="GC1" s="33"/>
+      <c r="GD1" s="33"/>
+      <c r="GE1" s="33"/>
+      <c r="GF1" s="33"/>
+      <c r="GG1" s="33"/>
+      <c r="GH1" s="33"/>
+      <c r="GI1" s="33"/>
+      <c r="GJ1" s="33"/>
+      <c r="GK1" s="33"/>
+      <c r="GL1" s="33"/>
+      <c r="GM1" s="33"/>
+      <c r="GN1" s="33"/>
+      <c r="GO1" s="33"/>
+      <c r="GP1" s="33"/>
+      <c r="GQ1" s="33"/>
+      <c r="GR1" s="33"/>
+      <c r="GS1" s="33"/>
+      <c r="GT1" s="33"/>
+      <c r="GU1" s="33"/>
+      <c r="GV1" s="33"/>
+      <c r="GW1" s="33"/>
+      <c r="GX1" s="33"/>
+      <c r="GY1" s="33"/>
+      <c r="GZ1" s="33"/>
+      <c r="HA1" s="33"/>
+      <c r="HB1" s="33"/>
+      <c r="HC1" s="33"/>
+      <c r="HD1" s="33"/>
+      <c r="HE1" s="33"/>
+      <c r="HF1" s="33"/>
+      <c r="HG1" s="33"/>
+      <c r="HH1" s="33"/>
+      <c r="HI1" s="33"/>
+      <c r="HJ1" s="33"/>
+      <c r="HK1" s="33"/>
+      <c r="HL1" s="33"/>
+      <c r="HM1" s="33"/>
+      <c r="HN1" s="33"/>
+      <c r="HO1" s="33"/>
+      <c r="HP1" s="33"/>
+      <c r="HQ1" s="33"/>
+      <c r="HR1" s="33"/>
+      <c r="HS1" s="33"/>
+      <c r="HT1" s="33"/>
+      <c r="HU1" s="33"/>
+      <c r="HV1" s="33"/>
+      <c r="HW1" s="33"/>
+      <c r="HX1" s="33"/>
+      <c r="HY1" s="33"/>
+      <c r="HZ1" s="33"/>
+      <c r="IA1" s="33"/>
+      <c r="IB1" s="33"/>
+      <c r="IC1" s="33"/>
+      <c r="ID1" s="33"/>
+      <c r="IE1" s="33"/>
+      <c r="IF1" s="33"/>
+      <c r="IG1" s="33"/>
+      <c r="IH1" s="33"/>
+      <c r="II1" s="33"/>
+      <c r="IJ1" s="33"/>
+      <c r="IK1" s="33"/>
+      <c r="IL1" s="33"/>
+      <c r="IM1" s="33"/>
+      <c r="IN1" s="33"/>
+      <c r="IO1" s="33"/>
+      <c r="IP1" s="33"/>
+      <c r="IQ1" s="33"/>
+      <c r="IR1" s="33"/>
+      <c r="IS1" s="33"/>
+      <c r="IT1" s="33"/>
+      <c r="IU1" s="33"/>
+      <c r="IV1" s="33"/>
     </row>
     <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -16782,17 +16710,17 @@
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A16" s="43" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B16" s="44" t="s">
+      <c r="A16" s="42" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B16" s="43" t="s">
         <v>869</v>
       </c>
-      <c r="C16" s="43" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>1112</v>
+      <c r="C16" s="42" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>1111</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="3" t="s">
@@ -16801,20 +16729,22 @@
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A17" s="43" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B17" s="44" t="s">
+      <c r="A17" s="42" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B17" s="43" t="s">
         <v>869</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="42" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>1115</v>
       </c>
-      <c r="D17" s="41" t="s">
-        <v>1116</v>
-      </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>794</v>
+      </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1">
@@ -16827,8 +16757,8 @@
       <c r="C18" s="5" t="s">
         <v>903</v>
       </c>
-      <c r="D18" s="40" t="s">
-        <v>1121</v>
+      <c r="D18" s="39" t="s">
+        <v>1120</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="3" t="s">
@@ -17396,271 +17326,271 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:256" s="50" customFormat="1" ht="31.5">
-      <c r="A49" s="41" t="s">
+    <row r="49" spans="1:256" s="49" customFormat="1" ht="31.5">
+      <c r="A49" s="40" t="s">
         <v>989</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="43" t="s">
         <v>869</v>
       </c>
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="42" t="s">
         <v>990</v>
       </c>
-      <c r="D49" s="41" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="47"/>
-      <c r="P49" s="47"/>
-      <c r="Q49" s="47"/>
-      <c r="R49" s="47"/>
-      <c r="S49" s="47"/>
-      <c r="T49" s="47"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
-      <c r="X49" s="47"/>
-      <c r="Y49" s="47"/>
-      <c r="Z49" s="47"/>
-      <c r="AA49" s="47"/>
-      <c r="AB49" s="47"/>
-      <c r="AC49" s="47"/>
-      <c r="AD49" s="47"/>
-      <c r="AE49" s="47"/>
-      <c r="AF49" s="47"/>
-      <c r="AG49" s="47"/>
-      <c r="AH49" s="47"/>
-      <c r="AI49" s="47"/>
-      <c r="AJ49" s="47"/>
-      <c r="AK49" s="47"/>
-      <c r="AL49" s="47"/>
-      <c r="AM49" s="47"/>
-      <c r="AN49" s="47"/>
-      <c r="AO49" s="47"/>
-      <c r="AP49" s="47"/>
-      <c r="AQ49" s="47"/>
-      <c r="AR49" s="47"/>
-      <c r="AS49" s="47"/>
-      <c r="AT49" s="47"/>
-      <c r="AU49" s="47"/>
-      <c r="AV49" s="47"/>
-      <c r="AW49" s="47"/>
-      <c r="AX49" s="47"/>
-      <c r="AY49" s="47"/>
-      <c r="AZ49" s="47"/>
-      <c r="BA49" s="47"/>
-      <c r="BB49" s="47"/>
-      <c r="BC49" s="47"/>
-      <c r="BD49" s="47"/>
-      <c r="BE49" s="47"/>
-      <c r="BF49" s="47"/>
-      <c r="BG49" s="47"/>
-      <c r="BH49" s="47"/>
-      <c r="BI49" s="47"/>
-      <c r="BJ49" s="47"/>
-      <c r="BK49" s="47"/>
-      <c r="BL49" s="47"/>
-      <c r="BM49" s="47"/>
-      <c r="BN49" s="47"/>
-      <c r="BO49" s="47"/>
-      <c r="BP49" s="47"/>
-      <c r="BQ49" s="47"/>
-      <c r="BR49" s="47"/>
-      <c r="BS49" s="47"/>
-      <c r="BT49" s="47"/>
-      <c r="BU49" s="47"/>
-      <c r="BV49" s="47"/>
-      <c r="BW49" s="47"/>
-      <c r="BX49" s="47"/>
-      <c r="BY49" s="47"/>
-      <c r="BZ49" s="47"/>
-      <c r="CA49" s="47"/>
-      <c r="CB49" s="47"/>
-      <c r="CC49" s="47"/>
-      <c r="CD49" s="47"/>
-      <c r="CE49" s="47"/>
-      <c r="CF49" s="47"/>
-      <c r="CG49" s="47"/>
-      <c r="CH49" s="47"/>
-      <c r="CI49" s="47"/>
-      <c r="CJ49" s="47"/>
-      <c r="CK49" s="47"/>
-      <c r="CL49" s="47"/>
-      <c r="CM49" s="47"/>
-      <c r="CN49" s="47"/>
-      <c r="CO49" s="47"/>
-      <c r="CP49" s="47"/>
-      <c r="CQ49" s="47"/>
-      <c r="CR49" s="47"/>
-      <c r="CS49" s="47"/>
-      <c r="CT49" s="47"/>
-      <c r="CU49" s="47"/>
-      <c r="CV49" s="47"/>
-      <c r="CW49" s="47"/>
-      <c r="CX49" s="47"/>
-      <c r="CY49" s="47"/>
-      <c r="CZ49" s="47"/>
-      <c r="DA49" s="47"/>
-      <c r="DB49" s="47"/>
-      <c r="DC49" s="47"/>
-      <c r="DD49" s="47"/>
-      <c r="DE49" s="47"/>
-      <c r="DF49" s="47"/>
-      <c r="DG49" s="47"/>
-      <c r="DH49" s="47"/>
-      <c r="DI49" s="47"/>
-      <c r="DJ49" s="47"/>
-      <c r="DK49" s="47"/>
-      <c r="DL49" s="47"/>
-      <c r="DM49" s="47"/>
-      <c r="DN49" s="47"/>
-      <c r="DO49" s="47"/>
-      <c r="DP49" s="47"/>
-      <c r="DQ49" s="47"/>
-      <c r="DR49" s="47"/>
-      <c r="DS49" s="47"/>
-      <c r="DT49" s="47"/>
-      <c r="DU49" s="47"/>
-      <c r="DV49" s="47"/>
-      <c r="DW49" s="47"/>
-      <c r="DX49" s="47"/>
-      <c r="DY49" s="47"/>
-      <c r="DZ49" s="47"/>
-      <c r="EA49" s="47"/>
-      <c r="EB49" s="47"/>
-      <c r="EC49" s="47"/>
-      <c r="ED49" s="47"/>
-      <c r="EE49" s="47"/>
-      <c r="EF49" s="47"/>
-      <c r="EG49" s="47"/>
-      <c r="EH49" s="47"/>
-      <c r="EI49" s="47"/>
-      <c r="EJ49" s="47"/>
-      <c r="EK49" s="47"/>
-      <c r="EL49" s="47"/>
-      <c r="EM49" s="47"/>
-      <c r="EN49" s="47"/>
-      <c r="EO49" s="47"/>
-      <c r="EP49" s="47"/>
-      <c r="EQ49" s="47"/>
-      <c r="ER49" s="47"/>
-      <c r="ES49" s="47"/>
-      <c r="ET49" s="47"/>
-      <c r="EU49" s="47"/>
-      <c r="EV49" s="47"/>
-      <c r="EW49" s="47"/>
-      <c r="EX49" s="47"/>
-      <c r="EY49" s="47"/>
-      <c r="EZ49" s="47"/>
-      <c r="FA49" s="47"/>
-      <c r="FB49" s="47"/>
-      <c r="FC49" s="47"/>
-      <c r="FD49" s="47"/>
-      <c r="FE49" s="47"/>
-      <c r="FF49" s="47"/>
-      <c r="FG49" s="47"/>
-      <c r="FH49" s="47"/>
-      <c r="FI49" s="47"/>
-      <c r="FJ49" s="47"/>
-      <c r="FK49" s="47"/>
-      <c r="FL49" s="47"/>
-      <c r="FM49" s="47"/>
-      <c r="FN49" s="47"/>
-      <c r="FO49" s="47"/>
-      <c r="FP49" s="47"/>
-      <c r="FQ49" s="47"/>
-      <c r="FR49" s="47"/>
-      <c r="FS49" s="47"/>
-      <c r="FT49" s="47"/>
-      <c r="FU49" s="47"/>
-      <c r="FV49" s="47"/>
-      <c r="FW49" s="47"/>
-      <c r="FX49" s="47"/>
-      <c r="FY49" s="47"/>
-      <c r="FZ49" s="47"/>
-      <c r="GA49" s="47"/>
-      <c r="GB49" s="47"/>
-      <c r="GC49" s="47"/>
-      <c r="GD49" s="47"/>
-      <c r="GE49" s="47"/>
-      <c r="GF49" s="47"/>
-      <c r="GG49" s="47"/>
-      <c r="GH49" s="47"/>
-      <c r="GI49" s="47"/>
-      <c r="GJ49" s="47"/>
-      <c r="GK49" s="47"/>
-      <c r="GL49" s="47"/>
-      <c r="GM49" s="47"/>
-      <c r="GN49" s="47"/>
-      <c r="GO49" s="47"/>
-      <c r="GP49" s="47"/>
-      <c r="GQ49" s="47"/>
-      <c r="GR49" s="47"/>
-      <c r="GS49" s="47"/>
-      <c r="GT49" s="47"/>
-      <c r="GU49" s="47"/>
-      <c r="GV49" s="47"/>
-      <c r="GW49" s="47"/>
-      <c r="GX49" s="47"/>
-      <c r="GY49" s="47"/>
-      <c r="GZ49" s="47"/>
-      <c r="HA49" s="47"/>
-      <c r="HB49" s="47"/>
-      <c r="HC49" s="47"/>
-      <c r="HD49" s="47"/>
-      <c r="HE49" s="47"/>
-      <c r="HF49" s="47"/>
-      <c r="HG49" s="47"/>
-      <c r="HH49" s="47"/>
-      <c r="HI49" s="47"/>
-      <c r="HJ49" s="47"/>
-      <c r="HK49" s="47"/>
-      <c r="HL49" s="47"/>
-      <c r="HM49" s="47"/>
-      <c r="HN49" s="47"/>
-      <c r="HO49" s="47"/>
-      <c r="HP49" s="47"/>
-      <c r="HQ49" s="47"/>
-      <c r="HR49" s="47"/>
-      <c r="HS49" s="47"/>
-      <c r="HT49" s="47"/>
-      <c r="HU49" s="47"/>
-      <c r="HV49" s="47"/>
-      <c r="HW49" s="47"/>
-      <c r="HX49" s="47"/>
-      <c r="HY49" s="47"/>
-      <c r="HZ49" s="47"/>
-      <c r="IA49" s="47"/>
-      <c r="IB49" s="47"/>
-      <c r="IC49" s="47"/>
-      <c r="ID49" s="47"/>
-      <c r="IE49" s="47"/>
-      <c r="IF49" s="47"/>
-      <c r="IG49" s="47"/>
-      <c r="IH49" s="47"/>
-      <c r="II49" s="47"/>
-      <c r="IJ49" s="47"/>
-      <c r="IK49" s="47"/>
-      <c r="IL49" s="47"/>
-      <c r="IM49" s="47"/>
-      <c r="IN49" s="47"/>
-      <c r="IO49" s="47"/>
-      <c r="IP49" s="47"/>
-      <c r="IQ49" s="47"/>
-      <c r="IR49" s="47"/>
-      <c r="IS49" s="47"/>
-      <c r="IT49" s="47"/>
-      <c r="IU49" s="47"/>
-      <c r="IV49" s="47"/>
+      <c r="D49" s="40" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="46"/>
+      <c r="P49" s="46"/>
+      <c r="Q49" s="46"/>
+      <c r="R49" s="46"/>
+      <c r="S49" s="46"/>
+      <c r="T49" s="46"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="46"/>
+      <c r="Y49" s="46"/>
+      <c r="Z49" s="46"/>
+      <c r="AA49" s="46"/>
+      <c r="AB49" s="46"/>
+      <c r="AC49" s="46"/>
+      <c r="AD49" s="46"/>
+      <c r="AE49" s="46"/>
+      <c r="AF49" s="46"/>
+      <c r="AG49" s="46"/>
+      <c r="AH49" s="46"/>
+      <c r="AI49" s="46"/>
+      <c r="AJ49" s="46"/>
+      <c r="AK49" s="46"/>
+      <c r="AL49" s="46"/>
+      <c r="AM49" s="46"/>
+      <c r="AN49" s="46"/>
+      <c r="AO49" s="46"/>
+      <c r="AP49" s="46"/>
+      <c r="AQ49" s="46"/>
+      <c r="AR49" s="46"/>
+      <c r="AS49" s="46"/>
+      <c r="AT49" s="46"/>
+      <c r="AU49" s="46"/>
+      <c r="AV49" s="46"/>
+      <c r="AW49" s="46"/>
+      <c r="AX49" s="46"/>
+      <c r="AY49" s="46"/>
+      <c r="AZ49" s="46"/>
+      <c r="BA49" s="46"/>
+      <c r="BB49" s="46"/>
+      <c r="BC49" s="46"/>
+      <c r="BD49" s="46"/>
+      <c r="BE49" s="46"/>
+      <c r="BF49" s="46"/>
+      <c r="BG49" s="46"/>
+      <c r="BH49" s="46"/>
+      <c r="BI49" s="46"/>
+      <c r="BJ49" s="46"/>
+      <c r="BK49" s="46"/>
+      <c r="BL49" s="46"/>
+      <c r="BM49" s="46"/>
+      <c r="BN49" s="46"/>
+      <c r="BO49" s="46"/>
+      <c r="BP49" s="46"/>
+      <c r="BQ49" s="46"/>
+      <c r="BR49" s="46"/>
+      <c r="BS49" s="46"/>
+      <c r="BT49" s="46"/>
+      <c r="BU49" s="46"/>
+      <c r="BV49" s="46"/>
+      <c r="BW49" s="46"/>
+      <c r="BX49" s="46"/>
+      <c r="BY49" s="46"/>
+      <c r="BZ49" s="46"/>
+      <c r="CA49" s="46"/>
+      <c r="CB49" s="46"/>
+      <c r="CC49" s="46"/>
+      <c r="CD49" s="46"/>
+      <c r="CE49" s="46"/>
+      <c r="CF49" s="46"/>
+      <c r="CG49" s="46"/>
+      <c r="CH49" s="46"/>
+      <c r="CI49" s="46"/>
+      <c r="CJ49" s="46"/>
+      <c r="CK49" s="46"/>
+      <c r="CL49" s="46"/>
+      <c r="CM49" s="46"/>
+      <c r="CN49" s="46"/>
+      <c r="CO49" s="46"/>
+      <c r="CP49" s="46"/>
+      <c r="CQ49" s="46"/>
+      <c r="CR49" s="46"/>
+      <c r="CS49" s="46"/>
+      <c r="CT49" s="46"/>
+      <c r="CU49" s="46"/>
+      <c r="CV49" s="46"/>
+      <c r="CW49" s="46"/>
+      <c r="CX49" s="46"/>
+      <c r="CY49" s="46"/>
+      <c r="CZ49" s="46"/>
+      <c r="DA49" s="46"/>
+      <c r="DB49" s="46"/>
+      <c r="DC49" s="46"/>
+      <c r="DD49" s="46"/>
+      <c r="DE49" s="46"/>
+      <c r="DF49" s="46"/>
+      <c r="DG49" s="46"/>
+      <c r="DH49" s="46"/>
+      <c r="DI49" s="46"/>
+      <c r="DJ49" s="46"/>
+      <c r="DK49" s="46"/>
+      <c r="DL49" s="46"/>
+      <c r="DM49" s="46"/>
+      <c r="DN49" s="46"/>
+      <c r="DO49" s="46"/>
+      <c r="DP49" s="46"/>
+      <c r="DQ49" s="46"/>
+      <c r="DR49" s="46"/>
+      <c r="DS49" s="46"/>
+      <c r="DT49" s="46"/>
+      <c r="DU49" s="46"/>
+      <c r="DV49" s="46"/>
+      <c r="DW49" s="46"/>
+      <c r="DX49" s="46"/>
+      <c r="DY49" s="46"/>
+      <c r="DZ49" s="46"/>
+      <c r="EA49" s="46"/>
+      <c r="EB49" s="46"/>
+      <c r="EC49" s="46"/>
+      <c r="ED49" s="46"/>
+      <c r="EE49" s="46"/>
+      <c r="EF49" s="46"/>
+      <c r="EG49" s="46"/>
+      <c r="EH49" s="46"/>
+      <c r="EI49" s="46"/>
+      <c r="EJ49" s="46"/>
+      <c r="EK49" s="46"/>
+      <c r="EL49" s="46"/>
+      <c r="EM49" s="46"/>
+      <c r="EN49" s="46"/>
+      <c r="EO49" s="46"/>
+      <c r="EP49" s="46"/>
+      <c r="EQ49" s="46"/>
+      <c r="ER49" s="46"/>
+      <c r="ES49" s="46"/>
+      <c r="ET49" s="46"/>
+      <c r="EU49" s="46"/>
+      <c r="EV49" s="46"/>
+      <c r="EW49" s="46"/>
+      <c r="EX49" s="46"/>
+      <c r="EY49" s="46"/>
+      <c r="EZ49" s="46"/>
+      <c r="FA49" s="46"/>
+      <c r="FB49" s="46"/>
+      <c r="FC49" s="46"/>
+      <c r="FD49" s="46"/>
+      <c r="FE49" s="46"/>
+      <c r="FF49" s="46"/>
+      <c r="FG49" s="46"/>
+      <c r="FH49" s="46"/>
+      <c r="FI49" s="46"/>
+      <c r="FJ49" s="46"/>
+      <c r="FK49" s="46"/>
+      <c r="FL49" s="46"/>
+      <c r="FM49" s="46"/>
+      <c r="FN49" s="46"/>
+      <c r="FO49" s="46"/>
+      <c r="FP49" s="46"/>
+      <c r="FQ49" s="46"/>
+      <c r="FR49" s="46"/>
+      <c r="FS49" s="46"/>
+      <c r="FT49" s="46"/>
+      <c r="FU49" s="46"/>
+      <c r="FV49" s="46"/>
+      <c r="FW49" s="46"/>
+      <c r="FX49" s="46"/>
+      <c r="FY49" s="46"/>
+      <c r="FZ49" s="46"/>
+      <c r="GA49" s="46"/>
+      <c r="GB49" s="46"/>
+      <c r="GC49" s="46"/>
+      <c r="GD49" s="46"/>
+      <c r="GE49" s="46"/>
+      <c r="GF49" s="46"/>
+      <c r="GG49" s="46"/>
+      <c r="GH49" s="46"/>
+      <c r="GI49" s="46"/>
+      <c r="GJ49" s="46"/>
+      <c r="GK49" s="46"/>
+      <c r="GL49" s="46"/>
+      <c r="GM49" s="46"/>
+      <c r="GN49" s="46"/>
+      <c r="GO49" s="46"/>
+      <c r="GP49" s="46"/>
+      <c r="GQ49" s="46"/>
+      <c r="GR49" s="46"/>
+      <c r="GS49" s="46"/>
+      <c r="GT49" s="46"/>
+      <c r="GU49" s="46"/>
+      <c r="GV49" s="46"/>
+      <c r="GW49" s="46"/>
+      <c r="GX49" s="46"/>
+      <c r="GY49" s="46"/>
+      <c r="GZ49" s="46"/>
+      <c r="HA49" s="46"/>
+      <c r="HB49" s="46"/>
+      <c r="HC49" s="46"/>
+      <c r="HD49" s="46"/>
+      <c r="HE49" s="46"/>
+      <c r="HF49" s="46"/>
+      <c r="HG49" s="46"/>
+      <c r="HH49" s="46"/>
+      <c r="HI49" s="46"/>
+      <c r="HJ49" s="46"/>
+      <c r="HK49" s="46"/>
+      <c r="HL49" s="46"/>
+      <c r="HM49" s="46"/>
+      <c r="HN49" s="46"/>
+      <c r="HO49" s="46"/>
+      <c r="HP49" s="46"/>
+      <c r="HQ49" s="46"/>
+      <c r="HR49" s="46"/>
+      <c r="HS49" s="46"/>
+      <c r="HT49" s="46"/>
+      <c r="HU49" s="46"/>
+      <c r="HV49" s="46"/>
+      <c r="HW49" s="46"/>
+      <c r="HX49" s="46"/>
+      <c r="HY49" s="46"/>
+      <c r="HZ49" s="46"/>
+      <c r="IA49" s="46"/>
+      <c r="IB49" s="46"/>
+      <c r="IC49" s="46"/>
+      <c r="ID49" s="46"/>
+      <c r="IE49" s="46"/>
+      <c r="IF49" s="46"/>
+      <c r="IG49" s="46"/>
+      <c r="IH49" s="46"/>
+      <c r="II49" s="46"/>
+      <c r="IJ49" s="46"/>
+      <c r="IK49" s="46"/>
+      <c r="IL49" s="46"/>
+      <c r="IM49" s="46"/>
+      <c r="IN49" s="46"/>
+      <c r="IO49" s="46"/>
+      <c r="IP49" s="46"/>
+      <c r="IQ49" s="46"/>
+      <c r="IR49" s="46"/>
+      <c r="IS49" s="46"/>
+      <c r="IT49" s="46"/>
+      <c r="IU49" s="46"/>
+      <c r="IV49" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -17676,8 +17606,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -17690,8 +17620,8 @@
     <col min="6" max="6" width="12.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="29" style="4" customWidth="1"/>
     <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="28" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="28"/>
+    <col min="257" max="1025" width="8.875" style="27" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1">
@@ -17722,7 +17652,7 @@
         <v>438</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>991</v>
@@ -17741,7 +17671,7 @@
         <v>441</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>993</v>
@@ -17760,7 +17690,7 @@
         <v>444</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>995</v>
@@ -17779,7 +17709,7 @@
         <v>459</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>997</v>
@@ -17798,7 +17728,7 @@
         <v>447</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>999</v>
@@ -17817,7 +17747,7 @@
         <v>450</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>1001</v>
@@ -17836,7 +17766,7 @@
         <v>453</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>1003</v>
@@ -17855,7 +17785,7 @@
         <v>456</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>1005</v>
@@ -17874,7 +17804,7 @@
         <v>462</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>1007</v>
@@ -17893,7 +17823,7 @@
         <v>1009</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>1010</v>
@@ -17912,7 +17842,7 @@
         <v>465</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>1012</v>
@@ -17931,7 +17861,7 @@
         <v>468</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>1014</v>
@@ -17954,7 +17884,7 @@
         <v>471</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>1018</v>
@@ -17973,7 +17903,7 @@
         <v>505</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>1020</v>
@@ -17996,7 +17926,7 @@
         <v>496</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>1024</v>
@@ -18015,7 +17945,7 @@
         <v>508</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>1026</v>
@@ -18038,7 +17968,7 @@
         <v>536</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>1030</v>
@@ -18057,7 +17987,7 @@
         <v>539</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>1031</v>
@@ -18076,7 +18006,7 @@
         <v>542</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>1032</v>
@@ -18095,7 +18025,7 @@
         <v>545</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>1034</v>
@@ -18114,7 +18044,7 @@
         <v>550</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>1036</v>
@@ -18133,7 +18063,7 @@
         <v>491</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>1038</v>
@@ -18171,8 +18101,8 @@
     <col min="4" max="5" width="75.625" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
     <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="28" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="28"/>
+    <col min="257" max="1025" width="8.875" style="27" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.95" customHeight="1">
@@ -18275,805 +18205,803 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView showGridLines="0" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="36" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="29" customWidth="1"/>
-    <col min="4" max="4" width="44.5" style="29" customWidth="1"/>
-    <col min="5" max="5" width="31.875" style="29" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="29" customWidth="1"/>
-    <col min="7" max="7" width="44.5" style="29" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="29" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="30" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="30"/>
+    <col min="1" max="1" width="10.5" style="35" customWidth="1"/>
+    <col min="2" max="2" width="53.375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="28" customWidth="1"/>
+    <col min="4" max="4" width="44.5" style="28" customWidth="1"/>
+    <col min="5" max="5" width="31.875" style="28" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="28" customWidth="1"/>
+    <col min="7" max="7" width="44.5" style="28" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="28" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="29" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="38" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:256" s="37" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A1" s="30" t="s">
         <v>786</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>787</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>788</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>789</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>790</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>791</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>792</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="37"/>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="37"/>
-      <c r="BA1" s="37"/>
-      <c r="BB1" s="37"/>
-      <c r="BC1" s="37"/>
-      <c r="BD1" s="37"/>
-      <c r="BE1" s="37"/>
-      <c r="BF1" s="37"/>
-      <c r="BG1" s="37"/>
-      <c r="BH1" s="37"/>
-      <c r="BI1" s="37"/>
-      <c r="BJ1" s="37"/>
-      <c r="BK1" s="37"/>
-      <c r="BL1" s="37"/>
-      <c r="BM1" s="37"/>
-      <c r="BN1" s="37"/>
-      <c r="BO1" s="37"/>
-      <c r="BP1" s="37"/>
-      <c r="BQ1" s="37"/>
-      <c r="BR1" s="37"/>
-      <c r="BS1" s="37"/>
-      <c r="BT1" s="37"/>
-      <c r="BU1" s="37"/>
-      <c r="BV1" s="37"/>
-      <c r="BW1" s="37"/>
-      <c r="BX1" s="37"/>
-      <c r="BY1" s="37"/>
-      <c r="BZ1" s="37"/>
-      <c r="CA1" s="37"/>
-      <c r="CB1" s="37"/>
-      <c r="CC1" s="37"/>
-      <c r="CD1" s="37"/>
-      <c r="CE1" s="37"/>
-      <c r="CF1" s="37"/>
-      <c r="CG1" s="37"/>
-      <c r="CH1" s="37"/>
-      <c r="CI1" s="37"/>
-      <c r="CJ1" s="37"/>
-      <c r="CK1" s="37"/>
-      <c r="CL1" s="37"/>
-      <c r="CM1" s="37"/>
-      <c r="CN1" s="37"/>
-      <c r="CO1" s="37"/>
-      <c r="CP1" s="37"/>
-      <c r="CQ1" s="37"/>
-      <c r="CR1" s="37"/>
-      <c r="CS1" s="37"/>
-      <c r="CT1" s="37"/>
-      <c r="CU1" s="37"/>
-      <c r="CV1" s="37"/>
-      <c r="CW1" s="37"/>
-      <c r="CX1" s="37"/>
-      <c r="CY1" s="37"/>
-      <c r="CZ1" s="37"/>
-      <c r="DA1" s="37"/>
-      <c r="DB1" s="37"/>
-      <c r="DC1" s="37"/>
-      <c r="DD1" s="37"/>
-      <c r="DE1" s="37"/>
-      <c r="DF1" s="37"/>
-      <c r="DG1" s="37"/>
-      <c r="DH1" s="37"/>
-      <c r="DI1" s="37"/>
-      <c r="DJ1" s="37"/>
-      <c r="DK1" s="37"/>
-      <c r="DL1" s="37"/>
-      <c r="DM1" s="37"/>
-      <c r="DN1" s="37"/>
-      <c r="DO1" s="37"/>
-      <c r="DP1" s="37"/>
-      <c r="DQ1" s="37"/>
-      <c r="DR1" s="37"/>
-      <c r="DS1" s="37"/>
-      <c r="DT1" s="37"/>
-      <c r="DU1" s="37"/>
-      <c r="DV1" s="37"/>
-      <c r="DW1" s="37"/>
-      <c r="DX1" s="37"/>
-      <c r="DY1" s="37"/>
-      <c r="DZ1" s="37"/>
-      <c r="EA1" s="37"/>
-      <c r="EB1" s="37"/>
-      <c r="EC1" s="37"/>
-      <c r="ED1" s="37"/>
-      <c r="EE1" s="37"/>
-      <c r="EF1" s="37"/>
-      <c r="EG1" s="37"/>
-      <c r="EH1" s="37"/>
-      <c r="EI1" s="37"/>
-      <c r="EJ1" s="37"/>
-      <c r="EK1" s="37"/>
-      <c r="EL1" s="37"/>
-      <c r="EM1" s="37"/>
-      <c r="EN1" s="37"/>
-      <c r="EO1" s="37"/>
-      <c r="EP1" s="37"/>
-      <c r="EQ1" s="37"/>
-      <c r="ER1" s="37"/>
-      <c r="ES1" s="37"/>
-      <c r="ET1" s="37"/>
-      <c r="EU1" s="37"/>
-      <c r="EV1" s="37"/>
-      <c r="EW1" s="37"/>
-      <c r="EX1" s="37"/>
-      <c r="EY1" s="37"/>
-      <c r="EZ1" s="37"/>
-      <c r="FA1" s="37"/>
-      <c r="FB1" s="37"/>
-      <c r="FC1" s="37"/>
-      <c r="FD1" s="37"/>
-      <c r="FE1" s="37"/>
-      <c r="FF1" s="37"/>
-      <c r="FG1" s="37"/>
-      <c r="FH1" s="37"/>
-      <c r="FI1" s="37"/>
-      <c r="FJ1" s="37"/>
-      <c r="FK1" s="37"/>
-      <c r="FL1" s="37"/>
-      <c r="FM1" s="37"/>
-      <c r="FN1" s="37"/>
-      <c r="FO1" s="37"/>
-      <c r="FP1" s="37"/>
-      <c r="FQ1" s="37"/>
-      <c r="FR1" s="37"/>
-      <c r="FS1" s="37"/>
-      <c r="FT1" s="37"/>
-      <c r="FU1" s="37"/>
-      <c r="FV1" s="37"/>
-      <c r="FW1" s="37"/>
-      <c r="FX1" s="37"/>
-      <c r="FY1" s="37"/>
-      <c r="FZ1" s="37"/>
-      <c r="GA1" s="37"/>
-      <c r="GB1" s="37"/>
-      <c r="GC1" s="37"/>
-      <c r="GD1" s="37"/>
-      <c r="GE1" s="37"/>
-      <c r="GF1" s="37"/>
-      <c r="GG1" s="37"/>
-      <c r="GH1" s="37"/>
-      <c r="GI1" s="37"/>
-      <c r="GJ1" s="37"/>
-      <c r="GK1" s="37"/>
-      <c r="GL1" s="37"/>
-      <c r="GM1" s="37"/>
-      <c r="GN1" s="37"/>
-      <c r="GO1" s="37"/>
-      <c r="GP1" s="37"/>
-      <c r="GQ1" s="37"/>
-      <c r="GR1" s="37"/>
-      <c r="GS1" s="37"/>
-      <c r="GT1" s="37"/>
-      <c r="GU1" s="37"/>
-      <c r="GV1" s="37"/>
-      <c r="GW1" s="37"/>
-      <c r="GX1" s="37"/>
-      <c r="GY1" s="37"/>
-      <c r="GZ1" s="37"/>
-      <c r="HA1" s="37"/>
-      <c r="HB1" s="37"/>
-      <c r="HC1" s="37"/>
-      <c r="HD1" s="37"/>
-      <c r="HE1" s="37"/>
-      <c r="HF1" s="37"/>
-      <c r="HG1" s="37"/>
-      <c r="HH1" s="37"/>
-      <c r="HI1" s="37"/>
-      <c r="HJ1" s="37"/>
-      <c r="HK1" s="37"/>
-      <c r="HL1" s="37"/>
-      <c r="HM1" s="37"/>
-      <c r="HN1" s="37"/>
-      <c r="HO1" s="37"/>
-      <c r="HP1" s="37"/>
-      <c r="HQ1" s="37"/>
-      <c r="HR1" s="37"/>
-      <c r="HS1" s="37"/>
-      <c r="HT1" s="37"/>
-      <c r="HU1" s="37"/>
-      <c r="HV1" s="37"/>
-      <c r="HW1" s="37"/>
-      <c r="HX1" s="37"/>
-      <c r="HY1" s="37"/>
-      <c r="HZ1" s="37"/>
-      <c r="IA1" s="37"/>
-      <c r="IB1" s="37"/>
-      <c r="IC1" s="37"/>
-      <c r="ID1" s="37"/>
-      <c r="IE1" s="37"/>
-      <c r="IF1" s="37"/>
-      <c r="IG1" s="37"/>
-      <c r="IH1" s="37"/>
-      <c r="II1" s="37"/>
-      <c r="IJ1" s="37"/>
-      <c r="IK1" s="37"/>
-      <c r="IL1" s="37"/>
-      <c r="IM1" s="37"/>
-      <c r="IN1" s="37"/>
-      <c r="IO1" s="37"/>
-      <c r="IP1" s="37"/>
-      <c r="IQ1" s="37"/>
-      <c r="IR1" s="37"/>
-      <c r="IS1" s="37"/>
-      <c r="IT1" s="37"/>
-      <c r="IU1" s="37"/>
-      <c r="IV1" s="37"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="36"/>
+      <c r="BD1" s="36"/>
+      <c r="BE1" s="36"/>
+      <c r="BF1" s="36"/>
+      <c r="BG1" s="36"/>
+      <c r="BH1" s="36"/>
+      <c r="BI1" s="36"/>
+      <c r="BJ1" s="36"/>
+      <c r="BK1" s="36"/>
+      <c r="BL1" s="36"/>
+      <c r="BM1" s="36"/>
+      <c r="BN1" s="36"/>
+      <c r="BO1" s="36"/>
+      <c r="BP1" s="36"/>
+      <c r="BQ1" s="36"/>
+      <c r="BR1" s="36"/>
+      <c r="BS1" s="36"/>
+      <c r="BT1" s="36"/>
+      <c r="BU1" s="36"/>
+      <c r="BV1" s="36"/>
+      <c r="BW1" s="36"/>
+      <c r="BX1" s="36"/>
+      <c r="BY1" s="36"/>
+      <c r="BZ1" s="36"/>
+      <c r="CA1" s="36"/>
+      <c r="CB1" s="36"/>
+      <c r="CC1" s="36"/>
+      <c r="CD1" s="36"/>
+      <c r="CE1" s="36"/>
+      <c r="CF1" s="36"/>
+      <c r="CG1" s="36"/>
+      <c r="CH1" s="36"/>
+      <c r="CI1" s="36"/>
+      <c r="CJ1" s="36"/>
+      <c r="CK1" s="36"/>
+      <c r="CL1" s="36"/>
+      <c r="CM1" s="36"/>
+      <c r="CN1" s="36"/>
+      <c r="CO1" s="36"/>
+      <c r="CP1" s="36"/>
+      <c r="CQ1" s="36"/>
+      <c r="CR1" s="36"/>
+      <c r="CS1" s="36"/>
+      <c r="CT1" s="36"/>
+      <c r="CU1" s="36"/>
+      <c r="CV1" s="36"/>
+      <c r="CW1" s="36"/>
+      <c r="CX1" s="36"/>
+      <c r="CY1" s="36"/>
+      <c r="CZ1" s="36"/>
+      <c r="DA1" s="36"/>
+      <c r="DB1" s="36"/>
+      <c r="DC1" s="36"/>
+      <c r="DD1" s="36"/>
+      <c r="DE1" s="36"/>
+      <c r="DF1" s="36"/>
+      <c r="DG1" s="36"/>
+      <c r="DH1" s="36"/>
+      <c r="DI1" s="36"/>
+      <c r="DJ1" s="36"/>
+      <c r="DK1" s="36"/>
+      <c r="DL1" s="36"/>
+      <c r="DM1" s="36"/>
+      <c r="DN1" s="36"/>
+      <c r="DO1" s="36"/>
+      <c r="DP1" s="36"/>
+      <c r="DQ1" s="36"/>
+      <c r="DR1" s="36"/>
+      <c r="DS1" s="36"/>
+      <c r="DT1" s="36"/>
+      <c r="DU1" s="36"/>
+      <c r="DV1" s="36"/>
+      <c r="DW1" s="36"/>
+      <c r="DX1" s="36"/>
+      <c r="DY1" s="36"/>
+      <c r="DZ1" s="36"/>
+      <c r="EA1" s="36"/>
+      <c r="EB1" s="36"/>
+      <c r="EC1" s="36"/>
+      <c r="ED1" s="36"/>
+      <c r="EE1" s="36"/>
+      <c r="EF1" s="36"/>
+      <c r="EG1" s="36"/>
+      <c r="EH1" s="36"/>
+      <c r="EI1" s="36"/>
+      <c r="EJ1" s="36"/>
+      <c r="EK1" s="36"/>
+      <c r="EL1" s="36"/>
+      <c r="EM1" s="36"/>
+      <c r="EN1" s="36"/>
+      <c r="EO1" s="36"/>
+      <c r="EP1" s="36"/>
+      <c r="EQ1" s="36"/>
+      <c r="ER1" s="36"/>
+      <c r="ES1" s="36"/>
+      <c r="ET1" s="36"/>
+      <c r="EU1" s="36"/>
+      <c r="EV1" s="36"/>
+      <c r="EW1" s="36"/>
+      <c r="EX1" s="36"/>
+      <c r="EY1" s="36"/>
+      <c r="EZ1" s="36"/>
+      <c r="FA1" s="36"/>
+      <c r="FB1" s="36"/>
+      <c r="FC1" s="36"/>
+      <c r="FD1" s="36"/>
+      <c r="FE1" s="36"/>
+      <c r="FF1" s="36"/>
+      <c r="FG1" s="36"/>
+      <c r="FH1" s="36"/>
+      <c r="FI1" s="36"/>
+      <c r="FJ1" s="36"/>
+      <c r="FK1" s="36"/>
+      <c r="FL1" s="36"/>
+      <c r="FM1" s="36"/>
+      <c r="FN1" s="36"/>
+      <c r="FO1" s="36"/>
+      <c r="FP1" s="36"/>
+      <c r="FQ1" s="36"/>
+      <c r="FR1" s="36"/>
+      <c r="FS1" s="36"/>
+      <c r="FT1" s="36"/>
+      <c r="FU1" s="36"/>
+      <c r="FV1" s="36"/>
+      <c r="FW1" s="36"/>
+      <c r="FX1" s="36"/>
+      <c r="FY1" s="36"/>
+      <c r="FZ1" s="36"/>
+      <c r="GA1" s="36"/>
+      <c r="GB1" s="36"/>
+      <c r="GC1" s="36"/>
+      <c r="GD1" s="36"/>
+      <c r="GE1" s="36"/>
+      <c r="GF1" s="36"/>
+      <c r="GG1" s="36"/>
+      <c r="GH1" s="36"/>
+      <c r="GI1" s="36"/>
+      <c r="GJ1" s="36"/>
+      <c r="GK1" s="36"/>
+      <c r="GL1" s="36"/>
+      <c r="GM1" s="36"/>
+      <c r="GN1" s="36"/>
+      <c r="GO1" s="36"/>
+      <c r="GP1" s="36"/>
+      <c r="GQ1" s="36"/>
+      <c r="GR1" s="36"/>
+      <c r="GS1" s="36"/>
+      <c r="GT1" s="36"/>
+      <c r="GU1" s="36"/>
+      <c r="GV1" s="36"/>
+      <c r="GW1" s="36"/>
+      <c r="GX1" s="36"/>
+      <c r="GY1" s="36"/>
+      <c r="GZ1" s="36"/>
+      <c r="HA1" s="36"/>
+      <c r="HB1" s="36"/>
+      <c r="HC1" s="36"/>
+      <c r="HD1" s="36"/>
+      <c r="HE1" s="36"/>
+      <c r="HF1" s="36"/>
+      <c r="HG1" s="36"/>
+      <c r="HH1" s="36"/>
+      <c r="HI1" s="36"/>
+      <c r="HJ1" s="36"/>
+      <c r="HK1" s="36"/>
+      <c r="HL1" s="36"/>
+      <c r="HM1" s="36"/>
+      <c r="HN1" s="36"/>
+      <c r="HO1" s="36"/>
+      <c r="HP1" s="36"/>
+      <c r="HQ1" s="36"/>
+      <c r="HR1" s="36"/>
+      <c r="HS1" s="36"/>
+      <c r="HT1" s="36"/>
+      <c r="HU1" s="36"/>
+      <c r="HV1" s="36"/>
+      <c r="HW1" s="36"/>
+      <c r="HX1" s="36"/>
+      <c r="HY1" s="36"/>
+      <c r="HZ1" s="36"/>
+      <c r="IA1" s="36"/>
+      <c r="IB1" s="36"/>
+      <c r="IC1" s="36"/>
+      <c r="ID1" s="36"/>
+      <c r="IE1" s="36"/>
+      <c r="IF1" s="36"/>
+      <c r="IG1" s="36"/>
+      <c r="IH1" s="36"/>
+      <c r="II1" s="36"/>
+      <c r="IJ1" s="36"/>
+      <c r="IK1" s="36"/>
+      <c r="IL1" s="36"/>
+      <c r="IM1" s="36"/>
+      <c r="IN1" s="36"/>
+      <c r="IO1" s="36"/>
+      <c r="IP1" s="36"/>
+      <c r="IQ1" s="36"/>
+      <c r="IR1" s="36"/>
+      <c r="IS1" s="36"/>
+      <c r="IT1" s="36"/>
+      <c r="IU1" s="36"/>
+      <c r="IV1" s="36"/>
     </row>
     <row r="2" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>1050</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>1051</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>1052</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>1053</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30" t="s">
         <v>794</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>1054</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>652</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>1051</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>1055</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>1056</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="30" t="s">
         <v>794</v>
       </c>
-      <c r="G3" s="31"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>580</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>1051</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>1057</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>1058</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="31" t="s">
+      <c r="E4" s="31"/>
+      <c r="F4" s="30" t="s">
         <v>794</v>
       </c>
-      <c r="G4" s="31"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>583</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>1051</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>1059</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>1060</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="31" t="s">
+      <c r="E5" s="31"/>
+      <c r="F5" s="30" t="s">
         <v>794</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>586</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>1051</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>1061</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>1062</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="31" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="30" t="s">
         <v>794</v>
       </c>
-      <c r="G6" s="31"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>589</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>1051</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>1063</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>1064</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="31" t="s">
         <v>1065</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="30" t="s">
         <v>794</v>
       </c>
-      <c r="G7" s="63" t="s">
-        <v>1143</v>
+      <c r="G7" s="61" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>594</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>1051</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>1066</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>1067</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="31" t="s">
+      <c r="E8" s="31"/>
+      <c r="F8" s="30" t="s">
         <v>794</v>
       </c>
-      <c r="G8" s="31"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="30" t="s">
         <v>597</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>1051</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>1068</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="30" t="s">
         <v>1069</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="31" t="s">
+      <c r="E9" s="31"/>
+      <c r="F9" s="30" t="s">
         <v>794</v>
       </c>
-      <c r="G9" s="31"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>600</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="30" t="s">
         <v>1051</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>1070</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="30" t="s">
         <v>1071</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="31" t="s">
+      <c r="E10" s="31"/>
+      <c r="F10" s="30" t="s">
         <v>794</v>
       </c>
-      <c r="G10" s="31"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="30" t="s">
         <v>603</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="30" t="s">
         <v>1051</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>1072</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="30" t="s">
         <v>1073</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="31" t="s">
+      <c r="E11" s="31"/>
+      <c r="F11" s="30" t="s">
         <v>794</v>
       </c>
-      <c r="G11" s="31"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:256" ht="33.6" customHeight="1">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>606</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
         <v>1051</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>1074</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="30" t="s">
         <v>605</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="31" t="s">
+      <c r="E12" s="31"/>
+      <c r="F12" s="30" t="s">
         <v>794</v>
       </c>
-      <c r="G12" s="31"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>609</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="30" t="s">
         <v>1051</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="30" t="s">
         <v>1075</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="30" t="s">
         <v>1076</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="31" t="s">
         <v>1028</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="30" t="s">
         <v>794</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="30" t="s">
         <v>1077</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="30" t="s">
         <v>1051</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="30" t="s">
         <v>1078</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="30" t="s">
         <v>1079</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="31"/>
+      <c r="F14" s="30" t="s">
+        <v>794</v>
+      </c>
+      <c r="G14" s="30" t="s">
         <v>1080</v>
       </c>
-      <c r="F14" s="31" t="s">
+    </row>
+    <row r="15" spans="1:256" ht="31.5" customHeight="1">
+      <c r="A15" s="30" t="s">
+        <v>622</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="30" t="s">
         <v>794</v>
       </c>
-      <c r="G14" s="31" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="15" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A15" s="31" t="s">
-        <v>622</v>
-      </c>
-      <c r="B15" s="31" t="s">
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:256" ht="31.5" customHeight="1">
+      <c r="A16" s="30" t="s">
+        <v>655</v>
+      </c>
+      <c r="B16" s="30" t="s">
         <v>1051</v>
       </c>
-      <c r="C15" s="31" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D15" s="31" t="s">
+      <c r="C16" s="30" t="s">
         <v>1083</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="31" t="s">
+      <c r="D16" s="30" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="30" t="s">
         <v>794</v>
       </c>
-      <c r="G15" s="31"/>
-    </row>
-    <row r="16" spans="1:256" ht="31.5" customHeight="1">
-      <c r="A16" s="31" t="s">
-        <v>655</v>
-      </c>
-      <c r="B16" s="31" t="s">
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A17" s="30" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B17" s="30" t="s">
         <v>1051</v>
       </c>
-      <c r="C16" s="31" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="31" t="s">
+      <c r="C17" s="30" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="30" t="s">
         <v>794</v>
       </c>
-      <c r="G16" s="31"/>
-    </row>
-    <row r="17" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A17" s="31" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B17" s="31" t="s">
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A18" s="30" t="s">
+        <v>688</v>
+      </c>
+      <c r="B18" s="30" t="s">
         <v>1051</v>
       </c>
-      <c r="C17" s="31" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D17" s="31" t="s">
+      <c r="C18" s="30" t="s">
         <v>1088</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="31" t="s">
+      <c r="D18" s="30" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="30" t="s">
         <v>794</v>
       </c>
-      <c r="G17" s="31"/>
-    </row>
-    <row r="18" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A18" s="31" t="s">
-        <v>688</v>
-      </c>
-      <c r="B18" s="31" t="s">
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A19" s="30" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B19" s="30" t="s">
         <v>1051</v>
       </c>
-      <c r="C18" s="31" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="31" t="s">
+      <c r="C19" s="30" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F19" s="30" t="s">
         <v>794</v>
       </c>
-      <c r="G18" s="31"/>
-    </row>
-    <row r="19" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A19" s="31" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B19" s="31" t="s">
+      <c r="G19" s="61" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
+      <c r="A20" s="30" t="s">
+        <v>725</v>
+      </c>
+      <c r="B20" s="30" t="s">
         <v>1051</v>
       </c>
-      <c r="C19" s="31" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>1093</v>
-      </c>
-      <c r="E19" s="32" t="s">
+      <c r="C20" s="30" t="s">
         <v>1094</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="D20" s="30" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="30" t="s">
         <v>794</v>
       </c>
-      <c r="G19" s="63" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A20" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="B20" s="31" t="s">
+      <c r="G20" s="30"/>
+    </row>
+    <row r="21" spans="1:7" ht="47.25" customHeight="1">
+      <c r="A21" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="B21" s="30" t="s">
         <v>1051</v>
       </c>
-      <c r="C20" s="31" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D20" s="31" t="s">
+      <c r="C21" s="30" t="s">
         <v>1096</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="31" t="s">
+      <c r="D21" s="30" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F21" s="30" t="s">
         <v>794</v>
       </c>
-      <c r="G20" s="31"/>
-    </row>
-    <row r="21" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A21" s="31" t="s">
-        <v>728</v>
-      </c>
-      <c r="B21" s="31" t="s">
+      <c r="G21" s="30" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A22" s="31" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B22" s="31" t="s">
         <v>1051</v>
       </c>
-      <c r="C21" s="31" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>794</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A22" s="32" t="s">
+      <c r="C22" s="31" t="s">
         <v>1101</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="D22" s="31" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="31.5">
+      <c r="A23" s="47" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B23" s="47" t="s">
         <v>1051</v>
       </c>
-      <c r="C22" s="32" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>813</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="31.5">
-      <c r="A23" s="48" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B23" s="48" t="s">
+      <c r="C23" s="47" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>633</v>
+      </c>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="47" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B24" s="47" t="s">
         <v>1051</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C24" s="47" t="s">
         <v>1132</v>
       </c>
-      <c r="D23" s="48" t="s">
-        <v>633</v>
-      </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="48" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B24" s="48" t="s">
+      <c r="D24" s="47" t="s">
+        <v>637</v>
+      </c>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="47" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B25" s="47" t="s">
         <v>1051</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C25" s="47" t="s">
         <v>1133</v>
       </c>
-      <c r="D24" s="48" t="s">
-        <v>637</v>
-      </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="48" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B25" s="48" t="s">
+      <c r="D25" s="47" t="s">
+        <v>628</v>
+      </c>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+    </row>
+    <row r="26" spans="1:7" ht="31.5">
+      <c r="A26" s="47" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B26" s="47" t="s">
         <v>1051</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C26" s="47" t="s">
         <v>1134</v>
       </c>
-      <c r="D25" s="48" t="s">
-        <v>628</v>
-      </c>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-    </row>
-    <row r="26" spans="1:7" ht="31.5">
-      <c r="A26" s="48" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B26" s="48" t="s">
+      <c r="D26" s="47" t="s">
+        <v>639</v>
+      </c>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="48" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B27" s="47" t="s">
         <v>1051</v>
       </c>
-      <c r="C26" s="48" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>639</v>
-      </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="49" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B27" s="48" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D27" s="48" t="s">
+      <c r="C27" s="40" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D27" s="47" t="s">
         <v>771</v>
       </c>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -19093,17 +19021,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="33" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="28" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="28" customWidth="1"/>
-    <col min="4" max="5" width="44.5" style="28" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="28" customWidth="1"/>
-    <col min="7" max="7" width="44.5" style="28" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="28" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="28"/>
+    <col min="1" max="1" width="10.5" style="32" customWidth="1"/>
+    <col min="2" max="2" width="53.375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="27" customWidth="1"/>
+    <col min="4" max="5" width="44.5" style="27" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="27" customWidth="1"/>
+    <col min="7" max="7" width="44.5" style="27" customWidth="1"/>
+    <col min="8" max="1025" width="8.875" style="27" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="35" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" s="34" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>786</v>
       </c>
@@ -19125,275 +19053,275 @@
       <c r="G1" s="5" t="s">
         <v>792</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="34"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="34"/>
-      <c r="BG1" s="34"/>
-      <c r="BH1" s="34"/>
-      <c r="BI1" s="34"/>
-      <c r="BJ1" s="34"/>
-      <c r="BK1" s="34"/>
-      <c r="BL1" s="34"/>
-      <c r="BM1" s="34"/>
-      <c r="BN1" s="34"/>
-      <c r="BO1" s="34"/>
-      <c r="BP1" s="34"/>
-      <c r="BQ1" s="34"/>
-      <c r="BR1" s="34"/>
-      <c r="BS1" s="34"/>
-      <c r="BT1" s="34"/>
-      <c r="BU1" s="34"/>
-      <c r="BV1" s="34"/>
-      <c r="BW1" s="34"/>
-      <c r="BX1" s="34"/>
-      <c r="BY1" s="34"/>
-      <c r="BZ1" s="34"/>
-      <c r="CA1" s="34"/>
-      <c r="CB1" s="34"/>
-      <c r="CC1" s="34"/>
-      <c r="CD1" s="34"/>
-      <c r="CE1" s="34"/>
-      <c r="CF1" s="34"/>
-      <c r="CG1" s="34"/>
-      <c r="CH1" s="34"/>
-      <c r="CI1" s="34"/>
-      <c r="CJ1" s="34"/>
-      <c r="CK1" s="34"/>
-      <c r="CL1" s="34"/>
-      <c r="CM1" s="34"/>
-      <c r="CN1" s="34"/>
-      <c r="CO1" s="34"/>
-      <c r="CP1" s="34"/>
-      <c r="CQ1" s="34"/>
-      <c r="CR1" s="34"/>
-      <c r="CS1" s="34"/>
-      <c r="CT1" s="34"/>
-      <c r="CU1" s="34"/>
-      <c r="CV1" s="34"/>
-      <c r="CW1" s="34"/>
-      <c r="CX1" s="34"/>
-      <c r="CY1" s="34"/>
-      <c r="CZ1" s="34"/>
-      <c r="DA1" s="34"/>
-      <c r="DB1" s="34"/>
-      <c r="DC1" s="34"/>
-      <c r="DD1" s="34"/>
-      <c r="DE1" s="34"/>
-      <c r="DF1" s="34"/>
-      <c r="DG1" s="34"/>
-      <c r="DH1" s="34"/>
-      <c r="DI1" s="34"/>
-      <c r="DJ1" s="34"/>
-      <c r="DK1" s="34"/>
-      <c r="DL1" s="34"/>
-      <c r="DM1" s="34"/>
-      <c r="DN1" s="34"/>
-      <c r="DO1" s="34"/>
-      <c r="DP1" s="34"/>
-      <c r="DQ1" s="34"/>
-      <c r="DR1" s="34"/>
-      <c r="DS1" s="34"/>
-      <c r="DT1" s="34"/>
-      <c r="DU1" s="34"/>
-      <c r="DV1" s="34"/>
-      <c r="DW1" s="34"/>
-      <c r="DX1" s="34"/>
-      <c r="DY1" s="34"/>
-      <c r="DZ1" s="34"/>
-      <c r="EA1" s="34"/>
-      <c r="EB1" s="34"/>
-      <c r="EC1" s="34"/>
-      <c r="ED1" s="34"/>
-      <c r="EE1" s="34"/>
-      <c r="EF1" s="34"/>
-      <c r="EG1" s="34"/>
-      <c r="EH1" s="34"/>
-      <c r="EI1" s="34"/>
-      <c r="EJ1" s="34"/>
-      <c r="EK1" s="34"/>
-      <c r="EL1" s="34"/>
-      <c r="EM1" s="34"/>
-      <c r="EN1" s="34"/>
-      <c r="EO1" s="34"/>
-      <c r="EP1" s="34"/>
-      <c r="EQ1" s="34"/>
-      <c r="ER1" s="34"/>
-      <c r="ES1" s="34"/>
-      <c r="ET1" s="34"/>
-      <c r="EU1" s="34"/>
-      <c r="EV1" s="34"/>
-      <c r="EW1" s="34"/>
-      <c r="EX1" s="34"/>
-      <c r="EY1" s="34"/>
-      <c r="EZ1" s="34"/>
-      <c r="FA1" s="34"/>
-      <c r="FB1" s="34"/>
-      <c r="FC1" s="34"/>
-      <c r="FD1" s="34"/>
-      <c r="FE1" s="34"/>
-      <c r="FF1" s="34"/>
-      <c r="FG1" s="34"/>
-      <c r="FH1" s="34"/>
-      <c r="FI1" s="34"/>
-      <c r="FJ1" s="34"/>
-      <c r="FK1" s="34"/>
-      <c r="FL1" s="34"/>
-      <c r="FM1" s="34"/>
-      <c r="FN1" s="34"/>
-      <c r="FO1" s="34"/>
-      <c r="FP1" s="34"/>
-      <c r="FQ1" s="34"/>
-      <c r="FR1" s="34"/>
-      <c r="FS1" s="34"/>
-      <c r="FT1" s="34"/>
-      <c r="FU1" s="34"/>
-      <c r="FV1" s="34"/>
-      <c r="FW1" s="34"/>
-      <c r="FX1" s="34"/>
-      <c r="FY1" s="34"/>
-      <c r="FZ1" s="34"/>
-      <c r="GA1" s="34"/>
-      <c r="GB1" s="34"/>
-      <c r="GC1" s="34"/>
-      <c r="GD1" s="34"/>
-      <c r="GE1" s="34"/>
-      <c r="GF1" s="34"/>
-      <c r="GG1" s="34"/>
-      <c r="GH1" s="34"/>
-      <c r="GI1" s="34"/>
-      <c r="GJ1" s="34"/>
-      <c r="GK1" s="34"/>
-      <c r="GL1" s="34"/>
-      <c r="GM1" s="34"/>
-      <c r="GN1" s="34"/>
-      <c r="GO1" s="34"/>
-      <c r="GP1" s="34"/>
-      <c r="GQ1" s="34"/>
-      <c r="GR1" s="34"/>
-      <c r="GS1" s="34"/>
-      <c r="GT1" s="34"/>
-      <c r="GU1" s="34"/>
-      <c r="GV1" s="34"/>
-      <c r="GW1" s="34"/>
-      <c r="GX1" s="34"/>
-      <c r="GY1" s="34"/>
-      <c r="GZ1" s="34"/>
-      <c r="HA1" s="34"/>
-      <c r="HB1" s="34"/>
-      <c r="HC1" s="34"/>
-      <c r="HD1" s="34"/>
-      <c r="HE1" s="34"/>
-      <c r="HF1" s="34"/>
-      <c r="HG1" s="34"/>
-      <c r="HH1" s="34"/>
-      <c r="HI1" s="34"/>
-      <c r="HJ1" s="34"/>
-      <c r="HK1" s="34"/>
-      <c r="HL1" s="34"/>
-      <c r="HM1" s="34"/>
-      <c r="HN1" s="34"/>
-      <c r="HO1" s="34"/>
-      <c r="HP1" s="34"/>
-      <c r="HQ1" s="34"/>
-      <c r="HR1" s="34"/>
-      <c r="HS1" s="34"/>
-      <c r="HT1" s="34"/>
-      <c r="HU1" s="34"/>
-      <c r="HV1" s="34"/>
-      <c r="HW1" s="34"/>
-      <c r="HX1" s="34"/>
-      <c r="HY1" s="34"/>
-      <c r="HZ1" s="34"/>
-      <c r="IA1" s="34"/>
-      <c r="IB1" s="34"/>
-      <c r="IC1" s="34"/>
-      <c r="ID1" s="34"/>
-      <c r="IE1" s="34"/>
-      <c r="IF1" s="34"/>
-      <c r="IG1" s="34"/>
-      <c r="IH1" s="34"/>
-      <c r="II1" s="34"/>
-      <c r="IJ1" s="34"/>
-      <c r="IK1" s="34"/>
-      <c r="IL1" s="34"/>
-      <c r="IM1" s="34"/>
-      <c r="IN1" s="34"/>
-      <c r="IO1" s="34"/>
-      <c r="IP1" s="34"/>
-      <c r="IQ1" s="34"/>
-      <c r="IR1" s="34"/>
-      <c r="IS1" s="34"/>
-      <c r="IT1" s="34"/>
-      <c r="IU1" s="34"/>
-      <c r="IV1" s="34"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
+      <c r="AW1" s="33"/>
+      <c r="AX1" s="33"/>
+      <c r="AY1" s="33"/>
+      <c r="AZ1" s="33"/>
+      <c r="BA1" s="33"/>
+      <c r="BB1" s="33"/>
+      <c r="BC1" s="33"/>
+      <c r="BD1" s="33"/>
+      <c r="BE1" s="33"/>
+      <c r="BF1" s="33"/>
+      <c r="BG1" s="33"/>
+      <c r="BH1" s="33"/>
+      <c r="BI1" s="33"/>
+      <c r="BJ1" s="33"/>
+      <c r="BK1" s="33"/>
+      <c r="BL1" s="33"/>
+      <c r="BM1" s="33"/>
+      <c r="BN1" s="33"/>
+      <c r="BO1" s="33"/>
+      <c r="BP1" s="33"/>
+      <c r="BQ1" s="33"/>
+      <c r="BR1" s="33"/>
+      <c r="BS1" s="33"/>
+      <c r="BT1" s="33"/>
+      <c r="BU1" s="33"/>
+      <c r="BV1" s="33"/>
+      <c r="BW1" s="33"/>
+      <c r="BX1" s="33"/>
+      <c r="BY1" s="33"/>
+      <c r="BZ1" s="33"/>
+      <c r="CA1" s="33"/>
+      <c r="CB1" s="33"/>
+      <c r="CC1" s="33"/>
+      <c r="CD1" s="33"/>
+      <c r="CE1" s="33"/>
+      <c r="CF1" s="33"/>
+      <c r="CG1" s="33"/>
+      <c r="CH1" s="33"/>
+      <c r="CI1" s="33"/>
+      <c r="CJ1" s="33"/>
+      <c r="CK1" s="33"/>
+      <c r="CL1" s="33"/>
+      <c r="CM1" s="33"/>
+      <c r="CN1" s="33"/>
+      <c r="CO1" s="33"/>
+      <c r="CP1" s="33"/>
+      <c r="CQ1" s="33"/>
+      <c r="CR1" s="33"/>
+      <c r="CS1" s="33"/>
+      <c r="CT1" s="33"/>
+      <c r="CU1" s="33"/>
+      <c r="CV1" s="33"/>
+      <c r="CW1" s="33"/>
+      <c r="CX1" s="33"/>
+      <c r="CY1" s="33"/>
+      <c r="CZ1" s="33"/>
+      <c r="DA1" s="33"/>
+      <c r="DB1" s="33"/>
+      <c r="DC1" s="33"/>
+      <c r="DD1" s="33"/>
+      <c r="DE1" s="33"/>
+      <c r="DF1" s="33"/>
+      <c r="DG1" s="33"/>
+      <c r="DH1" s="33"/>
+      <c r="DI1" s="33"/>
+      <c r="DJ1" s="33"/>
+      <c r="DK1" s="33"/>
+      <c r="DL1" s="33"/>
+      <c r="DM1" s="33"/>
+      <c r="DN1" s="33"/>
+      <c r="DO1" s="33"/>
+      <c r="DP1" s="33"/>
+      <c r="DQ1" s="33"/>
+      <c r="DR1" s="33"/>
+      <c r="DS1" s="33"/>
+      <c r="DT1" s="33"/>
+      <c r="DU1" s="33"/>
+      <c r="DV1" s="33"/>
+      <c r="DW1" s="33"/>
+      <c r="DX1" s="33"/>
+      <c r="DY1" s="33"/>
+      <c r="DZ1" s="33"/>
+      <c r="EA1" s="33"/>
+      <c r="EB1" s="33"/>
+      <c r="EC1" s="33"/>
+      <c r="ED1" s="33"/>
+      <c r="EE1" s="33"/>
+      <c r="EF1" s="33"/>
+      <c r="EG1" s="33"/>
+      <c r="EH1" s="33"/>
+      <c r="EI1" s="33"/>
+      <c r="EJ1" s="33"/>
+      <c r="EK1" s="33"/>
+      <c r="EL1" s="33"/>
+      <c r="EM1" s="33"/>
+      <c r="EN1" s="33"/>
+      <c r="EO1" s="33"/>
+      <c r="EP1" s="33"/>
+      <c r="EQ1" s="33"/>
+      <c r="ER1" s="33"/>
+      <c r="ES1" s="33"/>
+      <c r="ET1" s="33"/>
+      <c r="EU1" s="33"/>
+      <c r="EV1" s="33"/>
+      <c r="EW1" s="33"/>
+      <c r="EX1" s="33"/>
+      <c r="EY1" s="33"/>
+      <c r="EZ1" s="33"/>
+      <c r="FA1" s="33"/>
+      <c r="FB1" s="33"/>
+      <c r="FC1" s="33"/>
+      <c r="FD1" s="33"/>
+      <c r="FE1" s="33"/>
+      <c r="FF1" s="33"/>
+      <c r="FG1" s="33"/>
+      <c r="FH1" s="33"/>
+      <c r="FI1" s="33"/>
+      <c r="FJ1" s="33"/>
+      <c r="FK1" s="33"/>
+      <c r="FL1" s="33"/>
+      <c r="FM1" s="33"/>
+      <c r="FN1" s="33"/>
+      <c r="FO1" s="33"/>
+      <c r="FP1" s="33"/>
+      <c r="FQ1" s="33"/>
+      <c r="FR1" s="33"/>
+      <c r="FS1" s="33"/>
+      <c r="FT1" s="33"/>
+      <c r="FU1" s="33"/>
+      <c r="FV1" s="33"/>
+      <c r="FW1" s="33"/>
+      <c r="FX1" s="33"/>
+      <c r="FY1" s="33"/>
+      <c r="FZ1" s="33"/>
+      <c r="GA1" s="33"/>
+      <c r="GB1" s="33"/>
+      <c r="GC1" s="33"/>
+      <c r="GD1" s="33"/>
+      <c r="GE1" s="33"/>
+      <c r="GF1" s="33"/>
+      <c r="GG1" s="33"/>
+      <c r="GH1" s="33"/>
+      <c r="GI1" s="33"/>
+      <c r="GJ1" s="33"/>
+      <c r="GK1" s="33"/>
+      <c r="GL1" s="33"/>
+      <c r="GM1" s="33"/>
+      <c r="GN1" s="33"/>
+      <c r="GO1" s="33"/>
+      <c r="GP1" s="33"/>
+      <c r="GQ1" s="33"/>
+      <c r="GR1" s="33"/>
+      <c r="GS1" s="33"/>
+      <c r="GT1" s="33"/>
+      <c r="GU1" s="33"/>
+      <c r="GV1" s="33"/>
+      <c r="GW1" s="33"/>
+      <c r="GX1" s="33"/>
+      <c r="GY1" s="33"/>
+      <c r="GZ1" s="33"/>
+      <c r="HA1" s="33"/>
+      <c r="HB1" s="33"/>
+      <c r="HC1" s="33"/>
+      <c r="HD1" s="33"/>
+      <c r="HE1" s="33"/>
+      <c r="HF1" s="33"/>
+      <c r="HG1" s="33"/>
+      <c r="HH1" s="33"/>
+      <c r="HI1" s="33"/>
+      <c r="HJ1" s="33"/>
+      <c r="HK1" s="33"/>
+      <c r="HL1" s="33"/>
+      <c r="HM1" s="33"/>
+      <c r="HN1" s="33"/>
+      <c r="HO1" s="33"/>
+      <c r="HP1" s="33"/>
+      <c r="HQ1" s="33"/>
+      <c r="HR1" s="33"/>
+      <c r="HS1" s="33"/>
+      <c r="HT1" s="33"/>
+      <c r="HU1" s="33"/>
+      <c r="HV1" s="33"/>
+      <c r="HW1" s="33"/>
+      <c r="HX1" s="33"/>
+      <c r="HY1" s="33"/>
+      <c r="HZ1" s="33"/>
+      <c r="IA1" s="33"/>
+      <c r="IB1" s="33"/>
+      <c r="IC1" s="33"/>
+      <c r="ID1" s="33"/>
+      <c r="IE1" s="33"/>
+      <c r="IF1" s="33"/>
+      <c r="IG1" s="33"/>
+      <c r="IH1" s="33"/>
+      <c r="II1" s="33"/>
+      <c r="IJ1" s="33"/>
+      <c r="IK1" s="33"/>
+      <c r="IL1" s="33"/>
+      <c r="IM1" s="33"/>
+      <c r="IN1" s="33"/>
+      <c r="IO1" s="33"/>
+      <c r="IP1" s="33"/>
+      <c r="IQ1" s="33"/>
+      <c r="IR1" s="33"/>
+      <c r="IS1" s="33"/>
+      <c r="IT1" s="33"/>
+      <c r="IU1" s="33"/>
+      <c r="IV1" s="33"/>
     </row>
     <row r="2" spans="1:256">
       <c r="A2" s="7" t="s">
         <v>273</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>1106</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>1107</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>1108</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
         <v>794</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
   </sheetData>

--- a/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\gsa-devel\piv-conformance-swing\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1A6BB6-E43E-4ABF-A48B-E58A1528AF1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04375767-81C4-4D1A-87B3-D6A3FD6DA9BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="195" windowWidth="23235" windowHeight="16830" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3439" uniqueCount="1169">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3504,6 +3504,42 @@
   </si>
   <si>
     <t>gov.gsa.conformancelib.tests.PlaceholderTests</t>
+  </si>
+  <si>
+    <t>Container ID</t>
+  </si>
+  <si>
+    <t>CARD_CAPABILITY_CONTAINER_OID</t>
+  </si>
+  <si>
+    <t>CARD_HOLDER_UNIQUE_IDENTIFIER_OID</t>
+  </si>
+  <si>
+    <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID</t>
+  </si>
+  <si>
+    <t>CARDHOLDER_FINGERPRINTS_OID</t>
+  </si>
+  <si>
+    <t>PRINTED_INFORMATION_OID</t>
+  </si>
+  <si>
+    <t>CARDHOLDER_FACIAL_IMAGE_OID</t>
+  </si>
+  <si>
+    <t>X509_CERTIFICATE_FOR_DIGITAL_SIGNATURE_OID</t>
+  </si>
+  <si>
+    <t>X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID</t>
+  </si>
+  <si>
+    <t>X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID</t>
+  </si>
+  <si>
+    <t>SECURITY_OBJECT_OID</t>
+  </si>
+  <si>
+    <t>DISCOVERY_OBJECT_OID</t>
   </si>
 </sst>
 </file>
@@ -4328,17 +4364,17 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="57.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="57.35546875" style="4" customWidth="1"/>
     <col min="3" max="5" width="10.5" style="4" customWidth="1"/>
-    <col min="6" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="27" customWidth="1"/>
+    <col min="6" max="256" width="8.85546875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.85546875" style="27" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -4346,7 +4382,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A2" s="2">
         <v>8</v>
       </c>
@@ -4354,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A3" s="3">
         <v>8.1</v>
       </c>
@@ -4362,7 +4398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>59</v>
       </c>
@@ -4370,7 +4406,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>63</v>
       </c>
@@ -4378,7 +4414,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>66</v>
       </c>
@@ -4386,7 +4422,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>69</v>
       </c>
@@ -4394,7 +4430,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -4402,7 +4438,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>75</v>
       </c>
@@ -4410,7 +4446,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>78</v>
       </c>
@@ -4418,7 +4454,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>81</v>
       </c>
@@ -4426,7 +4462,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>84</v>
       </c>
@@ -4434,7 +4470,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>87</v>
       </c>
@@ -4442,7 +4478,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>90</v>
       </c>
@@ -4450,7 +4486,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A15" s="3">
         <v>8.1999999999999993</v>
       </c>
@@ -4458,7 +4494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>93</v>
       </c>
@@ -4466,7 +4502,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>96</v>
       </c>
@@ -4474,7 +4510,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>97</v>
       </c>
@@ -4482,7 +4518,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="19" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>98</v>
       </c>
@@ -4490,7 +4526,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>99</v>
       </c>
@@ -4498,7 +4534,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="21" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>102</v>
       </c>
@@ -4506,7 +4542,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>105</v>
       </c>
@@ -4514,7 +4550,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>108</v>
       </c>
@@ -4522,7 +4558,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>111</v>
       </c>
@@ -4530,7 +4566,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>114</v>
       </c>
@@ -4538,7 +4574,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>117</v>
       </c>
@@ -4546,7 +4582,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="27" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>120</v>
       </c>
@@ -4554,7 +4590,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>123</v>
       </c>
@@ -4562,7 +4598,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="29" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>126</v>
       </c>
@@ -4570,7 +4606,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="30" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>128</v>
       </c>
@@ -4578,7 +4614,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="31" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>132</v>
       </c>
@@ -4586,7 +4622,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="32" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A32" s="3">
         <v>8.3000000000000007</v>
       </c>
@@ -4594,7 +4630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="33" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>134</v>
       </c>
@@ -4602,7 +4638,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="34" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>137</v>
       </c>
@@ -4610,7 +4646,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="35" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>138</v>
       </c>
@@ -4618,7 +4654,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="36" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>139</v>
       </c>
@@ -4626,7 +4662,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="37" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>140</v>
       </c>
@@ -4634,7 +4670,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="38" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>143</v>
       </c>
@@ -4642,7 +4678,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="39" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>146</v>
       </c>
@@ -4650,7 +4686,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="40" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>149</v>
       </c>
@@ -4658,7 +4694,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="41" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>152</v>
       </c>
@@ -4666,7 +4702,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="42" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>155</v>
       </c>
@@ -4674,7 +4710,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="43" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A43" s="3">
         <v>8.4</v>
       </c>
@@ -4682,7 +4718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="44" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>156</v>
       </c>
@@ -4690,7 +4726,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="45" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>159</v>
       </c>
@@ -4698,7 +4734,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="46" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>160</v>
       </c>
@@ -4706,7 +4742,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="47" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>161</v>
       </c>
@@ -4714,7 +4750,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="48" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>162</v>
       </c>
@@ -4725,7 +4761,7 @@
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
     </row>
-    <row r="49" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="49" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>163</v>
       </c>
@@ -4736,7 +4772,7 @@
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="50" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>164</v>
       </c>
@@ -4747,7 +4783,7 @@
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="51" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>165</v>
       </c>
@@ -4758,7 +4794,7 @@
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
     </row>
-    <row r="52" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="52" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>166</v>
       </c>
@@ -4769,7 +4805,7 @@
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
     </row>
-    <row r="53" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="53" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A53" s="3">
         <v>8.5</v>
       </c>
@@ -4780,7 +4816,7 @@
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
     </row>
-    <row r="54" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="54" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>167</v>
       </c>
@@ -4791,7 +4827,7 @@
       <c r="D54" s="26"/>
       <c r="E54" s="26"/>
     </row>
-    <row r="55" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="55" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>170</v>
       </c>
@@ -4802,7 +4838,7 @@
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
     </row>
-    <row r="56" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="56" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>171</v>
       </c>
@@ -4813,7 +4849,7 @@
       <c r="D56" s="26"/>
       <c r="E56" s="26"/>
     </row>
-    <row r="57" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="57" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>172</v>
       </c>
@@ -4824,7 +4860,7 @@
       <c r="D57" s="26"/>
       <c r="E57" s="26"/>
     </row>
-    <row r="58" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="58" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>173</v>
       </c>
@@ -4835,7 +4871,7 @@
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
     </row>
-    <row r="59" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="59" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>176</v>
       </c>
@@ -4846,7 +4882,7 @@
       <c r="D59" s="26"/>
       <c r="E59" s="26"/>
     </row>
-    <row r="60" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="60" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>179</v>
       </c>
@@ -4857,7 +4893,7 @@
       <c r="D60" s="26"/>
       <c r="E60" s="26"/>
     </row>
-    <row r="61" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="61" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>182</v>
       </c>
@@ -4868,7 +4904,7 @@
       <c r="D61" s="26"/>
       <c r="E61" s="26"/>
     </row>
-    <row r="62" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="62" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>185</v>
       </c>
@@ -4879,7 +4915,7 @@
       <c r="D62" s="26"/>
       <c r="E62" s="26"/>
     </row>
-    <row r="63" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="63" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>188</v>
       </c>
@@ -4890,7 +4926,7 @@
       <c r="D63" s="26"/>
       <c r="E63" s="26"/>
     </row>
-    <row r="64" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="64" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A64" s="3">
         <v>8.6</v>
       </c>
@@ -4901,7 +4937,7 @@
       <c r="D64" s="26"/>
       <c r="E64" s="26"/>
     </row>
-    <row r="65" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="65" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>189</v>
       </c>
@@ -4912,7 +4948,7 @@
       <c r="D65" s="26"/>
       <c r="E65" s="26"/>
     </row>
-    <row r="66" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="66" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>192</v>
       </c>
@@ -4923,7 +4959,7 @@
       <c r="D66" s="26"/>
       <c r="E66" s="26"/>
     </row>
-    <row r="67" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="67" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>193</v>
       </c>
@@ -4934,7 +4970,7 @@
       <c r="D67" s="26"/>
       <c r="E67" s="26"/>
     </row>
-    <row r="68" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="68" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>194</v>
       </c>
@@ -4945,7 +4981,7 @@
       <c r="D68" s="26"/>
       <c r="E68" s="26"/>
     </row>
-    <row r="69" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="69" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>195</v>
       </c>
@@ -4956,7 +4992,7 @@
       <c r="D69" s="26"/>
       <c r="E69" s="26"/>
     </row>
-    <row r="70" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="70" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>198</v>
       </c>
@@ -4991,7 +5027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="31.5">
+    <row r="74" spans="1:5" ht="31.75">
       <c r="A74" s="3" t="s">
         <v>205</v>
       </c>
@@ -5079,7 +5115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="31.5">
+    <row r="85" spans="1:2" ht="31.75">
       <c r="A85" s="3" t="s">
         <v>217</v>
       </c>
@@ -5167,7 +5203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="31.5">
+    <row r="96" spans="1:2" ht="31.75">
       <c r="A96" s="3" t="s">
         <v>229</v>
       </c>
@@ -5311,7 +5347,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="31.5">
+    <row r="114" spans="1:2" ht="31.75">
       <c r="A114" s="3" t="s">
         <v>255</v>
       </c>
@@ -5327,7 +5363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="28.5">
+    <row r="116" spans="1:2" ht="28.3">
       <c r="A116" s="3" t="s">
         <v>258</v>
       </c>
@@ -5367,7 +5403,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="47.25">
+    <row r="121" spans="1:2" ht="47.6">
       <c r="A121" s="3" t="s">
         <v>267</v>
       </c>
@@ -5383,7 +5419,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="63">
+    <row r="123" spans="1:2" ht="63.45">
       <c r="A123" s="3" t="s">
         <v>272</v>
       </c>
@@ -5535,7 +5571,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="31.5">
+    <row r="142" spans="1:2" ht="31.75">
       <c r="A142" s="3" t="s">
         <v>297</v>
       </c>
@@ -5551,7 +5587,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="31.5">
+    <row r="144" spans="1:2" ht="31.75">
       <c r="A144" s="3" t="s">
         <v>302</v>
       </c>
@@ -5559,7 +5595,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="47.25">
+    <row r="145" spans="1:2" ht="31.75">
       <c r="A145" s="3" t="s">
         <v>304</v>
       </c>
@@ -5567,7 +5603,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="47.25">
+    <row r="146" spans="1:2" ht="47.6">
       <c r="A146" s="3" t="s">
         <v>306</v>
       </c>
@@ -5591,7 +5627,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="47.25">
+    <row r="149" spans="1:2" ht="47.6">
       <c r="A149" s="3" t="s">
         <v>312</v>
       </c>
@@ -5607,7 +5643,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="63">
+    <row r="151" spans="1:2" ht="47.6">
       <c r="A151" s="3" t="s">
         <v>316</v>
       </c>
@@ -5615,7 +5651,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="31.5">
+    <row r="152" spans="1:2" ht="31.75">
       <c r="A152" s="3" t="s">
         <v>318</v>
       </c>
@@ -5623,7 +5659,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="31.5">
+    <row r="153" spans="1:2" ht="31.75">
       <c r="A153" s="3" t="s">
         <v>320</v>
       </c>
@@ -5687,7 +5723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="31.5">
+    <row r="161" spans="1:2" ht="31.75">
       <c r="A161" s="3" t="s">
         <v>328</v>
       </c>
@@ -5703,7 +5739,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="31.5">
+    <row r="163" spans="1:2" ht="31.75">
       <c r="A163" s="3" t="s">
         <v>330</v>
       </c>
@@ -5711,7 +5747,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="31.5">
+    <row r="164" spans="1:2" ht="31.75">
       <c r="A164" s="3" t="s">
         <v>331</v>
       </c>
@@ -5719,7 +5755,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="47.25">
+    <row r="165" spans="1:2" ht="47.6">
       <c r="A165" s="3" t="s">
         <v>333</v>
       </c>
@@ -5743,7 +5779,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="31.5">
+    <row r="168" spans="1:2" ht="31.75">
       <c r="A168" s="3" t="s">
         <v>337</v>
       </c>
@@ -5759,7 +5795,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="63">
+    <row r="170" spans="1:2" ht="47.6">
       <c r="A170" s="3" t="s">
         <v>341</v>
       </c>
@@ -5767,7 +5803,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="31.5">
+    <row r="171" spans="1:2" ht="31.75">
       <c r="A171" s="3" t="s">
         <v>342</v>
       </c>
@@ -5775,7 +5811,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="31.5">
+    <row r="172" spans="1:2" ht="31.75">
       <c r="A172" s="3" t="s">
         <v>343</v>
       </c>
@@ -5871,7 +5907,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="47.25">
+    <row r="184" spans="1:2" ht="47.6">
       <c r="A184" s="3" t="s">
         <v>333</v>
       </c>
@@ -5895,7 +5931,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="31.5">
+    <row r="187" spans="1:2" ht="31.75">
       <c r="A187" s="3" t="s">
         <v>361</v>
       </c>
@@ -5911,7 +5947,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="63">
+    <row r="189" spans="1:2" ht="47.6">
       <c r="A189" s="3" t="s">
         <v>364</v>
       </c>
@@ -5919,7 +5955,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="31.5">
+    <row r="190" spans="1:2" ht="31.75">
       <c r="A190" s="3" t="s">
         <v>365</v>
       </c>
@@ -5927,7 +5963,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="31.5">
+    <row r="191" spans="1:2" ht="31.75">
       <c r="A191" s="3" t="s">
         <v>366</v>
       </c>
@@ -5975,7 +6011,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="47.25">
+    <row r="197" spans="1:2" ht="47.6">
       <c r="A197" s="3" t="s">
         <v>376</v>
       </c>
@@ -5983,7 +6019,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="47.25">
+    <row r="198" spans="1:2" ht="47.6">
       <c r="A198" s="3" t="s">
         <v>378</v>
       </c>
@@ -6007,7 +6043,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="31.5">
+    <row r="201" spans="1:2" ht="31.75">
       <c r="A201" s="3" t="s">
         <v>383</v>
       </c>
@@ -6015,7 +6051,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="31.5">
+    <row r="202" spans="1:2" ht="31.75">
       <c r="A202" s="3" t="s">
         <v>385</v>
       </c>
@@ -6119,7 +6155,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="31.5">
+    <row r="215" spans="1:2" ht="31.75">
       <c r="A215" s="3" t="s">
         <v>410</v>
       </c>
@@ -6263,7 +6299,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="47.25">
+    <row r="233" spans="1:2" ht="47.6">
       <c r="A233" s="3" t="s">
         <v>433</v>
       </c>
@@ -6279,7 +6315,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="31.5">
+    <row r="235" spans="1:2" ht="31.75">
       <c r="A235" s="3" t="s">
         <v>440</v>
       </c>
@@ -6287,7 +6323,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="31.5">
+    <row r="236" spans="1:2" ht="31.75">
       <c r="A236" s="3" t="s">
         <v>443</v>
       </c>
@@ -6311,7 +6347,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="47.25">
+    <row r="239" spans="1:2" ht="47.6">
       <c r="A239" s="3" t="s">
         <v>452</v>
       </c>
@@ -6319,7 +6355,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="47.25">
+    <row r="240" spans="1:2" ht="47.6">
       <c r="A240" s="3" t="s">
         <v>455</v>
       </c>
@@ -6327,7 +6363,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="78.75">
+    <row r="241" spans="1:2" ht="79.3">
       <c r="A241" s="3" t="s">
         <v>458</v>
       </c>
@@ -6335,7 +6371,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="47.25">
+    <row r="242" spans="1:2" ht="47.6">
       <c r="A242" s="3" t="s">
         <v>461</v>
       </c>
@@ -6343,7 +6379,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="78.75">
+    <row r="243" spans="1:2" ht="79.3">
       <c r="A243" s="3" t="s">
         <v>464</v>
       </c>
@@ -6351,7 +6387,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="31.5">
+    <row r="244" spans="1:2" ht="31.75">
       <c r="A244" s="3" t="s">
         <v>467</v>
       </c>
@@ -6375,7 +6411,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="47.25">
+    <row r="247" spans="1:2" ht="47.6">
       <c r="A247" s="3" t="s">
         <v>472</v>
       </c>
@@ -6391,7 +6427,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="31.5">
+    <row r="249" spans="1:2" ht="31.75">
       <c r="A249" s="3" t="s">
         <v>477</v>
       </c>
@@ -6399,7 +6435,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="31.5">
+    <row r="250" spans="1:2" ht="31.75">
       <c r="A250" s="3" t="s">
         <v>479</v>
       </c>
@@ -6431,7 +6467,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="31.5">
+    <row r="254" spans="1:2" ht="31.75">
       <c r="A254" s="3" t="s">
         <v>485</v>
       </c>
@@ -6439,7 +6475,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="31.5">
+    <row r="255" spans="1:2" ht="31.75">
       <c r="A255" s="3" t="s">
         <v>487</v>
       </c>
@@ -6447,7 +6483,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="31.5">
+    <row r="256" spans="1:2" ht="31.75">
       <c r="A256" s="3" t="s">
         <v>490</v>
       </c>
@@ -6455,7 +6491,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="47.25">
+    <row r="257" spans="1:2" ht="47.6">
       <c r="A257" s="3" t="s">
         <v>492</v>
       </c>
@@ -6463,7 +6499,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="47.25">
+    <row r="258" spans="1:2" ht="47.6">
       <c r="A258" s="3" t="s">
         <v>495</v>
       </c>
@@ -6471,7 +6507,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="63">
+    <row r="259" spans="1:2" ht="63.45">
       <c r="A259" s="3" t="s">
         <v>497</v>
       </c>
@@ -6479,7 +6515,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="78.75">
+    <row r="260" spans="1:2" ht="79.3">
       <c r="A260" s="3" t="s">
         <v>499</v>
       </c>
@@ -6487,7 +6523,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="78.75">
+    <row r="261" spans="1:2" ht="79.3">
       <c r="A261" s="3" t="s">
         <v>501</v>
       </c>
@@ -6495,7 +6531,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="47.25">
+    <row r="262" spans="1:2" ht="47.6">
       <c r="A262" s="3" t="s">
         <v>504</v>
       </c>
@@ -6519,7 +6555,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="47.25">
+    <row r="265" spans="1:2" ht="47.6">
       <c r="A265" s="3" t="s">
         <v>508</v>
       </c>
@@ -6535,7 +6571,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="31.5">
+    <row r="267" spans="1:2" ht="31.75">
       <c r="A267" s="3" t="s">
         <v>510</v>
       </c>
@@ -6543,7 +6579,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="31.5">
+    <row r="268" spans="1:2" ht="31.75">
       <c r="A268" s="3" t="s">
         <v>511</v>
       </c>
@@ -6575,7 +6611,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="31.5">
+    <row r="272" spans="1:2" ht="31.75">
       <c r="A272" s="3" t="s">
         <v>515</v>
       </c>
@@ -6583,7 +6619,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="31.5">
+    <row r="273" spans="1:2" ht="31.75">
       <c r="A273" s="3" t="s">
         <v>516</v>
       </c>
@@ -6591,7 +6627,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="31.5">
+    <row r="274" spans="1:2" ht="31.75">
       <c r="A274" s="3" t="s">
         <v>517</v>
       </c>
@@ -6599,7 +6635,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="47.25">
+    <row r="275" spans="1:2" ht="47.6">
       <c r="A275" s="3" t="s">
         <v>518</v>
       </c>
@@ -6607,7 +6643,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="47.25">
+    <row r="276" spans="1:2" ht="47.6">
       <c r="A276" s="3" t="s">
         <v>519</v>
       </c>
@@ -6615,7 +6651,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="63">
+    <row r="277" spans="1:2" ht="63.45">
       <c r="A277" s="3" t="s">
         <v>520</v>
       </c>
@@ -6623,7 +6659,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="78.75">
+    <row r="278" spans="1:2" ht="79.3">
       <c r="A278" s="3" t="s">
         <v>521</v>
       </c>
@@ -6631,7 +6667,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="78.75">
+    <row r="279" spans="1:2" ht="79.3">
       <c r="A279" s="3" t="s">
         <v>522</v>
       </c>
@@ -6639,7 +6675,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="47.25">
+    <row r="280" spans="1:2" ht="47.6">
       <c r="A280" s="3" t="s">
         <v>523</v>
       </c>
@@ -6663,7 +6699,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="31.5">
+    <row r="283" spans="1:2" ht="31.75">
       <c r="A283" s="3" t="s">
         <v>525</v>
       </c>
@@ -6679,7 +6715,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="31.5">
+    <row r="285" spans="1:2" ht="31.75">
       <c r="A285" s="3" t="s">
         <v>529</v>
       </c>
@@ -6703,7 +6739,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="47.25">
+    <row r="288" spans="1:2" ht="47.6">
       <c r="A288" s="3" t="s">
         <v>538</v>
       </c>
@@ -6727,7 +6763,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="78.75">
+    <row r="291" spans="1:2" ht="79.3">
       <c r="A291" s="3" t="s">
         <v>546</v>
       </c>
@@ -6751,7 +6787,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="47.25">
+    <row r="294" spans="1:2" ht="47.6">
       <c r="A294" s="3" t="s">
         <v>550</v>
       </c>
@@ -6767,7 +6803,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="31.5">
+    <row r="296" spans="1:2" ht="31.75">
       <c r="A296" s="3" t="s">
         <v>552</v>
       </c>
@@ -6775,7 +6811,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="31.5">
+    <row r="297" spans="1:2" ht="31.75">
       <c r="A297" s="3" t="s">
         <v>553</v>
       </c>
@@ -6807,7 +6843,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="31.5">
+    <row r="301" spans="1:2" ht="31.75">
       <c r="A301" s="3" t="s">
         <v>557</v>
       </c>
@@ -6815,7 +6851,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="31.5">
+    <row r="302" spans="1:2" ht="31.75">
       <c r="A302" s="3" t="s">
         <v>558</v>
       </c>
@@ -6823,7 +6859,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="31.5">
+    <row r="303" spans="1:2" ht="31.75">
       <c r="A303" s="3" t="s">
         <v>559</v>
       </c>
@@ -6831,7 +6867,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="47.25">
+    <row r="304" spans="1:2" ht="47.6">
       <c r="A304" s="3" t="s">
         <v>560</v>
       </c>
@@ -6839,7 +6875,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="47.25">
+    <row r="305" spans="1:2" ht="47.6">
       <c r="A305" s="3" t="s">
         <v>561</v>
       </c>
@@ -6847,7 +6883,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="63">
+    <row r="306" spans="1:2" ht="63.45">
       <c r="A306" s="3" t="s">
         <v>562</v>
       </c>
@@ -6855,7 +6891,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="78.75">
+    <row r="307" spans="1:2" ht="79.3">
       <c r="A307" s="3" t="s">
         <v>563</v>
       </c>
@@ -6863,7 +6899,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="78.75">
+    <row r="308" spans="1:2" ht="79.3">
       <c r="A308" s="3" t="s">
         <v>564</v>
       </c>
@@ -6871,7 +6907,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="47.25">
+    <row r="309" spans="1:2" ht="47.6">
       <c r="A309" s="3" t="s">
         <v>565</v>
       </c>
@@ -6903,7 +6939,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="94.5">
+    <row r="313" spans="1:2" ht="95.15">
       <c r="A313" s="3" t="s">
         <v>567</v>
       </c>
@@ -6911,7 +6947,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="31.5">
+    <row r="314" spans="1:2" ht="31.75">
       <c r="A314" s="3" t="s">
         <v>570</v>
       </c>
@@ -6959,7 +6995,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="31.5">
+    <row r="320" spans="1:2" ht="31.75">
       <c r="A320" s="3" t="s">
         <v>585</v>
       </c>
@@ -6991,7 +7027,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="31.5">
+    <row r="324" spans="1:2" ht="31.75">
       <c r="A324" s="3" t="s">
         <v>596</v>
       </c>
@@ -7007,7 +7043,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="31.5">
+    <row r="326" spans="1:2" ht="31.75">
       <c r="A326" s="3" t="s">
         <v>602</v>
       </c>
@@ -7023,7 +7059,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="63">
+    <row r="328" spans="1:2" ht="63.45">
       <c r="A328" s="3" t="s">
         <v>608</v>
       </c>
@@ -7031,7 +7067,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="47.25">
+    <row r="329" spans="1:2" ht="47.6">
       <c r="A329" s="3" t="s">
         <v>610</v>
       </c>
@@ -7047,7 +7083,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="31.5">
+    <row r="331" spans="1:2" ht="31.75">
       <c r="A331" s="3" t="s">
         <v>614</v>
       </c>
@@ -7055,7 +7091,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="31.5">
+    <row r="332" spans="1:2" ht="31.75">
       <c r="A332" s="3" t="s">
         <v>617</v>
       </c>
@@ -7111,7 +7147,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="31.5">
+    <row r="339" spans="1:2" ht="31.75">
       <c r="A339" s="3" t="s">
         <v>631</v>
       </c>
@@ -7151,7 +7187,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="94.5">
+    <row r="344" spans="1:2" ht="95.15">
       <c r="A344" s="3" t="s">
         <v>639</v>
       </c>
@@ -7159,7 +7195,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="31.5">
+    <row r="345" spans="1:2" ht="31.75">
       <c r="A345" s="3" t="s">
         <v>640</v>
       </c>
@@ -7207,7 +7243,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="31.5">
+    <row r="351" spans="1:2" ht="31.75">
       <c r="A351" s="3" t="s">
         <v>653</v>
       </c>
@@ -7215,7 +7251,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="31.5">
+    <row r="352" spans="1:2" ht="31.75">
       <c r="A352" s="3" t="s">
         <v>655</v>
       </c>
@@ -7223,7 +7259,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="31.5">
+    <row r="353" spans="1:2" ht="31.75">
       <c r="A353" s="3" t="s">
         <v>657</v>
       </c>
@@ -7231,7 +7267,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="31.5">
+    <row r="354" spans="1:2" ht="47.6">
       <c r="A354" s="3" t="s">
         <v>659</v>
       </c>
@@ -7287,7 +7323,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="31.5">
+    <row r="361" spans="1:2" ht="31.75">
       <c r="A361" s="3" t="s">
         <v>668</v>
       </c>
@@ -7327,7 +7363,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="78.75">
+    <row r="366" spans="1:2" ht="79.3">
       <c r="A366" s="3" t="s">
         <v>672</v>
       </c>
@@ -7335,7 +7371,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="31.5">
+    <row r="367" spans="1:2" ht="31.75">
       <c r="A367" s="3" t="s">
         <v>674</v>
       </c>
@@ -7367,7 +7403,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="31.5">
+    <row r="371" spans="1:2" ht="31.75">
       <c r="A371" s="3" t="s">
         <v>680</v>
       </c>
@@ -7375,7 +7411,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="31.5">
+    <row r="372" spans="1:2" ht="31.75">
       <c r="A372" s="3" t="s">
         <v>683</v>
       </c>
@@ -7391,7 +7427,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="31.5">
+    <row r="374" spans="1:2" ht="31.75">
       <c r="A374" s="3" t="s">
         <v>688</v>
       </c>
@@ -7399,7 +7435,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="31.5">
+    <row r="375" spans="1:2" ht="31.75">
       <c r="A375" s="3" t="s">
         <v>690</v>
       </c>
@@ -7407,7 +7443,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="31.5">
+    <row r="376" spans="1:2" ht="47.6">
       <c r="A376" s="3" t="s">
         <v>692</v>
       </c>
@@ -7463,7 +7499,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="31.5">
+    <row r="383" spans="1:2" ht="31.75">
       <c r="A383" s="3" t="s">
         <v>699</v>
       </c>
@@ -7503,7 +7539,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="78.75">
+    <row r="388" spans="1:2" ht="79.3">
       <c r="A388" s="3" t="s">
         <v>703</v>
       </c>
@@ -7511,7 +7547,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="31.5">
+    <row r="389" spans="1:2" ht="31.75">
       <c r="A389" s="3" t="s">
         <v>704</v>
       </c>
@@ -7567,7 +7603,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="31.5">
+    <row r="396" spans="1:2" ht="31.75">
       <c r="A396" s="3" t="s">
         <v>715</v>
       </c>
@@ -7591,7 +7627,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="31.5">
+    <row r="399" spans="1:2" ht="31.75">
       <c r="A399" s="3" t="s">
         <v>723</v>
       </c>
@@ -7631,7 +7667,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="31.5">
+    <row r="404" spans="1:2" ht="31.75">
       <c r="A404" s="3" t="s">
         <v>733</v>
       </c>
@@ -7655,7 +7691,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="31.5">
+    <row r="407" spans="1:2" ht="31.75">
       <c r="A407" s="3" t="s">
         <v>736</v>
       </c>
@@ -7671,7 +7707,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="63">
+    <row r="409" spans="1:2" ht="63.45">
       <c r="A409" s="3" t="s">
         <v>738</v>
       </c>
@@ -7679,7 +7715,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="47.25">
+    <row r="410" spans="1:2" ht="47.6">
       <c r="A410" s="3" t="s">
         <v>740</v>
       </c>
@@ -7695,7 +7731,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="31.5">
+    <row r="412" spans="1:2" ht="31.75">
       <c r="A412" s="3" t="s">
         <v>743</v>
       </c>
@@ -7751,7 +7787,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="31.5">
+    <row r="419" spans="1:2" ht="31.75">
       <c r="A419" s="3" t="s">
         <v>750</v>
       </c>
@@ -7847,7 +7883,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="78.75">
+    <row r="431" spans="1:2" ht="79.3">
       <c r="A431" s="3" t="s">
         <v>759</v>
       </c>
@@ -7855,7 +7891,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="31.5">
+    <row r="432" spans="1:2" ht="31.75">
       <c r="A432" s="3" t="s">
         <v>760</v>
       </c>
@@ -7911,7 +7947,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="31.5">
+    <row r="439" spans="1:2" ht="31.75">
       <c r="A439" s="3" t="s">
         <v>769</v>
       </c>
@@ -7919,7 +7955,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="47.25">
+    <row r="440" spans="1:2" ht="47.6">
       <c r="A440" s="3" t="s">
         <v>771</v>
       </c>
@@ -7983,7 +8019,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="31.5">
+    <row r="448" spans="1:2" ht="31.75">
       <c r="A448" s="3" t="s">
         <v>780</v>
       </c>
@@ -8020,26 +8056,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G446"/>
+  <dimension ref="A1:H446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116:F125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.2109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="12" style="4" customWidth="1"/>
-    <col min="3" max="3" width="43.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.125" style="52" customWidth="1"/>
-    <col min="6" max="6" width="84.625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9" style="64"/>
-    <col min="8" max="1026" width="8.5" style="27" customWidth="1"/>
-    <col min="1027" max="16384" width="9" style="27"/>
+    <col min="3" max="3" width="43.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.35546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="52" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="84.640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9" style="64"/>
+    <col min="9" max="1027" width="8.5" style="27" customWidth="1"/>
+    <col min="1028" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="60" customFormat="1" ht="18.75">
+    <row r="1" spans="1:8" s="60" customFormat="1" ht="18.45">
       <c r="A1" s="51" t="s">
         <v>52</v>
       </c>
@@ -8056,11 +8093,14 @@
         <v>56</v>
       </c>
       <c r="F1" s="51" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G1" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="63"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="63"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -8072,9 +8112,10 @@
       </c>
       <c r="D2" s="50"/>
       <c r="E2" s="55"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="F2" s="55"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>58</v>
       </c>
@@ -8086,9 +8127,10 @@
       </c>
       <c r="D3" s="50"/>
       <c r="E3" s="56"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" ht="31.5">
+      <c r="F3" s="56"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="31.75">
       <c r="A4" s="3" t="s">
         <v>58</v>
       </c>
@@ -8102,11 +8144,14 @@
         <v>62</v>
       </c>
       <c r="E4" s="53"/>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="53" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="31.5">
+    <row r="5" spans="1:8" ht="31.75">
       <c r="A5" s="3" t="s">
         <v>58</v>
       </c>
@@ -8120,9 +8165,12 @@
         <v>65</v>
       </c>
       <c r="E5" s="53"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="F5" s="53" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="31.75">
       <c r="A6" s="3" t="s">
         <v>58</v>
       </c>
@@ -8136,9 +8184,12 @@
         <v>68</v>
       </c>
       <c r="E6" s="53"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="31.5">
+      <c r="F6" s="53" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="31.75">
       <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
@@ -8152,9 +8203,12 @@
         <v>71</v>
       </c>
       <c r="E7" s="53"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="31.5">
+      <c r="F7" s="53" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="31.75">
       <c r="A8" s="3" t="s">
         <v>58</v>
       </c>
@@ -8168,9 +8222,12 @@
         <v>74</v>
       </c>
       <c r="E8" s="53"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="F8" s="53" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="31.75">
       <c r="A9" s="3" t="s">
         <v>58</v>
       </c>
@@ -8184,9 +8241,12 @@
         <v>77</v>
       </c>
       <c r="E9" s="53"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="31.5">
+      <c r="F9" s="53" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="31.75">
       <c r="A10" s="3" t="s">
         <v>58</v>
       </c>
@@ -8200,9 +8260,12 @@
         <v>80</v>
       </c>
       <c r="E10" s="53"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="47.25">
+      <c r="F10" s="53" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="47.6">
       <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
@@ -8216,9 +8279,12 @@
         <v>83</v>
       </c>
       <c r="E11" s="53"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="31.5">
+      <c r="F11" s="53" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="31.75">
       <c r="A12" s="3" t="s">
         <v>58</v>
       </c>
@@ -8232,9 +8298,12 @@
         <v>86</v>
       </c>
       <c r="E12" s="53"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="31.5">
+      <c r="F12" s="53" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="31.75">
       <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
@@ -8248,9 +8317,12 @@
         <v>89</v>
       </c>
       <c r="E13" s="53"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="F13" s="53" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="31.75">
       <c r="A14" s="3" t="s">
         <v>58</v>
       </c>
@@ -8264,9 +8336,12 @@
         <v>92</v>
       </c>
       <c r="E14" s="53"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="F14" s="53" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
         <v>58</v>
       </c>
@@ -8278,9 +8353,10 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" ht="31.5">
+      <c r="F15" s="3"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" ht="31.75">
       <c r="A16" s="3" t="s">
         <v>58</v>
       </c>
@@ -8295,10 +8371,13 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5">
+    <row r="17" spans="1:7" ht="31.75">
       <c r="A17" s="3" t="s">
         <v>58</v>
       </c>
@@ -8312,9 +8391,12 @@
         <v>65</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="31.75">
       <c r="A18" s="3" t="s">
         <v>58</v>
       </c>
@@ -8328,9 +8410,12 @@
         <v>68</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="31.5">
+      <c r="F18" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" ht="31.75">
       <c r="A19" s="3" t="s">
         <v>58</v>
       </c>
@@ -8344,9 +8429,12 @@
         <v>71</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="31.75">
       <c r="A20" s="3" t="s">
         <v>58</v>
       </c>
@@ -8360,9 +8448,12 @@
         <v>101</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="31.5">
+      <c r="F20" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="31.75">
       <c r="A21" s="3" t="s">
         <v>58</v>
       </c>
@@ -8376,9 +8467,12 @@
         <v>104</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" ht="31.5">
+      <c r="F21" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="31.75">
       <c r="A22" s="3" t="s">
         <v>58</v>
       </c>
@@ -8392,9 +8486,12 @@
         <v>107</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" ht="31.5">
+      <c r="F22" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="31.75">
       <c r="A23" s="3" t="s">
         <v>58</v>
       </c>
@@ -8408,9 +8505,12 @@
         <v>110</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" ht="31.5">
+      <c r="F23" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="31.75">
       <c r="A24" s="3" t="s">
         <v>58</v>
       </c>
@@ -8424,9 +8524,12 @@
         <v>113</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" ht="47.25">
+      <c r="F24" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="47.6">
       <c r="A25" s="3" t="s">
         <v>58</v>
       </c>
@@ -8440,9 +8543,12 @@
         <v>116</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" ht="31.5">
+      <c r="F25" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="31.75">
       <c r="A26" s="3" t="s">
         <v>58</v>
       </c>
@@ -8456,9 +8562,12 @@
         <v>119</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="F26" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" ht="31.75">
       <c r="A27" s="3" t="s">
         <v>58</v>
       </c>
@@ -8472,9 +8581,12 @@
         <v>122</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="F27" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="31.75">
       <c r="A28" s="3" t="s">
         <v>58</v>
       </c>
@@ -8488,9 +8600,12 @@
         <v>125</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" ht="47.25">
+      <c r="F28" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" ht="47.6">
       <c r="A29" s="3" t="s">
         <v>58</v>
       </c>
@@ -8504,9 +8619,12 @@
         <v>113</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="F29" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" ht="31.75">
       <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
@@ -8520,9 +8638,12 @@
         <v>130</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="F30" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="31.75">
       <c r="A31" s="3" t="s">
         <v>131</v>
       </c>
@@ -8536,9 +8657,12 @@
         <v>92</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="F31" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="3" t="s">
         <v>58</v>
       </c>
@@ -8550,9 +8674,10 @@
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" ht="31.5">
+      <c r="F32" s="3"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" ht="31.75">
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
@@ -8567,10 +8692,13 @@
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="31.5">
+    <row r="34" spans="1:7" ht="31.75">
       <c r="A34" s="3" t="s">
         <v>58</v>
       </c>
@@ -8584,9 +8712,12 @@
         <v>65</v>
       </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="F34" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" ht="31.75">
       <c r="A35" s="3" t="s">
         <v>58</v>
       </c>
@@ -8600,9 +8731,12 @@
         <v>68</v>
       </c>
       <c r="E35" s="53"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" ht="31.5">
+      <c r="F35" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" ht="31.75">
       <c r="A36" s="3" t="s">
         <v>58</v>
       </c>
@@ -8616,9 +8750,12 @@
         <v>71</v>
       </c>
       <c r="E36" s="53"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="F36" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" ht="31.75">
       <c r="A37" s="3" t="s">
         <v>58</v>
       </c>
@@ -8632,9 +8769,12 @@
         <v>142</v>
       </c>
       <c r="E37" s="53"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="F37" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" ht="31.75">
       <c r="A38" s="3" t="s">
         <v>58</v>
       </c>
@@ -8648,9 +8788,12 @@
         <v>145</v>
       </c>
       <c r="E38" s="53"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" ht="31.5">
+      <c r="F38" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" ht="31.75">
       <c r="A39" s="3" t="s">
         <v>58</v>
       </c>
@@ -8664,9 +8807,12 @@
         <v>148</v>
       </c>
       <c r="E39" s="53"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" ht="31.5">
+      <c r="F39" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" ht="31.75">
       <c r="A40" s="3" t="s">
         <v>58</v>
       </c>
@@ -8680,9 +8826,12 @@
         <v>151</v>
       </c>
       <c r="E40" s="53"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" ht="31.5">
+      <c r="F40" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" ht="31.75">
       <c r="A41" s="3" t="s">
         <v>58</v>
       </c>
@@ -8696,9 +8845,12 @@
         <v>154</v>
       </c>
       <c r="E41" s="53"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="F41" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" ht="31.75">
       <c r="A42" s="3" t="s">
         <v>131</v>
       </c>
@@ -8712,9 +8864,12 @@
         <v>92</v>
       </c>
       <c r="E42" s="53"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="F42" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="3" t="s">
         <v>58</v>
       </c>
@@ -8726,9 +8881,10 @@
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="53"/>
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" spans="1:6" ht="31.5">
+      <c r="F43" s="53"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" ht="31.75">
       <c r="A44" s="3" t="s">
         <v>58</v>
       </c>
@@ -8742,11 +8898,14 @@
         <v>62</v>
       </c>
       <c r="E44" s="53"/>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="53" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="31.5">
+    <row r="45" spans="1:7" ht="31.75">
       <c r="A45" s="3" t="s">
         <v>58</v>
       </c>
@@ -8760,9 +8919,12 @@
         <v>65</v>
       </c>
       <c r="E45" s="53"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="F45" s="53" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" ht="31.75">
       <c r="A46" s="3" t="s">
         <v>58</v>
       </c>
@@ -8776,9 +8938,12 @@
         <v>68</v>
       </c>
       <c r="E46" s="53"/>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" ht="31.5">
+      <c r="F46" s="53" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" ht="31.75">
       <c r="A47" s="3" t="s">
         <v>58</v>
       </c>
@@ -8792,9 +8957,12 @@
         <v>71</v>
       </c>
       <c r="E47" s="53"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="F47" s="53" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" ht="31.75">
       <c r="A48" s="3" t="s">
         <v>58</v>
       </c>
@@ -8808,9 +8976,12 @@
         <v>76.239999999999995</v>
       </c>
       <c r="E48" s="53"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6" ht="31.5">
+      <c r="F48" s="53" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" ht="31.75">
       <c r="A49" s="3" t="s">
         <v>58</v>
       </c>
@@ -8824,9 +8995,12 @@
         <v>76.25</v>
       </c>
       <c r="E49" s="53"/>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6" ht="31.5">
+      <c r="F49" s="53" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7" ht="31.75">
       <c r="A50" s="3" t="s">
         <v>58</v>
       </c>
@@ -8840,9 +9014,12 @@
         <v>76.260000000000005</v>
       </c>
       <c r="E50" s="53"/>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:6" ht="31.5">
+      <c r="F50" s="53" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7" ht="31.75">
       <c r="A51" s="3" t="s">
         <v>58</v>
       </c>
@@ -8856,9 +9033,12 @@
         <v>76.23</v>
       </c>
       <c r="E51" s="53"/>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="F51" s="53" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" ht="31.75">
       <c r="A52" s="3" t="s">
         <v>58</v>
       </c>
@@ -8872,9 +9052,12 @@
         <v>92</v>
       </c>
       <c r="E52" s="53"/>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="F52" s="53" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
         <v>58</v>
       </c>
@@ -8886,9 +9069,10 @@
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="53"/>
-      <c r="F53" s="10"/>
-    </row>
-    <row r="54" spans="1:6" ht="31.5">
+      <c r="F53" s="53"/>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="1:7" ht="31.75">
       <c r="A54" s="3" t="s">
         <v>58</v>
       </c>
@@ -8902,11 +9086,14 @@
         <v>62</v>
       </c>
       <c r="E54" s="53"/>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="53" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="31.5">
+    <row r="55" spans="1:7" ht="31.75">
       <c r="A55" s="3" t="s">
         <v>58</v>
       </c>
@@ -8920,9 +9107,12 @@
         <v>65</v>
       </c>
       <c r="E55" s="53"/>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="F55" s="53" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="1:7" ht="31.75">
       <c r="A56" s="3" t="s">
         <v>58</v>
       </c>
@@ -8936,9 +9126,12 @@
         <v>68</v>
       </c>
       <c r="E56" s="53"/>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" ht="31.5">
+      <c r="F56" s="53" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="1:7" ht="31.75">
       <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
@@ -8952,9 +9145,12 @@
         <v>71</v>
       </c>
       <c r="E57" s="53"/>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="F57" s="53" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="1:7" ht="31.75">
       <c r="A58" s="3" t="s">
         <v>58</v>
       </c>
@@ -8968,9 +9164,12 @@
         <v>175</v>
       </c>
       <c r="E58" s="62"/>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="1:6" ht="31.5">
+      <c r="F58" s="53" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="1:7" ht="31.75">
       <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
@@ -8984,9 +9183,12 @@
         <v>178</v>
       </c>
       <c r="E59" s="53"/>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="1:6" ht="31.5">
+      <c r="F59" s="53" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="1:7" ht="31.75">
       <c r="A60" s="3" t="s">
         <v>58</v>
       </c>
@@ -9000,9 +9202,12 @@
         <v>181</v>
       </c>
       <c r="E60" s="53"/>
-      <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="1:6" ht="31.5">
+      <c r="F60" s="53" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="1:7" ht="31.75">
       <c r="A61" s="3" t="s">
         <v>58</v>
       </c>
@@ -9016,9 +9221,12 @@
         <v>184</v>
       </c>
       <c r="E61" s="53"/>
-      <c r="F61" s="3"/>
-    </row>
-    <row r="62" spans="1:6" ht="31.5">
+      <c r="F61" s="53" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="1:7" ht="31.75">
       <c r="A62" s="3" t="s">
         <v>58</v>
       </c>
@@ -9032,9 +9240,12 @@
         <v>187</v>
       </c>
       <c r="E62" s="53"/>
-      <c r="F62" s="3"/>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="F62" s="53" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="1:7" ht="31.75">
       <c r="A63" s="3" t="s">
         <v>131</v>
       </c>
@@ -9048,9 +9259,12 @@
         <v>92</v>
       </c>
       <c r="E63" s="53"/>
-      <c r="F63" s="3"/>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="F63" s="53" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="3" t="s">
         <v>58</v>
       </c>
@@ -9062,9 +9276,10 @@
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="53"/>
-      <c r="F64" s="10"/>
-    </row>
-    <row r="65" spans="1:6" ht="31.5">
+      <c r="F64" s="53"/>
+      <c r="G64" s="10"/>
+    </row>
+    <row r="65" spans="1:7" ht="31.75">
       <c r="A65" s="3" t="s">
         <v>58</v>
       </c>
@@ -9078,11 +9293,14 @@
         <v>62</v>
       </c>
       <c r="E65" s="53"/>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="53" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="31.5">
+    <row r="66" spans="1:7" ht="31.75">
       <c r="A66" s="3" t="s">
         <v>58</v>
       </c>
@@ -9096,9 +9314,12 @@
         <v>65</v>
       </c>
       <c r="E66" s="53"/>
-      <c r="F66" s="3"/>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="F66" s="53" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G66" s="3"/>
+    </row>
+    <row r="67" spans="1:7" ht="31.75">
       <c r="A67" s="3" t="s">
         <v>58</v>
       </c>
@@ -9112,9 +9333,12 @@
         <v>68</v>
       </c>
       <c r="E67" s="53"/>
-      <c r="F67" s="3"/>
-    </row>
-    <row r="68" spans="1:6" ht="31.5">
+      <c r="F67" s="53" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G67" s="3"/>
+    </row>
+    <row r="68" spans="1:7" ht="31.75">
       <c r="A68" s="3" t="s">
         <v>58</v>
       </c>
@@ -9128,9 +9352,12 @@
         <v>71</v>
       </c>
       <c r="E68" s="53"/>
-      <c r="F68" s="3"/>
-    </row>
-    <row r="69" spans="1:6" ht="31.5">
+      <c r="F68" s="53" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" spans="1:7" ht="31.75">
       <c r="A69" s="3" t="s">
         <v>58</v>
       </c>
@@ -9144,9 +9371,12 @@
         <v>197</v>
       </c>
       <c r="E69" s="53"/>
-      <c r="F69" s="3"/>
-    </row>
-    <row r="70" spans="1:6" ht="31.5">
+      <c r="F69" s="53" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="1:7" ht="31.75">
       <c r="A70" s="3" t="s">
         <v>58</v>
       </c>
@@ -9160,9 +9390,12 @@
         <v>200</v>
       </c>
       <c r="E70" s="53"/>
-      <c r="F70" s="3"/>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="F70" s="53" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G70" s="3"/>
+    </row>
+    <row r="71" spans="1:7" ht="31.75">
       <c r="A71" s="3" t="s">
         <v>58</v>
       </c>
@@ -9176,9 +9409,12 @@
         <v>203</v>
       </c>
       <c r="E71" s="53"/>
-      <c r="F71" s="3"/>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="F71" s="53" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G71" s="3"/>
+    </row>
+    <row r="72" spans="1:7" ht="31.75">
       <c r="A72" s="3" t="s">
         <v>131</v>
       </c>
@@ -9192,9 +9428,12 @@
         <v>92</v>
       </c>
       <c r="E72" s="53"/>
-      <c r="F72" s="3"/>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="F72" s="53" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="3" t="s">
         <v>58</v>
       </c>
@@ -9206,9 +9445,10 @@
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="53"/>
-      <c r="F73" s="10"/>
-    </row>
-    <row r="74" spans="1:6" ht="31.5">
+      <c r="F73" s="53"/>
+      <c r="G73" s="10"/>
+    </row>
+    <row r="74" spans="1:7" ht="31.75">
       <c r="A74" s="3" t="s">
         <v>58</v>
       </c>
@@ -9222,11 +9462,14 @@
         <v>62</v>
       </c>
       <c r="E74" s="53"/>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="53" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="31.5">
+    <row r="75" spans="1:7" ht="31.75">
       <c r="A75" s="3" t="s">
         <v>58</v>
       </c>
@@ -9240,9 +9483,12 @@
         <v>65</v>
       </c>
       <c r="E75" s="53"/>
-      <c r="F75" s="3"/>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="F75" s="53" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="1:7" ht="31.75">
       <c r="A76" s="3" t="s">
         <v>58</v>
       </c>
@@ -9256,9 +9502,12 @@
         <v>68</v>
       </c>
       <c r="E76" s="53"/>
-      <c r="F76" s="3"/>
-    </row>
-    <row r="77" spans="1:6" ht="31.5">
+      <c r="F76" s="53" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="1:7" ht="31.75">
       <c r="A77" s="3" t="s">
         <v>58</v>
       </c>
@@ -9272,9 +9521,12 @@
         <v>71</v>
       </c>
       <c r="E77" s="53"/>
-      <c r="F77" s="3"/>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="F77" s="53" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="1:7" ht="31.75">
       <c r="A78" s="3" t="s">
         <v>58</v>
       </c>
@@ -9288,9 +9540,12 @@
         <v>142</v>
       </c>
       <c r="E78" s="53"/>
-      <c r="F78" s="3"/>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="F78" s="53" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="1:7" ht="31.75">
       <c r="A79" s="3" t="s">
         <v>58</v>
       </c>
@@ -9304,9 +9559,12 @@
         <v>145</v>
       </c>
       <c r="E79" s="53"/>
-      <c r="F79" s="3"/>
-    </row>
-    <row r="80" spans="1:6" ht="31.5">
+      <c r="F79" s="53" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G79" s="3"/>
+    </row>
+    <row r="80" spans="1:7" ht="31.75">
       <c r="A80" s="3" t="s">
         <v>58</v>
       </c>
@@ -9320,9 +9578,12 @@
         <v>148</v>
       </c>
       <c r="E80" s="53"/>
-      <c r="F80" s="3"/>
-    </row>
-    <row r="81" spans="1:6" ht="31.5">
+      <c r="F80" s="53" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="1:7" ht="31.75">
       <c r="A81" s="3" t="s">
         <v>58</v>
       </c>
@@ -9336,9 +9597,12 @@
         <v>154</v>
       </c>
       <c r="E81" s="53"/>
-      <c r="F81" s="3"/>
-    </row>
-    <row r="82" spans="1:6" ht="31.5">
+      <c r="F81" s="53" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="1:7" ht="31.75">
       <c r="A82" s="3" t="s">
         <v>58</v>
       </c>
@@ -9352,9 +9616,12 @@
         <v>151</v>
       </c>
       <c r="E82" s="53"/>
-      <c r="F82" s="3"/>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="F82" s="53" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G82" s="3"/>
+    </row>
+    <row r="83" spans="1:7" ht="31.75">
       <c r="A83" s="3" t="s">
         <v>131</v>
       </c>
@@ -9368,9 +9635,12 @@
         <v>92</v>
       </c>
       <c r="E83" s="53"/>
-      <c r="F83" s="3"/>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="F83" s="53" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="3" t="s">
         <v>58</v>
       </c>
@@ -9382,9 +9652,10 @@
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="53"/>
-      <c r="F84" s="10"/>
-    </row>
-    <row r="85" spans="1:6" ht="31.5">
+      <c r="F84" s="53"/>
+      <c r="G84" s="10"/>
+    </row>
+    <row r="85" spans="1:7" ht="31.75">
       <c r="A85" s="3" t="s">
         <v>58</v>
       </c>
@@ -9398,11 +9669,14 @@
         <v>62</v>
       </c>
       <c r="E85" s="53"/>
-      <c r="F85" s="3" t="s">
+      <c r="F85" s="53" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G85" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="31.5">
+    <row r="86" spans="1:7" ht="31.75">
       <c r="A86" s="3" t="s">
         <v>58</v>
       </c>
@@ -9416,9 +9690,12 @@
         <v>65</v>
       </c>
       <c r="E86" s="53"/>
-      <c r="F86" s="3"/>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="F86" s="53" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="1:7" ht="31.75">
       <c r="A87" s="3" t="s">
         <v>58</v>
       </c>
@@ -9432,9 +9709,12 @@
         <v>68</v>
       </c>
       <c r="E87" s="53"/>
-      <c r="F87" s="3"/>
-    </row>
-    <row r="88" spans="1:6" ht="31.5">
+      <c r="F87" s="53" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="1:7" ht="31.75">
       <c r="A88" s="3" t="s">
         <v>58</v>
       </c>
@@ -9448,9 +9728,12 @@
         <v>71</v>
       </c>
       <c r="E88" s="53"/>
-      <c r="F88" s="3"/>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="F88" s="53" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="1:7" ht="31.75">
       <c r="A89" s="3" t="s">
         <v>58</v>
       </c>
@@ -9464,9 +9747,12 @@
         <v>142</v>
       </c>
       <c r="E89" s="53"/>
-      <c r="F89" s="3"/>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="F89" s="53" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G89" s="3"/>
+    </row>
+    <row r="90" spans="1:7" ht="31.75">
       <c r="A90" s="3" t="s">
         <v>58</v>
       </c>
@@ -9480,9 +9766,12 @@
         <v>145</v>
       </c>
       <c r="E90" s="53"/>
-      <c r="F90" s="3"/>
-    </row>
-    <row r="91" spans="1:6" ht="31.5">
+      <c r="F90" s="53" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G90" s="3"/>
+    </row>
+    <row r="91" spans="1:7" ht="31.75">
       <c r="A91" s="3" t="s">
         <v>58</v>
       </c>
@@ -9496,9 +9785,12 @@
         <v>148</v>
       </c>
       <c r="E91" s="53"/>
-      <c r="F91" s="3"/>
-    </row>
-    <row r="92" spans="1:6" ht="31.5">
+      <c r="F91" s="53" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="1:7" ht="31.75">
       <c r="A92" s="3" t="s">
         <v>58</v>
       </c>
@@ -9512,9 +9804,12 @@
         <v>151</v>
       </c>
       <c r="E92" s="53"/>
-      <c r="F92" s="3"/>
-    </row>
-    <row r="93" spans="1:6" ht="31.5">
+      <c r="F92" s="53" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G92" s="3"/>
+    </row>
+    <row r="93" spans="1:7" ht="31.75">
       <c r="A93" s="3" t="s">
         <v>58</v>
       </c>
@@ -9528,9 +9823,12 @@
         <v>154</v>
       </c>
       <c r="E93" s="53"/>
-      <c r="F93" s="3"/>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="F93" s="53" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G93" s="3"/>
+    </row>
+    <row r="94" spans="1:7" ht="31.75">
       <c r="A94" s="3" t="s">
         <v>131</v>
       </c>
@@ -9544,9 +9842,12 @@
         <v>92</v>
       </c>
       <c r="E94" s="53"/>
-      <c r="F94" s="3"/>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="F94" s="53" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G94" s="3"/>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="3" t="s">
         <v>58</v>
       </c>
@@ -9558,9 +9859,10 @@
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="53"/>
-      <c r="F95" s="10"/>
-    </row>
-    <row r="96" spans="1:6" ht="31.5">
+      <c r="F95" s="53"/>
+      <c r="G95" s="10"/>
+    </row>
+    <row r="96" spans="1:7" ht="31.75">
       <c r="A96" s="3" t="s">
         <v>58</v>
       </c>
@@ -9574,11 +9876,14 @@
         <v>62</v>
       </c>
       <c r="E96" s="53"/>
-      <c r="F96" s="3" t="s">
+      <c r="F96" s="53" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="31.5">
+    <row r="97" spans="1:7" ht="47.6">
       <c r="A97" s="3" t="s">
         <v>58</v>
       </c>
@@ -9592,9 +9897,12 @@
         <v>65</v>
       </c>
       <c r="E97" s="53"/>
-      <c r="F97" s="3"/>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="F97" s="53" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G97" s="3"/>
+    </row>
+    <row r="98" spans="1:7" ht="47.6">
       <c r="A98" s="3" t="s">
         <v>58</v>
       </c>
@@ -9608,9 +9916,12 @@
         <v>68</v>
       </c>
       <c r="E98" s="53"/>
-      <c r="F98" s="3"/>
-    </row>
-    <row r="99" spans="1:6" ht="31.5">
+      <c r="F98" s="53" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="1:7" ht="47.6">
       <c r="A99" s="3" t="s">
         <v>58</v>
       </c>
@@ -9624,9 +9935,12 @@
         <v>71</v>
       </c>
       <c r="E99" s="53"/>
-      <c r="F99" s="3"/>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="F99" s="53" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G99" s="3"/>
+    </row>
+    <row r="100" spans="1:7" ht="47.6">
       <c r="A100" s="3" t="s">
         <v>58</v>
       </c>
@@ -9640,9 +9954,12 @@
         <v>142</v>
       </c>
       <c r="E100" s="53"/>
-      <c r="F100" s="3"/>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="F100" s="53" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G100" s="3"/>
+    </row>
+    <row r="101" spans="1:7" ht="47.6">
       <c r="A101" s="3" t="s">
         <v>58</v>
       </c>
@@ -9656,9 +9973,12 @@
         <v>145</v>
       </c>
       <c r="E101" s="53"/>
-      <c r="F101" s="3"/>
-    </row>
-    <row r="102" spans="1:6" ht="31.5">
+      <c r="F101" s="53" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G101" s="3"/>
+    </row>
+    <row r="102" spans="1:7" ht="47.6">
       <c r="A102" s="3" t="s">
         <v>58</v>
       </c>
@@ -9672,9 +9992,12 @@
         <v>148</v>
       </c>
       <c r="E102" s="53"/>
-      <c r="F102" s="3"/>
-    </row>
-    <row r="103" spans="1:6" ht="31.5">
+      <c r="F102" s="53" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G102" s="3"/>
+    </row>
+    <row r="103" spans="1:7" ht="47.6">
       <c r="A103" s="3" t="s">
         <v>58</v>
       </c>
@@ -9688,9 +10011,12 @@
         <v>151</v>
       </c>
       <c r="E103" s="53"/>
-      <c r="F103" s="3"/>
-    </row>
-    <row r="104" spans="1:6" ht="31.5">
+      <c r="F103" s="53" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G103" s="3"/>
+    </row>
+    <row r="104" spans="1:7" ht="47.6">
       <c r="A104" s="3" t="s">
         <v>58</v>
       </c>
@@ -9704,9 +10030,12 @@
         <v>154</v>
       </c>
       <c r="E104" s="53"/>
-      <c r="F104" s="3"/>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="F104" s="53" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G104" s="3"/>
+    </row>
+    <row r="105" spans="1:7" ht="47.6">
       <c r="A105" s="3" t="s">
         <v>131</v>
       </c>
@@ -9720,9 +10049,12 @@
         <v>92</v>
       </c>
       <c r="E105" s="53"/>
-      <c r="F105" s="3"/>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="F105" s="53" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G105" s="3"/>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="3" t="s">
         <v>58</v>
       </c>
@@ -9734,9 +10066,10 @@
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="53"/>
-      <c r="F106" s="10"/>
-    </row>
-    <row r="107" spans="1:6" ht="31.5">
+      <c r="F106" s="53"/>
+      <c r="G106" s="10"/>
+    </row>
+    <row r="107" spans="1:7" ht="31.75">
       <c r="A107" s="3" t="s">
         <v>58</v>
       </c>
@@ -9750,11 +10083,14 @@
         <v>62</v>
       </c>
       <c r="E107" s="53"/>
-      <c r="F107" s="3" t="s">
+      <c r="F107" s="53" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G107" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="31.5">
+    <row r="108" spans="1:7" ht="31.75">
       <c r="A108" s="3" t="s">
         <v>58</v>
       </c>
@@ -9768,9 +10104,12 @@
         <v>65</v>
       </c>
       <c r="E108" s="53"/>
-      <c r="F108" s="3"/>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="F108" s="53" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G108" s="3"/>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="3" t="s">
         <v>58</v>
       </c>
@@ -9784,9 +10123,12 @@
         <v>68</v>
       </c>
       <c r="E109" s="53"/>
-      <c r="F109" s="3"/>
-    </row>
-    <row r="110" spans="1:6" ht="31.5">
+      <c r="F109" s="53" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G109" s="3"/>
+    </row>
+    <row r="110" spans="1:7" ht="31.75">
       <c r="A110" s="3" t="s">
         <v>58</v>
       </c>
@@ -9800,9 +10142,12 @@
         <v>71</v>
       </c>
       <c r="E110" s="53"/>
-      <c r="F110" s="3"/>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="F110" s="53" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G110" s="3"/>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="3" t="s">
         <v>58</v>
       </c>
@@ -9816,9 +10161,12 @@
         <v>248</v>
       </c>
       <c r="E111" s="53"/>
-      <c r="F111" s="3"/>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="F111" s="53" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G111" s="3"/>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="3" t="s">
         <v>58</v>
       </c>
@@ -9832,9 +10180,12 @@
         <v>251</v>
       </c>
       <c r="E112" s="53"/>
-      <c r="F112" s="3"/>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="F112" s="53" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G112" s="3"/>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="3" t="s">
         <v>58</v>
       </c>
@@ -9848,9 +10199,12 @@
         <v>254</v>
       </c>
       <c r="E113" s="53"/>
-      <c r="F113" s="3"/>
-    </row>
-    <row r="114" spans="1:6" ht="47.25">
+      <c r="F113" s="53" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G113" s="3"/>
+    </row>
+    <row r="114" spans="1:7" ht="47.6">
       <c r="A114" s="3" t="s">
         <v>58</v>
       </c>
@@ -9864,9 +10218,12 @@
         <v>257</v>
       </c>
       <c r="E114" s="53"/>
-      <c r="F114" s="3"/>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="F114" s="53" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G114" s="3"/>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="3" t="s">
         <v>58</v>
       </c>
@@ -9878,9 +10235,10 @@
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="53"/>
-      <c r="F115" s="10"/>
-    </row>
-    <row r="116" spans="1:6" ht="28.5">
+      <c r="F115" s="53"/>
+      <c r="G115" s="10"/>
+    </row>
+    <row r="116" spans="1:7" ht="31.75">
       <c r="A116" s="3" t="s">
         <v>58</v>
       </c>
@@ -9896,11 +10254,14 @@
       <c r="E116" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="F116" s="3" t="s">
+      <c r="F116" s="53" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G116" s="3" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="28.5">
+    <row r="117" spans="1:7" ht="28.3">
       <c r="A117" s="3" t="s">
         <v>58</v>
       </c>
@@ -9916,9 +10277,12 @@
       <c r="E117" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="F117" s="11"/>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="F117" s="53" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G117" s="11"/>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="3" t="s">
         <v>58</v>
       </c>
@@ -9934,9 +10298,12 @@
       <c r="E118" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="F118" s="11"/>
-    </row>
-    <row r="119" spans="1:6" ht="28.5">
+      <c r="F118" s="53" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G118" s="11"/>
+    </row>
+    <row r="119" spans="1:7" ht="28.3">
       <c r="A119" s="3" t="s">
         <v>58</v>
       </c>
@@ -9952,9 +10319,12 @@
       <c r="E119" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="F119" s="11"/>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="F119" s="53" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G119" s="11"/>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="3" t="s">
         <v>58</v>
       </c>
@@ -9970,9 +10340,12 @@
       <c r="E120" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="F120" s="11"/>
-    </row>
-    <row r="121" spans="1:6" ht="47.25">
+      <c r="F120" s="53" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G120" s="11"/>
+    </row>
+    <row r="121" spans="1:7" ht="47.6">
       <c r="A121" s="3" t="s">
         <v>58</v>
       </c>
@@ -9988,9 +10361,12 @@
       <c r="E121" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="F121" s="3"/>
-    </row>
-    <row r="122" spans="1:6" ht="31.5">
+      <c r="F121" s="53" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G121" s="3"/>
+    </row>
+    <row r="122" spans="1:7" ht="31.75">
       <c r="A122" s="3" t="s">
         <v>58</v>
       </c>
@@ -10006,9 +10382,12 @@
       <c r="E122" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="F122" s="3"/>
-    </row>
-    <row r="123" spans="1:6" ht="78.75">
+      <c r="F122" s="53" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G122" s="3"/>
+    </row>
+    <row r="123" spans="1:7" ht="79.3">
       <c r="A123" s="3" t="s">
         <v>58</v>
       </c>
@@ -10024,9 +10403,12 @@
       <c r="E123" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="F123" s="3"/>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="F123" s="53" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G123" s="3"/>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="3" t="s">
         <v>131</v>
       </c>
@@ -10040,9 +10422,12 @@
         <v>276</v>
       </c>
       <c r="E124" s="53"/>
-      <c r="F124" s="3"/>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="F124" s="53" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G124" s="3"/>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="3" t="s">
         <v>131</v>
       </c>
@@ -10056,9 +10441,12 @@
         <v>279</v>
       </c>
       <c r="E125" s="53"/>
-      <c r="F125" s="3"/>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="F125" s="53" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G125" s="3"/>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="3" t="s">
         <v>58</v>
       </c>
@@ -10072,9 +10460,10 @@
       <c r="E126" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="F126" s="10"/>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="F126" s="53"/>
+      <c r="G126" s="10"/>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="3" t="s">
         <v>58</v>
       </c>
@@ -10088,9 +10477,10 @@
       <c r="E127" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="F127" s="10"/>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="F127" s="53"/>
+      <c r="G127" s="10"/>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="3" t="s">
         <v>58</v>
       </c>
@@ -10106,11 +10496,12 @@
       <c r="E128" s="53" t="s">
         <v>282</v>
       </c>
-      <c r="F128" s="3" t="s">
+      <c r="F128" s="53"/>
+      <c r="G128" s="3" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:7">
       <c r="A129" s="3" t="s">
         <v>58</v>
       </c>
@@ -10126,11 +10517,12 @@
       <c r="E129" s="53" t="s">
         <v>282</v>
       </c>
-      <c r="F129" s="7" t="s">
+      <c r="F129" s="53"/>
+      <c r="G129" s="7" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:7">
       <c r="A130" s="3" t="s">
         <v>58</v>
       </c>
@@ -10146,11 +10538,12 @@
       <c r="E130" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="F130" s="7" t="s">
+      <c r="F130" s="53"/>
+      <c r="G130" s="7" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:7">
       <c r="A131" s="3" t="s">
         <v>58</v>
       </c>
@@ -10164,9 +10557,10 @@
       <c r="E131" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="F131" s="18"/>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="F131" s="53"/>
+      <c r="G131" s="18"/>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="3" t="s">
         <v>58</v>
       </c>
@@ -10180,9 +10574,10 @@
       <c r="E132" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="F132" s="18"/>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="F132" s="53"/>
+      <c r="G132" s="18"/>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="3" t="s">
         <v>58</v>
       </c>
@@ -10196,9 +10591,10 @@
       <c r="E133" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="F133" s="18"/>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="F133" s="53"/>
+      <c r="G133" s="18"/>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="2" t="s">
         <v>58</v>
       </c>
@@ -10210,9 +10606,10 @@
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="57"/>
-      <c r="F134" s="9"/>
-    </row>
-    <row r="135" spans="1:6">
+      <c r="F134" s="57"/>
+      <c r="G134" s="9"/>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="3" t="s">
         <v>58</v>
       </c>
@@ -10224,9 +10621,10 @@
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="53"/>
-      <c r="F135" s="10"/>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="F135" s="53"/>
+      <c r="G135" s="10"/>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="3" t="s">
         <v>58</v>
       </c>
@@ -10238,9 +10636,10 @@
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="53"/>
-      <c r="F136" s="18"/>
-    </row>
-    <row r="137" spans="1:6" ht="31.5">
+      <c r="F136" s="53"/>
+      <c r="G136" s="18"/>
+    </row>
+    <row r="137" spans="1:7" ht="31.75">
       <c r="A137" s="3" t="s">
         <v>58</v>
       </c>
@@ -10254,11 +10653,12 @@
         <v>76.099999999999994</v>
       </c>
       <c r="E137" s="53"/>
-      <c r="F137" s="3" t="s">
+      <c r="F137" s="53"/>
+      <c r="G137" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:7">
       <c r="A138" s="3" t="s">
         <v>58</v>
       </c>
@@ -10272,9 +10672,10 @@
         <v>76.2</v>
       </c>
       <c r="E138" s="53"/>
-      <c r="F138" s="3"/>
-    </row>
-    <row r="139" spans="1:6">
+      <c r="F138" s="53"/>
+      <c r="G138" s="3"/>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" s="3" t="s">
         <v>58</v>
       </c>
@@ -10288,9 +10689,10 @@
         <v>76.3</v>
       </c>
       <c r="E139" s="53"/>
-      <c r="F139" s="3"/>
-    </row>
-    <row r="140" spans="1:6">
+      <c r="F139" s="53"/>
+      <c r="G139" s="3"/>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="3" t="s">
         <v>58</v>
       </c>
@@ -10304,9 +10706,10 @@
         <v>76.400000000000006</v>
       </c>
       <c r="E140" s="53"/>
-      <c r="F140" s="3"/>
-    </row>
-    <row r="141" spans="1:6">
+      <c r="F140" s="53"/>
+      <c r="G140" s="3"/>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" s="3" t="s">
         <v>58</v>
       </c>
@@ -10318,9 +10721,10 @@
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="53"/>
-      <c r="F141" s="18"/>
-    </row>
-    <row r="142" spans="1:6" ht="31.5">
+      <c r="F141" s="53"/>
+      <c r="G141" s="18"/>
+    </row>
+    <row r="142" spans="1:7" ht="31.75">
       <c r="A142" s="3" t="s">
         <v>58</v>
       </c>
@@ -10334,11 +10738,12 @@
         <v>76.5</v>
       </c>
       <c r="E142" s="53"/>
-      <c r="F142" s="3" t="s">
+      <c r="F142" s="53"/>
+      <c r="G142" s="3" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="31.5">
+    <row r="143" spans="1:7" ht="31.75">
       <c r="A143" s="3" t="s">
         <v>58</v>
       </c>
@@ -10352,9 +10757,10 @@
         <v>76.599999999999994</v>
       </c>
       <c r="E143" s="53"/>
-      <c r="F143" s="3"/>
-    </row>
-    <row r="144" spans="1:6" ht="47.25">
+      <c r="F143" s="53"/>
+      <c r="G143" s="3"/>
+    </row>
+    <row r="144" spans="1:7" ht="47.6">
       <c r="A144" s="3" t="s">
         <v>58</v>
       </c>
@@ -10368,9 +10774,10 @@
         <v>76.7</v>
       </c>
       <c r="E144" s="53"/>
-      <c r="F144" s="3"/>
-    </row>
-    <row r="145" spans="1:6">
+      <c r="F144" s="53"/>
+      <c r="G144" s="3"/>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" s="3" t="s">
         <v>58</v>
       </c>
@@ -10384,9 +10791,10 @@
         <v>955</v>
       </c>
       <c r="E145" s="62"/>
-      <c r="F145" s="3"/>
-    </row>
-    <row r="146" spans="1:6" ht="47.25">
+      <c r="F145" s="62"/>
+      <c r="G145" s="3"/>
+    </row>
+    <row r="146" spans="1:7" ht="47.6">
       <c r="A146" s="3" t="s">
         <v>58</v>
       </c>
@@ -10400,9 +10808,10 @@
         <v>76.39</v>
       </c>
       <c r="E146" s="62"/>
-      <c r="F146" s="3"/>
-    </row>
-    <row r="147" spans="1:6" ht="31.5">
+      <c r="F146" s="62"/>
+      <c r="G146" s="3"/>
+    </row>
+    <row r="147" spans="1:7" ht="31.75">
       <c r="A147" s="3" t="s">
         <v>58</v>
       </c>
@@ -10416,9 +10825,10 @@
         <v>76.400000000000006</v>
       </c>
       <c r="E147" s="62"/>
-      <c r="F147" s="3"/>
-    </row>
-    <row r="148" spans="1:6" ht="31.5">
+      <c r="F147" s="62"/>
+      <c r="G147" s="3"/>
+    </row>
+    <row r="148" spans="1:7" ht="31.75">
       <c r="A148" s="3" t="s">
         <v>58</v>
       </c>
@@ -10432,9 +10842,10 @@
         <v>76.41</v>
       </c>
       <c r="E148" s="62"/>
-      <c r="F148" s="3"/>
-    </row>
-    <row r="149" spans="1:6" ht="63">
+      <c r="F148" s="62"/>
+      <c r="G148" s="3"/>
+    </row>
+    <row r="149" spans="1:7" ht="63.45">
       <c r="A149" s="3" t="s">
         <v>58</v>
       </c>
@@ -10448,9 +10859,10 @@
         <v>76.42</v>
       </c>
       <c r="E149" s="62"/>
-      <c r="F149" s="3"/>
-    </row>
-    <row r="150" spans="1:6">
+      <c r="F149" s="62"/>
+      <c r="G149" s="3"/>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="3" t="s">
         <v>58</v>
       </c>
@@ -10464,9 +10876,10 @@
         <v>76.430000000000007</v>
       </c>
       <c r="E150" s="62"/>
-      <c r="F150" s="39"/>
-    </row>
-    <row r="151" spans="1:6" ht="78.75">
+      <c r="F150" s="62"/>
+      <c r="G150" s="39"/>
+    </row>
+    <row r="151" spans="1:7" ht="63.45">
       <c r="A151" s="3" t="s">
         <v>58</v>
       </c>
@@ -10480,9 +10893,10 @@
         <v>76.44</v>
       </c>
       <c r="E151" s="53"/>
-      <c r="F151" s="3"/>
-    </row>
-    <row r="152" spans="1:6" ht="47.25">
+      <c r="F151" s="53"/>
+      <c r="G151" s="3"/>
+    </row>
+    <row r="152" spans="1:7" ht="47.6">
       <c r="A152" s="3" t="s">
         <v>58</v>
       </c>
@@ -10496,9 +10910,10 @@
         <v>76.45</v>
       </c>
       <c r="E152" s="53"/>
-      <c r="F152" s="3"/>
-    </row>
-    <row r="153" spans="1:6" ht="31.5">
+      <c r="F152" s="53"/>
+      <c r="G152" s="3"/>
+    </row>
+    <row r="153" spans="1:7" ht="31.75">
       <c r="A153" s="3" t="s">
         <v>58</v>
       </c>
@@ -10512,9 +10927,10 @@
         <v>76.459999999999994</v>
       </c>
       <c r="E153" s="53"/>
-      <c r="F153" s="3"/>
-    </row>
-    <row r="154" spans="1:6">
+      <c r="F153" s="53"/>
+      <c r="G153" s="3"/>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="3" t="s">
         <v>58</v>
       </c>
@@ -10526,9 +10942,10 @@
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="53"/>
-      <c r="F154" s="14"/>
-    </row>
-    <row r="155" spans="1:6">
+      <c r="F154" s="53"/>
+      <c r="G154" s="14"/>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" s="3" t="s">
         <v>58</v>
       </c>
@@ -10540,9 +10957,10 @@
       </c>
       <c r="D155" s="3"/>
       <c r="E155" s="53"/>
-      <c r="F155" s="18"/>
-    </row>
-    <row r="156" spans="1:6" ht="31.5">
+      <c r="F155" s="53"/>
+      <c r="G155" s="18"/>
+    </row>
+    <row r="156" spans="1:7" ht="31.75">
       <c r="A156" s="3" t="s">
         <v>58</v>
       </c>
@@ -10556,11 +10974,12 @@
         <v>76.099999999999994</v>
       </c>
       <c r="E156" s="53"/>
-      <c r="F156" s="3" t="s">
+      <c r="F156" s="53"/>
+      <c r="G156" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:7">
       <c r="A157" s="3" t="s">
         <v>58</v>
       </c>
@@ -10574,9 +10993,10 @@
         <v>76.2</v>
       </c>
       <c r="E157" s="53"/>
-      <c r="F157" s="3"/>
-    </row>
-    <row r="158" spans="1:6">
+      <c r="F157" s="53"/>
+      <c r="G157" s="3"/>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" s="3" t="s">
         <v>58</v>
       </c>
@@ -10590,9 +11010,10 @@
         <v>76.3</v>
       </c>
       <c r="E158" s="53"/>
-      <c r="F158" s="3"/>
-    </row>
-    <row r="159" spans="1:6">
+      <c r="F158" s="53"/>
+      <c r="G158" s="3"/>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" s="3" t="s">
         <v>58</v>
       </c>
@@ -10606,9 +11027,10 @@
         <v>76.400000000000006</v>
       </c>
       <c r="E159" s="53"/>
-      <c r="F159" s="3"/>
-    </row>
-    <row r="160" spans="1:6">
+      <c r="F159" s="53"/>
+      <c r="G159" s="3"/>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" s="3" t="s">
         <v>58</v>
       </c>
@@ -10620,9 +11042,10 @@
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="53"/>
-      <c r="F160" s="18"/>
-    </row>
-    <row r="161" spans="1:6" ht="31.5">
+      <c r="F160" s="53"/>
+      <c r="G160" s="18"/>
+    </row>
+    <row r="161" spans="1:7" ht="31.75">
       <c r="A161" s="3" t="s">
         <v>58</v>
       </c>
@@ -10636,11 +11059,12 @@
         <v>76.5</v>
       </c>
       <c r="E161" s="53"/>
-      <c r="F161" s="3" t="s">
+      <c r="F161" s="53"/>
+      <c r="G161" s="3" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="31.5">
+    <row r="162" spans="1:7" ht="31.75">
       <c r="A162" s="3" t="s">
         <v>58</v>
       </c>
@@ -10654,9 +11078,10 @@
         <v>76.599999999999994</v>
       </c>
       <c r="E162" s="53"/>
-      <c r="F162" s="3"/>
-    </row>
-    <row r="163" spans="1:6" ht="47.25">
+      <c r="F162" s="53"/>
+      <c r="G162" s="3"/>
+    </row>
+    <row r="163" spans="1:7" ht="47.6">
       <c r="A163" s="3" t="s">
         <v>58</v>
       </c>
@@ -10670,9 +11095,10 @@
         <v>76.7</v>
       </c>
       <c r="E163" s="53"/>
-      <c r="F163" s="3"/>
-    </row>
-    <row r="164" spans="1:6">
+      <c r="F163" s="53"/>
+      <c r="G163" s="3"/>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" s="3" t="s">
         <v>58</v>
       </c>
@@ -10686,9 +11112,10 @@
         <v>955</v>
       </c>
       <c r="E164" s="62"/>
-      <c r="F164" s="3"/>
-    </row>
-    <row r="165" spans="1:6" ht="47.25">
+      <c r="F164" s="62"/>
+      <c r="G164" s="3"/>
+    </row>
+    <row r="165" spans="1:7" ht="47.6">
       <c r="A165" s="3" t="s">
         <v>58</v>
       </c>
@@ -10702,9 +11129,10 @@
         <v>76.39</v>
       </c>
       <c r="E165" s="62"/>
-      <c r="F165" s="3"/>
-    </row>
-    <row r="166" spans="1:6" ht="31.5">
+      <c r="F165" s="62"/>
+      <c r="G165" s="3"/>
+    </row>
+    <row r="166" spans="1:7" ht="31.75">
       <c r="A166" s="3" t="s">
         <v>58</v>
       </c>
@@ -10718,9 +11146,10 @@
         <v>76.400000000000006</v>
       </c>
       <c r="E166" s="62"/>
-      <c r="F166" s="3"/>
-    </row>
-    <row r="167" spans="1:6" ht="31.5">
+      <c r="F166" s="62"/>
+      <c r="G166" s="3"/>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" s="3" t="s">
         <v>58</v>
       </c>
@@ -10734,9 +11163,10 @@
         <v>76.41</v>
       </c>
       <c r="E167" s="62"/>
-      <c r="F167" s="3"/>
-    </row>
-    <row r="168" spans="1:6" ht="47.25">
+      <c r="F167" s="62"/>
+      <c r="G167" s="3"/>
+    </row>
+    <row r="168" spans="1:7" ht="47.6">
       <c r="A168" s="3" t="s">
         <v>58</v>
       </c>
@@ -10750,9 +11180,10 @@
         <v>76.42</v>
       </c>
       <c r="E168" s="62"/>
-      <c r="F168" s="3"/>
-    </row>
-    <row r="169" spans="1:6">
+      <c r="F168" s="62"/>
+      <c r="G168" s="3"/>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169" s="3" t="s">
         <v>58</v>
       </c>
@@ -10766,9 +11197,10 @@
         <v>76.430000000000007</v>
       </c>
       <c r="E169" s="62"/>
-      <c r="F169" s="3"/>
-    </row>
-    <row r="170" spans="1:6" ht="78.75">
+      <c r="F169" s="62"/>
+      <c r="G169" s="3"/>
+    </row>
+    <row r="170" spans="1:7" ht="63.45">
       <c r="A170" s="3" t="s">
         <v>58</v>
       </c>
@@ -10782,9 +11214,10 @@
         <v>76.44</v>
       </c>
       <c r="E170" s="53"/>
-      <c r="F170" s="3"/>
-    </row>
-    <row r="171" spans="1:6" ht="47.25">
+      <c r="F170" s="53"/>
+      <c r="G170" s="3"/>
+    </row>
+    <row r="171" spans="1:7" ht="47.6">
       <c r="A171" s="3" t="s">
         <v>58</v>
       </c>
@@ -10798,9 +11231,10 @@
         <v>76.45</v>
       </c>
       <c r="E171" s="53"/>
-      <c r="F171" s="3"/>
-    </row>
-    <row r="172" spans="1:6" ht="31.5">
+      <c r="F171" s="53"/>
+      <c r="G171" s="3"/>
+    </row>
+    <row r="172" spans="1:7" ht="31.75">
       <c r="A172" s="3" t="s">
         <v>58</v>
       </c>
@@ -10814,9 +11248,10 @@
         <v>76.459999999999994</v>
       </c>
       <c r="E172" s="53"/>
-      <c r="F172" s="3"/>
-    </row>
-    <row r="173" spans="1:6">
+      <c r="F172" s="53"/>
+      <c r="G172" s="3"/>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173" s="3" t="s">
         <v>58</v>
       </c>
@@ -10828,9 +11263,10 @@
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="53"/>
-      <c r="F173" s="19"/>
-    </row>
-    <row r="174" spans="1:6">
+      <c r="F173" s="53"/>
+      <c r="G173" s="19"/>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174" s="3" t="s">
         <v>58</v>
       </c>
@@ -10842,9 +11278,10 @@
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="53"/>
-      <c r="F174" s="18"/>
-    </row>
-    <row r="175" spans="1:6" ht="31.5">
+      <c r="F174" s="53"/>
+      <c r="G174" s="18"/>
+    </row>
+    <row r="175" spans="1:7" ht="31.75">
       <c r="A175" s="3" t="s">
         <v>58</v>
       </c>
@@ -10858,11 +11295,12 @@
         <v>76.099999999999994</v>
       </c>
       <c r="E175" s="53"/>
-      <c r="F175" s="3" t="s">
+      <c r="F175" s="53"/>
+      <c r="G175" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:7">
       <c r="A176" s="3" t="s">
         <v>58</v>
       </c>
@@ -10876,9 +11314,10 @@
         <v>76.2</v>
       </c>
       <c r="E176" s="53"/>
-      <c r="F176" s="3"/>
-    </row>
-    <row r="177" spans="1:6">
+      <c r="F176" s="53"/>
+      <c r="G176" s="3"/>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177" s="3" t="s">
         <v>58</v>
       </c>
@@ -10892,9 +11331,10 @@
         <v>76.3</v>
       </c>
       <c r="E177" s="53"/>
-      <c r="F177" s="3"/>
-    </row>
-    <row r="178" spans="1:6">
+      <c r="F177" s="53"/>
+      <c r="G177" s="3"/>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178" s="3" t="s">
         <v>58</v>
       </c>
@@ -10908,9 +11348,10 @@
         <v>76.400000000000006</v>
       </c>
       <c r="E178" s="53"/>
-      <c r="F178" s="3"/>
-    </row>
-    <row r="179" spans="1:6">
+      <c r="F178" s="53"/>
+      <c r="G178" s="3"/>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179" s="3" t="s">
         <v>58</v>
       </c>
@@ -10922,9 +11363,10 @@
       </c>
       <c r="D179" s="3"/>
       <c r="E179" s="53"/>
-      <c r="F179" s="18"/>
-    </row>
-    <row r="180" spans="1:6">
+      <c r="F179" s="53"/>
+      <c r="G179" s="18"/>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180" s="3" t="s">
         <v>58</v>
       </c>
@@ -10936,11 +11378,12 @@
       </c>
       <c r="D180" s="3"/>
       <c r="E180" s="53"/>
-      <c r="F180" s="3" t="s">
+      <c r="F180" s="53"/>
+      <c r="G180" s="3" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="31.5">
+    <row r="181" spans="1:7" ht="31.75">
       <c r="A181" s="3" t="s">
         <v>58</v>
       </c>
@@ -10954,9 +11397,10 @@
         <v>76.599999999999994</v>
       </c>
       <c r="E181" s="53"/>
-      <c r="F181" s="3"/>
-    </row>
-    <row r="182" spans="1:6">
+      <c r="F181" s="53"/>
+      <c r="G181" s="3"/>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182" s="3" t="s">
         <v>58</v>
       </c>
@@ -10970,9 +11414,10 @@
         <v>76.7</v>
       </c>
       <c r="E182" s="53"/>
-      <c r="F182" s="3"/>
-    </row>
-    <row r="183" spans="1:6">
+      <c r="F182" s="53"/>
+      <c r="G182" s="3"/>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183" s="3" t="s">
         <v>58</v>
       </c>
@@ -10986,9 +11431,10 @@
         <v>955</v>
       </c>
       <c r="E183" s="62"/>
-      <c r="F183" s="3"/>
-    </row>
-    <row r="184" spans="1:6" ht="47.25">
+      <c r="F183" s="62"/>
+      <c r="G183" s="3"/>
+    </row>
+    <row r="184" spans="1:7" ht="47.6">
       <c r="A184" s="3" t="s">
         <v>58</v>
       </c>
@@ -11002,9 +11448,10 @@
         <v>76.39</v>
       </c>
       <c r="E184" s="62"/>
-      <c r="F184" s="3"/>
-    </row>
-    <row r="185" spans="1:6" ht="31.5">
+      <c r="F184" s="62"/>
+      <c r="G184" s="3"/>
+    </row>
+    <row r="185" spans="1:7" ht="31.75">
       <c r="A185" s="3" t="s">
         <v>58</v>
       </c>
@@ -11018,9 +11465,10 @@
         <v>76.400000000000006</v>
       </c>
       <c r="E185" s="62"/>
-      <c r="F185" s="3"/>
-    </row>
-    <row r="186" spans="1:6" ht="31.5">
+      <c r="F185" s="62"/>
+      <c r="G185" s="3"/>
+    </row>
+    <row r="186" spans="1:7" ht="31.75">
       <c r="A186" s="3" t="s">
         <v>58</v>
       </c>
@@ -11034,9 +11482,10 @@
         <v>76.41</v>
       </c>
       <c r="E186" s="62"/>
-      <c r="F186" s="3"/>
-    </row>
-    <row r="187" spans="1:6" ht="47.25">
+      <c r="F186" s="62"/>
+      <c r="G186" s="3"/>
+    </row>
+    <row r="187" spans="1:7" ht="47.6">
       <c r="A187" s="3" t="s">
         <v>58</v>
       </c>
@@ -11050,9 +11499,10 @@
         <v>76.42</v>
       </c>
       <c r="E187" s="62"/>
-      <c r="F187" s="3"/>
-    </row>
-    <row r="188" spans="1:6">
+      <c r="F187" s="62"/>
+      <c r="G187" s="3"/>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188" s="3" t="s">
         <v>58</v>
       </c>
@@ -11066,9 +11516,10 @@
         <v>76.430000000000007</v>
       </c>
       <c r="E188" s="62"/>
-      <c r="F188" s="3"/>
-    </row>
-    <row r="189" spans="1:6" ht="78.75">
+      <c r="F188" s="62"/>
+      <c r="G188" s="3"/>
+    </row>
+    <row r="189" spans="1:7" ht="63.45">
       <c r="A189" s="3" t="s">
         <v>58</v>
       </c>
@@ -11082,9 +11533,10 @@
         <v>76.44</v>
       </c>
       <c r="E189" s="53"/>
-      <c r="F189" s="3"/>
-    </row>
-    <row r="190" spans="1:6" ht="47.25">
+      <c r="F189" s="53"/>
+      <c r="G189" s="3"/>
+    </row>
+    <row r="190" spans="1:7" ht="47.6">
       <c r="A190" s="3" t="s">
         <v>58</v>
       </c>
@@ -11098,9 +11550,10 @@
         <v>76.45</v>
       </c>
       <c r="E190" s="53"/>
-      <c r="F190" s="3"/>
-    </row>
-    <row r="191" spans="1:6" ht="31.5">
+      <c r="F190" s="53"/>
+      <c r="G190" s="3"/>
+    </row>
+    <row r="191" spans="1:7" ht="31.75">
       <c r="A191" s="3" t="s">
         <v>58</v>
       </c>
@@ -11114,9 +11567,10 @@
         <v>76.459999999999994</v>
       </c>
       <c r="E191" s="53"/>
-      <c r="F191" s="3"/>
-    </row>
-    <row r="192" spans="1:6">
+      <c r="F191" s="53"/>
+      <c r="G191" s="3"/>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192" s="3" t="s">
         <v>58</v>
       </c>
@@ -11128,9 +11582,10 @@
       </c>
       <c r="D192" s="3"/>
       <c r="E192" s="53"/>
-      <c r="F192" s="20"/>
-    </row>
-    <row r="193" spans="1:6">
+      <c r="F192" s="53"/>
+      <c r="G192" s="20"/>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193" s="3" t="s">
         <v>58</v>
       </c>
@@ -11142,9 +11597,10 @@
       </c>
       <c r="D193" s="3"/>
       <c r="E193" s="53"/>
-      <c r="F193" s="18"/>
-    </row>
-    <row r="194" spans="1:6" ht="31.5">
+      <c r="F193" s="53"/>
+      <c r="G193" s="18"/>
+    </row>
+    <row r="194" spans="1:7" ht="31.75">
       <c r="A194" s="3" t="s">
         <v>58</v>
       </c>
@@ -11158,11 +11614,12 @@
         <v>76.900000000000006</v>
       </c>
       <c r="E194" s="53"/>
-      <c r="F194" s="39" t="s">
+      <c r="F194" s="53"/>
+      <c r="G194" s="39" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="31.5">
+    <row r="195" spans="1:7" ht="31.75">
       <c r="A195" s="3" t="s">
         <v>58</v>
       </c>
@@ -11176,9 +11633,10 @@
         <v>76.099999999999994</v>
       </c>
       <c r="E195" s="53"/>
-      <c r="F195" s="3"/>
-    </row>
-    <row r="196" spans="1:6" ht="31.5">
+      <c r="F195" s="53"/>
+      <c r="G195" s="3"/>
+    </row>
+    <row r="196" spans="1:7" ht="31.75">
       <c r="A196" s="3" t="s">
         <v>58</v>
       </c>
@@ -11192,9 +11650,10 @@
         <v>76.11</v>
       </c>
       <c r="E196" s="53"/>
-      <c r="F196" s="3"/>
-    </row>
-    <row r="197" spans="1:6" ht="63">
+      <c r="F196" s="53"/>
+      <c r="G196" s="3"/>
+    </row>
+    <row r="197" spans="1:7" ht="63.45">
       <c r="A197" s="3" t="s">
         <v>58</v>
       </c>
@@ -11208,9 +11667,10 @@
         <v>76.12</v>
       </c>
       <c r="E197" s="53"/>
-      <c r="F197" s="3"/>
-    </row>
-    <row r="198" spans="1:6" ht="63">
+      <c r="F197" s="53"/>
+      <c r="G197" s="3"/>
+    </row>
+    <row r="198" spans="1:7" ht="63.45">
       <c r="A198" s="3" t="s">
         <v>58</v>
       </c>
@@ -11224,9 +11684,10 @@
         <v>76.12</v>
       </c>
       <c r="E198" s="53"/>
-      <c r="F198" s="3"/>
-    </row>
-    <row r="199" spans="1:6" ht="31.5">
+      <c r="F198" s="53"/>
+      <c r="G198" s="3"/>
+    </row>
+    <row r="199" spans="1:7" ht="31.75">
       <c r="A199" s="3" t="s">
         <v>58</v>
       </c>
@@ -11240,9 +11701,10 @@
         <v>895</v>
       </c>
       <c r="E199" s="62"/>
-      <c r="F199" s="3"/>
-    </row>
-    <row r="200" spans="1:6">
+      <c r="F199" s="62"/>
+      <c r="G199" s="3"/>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200" s="3" t="s">
         <v>58</v>
       </c>
@@ -11256,9 +11718,10 @@
         <v>76.14</v>
       </c>
       <c r="E200" s="53"/>
-      <c r="F200" s="3"/>
-    </row>
-    <row r="201" spans="1:6" ht="31.5">
+      <c r="F200" s="53"/>
+      <c r="G200" s="3"/>
+    </row>
+    <row r="201" spans="1:7" ht="31.75">
       <c r="A201" s="3" t="s">
         <v>58</v>
       </c>
@@ -11274,9 +11737,10 @@
       <c r="E201" s="53" t="s">
         <v>1113</v>
       </c>
-      <c r="F201" s="39"/>
-    </row>
-    <row r="202" spans="1:6" ht="31.5">
+      <c r="F201" s="53"/>
+      <c r="G201" s="39"/>
+    </row>
+    <row r="202" spans="1:7" ht="31.75">
       <c r="A202" s="3" t="s">
         <v>58</v>
       </c>
@@ -11292,9 +11756,10 @@
       <c r="E202" s="53" t="s">
         <v>1113</v>
       </c>
-      <c r="F202" s="3"/>
-    </row>
-    <row r="203" spans="1:6">
+      <c r="F202" s="53"/>
+      <c r="G202" s="3"/>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203" s="3" t="s">
         <v>58</v>
       </c>
@@ -11308,9 +11773,10 @@
         <v>76.16</v>
       </c>
       <c r="E203" s="53"/>
-      <c r="F203" s="3"/>
-    </row>
-    <row r="204" spans="1:6">
+      <c r="F203" s="53"/>
+      <c r="G203" s="3"/>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204" s="3" t="s">
         <v>58</v>
       </c>
@@ -11324,9 +11790,10 @@
         <v>76.17</v>
       </c>
       <c r="E204" s="53"/>
-      <c r="F204" s="3"/>
-    </row>
-    <row r="205" spans="1:6">
+      <c r="F204" s="53"/>
+      <c r="G204" s="3"/>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205" s="3" t="s">
         <v>58</v>
       </c>
@@ -11340,9 +11807,10 @@
         <v>76.180000000000007</v>
       </c>
       <c r="E205" s="53"/>
-      <c r="F205" s="3"/>
-    </row>
-    <row r="206" spans="1:6">
+      <c r="F205" s="53"/>
+      <c r="G205" s="3"/>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206" s="3" t="s">
         <v>58</v>
       </c>
@@ -11354,9 +11822,10 @@
       </c>
       <c r="D206" s="3"/>
       <c r="E206" s="53"/>
-      <c r="F206" s="21"/>
-    </row>
-    <row r="207" spans="1:6">
+      <c r="F206" s="53"/>
+      <c r="G206" s="21"/>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207" s="3" t="s">
         <v>58</v>
       </c>
@@ -11370,11 +11839,12 @@
         <v>76.19</v>
       </c>
       <c r="E207" s="53"/>
-      <c r="F207" s="39" t="s">
+      <c r="F207" s="53"/>
+      <c r="G207" s="39" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:7">
       <c r="A208" s="3" t="s">
         <v>58</v>
       </c>
@@ -11388,9 +11858,10 @@
         <v>908</v>
       </c>
       <c r="E208" s="53"/>
-      <c r="F208" s="3"/>
-    </row>
-    <row r="209" spans="1:6" ht="31.5">
+      <c r="F208" s="53"/>
+      <c r="G208" s="3"/>
+    </row>
+    <row r="209" spans="1:7" ht="31.75">
       <c r="A209" s="3" t="s">
         <v>58</v>
       </c>
@@ -11404,9 +11875,10 @@
         <v>76.209999999999994</v>
       </c>
       <c r="E209" s="53"/>
-      <c r="F209" s="3"/>
-    </row>
-    <row r="210" spans="1:6">
+      <c r="F209" s="53"/>
+      <c r="G209" s="3"/>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210" s="3" t="s">
         <v>58</v>
       </c>
@@ -11420,9 +11892,10 @@
         <v>76.22</v>
       </c>
       <c r="E210" s="53"/>
-      <c r="F210" s="3"/>
-    </row>
-    <row r="211" spans="1:6" ht="31.5">
+      <c r="F210" s="53"/>
+      <c r="G210" s="3"/>
+    </row>
+    <row r="211" spans="1:7" ht="31.75">
       <c r="A211" s="3" t="s">
         <v>58</v>
       </c>
@@ -11438,9 +11911,10 @@
       <c r="E211" s="62" t="s">
         <v>1144</v>
       </c>
-      <c r="F211" s="3"/>
-    </row>
-    <row r="212" spans="1:6">
+      <c r="F211" s="62"/>
+      <c r="G211" s="3"/>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212" s="3" t="s">
         <v>58</v>
       </c>
@@ -11454,9 +11928,10 @@
         <v>76.23</v>
       </c>
       <c r="E212" s="53"/>
-      <c r="F212" s="3"/>
-    </row>
-    <row r="213" spans="1:6">
+      <c r="F212" s="53"/>
+      <c r="G212" s="3"/>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213" s="3" t="s">
         <v>58</v>
       </c>
@@ -11470,9 +11945,10 @@
         <v>76.239999999999995</v>
       </c>
       <c r="E213" s="53"/>
-      <c r="F213" s="3"/>
-    </row>
-    <row r="214" spans="1:6" ht="31.5">
+      <c r="F213" s="53"/>
+      <c r="G213" s="3"/>
+    </row>
+    <row r="214" spans="1:7" ht="31.75">
       <c r="A214" s="3" t="s">
         <v>58</v>
       </c>
@@ -11486,9 +11962,10 @@
         <v>76.25</v>
       </c>
       <c r="E214" s="53"/>
-      <c r="F214" s="3"/>
-    </row>
-    <row r="215" spans="1:6">
+      <c r="F214" s="53"/>
+      <c r="G214" s="3"/>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215" s="3" t="s">
         <v>58</v>
       </c>
@@ -11502,9 +11979,10 @@
         <v>76.260000000000005</v>
       </c>
       <c r="E215" s="53"/>
-      <c r="F215" s="3"/>
-    </row>
-    <row r="216" spans="1:6">
+      <c r="F215" s="53"/>
+      <c r="G215" s="3"/>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216" s="3" t="s">
         <v>58</v>
       </c>
@@ -11518,9 +11996,10 @@
         <v>76.27</v>
       </c>
       <c r="E216" s="53"/>
-      <c r="F216" s="3"/>
-    </row>
-    <row r="217" spans="1:6">
+      <c r="F216" s="53"/>
+      <c r="G216" s="3"/>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217" s="3" t="s">
         <v>58</v>
       </c>
@@ -11534,9 +12013,10 @@
         <v>76.28</v>
       </c>
       <c r="E217" s="53"/>
-      <c r="F217" s="3"/>
-    </row>
-    <row r="218" spans="1:6">
+      <c r="F217" s="53"/>
+      <c r="G217" s="3"/>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218" s="3" t="s">
         <v>58</v>
       </c>
@@ -11548,9 +12028,10 @@
       </c>
       <c r="D218" s="3"/>
       <c r="E218" s="53"/>
-      <c r="F218" s="21"/>
-    </row>
-    <row r="219" spans="1:6">
+      <c r="F218" s="53"/>
+      <c r="G218" s="21"/>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219" s="3" t="s">
         <v>58</v>
       </c>
@@ -11564,11 +12045,12 @@
         <v>76.239999999999995</v>
       </c>
       <c r="E219" s="53"/>
-      <c r="F219" s="3" t="s">
+      <c r="F219" s="53"/>
+      <c r="G219" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:7">
       <c r="A220" s="3" t="s">
         <v>58</v>
       </c>
@@ -11582,9 +12064,10 @@
         <v>76.28</v>
       </c>
       <c r="E220" s="53"/>
-      <c r="F220" s="3"/>
-    </row>
-    <row r="221" spans="1:6">
+      <c r="F220" s="53"/>
+      <c r="G220" s="3"/>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221" s="3" t="s">
         <v>58</v>
       </c>
@@ -11596,9 +12079,10 @@
       </c>
       <c r="D221" s="3"/>
       <c r="E221" s="53"/>
-      <c r="F221" s="19"/>
-    </row>
-    <row r="222" spans="1:6" ht="31.5">
+      <c r="F221" s="53"/>
+      <c r="G221" s="19"/>
+    </row>
+    <row r="222" spans="1:7" ht="31.75">
       <c r="A222" s="3" t="s">
         <v>58</v>
       </c>
@@ -11612,9 +12096,10 @@
       <c r="E222" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="F222" s="7"/>
-    </row>
-    <row r="223" spans="1:6">
+      <c r="F222" s="53"/>
+      <c r="G222" s="7"/>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223" s="3" t="s">
         <v>58</v>
       </c>
@@ -11626,9 +12111,10 @@
       </c>
       <c r="D223" s="11"/>
       <c r="E223" s="53"/>
-      <c r="F223" s="20"/>
-    </row>
-    <row r="224" spans="1:6">
+      <c r="F223" s="53"/>
+      <c r="G223" s="20"/>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224" s="3" t="s">
         <v>58</v>
       </c>
@@ -11642,9 +12128,10 @@
       <c r="E224" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="F224" s="7"/>
-    </row>
-    <row r="225" spans="1:6">
+      <c r="F224" s="53"/>
+      <c r="G224" s="7"/>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225" s="3" t="s">
         <v>58</v>
       </c>
@@ -11658,9 +12145,10 @@
       <c r="E225" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="F225" s="7"/>
-    </row>
-    <row r="226" spans="1:6">
+      <c r="F225" s="53"/>
+      <c r="G225" s="7"/>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226" s="3" t="s">
         <v>58</v>
       </c>
@@ -11672,9 +12160,10 @@
       </c>
       <c r="D226" s="11"/>
       <c r="E226" s="53"/>
-      <c r="F226" s="19"/>
-    </row>
-    <row r="227" spans="1:6">
+      <c r="F226" s="53"/>
+      <c r="G226" s="19"/>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227" s="3" t="s">
         <v>58</v>
       </c>
@@ -11688,9 +12177,10 @@
       <c r="E227" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="F227" s="7"/>
-    </row>
-    <row r="228" spans="1:6">
+      <c r="F227" s="53"/>
+      <c r="G227" s="7"/>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228" s="3" t="s">
         <v>58</v>
       </c>
@@ -11704,9 +12194,10 @@
       <c r="E228" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="F228" s="7"/>
-    </row>
-    <row r="229" spans="1:6">
+      <c r="F228" s="53"/>
+      <c r="G228" s="7"/>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229" s="3" t="s">
         <v>58</v>
       </c>
@@ -11718,9 +12209,10 @@
       </c>
       <c r="D229" s="3"/>
       <c r="E229" s="57"/>
-      <c r="F229" s="22"/>
-    </row>
-    <row r="230" spans="1:6">
+      <c r="F229" s="57"/>
+      <c r="G229" s="22"/>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230" s="3" t="s">
         <v>58</v>
       </c>
@@ -11732,9 +12224,10 @@
       </c>
       <c r="D230" s="3"/>
       <c r="E230" s="53"/>
-      <c r="F230" s="19"/>
-    </row>
-    <row r="231" spans="1:6">
+      <c r="F230" s="53"/>
+      <c r="G230" s="19"/>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231" s="3" t="s">
         <v>58</v>
       </c>
@@ -11746,9 +12239,10 @@
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="53"/>
-      <c r="F231" s="21"/>
-    </row>
-    <row r="232" spans="1:6" ht="63">
+      <c r="F231" s="53"/>
+      <c r="G231" s="21"/>
+    </row>
+    <row r="232" spans="1:7" ht="63.45">
       <c r="A232" s="3" t="s">
         <v>58</v>
       </c>
@@ -11762,11 +12256,12 @@
         <v>436</v>
       </c>
       <c r="E232" s="53"/>
-      <c r="F232" s="5" t="s">
+      <c r="F232" s="53"/>
+      <c r="G232" s="5" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="31.5">
+    <row r="233" spans="1:7">
       <c r="A233" s="3" t="s">
         <v>58</v>
       </c>
@@ -11780,9 +12275,10 @@
         <v>439</v>
       </c>
       <c r="E233" s="53"/>
-      <c r="F233" s="5"/>
-    </row>
-    <row r="234" spans="1:6" ht="31.5">
+      <c r="F233" s="53"/>
+      <c r="G233" s="5"/>
+    </row>
+    <row r="234" spans="1:7" ht="31.75">
       <c r="A234" s="3" t="s">
         <v>58</v>
       </c>
@@ -11796,9 +12292,10 @@
         <v>442</v>
       </c>
       <c r="E234" s="53"/>
-      <c r="F234" s="5"/>
-    </row>
-    <row r="235" spans="1:6" ht="47.25">
+      <c r="F234" s="53"/>
+      <c r="G234" s="5"/>
+    </row>
+    <row r="235" spans="1:7" ht="47.6">
       <c r="A235" s="3" t="s">
         <v>58</v>
       </c>
@@ -11812,9 +12309,10 @@
         <v>445</v>
       </c>
       <c r="E235" s="53"/>
-      <c r="F235" s="5"/>
-    </row>
-    <row r="236" spans="1:6">
+      <c r="F235" s="53"/>
+      <c r="G235" s="5"/>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236" s="3" t="s">
         <v>58</v>
       </c>
@@ -11828,9 +12326,10 @@
         <v>448</v>
       </c>
       <c r="E236" s="53"/>
-      <c r="F236" s="5"/>
-    </row>
-    <row r="237" spans="1:6" ht="31.5">
+      <c r="F236" s="53"/>
+      <c r="G236" s="5"/>
+    </row>
+    <row r="237" spans="1:7" ht="31.75">
       <c r="A237" s="3" t="s">
         <v>58</v>
       </c>
@@ -11844,9 +12343,10 @@
         <v>451</v>
       </c>
       <c r="E237" s="53"/>
-      <c r="F237" s="5"/>
-    </row>
-    <row r="238" spans="1:6" ht="63">
+      <c r="F237" s="53"/>
+      <c r="G237" s="5"/>
+    </row>
+    <row r="238" spans="1:7" ht="63.45">
       <c r="A238" s="3" t="s">
         <v>58</v>
       </c>
@@ -11860,9 +12360,10 @@
         <v>454</v>
       </c>
       <c r="E238" s="53"/>
-      <c r="F238" s="5"/>
-    </row>
-    <row r="239" spans="1:6" ht="63">
+      <c r="F238" s="53"/>
+      <c r="G238" s="5"/>
+    </row>
+    <row r="239" spans="1:7" ht="63.45">
       <c r="A239" s="3" t="s">
         <v>58</v>
       </c>
@@ -11876,9 +12377,10 @@
         <v>457</v>
       </c>
       <c r="E239" s="53"/>
-      <c r="F239" s="5"/>
-    </row>
-    <row r="240" spans="1:6" ht="94.5">
+      <c r="F239" s="53"/>
+      <c r="G239" s="5"/>
+    </row>
+    <row r="240" spans="1:7" ht="95.15">
       <c r="A240" s="3" t="s">
         <v>58</v>
       </c>
@@ -11892,9 +12394,10 @@
         <v>460</v>
       </c>
       <c r="E240" s="53"/>
-      <c r="F240" s="5"/>
-    </row>
-    <row r="241" spans="1:6" ht="78.75">
+      <c r="F240" s="53"/>
+      <c r="G240" s="5"/>
+    </row>
+    <row r="241" spans="1:7" ht="63.45">
       <c r="A241" s="3" t="s">
         <v>58</v>
       </c>
@@ -11908,9 +12411,10 @@
         <v>463</v>
       </c>
       <c r="E241" s="53"/>
-      <c r="F241" s="5"/>
-    </row>
-    <row r="242" spans="1:6" ht="94.5">
+      <c r="F241" s="53"/>
+      <c r="G241" s="5"/>
+    </row>
+    <row r="242" spans="1:7" ht="95.15">
       <c r="A242" s="3" t="s">
         <v>58</v>
       </c>
@@ -11924,9 +12428,10 @@
         <v>466</v>
       </c>
       <c r="E242" s="53"/>
-      <c r="F242" s="5"/>
-    </row>
-    <row r="243" spans="1:6" ht="31.5">
+      <c r="F242" s="53"/>
+      <c r="G242" s="5"/>
+    </row>
+    <row r="243" spans="1:7" ht="31.75">
       <c r="A243" s="3" t="s">
         <v>58</v>
       </c>
@@ -11940,9 +12445,10 @@
         <v>469</v>
       </c>
       <c r="E243" s="53"/>
-      <c r="F243" s="5"/>
-    </row>
-    <row r="244" spans="1:6">
+      <c r="F243" s="53"/>
+      <c r="G243" s="5"/>
+    </row>
+    <row r="244" spans="1:7">
       <c r="A244" s="3" t="s">
         <v>58</v>
       </c>
@@ -11954,9 +12460,10 @@
       </c>
       <c r="D244" s="3"/>
       <c r="E244" s="53"/>
-      <c r="F244" s="19"/>
-    </row>
-    <row r="245" spans="1:6">
+      <c r="F244" s="53"/>
+      <c r="G244" s="19"/>
+    </row>
+    <row r="245" spans="1:7">
       <c r="A245" s="3" t="s">
         <v>58</v>
       </c>
@@ -11968,9 +12475,10 @@
       </c>
       <c r="D245" s="3"/>
       <c r="E245" s="53"/>
-      <c r="F245" s="21"/>
-    </row>
-    <row r="246" spans="1:6" ht="63">
+      <c r="F245" s="53"/>
+      <c r="G245" s="21"/>
+    </row>
+    <row r="246" spans="1:7" ht="63.45">
       <c r="A246" s="3" t="s">
         <v>58</v>
       </c>
@@ -11984,11 +12492,12 @@
         <v>436</v>
       </c>
       <c r="E246" s="53"/>
-      <c r="F246" s="5" t="s">
+      <c r="F246" s="53"/>
+      <c r="G246" s="5" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:7">
       <c r="A247" s="3" t="s">
         <v>58</v>
       </c>
@@ -12002,9 +12511,10 @@
         <v>439</v>
       </c>
       <c r="E247" s="53"/>
-      <c r="F247" s="5"/>
-    </row>
-    <row r="248" spans="1:6" ht="31.5">
+      <c r="F247" s="53"/>
+      <c r="G247" s="5"/>
+    </row>
+    <row r="248" spans="1:7" ht="31.75">
       <c r="A248" s="3" t="s">
         <v>58</v>
       </c>
@@ -12018,9 +12528,10 @@
         <v>457</v>
       </c>
       <c r="E248" s="53"/>
-      <c r="F248" s="5"/>
-    </row>
-    <row r="249" spans="1:6" ht="47.25">
+      <c r="F248" s="53"/>
+      <c r="G248" s="5"/>
+    </row>
+    <row r="249" spans="1:7" ht="47.6">
       <c r="A249" s="3" t="s">
         <v>58</v>
       </c>
@@ -12034,9 +12545,10 @@
         <v>445</v>
       </c>
       <c r="E249" s="53"/>
-      <c r="F249" s="5"/>
-    </row>
-    <row r="250" spans="1:6">
+      <c r="F249" s="53"/>
+      <c r="G249" s="5"/>
+    </row>
+    <row r="250" spans="1:7">
       <c r="A250" s="3" t="s">
         <v>58</v>
       </c>
@@ -12050,9 +12562,10 @@
         <v>448</v>
       </c>
       <c r="E250" s="53"/>
-      <c r="F250" s="5"/>
-    </row>
-    <row r="251" spans="1:6" ht="31.5">
+      <c r="F250" s="53"/>
+      <c r="G250" s="5"/>
+    </row>
+    <row r="251" spans="1:7" ht="31.75">
       <c r="A251" s="3" t="s">
         <v>58</v>
       </c>
@@ -12066,9 +12579,10 @@
         <v>451</v>
       </c>
       <c r="E251" s="53"/>
-      <c r="F251" s="5"/>
-    </row>
-    <row r="252" spans="1:6">
+      <c r="F251" s="53"/>
+      <c r="G251" s="5"/>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252" s="3" t="s">
         <v>58</v>
       </c>
@@ -12082,9 +12596,10 @@
         <v>454</v>
       </c>
       <c r="E252" s="53"/>
-      <c r="F252" s="5"/>
-    </row>
-    <row r="253" spans="1:6" ht="31.5">
+      <c r="F252" s="53"/>
+      <c r="G252" s="5"/>
+    </row>
+    <row r="253" spans="1:7" ht="31.75">
       <c r="A253" s="3" t="s">
         <v>58</v>
       </c>
@@ -12098,9 +12613,10 @@
         <v>460</v>
       </c>
       <c r="E253" s="53"/>
-      <c r="F253" s="5"/>
-    </row>
-    <row r="254" spans="1:6" ht="31.5">
+      <c r="F253" s="53"/>
+      <c r="G253" s="5"/>
+    </row>
+    <row r="254" spans="1:7" ht="31.75">
       <c r="A254" s="3" t="s">
         <v>58</v>
       </c>
@@ -12114,9 +12630,10 @@
         <v>489</v>
       </c>
       <c r="E254" s="53"/>
-      <c r="F254" s="5"/>
-    </row>
-    <row r="255" spans="1:6" ht="47.25">
+      <c r="F254" s="53"/>
+      <c r="G254" s="5"/>
+    </row>
+    <row r="255" spans="1:7" ht="47.6">
       <c r="A255" s="3" t="s">
         <v>58</v>
       </c>
@@ -12130,9 +12647,10 @@
         <v>78.3</v>
       </c>
       <c r="E255" s="53"/>
-      <c r="F255" s="5"/>
-    </row>
-    <row r="256" spans="1:6" ht="47.25">
+      <c r="F255" s="53"/>
+      <c r="G255" s="5"/>
+    </row>
+    <row r="256" spans="1:7" ht="47.6">
       <c r="A256" s="3" t="s">
         <v>58</v>
       </c>
@@ -12146,9 +12664,10 @@
         <v>494</v>
       </c>
       <c r="E256" s="53"/>
-      <c r="F256" s="5"/>
-    </row>
-    <row r="257" spans="1:6" ht="78.75">
+      <c r="F256" s="53"/>
+      <c r="G256" s="5"/>
+    </row>
+    <row r="257" spans="1:7" ht="63.45">
       <c r="A257" s="3" t="s">
         <v>58</v>
       </c>
@@ -12162,9 +12681,10 @@
         <v>463</v>
       </c>
       <c r="E257" s="53"/>
-      <c r="F257" s="3"/>
-    </row>
-    <row r="258" spans="1:6" ht="78.75">
+      <c r="F257" s="53"/>
+      <c r="G257" s="3"/>
+    </row>
+    <row r="258" spans="1:7" ht="79.3">
       <c r="A258" s="3" t="s">
         <v>58</v>
       </c>
@@ -12178,9 +12698,10 @@
         <v>466</v>
       </c>
       <c r="E258" s="53"/>
-      <c r="F258" s="5"/>
-    </row>
-    <row r="259" spans="1:6" ht="94.5">
+      <c r="F258" s="53"/>
+      <c r="G258" s="5"/>
+    </row>
+    <row r="259" spans="1:7" ht="95.15">
       <c r="A259" s="3" t="s">
         <v>58</v>
       </c>
@@ -12194,9 +12715,10 @@
         <v>469</v>
       </c>
       <c r="E259" s="53"/>
-      <c r="F259" s="3"/>
-    </row>
-    <row r="260" spans="1:6" ht="94.5">
+      <c r="F259" s="53"/>
+      <c r="G259" s="3"/>
+    </row>
+    <row r="260" spans="1:7" ht="95.15">
       <c r="A260" s="3" t="s">
         <v>58</v>
       </c>
@@ -12210,9 +12732,10 @@
         <v>503</v>
       </c>
       <c r="E260" s="53"/>
-      <c r="F260" s="5"/>
-    </row>
-    <row r="261" spans="1:6" ht="63">
+      <c r="F260" s="53"/>
+      <c r="G260" s="5"/>
+    </row>
+    <row r="261" spans="1:7" ht="63.45">
       <c r="A261" s="3" t="s">
         <v>58</v>
       </c>
@@ -12226,9 +12749,10 @@
         <v>506</v>
       </c>
       <c r="E261" s="53"/>
-      <c r="F261" s="5"/>
-    </row>
-    <row r="262" spans="1:6">
+      <c r="F261" s="53"/>
+      <c r="G261" s="5"/>
+    </row>
+    <row r="262" spans="1:7">
       <c r="A262" s="3" t="s">
         <v>58</v>
       </c>
@@ -12240,9 +12764,10 @@
       </c>
       <c r="D262" s="3"/>
       <c r="E262" s="53"/>
-      <c r="F262" s="19"/>
-    </row>
-    <row r="263" spans="1:6">
+      <c r="F262" s="53"/>
+      <c r="G262" s="19"/>
+    </row>
+    <row r="263" spans="1:7">
       <c r="A263" s="3" t="s">
         <v>58</v>
       </c>
@@ -12254,9 +12779,10 @@
       </c>
       <c r="D263" s="3"/>
       <c r="E263" s="53"/>
-      <c r="F263" s="13"/>
-    </row>
-    <row r="264" spans="1:6" ht="63">
+      <c r="F263" s="53"/>
+      <c r="G263" s="13"/>
+    </row>
+    <row r="264" spans="1:7" ht="63.45">
       <c r="A264" s="3" t="s">
         <v>58</v>
       </c>
@@ -12270,11 +12796,12 @@
         <v>436</v>
       </c>
       <c r="E264" s="53"/>
-      <c r="F264" s="5" t="s">
+      <c r="F264" s="53"/>
+      <c r="G264" s="5" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:7">
       <c r="A265" s="3" t="s">
         <v>58</v>
       </c>
@@ -12288,9 +12815,10 @@
         <v>439</v>
       </c>
       <c r="E265" s="53"/>
-      <c r="F265" s="5"/>
-    </row>
-    <row r="266" spans="1:6" ht="31.5">
+      <c r="F265" s="53"/>
+      <c r="G265" s="5"/>
+    </row>
+    <row r="266" spans="1:7" ht="31.75">
       <c r="A266" s="3" t="s">
         <v>58</v>
       </c>
@@ -12304,9 +12832,10 @@
         <v>457</v>
       </c>
       <c r="E266" s="53"/>
-      <c r="F266" s="5"/>
-    </row>
-    <row r="267" spans="1:6" ht="47.25">
+      <c r="F266" s="53"/>
+      <c r="G266" s="5"/>
+    </row>
+    <row r="267" spans="1:7" ht="47.6">
       <c r="A267" s="3" t="s">
         <v>58</v>
       </c>
@@ -12320,9 +12849,10 @@
         <v>445</v>
       </c>
       <c r="E267" s="53"/>
-      <c r="F267" s="5"/>
-    </row>
-    <row r="268" spans="1:6">
+      <c r="F267" s="53"/>
+      <c r="G267" s="5"/>
+    </row>
+    <row r="268" spans="1:7">
       <c r="A268" s="3" t="s">
         <v>58</v>
       </c>
@@ -12336,9 +12866,10 @@
         <v>448</v>
       </c>
       <c r="E268" s="53"/>
-      <c r="F268" s="5"/>
-    </row>
-    <row r="269" spans="1:6" ht="31.5">
+      <c r="F268" s="53"/>
+      <c r="G268" s="5"/>
+    </row>
+    <row r="269" spans="1:7" ht="31.75">
       <c r="A269" s="3" t="s">
         <v>58</v>
       </c>
@@ -12352,9 +12883,10 @@
         <v>451</v>
       </c>
       <c r="E269" s="53"/>
-      <c r="F269" s="5"/>
-    </row>
-    <row r="270" spans="1:6">
+      <c r="F269" s="53"/>
+      <c r="G269" s="5"/>
+    </row>
+    <row r="270" spans="1:7">
       <c r="A270" s="3" t="s">
         <v>58</v>
       </c>
@@ -12368,9 +12900,10 @@
         <v>454</v>
       </c>
       <c r="E270" s="53"/>
-      <c r="F270" s="5"/>
-    </row>
-    <row r="271" spans="1:6" ht="31.5">
+      <c r="F270" s="53"/>
+      <c r="G270" s="5"/>
+    </row>
+    <row r="271" spans="1:7" ht="31.75">
       <c r="A271" s="3" t="s">
         <v>58</v>
       </c>
@@ -12384,9 +12917,10 @@
         <v>460</v>
       </c>
       <c r="E271" s="53"/>
-      <c r="F271" s="5"/>
-    </row>
-    <row r="272" spans="1:6" ht="31.5">
+      <c r="F271" s="53"/>
+      <c r="G271" s="5"/>
+    </row>
+    <row r="272" spans="1:7" ht="31.75">
       <c r="A272" s="3" t="s">
         <v>58</v>
       </c>
@@ -12400,9 +12934,10 @@
         <v>489</v>
       </c>
       <c r="E272" s="53"/>
-      <c r="F272" s="5"/>
-    </row>
-    <row r="273" spans="1:6" ht="47.25">
+      <c r="F272" s="53"/>
+      <c r="G272" s="5"/>
+    </row>
+    <row r="273" spans="1:7" ht="47.6">
       <c r="A273" s="3" t="s">
         <v>58</v>
       </c>
@@ -12416,9 +12951,10 @@
         <v>78.3</v>
       </c>
       <c r="E273" s="53"/>
-      <c r="F273" s="5"/>
-    </row>
-    <row r="274" spans="1:6" ht="47.25">
+      <c r="F273" s="53"/>
+      <c r="G273" s="5"/>
+    </row>
+    <row r="274" spans="1:7" ht="47.6">
       <c r="A274" s="3" t="s">
         <v>58</v>
       </c>
@@ -12432,9 +12968,10 @@
         <v>494</v>
       </c>
       <c r="E274" s="53"/>
-      <c r="F274" s="5"/>
-    </row>
-    <row r="275" spans="1:6" ht="78.75">
+      <c r="F274" s="53"/>
+      <c r="G274" s="5"/>
+    </row>
+    <row r="275" spans="1:7" ht="63.45">
       <c r="A275" s="3" t="s">
         <v>58</v>
       </c>
@@ -12448,9 +12985,10 @@
         <v>463</v>
       </c>
       <c r="E275" s="53"/>
-      <c r="F275" s="3"/>
-    </row>
-    <row r="276" spans="1:6" ht="78.75">
+      <c r="F275" s="53"/>
+      <c r="G275" s="3"/>
+    </row>
+    <row r="276" spans="1:7" ht="79.3">
       <c r="A276" s="3" t="s">
         <v>58</v>
       </c>
@@ -12464,9 +13002,10 @@
         <v>466</v>
       </c>
       <c r="E276" s="53"/>
-      <c r="F276" s="5"/>
-    </row>
-    <row r="277" spans="1:6" ht="94.5">
+      <c r="F276" s="53"/>
+      <c r="G276" s="5"/>
+    </row>
+    <row r="277" spans="1:7" ht="95.15">
       <c r="A277" s="3" t="s">
         <v>58</v>
       </c>
@@ -12480,9 +13019,10 @@
         <v>469</v>
       </c>
       <c r="E277" s="53"/>
-      <c r="F277" s="3"/>
-    </row>
-    <row r="278" spans="1:6" ht="94.5">
+      <c r="F277" s="53"/>
+      <c r="G277" s="3"/>
+    </row>
+    <row r="278" spans="1:7" ht="95.15">
       <c r="A278" s="3" t="s">
         <v>58</v>
       </c>
@@ -12496,9 +13036,10 @@
         <v>503</v>
       </c>
       <c r="E278" s="53"/>
-      <c r="F278" s="5"/>
-    </row>
-    <row r="279" spans="1:6" ht="63">
+      <c r="F278" s="53"/>
+      <c r="G278" s="5"/>
+    </row>
+    <row r="279" spans="1:7" ht="63.45">
       <c r="A279" s="3" t="s">
         <v>58</v>
       </c>
@@ -12512,9 +13053,10 @@
         <v>506</v>
       </c>
       <c r="E279" s="53"/>
-      <c r="F279" s="5"/>
-    </row>
-    <row r="280" spans="1:6">
+      <c r="F279" s="53"/>
+      <c r="G279" s="5"/>
+    </row>
+    <row r="280" spans="1:7">
       <c r="A280" s="3" t="s">
         <v>58</v>
       </c>
@@ -12526,9 +13068,10 @@
       </c>
       <c r="D280" s="3"/>
       <c r="E280" s="53"/>
-      <c r="F280" s="19"/>
-    </row>
-    <row r="281" spans="1:6">
+      <c r="F280" s="53"/>
+      <c r="G280" s="19"/>
+    </row>
+    <row r="281" spans="1:7">
       <c r="A281" s="3" t="s">
         <v>58</v>
       </c>
@@ -12540,9 +13083,10 @@
       </c>
       <c r="D281" s="3"/>
       <c r="E281" s="53"/>
-      <c r="F281" s="18"/>
-    </row>
-    <row r="282" spans="1:6" ht="47.25">
+      <c r="F281" s="53"/>
+      <c r="G281" s="18"/>
+    </row>
+    <row r="282" spans="1:7" ht="47.6">
       <c r="A282" s="3" t="s">
         <v>58</v>
       </c>
@@ -12556,9 +13100,10 @@
         <v>527</v>
       </c>
       <c r="E282" s="53"/>
-      <c r="F282" s="5"/>
-    </row>
-    <row r="283" spans="1:6">
+      <c r="F282" s="53"/>
+      <c r="G282" s="5"/>
+    </row>
+    <row r="283" spans="1:7">
       <c r="A283" s="3" t="s">
         <v>58</v>
       </c>
@@ -12570,9 +13115,10 @@
       </c>
       <c r="D283" s="3"/>
       <c r="E283" s="53"/>
-      <c r="F283" s="18"/>
-    </row>
-    <row r="284" spans="1:6" ht="47.25">
+      <c r="F283" s="53"/>
+      <c r="G283" s="18"/>
+    </row>
+    <row r="284" spans="1:7" ht="47.6">
       <c r="A284" s="3" t="s">
         <v>58</v>
       </c>
@@ -12586,11 +13132,12 @@
         <v>436</v>
       </c>
       <c r="E284" s="58"/>
-      <c r="F284" s="3" t="s">
+      <c r="F284" s="58"/>
+      <c r="G284" s="3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:7">
       <c r="A285" s="3" t="s">
         <v>58</v>
       </c>
@@ -12604,9 +13151,10 @@
         <v>534</v>
       </c>
       <c r="E285" s="53"/>
-      <c r="F285" s="5"/>
-    </row>
-    <row r="286" spans="1:6">
+      <c r="F285" s="53"/>
+      <c r="G285" s="5"/>
+    </row>
+    <row r="286" spans="1:7">
       <c r="A286" s="3" t="s">
         <v>58</v>
       </c>
@@ -12620,9 +13168,10 @@
         <v>537</v>
       </c>
       <c r="E286" s="53"/>
-      <c r="F286" s="5"/>
-    </row>
-    <row r="287" spans="1:6" ht="47.25">
+      <c r="F286" s="53"/>
+      <c r="G286" s="5"/>
+    </row>
+    <row r="287" spans="1:7" ht="47.6">
       <c r="A287" s="3" t="s">
         <v>58</v>
       </c>
@@ -12636,9 +13185,10 @@
         <v>540</v>
       </c>
       <c r="E287" s="53"/>
-      <c r="F287" s="5"/>
-    </row>
-    <row r="288" spans="1:6" ht="31.5">
+      <c r="F287" s="53"/>
+      <c r="G287" s="5"/>
+    </row>
+    <row r="288" spans="1:7" ht="31.75">
       <c r="A288" s="3" t="s">
         <v>58</v>
       </c>
@@ -12652,9 +13202,10 @@
         <v>543</v>
       </c>
       <c r="E288" s="53"/>
-      <c r="F288" s="5"/>
-    </row>
-    <row r="289" spans="1:6">
+      <c r="F288" s="53"/>
+      <c r="G288" s="5"/>
+    </row>
+    <row r="289" spans="1:7">
       <c r="A289" s="3" t="s">
         <v>58</v>
       </c>
@@ -12668,9 +13219,10 @@
         <v>489</v>
       </c>
       <c r="E289" s="53"/>
-      <c r="F289" s="5"/>
-    </row>
-    <row r="290" spans="1:6" ht="94.5">
+      <c r="F289" s="53"/>
+      <c r="G289" s="5"/>
+    </row>
+    <row r="290" spans="1:7" ht="95.15">
       <c r="A290" s="3" t="s">
         <v>58</v>
       </c>
@@ -12684,9 +13236,10 @@
         <v>548</v>
       </c>
       <c r="E290" s="53"/>
-      <c r="F290" s="5"/>
-    </row>
-    <row r="291" spans="1:6">
+      <c r="F290" s="53"/>
+      <c r="G290" s="5"/>
+    </row>
+    <row r="291" spans="1:7">
       <c r="A291" s="3" t="s">
         <v>58</v>
       </c>
@@ -12698,9 +13251,10 @@
       </c>
       <c r="D291" s="3"/>
       <c r="E291" s="53"/>
-      <c r="F291" s="23"/>
-    </row>
-    <row r="292" spans="1:6">
+      <c r="F291" s="53"/>
+      <c r="G291" s="23"/>
+    </row>
+    <row r="292" spans="1:7">
       <c r="A292" s="3" t="s">
         <v>58</v>
       </c>
@@ -12712,9 +13266,10 @@
       </c>
       <c r="D292" s="3"/>
       <c r="E292" s="53"/>
-      <c r="F292" s="24"/>
-    </row>
-    <row r="293" spans="1:6" ht="63">
+      <c r="F292" s="53"/>
+      <c r="G292" s="24"/>
+    </row>
+    <row r="293" spans="1:7" ht="63.45">
       <c r="A293" s="3" t="s">
         <v>58</v>
       </c>
@@ -12728,11 +13283,12 @@
         <v>436</v>
       </c>
       <c r="E293" s="53"/>
-      <c r="F293" s="3" t="s">
+      <c r="F293" s="53"/>
+      <c r="G293" s="3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:7">
       <c r="A294" s="3" t="s">
         <v>58</v>
       </c>
@@ -12746,9 +13302,10 @@
         <v>439</v>
       </c>
       <c r="E294" s="53"/>
-      <c r="F294" s="3"/>
-    </row>
-    <row r="295" spans="1:6" ht="31.5">
+      <c r="F294" s="53"/>
+      <c r="G294" s="3"/>
+    </row>
+    <row r="295" spans="1:7" ht="31.75">
       <c r="A295" s="3" t="s">
         <v>58</v>
       </c>
@@ -12762,9 +13319,10 @@
         <v>457</v>
       </c>
       <c r="E295" s="53"/>
-      <c r="F295" s="3"/>
-    </row>
-    <row r="296" spans="1:6" ht="47.25">
+      <c r="F295" s="53"/>
+      <c r="G295" s="3"/>
+    </row>
+    <row r="296" spans="1:7" ht="47.6">
       <c r="A296" s="3" t="s">
         <v>58</v>
       </c>
@@ -12778,9 +13336,10 @@
         <v>445</v>
       </c>
       <c r="E296" s="53"/>
-      <c r="F296" s="3"/>
-    </row>
-    <row r="297" spans="1:6">
+      <c r="F296" s="53"/>
+      <c r="G296" s="3"/>
+    </row>
+    <row r="297" spans="1:7">
       <c r="A297" s="3" t="s">
         <v>58</v>
       </c>
@@ -12794,9 +13353,10 @@
         <v>448</v>
       </c>
       <c r="E297" s="53"/>
-      <c r="F297" s="3"/>
-    </row>
-    <row r="298" spans="1:6" ht="31.5">
+      <c r="F297" s="53"/>
+      <c r="G297" s="3"/>
+    </row>
+    <row r="298" spans="1:7" ht="31.75">
       <c r="A298" s="3" t="s">
         <v>58</v>
       </c>
@@ -12810,9 +13370,10 @@
         <v>451</v>
       </c>
       <c r="E298" s="53"/>
-      <c r="F298" s="3"/>
-    </row>
-    <row r="299" spans="1:6">
+      <c r="F298" s="53"/>
+      <c r="G298" s="3"/>
+    </row>
+    <row r="299" spans="1:7">
       <c r="A299" s="3" t="s">
         <v>58</v>
       </c>
@@ -12826,9 +13387,10 @@
         <v>454</v>
       </c>
       <c r="E299" s="53"/>
-      <c r="F299" s="3"/>
-    </row>
-    <row r="300" spans="1:6" ht="31.5">
+      <c r="F299" s="53"/>
+      <c r="G299" s="3"/>
+    </row>
+    <row r="300" spans="1:7" ht="31.75">
       <c r="A300" s="3" t="s">
         <v>58</v>
       </c>
@@ -12842,9 +13404,10 @@
         <v>460</v>
       </c>
       <c r="E300" s="53"/>
-      <c r="F300" s="3"/>
-    </row>
-    <row r="301" spans="1:6" ht="31.5">
+      <c r="F300" s="53"/>
+      <c r="G300" s="3"/>
+    </row>
+    <row r="301" spans="1:7" ht="31.75">
       <c r="A301" s="3" t="s">
         <v>58</v>
       </c>
@@ -12858,9 +13421,10 @@
         <v>489</v>
       </c>
       <c r="E301" s="53"/>
-      <c r="F301" s="3"/>
-    </row>
-    <row r="302" spans="1:6" ht="47.25">
+      <c r="F301" s="53"/>
+      <c r="G301" s="3"/>
+    </row>
+    <row r="302" spans="1:7" ht="47.6">
       <c r="A302" s="3" t="s">
         <v>58</v>
       </c>
@@ -12874,9 +13438,10 @@
         <v>78.3</v>
       </c>
       <c r="E302" s="53"/>
-      <c r="F302" s="3"/>
-    </row>
-    <row r="303" spans="1:6" ht="47.25">
+      <c r="F302" s="53"/>
+      <c r="G302" s="3"/>
+    </row>
+    <row r="303" spans="1:7" ht="47.6">
       <c r="A303" s="3" t="s">
         <v>58</v>
       </c>
@@ -12890,9 +13455,10 @@
         <v>494</v>
       </c>
       <c r="E303" s="53"/>
-      <c r="F303" s="3"/>
-    </row>
-    <row r="304" spans="1:6" ht="78.75">
+      <c r="F303" s="53"/>
+      <c r="G303" s="3"/>
+    </row>
+    <row r="304" spans="1:7" ht="63.45">
       <c r="A304" s="3" t="s">
         <v>58</v>
       </c>
@@ -12906,9 +13472,10 @@
         <v>463</v>
       </c>
       <c r="E304" s="53"/>
-      <c r="F304" s="3"/>
-    </row>
-    <row r="305" spans="1:6" ht="78.75">
+      <c r="F304" s="53"/>
+      <c r="G304" s="3"/>
+    </row>
+    <row r="305" spans="1:7" ht="79.3">
       <c r="A305" s="3" t="s">
         <v>58</v>
       </c>
@@ -12922,9 +13489,10 @@
         <v>466</v>
       </c>
       <c r="E305" s="53"/>
-      <c r="F305" s="3"/>
-    </row>
-    <row r="306" spans="1:6" ht="94.5">
+      <c r="F305" s="53"/>
+      <c r="G305" s="3"/>
+    </row>
+    <row r="306" spans="1:7" ht="95.15">
       <c r="A306" s="3" t="s">
         <v>58</v>
       </c>
@@ -12938,9 +13506,10 @@
         <v>469</v>
       </c>
       <c r="E306" s="53"/>
-      <c r="F306" s="3"/>
-    </row>
-    <row r="307" spans="1:6" ht="94.5">
+      <c r="F306" s="53"/>
+      <c r="G306" s="3"/>
+    </row>
+    <row r="307" spans="1:7" ht="95.15">
       <c r="A307" s="3" t="s">
         <v>58</v>
       </c>
@@ -12954,9 +13523,10 @@
         <v>503</v>
       </c>
       <c r="E307" s="53"/>
-      <c r="F307" s="3"/>
-    </row>
-    <row r="308" spans="1:6" ht="63">
+      <c r="F307" s="53"/>
+      <c r="G307" s="3"/>
+    </row>
+    <row r="308" spans="1:7" ht="63.45">
       <c r="A308" s="3" t="s">
         <v>58</v>
       </c>
@@ -12970,9 +13540,10 @@
         <v>506</v>
       </c>
       <c r="E308" s="53"/>
-      <c r="F308" s="3"/>
-    </row>
-    <row r="309" spans="1:6">
+      <c r="F308" s="53"/>
+      <c r="G308" s="3"/>
+    </row>
+    <row r="309" spans="1:7">
       <c r="A309" s="3" t="s">
         <v>58</v>
       </c>
@@ -12984,9 +13555,10 @@
       </c>
       <c r="D309" s="3"/>
       <c r="E309" s="53"/>
-      <c r="F309" s="17"/>
-    </row>
-    <row r="310" spans="1:6">
+      <c r="F309" s="53"/>
+      <c r="G309" s="17"/>
+    </row>
+    <row r="310" spans="1:7">
       <c r="A310" s="3" t="s">
         <v>58</v>
       </c>
@@ -12998,9 +13570,10 @@
       </c>
       <c r="D310" s="3"/>
       <c r="E310" s="53"/>
-      <c r="F310" s="23"/>
-    </row>
-    <row r="311" spans="1:6">
+      <c r="F310" s="53"/>
+      <c r="G310" s="23"/>
+    </row>
+    <row r="311" spans="1:7">
       <c r="A311" s="3" t="s">
         <v>58</v>
       </c>
@@ -13012,9 +13585,10 @@
       </c>
       <c r="D311" s="3"/>
       <c r="E311" s="53"/>
-      <c r="F311" s="24"/>
-    </row>
-    <row r="312" spans="1:6" ht="110.25">
+      <c r="F311" s="53"/>
+      <c r="G311" s="24"/>
+    </row>
+    <row r="312" spans="1:7" ht="111">
       <c r="A312" s="3" t="s">
         <v>58</v>
       </c>
@@ -13028,11 +13602,12 @@
         <v>78.3</v>
       </c>
       <c r="E312" s="53"/>
-      <c r="F312" s="5" t="s">
+      <c r="F312" s="53"/>
+      <c r="G312" s="5" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="31.5">
+    <row r="313" spans="1:7" ht="31.75">
       <c r="A313" s="3" t="s">
         <v>58</v>
       </c>
@@ -13046,9 +13621,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E313" s="53"/>
-      <c r="F313" s="5"/>
-    </row>
-    <row r="314" spans="1:6" ht="31.5">
+      <c r="F313" s="53"/>
+      <c r="G313" s="5"/>
+    </row>
+    <row r="314" spans="1:7" ht="31.75">
       <c r="A314" s="3" t="s">
         <v>58</v>
       </c>
@@ -13061,9 +13637,9 @@
       <c r="D314" s="3">
         <v>78.099999999999994</v>
       </c>
-      <c r="F314" s="5"/>
-    </row>
-    <row r="315" spans="1:6">
+      <c r="G314" s="5"/>
+    </row>
+    <row r="315" spans="1:7">
       <c r="A315" s="3" t="s">
         <v>58</v>
       </c>
@@ -13074,9 +13650,9 @@
         <v>43</v>
       </c>
       <c r="D315" s="3"/>
-      <c r="F315" s="18"/>
-    </row>
-    <row r="316" spans="1:6">
+      <c r="G315" s="18"/>
+    </row>
+    <row r="316" spans="1:7">
       <c r="A316" s="3" t="s">
         <v>58</v>
       </c>
@@ -13089,11 +13665,11 @@
       <c r="D316" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="F316" s="5" t="s">
+      <c r="G316" s="5" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:7">
       <c r="A317" s="3" t="s">
         <v>58</v>
       </c>
@@ -13106,9 +13682,9 @@
       <c r="D317" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="F317" s="5"/>
-    </row>
-    <row r="318" spans="1:6">
+      <c r="G317" s="5"/>
+    </row>
+    <row r="318" spans="1:7">
       <c r="A318" s="3" t="s">
         <v>58</v>
       </c>
@@ -13121,9 +13697,9 @@
       <c r="D318" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="F318" s="3"/>
-    </row>
-    <row r="319" spans="1:6" ht="31.5">
+      <c r="G318" s="3"/>
+    </row>
+    <row r="319" spans="1:7" ht="31.75">
       <c r="A319" s="3" t="s">
         <v>58</v>
       </c>
@@ -13136,9 +13712,9 @@
       <c r="D319" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="F319" s="5"/>
-    </row>
-    <row r="320" spans="1:6">
+      <c r="G319" s="5"/>
+    </row>
+    <row r="320" spans="1:7">
       <c r="A320" s="3" t="s">
         <v>58</v>
       </c>
@@ -13149,9 +13725,9 @@
         <v>589</v>
       </c>
       <c r="D320" s="3"/>
-      <c r="F320" s="18"/>
-    </row>
-    <row r="321" spans="1:6">
+      <c r="G320" s="18"/>
+    </row>
+    <row r="321" spans="1:7">
       <c r="A321" s="3" t="s">
         <v>58</v>
       </c>
@@ -13164,11 +13740,11 @@
       <c r="D321" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="F321" s="5" t="s">
+      <c r="G321" s="5" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:7">
       <c r="A322" s="3" t="s">
         <v>58</v>
       </c>
@@ -13181,9 +13757,9 @@
       <c r="D322" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="F322" s="5"/>
-    </row>
-    <row r="323" spans="1:6">
+      <c r="G322" s="5"/>
+    </row>
+    <row r="323" spans="1:7">
       <c r="A323" s="3" t="s">
         <v>58</v>
       </c>
@@ -13196,9 +13772,9 @@
       <c r="D323" s="3" t="s">
         <v>1121</v>
       </c>
-      <c r="F323" s="5"/>
-    </row>
-    <row r="324" spans="1:6">
+      <c r="G323" s="5"/>
+    </row>
+    <row r="324" spans="1:7">
       <c r="A324" s="3" t="s">
         <v>58</v>
       </c>
@@ -13211,9 +13787,9 @@
       <c r="D324" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="F324" s="5"/>
-    </row>
-    <row r="325" spans="1:6" ht="47.25">
+      <c r="G324" s="5"/>
+    </row>
+    <row r="325" spans="1:7" ht="31.75">
       <c r="A325" s="3" t="s">
         <v>58</v>
       </c>
@@ -13226,9 +13802,9 @@
       <c r="D325" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="F325" s="5"/>
-    </row>
-    <row r="326" spans="1:6">
+      <c r="G325" s="5"/>
+    </row>
+    <row r="326" spans="1:7">
       <c r="A326" s="3" t="s">
         <v>58</v>
       </c>
@@ -13239,9 +13815,9 @@
         <v>606</v>
       </c>
       <c r="D326" s="3"/>
-      <c r="F326" s="18"/>
-    </row>
-    <row r="327" spans="1:6" ht="78.75">
+      <c r="G326" s="18"/>
+    </row>
+    <row r="327" spans="1:7" ht="79.3">
       <c r="A327" s="3" t="s">
         <v>58</v>
       </c>
@@ -13255,11 +13831,12 @@
         <v>607</v>
       </c>
       <c r="E327" s="62"/>
-      <c r="F327" s="25" t="s">
+      <c r="F327" s="62"/>
+      <c r="G327" s="25" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="63">
+    <row r="328" spans="1:7" ht="63.45">
       <c r="A328" s="3" t="s">
         <v>58</v>
       </c>
@@ -13273,9 +13850,10 @@
         <v>607</v>
       </c>
       <c r="E328" s="62"/>
-      <c r="F328" s="5"/>
-    </row>
-    <row r="329" spans="1:6" ht="31.5">
+      <c r="F328" s="62"/>
+      <c r="G328" s="5"/>
+    </row>
+    <row r="329" spans="1:7" ht="31.75">
       <c r="A329" s="3" t="s">
         <v>58</v>
       </c>
@@ -13289,9 +13867,10 @@
         <v>1146</v>
       </c>
       <c r="E329" s="62"/>
-      <c r="F329" s="3"/>
-    </row>
-    <row r="330" spans="1:6" ht="47.25">
+      <c r="F329" s="62"/>
+      <c r="G329" s="3"/>
+    </row>
+    <row r="330" spans="1:7" ht="47.6">
       <c r="A330" s="3" t="s">
         <v>58</v>
       </c>
@@ -13305,9 +13884,10 @@
         <v>616</v>
       </c>
       <c r="E330" s="62"/>
-      <c r="F330" s="25"/>
-    </row>
-    <row r="331" spans="1:6" ht="31.5">
+      <c r="F330" s="62"/>
+      <c r="G330" s="25"/>
+    </row>
+    <row r="331" spans="1:7" ht="31.75">
       <c r="A331" s="3" t="s">
         <v>58</v>
       </c>
@@ -13321,9 +13901,10 @@
         <v>619</v>
       </c>
       <c r="E331" s="53"/>
-      <c r="F331" s="5"/>
-    </row>
-    <row r="332" spans="1:6">
+      <c r="F331" s="53"/>
+      <c r="G331" s="5"/>
+    </row>
+    <row r="332" spans="1:7">
       <c r="A332" s="3" t="s">
         <v>58</v>
       </c>
@@ -13335,9 +13916,10 @@
       </c>
       <c r="D332" s="3"/>
       <c r="E332" s="53"/>
-      <c r="F332" s="21"/>
-    </row>
-    <row r="333" spans="1:6">
+      <c r="F332" s="53"/>
+      <c r="G332" s="21"/>
+    </row>
+    <row r="333" spans="1:7">
       <c r="A333" s="3" t="s">
         <v>58</v>
       </c>
@@ -13351,11 +13933,12 @@
         <v>598</v>
       </c>
       <c r="E333" s="53"/>
-      <c r="F333" s="7" t="s">
+      <c r="F333" s="53"/>
+      <c r="G333" s="7" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:7">
       <c r="A334" s="3" t="s">
         <v>58</v>
       </c>
@@ -13369,9 +13952,10 @@
         <v>1115</v>
       </c>
       <c r="E334" s="62"/>
-      <c r="F334" s="3"/>
-    </row>
-    <row r="335" spans="1:6">
+      <c r="F334" s="62"/>
+      <c r="G334" s="3"/>
+    </row>
+    <row r="335" spans="1:7">
       <c r="A335" s="3" t="s">
         <v>58</v>
       </c>
@@ -13383,9 +13967,10 @@
       </c>
       <c r="D335" s="3"/>
       <c r="E335" s="53"/>
-      <c r="F335" s="18"/>
-    </row>
-    <row r="336" spans="1:6">
+      <c r="F335" s="53"/>
+      <c r="G335" s="18"/>
+    </row>
+    <row r="336" spans="1:7">
       <c r="A336" s="3" t="s">
         <v>58</v>
       </c>
@@ -13399,11 +13984,12 @@
         <v>592</v>
       </c>
       <c r="E336" s="53"/>
-      <c r="F336" s="5" t="s">
+      <c r="F336" s="53"/>
+      <c r="G336" s="5" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="31.5">
+    <row r="337" spans="1:7" ht="31.75">
       <c r="A337" s="3" t="s">
         <v>58</v>
       </c>
@@ -13417,9 +14003,10 @@
         <v>1123</v>
       </c>
       <c r="E337" s="58"/>
-      <c r="F337" s="5"/>
-    </row>
-    <row r="338" spans="1:6" ht="31.5">
+      <c r="F337" s="58"/>
+      <c r="G337" s="5"/>
+    </row>
+    <row r="338" spans="1:7" ht="31.75">
       <c r="A338" s="3" t="s">
         <v>58</v>
       </c>
@@ -13433,9 +14020,10 @@
         <v>598</v>
       </c>
       <c r="E338" s="53"/>
-      <c r="F338" s="5"/>
-    </row>
-    <row r="339" spans="1:6">
+      <c r="F338" s="53"/>
+      <c r="G338" s="5"/>
+    </row>
+    <row r="339" spans="1:7">
       <c r="A339" s="3" t="s">
         <v>58</v>
       </c>
@@ -13449,9 +14037,10 @@
         <v>1121</v>
       </c>
       <c r="E339" s="53"/>
-      <c r="F339" s="25"/>
-    </row>
-    <row r="340" spans="1:6" ht="31.5">
+      <c r="F339" s="53"/>
+      <c r="G339" s="25"/>
+    </row>
+    <row r="340" spans="1:7" ht="31.75">
       <c r="A340" s="3" t="s">
         <v>58</v>
       </c>
@@ -13467,9 +14056,10 @@
       <c r="E340" s="53" t="s">
         <v>637</v>
       </c>
-      <c r="F340" s="7"/>
-    </row>
-    <row r="341" spans="1:6">
+      <c r="F340" s="53"/>
+      <c r="G340" s="7"/>
+    </row>
+    <row r="341" spans="1:7">
       <c r="A341" s="3" t="s">
         <v>58</v>
       </c>
@@ -13481,9 +14071,10 @@
       </c>
       <c r="D341" s="3"/>
       <c r="E341" s="53"/>
-      <c r="F341" s="19"/>
-    </row>
-    <row r="342" spans="1:6">
+      <c r="F341" s="53"/>
+      <c r="G341" s="19"/>
+    </row>
+    <row r="342" spans="1:7">
       <c r="A342" s="3" t="s">
         <v>58</v>
       </c>
@@ -13495,9 +14086,10 @@
       </c>
       <c r="D342" s="3"/>
       <c r="E342" s="53"/>
-      <c r="F342" s="18"/>
-    </row>
-    <row r="343" spans="1:6" ht="110.25">
+      <c r="F342" s="53"/>
+      <c r="G342" s="18"/>
+    </row>
+    <row r="343" spans="1:7" ht="111">
       <c r="A343" s="3" t="s">
         <v>58</v>
       </c>
@@ -13511,11 +14103,12 @@
         <v>1044</v>
       </c>
       <c r="E343" s="62"/>
-      <c r="F343" s="25" t="s">
+      <c r="F343" s="62"/>
+      <c r="G343" s="25" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="31.5">
+    <row r="344" spans="1:7" ht="31.75">
       <c r="A344" s="3" t="s">
         <v>58</v>
       </c>
@@ -13529,9 +14122,10 @@
         <v>1036</v>
       </c>
       <c r="E344" s="62"/>
-      <c r="F344" s="5"/>
-    </row>
-    <row r="345" spans="1:6" ht="31.5">
+      <c r="F344" s="62"/>
+      <c r="G344" s="5"/>
+    </row>
+    <row r="345" spans="1:7" ht="31.75">
       <c r="A345" s="3" t="s">
         <v>58</v>
       </c>
@@ -13545,9 +14139,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E345" s="53"/>
-      <c r="F345" s="5"/>
-    </row>
-    <row r="346" spans="1:6">
+      <c r="F345" s="53"/>
+      <c r="G345" s="5"/>
+    </row>
+    <row r="346" spans="1:7">
       <c r="A346" s="3" t="s">
         <v>58</v>
       </c>
@@ -13559,9 +14154,10 @@
       </c>
       <c r="D346" s="3"/>
       <c r="E346" s="53"/>
-      <c r="F346" s="18"/>
-    </row>
-    <row r="347" spans="1:6">
+      <c r="F346" s="53"/>
+      <c r="G346" s="18"/>
+    </row>
+    <row r="347" spans="1:7">
       <c r="A347" s="3" t="s">
         <v>58</v>
       </c>
@@ -13573,9 +14169,10 @@
       </c>
       <c r="D347" s="3"/>
       <c r="E347" s="53"/>
-      <c r="F347" s="18"/>
-    </row>
-    <row r="348" spans="1:6">
+      <c r="F347" s="53"/>
+      <c r="G347" s="18"/>
+    </row>
+    <row r="348" spans="1:7">
       <c r="A348" s="3" t="s">
         <v>58</v>
       </c>
@@ -13589,11 +14186,12 @@
         <v>649</v>
       </c>
       <c r="E348" s="53"/>
-      <c r="F348" s="5" t="s">
+      <c r="F348" s="53"/>
+      <c r="G348" s="5" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="31.5">
+    <row r="349" spans="1:7" ht="31.75">
       <c r="A349" s="3" t="s">
         <v>58</v>
       </c>
@@ -13607,9 +14205,10 @@
         <v>652</v>
       </c>
       <c r="E349" s="53"/>
-      <c r="F349" s="5"/>
-    </row>
-    <row r="350" spans="1:6" ht="47.25">
+      <c r="F349" s="53"/>
+      <c r="G349" s="5"/>
+    </row>
+    <row r="350" spans="1:7" ht="47.6">
       <c r="A350" s="3" t="s">
         <v>58</v>
       </c>
@@ -13623,9 +14222,10 @@
         <v>604</v>
       </c>
       <c r="E350" s="53"/>
-      <c r="F350" s="5"/>
-    </row>
-    <row r="351" spans="1:6" ht="47.25">
+      <c r="F350" s="53"/>
+      <c r="G350" s="5"/>
+    </row>
+    <row r="351" spans="1:7" ht="47.6">
       <c r="A351" s="3" t="s">
         <v>58</v>
       </c>
@@ -13639,9 +14239,10 @@
         <v>616</v>
       </c>
       <c r="E351" s="44"/>
-      <c r="F351" s="5"/>
-    </row>
-    <row r="352" spans="1:6" ht="31.5">
+      <c r="F351" s="44"/>
+      <c r="G351" s="5"/>
+    </row>
+    <row r="352" spans="1:7" ht="31.75">
       <c r="A352" s="3" t="s">
         <v>58</v>
       </c>
@@ -13655,9 +14256,10 @@
         <v>619</v>
       </c>
       <c r="E352" s="53"/>
-      <c r="F352" s="5"/>
-    </row>
-    <row r="353" spans="1:6" ht="47.25">
+      <c r="F352" s="53"/>
+      <c r="G352" s="5"/>
+    </row>
+    <row r="353" spans="1:7" ht="47.6">
       <c r="A353" s="3" t="s">
         <v>58</v>
       </c>
@@ -13671,9 +14273,10 @@
         <v>587</v>
       </c>
       <c r="E353" s="53"/>
-      <c r="F353" s="5"/>
-    </row>
-    <row r="354" spans="1:6">
+      <c r="F353" s="53"/>
+      <c r="G353" s="5"/>
+    </row>
+    <row r="354" spans="1:7">
       <c r="A354" s="3" t="s">
         <v>58</v>
       </c>
@@ -13685,9 +14288,10 @@
       </c>
       <c r="D354" s="3"/>
       <c r="E354" s="53"/>
-      <c r="F354" s="18"/>
-    </row>
-    <row r="355" spans="1:6">
+      <c r="F354" s="53"/>
+      <c r="G354" s="18"/>
+    </row>
+    <row r="355" spans="1:7">
       <c r="A355" s="3" t="s">
         <v>58</v>
       </c>
@@ -13701,11 +14305,12 @@
         <v>598</v>
       </c>
       <c r="E355" s="53"/>
-      <c r="F355" s="8" t="s">
+      <c r="F355" s="53"/>
+      <c r="G355" s="8" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:7">
       <c r="A356" s="3" t="s">
         <v>58</v>
       </c>
@@ -13721,9 +14326,10 @@
       <c r="E356" s="62" t="s">
         <v>1143</v>
       </c>
-      <c r="F356" s="3"/>
-    </row>
-    <row r="357" spans="1:6">
+      <c r="F356" s="62"/>
+      <c r="G356" s="3"/>
+    </row>
+    <row r="357" spans="1:7">
       <c r="A357" s="3" t="s">
         <v>58</v>
       </c>
@@ -13735,9 +14341,10 @@
       </c>
       <c r="D357" s="3"/>
       <c r="E357" s="53"/>
-      <c r="F357" s="18"/>
-    </row>
-    <row r="358" spans="1:6">
+      <c r="F357" s="53"/>
+      <c r="G357" s="18"/>
+    </row>
+    <row r="358" spans="1:7">
       <c r="A358" s="3" t="s">
         <v>58</v>
       </c>
@@ -13751,11 +14358,12 @@
         <v>592</v>
       </c>
       <c r="E358" s="53"/>
-      <c r="F358" s="25" t="s">
+      <c r="F358" s="53"/>
+      <c r="G358" s="25" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="31.5">
+    <row r="359" spans="1:7" ht="31.75">
       <c r="A359" s="3" t="s">
         <v>58</v>
       </c>
@@ -13769,9 +14377,10 @@
         <v>1123</v>
       </c>
       <c r="E359" s="58"/>
-      <c r="F359" s="25"/>
-    </row>
-    <row r="360" spans="1:6" ht="31.5">
+      <c r="F359" s="58"/>
+      <c r="G359" s="25"/>
+    </row>
+    <row r="360" spans="1:7" ht="31.75">
       <c r="A360" s="3" t="s">
         <v>58</v>
       </c>
@@ -13785,9 +14394,10 @@
         <v>598</v>
       </c>
       <c r="E360" s="53"/>
-      <c r="F360" s="25"/>
-    </row>
-    <row r="361" spans="1:6">
+      <c r="F360" s="53"/>
+      <c r="G360" s="25"/>
+    </row>
+    <row r="361" spans="1:7">
       <c r="A361" s="3" t="s">
         <v>58</v>
       </c>
@@ -13801,9 +14411,10 @@
         <v>1121</v>
       </c>
       <c r="E361" s="53"/>
-      <c r="F361" s="7"/>
-    </row>
-    <row r="362" spans="1:6" ht="31.5">
+      <c r="F361" s="53"/>
+      <c r="G361" s="7"/>
+    </row>
+    <row r="362" spans="1:7" ht="31.75">
       <c r="A362" s="3" t="s">
         <v>58</v>
       </c>
@@ -13819,9 +14430,10 @@
       <c r="E362" s="53" t="s">
         <v>637</v>
       </c>
-      <c r="F362" s="7"/>
-    </row>
-    <row r="363" spans="1:6">
+      <c r="F362" s="53"/>
+      <c r="G362" s="7"/>
+    </row>
+    <row r="363" spans="1:7">
       <c r="A363" s="3" t="s">
         <v>58</v>
       </c>
@@ -13833,9 +14445,10 @@
       </c>
       <c r="D363" s="3"/>
       <c r="E363" s="53"/>
-      <c r="F363" s="19"/>
-    </row>
-    <row r="364" spans="1:6">
+      <c r="F363" s="53"/>
+      <c r="G363" s="19"/>
+    </row>
+    <row r="364" spans="1:7">
       <c r="A364" s="3" t="s">
         <v>58</v>
       </c>
@@ -13847,9 +14460,10 @@
       </c>
       <c r="D364" s="3"/>
       <c r="E364" s="53"/>
-      <c r="F364" s="21"/>
-    </row>
-    <row r="365" spans="1:6" ht="94.5">
+      <c r="F364" s="53"/>
+      <c r="G364" s="21"/>
+    </row>
+    <row r="365" spans="1:7" ht="95.15">
       <c r="A365" s="3" t="s">
         <v>58</v>
       </c>
@@ -13863,11 +14477,12 @@
         <v>78.3</v>
       </c>
       <c r="E365" s="53"/>
-      <c r="F365" s="25" t="s">
+      <c r="F365" s="53"/>
+      <c r="G365" s="25" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="31.5">
+    <row r="366" spans="1:7" ht="31.75">
       <c r="A366" s="3" t="s">
         <v>58</v>
       </c>
@@ -13881,9 +14496,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E366" s="53"/>
-      <c r="F366" s="7"/>
-    </row>
-    <row r="367" spans="1:6" ht="31.5">
+      <c r="F366" s="53"/>
+      <c r="G366" s="7"/>
+    </row>
+    <row r="367" spans="1:7" ht="31.75">
       <c r="A367" s="3" t="s">
         <v>58</v>
       </c>
@@ -13897,9 +14513,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E367" s="53"/>
-      <c r="F367" s="25"/>
-    </row>
-    <row r="368" spans="1:6">
+      <c r="F367" s="53"/>
+      <c r="G367" s="25"/>
+    </row>
+    <row r="368" spans="1:7">
       <c r="A368" s="3" t="s">
         <v>58</v>
       </c>
@@ -13911,9 +14528,10 @@
       </c>
       <c r="D368" s="3"/>
       <c r="E368" s="53"/>
-      <c r="F368" s="21"/>
-    </row>
-    <row r="369" spans="1:6">
+      <c r="F368" s="53"/>
+      <c r="G368" s="21"/>
+    </row>
+    <row r="369" spans="1:7">
       <c r="A369" s="3" t="s">
         <v>58</v>
       </c>
@@ -13925,9 +14543,10 @@
       </c>
       <c r="D369" s="3"/>
       <c r="E369" s="53"/>
-      <c r="F369" s="21"/>
-    </row>
-    <row r="370" spans="1:6" ht="47.25">
+      <c r="F369" s="53"/>
+      <c r="G369" s="21"/>
+    </row>
+    <row r="370" spans="1:7" ht="47.6">
       <c r="A370" s="3" t="s">
         <v>58</v>
       </c>
@@ -13941,11 +14560,12 @@
         <v>1082</v>
       </c>
       <c r="E370" s="53"/>
-      <c r="F370" s="5" t="s">
+      <c r="F370" s="53"/>
+      <c r="G370" s="5" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="371" spans="1:6" ht="31.5">
+    <row r="371" spans="1:7" ht="31.75">
       <c r="A371" s="3" t="s">
         <v>58</v>
       </c>
@@ -13959,9 +14579,10 @@
         <v>685</v>
       </c>
       <c r="E371" s="53"/>
-      <c r="F371" s="25"/>
-    </row>
-    <row r="372" spans="1:6">
+      <c r="F371" s="53"/>
+      <c r="G371" s="25"/>
+    </row>
+    <row r="372" spans="1:7">
       <c r="A372" s="3" t="s">
         <v>58</v>
       </c>
@@ -13975,9 +14596,10 @@
         <v>581</v>
       </c>
       <c r="E372" s="53"/>
-      <c r="F372" s="25"/>
-    </row>
-    <row r="373" spans="1:6" ht="47.25">
+      <c r="F372" s="53"/>
+      <c r="G372" s="25"/>
+    </row>
+    <row r="373" spans="1:7" ht="47.6">
       <c r="A373" s="3" t="s">
         <v>58</v>
       </c>
@@ -13991,9 +14613,10 @@
         <v>604</v>
       </c>
       <c r="E373" s="53"/>
-      <c r="F373" s="25"/>
-    </row>
-    <row r="374" spans="1:6" ht="31.5">
+      <c r="F373" s="53"/>
+      <c r="G373" s="25"/>
+    </row>
+    <row r="374" spans="1:7" ht="31.75">
       <c r="A374" s="3" t="s">
         <v>58</v>
       </c>
@@ -14007,9 +14630,10 @@
         <v>619</v>
       </c>
       <c r="E374" s="53"/>
-      <c r="F374" s="25"/>
-    </row>
-    <row r="375" spans="1:6" ht="47.25">
+      <c r="F374" s="53"/>
+      <c r="G374" s="25"/>
+    </row>
+    <row r="375" spans="1:7" ht="47.6">
       <c r="A375" s="3" t="s">
         <v>58</v>
       </c>
@@ -14023,9 +14647,10 @@
         <v>587</v>
       </c>
       <c r="E375" s="53"/>
-      <c r="F375" s="25"/>
-    </row>
-    <row r="376" spans="1:6">
+      <c r="F375" s="53"/>
+      <c r="G375" s="25"/>
+    </row>
+    <row r="376" spans="1:7">
       <c r="A376" s="3" t="s">
         <v>58</v>
       </c>
@@ -14037,9 +14662,10 @@
       </c>
       <c r="D376" s="3"/>
       <c r="E376" s="53"/>
-      <c r="F376" s="18"/>
-    </row>
-    <row r="377" spans="1:6">
+      <c r="F376" s="53"/>
+      <c r="G376" s="18"/>
+    </row>
+    <row r="377" spans="1:7">
       <c r="A377" s="3" t="s">
         <v>58</v>
       </c>
@@ -14053,11 +14679,12 @@
         <v>598</v>
       </c>
       <c r="E377" s="53"/>
-      <c r="F377" s="8" t="s">
+      <c r="F377" s="53"/>
+      <c r="G377" s="8" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:7">
       <c r="A378" s="3" t="s">
         <v>58</v>
       </c>
@@ -14073,9 +14700,10 @@
       <c r="E378" s="62" t="s">
         <v>1143</v>
       </c>
-      <c r="F378" s="3"/>
-    </row>
-    <row r="379" spans="1:6">
+      <c r="F378" s="62"/>
+      <c r="G378" s="3"/>
+    </row>
+    <row r="379" spans="1:7">
       <c r="A379" s="3" t="s">
         <v>58</v>
       </c>
@@ -14087,9 +14715,10 @@
       </c>
       <c r="D379" s="3"/>
       <c r="E379" s="53"/>
-      <c r="F379" s="18"/>
-    </row>
-    <row r="380" spans="1:6">
+      <c r="F379" s="53"/>
+      <c r="G379" s="18"/>
+    </row>
+    <row r="380" spans="1:7">
       <c r="A380" s="3" t="s">
         <v>58</v>
       </c>
@@ -14103,11 +14732,12 @@
         <v>592</v>
       </c>
       <c r="E380" s="53"/>
-      <c r="F380" s="25" t="s">
+      <c r="F380" s="53"/>
+      <c r="G380" s="25" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="381" spans="1:6" ht="31.5">
+    <row r="381" spans="1:7" ht="31.75">
       <c r="A381" s="3" t="s">
         <v>58</v>
       </c>
@@ -14121,9 +14751,10 @@
         <v>1123</v>
       </c>
       <c r="E381" s="58"/>
-      <c r="F381" s="25"/>
-    </row>
-    <row r="382" spans="1:6" ht="31.5">
+      <c r="F381" s="58"/>
+      <c r="G381" s="25"/>
+    </row>
+    <row r="382" spans="1:7" ht="31.75">
       <c r="A382" s="3" t="s">
         <v>58</v>
       </c>
@@ -14137,9 +14768,10 @@
         <v>598</v>
       </c>
       <c r="E382" s="53"/>
-      <c r="F382" s="25"/>
-    </row>
-    <row r="383" spans="1:6">
+      <c r="F382" s="53"/>
+      <c r="G382" s="25"/>
+    </row>
+    <row r="383" spans="1:7">
       <c r="A383" s="3" t="s">
         <v>58</v>
       </c>
@@ -14153,9 +14785,10 @@
         <v>1121</v>
       </c>
       <c r="E383" s="53"/>
-      <c r="F383" s="7"/>
-    </row>
-    <row r="384" spans="1:6" ht="31.5">
+      <c r="F383" s="53"/>
+      <c r="G383" s="7"/>
+    </row>
+    <row r="384" spans="1:7" ht="31.75">
       <c r="A384" s="3" t="s">
         <v>58</v>
       </c>
@@ -14171,9 +14804,10 @@
       <c r="E384" s="53" t="s">
         <v>637</v>
       </c>
-      <c r="F384" s="7"/>
-    </row>
-    <row r="385" spans="1:6">
+      <c r="F384" s="53"/>
+      <c r="G384" s="7"/>
+    </row>
+    <row r="385" spans="1:7">
       <c r="A385" s="3" t="s">
         <v>58</v>
       </c>
@@ -14185,9 +14819,10 @@
       </c>
       <c r="D385" s="3"/>
       <c r="E385" s="53"/>
-      <c r="F385" s="19"/>
-    </row>
-    <row r="386" spans="1:6">
+      <c r="F385" s="53"/>
+      <c r="G385" s="19"/>
+    </row>
+    <row r="386" spans="1:7">
       <c r="A386" s="3" t="s">
         <v>58</v>
       </c>
@@ -14199,9 +14834,10 @@
       </c>
       <c r="D386" s="3"/>
       <c r="E386" s="53"/>
-      <c r="F386" s="21"/>
-    </row>
-    <row r="387" spans="1:6" ht="94.5">
+      <c r="F386" s="53"/>
+      <c r="G386" s="21"/>
+    </row>
+    <row r="387" spans="1:7" ht="95.15">
       <c r="A387" s="3" t="s">
         <v>58</v>
       </c>
@@ -14215,11 +14851,12 @@
         <v>78.3</v>
       </c>
       <c r="E387" s="53"/>
-      <c r="F387" s="25" t="s">
+      <c r="F387" s="53"/>
+      <c r="G387" s="25" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="388" spans="1:6" ht="31.5">
+    <row r="388" spans="1:7" ht="31.75">
       <c r="A388" s="3" t="s">
         <v>58</v>
       </c>
@@ -14233,9 +14870,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E388" s="53"/>
-      <c r="F388" s="25"/>
-    </row>
-    <row r="389" spans="1:6" ht="31.5">
+      <c r="F388" s="53"/>
+      <c r="G388" s="25"/>
+    </row>
+    <row r="389" spans="1:7" ht="31.75">
       <c r="A389" s="3" t="s">
         <v>58</v>
       </c>
@@ -14249,9 +14887,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E389" s="53"/>
-      <c r="F389" s="25"/>
-    </row>
-    <row r="390" spans="1:6">
+      <c r="F389" s="53"/>
+      <c r="G389" s="25"/>
+    </row>
+    <row r="390" spans="1:7">
       <c r="A390" s="3" t="s">
         <v>58</v>
       </c>
@@ -14263,9 +14902,10 @@
       </c>
       <c r="D390" s="3"/>
       <c r="E390" s="53"/>
-      <c r="F390" s="21"/>
-    </row>
-    <row r="391" spans="1:6">
+      <c r="F390" s="53"/>
+      <c r="G390" s="21"/>
+    </row>
+    <row r="391" spans="1:7">
       <c r="A391" s="3" t="s">
         <v>58</v>
       </c>
@@ -14277,9 +14917,10 @@
       </c>
       <c r="D391" s="3"/>
       <c r="E391" s="53"/>
-      <c r="F391" s="21"/>
-    </row>
-    <row r="392" spans="1:6">
+      <c r="F391" s="53"/>
+      <c r="G391" s="21"/>
+    </row>
+    <row r="392" spans="1:7">
       <c r="A392" s="3" t="s">
         <v>58</v>
       </c>
@@ -14293,11 +14934,12 @@
         <v>649</v>
       </c>
       <c r="E392" s="53"/>
-      <c r="F392" s="7" t="s">
+      <c r="F392" s="53"/>
+      <c r="G392" s="7" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:7">
       <c r="A393" s="3" t="s">
         <v>58</v>
       </c>
@@ -14311,9 +14953,10 @@
         <v>578</v>
       </c>
       <c r="E393" s="53"/>
-      <c r="F393" s="25"/>
-    </row>
-    <row r="394" spans="1:6">
+      <c r="F393" s="53"/>
+      <c r="G393" s="25"/>
+    </row>
+    <row r="394" spans="1:7">
       <c r="A394" s="3" t="s">
         <v>58</v>
       </c>
@@ -14327,9 +14970,10 @@
         <v>581</v>
       </c>
       <c r="E394" s="53"/>
-      <c r="F394" s="25"/>
-    </row>
-    <row r="395" spans="1:6" ht="31.5">
+      <c r="F394" s="53"/>
+      <c r="G394" s="25"/>
+    </row>
+    <row r="395" spans="1:7" ht="31.75">
       <c r="A395" s="3" t="s">
         <v>58</v>
       </c>
@@ -14343,9 +14987,10 @@
         <v>587</v>
       </c>
       <c r="E395" s="53"/>
-      <c r="F395" s="7"/>
-    </row>
-    <row r="396" spans="1:6">
+      <c r="F395" s="53"/>
+      <c r="G395" s="7"/>
+    </row>
+    <row r="396" spans="1:7">
       <c r="A396" s="3" t="s">
         <v>58</v>
       </c>
@@ -14357,9 +15002,10 @@
       </c>
       <c r="D396" s="3"/>
       <c r="E396" s="53"/>
-      <c r="F396" s="21"/>
-    </row>
-    <row r="397" spans="1:6" ht="31.5">
+      <c r="F396" s="53"/>
+      <c r="G396" s="21"/>
+    </row>
+    <row r="397" spans="1:7" ht="31.75">
       <c r="A397" s="3" t="s">
         <v>58</v>
       </c>
@@ -14373,11 +15019,12 @@
         <v>722</v>
       </c>
       <c r="E397" s="53"/>
-      <c r="F397" s="7" t="s">
+      <c r="F397" s="53"/>
+      <c r="G397" s="7" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="31.5">
+    <row r="398" spans="1:7" ht="31.75">
       <c r="A398" s="3" t="s">
         <v>58</v>
       </c>
@@ -14391,9 +15038,10 @@
         <v>725</v>
       </c>
       <c r="E398" s="62"/>
-      <c r="F398" s="7"/>
-    </row>
-    <row r="399" spans="1:6" ht="31.5">
+      <c r="F398" s="62"/>
+      <c r="G398" s="7"/>
+    </row>
+    <row r="399" spans="1:7" ht="31.75">
       <c r="A399" s="3" t="s">
         <v>58</v>
       </c>
@@ -14407,9 +15055,10 @@
         <v>725</v>
       </c>
       <c r="E399" s="62"/>
-      <c r="F399" s="7"/>
-    </row>
-    <row r="400" spans="1:6">
+      <c r="F399" s="62"/>
+      <c r="G399" s="7"/>
+    </row>
+    <row r="400" spans="1:7">
       <c r="A400" s="3" t="s">
         <v>58</v>
       </c>
@@ -14421,9 +15070,10 @@
       </c>
       <c r="D400" s="44"/>
       <c r="E400" s="62"/>
-      <c r="F400" s="18"/>
-    </row>
-    <row r="401" spans="1:6">
+      <c r="F400" s="62"/>
+      <c r="G400" s="18"/>
+    </row>
+    <row r="401" spans="1:7">
       <c r="A401" s="3" t="s">
         <v>58</v>
       </c>
@@ -14437,11 +15087,12 @@
         <v>592</v>
       </c>
       <c r="E401" s="62"/>
-      <c r="F401" s="25" t="s">
+      <c r="F401" s="62"/>
+      <c r="G401" s="25" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:7">
       <c r="A402" s="3" t="s">
         <v>58</v>
       </c>
@@ -14455,9 +15106,10 @@
         <v>595</v>
       </c>
       <c r="E402" s="62"/>
-      <c r="F402" s="5"/>
-    </row>
-    <row r="403" spans="1:6" ht="31.5">
+      <c r="F402" s="62"/>
+      <c r="G402" s="5"/>
+    </row>
+    <row r="403" spans="1:7" ht="31.75">
       <c r="A403" s="3" t="s">
         <v>58</v>
       </c>
@@ -14471,9 +15123,10 @@
         <v>598</v>
       </c>
       <c r="E403" s="62"/>
-      <c r="F403" s="5"/>
-    </row>
-    <row r="404" spans="1:6">
+      <c r="F403" s="62"/>
+      <c r="G403" s="5"/>
+    </row>
+    <row r="404" spans="1:7">
       <c r="A404" s="3" t="s">
         <v>58</v>
       </c>
@@ -14487,9 +15140,10 @@
         <v>598</v>
       </c>
       <c r="E404" s="62"/>
-      <c r="F404" s="3"/>
-    </row>
-    <row r="405" spans="1:6">
+      <c r="F404" s="62"/>
+      <c r="G404" s="3"/>
+    </row>
+    <row r="405" spans="1:7">
       <c r="A405" s="3" t="s">
         <v>58</v>
       </c>
@@ -14503,9 +15157,10 @@
         <v>601</v>
       </c>
       <c r="E405" s="62"/>
-      <c r="F405" s="5"/>
-    </row>
-    <row r="406" spans="1:6" ht="47.25">
+      <c r="F405" s="62"/>
+      <c r="G405" s="5"/>
+    </row>
+    <row r="406" spans="1:7" ht="47.6">
       <c r="A406" s="3" t="s">
         <v>58</v>
       </c>
@@ -14519,9 +15174,10 @@
         <v>604</v>
       </c>
       <c r="E406" s="62"/>
-      <c r="F406" s="25"/>
-    </row>
-    <row r="407" spans="1:6">
+      <c r="F406" s="62"/>
+      <c r="G406" s="25"/>
+    </row>
+    <row r="407" spans="1:7">
       <c r="A407" s="3" t="s">
         <v>58</v>
       </c>
@@ -14533,9 +15189,10 @@
       </c>
       <c r="D407" s="44"/>
       <c r="E407" s="62"/>
-      <c r="F407" s="21"/>
-    </row>
-    <row r="408" spans="1:6" ht="78.75">
+      <c r="F407" s="62"/>
+      <c r="G407" s="21"/>
+    </row>
+    <row r="408" spans="1:7" ht="79.3">
       <c r="A408" s="3" t="s">
         <v>58</v>
       </c>
@@ -14549,11 +15206,12 @@
         <v>607</v>
       </c>
       <c r="E408" s="62"/>
-      <c r="F408" s="25" t="s">
+      <c r="F408" s="62"/>
+      <c r="G408" s="25" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="409" spans="1:6" ht="63">
+    <row r="409" spans="1:7" ht="63.45">
       <c r="A409" s="3" t="s">
         <v>58</v>
       </c>
@@ -14567,9 +15225,10 @@
         <v>607</v>
       </c>
       <c r="E409" s="62"/>
-      <c r="F409" s="25"/>
-    </row>
-    <row r="410" spans="1:6" ht="31.5">
+      <c r="F409" s="62"/>
+      <c r="G409" s="25"/>
+    </row>
+    <row r="410" spans="1:7" ht="31.75">
       <c r="A410" s="3" t="s">
         <v>58</v>
       </c>
@@ -14583,11 +15242,12 @@
         <v>607</v>
       </c>
       <c r="E410" s="62"/>
-      <c r="F410" s="25" t="s">
+      <c r="F410" s="62"/>
+      <c r="G410" s="25" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="31.5">
+    <row r="411" spans="1:7" ht="31.75">
       <c r="A411" s="3" t="s">
         <v>58</v>
       </c>
@@ -14601,9 +15261,10 @@
         <v>619</v>
       </c>
       <c r="E411" s="62"/>
-      <c r="F411" s="25"/>
-    </row>
-    <row r="412" spans="1:6">
+      <c r="F411" s="62"/>
+      <c r="G411" s="25"/>
+    </row>
+    <row r="412" spans="1:7">
       <c r="A412" s="3" t="s">
         <v>58</v>
       </c>
@@ -14615,9 +15276,10 @@
       </c>
       <c r="D412" s="3"/>
       <c r="E412" s="62"/>
-      <c r="F412" s="21"/>
-    </row>
-    <row r="413" spans="1:6">
+      <c r="F412" s="62"/>
+      <c r="G412" s="21"/>
+    </row>
+    <row r="413" spans="1:7">
       <c r="A413" s="3" t="s">
         <v>58</v>
       </c>
@@ -14631,11 +15293,12 @@
         <v>598</v>
       </c>
       <c r="E413" s="62"/>
-      <c r="F413" s="8" t="s">
+      <c r="F413" s="62"/>
+      <c r="G413" s="8" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:7">
       <c r="A414" s="3" t="s">
         <v>58</v>
       </c>
@@ -14651,9 +15314,10 @@
       <c r="E414" s="62" t="s">
         <v>1143</v>
       </c>
-      <c r="F414" s="7"/>
-    </row>
-    <row r="415" spans="1:6">
+      <c r="F414" s="62"/>
+      <c r="G414" s="7"/>
+    </row>
+    <row r="415" spans="1:7">
       <c r="A415" s="3" t="s">
         <v>58</v>
       </c>
@@ -14665,9 +15329,10 @@
       </c>
       <c r="D415" s="3"/>
       <c r="E415" s="53"/>
-      <c r="F415" s="21"/>
-    </row>
-    <row r="416" spans="1:6" ht="31.5">
+      <c r="F415" s="53"/>
+      <c r="G415" s="21"/>
+    </row>
+    <row r="416" spans="1:7" ht="31.75">
       <c r="A416" s="3" t="s">
         <v>58</v>
       </c>
@@ -14683,9 +15348,10 @@
       <c r="E416" s="53" t="s">
         <v>637</v>
       </c>
-      <c r="F416" s="7"/>
-    </row>
-    <row r="417" spans="1:6">
+      <c r="F416" s="53"/>
+      <c r="G416" s="7"/>
+    </row>
+    <row r="417" spans="1:7">
       <c r="A417" s="3" t="s">
         <v>58</v>
       </c>
@@ -14697,9 +15363,10 @@
       </c>
       <c r="D417" s="3"/>
       <c r="E417" s="53"/>
-      <c r="F417" s="10"/>
-    </row>
-    <row r="418" spans="1:6">
+      <c r="F417" s="53"/>
+      <c r="G417" s="10"/>
+    </row>
+    <row r="418" spans="1:7">
       <c r="A418" s="3" t="s">
         <v>58</v>
       </c>
@@ -14713,9 +15380,10 @@
       <c r="E418" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="F418" s="25"/>
-    </row>
-    <row r="419" spans="1:6">
+      <c r="F418" s="54"/>
+      <c r="G418" s="25"/>
+    </row>
+    <row r="419" spans="1:7">
       <c r="A419" s="3" t="s">
         <v>58</v>
       </c>
@@ -14729,9 +15397,10 @@
       <c r="E419" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="F419" s="25"/>
-    </row>
-    <row r="420" spans="1:6">
+      <c r="F419" s="54"/>
+      <c r="G419" s="25"/>
+    </row>
+    <row r="420" spans="1:7">
       <c r="A420" s="3" t="s">
         <v>58</v>
       </c>
@@ -14745,9 +15414,10 @@
       <c r="E420" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="F420" s="25"/>
-    </row>
-    <row r="421" spans="1:6">
+      <c r="F420" s="54"/>
+      <c r="G420" s="25"/>
+    </row>
+    <row r="421" spans="1:7">
       <c r="A421" s="3" t="s">
         <v>58</v>
       </c>
@@ -14759,9 +15429,10 @@
       </c>
       <c r="D421" s="11"/>
       <c r="E421" s="59"/>
-      <c r="F421" s="10"/>
-    </row>
-    <row r="422" spans="1:6">
+      <c r="F421" s="59"/>
+      <c r="G421" s="10"/>
+    </row>
+    <row r="422" spans="1:7">
       <c r="A422" s="3" t="s">
         <v>58</v>
       </c>
@@ -14775,9 +15446,10 @@
       <c r="E422" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="F422" s="25"/>
-    </row>
-    <row r="423" spans="1:6">
+      <c r="F422" s="54"/>
+      <c r="G422" s="25"/>
+    </row>
+    <row r="423" spans="1:7">
       <c r="A423" s="3" t="s">
         <v>58</v>
       </c>
@@ -14791,9 +15463,10 @@
       <c r="E423" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="F423" s="25"/>
-    </row>
-    <row r="424" spans="1:6">
+      <c r="F423" s="54"/>
+      <c r="G423" s="25"/>
+    </row>
+    <row r="424" spans="1:7">
       <c r="A424" s="3" t="s">
         <v>58</v>
       </c>
@@ -14805,9 +15478,10 @@
       </c>
       <c r="D424" s="3"/>
       <c r="E424" s="53"/>
-      <c r="F424" s="10"/>
-    </row>
-    <row r="425" spans="1:6">
+      <c r="F424" s="53"/>
+      <c r="G424" s="10"/>
+    </row>
+    <row r="425" spans="1:7">
       <c r="A425" s="3" t="s">
         <v>58</v>
       </c>
@@ -14819,9 +15493,10 @@
       </c>
       <c r="D425" s="3"/>
       <c r="E425" s="53"/>
-      <c r="F425" s="21"/>
-    </row>
-    <row r="426" spans="1:6" ht="94.5">
+      <c r="F425" s="53"/>
+      <c r="G425" s="21"/>
+    </row>
+    <row r="426" spans="1:7" ht="95.15">
       <c r="A426" s="3" t="s">
         <v>58</v>
       </c>
@@ -14835,11 +15510,12 @@
         <v>78.3</v>
       </c>
       <c r="E426" s="53"/>
-      <c r="F426" s="25" t="s">
+      <c r="F426" s="53"/>
+      <c r="G426" s="25" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="427" spans="1:6" ht="31.5">
+    <row r="427" spans="1:7" ht="31.75">
       <c r="A427" s="3" t="s">
         <v>58</v>
       </c>
@@ -14853,9 +15529,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E427" s="53"/>
-      <c r="F427" s="25"/>
-    </row>
-    <row r="428" spans="1:6" ht="31.5">
+      <c r="F427" s="53"/>
+      <c r="G427" s="25"/>
+    </row>
+    <row r="428" spans="1:7" ht="31.75">
       <c r="A428" s="3" t="s">
         <v>58</v>
       </c>
@@ -14869,9 +15546,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E428" s="53"/>
-      <c r="F428" s="25"/>
-    </row>
-    <row r="429" spans="1:6">
+      <c r="F428" s="53"/>
+      <c r="G428" s="25"/>
+    </row>
+    <row r="429" spans="1:7">
       <c r="A429" s="3" t="s">
         <v>58</v>
       </c>
@@ -14883,9 +15561,10 @@
       </c>
       <c r="D429" s="3"/>
       <c r="E429" s="53"/>
-      <c r="F429" s="21"/>
-    </row>
-    <row r="430" spans="1:6">
+      <c r="F429" s="53"/>
+      <c r="G429" s="21"/>
+    </row>
+    <row r="430" spans="1:7">
       <c r="A430" s="3" t="s">
         <v>58</v>
       </c>
@@ -14897,9 +15576,10 @@
       </c>
       <c r="D430" s="3"/>
       <c r="E430" s="53"/>
-      <c r="F430" s="21"/>
-    </row>
-    <row r="431" spans="1:6" ht="31.5">
+      <c r="F430" s="53"/>
+      <c r="G430" s="21"/>
+    </row>
+    <row r="431" spans="1:7" ht="31.75">
       <c r="A431" s="3" t="s">
         <v>58</v>
       </c>
@@ -14913,11 +15593,12 @@
         <v>578</v>
       </c>
       <c r="E431" s="53"/>
-      <c r="F431" s="25" t="s">
+      <c r="F431" s="53"/>
+      <c r="G431" s="25" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="432" spans="1:6">
+    <row r="432" spans="1:7">
       <c r="A432" s="3" t="s">
         <v>58</v>
       </c>
@@ -14931,9 +15612,10 @@
         <v>581</v>
       </c>
       <c r="E432" s="53"/>
-      <c r="F432" s="25"/>
-    </row>
-    <row r="433" spans="1:6">
+      <c r="F432" s="53"/>
+      <c r="G432" s="25"/>
+    </row>
+    <row r="433" spans="1:7">
       <c r="A433" s="3" t="s">
         <v>58</v>
       </c>
@@ -14947,9 +15629,10 @@
         <v>1120</v>
       </c>
       <c r="E433" s="53"/>
-      <c r="F433" s="7"/>
-    </row>
-    <row r="434" spans="1:6" ht="31.5">
+      <c r="F433" s="53"/>
+      <c r="G433" s="7"/>
+    </row>
+    <row r="434" spans="1:7" ht="31.75">
       <c r="A434" s="3" t="s">
         <v>58</v>
       </c>
@@ -14963,9 +15646,10 @@
         <v>619</v>
       </c>
       <c r="E434" s="53"/>
-      <c r="F434" s="7"/>
-    </row>
-    <row r="435" spans="1:6">
+      <c r="F434" s="53"/>
+      <c r="G434" s="7"/>
+    </row>
+    <row r="435" spans="1:7">
       <c r="A435" s="3" t="s">
         <v>58</v>
       </c>
@@ -14977,9 +15661,10 @@
       </c>
       <c r="D435" s="3"/>
       <c r="E435" s="53"/>
-      <c r="F435" s="7"/>
-    </row>
-    <row r="436" spans="1:6" ht="63">
+      <c r="F435" s="53"/>
+      <c r="G435" s="7"/>
+    </row>
+    <row r="436" spans="1:7" ht="63.45">
       <c r="A436" s="3" t="s">
         <v>58</v>
       </c>
@@ -14993,9 +15678,10 @@
         <v>587</v>
       </c>
       <c r="E436" s="53"/>
-      <c r="F436" s="7"/>
-    </row>
-    <row r="437" spans="1:6" ht="31.5">
+      <c r="F436" s="53"/>
+      <c r="G436" s="7"/>
+    </row>
+    <row r="437" spans="1:7" ht="31.75">
       <c r="A437" s="3" t="s">
         <v>58</v>
       </c>
@@ -15009,9 +15695,10 @@
         <v>725</v>
       </c>
       <c r="E437" s="53"/>
-      <c r="F437" s="7"/>
-    </row>
-    <row r="438" spans="1:6">
+      <c r="F437" s="53"/>
+      <c r="G437" s="7"/>
+    </row>
+    <row r="438" spans="1:7">
       <c r="A438" s="3" t="s">
         <v>58</v>
       </c>
@@ -15023,9 +15710,10 @@
       </c>
       <c r="D438" s="3"/>
       <c r="E438" s="53"/>
-      <c r="F438" s="21"/>
-    </row>
-    <row r="439" spans="1:6">
+      <c r="F438" s="53"/>
+      <c r="G438" s="21"/>
+    </row>
+    <row r="439" spans="1:7">
       <c r="A439" s="3" t="s">
         <v>58</v>
       </c>
@@ -15039,11 +15727,12 @@
         <v>598</v>
       </c>
       <c r="E439" s="53"/>
-      <c r="F439" s="25" t="s">
+      <c r="F439" s="53"/>
+      <c r="G439" s="25" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="440" spans="1:6">
+    <row r="440" spans="1:7">
       <c r="A440" s="3" t="s">
         <v>58</v>
       </c>
@@ -15057,9 +15746,10 @@
         <v>1115</v>
       </c>
       <c r="E440" s="62"/>
-      <c r="F440" s="7"/>
-    </row>
-    <row r="441" spans="1:6">
+      <c r="F440" s="62"/>
+      <c r="G440" s="7"/>
+    </row>
+    <row r="441" spans="1:7">
       <c r="A441" s="3" t="s">
         <v>58</v>
       </c>
@@ -15071,9 +15761,10 @@
       </c>
       <c r="D441" s="3"/>
       <c r="E441" s="53"/>
-      <c r="F441" s="21"/>
-    </row>
-    <row r="442" spans="1:6">
+      <c r="F441" s="53"/>
+      <c r="G441" s="21"/>
+    </row>
+    <row r="442" spans="1:7">
       <c r="A442" s="3" t="s">
         <v>58</v>
       </c>
@@ -15087,11 +15778,12 @@
         <v>592</v>
       </c>
       <c r="E442" s="53"/>
-      <c r="F442" s="8" t="s">
+      <c r="F442" s="53"/>
+      <c r="G442" s="8" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="443" spans="1:6" ht="31.5">
+    <row r="443" spans="1:7" ht="31.75">
       <c r="A443" s="3" t="s">
         <v>58</v>
       </c>
@@ -15105,9 +15797,10 @@
         <v>595</v>
       </c>
       <c r="E443" s="53"/>
-      <c r="F443" s="5"/>
-    </row>
-    <row r="444" spans="1:6" ht="31.5">
+      <c r="F443" s="53"/>
+      <c r="G443" s="5"/>
+    </row>
+    <row r="444" spans="1:7" ht="31.75">
       <c r="A444" s="3" t="s">
         <v>58</v>
       </c>
@@ -15121,9 +15814,10 @@
         <v>598</v>
       </c>
       <c r="E444" s="53"/>
-      <c r="F444" s="5"/>
-    </row>
-    <row r="445" spans="1:6">
+      <c r="F444" s="53"/>
+      <c r="G444" s="5"/>
+    </row>
+    <row r="445" spans="1:7">
       <c r="A445" s="3" t="s">
         <v>58</v>
       </c>
@@ -15137,9 +15831,10 @@
         <v>1121</v>
       </c>
       <c r="E445" s="53"/>
-      <c r="F445" s="3"/>
-    </row>
-    <row r="446" spans="1:6" ht="31.5">
+      <c r="F445" s="53"/>
+      <c r="G445" s="3"/>
+    </row>
+    <row r="446" spans="1:7" ht="31.75">
       <c r="A446" s="3" t="s">
         <v>58</v>
       </c>
@@ -15153,7 +15848,8 @@
         <v>1118</v>
       </c>
       <c r="E446" s="53"/>
-      <c r="F446" s="3"/>
+      <c r="F446" s="53"/>
+      <c r="G446" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -15173,14 +15869,14 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="45.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="81.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.640625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="81.35546875" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.85546875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
@@ -15266,7 +15962,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="126">
+    <row r="5" spans="1:7" ht="126.9">
       <c r="A5" s="3" t="s">
         <v>71</v>
       </c>
@@ -15318,19 +16014,19 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="68.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="100" style="4" customWidth="1"/>
-    <col min="5" max="6" width="22.875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="22.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="20" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.85546875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
@@ -15471,7 +16167,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="31.5">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>811</v>
       </c>
@@ -16024,7 +16720,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="63">
+    <row r="37" spans="1:7" ht="63.45">
       <c r="A37" s="3" t="s">
         <v>257</v>
       </c>
@@ -16045,7 +16741,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="31.5">
+    <row r="38" spans="1:7" ht="31.75">
       <c r="A38" s="3" t="s">
         <v>527</v>
       </c>
@@ -16140,7 +16836,7 @@
       </c>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" ht="47.25">
+    <row r="43" spans="1:7" ht="47.6">
       <c r="A43" s="3" t="s">
         <v>274</v>
       </c>
@@ -16177,19 +16873,19 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="41" customWidth="1"/>
-    <col min="2" max="2" width="47.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="80.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="41" customWidth="1"/>
+    <col min="2" max="2" width="47.35546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="80.85546875" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="27" customWidth="1"/>
+    <col min="8" max="256" width="8.85546875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.85546875" style="27" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="34" customFormat="1" ht="30.95" customHeight="1">
+    <row r="1" spans="1:256" s="34" customFormat="1" ht="31" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>783</v>
       </c>
@@ -16461,7 +17157,7 @@
       <c r="IU1" s="33"/>
       <c r="IV1" s="33"/>
     </row>
-    <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>865</v>
       </c>
@@ -16480,7 +17176,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>868</v>
       </c>
@@ -16499,7 +17195,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>870</v>
       </c>
@@ -16537,7 +17233,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>874</v>
       </c>
@@ -16556,7 +17252,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>877</v>
       </c>
@@ -16575,7 +17271,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>880</v>
       </c>
@@ -16613,7 +17309,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>886</v>
       </c>
@@ -16632,7 +17328,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>888</v>
       </c>
@@ -16651,7 +17347,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>890</v>
       </c>
@@ -16689,7 +17385,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>895</v>
       </c>
@@ -16708,7 +17404,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>897</v>
       </c>
@@ -16765,7 +17461,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>899</v>
       </c>
@@ -16784,7 +17480,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="19" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>901</v>
       </c>
@@ -16803,7 +17499,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>903</v>
       </c>
@@ -16822,7 +17518,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="21" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>905</v>
       </c>
@@ -16841,7 +17537,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>908</v>
       </c>
@@ -16860,7 +17556,7 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>910</v>
       </c>
@@ -16879,7 +17575,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>912</v>
       </c>
@@ -16898,7 +17594,7 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>914</v>
       </c>
@@ -16917,7 +17613,7 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>917</v>
       </c>
@@ -16936,7 +17632,7 @@
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="27" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>919</v>
       </c>
@@ -16955,7 +17651,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>922</v>
       </c>
@@ -16974,7 +17670,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="29" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>924</v>
       </c>
@@ -16993,7 +17689,7 @@
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="30" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>926</v>
       </c>
@@ -17012,7 +17708,7 @@
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="31" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>928</v>
       </c>
@@ -17031,7 +17727,7 @@
       </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="32" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>931</v>
       </c>
@@ -17050,7 +17746,7 @@
       </c>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="33" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>934</v>
       </c>
@@ -17069,7 +17765,7 @@
       </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="34" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>937</v>
       </c>
@@ -17088,7 +17784,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="35" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>940</v>
       </c>
@@ -17107,7 +17803,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="36" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>943</v>
       </c>
@@ -17126,7 +17822,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="37" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>946</v>
       </c>
@@ -17145,7 +17841,7 @@
       </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="38" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>949</v>
       </c>
@@ -17164,7 +17860,7 @@
       </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="39" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>952</v>
       </c>
@@ -17183,7 +17879,7 @@
       </c>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="30.95" customHeight="1">
+    <row r="40" spans="1:7" ht="31" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>955</v>
       </c>
@@ -17219,7 +17915,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="42" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A42" s="5" t="s">
         <v>962</v>
       </c>
@@ -17236,7 +17932,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" ht="30.95" customHeight="1">
+    <row r="43" spans="1:7" ht="31" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>965</v>
       </c>
@@ -17274,7 +17970,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="45" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>973</v>
       </c>
@@ -17327,7 +18023,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="48" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A48" s="5" t="s">
         <v>983</v>
       </c>
@@ -17344,7 +18040,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:256" s="49" customFormat="1" ht="31.5">
+    <row r="49" spans="1:256" s="49" customFormat="1" ht="31.75">
       <c r="A49" s="40" t="s">
         <v>986</v>
       </c>
@@ -17628,21 +18324,21 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="41.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.35546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="41.35546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="29" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="27" customWidth="1"/>
+    <col min="8" max="256" width="8.85546875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.85546875" style="27" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>783</v>
       </c>
@@ -18111,19 +18807,19 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="54.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="75.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="54.640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="75.640625" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="27" customWidth="1"/>
+    <col min="8" max="256" width="8.85546875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.85546875" style="27" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.95" customHeight="1">
+    <row r="1" spans="1:7" ht="31" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>783</v>
       </c>
@@ -18146,7 +18842,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>1036</v>
       </c>
@@ -18167,7 +18863,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>1041</v>
       </c>
@@ -18227,21 +18923,21 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
     <col min="1" max="1" width="10.5" style="35" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="53.35546875" style="28" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="28" customWidth="1"/>
     <col min="4" max="4" width="44.5" style="28" customWidth="1"/>
-    <col min="5" max="5" width="31.875" style="28" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="28" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="28" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="28" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="28" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="29" customWidth="1"/>
+    <col min="8" max="256" width="8.85546875" style="28" customWidth="1"/>
+    <col min="257" max="1025" width="8.85546875" style="29" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="37" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" s="37" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>783</v>
       </c>
@@ -18534,7 +19230,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A3" s="30" t="s">
         <v>649</v>
       </c>
@@ -18553,7 +19249,7 @@
       </c>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>578</v>
       </c>
@@ -18572,7 +19268,7 @@
       </c>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A5" s="30" t="s">
         <v>581</v>
       </c>
@@ -18591,7 +19287,7 @@
       </c>
       <c r="G5" s="30"/>
     </row>
-    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A6" s="30" t="s">
         <v>584</v>
       </c>
@@ -18690,7 +19386,7 @@
       </c>
       <c r="G10" s="30"/>
     </row>
-    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A11" s="30" t="s">
         <v>601</v>
       </c>
@@ -18709,7 +19405,7 @@
       </c>
       <c r="G11" s="30"/>
     </row>
-    <row r="12" spans="1:256" ht="33.6" customHeight="1">
+    <row r="12" spans="1:256" ht="33.65" customHeight="1">
       <c r="A12" s="30" t="s">
         <v>604</v>
       </c>
@@ -18871,7 +19567,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A20" s="30" t="s">
         <v>722</v>
       </c>
@@ -18936,7 +19632,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="31.5">
+    <row r="23" spans="1:7" ht="31.75">
       <c r="A23" s="47" t="s">
         <v>1123</v>
       </c>
@@ -18987,7 +19683,7 @@
       <c r="F25" s="47"/>
       <c r="G25" s="47"/>
     </row>
-    <row r="26" spans="1:7" ht="31.5">
+    <row r="26" spans="1:7" ht="31.75">
       <c r="A26" s="47" t="s">
         <v>1118</v>
       </c>
@@ -19039,16 +19735,16 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
     <col min="1" max="1" width="19" style="32" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="53.35546875" style="27" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="27" customWidth="1"/>
     <col min="4" max="4" width="25" style="27" customWidth="1"/>
     <col min="5" max="5" width="46" style="27" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="27" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="27" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="27" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="27" customWidth="1"/>
+    <col min="8" max="1025" width="8.85546875" style="27" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>

--- a/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF68DAD0-36DA-4FCD-BD76-67E44FE8D87D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1B1AA2-B6A1-4265-8875-474FBBF42034}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="0" windowWidth="24300" windowHeight="16860" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -4667,17 +4667,17 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="13.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="57.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="57.33203125" style="4" customWidth="1"/>
     <col min="3" max="5" width="10.5" style="4" customWidth="1"/>
-    <col min="6" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="27" customWidth="1"/>
+    <col min="6" max="256" width="8.83203125" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.83203125" style="27" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A2" s="2">
         <v>8</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A3" s="3">
         <v>8.1</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>59</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>63</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>66</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>69</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>75</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>78</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>81</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>84</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>87</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>90</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A15" s="3">
         <v>8.1999999999999993</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>93</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>96</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>97</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="19" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>98</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>99</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="21" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>102</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>105</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>108</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>111</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>114</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>117</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="27" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>120</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>123</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="29" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>126</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="30" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>128</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="31" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>132</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="32" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A32" s="3">
         <v>8.3000000000000007</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="33" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>134</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="34" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>137</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="35" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>138</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="36" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>139</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="37" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>140</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="38" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>143</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="39" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>146</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="40" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>149</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="41" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>152</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="42" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>155</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="43" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A43" s="3">
         <v>8.4</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="44" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>156</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="45" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>159</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="46" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>160</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="47" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>161</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="48" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>162</v>
       </c>
@@ -5064,7 +5064,7 @@
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
     </row>
-    <row r="49" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="49" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>163</v>
       </c>
@@ -5075,7 +5075,7 @@
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
     </row>
-    <row r="50" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="50" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>164</v>
       </c>
@@ -5086,7 +5086,7 @@
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="51" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>165</v>
       </c>
@@ -5097,7 +5097,7 @@
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
     </row>
-    <row r="52" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="52" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>166</v>
       </c>
@@ -5108,7 +5108,7 @@
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
     </row>
-    <row r="53" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="53" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A53" s="3">
         <v>8.5</v>
       </c>
@@ -5119,7 +5119,7 @@
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
     </row>
-    <row r="54" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="54" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>167</v>
       </c>
@@ -5130,7 +5130,7 @@
       <c r="D54" s="26"/>
       <c r="E54" s="26"/>
     </row>
-    <row r="55" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="55" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>170</v>
       </c>
@@ -5141,7 +5141,7 @@
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
     </row>
-    <row r="56" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="56" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>171</v>
       </c>
@@ -5152,7 +5152,7 @@
       <c r="D56" s="26"/>
       <c r="E56" s="26"/>
     </row>
-    <row r="57" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="57" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>172</v>
       </c>
@@ -5163,7 +5163,7 @@
       <c r="D57" s="26"/>
       <c r="E57" s="26"/>
     </row>
-    <row r="58" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="58" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>173</v>
       </c>
@@ -5174,7 +5174,7 @@
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
     </row>
-    <row r="59" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="59" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>176</v>
       </c>
@@ -5185,7 +5185,7 @@
       <c r="D59" s="26"/>
       <c r="E59" s="26"/>
     </row>
-    <row r="60" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="60" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>179</v>
       </c>
@@ -5196,7 +5196,7 @@
       <c r="D60" s="26"/>
       <c r="E60" s="26"/>
     </row>
-    <row r="61" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="61" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>182</v>
       </c>
@@ -5207,7 +5207,7 @@
       <c r="D61" s="26"/>
       <c r="E61" s="26"/>
     </row>
-    <row r="62" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="62" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>185</v>
       </c>
@@ -5218,7 +5218,7 @@
       <c r="D62" s="26"/>
       <c r="E62" s="26"/>
     </row>
-    <row r="63" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="63" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>188</v>
       </c>
@@ -5229,7 +5229,7 @@
       <c r="D63" s="26"/>
       <c r="E63" s="26"/>
     </row>
-    <row r="64" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="64" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A64" s="3">
         <v>8.6</v>
       </c>
@@ -5240,7 +5240,7 @@
       <c r="D64" s="26"/>
       <c r="E64" s="26"/>
     </row>
-    <row r="65" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="65" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>189</v>
       </c>
@@ -5251,7 +5251,7 @@
       <c r="D65" s="26"/>
       <c r="E65" s="26"/>
     </row>
-    <row r="66" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="66" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>192</v>
       </c>
@@ -5262,7 +5262,7 @@
       <c r="D66" s="26"/>
       <c r="E66" s="26"/>
     </row>
-    <row r="67" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="67" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>193</v>
       </c>
@@ -5273,7 +5273,7 @@
       <c r="D67" s="26"/>
       <c r="E67" s="26"/>
     </row>
-    <row r="68" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="68" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>194</v>
       </c>
@@ -5284,7 +5284,7 @@
       <c r="D68" s="26"/>
       <c r="E68" s="26"/>
     </row>
-    <row r="69" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="69" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>195</v>
       </c>
@@ -5295,7 +5295,7 @@
       <c r="D69" s="26"/>
       <c r="E69" s="26"/>
     </row>
-    <row r="70" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="70" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>198</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="31.5">
+    <row r="74" spans="1:5" ht="31">
       <c r="A74" s="3" t="s">
         <v>205</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="31.5">
+    <row r="85" spans="1:2" ht="31">
       <c r="A85" s="3" t="s">
         <v>217</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="31.5">
+    <row r="96" spans="1:2" ht="31">
       <c r="A96" s="3" t="s">
         <v>229</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="31.5">
+    <row r="114" spans="1:2" ht="31">
       <c r="A114" s="3" t="s">
         <v>255</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="28.5">
+    <row r="116" spans="1:2" ht="28">
       <c r="A116" s="3" t="s">
         <v>258</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="47.25">
+    <row r="121" spans="1:2" ht="46.5">
       <c r="A121" s="3" t="s">
         <v>267</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="63">
+    <row r="123" spans="1:2" ht="62">
       <c r="A123" s="3" t="s">
         <v>272</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="31.5">
+    <row r="142" spans="1:2" ht="31">
       <c r="A142" s="3" t="s">
         <v>296</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="31.5">
+    <row r="144" spans="1:2" ht="31">
       <c r="A144" s="3" t="s">
         <v>301</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="47.25">
+    <row r="145" spans="1:2" ht="46.5">
       <c r="A145" s="3" t="s">
         <v>303</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="47.25">
+    <row r="146" spans="1:2" ht="46.5">
       <c r="A146" s="3" t="s">
         <v>305</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="47.25">
+    <row r="149" spans="1:2" ht="46.5">
       <c r="A149" s="3" t="s">
         <v>311</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="63">
+    <row r="151" spans="1:2" ht="62">
       <c r="A151" s="3" t="s">
         <v>315</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="31.5">
+    <row r="152" spans="1:2" ht="31">
       <c r="A152" s="3" t="s">
         <v>317</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="31.5">
+    <row r="153" spans="1:2" ht="31">
       <c r="A153" s="3" t="s">
         <v>319</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="31.5">
+    <row r="161" spans="1:2" ht="31">
       <c r="A161" s="3" t="s">
         <v>327</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="31.5">
+    <row r="163" spans="1:2" ht="31">
       <c r="A163" s="3" t="s">
         <v>329</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="31.5">
+    <row r="164" spans="1:2" ht="31">
       <c r="A164" s="3" t="s">
         <v>330</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="47.25">
+    <row r="165" spans="1:2" ht="46.5">
       <c r="A165" s="3" t="s">
         <v>332</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="31.5">
+    <row r="168" spans="1:2" ht="31">
       <c r="A168" s="3" t="s">
         <v>336</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="63">
+    <row r="170" spans="1:2" ht="62">
       <c r="A170" s="3" t="s">
         <v>340</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="31.5">
+    <row r="171" spans="1:2" ht="31">
       <c r="A171" s="3" t="s">
         <v>341</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="31.5">
+    <row r="172" spans="1:2" ht="31">
       <c r="A172" s="3" t="s">
         <v>342</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="47.25">
+    <row r="184" spans="1:2" ht="46.5">
       <c r="A184" s="3" t="s">
         <v>332</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="31.5">
+    <row r="187" spans="1:2" ht="31">
       <c r="A187" s="3" t="s">
         <v>360</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="63">
+    <row r="189" spans="1:2" ht="62">
       <c r="A189" s="3" t="s">
         <v>363</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="31.5">
+    <row r="190" spans="1:2" ht="31">
       <c r="A190" s="3" t="s">
         <v>364</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="31.5">
+    <row r="191" spans="1:2" ht="31">
       <c r="A191" s="3" t="s">
         <v>365</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="47.25">
+    <row r="197" spans="1:2" ht="46.5">
       <c r="A197" s="3" t="s">
         <v>375</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="47.25">
+    <row r="198" spans="1:2" ht="46.5">
       <c r="A198" s="3" t="s">
         <v>377</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="31.5">
+    <row r="201" spans="1:2" ht="31">
       <c r="A201" s="3" t="s">
         <v>382</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="31.5">
+    <row r="202" spans="1:2" ht="31">
       <c r="A202" s="3" t="s">
         <v>384</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="31.5">
+    <row r="215" spans="1:2" ht="31">
       <c r="A215" s="3" t="s">
         <v>409</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="47.25">
+    <row r="233" spans="1:2" ht="46.5">
       <c r="A233" s="3" t="s">
         <v>432</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="31.5">
+    <row r="235" spans="1:2" ht="31">
       <c r="A235" s="3" t="s">
         <v>439</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="31.5">
+    <row r="236" spans="1:2" ht="31">
       <c r="A236" s="3" t="s">
         <v>442</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="47.25">
+    <row r="239" spans="1:2" ht="46.5">
       <c r="A239" s="3" t="s">
         <v>451</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="47.25">
+    <row r="240" spans="1:2" ht="46.5">
       <c r="A240" s="3" t="s">
         <v>454</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="78.75">
+    <row r="241" spans="1:2" ht="77.5">
       <c r="A241" s="3" t="s">
         <v>457</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="47.25">
+    <row r="242" spans="1:2" ht="46.5">
       <c r="A242" s="3" t="s">
         <v>460</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="78.75">
+    <row r="243" spans="1:2" ht="77.5">
       <c r="A243" s="3" t="s">
         <v>463</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="31.5">
+    <row r="244" spans="1:2" ht="31">
       <c r="A244" s="3" t="s">
         <v>466</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="47.25">
+    <row r="247" spans="1:2" ht="46.5">
       <c r="A247" s="3" t="s">
         <v>471</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="31.5">
+    <row r="249" spans="1:2" ht="31">
       <c r="A249" s="3" t="s">
         <v>476</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="31.5">
+    <row r="250" spans="1:2" ht="31">
       <c r="A250" s="3" t="s">
         <v>478</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="31.5">
+    <row r="254" spans="1:2" ht="31">
       <c r="A254" s="3" t="s">
         <v>484</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="31.5">
+    <row r="255" spans="1:2" ht="31">
       <c r="A255" s="3" t="s">
         <v>486</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="31.5">
+    <row r="256" spans="1:2" ht="31">
       <c r="A256" s="3" t="s">
         <v>489</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="47.25">
+    <row r="257" spans="1:2" ht="46.5">
       <c r="A257" s="3" t="s">
         <v>491</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="47.25">
+    <row r="258" spans="1:2" ht="46.5">
       <c r="A258" s="3" t="s">
         <v>494</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="63">
+    <row r="259" spans="1:2" ht="62">
       <c r="A259" s="3" t="s">
         <v>496</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="78.75">
+    <row r="260" spans="1:2" ht="77.5">
       <c r="A260" s="3" t="s">
         <v>498</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="78.75">
+    <row r="261" spans="1:2" ht="77.5">
       <c r="A261" s="3" t="s">
         <v>500</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="47.25">
+    <row r="262" spans="1:2" ht="46.5">
       <c r="A262" s="3" t="s">
         <v>503</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="47.25">
+    <row r="265" spans="1:2" ht="46.5">
       <c r="A265" s="3" t="s">
         <v>507</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="31.5">
+    <row r="267" spans="1:2" ht="31">
       <c r="A267" s="3" t="s">
         <v>509</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="31.5">
+    <row r="268" spans="1:2" ht="31">
       <c r="A268" s="3" t="s">
         <v>510</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="31.5">
+    <row r="272" spans="1:2" ht="31">
       <c r="A272" s="3" t="s">
         <v>514</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="31.5">
+    <row r="273" spans="1:2" ht="31">
       <c r="A273" s="3" t="s">
         <v>515</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="31.5">
+    <row r="274" spans="1:2" ht="31">
       <c r="A274" s="3" t="s">
         <v>516</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="47.25">
+    <row r="275" spans="1:2" ht="46.5">
       <c r="A275" s="3" t="s">
         <v>517</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="47.25">
+    <row r="276" spans="1:2" ht="46.5">
       <c r="A276" s="3" t="s">
         <v>518</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="63">
+    <row r="277" spans="1:2" ht="62">
       <c r="A277" s="3" t="s">
         <v>519</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="78.75">
+    <row r="278" spans="1:2" ht="77.5">
       <c r="A278" s="3" t="s">
         <v>520</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="78.75">
+    <row r="279" spans="1:2" ht="77.5">
       <c r="A279" s="3" t="s">
         <v>521</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="47.25">
+    <row r="280" spans="1:2" ht="46.5">
       <c r="A280" s="3" t="s">
         <v>522</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="31.5">
+    <row r="283" spans="1:2" ht="31">
       <c r="A283" s="3" t="s">
         <v>524</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="31.5">
+    <row r="285" spans="1:2" ht="31">
       <c r="A285" s="3" t="s">
         <v>528</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="47.25">
+    <row r="288" spans="1:2" ht="46.5">
       <c r="A288" s="3" t="s">
         <v>537</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="78.75">
+    <row r="291" spans="1:2" ht="77.5">
       <c r="A291" s="3" t="s">
         <v>545</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="47.25">
+    <row r="294" spans="1:2" ht="46.5">
       <c r="A294" s="3" t="s">
         <v>549</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="31.5">
+    <row r="296" spans="1:2" ht="31">
       <c r="A296" s="3" t="s">
         <v>551</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="31.5">
+    <row r="297" spans="1:2" ht="31">
       <c r="A297" s="3" t="s">
         <v>552</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="31.5">
+    <row r="301" spans="1:2" ht="31">
       <c r="A301" s="3" t="s">
         <v>556</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="31.5">
+    <row r="302" spans="1:2" ht="31">
       <c r="A302" s="3" t="s">
         <v>557</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="31.5">
+    <row r="303" spans="1:2" ht="31">
       <c r="A303" s="3" t="s">
         <v>558</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="47.25">
+    <row r="304" spans="1:2" ht="46.5">
       <c r="A304" s="3" t="s">
         <v>559</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="47.25">
+    <row r="305" spans="1:2" ht="46.5">
       <c r="A305" s="3" t="s">
         <v>560</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="63">
+    <row r="306" spans="1:2" ht="62">
       <c r="A306" s="3" t="s">
         <v>561</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="78.75">
+    <row r="307" spans="1:2" ht="77.5">
       <c r="A307" s="3" t="s">
         <v>562</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="78.75">
+    <row r="308" spans="1:2" ht="77.5">
       <c r="A308" s="3" t="s">
         <v>563</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="47.25">
+    <row r="309" spans="1:2" ht="46.5">
       <c r="A309" s="3" t="s">
         <v>564</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="94.5">
+    <row r="313" spans="1:2" ht="93">
       <c r="A313" s="3" t="s">
         <v>566</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="31.5">
+    <row r="314" spans="1:2" ht="31">
       <c r="A314" s="3" t="s">
         <v>569</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="31.5">
+    <row r="320" spans="1:2" ht="31">
       <c r="A320" s="3" t="s">
         <v>584</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="31.5">
+    <row r="324" spans="1:2" ht="31">
       <c r="A324" s="3" t="s">
         <v>595</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="31.5">
+    <row r="326" spans="1:2" ht="31">
       <c r="A326" s="3" t="s">
         <v>601</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="63">
+    <row r="328" spans="1:2" ht="62">
       <c r="A328" s="3" t="s">
         <v>607</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="47.25">
+    <row r="329" spans="1:2" ht="46.5">
       <c r="A329" s="3" t="s">
         <v>609</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="31.5">
+    <row r="331" spans="1:2" ht="31">
       <c r="A331" s="3" t="s">
         <v>613</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="31.5">
+    <row r="332" spans="1:2" ht="31">
       <c r="A332" s="3" t="s">
         <v>616</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="31.5">
+    <row r="339" spans="1:2" ht="31">
       <c r="A339" s="3" t="s">
         <v>630</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="94.5">
+    <row r="344" spans="1:2" ht="93">
       <c r="A344" s="3" t="s">
         <v>638</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="31.5">
+    <row r="345" spans="1:2" ht="31">
       <c r="A345" s="3" t="s">
         <v>639</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="31.5">
+    <row r="351" spans="1:2" ht="31">
       <c r="A351" s="3" t="s">
         <v>652</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="31.5">
+    <row r="352" spans="1:2" ht="31">
       <c r="A352" s="3" t="s">
         <v>654</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="31.5">
+    <row r="353" spans="1:2" ht="31">
       <c r="A353" s="3" t="s">
         <v>656</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="31.5">
+    <row r="354" spans="1:2" ht="46.5">
       <c r="A354" s="3" t="s">
         <v>658</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="31.5">
+    <row r="361" spans="1:2" ht="31">
       <c r="A361" s="3" t="s">
         <v>667</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="78.75">
+    <row r="366" spans="1:2" ht="77.5">
       <c r="A366" s="3" t="s">
         <v>671</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="31.5">
+    <row r="367" spans="1:2" ht="31">
       <c r="A367" s="3" t="s">
         <v>673</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="31.5">
+    <row r="371" spans="1:2" ht="31">
       <c r="A371" s="3" t="s">
         <v>679</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="31.5">
+    <row r="372" spans="1:2" ht="31">
       <c r="A372" s="3" t="s">
         <v>682</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="31.5">
+    <row r="374" spans="1:2" ht="31">
       <c r="A374" s="3" t="s">
         <v>687</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="31.5">
+    <row r="375" spans="1:2" ht="31">
       <c r="A375" s="3" t="s">
         <v>689</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="31.5">
+    <row r="376" spans="1:2" ht="46.5">
       <c r="A376" s="3" t="s">
         <v>691</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="31.5">
+    <row r="383" spans="1:2" ht="31">
       <c r="A383" s="3" t="s">
         <v>698</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="78.75">
+    <row r="388" spans="1:2" ht="77.5">
       <c r="A388" s="3" t="s">
         <v>702</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="31.5">
+    <row r="389" spans="1:2" ht="31">
       <c r="A389" s="3" t="s">
         <v>703</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="31.5">
+    <row r="396" spans="1:2" ht="31">
       <c r="A396" s="3" t="s">
         <v>714</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="31.5">
+    <row r="399" spans="1:2" ht="31">
       <c r="A399" s="3" t="s">
         <v>722</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="31.5">
+    <row r="404" spans="1:2" ht="31">
       <c r="A404" s="3" t="s">
         <v>732</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="31.5">
+    <row r="407" spans="1:2" ht="31">
       <c r="A407" s="3" t="s">
         <v>735</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="63">
+    <row r="409" spans="1:2" ht="62">
       <c r="A409" s="3" t="s">
         <v>737</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="47.25">
+    <row r="410" spans="1:2" ht="46.5">
       <c r="A410" s="3" t="s">
         <v>739</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="31.5">
+    <row r="412" spans="1:2" ht="31">
       <c r="A412" s="3" t="s">
         <v>742</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="31.5">
+    <row r="419" spans="1:2" ht="31">
       <c r="A419" s="3" t="s">
         <v>749</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="78.75">
+    <row r="431" spans="1:2" ht="77.5">
       <c r="A431" s="3" t="s">
         <v>758</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="31.5">
+    <row r="432" spans="1:2" ht="31">
       <c r="A432" s="3" t="s">
         <v>759</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="31.5">
+    <row r="439" spans="1:2" ht="31">
       <c r="A439" s="3" t="s">
         <v>768</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="47.25">
+    <row r="440" spans="1:2" ht="46.5">
       <c r="A440" s="3" t="s">
         <v>770</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="31.5">
+    <row r="448" spans="1:2" ht="31">
       <c r="A448" s="3" t="s">
         <v>779</v>
       </c>
@@ -8361,25 +8361,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D219" sqref="D219"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="14.25" style="4" customWidth="1"/>
     <col min="2" max="2" width="12" style="4" customWidth="1"/>
     <col min="3" max="3" width="43.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.875" style="52" customWidth="1"/>
-    <col min="6" max="6" width="67.625" style="52" customWidth="1"/>
-    <col min="7" max="7" width="84.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="52" customWidth="1"/>
+    <col min="6" max="6" width="67.58203125" style="52" customWidth="1"/>
+    <col min="7" max="7" width="84.58203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="9" style="64"/>
     <col min="9" max="1027" width="8.5" style="27" customWidth="1"/>
     <col min="1028" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75">
+    <row r="1" spans="1:8" s="60" customFormat="1" ht="18.5">
       <c r="A1" s="51" t="s">
         <v>52</v>
       </c>
@@ -8433,7 +8433,7 @@
       <c r="F3" s="56"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:8" ht="31.5">
+    <row r="4" spans="1:8" ht="31">
       <c r="A4" s="3" t="s">
         <v>58</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="31.5">
+    <row r="5" spans="1:8" ht="31">
       <c r="A5" s="3" t="s">
         <v>58</v>
       </c>
@@ -8492,7 +8492,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="31.5">
+    <row r="7" spans="1:8" ht="31">
       <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="31.5">
+    <row r="8" spans="1:8" ht="31">
       <c r="A8" s="3" t="s">
         <v>58</v>
       </c>
@@ -8549,7 +8549,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="31.5">
+    <row r="10" spans="1:8" ht="31">
       <c r="A10" s="3" t="s">
         <v>58</v>
       </c>
@@ -8568,7 +8568,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="47.25">
+    <row r="11" spans="1:8" ht="46.5">
       <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
@@ -8587,7 +8587,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="31.5">
+    <row r="12" spans="1:8" ht="31">
       <c r="A12" s="3" t="s">
         <v>58</v>
       </c>
@@ -8606,7 +8606,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="31.5">
+    <row r="13" spans="1:8" ht="31">
       <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
@@ -8659,7 +8659,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="31.5">
+    <row r="16" spans="1:8" ht="31">
       <c r="A16" s="3" t="s">
         <v>58</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="31.5">
+    <row r="17" spans="1:7" ht="31">
       <c r="A17" s="3" t="s">
         <v>58</v>
       </c>
@@ -8718,7 +8718,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="31.5">
+    <row r="19" spans="1:7" ht="31">
       <c r="A19" s="3" t="s">
         <v>58</v>
       </c>
@@ -8775,7 +8775,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="31.5">
+    <row r="22" spans="1:7" ht="31">
       <c r="A22" s="65" t="s">
         <v>58</v>
       </c>
@@ -8794,7 +8794,7 @@
       </c>
       <c r="G22" s="65"/>
     </row>
-    <row r="23" spans="1:7" ht="31.5">
+    <row r="23" spans="1:7" ht="31">
       <c r="A23" s="3" t="s">
         <v>58</v>
       </c>
@@ -8906,7 +8906,7 @@
       </c>
       <c r="G28" s="65"/>
     </row>
-    <row r="29" spans="1:7" ht="31.5">
+    <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
         <v>58</v>
       </c>
@@ -8925,7 +8925,7 @@
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="47.25">
+    <row r="30" spans="1:7" ht="31">
       <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
@@ -9020,7 +9020,7 @@
       </c>
       <c r="G34" s="65"/>
     </row>
-    <row r="35" spans="1:7" ht="31.5">
+    <row r="35" spans="1:7" ht="31">
       <c r="A35" s="3" t="s">
         <v>58</v>
       </c>
@@ -9077,7 +9077,7 @@
       </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="47.25">
+    <row r="38" spans="1:7" ht="46.5">
       <c r="A38" s="3" t="s">
         <v>58</v>
       </c>
@@ -9149,7 +9149,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" ht="31.5">
+    <row r="42" spans="1:7" ht="31">
       <c r="A42" s="3" t="s">
         <v>58</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="31.5">
+    <row r="43" spans="1:7" ht="31">
       <c r="A43" s="3" t="s">
         <v>58</v>
       </c>
@@ -9208,7 +9208,7 @@
       </c>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="31.5">
+    <row r="45" spans="1:7" ht="31">
       <c r="A45" s="3" t="s">
         <v>58</v>
       </c>
@@ -9265,7 +9265,7 @@
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="31.5">
+    <row r="48" spans="1:7" ht="31">
       <c r="A48" s="3" t="s">
         <v>58</v>
       </c>
@@ -9284,7 +9284,7 @@
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" ht="31.5">
+    <row r="49" spans="1:7" ht="31">
       <c r="A49" s="3" t="s">
         <v>58</v>
       </c>
@@ -9303,7 +9303,7 @@
       </c>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="31.5">
+    <row r="50" spans="1:7" ht="31">
       <c r="A50" s="3" t="s">
         <v>58</v>
       </c>
@@ -9356,7 +9356,7 @@
       <c r="F52" s="53"/>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:7" ht="31.5">
+    <row r="53" spans="1:7" ht="31">
       <c r="A53" s="3" t="s">
         <v>58</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="31.5">
+    <row r="54" spans="1:7" ht="31">
       <c r="A54" s="3" t="s">
         <v>58</v>
       </c>
@@ -9415,7 +9415,7 @@
       </c>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" ht="31.5">
+    <row r="56" spans="1:7" ht="31">
       <c r="A56" s="3" t="s">
         <v>58</v>
       </c>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" ht="31.5">
+    <row r="58" spans="1:7" ht="31">
       <c r="A58" s="3" t="s">
         <v>58</v>
       </c>
@@ -9472,7 +9472,7 @@
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" ht="31.5">
+    <row r="59" spans="1:7" ht="31">
       <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
@@ -9491,7 +9491,7 @@
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" ht="31.5">
+    <row r="60" spans="1:7" ht="31">
       <c r="A60" s="3" t="s">
         <v>58</v>
       </c>
@@ -9544,7 +9544,7 @@
       <c r="F62" s="53"/>
       <c r="G62" s="10"/>
     </row>
-    <row r="63" spans="1:7" ht="31.5">
+    <row r="63" spans="1:7" ht="31">
       <c r="A63" s="3" t="s">
         <v>58</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="31.5">
+    <row r="64" spans="1:7" ht="31">
       <c r="A64" s="3" t="s">
         <v>58</v>
       </c>
@@ -9603,7 +9603,7 @@
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" ht="31.5">
+    <row r="66" spans="1:7" ht="31">
       <c r="A66" s="3" t="s">
         <v>58</v>
       </c>
@@ -9641,7 +9641,7 @@
       </c>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" ht="31.5">
+    <row r="68" spans="1:7" ht="31">
       <c r="A68" s="3" t="s">
         <v>58</v>
       </c>
@@ -9698,7 +9698,7 @@
       </c>
       <c r="G70" s="65"/>
     </row>
-    <row r="71" spans="1:7" ht="31.5">
+    <row r="71" spans="1:7" ht="31">
       <c r="A71" s="3" t="s">
         <v>58</v>
       </c>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" ht="31.5">
+    <row r="72" spans="1:7" ht="31">
       <c r="A72" s="3" t="s">
         <v>58</v>
       </c>
@@ -9736,7 +9736,7 @@
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" ht="31.5">
+    <row r="73" spans="1:7" ht="31">
       <c r="A73" s="3" t="s">
         <v>58</v>
       </c>
@@ -9789,7 +9789,7 @@
       <c r="F75" s="53"/>
       <c r="G75" s="10"/>
     </row>
-    <row r="76" spans="1:7" ht="31.5">
+    <row r="76" spans="1:7" ht="31">
       <c r="A76" s="3" t="s">
         <v>58</v>
       </c>
@@ -9810,7 +9810,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="31.5">
+    <row r="77" spans="1:7" ht="31">
       <c r="A77" s="3" t="s">
         <v>58</v>
       </c>
@@ -9848,7 +9848,7 @@
       </c>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7" ht="31.5">
+    <row r="79" spans="1:7" ht="31">
       <c r="A79" s="3" t="s">
         <v>58</v>
       </c>
@@ -9867,7 +9867,7 @@
       </c>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7" ht="31.5">
+    <row r="80" spans="1:7" ht="31">
       <c r="A80" s="3" t="s">
         <v>58</v>
       </c>
@@ -9886,7 +9886,7 @@
       </c>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" ht="31.5">
+    <row r="81" spans="1:7" ht="31">
       <c r="A81" s="3" t="s">
         <v>58</v>
       </c>
@@ -9958,7 +9958,7 @@
       <c r="F84" s="53"/>
       <c r="G84" s="10"/>
     </row>
-    <row r="85" spans="1:7" ht="31.5">
+    <row r="85" spans="1:7" ht="31">
       <c r="A85" s="3" t="s">
         <v>58</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="31.5">
+    <row r="86" spans="1:7" ht="31">
       <c r="A86" s="3" t="s">
         <v>58</v>
       </c>
@@ -10017,7 +10017,7 @@
       </c>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" ht="31.5">
+    <row r="88" spans="1:7" ht="31">
       <c r="A88" s="3" t="s">
         <v>58</v>
       </c>
@@ -10074,7 +10074,7 @@
       </c>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" ht="31.5">
+    <row r="91" spans="1:7" ht="31">
       <c r="A91" s="3" t="s">
         <v>58</v>
       </c>
@@ -10093,7 +10093,7 @@
       </c>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" ht="31.5">
+    <row r="92" spans="1:7" ht="31">
       <c r="A92" s="3" t="s">
         <v>58</v>
       </c>
@@ -10112,7 +10112,7 @@
       </c>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" ht="31.5">
+    <row r="93" spans="1:7" ht="31">
       <c r="A93" s="3" t="s">
         <v>58</v>
       </c>
@@ -10165,7 +10165,7 @@
       <c r="F95" s="53"/>
       <c r="G95" s="10"/>
     </row>
-    <row r="96" spans="1:7" ht="31.5">
+    <row r="96" spans="1:7" ht="31">
       <c r="A96" s="3" t="s">
         <v>58</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="31.5">
+    <row r="97" spans="1:7" ht="31">
       <c r="A97" s="3" t="s">
         <v>58</v>
       </c>
@@ -10224,7 +10224,7 @@
       </c>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7" ht="31.5">
+    <row r="99" spans="1:7" ht="31">
       <c r="A99" s="3" t="s">
         <v>58</v>
       </c>
@@ -10281,7 +10281,7 @@
       </c>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" ht="31.5">
+    <row r="102" spans="1:7" ht="31">
       <c r="A102" s="3" t="s">
         <v>58</v>
       </c>
@@ -10300,7 +10300,7 @@
       </c>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7" ht="31.5">
+    <row r="103" spans="1:7" ht="31">
       <c r="A103" s="3" t="s">
         <v>58</v>
       </c>
@@ -10319,7 +10319,7 @@
       </c>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7" ht="31.5">
+    <row r="104" spans="1:7" ht="31">
       <c r="A104" s="3" t="s">
         <v>58</v>
       </c>
@@ -10372,7 +10372,7 @@
       <c r="F106" s="53"/>
       <c r="G106" s="10"/>
     </row>
-    <row r="107" spans="1:7" ht="31.5">
+    <row r="107" spans="1:7" ht="31">
       <c r="A107" s="3" t="s">
         <v>58</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="31.5">
+    <row r="108" spans="1:7" ht="31">
       <c r="A108" s="3" t="s">
         <v>58</v>
       </c>
@@ -10431,7 +10431,7 @@
       </c>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7" ht="31.5">
+    <row r="110" spans="1:7" ht="31">
       <c r="A110" s="3" t="s">
         <v>58</v>
       </c>
@@ -10488,7 +10488,7 @@
       </c>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:7" ht="31.5">
+    <row r="113" spans="1:7" ht="31">
       <c r="A113" s="3" t="s">
         <v>58</v>
       </c>
@@ -10507,7 +10507,7 @@
       </c>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:7" ht="31.5">
+    <row r="114" spans="1:7" ht="31">
       <c r="A114" s="3" t="s">
         <v>58</v>
       </c>
@@ -10526,7 +10526,7 @@
       </c>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7" ht="31.5">
+    <row r="115" spans="1:7" ht="31">
       <c r="A115" s="3" t="s">
         <v>58</v>
       </c>
@@ -10579,7 +10579,7 @@
       <c r="F117" s="53"/>
       <c r="G117" s="10"/>
     </row>
-    <row r="118" spans="1:7" ht="31.5">
+    <row r="118" spans="1:7" ht="31">
       <c r="A118" s="3" t="s">
         <v>58</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="31.5">
+    <row r="119" spans="1:7" ht="31">
       <c r="A119" s="3" t="s">
         <v>58</v>
       </c>
@@ -10638,7 +10638,7 @@
       </c>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7" ht="31.5">
+    <row r="121" spans="1:7" ht="31">
       <c r="A121" s="3" t="s">
         <v>58</v>
       </c>
@@ -10733,7 +10733,7 @@
       </c>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7" ht="47.25">
+    <row r="126" spans="1:7" ht="46.5">
       <c r="A126" s="3" t="s">
         <v>58</v>
       </c>
@@ -10767,7 +10767,7 @@
       <c r="F127" s="53"/>
       <c r="G127" s="10"/>
     </row>
-    <row r="128" spans="1:7" ht="28.5">
+    <row r="128" spans="1:7" ht="28">
       <c r="A128" s="3" t="s">
         <v>58</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="28.5">
+    <row r="129" spans="1:7" ht="28">
       <c r="A129" s="3" t="s">
         <v>58</v>
       </c>
@@ -10832,7 +10832,7 @@
       </c>
       <c r="G130" s="11"/>
     </row>
-    <row r="131" spans="1:7" ht="28.5">
+    <row r="131" spans="1:7" ht="28">
       <c r="A131" s="3" t="s">
         <v>58</v>
       </c>
@@ -10895,7 +10895,7 @@
       </c>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="1:7" ht="31.5">
+    <row r="134" spans="1:7" ht="31">
       <c r="A134" s="65" t="s">
         <v>58</v>
       </c>
@@ -10914,7 +10914,7 @@
       </c>
       <c r="G134" s="65"/>
     </row>
-    <row r="135" spans="1:7" ht="31.5">
+    <row r="135" spans="1:7" ht="31">
       <c r="A135" s="3" t="s">
         <v>58</v>
       </c>
@@ -10935,7 +10935,7 @@
       </c>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="1:7" ht="78.75">
+    <row r="136" spans="1:7" ht="77.5">
       <c r="A136" s="3" t="s">
         <v>58</v>
       </c>
@@ -10956,7 +10956,7 @@
       </c>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="1:7" ht="31.5">
+    <row r="137" spans="1:7" ht="31">
       <c r="A137" s="3" t="s">
         <v>131</v>
       </c>
@@ -11030,7 +11030,7 @@
       <c r="F140" s="53"/>
       <c r="G140" s="10"/>
     </row>
-    <row r="141" spans="1:7" ht="31.5">
+    <row r="141" spans="1:7" ht="31">
       <c r="A141" s="3" t="s">
         <v>58</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="31.5">
+    <row r="142" spans="1:7" ht="31">
       <c r="A142" s="3" t="s">
         <v>58</v>
       </c>
@@ -11072,7 +11072,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="31.5">
+    <row r="143" spans="1:7" ht="31">
       <c r="A143" s="3" t="s">
         <v>58</v>
       </c>
@@ -11189,7 +11189,7 @@
       <c r="F149" s="53"/>
       <c r="G149" s="18"/>
     </row>
-    <row r="150" spans="1:7" ht="31.5">
+    <row r="150" spans="1:7" ht="31">
       <c r="A150" s="3" t="s">
         <v>58</v>
       </c>
@@ -11274,7 +11274,7 @@
       <c r="F154" s="53"/>
       <c r="G154" s="18"/>
     </row>
-    <row r="155" spans="1:7" ht="31.5">
+    <row r="155" spans="1:7" ht="31">
       <c r="A155" s="3" t="s">
         <v>58</v>
       </c>
@@ -11293,7 +11293,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="31.5">
+    <row r="156" spans="1:7" ht="31">
       <c r="A156" s="3" t="s">
         <v>58</v>
       </c>
@@ -11310,7 +11310,7 @@
       <c r="F156" s="53"/>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:7" ht="47.25">
+    <row r="157" spans="1:7" ht="46.5">
       <c r="A157" s="3" t="s">
         <v>58</v>
       </c>
@@ -11344,7 +11344,7 @@
       <c r="F158" s="62"/>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" spans="1:7" ht="47.25">
+    <row r="159" spans="1:7" ht="46.5">
       <c r="A159" s="3" t="s">
         <v>58</v>
       </c>
@@ -11361,7 +11361,7 @@
       <c r="F159" s="62"/>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" spans="1:7" ht="31.5">
+    <row r="160" spans="1:7" ht="31">
       <c r="A160" s="3" t="s">
         <v>58</v>
       </c>
@@ -11378,7 +11378,7 @@
       <c r="F160" s="62"/>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="1:7" ht="31.5">
+    <row r="161" spans="1:7" ht="31">
       <c r="A161" s="3" t="s">
         <v>58</v>
       </c>
@@ -11395,7 +11395,7 @@
       <c r="F161" s="62"/>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" spans="1:7" ht="63">
+    <row r="162" spans="1:7" ht="62">
       <c r="A162" s="3" t="s">
         <v>58</v>
       </c>
@@ -11429,7 +11429,7 @@
       <c r="F163" s="62"/>
       <c r="G163" s="39"/>
     </row>
-    <row r="164" spans="1:7" ht="78.75">
+    <row r="164" spans="1:7" ht="77.5">
       <c r="A164" s="3" t="s">
         <v>58</v>
       </c>
@@ -11446,7 +11446,7 @@
       <c r="F164" s="53"/>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" spans="1:7" ht="47.25">
+    <row r="165" spans="1:7" ht="46.5">
       <c r="A165" s="3" t="s">
         <v>58</v>
       </c>
@@ -11463,7 +11463,7 @@
       <c r="F165" s="53"/>
       <c r="G165" s="3"/>
     </row>
-    <row r="166" spans="1:7" ht="31.5">
+    <row r="166" spans="1:7" ht="31">
       <c r="A166" s="3" t="s">
         <v>58</v>
       </c>
@@ -11510,7 +11510,7 @@
       <c r="F168" s="53"/>
       <c r="G168" s="18"/>
     </row>
-    <row r="169" spans="1:7" ht="31.5">
+    <row r="169" spans="1:7" ht="31">
       <c r="A169" s="3" t="s">
         <v>58</v>
       </c>
@@ -11595,7 +11595,7 @@
       <c r="F173" s="53"/>
       <c r="G173" s="18"/>
     </row>
-    <row r="174" spans="1:7" ht="31.5">
+    <row r="174" spans="1:7" ht="31">
       <c r="A174" s="3" t="s">
         <v>58</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="31.5">
+    <row r="175" spans="1:7" ht="31">
       <c r="A175" s="3" t="s">
         <v>58</v>
       </c>
@@ -11631,7 +11631,7 @@
       <c r="F175" s="53"/>
       <c r="G175" s="3"/>
     </row>
-    <row r="176" spans="1:7" ht="47.25">
+    <row r="176" spans="1:7" ht="46.5">
       <c r="A176" s="3" t="s">
         <v>58</v>
       </c>
@@ -11665,7 +11665,7 @@
       <c r="F177" s="62"/>
       <c r="G177" s="3"/>
     </row>
-    <row r="178" spans="1:7" ht="47.25">
+    <row r="178" spans="1:7" ht="46.5">
       <c r="A178" s="3" t="s">
         <v>58</v>
       </c>
@@ -11682,7 +11682,7 @@
       <c r="F178" s="62"/>
       <c r="G178" s="3"/>
     </row>
-    <row r="179" spans="1:7" ht="31.5">
+    <row r="179" spans="1:7" ht="31">
       <c r="A179" s="3" t="s">
         <v>58</v>
       </c>
@@ -11699,7 +11699,7 @@
       <c r="F179" s="62"/>
       <c r="G179" s="3"/>
     </row>
-    <row r="180" spans="1:7" ht="31.5">
+    <row r="180" spans="1:7" ht="31">
       <c r="A180" s="3" t="s">
         <v>58</v>
       </c>
@@ -11716,7 +11716,7 @@
       <c r="F180" s="62"/>
       <c r="G180" s="3"/>
     </row>
-    <row r="181" spans="1:7" ht="47.25">
+    <row r="181" spans="1:7" ht="46.5">
       <c r="A181" s="3" t="s">
         <v>58</v>
       </c>
@@ -11750,7 +11750,7 @@
       <c r="F182" s="62"/>
       <c r="G182" s="3"/>
     </row>
-    <row r="183" spans="1:7" ht="78.75">
+    <row r="183" spans="1:7" ht="77.5">
       <c r="A183" s="3" t="s">
         <v>58</v>
       </c>
@@ -11767,7 +11767,7 @@
       <c r="F183" s="53"/>
       <c r="G183" s="3"/>
     </row>
-    <row r="184" spans="1:7" ht="47.25">
+    <row r="184" spans="1:7" ht="46.5">
       <c r="A184" s="3" t="s">
         <v>58</v>
       </c>
@@ -11784,7 +11784,7 @@
       <c r="F184" s="53"/>
       <c r="G184" s="3"/>
     </row>
-    <row r="185" spans="1:7" ht="31.5">
+    <row r="185" spans="1:7" ht="31">
       <c r="A185" s="3" t="s">
         <v>58</v>
       </c>
@@ -11831,7 +11831,7 @@
       <c r="F187" s="53"/>
       <c r="G187" s="18"/>
     </row>
-    <row r="188" spans="1:7" ht="31.5">
+    <row r="188" spans="1:7" ht="31">
       <c r="A188" s="3" t="s">
         <v>58</v>
       </c>
@@ -11935,7 +11935,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="31.5">
+    <row r="194" spans="1:7" ht="31">
       <c r="A194" s="3" t="s">
         <v>58</v>
       </c>
@@ -11986,7 +11986,7 @@
       <c r="F196" s="62"/>
       <c r="G196" s="3"/>
     </row>
-    <row r="197" spans="1:7" ht="47.25">
+    <row r="197" spans="1:7" ht="46.5">
       <c r="A197" s="3" t="s">
         <v>58</v>
       </c>
@@ -12003,7 +12003,7 @@
       <c r="F197" s="62"/>
       <c r="G197" s="3"/>
     </row>
-    <row r="198" spans="1:7" ht="31.5">
+    <row r="198" spans="1:7" ht="31">
       <c r="A198" s="3" t="s">
         <v>58</v>
       </c>
@@ -12020,7 +12020,7 @@
       <c r="F198" s="62"/>
       <c r="G198" s="3"/>
     </row>
-    <row r="199" spans="1:7" ht="31.5">
+    <row r="199" spans="1:7" ht="31">
       <c r="A199" s="3" t="s">
         <v>58</v>
       </c>
@@ -12037,7 +12037,7 @@
       <c r="F199" s="62"/>
       <c r="G199" s="3"/>
     </row>
-    <row r="200" spans="1:7" ht="47.25">
+    <row r="200" spans="1:7" ht="46.5">
       <c r="A200" s="3" t="s">
         <v>58</v>
       </c>
@@ -12071,7 +12071,7 @@
       <c r="F201" s="62"/>
       <c r="G201" s="3"/>
     </row>
-    <row r="202" spans="1:7" ht="78.75">
+    <row r="202" spans="1:7" ht="77.5">
       <c r="A202" s="3" t="s">
         <v>58</v>
       </c>
@@ -12088,7 +12088,7 @@
       <c r="F202" s="53"/>
       <c r="G202" s="3"/>
     </row>
-    <row r="203" spans="1:7" ht="47.25">
+    <row r="203" spans="1:7" ht="46.5">
       <c r="A203" s="3" t="s">
         <v>58</v>
       </c>
@@ -12105,7 +12105,7 @@
       <c r="F203" s="53"/>
       <c r="G203" s="3"/>
     </row>
-    <row r="204" spans="1:7" ht="31.5">
+    <row r="204" spans="1:7" ht="31">
       <c r="A204" s="3" t="s">
         <v>58</v>
       </c>
@@ -12152,7 +12152,7 @@
       <c r="F206" s="53"/>
       <c r="G206" s="18"/>
     </row>
-    <row r="207" spans="1:7" ht="31.5">
+    <row r="207" spans="1:7" ht="31">
       <c r="A207" s="3" t="s">
         <v>58</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="31.5">
+    <row r="208" spans="1:7" ht="31">
       <c r="A208" s="3" t="s">
         <v>58</v>
       </c>
@@ -12188,7 +12188,7 @@
       <c r="F208" s="53"/>
       <c r="G208" s="3"/>
     </row>
-    <row r="209" spans="1:7" ht="31.5">
+    <row r="209" spans="1:7" ht="31">
       <c r="A209" s="3" t="s">
         <v>58</v>
       </c>
@@ -12205,7 +12205,7 @@
       <c r="F209" s="53"/>
       <c r="G209" s="3"/>
     </row>
-    <row r="210" spans="1:7" ht="63">
+    <row r="210" spans="1:7" ht="62">
       <c r="A210" s="3" t="s">
         <v>58</v>
       </c>
@@ -12222,7 +12222,7 @@
       <c r="F210" s="53"/>
       <c r="G210" s="3"/>
     </row>
-    <row r="211" spans="1:7" ht="63">
+    <row r="211" spans="1:7" ht="62">
       <c r="A211" s="3" t="s">
         <v>58</v>
       </c>
@@ -12239,7 +12239,7 @@
       <c r="F211" s="53"/>
       <c r="G211" s="3"/>
     </row>
-    <row r="212" spans="1:7" ht="31.5">
+    <row r="212" spans="1:7" ht="31">
       <c r="A212" s="3" t="s">
         <v>58</v>
       </c>
@@ -12273,7 +12273,7 @@
       <c r="F213" s="53"/>
       <c r="G213" s="3"/>
     </row>
-    <row r="214" spans="1:7" ht="31.5">
+    <row r="214" spans="1:7" ht="31">
       <c r="A214" s="3" t="s">
         <v>58</v>
       </c>
@@ -12292,7 +12292,7 @@
       <c r="F214" s="53"/>
       <c r="G214" s="39"/>
     </row>
-    <row r="215" spans="1:7" ht="31.5">
+    <row r="215" spans="1:7" ht="31">
       <c r="A215" s="3" t="s">
         <v>58</v>
       </c>
@@ -12413,7 +12413,7 @@
       <c r="F221" s="53"/>
       <c r="G221" s="3"/>
     </row>
-    <row r="222" spans="1:7" ht="31.5">
+    <row r="222" spans="1:7" ht="31">
       <c r="A222" s="3" t="s">
         <v>58</v>
       </c>
@@ -12447,7 +12447,7 @@
       <c r="F223" s="53"/>
       <c r="G223" s="3"/>
     </row>
-    <row r="224" spans="1:7" ht="31.5">
+    <row r="224" spans="1:7" ht="31">
       <c r="A224" s="3" t="s">
         <v>58</v>
       </c>
@@ -12500,7 +12500,7 @@
       <c r="F226" s="53"/>
       <c r="G226" s="3"/>
     </row>
-    <row r="227" spans="1:7" ht="31.5">
+    <row r="227" spans="1:7" ht="31">
       <c r="A227" s="3" t="s">
         <v>58</v>
       </c>
@@ -12634,7 +12634,7 @@
       <c r="F234" s="53"/>
       <c r="G234" s="19"/>
     </row>
-    <row r="235" spans="1:7" ht="31.5">
+    <row r="235" spans="1:7" ht="31">
       <c r="A235" s="3" t="s">
         <v>58</v>
       </c>
@@ -12794,7 +12794,7 @@
       <c r="F244" s="53"/>
       <c r="G244" s="21"/>
     </row>
-    <row r="245" spans="1:7" ht="63">
+    <row r="245" spans="1:7" ht="62">
       <c r="A245" s="3" t="s">
         <v>58</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="31.5">
+    <row r="246" spans="1:7" ht="31">
       <c r="A246" s="3" t="s">
         <v>58</v>
       </c>
@@ -12830,7 +12830,7 @@
       <c r="F246" s="53"/>
       <c r="G246" s="5"/>
     </row>
-    <row r="247" spans="1:7" ht="31.5">
+    <row r="247" spans="1:7" ht="31">
       <c r="A247" s="3" t="s">
         <v>58</v>
       </c>
@@ -12847,7 +12847,7 @@
       <c r="F247" s="53"/>
       <c r="G247" s="5"/>
     </row>
-    <row r="248" spans="1:7" ht="47.25">
+    <row r="248" spans="1:7" ht="46.5">
       <c r="A248" s="3" t="s">
         <v>58</v>
       </c>
@@ -12881,7 +12881,7 @@
       <c r="F249" s="53"/>
       <c r="G249" s="5"/>
     </row>
-    <row r="250" spans="1:7" ht="31.5">
+    <row r="250" spans="1:7" ht="31">
       <c r="A250" s="3" t="s">
         <v>58</v>
       </c>
@@ -12898,7 +12898,7 @@
       <c r="F250" s="53"/>
       <c r="G250" s="5"/>
     </row>
-    <row r="251" spans="1:7" ht="63">
+    <row r="251" spans="1:7" ht="62">
       <c r="A251" s="3" t="s">
         <v>58</v>
       </c>
@@ -12915,7 +12915,7 @@
       <c r="F251" s="53"/>
       <c r="G251" s="5"/>
     </row>
-    <row r="252" spans="1:7" ht="63">
+    <row r="252" spans="1:7" ht="62">
       <c r="A252" s="3" t="s">
         <v>58</v>
       </c>
@@ -12932,7 +12932,7 @@
       <c r="F252" s="53"/>
       <c r="G252" s="5"/>
     </row>
-    <row r="253" spans="1:7" ht="94.5">
+    <row r="253" spans="1:7" ht="93">
       <c r="A253" s="3" t="s">
         <v>58</v>
       </c>
@@ -12949,7 +12949,7 @@
       <c r="F253" s="53"/>
       <c r="G253" s="5"/>
     </row>
-    <row r="254" spans="1:7" ht="78.75">
+    <row r="254" spans="1:7" ht="62">
       <c r="A254" s="3" t="s">
         <v>58</v>
       </c>
@@ -12966,7 +12966,7 @@
       <c r="F254" s="53"/>
       <c r="G254" s="5"/>
     </row>
-    <row r="255" spans="1:7" ht="94.5">
+    <row r="255" spans="1:7" ht="93">
       <c r="A255" s="3" t="s">
         <v>58</v>
       </c>
@@ -12983,7 +12983,7 @@
       <c r="F255" s="53"/>
       <c r="G255" s="5"/>
     </row>
-    <row r="256" spans="1:7" ht="31.5">
+    <row r="256" spans="1:7" ht="31">
       <c r="A256" s="3" t="s">
         <v>58</v>
       </c>
@@ -13030,7 +13030,7 @@
       <c r="F258" s="53"/>
       <c r="G258" s="21"/>
     </row>
-    <row r="259" spans="1:7" ht="63">
+    <row r="259" spans="1:7" ht="62">
       <c r="A259" s="3" t="s">
         <v>58</v>
       </c>
@@ -13066,7 +13066,7 @@
       <c r="F260" s="53"/>
       <c r="G260" s="5"/>
     </row>
-    <row r="261" spans="1:7" ht="31.5">
+    <row r="261" spans="1:7" ht="31">
       <c r="A261" s="3" t="s">
         <v>58</v>
       </c>
@@ -13083,7 +13083,7 @@
       <c r="F261" s="53"/>
       <c r="G261" s="5"/>
     </row>
-    <row r="262" spans="1:7" ht="47.25">
+    <row r="262" spans="1:7" ht="46.5">
       <c r="A262" s="3" t="s">
         <v>58</v>
       </c>
@@ -13117,7 +13117,7 @@
       <c r="F263" s="53"/>
       <c r="G263" s="5"/>
     </row>
-    <row r="264" spans="1:7" ht="31.5">
+    <row r="264" spans="1:7" ht="31">
       <c r="A264" s="3" t="s">
         <v>58</v>
       </c>
@@ -13151,7 +13151,7 @@
       <c r="F265" s="53"/>
       <c r="G265" s="5"/>
     </row>
-    <row r="266" spans="1:7" ht="31.5">
+    <row r="266" spans="1:7" ht="31">
       <c r="A266" s="3" t="s">
         <v>58</v>
       </c>
@@ -13168,7 +13168,7 @@
       <c r="F266" s="53"/>
       <c r="G266" s="5"/>
     </row>
-    <row r="267" spans="1:7" ht="31.5">
+    <row r="267" spans="1:7" ht="31">
       <c r="A267" s="3" t="s">
         <v>58</v>
       </c>
@@ -13185,7 +13185,7 @@
       <c r="F267" s="53"/>
       <c r="G267" s="5"/>
     </row>
-    <row r="268" spans="1:7" ht="47.25">
+    <row r="268" spans="1:7" ht="46.5">
       <c r="A268" s="3" t="s">
         <v>58</v>
       </c>
@@ -13202,7 +13202,7 @@
       <c r="F268" s="53"/>
       <c r="G268" s="5"/>
     </row>
-    <row r="269" spans="1:7" ht="47.25">
+    <row r="269" spans="1:7" ht="46.5">
       <c r="A269" s="3" t="s">
         <v>58</v>
       </c>
@@ -13219,7 +13219,7 @@
       <c r="F269" s="53"/>
       <c r="G269" s="5"/>
     </row>
-    <row r="270" spans="1:7" ht="78.75">
+    <row r="270" spans="1:7" ht="62">
       <c r="A270" s="3" t="s">
         <v>58</v>
       </c>
@@ -13236,7 +13236,7 @@
       <c r="F270" s="53"/>
       <c r="G270" s="3"/>
     </row>
-    <row r="271" spans="1:7" ht="78.75">
+    <row r="271" spans="1:7" ht="77.5">
       <c r="A271" s="3" t="s">
         <v>58</v>
       </c>
@@ -13253,7 +13253,7 @@
       <c r="F271" s="53"/>
       <c r="G271" s="5"/>
     </row>
-    <row r="272" spans="1:7" ht="94.5">
+    <row r="272" spans="1:7" ht="93">
       <c r="A272" s="3" t="s">
         <v>58</v>
       </c>
@@ -13270,7 +13270,7 @@
       <c r="F272" s="53"/>
       <c r="G272" s="3"/>
     </row>
-    <row r="273" spans="1:7" ht="94.5">
+    <row r="273" spans="1:7" ht="93">
       <c r="A273" s="3" t="s">
         <v>58</v>
       </c>
@@ -13287,7 +13287,7 @@
       <c r="F273" s="53"/>
       <c r="G273" s="5"/>
     </row>
-    <row r="274" spans="1:7" ht="63">
+    <row r="274" spans="1:7" ht="62">
       <c r="A274" s="3" t="s">
         <v>58</v>
       </c>
@@ -13334,7 +13334,7 @@
       <c r="F276" s="53"/>
       <c r="G276" s="13"/>
     </row>
-    <row r="277" spans="1:7" ht="63">
+    <row r="277" spans="1:7" ht="62">
       <c r="A277" s="3" t="s">
         <v>58</v>
       </c>
@@ -13370,7 +13370,7 @@
       <c r="F278" s="53"/>
       <c r="G278" s="5"/>
     </row>
-    <row r="279" spans="1:7" ht="31.5">
+    <row r="279" spans="1:7" ht="31">
       <c r="A279" s="3" t="s">
         <v>58</v>
       </c>
@@ -13387,7 +13387,7 @@
       <c r="F279" s="53"/>
       <c r="G279" s="5"/>
     </row>
-    <row r="280" spans="1:7" ht="47.25">
+    <row r="280" spans="1:7" ht="46.5">
       <c r="A280" s="3" t="s">
         <v>58</v>
       </c>
@@ -13421,7 +13421,7 @@
       <c r="F281" s="53"/>
       <c r="G281" s="5"/>
     </row>
-    <row r="282" spans="1:7" ht="31.5">
+    <row r="282" spans="1:7" ht="31">
       <c r="A282" s="3" t="s">
         <v>58</v>
       </c>
@@ -13455,7 +13455,7 @@
       <c r="F283" s="53"/>
       <c r="G283" s="5"/>
     </row>
-    <row r="284" spans="1:7" ht="31.5">
+    <row r="284" spans="1:7" ht="31">
       <c r="A284" s="3" t="s">
         <v>58</v>
       </c>
@@ -13472,7 +13472,7 @@
       <c r="F284" s="53"/>
       <c r="G284" s="5"/>
     </row>
-    <row r="285" spans="1:7" ht="31.5">
+    <row r="285" spans="1:7" ht="31">
       <c r="A285" s="3" t="s">
         <v>58</v>
       </c>
@@ -13489,7 +13489,7 @@
       <c r="F285" s="53"/>
       <c r="G285" s="5"/>
     </row>
-    <row r="286" spans="1:7" ht="47.25">
+    <row r="286" spans="1:7" ht="46.5">
       <c r="A286" s="3" t="s">
         <v>58</v>
       </c>
@@ -13506,7 +13506,7 @@
       <c r="F286" s="53"/>
       <c r="G286" s="5"/>
     </row>
-    <row r="287" spans="1:7" ht="47.25">
+    <row r="287" spans="1:7" ht="46.5">
       <c r="A287" s="3" t="s">
         <v>58</v>
       </c>
@@ -13523,7 +13523,7 @@
       <c r="F287" s="53"/>
       <c r="G287" s="5"/>
     </row>
-    <row r="288" spans="1:7" ht="78.75">
+    <row r="288" spans="1:7" ht="62">
       <c r="A288" s="3" t="s">
         <v>58</v>
       </c>
@@ -13540,7 +13540,7 @@
       <c r="F288" s="53"/>
       <c r="G288" s="3"/>
     </row>
-    <row r="289" spans="1:7" ht="78.75">
+    <row r="289" spans="1:7" ht="77.5">
       <c r="A289" s="3" t="s">
         <v>58</v>
       </c>
@@ -13557,7 +13557,7 @@
       <c r="F289" s="53"/>
       <c r="G289" s="5"/>
     </row>
-    <row r="290" spans="1:7" ht="94.5">
+    <row r="290" spans="1:7" ht="93">
       <c r="A290" s="3" t="s">
         <v>58</v>
       </c>
@@ -13574,7 +13574,7 @@
       <c r="F290" s="53"/>
       <c r="G290" s="3"/>
     </row>
-    <row r="291" spans="1:7" ht="94.5">
+    <row r="291" spans="1:7" ht="93">
       <c r="A291" s="3" t="s">
         <v>58</v>
       </c>
@@ -13591,7 +13591,7 @@
       <c r="F291" s="53"/>
       <c r="G291" s="5"/>
     </row>
-    <row r="292" spans="1:7" ht="63">
+    <row r="292" spans="1:7" ht="62">
       <c r="A292" s="3" t="s">
         <v>58</v>
       </c>
@@ -13638,7 +13638,7 @@
       <c r="F294" s="53"/>
       <c r="G294" s="18"/>
     </row>
-    <row r="295" spans="1:7" ht="47.25">
+    <row r="295" spans="1:7" ht="46.5">
       <c r="A295" s="3" t="s">
         <v>58</v>
       </c>
@@ -13670,7 +13670,7 @@
       <c r="F296" s="53"/>
       <c r="G296" s="18"/>
     </row>
-    <row r="297" spans="1:7" ht="47.25">
+    <row r="297" spans="1:7" ht="46.5">
       <c r="A297" s="3" t="s">
         <v>58</v>
       </c>
@@ -13723,7 +13723,7 @@
       <c r="F299" s="53"/>
       <c r="G299" s="5"/>
     </row>
-    <row r="300" spans="1:7" ht="47.25">
+    <row r="300" spans="1:7" ht="46.5">
       <c r="A300" s="3" t="s">
         <v>58</v>
       </c>
@@ -13740,7 +13740,7 @@
       <c r="F300" s="53"/>
       <c r="G300" s="5"/>
     </row>
-    <row r="301" spans="1:7" ht="31.5">
+    <row r="301" spans="1:7" ht="31">
       <c r="A301" s="3" t="s">
         <v>58</v>
       </c>
@@ -13774,7 +13774,7 @@
       <c r="F302" s="53"/>
       <c r="G302" s="5"/>
     </row>
-    <row r="303" spans="1:7" ht="94.5">
+    <row r="303" spans="1:7" ht="93">
       <c r="A303" s="3" t="s">
         <v>58</v>
       </c>
@@ -13821,7 +13821,7 @@
       <c r="F305" s="53"/>
       <c r="G305" s="24"/>
     </row>
-    <row r="306" spans="1:7" ht="63">
+    <row r="306" spans="1:7" ht="62">
       <c r="A306" s="3" t="s">
         <v>58</v>
       </c>
@@ -13857,7 +13857,7 @@
       <c r="F307" s="53"/>
       <c r="G307" s="3"/>
     </row>
-    <row r="308" spans="1:7" ht="31.5">
+    <row r="308" spans="1:7" ht="31">
       <c r="A308" s="3" t="s">
         <v>58</v>
       </c>
@@ -13874,7 +13874,7 @@
       <c r="F308" s="53"/>
       <c r="G308" s="3"/>
     </row>
-    <row r="309" spans="1:7" ht="47.25">
+    <row r="309" spans="1:7" ht="46.5">
       <c r="A309" s="3" t="s">
         <v>58</v>
       </c>
@@ -13908,7 +13908,7 @@
       <c r="F310" s="53"/>
       <c r="G310" s="3"/>
     </row>
-    <row r="311" spans="1:7" ht="31.5">
+    <row r="311" spans="1:7" ht="31">
       <c r="A311" s="3" t="s">
         <v>58</v>
       </c>
@@ -13942,7 +13942,7 @@
       <c r="F312" s="53"/>
       <c r="G312" s="3"/>
     </row>
-    <row r="313" spans="1:7" ht="31.5">
+    <row r="313" spans="1:7" ht="31">
       <c r="A313" s="3" t="s">
         <v>58</v>
       </c>
@@ -13959,7 +13959,7 @@
       <c r="F313" s="53"/>
       <c r="G313" s="3"/>
     </row>
-    <row r="314" spans="1:7" ht="31.5">
+    <row r="314" spans="1:7" ht="31">
       <c r="A314" s="3" t="s">
         <v>58</v>
       </c>
@@ -13976,7 +13976,7 @@
       <c r="F314" s="53"/>
       <c r="G314" s="3"/>
     </row>
-    <row r="315" spans="1:7" ht="47.25">
+    <row r="315" spans="1:7" ht="46.5">
       <c r="A315" s="3" t="s">
         <v>58</v>
       </c>
@@ -13993,7 +13993,7 @@
       <c r="F315" s="53"/>
       <c r="G315" s="3"/>
     </row>
-    <row r="316" spans="1:7" ht="47.25">
+    <row r="316" spans="1:7" ht="46.5">
       <c r="A316" s="3" t="s">
         <v>58</v>
       </c>
@@ -14010,7 +14010,7 @@
       <c r="F316" s="53"/>
       <c r="G316" s="3"/>
     </row>
-    <row r="317" spans="1:7" ht="78.75">
+    <row r="317" spans="1:7" ht="62">
       <c r="A317" s="3" t="s">
         <v>58</v>
       </c>
@@ -14027,7 +14027,7 @@
       <c r="F317" s="53"/>
       <c r="G317" s="3"/>
     </row>
-    <row r="318" spans="1:7" ht="78.75">
+    <row r="318" spans="1:7" ht="77.5">
       <c r="A318" s="3" t="s">
         <v>58</v>
       </c>
@@ -14044,7 +14044,7 @@
       <c r="F318" s="53"/>
       <c r="G318" s="3"/>
     </row>
-    <row r="319" spans="1:7" ht="94.5">
+    <row r="319" spans="1:7" ht="93">
       <c r="A319" s="3" t="s">
         <v>58</v>
       </c>
@@ -14061,7 +14061,7 @@
       <c r="F319" s="53"/>
       <c r="G319" s="3"/>
     </row>
-    <row r="320" spans="1:7" ht="94.5">
+    <row r="320" spans="1:7" ht="93">
       <c r="A320" s="3" t="s">
         <v>58</v>
       </c>
@@ -14078,7 +14078,7 @@
       <c r="F320" s="53"/>
       <c r="G320" s="3"/>
     </row>
-    <row r="321" spans="1:7" ht="63">
+    <row r="321" spans="1:7" ht="62">
       <c r="A321" s="3" t="s">
         <v>58</v>
       </c>
@@ -14140,7 +14140,7 @@
       <c r="F324" s="53"/>
       <c r="G324" s="24"/>
     </row>
-    <row r="325" spans="1:7" ht="110.25">
+    <row r="325" spans="1:7" ht="108.5">
       <c r="A325" s="3" t="s">
         <v>58</v>
       </c>
@@ -14159,7 +14159,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="31.5">
+    <row r="326" spans="1:7" ht="31">
       <c r="A326" s="3" t="s">
         <v>58</v>
       </c>
@@ -14176,7 +14176,7 @@
       <c r="F326" s="53"/>
       <c r="G326" s="5"/>
     </row>
-    <row r="327" spans="1:7" ht="31.5">
+    <row r="327" spans="1:7" ht="31">
       <c r="A327" s="3" t="s">
         <v>58</v>
       </c>
@@ -14251,7 +14251,7 @@
       </c>
       <c r="G331" s="3"/>
     </row>
-    <row r="332" spans="1:7" ht="31.5">
+    <row r="332" spans="1:7" ht="31">
       <c r="A332" s="3" t="s">
         <v>58</v>
       </c>
@@ -14341,7 +14341,7 @@
       </c>
       <c r="G337" s="5"/>
     </row>
-    <row r="338" spans="1:7" ht="47.25">
+    <row r="338" spans="1:7" ht="46.5">
       <c r="A338" s="3" t="s">
         <v>58</v>
       </c>
@@ -14369,7 +14369,7 @@
       <c r="D339" s="39"/>
       <c r="G339" s="18"/>
     </row>
-    <row r="340" spans="1:7" ht="78.75">
+    <row r="340" spans="1:7" ht="77.5">
       <c r="A340" s="3" t="s">
         <v>58</v>
       </c>
@@ -14388,7 +14388,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="63">
+    <row r="341" spans="1:7" ht="62">
       <c r="A341" s="3" t="s">
         <v>58</v>
       </c>
@@ -14405,7 +14405,7 @@
       <c r="F341" s="62"/>
       <c r="G341" s="5"/>
     </row>
-    <row r="342" spans="1:7" ht="31.5">
+    <row r="342" spans="1:7" ht="31">
       <c r="A342" s="3" t="s">
         <v>58</v>
       </c>
@@ -14422,7 +14422,7 @@
       <c r="F342" s="62"/>
       <c r="G342" s="3"/>
     </row>
-    <row r="343" spans="1:7" ht="47.25">
+    <row r="343" spans="1:7" ht="46.5">
       <c r="A343" s="3" t="s">
         <v>58</v>
       </c>
@@ -14439,7 +14439,7 @@
       <c r="F343" s="62"/>
       <c r="G343" s="25"/>
     </row>
-    <row r="344" spans="1:7" ht="31.5">
+    <row r="344" spans="1:7" ht="31">
       <c r="A344" s="3" t="s">
         <v>58</v>
       </c>
@@ -14541,7 +14541,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="31.5">
+    <row r="350" spans="1:7" ht="31">
       <c r="A350" s="3" t="s">
         <v>58</v>
       </c>
@@ -14558,7 +14558,7 @@
       <c r="F350" s="58"/>
       <c r="G350" s="5"/>
     </row>
-    <row r="351" spans="1:7" ht="31.5">
+    <row r="351" spans="1:7" ht="31">
       <c r="A351" s="3" t="s">
         <v>58</v>
       </c>
@@ -14592,7 +14592,7 @@
       <c r="F352" s="53"/>
       <c r="G352" s="25"/>
     </row>
-    <row r="353" spans="1:7" ht="31.5">
+    <row r="353" spans="1:7" ht="31">
       <c r="A353" s="3" t="s">
         <v>58</v>
       </c>
@@ -14641,7 +14641,7 @@
       <c r="F355" s="53"/>
       <c r="G355" s="18"/>
     </row>
-    <row r="356" spans="1:7" ht="110.25">
+    <row r="356" spans="1:7" ht="108.5">
       <c r="A356" s="3" t="s">
         <v>58</v>
       </c>
@@ -14660,7 +14660,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="31.5">
+    <row r="357" spans="1:7" ht="31">
       <c r="A357" s="3" t="s">
         <v>58</v>
       </c>
@@ -14677,7 +14677,7 @@
       <c r="F357" s="62"/>
       <c r="G357" s="5"/>
     </row>
-    <row r="358" spans="1:7" ht="31.5">
+    <row r="358" spans="1:7" ht="31">
       <c r="A358" s="3" t="s">
         <v>58</v>
       </c>
@@ -14743,7 +14743,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="31.5">
+    <row r="362" spans="1:7" ht="31">
       <c r="A362" s="3" t="s">
         <v>58</v>
       </c>
@@ -14760,7 +14760,7 @@
       <c r="F362" s="53"/>
       <c r="G362" s="5"/>
     </row>
-    <row r="363" spans="1:7" ht="47.25">
+    <row r="363" spans="1:7" ht="46.5">
       <c r="A363" s="3" t="s">
         <v>58</v>
       </c>
@@ -14777,7 +14777,7 @@
       <c r="F363" s="53"/>
       <c r="G363" s="5"/>
     </row>
-    <row r="364" spans="1:7" ht="47.25">
+    <row r="364" spans="1:7" ht="46.5">
       <c r="A364" s="3" t="s">
         <v>58</v>
       </c>
@@ -14794,7 +14794,7 @@
       <c r="F364" s="44"/>
       <c r="G364" s="5"/>
     </row>
-    <row r="365" spans="1:7" ht="31.5">
+    <row r="365" spans="1:7" ht="31">
       <c r="A365" s="3" t="s">
         <v>58</v>
       </c>
@@ -14811,7 +14811,7 @@
       <c r="F365" s="53"/>
       <c r="G365" s="5"/>
     </row>
-    <row r="366" spans="1:7" ht="47.25">
+    <row r="366" spans="1:7" ht="46.5">
       <c r="A366" s="3" t="s">
         <v>58</v>
       </c>
@@ -14915,7 +14915,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="31.5">
+    <row r="372" spans="1:7" ht="31">
       <c r="A372" s="3" t="s">
         <v>58</v>
       </c>
@@ -14932,7 +14932,7 @@
       <c r="F372" s="58"/>
       <c r="G372" s="25"/>
     </row>
-    <row r="373" spans="1:7" ht="31.5">
+    <row r="373" spans="1:7" ht="31">
       <c r="A373" s="3" t="s">
         <v>58</v>
       </c>
@@ -14966,7 +14966,7 @@
       <c r="F374" s="53"/>
       <c r="G374" s="7"/>
     </row>
-    <row r="375" spans="1:7" ht="31.5">
+    <row r="375" spans="1:7" ht="31">
       <c r="A375" s="3" t="s">
         <v>58</v>
       </c>
@@ -15015,7 +15015,7 @@
       <c r="F377" s="53"/>
       <c r="G377" s="21"/>
     </row>
-    <row r="378" spans="1:7" ht="94.5">
+    <row r="378" spans="1:7" ht="93">
       <c r="A378" s="3" t="s">
         <v>58</v>
       </c>
@@ -15034,7 +15034,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="379" spans="1:7" ht="31.5">
+    <row r="379" spans="1:7" ht="31">
       <c r="A379" s="3" t="s">
         <v>58</v>
       </c>
@@ -15051,7 +15051,7 @@
       <c r="F379" s="53"/>
       <c r="G379" s="7"/>
     </row>
-    <row r="380" spans="1:7" ht="31.5">
+    <row r="380" spans="1:7" ht="31">
       <c r="A380" s="3" t="s">
         <v>58</v>
       </c>
@@ -15098,7 +15098,7 @@
       <c r="F382" s="53"/>
       <c r="G382" s="21"/>
     </row>
-    <row r="383" spans="1:7" ht="47.25">
+    <row r="383" spans="1:7" ht="46.5">
       <c r="A383" s="3" t="s">
         <v>58</v>
       </c>
@@ -15117,7 +15117,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="31.5">
+    <row r="384" spans="1:7" ht="31">
       <c r="A384" s="3" t="s">
         <v>58</v>
       </c>
@@ -15151,7 +15151,7 @@
       <c r="F385" s="53"/>
       <c r="G385" s="25"/>
     </row>
-    <row r="386" spans="1:7" ht="47.25">
+    <row r="386" spans="1:7" ht="46.5">
       <c r="A386" s="3" t="s">
         <v>58</v>
       </c>
@@ -15168,7 +15168,7 @@
       <c r="F386" s="53"/>
       <c r="G386" s="25"/>
     </row>
-    <row r="387" spans="1:7" ht="31.5">
+    <row r="387" spans="1:7" ht="31">
       <c r="A387" s="3" t="s">
         <v>58</v>
       </c>
@@ -15185,7 +15185,7 @@
       <c r="F387" s="53"/>
       <c r="G387" s="25"/>
     </row>
-    <row r="388" spans="1:7" ht="47.25">
+    <row r="388" spans="1:7" ht="46.5">
       <c r="A388" s="3" t="s">
         <v>58</v>
       </c>
@@ -15289,7 +15289,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="31.5">
+    <row r="394" spans="1:7" ht="31">
       <c r="A394" s="3" t="s">
         <v>58</v>
       </c>
@@ -15306,7 +15306,7 @@
       <c r="F394" s="58"/>
       <c r="G394" s="25"/>
     </row>
-    <row r="395" spans="1:7" ht="31.5">
+    <row r="395" spans="1:7" ht="31">
       <c r="A395" s="3" t="s">
         <v>58</v>
       </c>
@@ -15340,7 +15340,7 @@
       <c r="F396" s="53"/>
       <c r="G396" s="7"/>
     </row>
-    <row r="397" spans="1:7" ht="31.5">
+    <row r="397" spans="1:7" ht="31">
       <c r="A397" s="3" t="s">
         <v>58</v>
       </c>
@@ -15389,7 +15389,7 @@
       <c r="F399" s="53"/>
       <c r="G399" s="21"/>
     </row>
-    <row r="400" spans="1:7" ht="94.5">
+    <row r="400" spans="1:7" ht="93">
       <c r="A400" s="3" t="s">
         <v>58</v>
       </c>
@@ -15408,7 +15408,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="31.5">
+    <row r="401" spans="1:7" ht="31">
       <c r="A401" s="3" t="s">
         <v>58</v>
       </c>
@@ -15425,7 +15425,7 @@
       <c r="F401" s="53"/>
       <c r="G401" s="25"/>
     </row>
-    <row r="402" spans="1:7" ht="31.5">
+    <row r="402" spans="1:7" ht="31">
       <c r="A402" s="3" t="s">
         <v>58</v>
       </c>
@@ -15525,7 +15525,7 @@
       <c r="F407" s="53"/>
       <c r="G407" s="25"/>
     </row>
-    <row r="408" spans="1:7" ht="31.5">
+    <row r="408" spans="1:7" ht="31">
       <c r="A408" s="3" t="s">
         <v>58</v>
       </c>
@@ -15557,7 +15557,7 @@
       <c r="F409" s="53"/>
       <c r="G409" s="21"/>
     </row>
-    <row r="410" spans="1:7" ht="31.5">
+    <row r="410" spans="1:7" ht="31">
       <c r="A410" s="3" t="s">
         <v>58</v>
       </c>
@@ -15576,7 +15576,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="31.5">
+    <row r="411" spans="1:7" ht="31">
       <c r="A411" s="3" t="s">
         <v>58</v>
       </c>
@@ -15593,7 +15593,7 @@
       <c r="F411" s="62"/>
       <c r="G411" s="7"/>
     </row>
-    <row r="412" spans="1:7" ht="31.5">
+    <row r="412" spans="1:7" ht="31">
       <c r="A412" s="3" t="s">
         <v>58</v>
       </c>
@@ -15661,7 +15661,7 @@
       <c r="F415" s="62"/>
       <c r="G415" s="5"/>
     </row>
-    <row r="416" spans="1:7" ht="31.5">
+    <row r="416" spans="1:7" ht="31">
       <c r="A416" s="3" t="s">
         <v>58</v>
       </c>
@@ -15712,7 +15712,7 @@
       <c r="F418" s="62"/>
       <c r="G418" s="5"/>
     </row>
-    <row r="419" spans="1:7" ht="47.25">
+    <row r="419" spans="1:7" ht="46.5">
       <c r="A419" s="3" t="s">
         <v>58</v>
       </c>
@@ -15744,7 +15744,7 @@
       <c r="F420" s="62"/>
       <c r="G420" s="21"/>
     </row>
-    <row r="421" spans="1:7" ht="78.75">
+    <row r="421" spans="1:7" ht="77.5">
       <c r="A421" s="3" t="s">
         <v>58</v>
       </c>
@@ -15763,7 +15763,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="422" spans="1:7" ht="63">
+    <row r="422" spans="1:7" ht="62">
       <c r="A422" s="3" t="s">
         <v>58</v>
       </c>
@@ -15780,7 +15780,7 @@
       <c r="F422" s="62"/>
       <c r="G422" s="25"/>
     </row>
-    <row r="423" spans="1:7" ht="31.5">
+    <row r="423" spans="1:7" ht="31">
       <c r="A423" s="3" t="s">
         <v>58</v>
       </c>
@@ -15799,7 +15799,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="424" spans="1:7" ht="31.5">
+    <row r="424" spans="1:7" ht="31">
       <c r="A424" s="3" t="s">
         <v>58</v>
       </c>
@@ -15884,7 +15884,7 @@
       <c r="F428" s="53"/>
       <c r="G428" s="21"/>
     </row>
-    <row r="429" spans="1:7" ht="31.5">
+    <row r="429" spans="1:7" ht="31">
       <c r="A429" s="3" t="s">
         <v>58</v>
       </c>
@@ -16048,7 +16048,7 @@
       <c r="F438" s="53"/>
       <c r="G438" s="21"/>
     </row>
-    <row r="439" spans="1:7" ht="94.5">
+    <row r="439" spans="1:7" ht="93">
       <c r="A439" s="3" t="s">
         <v>58</v>
       </c>
@@ -16067,7 +16067,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="440" spans="1:7" ht="31.5">
+    <row r="440" spans="1:7" ht="31">
       <c r="A440" s="3" t="s">
         <v>58</v>
       </c>
@@ -16084,7 +16084,7 @@
       <c r="F440" s="53"/>
       <c r="G440" s="25"/>
     </row>
-    <row r="441" spans="1:7" ht="31.5">
+    <row r="441" spans="1:7" ht="31">
       <c r="A441" s="3" t="s">
         <v>58</v>
       </c>
@@ -16131,7 +16131,7 @@
       <c r="F443" s="53"/>
       <c r="G443" s="21"/>
     </row>
-    <row r="444" spans="1:7" ht="31.5">
+    <row r="444" spans="1:7" ht="31">
       <c r="A444" s="3" t="s">
         <v>58</v>
       </c>
@@ -16184,7 +16184,7 @@
       <c r="F446" s="53"/>
       <c r="G446" s="7"/>
     </row>
-    <row r="447" spans="1:7" ht="31.5">
+    <row r="447" spans="1:7" ht="31">
       <c r="A447" s="3" t="s">
         <v>58</v>
       </c>
@@ -16216,7 +16216,7 @@
       <c r="F448" s="53"/>
       <c r="G448" s="7"/>
     </row>
-    <row r="449" spans="1:7" ht="63">
+    <row r="449" spans="1:7" ht="62">
       <c r="A449" s="3" t="s">
         <v>58</v>
       </c>
@@ -16233,7 +16233,7 @@
       <c r="F449" s="53"/>
       <c r="G449" s="7"/>
     </row>
-    <row r="450" spans="1:7" ht="31.5">
+    <row r="450" spans="1:7" ht="31">
       <c r="A450" s="3" t="s">
         <v>58</v>
       </c>
@@ -16335,7 +16335,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="456" spans="1:7" ht="31.5">
+    <row r="456" spans="1:7" ht="31">
       <c r="A456" s="3" t="s">
         <v>58</v>
       </c>
@@ -16352,7 +16352,7 @@
       <c r="F456" s="53"/>
       <c r="G456" s="5"/>
     </row>
-    <row r="457" spans="1:7" ht="31.5">
+    <row r="457" spans="1:7" ht="31">
       <c r="A457" s="3" t="s">
         <v>58</v>
       </c>
@@ -16386,7 +16386,7 @@
       <c r="F458" s="53"/>
       <c r="G458" s="3"/>
     </row>
-    <row r="459" spans="1:7" ht="31.5">
+    <row r="459" spans="1:7" ht="31">
       <c r="A459" s="3" t="s">
         <v>58</v>
       </c>
@@ -16421,14 +16421,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="45.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="81.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="45.08203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.58203125" style="4" customWidth="1"/>
+    <col min="4" max="5" width="81.33203125" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.83203125" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
@@ -16512,7 +16512,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="126">
+    <row r="5" spans="1:7" ht="139.5">
       <c r="A5" s="3" t="s">
         <v>71</v>
       </c>
@@ -16568,20 +16568,20 @@
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="68.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="100" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="22.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.08203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="20" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.83203125" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5">
+    <row r="1" spans="1:7" ht="31">
       <c r="A1" s="8" t="s">
         <v>782</v>
       </c>
@@ -16718,7 +16718,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="31.5">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>810</v>
       </c>
@@ -16889,7 +16889,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="47.25">
+    <row r="17" spans="1:7" ht="46.5">
       <c r="A17" s="3" t="s">
         <v>125</v>
       </c>
@@ -17271,7 +17271,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="63">
+    <row r="37" spans="1:7" ht="62">
       <c r="A37" s="3" t="s">
         <v>257</v>
       </c>
@@ -17292,7 +17292,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="31.5">
+    <row r="38" spans="1:7" ht="31">
       <c r="A38" s="3" t="s">
         <v>526</v>
       </c>
@@ -17368,7 +17368,7 @@
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="47.25">
+    <row r="42" spans="1:7" ht="46.5">
       <c r="A42" s="3" t="s">
         <v>274</v>
       </c>
@@ -17652,19 +17652,19 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="41" customWidth="1"/>
-    <col min="2" max="2" width="47.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="80.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="4" customWidth="1"/>
+    <col min="4" max="5" width="80.83203125" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="27" customWidth="1"/>
+    <col min="8" max="256" width="8.83203125" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.83203125" style="27" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="34" customFormat="1" ht="30.95" customHeight="1">
+    <row r="1" spans="1:256" s="34" customFormat="1" ht="31" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>782</v>
       </c>
@@ -17936,7 +17936,7 @@
       <c r="IU1" s="33"/>
       <c r="IV1" s="33"/>
     </row>
-    <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>860</v>
       </c>
@@ -17955,7 +17955,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>863</v>
       </c>
@@ -17974,7 +17974,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>865</v>
       </c>
@@ -18012,7 +18012,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>869</v>
       </c>
@@ -18031,7 +18031,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>872</v>
       </c>
@@ -18050,7 +18050,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>875</v>
       </c>
@@ -18088,7 +18088,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>881</v>
       </c>
@@ -18107,7 +18107,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>883</v>
       </c>
@@ -18126,7 +18126,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>885</v>
       </c>
@@ -18164,7 +18164,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>890</v>
       </c>
@@ -18183,7 +18183,7 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>892</v>
       </c>
@@ -18240,7 +18240,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>894</v>
       </c>
@@ -18259,7 +18259,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="19" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>896</v>
       </c>
@@ -18278,7 +18278,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>898</v>
       </c>
@@ -18297,7 +18297,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="21" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>900</v>
       </c>
@@ -18316,7 +18316,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>903</v>
       </c>
@@ -18335,7 +18335,7 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>905</v>
       </c>
@@ -18354,7 +18354,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>907</v>
       </c>
@@ -18373,7 +18373,7 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>909</v>
       </c>
@@ -18392,7 +18392,7 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>912</v>
       </c>
@@ -18411,7 +18411,7 @@
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="27" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>914</v>
       </c>
@@ -18430,7 +18430,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>917</v>
       </c>
@@ -18449,7 +18449,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="29" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>919</v>
       </c>
@@ -18468,7 +18468,7 @@
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="30" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>921</v>
       </c>
@@ -18487,7 +18487,7 @@
       </c>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="31" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>923</v>
       </c>
@@ -18506,7 +18506,7 @@
       </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="32" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>926</v>
       </c>
@@ -18525,7 +18525,7 @@
       </c>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="33" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>929</v>
       </c>
@@ -18544,7 +18544,7 @@
       </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="34" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>932</v>
       </c>
@@ -18563,7 +18563,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="35" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>935</v>
       </c>
@@ -18582,7 +18582,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="36" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>938</v>
       </c>
@@ -18601,7 +18601,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="37" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>941</v>
       </c>
@@ -18620,7 +18620,7 @@
       </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="38" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>944</v>
       </c>
@@ -18639,7 +18639,7 @@
       </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="39" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>947</v>
       </c>
@@ -18658,7 +18658,7 @@
       </c>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="30.95" customHeight="1">
+    <row r="40" spans="1:7" ht="31" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>950</v>
       </c>
@@ -18694,7 +18694,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="42" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A42" s="5" t="s">
         <v>957</v>
       </c>
@@ -18711,7 +18711,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" ht="30.95" customHeight="1">
+    <row r="43" spans="1:7" ht="31" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>960</v>
       </c>
@@ -18749,7 +18749,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="45" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>968</v>
       </c>
@@ -18802,7 +18802,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="48" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A48" s="5" t="s">
         <v>978</v>
       </c>
@@ -18819,7 +18819,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:256" s="49" customFormat="1" ht="31.5">
+    <row r="49" spans="1:256" s="49" customFormat="1" ht="31">
       <c r="A49" s="40" t="s">
         <v>981</v>
       </c>
@@ -19099,25 +19099,25 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="41.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.58203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.58203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="29" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="27" customWidth="1"/>
+    <col min="8" max="256" width="8.83203125" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.83203125" style="27" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>782</v>
       </c>
@@ -19568,7 +19568,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="31.5">
+    <row r="24" spans="1:7" ht="31">
       <c r="A24" s="65" t="s">
         <v>1163</v>
       </c>
@@ -19585,7 +19585,7 @@
       <c r="F24" s="65"/>
       <c r="G24" s="65"/>
     </row>
-    <row r="25" spans="1:7" ht="31.5">
+    <row r="25" spans="1:7" ht="31">
       <c r="A25" s="65" t="s">
         <v>1167</v>
       </c>
@@ -19602,7 +19602,7 @@
       <c r="F25" s="65"/>
       <c r="G25" s="65"/>
     </row>
-    <row r="26" spans="1:7" ht="31.5">
+    <row r="26" spans="1:7" ht="31">
       <c r="A26" s="65" t="s">
         <v>1170</v>
       </c>
@@ -19619,7 +19619,7 @@
       <c r="F26" s="65"/>
       <c r="G26" s="65"/>
     </row>
-    <row r="27" spans="1:7" ht="47.25">
+    <row r="27" spans="1:7" ht="46.5">
       <c r="A27" s="65" t="s">
         <v>1173</v>
       </c>
@@ -19636,7 +19636,7 @@
       <c r="F27" s="65"/>
       <c r="G27" s="65"/>
     </row>
-    <row r="28" spans="1:7" ht="47.25">
+    <row r="28" spans="1:7" ht="46.5">
       <c r="A28" s="65" t="s">
         <v>1176</v>
       </c>
@@ -19653,7 +19653,7 @@
       <c r="F28" s="65"/>
       <c r="G28" s="65"/>
     </row>
-    <row r="29" spans="1:7" ht="31.5">
+    <row r="29" spans="1:7" ht="31">
       <c r="A29" s="65" t="s">
         <v>1179</v>
       </c>
@@ -19670,7 +19670,7 @@
       <c r="F29" s="65"/>
       <c r="G29" s="65"/>
     </row>
-    <row r="30" spans="1:7" ht="47.25">
+    <row r="30" spans="1:7" ht="46.5">
       <c r="A30" s="65" t="s">
         <v>1182</v>
       </c>
@@ -19705,19 +19705,19 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="54.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="75.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="54.58203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="4" customWidth="1"/>
+    <col min="4" max="5" width="75.58203125" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="27" customWidth="1"/>
+    <col min="8" max="256" width="8.83203125" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.83203125" style="27" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.95" customHeight="1">
+    <row r="1" spans="1:7" ht="31" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>782</v>
       </c>
@@ -19740,7 +19740,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>1031</v>
       </c>
@@ -19761,7 +19761,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>1036</v>
       </c>
@@ -19821,21 +19821,21 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="10.5" style="35" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" style="28" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="28" customWidth="1"/>
     <col min="4" max="4" width="44.5" style="28" customWidth="1"/>
-    <col min="5" max="5" width="31.875" style="28" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="31.83203125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="28" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="28" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="28" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="29" customWidth="1"/>
+    <col min="8" max="256" width="8.83203125" style="28" customWidth="1"/>
+    <col min="257" max="1025" width="8.83203125" style="29" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="37" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" s="37" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>782</v>
       </c>
@@ -20128,7 +20128,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A3" s="30" t="s">
         <v>648</v>
       </c>
@@ -20147,7 +20147,7 @@
       </c>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>577</v>
       </c>
@@ -20166,7 +20166,7 @@
       </c>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A5" s="30" t="s">
         <v>580</v>
       </c>
@@ -20185,7 +20185,7 @@
       </c>
       <c r="G5" s="30"/>
     </row>
-    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A6" s="30" t="s">
         <v>583</v>
       </c>
@@ -20284,7 +20284,7 @@
       </c>
       <c r="G10" s="30"/>
     </row>
-    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A11" s="30" t="s">
         <v>600</v>
       </c>
@@ -20303,7 +20303,7 @@
       </c>
       <c r="G11" s="30"/>
     </row>
-    <row r="12" spans="1:256" ht="33.6" customHeight="1">
+    <row r="12" spans="1:256" ht="33.65" customHeight="1">
       <c r="A12" s="30" t="s">
         <v>603</v>
       </c>
@@ -20465,7 +20465,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A20" s="30" t="s">
         <v>721</v>
       </c>
@@ -20530,7 +20530,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="31.5">
+    <row r="23" spans="1:7" ht="31">
       <c r="A23" s="47" t="s">
         <v>1118</v>
       </c>
@@ -20581,7 +20581,7 @@
       <c r="F25" s="47"/>
       <c r="G25" s="47"/>
     </row>
-    <row r="26" spans="1:7" ht="31.5">
+    <row r="26" spans="1:7" ht="31">
       <c r="A26" s="47" t="s">
         <v>1113</v>
       </c>
@@ -20633,16 +20633,16 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="19" style="32" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" style="27" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="27" customWidth="1"/>
     <col min="4" max="4" width="25" style="27" customWidth="1"/>
     <col min="5" max="5" width="46" style="27" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="27" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="27" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="27" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="27" customWidth="1"/>
+    <col min="8" max="1025" width="8.83203125" style="27" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>

--- a/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\git\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\gsa-devel\piv-conformance-swing\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1B1AA2-B6A1-4265-8875-474FBBF42034}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECEB31A-809D-4D5A-A1B9-ED5DC9B307A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3592" uniqueCount="1262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3644" uniqueCount="1262">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -4667,13 +4667,13 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="57.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="57.35546875" style="4" customWidth="1"/>
     <col min="3" max="5" width="10.5" style="4" customWidth="1"/>
-    <col min="6" max="256" width="8.83203125" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.83203125" style="27" customWidth="1"/>
+    <col min="6" max="256" width="8.85546875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.85546875" style="27" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
@@ -5330,7 +5330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="31">
+    <row r="74" spans="1:5" ht="31.75">
       <c r="A74" s="3" t="s">
         <v>205</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="31">
+    <row r="85" spans="1:2" ht="31.75">
       <c r="A85" s="3" t="s">
         <v>217</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="31">
+    <row r="96" spans="1:2" ht="31.75">
       <c r="A96" s="3" t="s">
         <v>229</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="31">
+    <row r="114" spans="1:2" ht="31.75">
       <c r="A114" s="3" t="s">
         <v>255</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="28">
+    <row r="116" spans="1:2" ht="28.3">
       <c r="A116" s="3" t="s">
         <v>258</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="46.5">
+    <row r="121" spans="1:2" ht="47.6">
       <c r="A121" s="3" t="s">
         <v>267</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="62">
+    <row r="123" spans="1:2" ht="63.45">
       <c r="A123" s="3" t="s">
         <v>272</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="31">
+    <row r="142" spans="1:2" ht="31.75">
       <c r="A142" s="3" t="s">
         <v>296</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="31">
+    <row r="144" spans="1:2" ht="31.75">
       <c r="A144" s="3" t="s">
         <v>301</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="46.5">
+    <row r="145" spans="1:2" ht="31.75">
       <c r="A145" s="3" t="s">
         <v>303</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="46.5">
+    <row r="146" spans="1:2" ht="47.6">
       <c r="A146" s="3" t="s">
         <v>305</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="46.5">
+    <row r="149" spans="1:2" ht="47.6">
       <c r="A149" s="3" t="s">
         <v>311</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="62">
+    <row r="151" spans="1:2" ht="47.6">
       <c r="A151" s="3" t="s">
         <v>315</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="31">
+    <row r="152" spans="1:2" ht="31.75">
       <c r="A152" s="3" t="s">
         <v>317</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="31">
+    <row r="153" spans="1:2" ht="31.75">
       <c r="A153" s="3" t="s">
         <v>319</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="31">
+    <row r="161" spans="1:2" ht="31.75">
       <c r="A161" s="3" t="s">
         <v>327</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="31">
+    <row r="163" spans="1:2" ht="31.75">
       <c r="A163" s="3" t="s">
         <v>329</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="31">
+    <row r="164" spans="1:2" ht="31.75">
       <c r="A164" s="3" t="s">
         <v>330</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="46.5">
+    <row r="165" spans="1:2" ht="47.6">
       <c r="A165" s="3" t="s">
         <v>332</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="31">
+    <row r="168" spans="1:2" ht="31.75">
       <c r="A168" s="3" t="s">
         <v>336</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="62">
+    <row r="170" spans="1:2" ht="47.6">
       <c r="A170" s="3" t="s">
         <v>340</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="31">
+    <row r="171" spans="1:2" ht="31.75">
       <c r="A171" s="3" t="s">
         <v>341</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="31">
+    <row r="172" spans="1:2" ht="31.75">
       <c r="A172" s="3" t="s">
         <v>342</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="46.5">
+    <row r="184" spans="1:2" ht="47.6">
       <c r="A184" s="3" t="s">
         <v>332</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="31">
+    <row r="187" spans="1:2" ht="31.75">
       <c r="A187" s="3" t="s">
         <v>360</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="62">
+    <row r="189" spans="1:2" ht="47.6">
       <c r="A189" s="3" t="s">
         <v>363</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="31">
+    <row r="190" spans="1:2" ht="31.75">
       <c r="A190" s="3" t="s">
         <v>364</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="31">
+    <row r="191" spans="1:2" ht="31.75">
       <c r="A191" s="3" t="s">
         <v>365</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="46.5">
+    <row r="197" spans="1:2" ht="47.6">
       <c r="A197" s="3" t="s">
         <v>375</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="46.5">
+    <row r="198" spans="1:2" ht="47.6">
       <c r="A198" s="3" t="s">
         <v>377</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="31">
+    <row r="201" spans="1:2" ht="31.75">
       <c r="A201" s="3" t="s">
         <v>382</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="31">
+    <row r="202" spans="1:2" ht="31.75">
       <c r="A202" s="3" t="s">
         <v>384</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="31">
+    <row r="215" spans="1:2" ht="31.75">
       <c r="A215" s="3" t="s">
         <v>409</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="46.5">
+    <row r="233" spans="1:2" ht="47.6">
       <c r="A233" s="3" t="s">
         <v>432</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="31">
+    <row r="235" spans="1:2" ht="31.75">
       <c r="A235" s="3" t="s">
         <v>439</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="31">
+    <row r="236" spans="1:2" ht="31.75">
       <c r="A236" s="3" t="s">
         <v>442</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="46.5">
+    <row r="239" spans="1:2" ht="47.6">
       <c r="A239" s="3" t="s">
         <v>451</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="46.5">
+    <row r="240" spans="1:2" ht="47.6">
       <c r="A240" s="3" t="s">
         <v>454</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="77.5">
+    <row r="241" spans="1:2" ht="79.3">
       <c r="A241" s="3" t="s">
         <v>457</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="46.5">
+    <row r="242" spans="1:2" ht="47.6">
       <c r="A242" s="3" t="s">
         <v>460</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="77.5">
+    <row r="243" spans="1:2" ht="79.3">
       <c r="A243" s="3" t="s">
         <v>463</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="31">
+    <row r="244" spans="1:2" ht="31.75">
       <c r="A244" s="3" t="s">
         <v>466</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="46.5">
+    <row r="247" spans="1:2" ht="47.6">
       <c r="A247" s="3" t="s">
         <v>471</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="31">
+    <row r="249" spans="1:2" ht="31.75">
       <c r="A249" s="3" t="s">
         <v>476</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="31">
+    <row r="250" spans="1:2" ht="31.75">
       <c r="A250" s="3" t="s">
         <v>478</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="31">
+    <row r="254" spans="1:2" ht="31.75">
       <c r="A254" s="3" t="s">
         <v>484</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="31">
+    <row r="255" spans="1:2" ht="31.75">
       <c r="A255" s="3" t="s">
         <v>486</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="31">
+    <row r="256" spans="1:2" ht="31.75">
       <c r="A256" s="3" t="s">
         <v>489</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="46.5">
+    <row r="257" spans="1:2" ht="47.6">
       <c r="A257" s="3" t="s">
         <v>491</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="46.5">
+    <row r="258" spans="1:2" ht="47.6">
       <c r="A258" s="3" t="s">
         <v>494</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="62">
+    <row r="259" spans="1:2" ht="63.45">
       <c r="A259" s="3" t="s">
         <v>496</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="77.5">
+    <row r="260" spans="1:2" ht="79.3">
       <c r="A260" s="3" t="s">
         <v>498</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="77.5">
+    <row r="261" spans="1:2" ht="79.3">
       <c r="A261" s="3" t="s">
         <v>500</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="46.5">
+    <row r="262" spans="1:2" ht="47.6">
       <c r="A262" s="3" t="s">
         <v>503</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="46.5">
+    <row r="265" spans="1:2" ht="47.6">
       <c r="A265" s="3" t="s">
         <v>507</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="31">
+    <row r="267" spans="1:2" ht="31.75">
       <c r="A267" s="3" t="s">
         <v>509</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="31">
+    <row r="268" spans="1:2" ht="31.75">
       <c r="A268" s="3" t="s">
         <v>510</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="31">
+    <row r="272" spans="1:2" ht="31.75">
       <c r="A272" s="3" t="s">
         <v>514</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="31">
+    <row r="273" spans="1:2" ht="31.75">
       <c r="A273" s="3" t="s">
         <v>515</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="31">
+    <row r="274" spans="1:2" ht="31.75">
       <c r="A274" s="3" t="s">
         <v>516</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="46.5">
+    <row r="275" spans="1:2" ht="47.6">
       <c r="A275" s="3" t="s">
         <v>517</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="46.5">
+    <row r="276" spans="1:2" ht="47.6">
       <c r="A276" s="3" t="s">
         <v>518</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="62">
+    <row r="277" spans="1:2" ht="63.45">
       <c r="A277" s="3" t="s">
         <v>519</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="77.5">
+    <row r="278" spans="1:2" ht="79.3">
       <c r="A278" s="3" t="s">
         <v>520</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="77.5">
+    <row r="279" spans="1:2" ht="79.3">
       <c r="A279" s="3" t="s">
         <v>521</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="46.5">
+    <row r="280" spans="1:2" ht="47.6">
       <c r="A280" s="3" t="s">
         <v>522</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="31">
+    <row r="283" spans="1:2" ht="31.75">
       <c r="A283" s="3" t="s">
         <v>524</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="31">
+    <row r="285" spans="1:2" ht="31.75">
       <c r="A285" s="3" t="s">
         <v>528</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="46.5">
+    <row r="288" spans="1:2" ht="47.6">
       <c r="A288" s="3" t="s">
         <v>537</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="77.5">
+    <row r="291" spans="1:2" ht="79.3">
       <c r="A291" s="3" t="s">
         <v>545</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="46.5">
+    <row r="294" spans="1:2" ht="47.6">
       <c r="A294" s="3" t="s">
         <v>549</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="31">
+    <row r="296" spans="1:2" ht="31.75">
       <c r="A296" s="3" t="s">
         <v>551</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="31">
+    <row r="297" spans="1:2" ht="31.75">
       <c r="A297" s="3" t="s">
         <v>552</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="31">
+    <row r="301" spans="1:2" ht="31.75">
       <c r="A301" s="3" t="s">
         <v>556</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="31">
+    <row r="302" spans="1:2" ht="31.75">
       <c r="A302" s="3" t="s">
         <v>557</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="31">
+    <row r="303" spans="1:2" ht="31.75">
       <c r="A303" s="3" t="s">
         <v>558</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="46.5">
+    <row r="304" spans="1:2" ht="47.6">
       <c r="A304" s="3" t="s">
         <v>559</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="46.5">
+    <row r="305" spans="1:2" ht="47.6">
       <c r="A305" s="3" t="s">
         <v>560</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="62">
+    <row r="306" spans="1:2" ht="63.45">
       <c r="A306" s="3" t="s">
         <v>561</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="77.5">
+    <row r="307" spans="1:2" ht="79.3">
       <c r="A307" s="3" t="s">
         <v>562</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="77.5">
+    <row r="308" spans="1:2" ht="79.3">
       <c r="A308" s="3" t="s">
         <v>563</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="46.5">
+    <row r="309" spans="1:2" ht="47.6">
       <c r="A309" s="3" t="s">
         <v>564</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="93">
+    <row r="313" spans="1:2" ht="95.15">
       <c r="A313" s="3" t="s">
         <v>566</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="31">
+    <row r="314" spans="1:2" ht="31.75">
       <c r="A314" s="3" t="s">
         <v>569</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="31">
+    <row r="320" spans="1:2" ht="31.75">
       <c r="A320" s="3" t="s">
         <v>584</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="31">
+    <row r="324" spans="1:2" ht="31.75">
       <c r="A324" s="3" t="s">
         <v>595</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="31">
+    <row r="326" spans="1:2" ht="31.75">
       <c r="A326" s="3" t="s">
         <v>601</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="62">
+    <row r="328" spans="1:2" ht="63.45">
       <c r="A328" s="3" t="s">
         <v>607</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="46.5">
+    <row r="329" spans="1:2" ht="47.6">
       <c r="A329" s="3" t="s">
         <v>609</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="31">
+    <row r="331" spans="1:2" ht="31.75">
       <c r="A331" s="3" t="s">
         <v>613</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="31">
+    <row r="332" spans="1:2" ht="31.75">
       <c r="A332" s="3" t="s">
         <v>616</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="31">
+    <row r="339" spans="1:2" ht="31.75">
       <c r="A339" s="3" t="s">
         <v>630</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="93">
+    <row r="344" spans="1:2" ht="95.15">
       <c r="A344" s="3" t="s">
         <v>638</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="31">
+    <row r="345" spans="1:2" ht="31.75">
       <c r="A345" s="3" t="s">
         <v>639</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="31">
+    <row r="351" spans="1:2" ht="31.75">
       <c r="A351" s="3" t="s">
         <v>652</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="31">
+    <row r="352" spans="1:2" ht="31.75">
       <c r="A352" s="3" t="s">
         <v>654</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="31">
+    <row r="353" spans="1:2" ht="31.75">
       <c r="A353" s="3" t="s">
         <v>656</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="46.5">
+    <row r="354" spans="1:2" ht="47.6">
       <c r="A354" s="3" t="s">
         <v>658</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="31">
+    <row r="361" spans="1:2" ht="31.75">
       <c r="A361" s="3" t="s">
         <v>667</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="77.5">
+    <row r="366" spans="1:2" ht="79.3">
       <c r="A366" s="3" t="s">
         <v>671</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="31">
+    <row r="367" spans="1:2" ht="31.75">
       <c r="A367" s="3" t="s">
         <v>673</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="31">
+    <row r="371" spans="1:2" ht="31.75">
       <c r="A371" s="3" t="s">
         <v>679</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="31">
+    <row r="372" spans="1:2" ht="31.75">
       <c r="A372" s="3" t="s">
         <v>682</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="31">
+    <row r="374" spans="1:2" ht="31.75">
       <c r="A374" s="3" t="s">
         <v>687</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="31">
+    <row r="375" spans="1:2" ht="31.75">
       <c r="A375" s="3" t="s">
         <v>689</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="46.5">
+    <row r="376" spans="1:2" ht="47.6">
       <c r="A376" s="3" t="s">
         <v>691</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="31">
+    <row r="383" spans="1:2" ht="31.75">
       <c r="A383" s="3" t="s">
         <v>698</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="77.5">
+    <row r="388" spans="1:2" ht="79.3">
       <c r="A388" s="3" t="s">
         <v>702</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="31">
+    <row r="389" spans="1:2" ht="31.75">
       <c r="A389" s="3" t="s">
         <v>703</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="31">
+    <row r="396" spans="1:2" ht="31.75">
       <c r="A396" s="3" t="s">
         <v>714</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="31">
+    <row r="399" spans="1:2" ht="31.75">
       <c r="A399" s="3" t="s">
         <v>722</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="31">
+    <row r="404" spans="1:2" ht="31.75">
       <c r="A404" s="3" t="s">
         <v>732</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="31">
+    <row r="407" spans="1:2" ht="31.75">
       <c r="A407" s="3" t="s">
         <v>735</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="62">
+    <row r="409" spans="1:2" ht="63.45">
       <c r="A409" s="3" t="s">
         <v>737</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="46.5">
+    <row r="410" spans="1:2" ht="47.6">
       <c r="A410" s="3" t="s">
         <v>739</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="31">
+    <row r="412" spans="1:2" ht="31.75">
       <c r="A412" s="3" t="s">
         <v>742</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="31">
+    <row r="419" spans="1:2" ht="31.75">
       <c r="A419" s="3" t="s">
         <v>749</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="77.5">
+    <row r="431" spans="1:2" ht="79.3">
       <c r="A431" s="3" t="s">
         <v>758</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="31">
+    <row r="432" spans="1:2" ht="31.75">
       <c r="A432" s="3" t="s">
         <v>759</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="31">
+    <row r="439" spans="1:2" ht="31.75">
       <c r="A439" s="3" t="s">
         <v>768</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="46.5">
+    <row r="440" spans="1:2" ht="47.6">
       <c r="A440" s="3" t="s">
         <v>770</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="31">
+    <row r="448" spans="1:2" ht="31.75">
       <c r="A448" s="3" t="s">
         <v>779</v>
       </c>
@@ -8361,25 +8361,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H459"/>
   <sheetViews>
-    <sheetView topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D219" sqref="D219"/>
+    <sheetView tabSelected="1" topLeftCell="C190" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F190" sqref="F190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.2109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="12" style="4" customWidth="1"/>
-    <col min="3" max="3" width="43.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="52" customWidth="1"/>
-    <col min="6" max="6" width="67.58203125" style="52" customWidth="1"/>
-    <col min="7" max="7" width="84.58203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.35546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="52" customWidth="1"/>
+    <col min="6" max="6" width="67.5703125" style="52" customWidth="1"/>
+    <col min="7" max="7" width="84.5703125" style="4" customWidth="1"/>
     <col min="8" max="8" width="9" style="64"/>
     <col min="9" max="1027" width="8.5" style="27" customWidth="1"/>
     <col min="1028" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="60" customFormat="1" ht="18.5">
+    <row r="1" spans="1:8" s="60" customFormat="1" ht="18.45">
       <c r="A1" s="51" t="s">
         <v>52</v>
       </c>
@@ -8433,7 +8433,7 @@
       <c r="F3" s="56"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:8" ht="31">
+    <row r="4" spans="1:8" ht="31.75">
       <c r="A4" s="3" t="s">
         <v>58</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="31">
+    <row r="5" spans="1:8" ht="31.75">
       <c r="A5" s="3" t="s">
         <v>58</v>
       </c>
@@ -8492,7 +8492,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="31">
+    <row r="7" spans="1:8" ht="31.75">
       <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="31">
+    <row r="8" spans="1:8" ht="31.75">
       <c r="A8" s="3" t="s">
         <v>58</v>
       </c>
@@ -8549,7 +8549,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="31">
+    <row r="10" spans="1:8" ht="31.75">
       <c r="A10" s="3" t="s">
         <v>58</v>
       </c>
@@ -8568,7 +8568,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="46.5">
+    <row r="11" spans="1:8" ht="47.6">
       <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
@@ -8587,7 +8587,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="31">
+    <row r="12" spans="1:8" ht="31.75">
       <c r="A12" s="3" t="s">
         <v>58</v>
       </c>
@@ -8606,7 +8606,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="31">
+    <row r="13" spans="1:8" ht="31.75">
       <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
@@ -8659,7 +8659,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="31">
+    <row r="16" spans="1:8" ht="31.75">
       <c r="A16" s="3" t="s">
         <v>58</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="31">
+    <row r="17" spans="1:7" ht="31.75">
       <c r="A17" s="3" t="s">
         <v>58</v>
       </c>
@@ -8718,7 +8718,7 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="31">
+    <row r="19" spans="1:7" ht="31.75">
       <c r="A19" s="3" t="s">
         <v>58</v>
       </c>
@@ -8775,7 +8775,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="31">
+    <row r="22" spans="1:7" ht="31.75">
       <c r="A22" s="65" t="s">
         <v>58</v>
       </c>
@@ -8794,7 +8794,7 @@
       </c>
       <c r="G22" s="65"/>
     </row>
-    <row r="23" spans="1:7" ht="31">
+    <row r="23" spans="1:7" ht="31.75">
       <c r="A23" s="3" t="s">
         <v>58</v>
       </c>
@@ -8925,7 +8925,7 @@
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="31">
+    <row r="30" spans="1:7" ht="47.6">
       <c r="A30" s="3" t="s">
         <v>58</v>
       </c>
@@ -9020,7 +9020,7 @@
       </c>
       <c r="G34" s="65"/>
     </row>
-    <row r="35" spans="1:7" ht="31">
+    <row r="35" spans="1:7" ht="31.75">
       <c r="A35" s="3" t="s">
         <v>58</v>
       </c>
@@ -9077,7 +9077,7 @@
       </c>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="46.5">
+    <row r="38" spans="1:7" ht="47.6">
       <c r="A38" s="3" t="s">
         <v>58</v>
       </c>
@@ -9149,7 +9149,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" ht="31">
+    <row r="42" spans="1:7" ht="31.75">
       <c r="A42" s="3" t="s">
         <v>58</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="31">
+    <row r="43" spans="1:7" ht="31.75">
       <c r="A43" s="3" t="s">
         <v>58</v>
       </c>
@@ -9208,7 +9208,7 @@
       </c>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="31">
+    <row r="45" spans="1:7" ht="31.75">
       <c r="A45" s="3" t="s">
         <v>58</v>
       </c>
@@ -9265,7 +9265,7 @@
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="31">
+    <row r="48" spans="1:7" ht="31.75">
       <c r="A48" s="3" t="s">
         <v>58</v>
       </c>
@@ -9284,7 +9284,7 @@
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" ht="31">
+    <row r="49" spans="1:7" ht="31.75">
       <c r="A49" s="3" t="s">
         <v>58</v>
       </c>
@@ -9303,7 +9303,7 @@
       </c>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="31">
+    <row r="50" spans="1:7" ht="31.75">
       <c r="A50" s="3" t="s">
         <v>58</v>
       </c>
@@ -9356,7 +9356,7 @@
       <c r="F52" s="53"/>
       <c r="G52" s="10"/>
     </row>
-    <row r="53" spans="1:7" ht="31">
+    <row r="53" spans="1:7" ht="31.75">
       <c r="A53" s="3" t="s">
         <v>58</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="31">
+    <row r="54" spans="1:7" ht="31.75">
       <c r="A54" s="3" t="s">
         <v>58</v>
       </c>
@@ -9415,7 +9415,7 @@
       </c>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" ht="31">
+    <row r="56" spans="1:7" ht="31.75">
       <c r="A56" s="3" t="s">
         <v>58</v>
       </c>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" ht="31">
+    <row r="58" spans="1:7" ht="31.75">
       <c r="A58" s="3" t="s">
         <v>58</v>
       </c>
@@ -9472,7 +9472,7 @@
       </c>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" ht="31">
+    <row r="59" spans="1:7" ht="31.75">
       <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
@@ -9491,7 +9491,7 @@
       </c>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" ht="31">
+    <row r="60" spans="1:7" ht="31.75">
       <c r="A60" s="3" t="s">
         <v>58</v>
       </c>
@@ -9544,7 +9544,7 @@
       <c r="F62" s="53"/>
       <c r="G62" s="10"/>
     </row>
-    <row r="63" spans="1:7" ht="31">
+    <row r="63" spans="1:7" ht="31.75">
       <c r="A63" s="3" t="s">
         <v>58</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="31">
+    <row r="64" spans="1:7" ht="31.75">
       <c r="A64" s="3" t="s">
         <v>58</v>
       </c>
@@ -9603,7 +9603,7 @@
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" ht="31">
+    <row r="66" spans="1:7" ht="31.75">
       <c r="A66" s="3" t="s">
         <v>58</v>
       </c>
@@ -9641,7 +9641,7 @@
       </c>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" ht="31">
+    <row r="68" spans="1:7" ht="31.75">
       <c r="A68" s="3" t="s">
         <v>58</v>
       </c>
@@ -9698,7 +9698,7 @@
       </c>
       <c r="G70" s="65"/>
     </row>
-    <row r="71" spans="1:7" ht="31">
+    <row r="71" spans="1:7" ht="31.75">
       <c r="A71" s="3" t="s">
         <v>58</v>
       </c>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" ht="31">
+    <row r="72" spans="1:7" ht="31.75">
       <c r="A72" s="3" t="s">
         <v>58</v>
       </c>
@@ -9736,7 +9736,7 @@
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" ht="31">
+    <row r="73" spans="1:7" ht="31.75">
       <c r="A73" s="3" t="s">
         <v>58</v>
       </c>
@@ -9789,7 +9789,7 @@
       <c r="F75" s="53"/>
       <c r="G75" s="10"/>
     </row>
-    <row r="76" spans="1:7" ht="31">
+    <row r="76" spans="1:7" ht="31.75">
       <c r="A76" s="3" t="s">
         <v>58</v>
       </c>
@@ -9810,7 +9810,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="31">
+    <row r="77" spans="1:7" ht="31.75">
       <c r="A77" s="3" t="s">
         <v>58</v>
       </c>
@@ -9848,7 +9848,7 @@
       </c>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7" ht="31">
+    <row r="79" spans="1:7" ht="31.75">
       <c r="A79" s="3" t="s">
         <v>58</v>
       </c>
@@ -9867,7 +9867,7 @@
       </c>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7" ht="31">
+    <row r="80" spans="1:7" ht="31.75">
       <c r="A80" s="3" t="s">
         <v>58</v>
       </c>
@@ -9886,7 +9886,7 @@
       </c>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" ht="31">
+    <row r="81" spans="1:7" ht="31.75">
       <c r="A81" s="3" t="s">
         <v>58</v>
       </c>
@@ -9958,7 +9958,7 @@
       <c r="F84" s="53"/>
       <c r="G84" s="10"/>
     </row>
-    <row r="85" spans="1:7" ht="31">
+    <row r="85" spans="1:7" ht="31.75">
       <c r="A85" s="3" t="s">
         <v>58</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="31">
+    <row r="86" spans="1:7" ht="31.75">
       <c r="A86" s="3" t="s">
         <v>58</v>
       </c>
@@ -10017,7 +10017,7 @@
       </c>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" ht="31">
+    <row r="88" spans="1:7" ht="31.75">
       <c r="A88" s="3" t="s">
         <v>58</v>
       </c>
@@ -10074,7 +10074,7 @@
       </c>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" ht="31">
+    <row r="91" spans="1:7" ht="31.75">
       <c r="A91" s="3" t="s">
         <v>58</v>
       </c>
@@ -10093,7 +10093,7 @@
       </c>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" ht="31">
+    <row r="92" spans="1:7" ht="31.75">
       <c r="A92" s="3" t="s">
         <v>58</v>
       </c>
@@ -10112,7 +10112,7 @@
       </c>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" ht="31">
+    <row r="93" spans="1:7" ht="31.75">
       <c r="A93" s="3" t="s">
         <v>58</v>
       </c>
@@ -10165,7 +10165,7 @@
       <c r="F95" s="53"/>
       <c r="G95" s="10"/>
     </row>
-    <row r="96" spans="1:7" ht="31">
+    <row r="96" spans="1:7" ht="31.75">
       <c r="A96" s="3" t="s">
         <v>58</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="31">
+    <row r="97" spans="1:7" ht="31.75">
       <c r="A97" s="3" t="s">
         <v>58</v>
       </c>
@@ -10224,7 +10224,7 @@
       </c>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7" ht="31">
+    <row r="99" spans="1:7" ht="31.75">
       <c r="A99" s="3" t="s">
         <v>58</v>
       </c>
@@ -10281,7 +10281,7 @@
       </c>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" ht="31">
+    <row r="102" spans="1:7" ht="31.75">
       <c r="A102" s="3" t="s">
         <v>58</v>
       </c>
@@ -10300,7 +10300,7 @@
       </c>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7" ht="31">
+    <row r="103" spans="1:7" ht="31.75">
       <c r="A103" s="3" t="s">
         <v>58</v>
       </c>
@@ -10319,7 +10319,7 @@
       </c>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7" ht="31">
+    <row r="104" spans="1:7" ht="31.75">
       <c r="A104" s="3" t="s">
         <v>58</v>
       </c>
@@ -10372,7 +10372,7 @@
       <c r="F106" s="53"/>
       <c r="G106" s="10"/>
     </row>
-    <row r="107" spans="1:7" ht="31">
+    <row r="107" spans="1:7" ht="31.75">
       <c r="A107" s="3" t="s">
         <v>58</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="31">
+    <row r="108" spans="1:7" ht="31.75">
       <c r="A108" s="3" t="s">
         <v>58</v>
       </c>
@@ -10431,7 +10431,7 @@
       </c>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7" ht="31">
+    <row r="110" spans="1:7" ht="31.75">
       <c r="A110" s="3" t="s">
         <v>58</v>
       </c>
@@ -10488,7 +10488,7 @@
       </c>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:7" ht="31">
+    <row r="113" spans="1:7" ht="31.75">
       <c r="A113" s="3" t="s">
         <v>58</v>
       </c>
@@ -10507,7 +10507,7 @@
       </c>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:7" ht="31">
+    <row r="114" spans="1:7" ht="31.75">
       <c r="A114" s="3" t="s">
         <v>58</v>
       </c>
@@ -10526,7 +10526,7 @@
       </c>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7" ht="31">
+    <row r="115" spans="1:7" ht="31.75">
       <c r="A115" s="3" t="s">
         <v>58</v>
       </c>
@@ -10579,7 +10579,7 @@
       <c r="F117" s="53"/>
       <c r="G117" s="10"/>
     </row>
-    <row r="118" spans="1:7" ht="31">
+    <row r="118" spans="1:7" ht="31.75">
       <c r="A118" s="3" t="s">
         <v>58</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="31">
+    <row r="119" spans="1:7" ht="31.75">
       <c r="A119" s="3" t="s">
         <v>58</v>
       </c>
@@ -10638,7 +10638,7 @@
       </c>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7" ht="31">
+    <row r="121" spans="1:7" ht="31.75">
       <c r="A121" s="3" t="s">
         <v>58</v>
       </c>
@@ -10733,7 +10733,7 @@
       </c>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7" ht="46.5">
+    <row r="126" spans="1:7" ht="47.6">
       <c r="A126" s="3" t="s">
         <v>58</v>
       </c>
@@ -10767,7 +10767,7 @@
       <c r="F127" s="53"/>
       <c r="G127" s="10"/>
     </row>
-    <row r="128" spans="1:7" ht="28">
+    <row r="128" spans="1:7" ht="28.3">
       <c r="A128" s="3" t="s">
         <v>58</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="28">
+    <row r="129" spans="1:7" ht="28.3">
       <c r="A129" s="3" t="s">
         <v>58</v>
       </c>
@@ -10832,7 +10832,7 @@
       </c>
       <c r="G130" s="11"/>
     </row>
-    <row r="131" spans="1:7" ht="28">
+    <row r="131" spans="1:7" ht="28.3">
       <c r="A131" s="3" t="s">
         <v>58</v>
       </c>
@@ -10895,7 +10895,7 @@
       </c>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="1:7" ht="31">
+    <row r="134" spans="1:7" ht="31.75">
       <c r="A134" s="65" t="s">
         <v>58</v>
       </c>
@@ -10914,7 +10914,7 @@
       </c>
       <c r="G134" s="65"/>
     </row>
-    <row r="135" spans="1:7" ht="31">
+    <row r="135" spans="1:7" ht="31.75">
       <c r="A135" s="3" t="s">
         <v>58</v>
       </c>
@@ -10935,7 +10935,7 @@
       </c>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="1:7" ht="77.5">
+    <row r="136" spans="1:7" ht="79.3">
       <c r="A136" s="3" t="s">
         <v>58</v>
       </c>
@@ -10956,7 +10956,7 @@
       </c>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="1:7" ht="31">
+    <row r="137" spans="1:7" ht="31.75">
       <c r="A137" s="3" t="s">
         <v>131</v>
       </c>
@@ -11030,7 +11030,7 @@
       <c r="F140" s="53"/>
       <c r="G140" s="10"/>
     </row>
-    <row r="141" spans="1:7" ht="31">
+    <row r="141" spans="1:7" ht="31.75">
       <c r="A141" s="3" t="s">
         <v>58</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="31">
+    <row r="142" spans="1:7" ht="31.75">
       <c r="A142" s="3" t="s">
         <v>58</v>
       </c>
@@ -11072,7 +11072,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="31">
+    <row r="143" spans="1:7" ht="31.75">
       <c r="A143" s="3" t="s">
         <v>58</v>
       </c>
@@ -11189,7 +11189,7 @@
       <c r="F149" s="53"/>
       <c r="G149" s="18"/>
     </row>
-    <row r="150" spans="1:7" ht="31">
+    <row r="150" spans="1:7" ht="31.75">
       <c r="A150" s="3" t="s">
         <v>58</v>
       </c>
@@ -11274,7 +11274,7 @@
       <c r="F154" s="53"/>
       <c r="G154" s="18"/>
     </row>
-    <row r="155" spans="1:7" ht="31">
+    <row r="155" spans="1:7" ht="31.75">
       <c r="A155" s="3" t="s">
         <v>58</v>
       </c>
@@ -11293,7 +11293,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="31">
+    <row r="156" spans="1:7" ht="31.75">
       <c r="A156" s="3" t="s">
         <v>58</v>
       </c>
@@ -11310,7 +11310,7 @@
       <c r="F156" s="53"/>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:7" ht="46.5">
+    <row r="157" spans="1:7" ht="47.6">
       <c r="A157" s="3" t="s">
         <v>58</v>
       </c>
@@ -11344,7 +11344,7 @@
       <c r="F158" s="62"/>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" spans="1:7" ht="46.5">
+    <row r="159" spans="1:7" ht="47.6">
       <c r="A159" s="3" t="s">
         <v>58</v>
       </c>
@@ -11361,7 +11361,7 @@
       <c r="F159" s="62"/>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" spans="1:7" ht="31">
+    <row r="160" spans="1:7" ht="31.75">
       <c r="A160" s="3" t="s">
         <v>58</v>
       </c>
@@ -11378,7 +11378,7 @@
       <c r="F160" s="62"/>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="1:7" ht="31">
+    <row r="161" spans="1:7" ht="31.75">
       <c r="A161" s="3" t="s">
         <v>58</v>
       </c>
@@ -11395,7 +11395,7 @@
       <c r="F161" s="62"/>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" spans="1:7" ht="62">
+    <row r="162" spans="1:7" ht="63.45">
       <c r="A162" s="3" t="s">
         <v>58</v>
       </c>
@@ -11429,7 +11429,7 @@
       <c r="F163" s="62"/>
       <c r="G163" s="39"/>
     </row>
-    <row r="164" spans="1:7" ht="77.5">
+    <row r="164" spans="1:7" ht="63.45">
       <c r="A164" s="3" t="s">
         <v>58</v>
       </c>
@@ -11446,7 +11446,7 @@
       <c r="F164" s="53"/>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" spans="1:7" ht="46.5">
+    <row r="165" spans="1:7" ht="47.6">
       <c r="A165" s="3" t="s">
         <v>58</v>
       </c>
@@ -11463,7 +11463,7 @@
       <c r="F165" s="53"/>
       <c r="G165" s="3"/>
     </row>
-    <row r="166" spans="1:7" ht="31">
+    <row r="166" spans="1:7" ht="31.75">
       <c r="A166" s="3" t="s">
         <v>58</v>
       </c>
@@ -11510,7 +11510,7 @@
       <c r="F168" s="53"/>
       <c r="G168" s="18"/>
     </row>
-    <row r="169" spans="1:7" ht="31">
+    <row r="169" spans="1:7" ht="31.75">
       <c r="A169" s="3" t="s">
         <v>58</v>
       </c>
@@ -11595,7 +11595,7 @@
       <c r="F173" s="53"/>
       <c r="G173" s="18"/>
     </row>
-    <row r="174" spans="1:7" ht="31">
+    <row r="174" spans="1:7" ht="31.75">
       <c r="A174" s="3" t="s">
         <v>58</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="31">
+    <row r="175" spans="1:7" ht="31.75">
       <c r="A175" s="3" t="s">
         <v>58</v>
       </c>
@@ -11631,7 +11631,7 @@
       <c r="F175" s="53"/>
       <c r="G175" s="3"/>
     </row>
-    <row r="176" spans="1:7" ht="46.5">
+    <row r="176" spans="1:7" ht="47.6">
       <c r="A176" s="3" t="s">
         <v>58</v>
       </c>
@@ -11665,7 +11665,7 @@
       <c r="F177" s="62"/>
       <c r="G177" s="3"/>
     </row>
-    <row r="178" spans="1:7" ht="46.5">
+    <row r="178" spans="1:7" ht="47.6">
       <c r="A178" s="3" t="s">
         <v>58</v>
       </c>
@@ -11682,7 +11682,7 @@
       <c r="F178" s="62"/>
       <c r="G178" s="3"/>
     </row>
-    <row r="179" spans="1:7" ht="31">
+    <row r="179" spans="1:7" ht="31.75">
       <c r="A179" s="3" t="s">
         <v>58</v>
       </c>
@@ -11699,7 +11699,7 @@
       <c r="F179" s="62"/>
       <c r="G179" s="3"/>
     </row>
-    <row r="180" spans="1:7" ht="31">
+    <row r="180" spans="1:7">
       <c r="A180" s="3" t="s">
         <v>58</v>
       </c>
@@ -11716,7 +11716,7 @@
       <c r="F180" s="62"/>
       <c r="G180" s="3"/>
     </row>
-    <row r="181" spans="1:7" ht="46.5">
+    <row r="181" spans="1:7" ht="47.6">
       <c r="A181" s="3" t="s">
         <v>58</v>
       </c>
@@ -11750,7 +11750,7 @@
       <c r="F182" s="62"/>
       <c r="G182" s="3"/>
     </row>
-    <row r="183" spans="1:7" ht="77.5">
+    <row r="183" spans="1:7" ht="63.45">
       <c r="A183" s="3" t="s">
         <v>58</v>
       </c>
@@ -11767,7 +11767,7 @@
       <c r="F183" s="53"/>
       <c r="G183" s="3"/>
     </row>
-    <row r="184" spans="1:7" ht="46.5">
+    <row r="184" spans="1:7" ht="47.6">
       <c r="A184" s="3" t="s">
         <v>58</v>
       </c>
@@ -11784,7 +11784,7 @@
       <c r="F184" s="53"/>
       <c r="G184" s="3"/>
     </row>
-    <row r="185" spans="1:7" ht="31">
+    <row r="185" spans="1:7" ht="31.75">
       <c r="A185" s="3" t="s">
         <v>58</v>
       </c>
@@ -11831,7 +11831,7 @@
       <c r="F187" s="53"/>
       <c r="G187" s="18"/>
     </row>
-    <row r="188" spans="1:7" ht="31">
+    <row r="188" spans="1:7" ht="31.75">
       <c r="A188" s="3" t="s">
         <v>58</v>
       </c>
@@ -11935,7 +11935,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="31">
+    <row r="194" spans="1:7" ht="31.75">
       <c r="A194" s="3" t="s">
         <v>58</v>
       </c>
@@ -11986,7 +11986,7 @@
       <c r="F196" s="62"/>
       <c r="G196" s="3"/>
     </row>
-    <row r="197" spans="1:7" ht="46.5">
+    <row r="197" spans="1:7" ht="47.6">
       <c r="A197" s="3" t="s">
         <v>58</v>
       </c>
@@ -12003,7 +12003,7 @@
       <c r="F197" s="62"/>
       <c r="G197" s="3"/>
     </row>
-    <row r="198" spans="1:7" ht="31">
+    <row r="198" spans="1:7" ht="31.75">
       <c r="A198" s="3" t="s">
         <v>58</v>
       </c>
@@ -12020,7 +12020,7 @@
       <c r="F198" s="62"/>
       <c r="G198" s="3"/>
     </row>
-    <row r="199" spans="1:7" ht="31">
+    <row r="199" spans="1:7" ht="31.75">
       <c r="A199" s="3" t="s">
         <v>58</v>
       </c>
@@ -12037,7 +12037,7 @@
       <c r="F199" s="62"/>
       <c r="G199" s="3"/>
     </row>
-    <row r="200" spans="1:7" ht="46.5">
+    <row r="200" spans="1:7" ht="47.6">
       <c r="A200" s="3" t="s">
         <v>58</v>
       </c>
@@ -12071,7 +12071,7 @@
       <c r="F201" s="62"/>
       <c r="G201" s="3"/>
     </row>
-    <row r="202" spans="1:7" ht="77.5">
+    <row r="202" spans="1:7" ht="63.45">
       <c r="A202" s="3" t="s">
         <v>58</v>
       </c>
@@ -12088,7 +12088,7 @@
       <c r="F202" s="53"/>
       <c r="G202" s="3"/>
     </row>
-    <row r="203" spans="1:7" ht="46.5">
+    <row r="203" spans="1:7" ht="47.6">
       <c r="A203" s="3" t="s">
         <v>58</v>
       </c>
@@ -12105,7 +12105,7 @@
       <c r="F203" s="53"/>
       <c r="G203" s="3"/>
     </row>
-    <row r="204" spans="1:7" ht="31">
+    <row r="204" spans="1:7" ht="31.75">
       <c r="A204" s="3" t="s">
         <v>58</v>
       </c>
@@ -12152,7 +12152,7 @@
       <c r="F206" s="53"/>
       <c r="G206" s="18"/>
     </row>
-    <row r="207" spans="1:7" ht="31">
+    <row r="207" spans="1:7" ht="31.75">
       <c r="A207" s="3" t="s">
         <v>58</v>
       </c>
@@ -12171,7 +12171,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="31">
+    <row r="208" spans="1:7" ht="31.75">
       <c r="A208" s="3" t="s">
         <v>58</v>
       </c>
@@ -12188,7 +12188,7 @@
       <c r="F208" s="53"/>
       <c r="G208" s="3"/>
     </row>
-    <row r="209" spans="1:7" ht="31">
+    <row r="209" spans="1:7" ht="31.75">
       <c r="A209" s="3" t="s">
         <v>58</v>
       </c>
@@ -12205,7 +12205,7 @@
       <c r="F209" s="53"/>
       <c r="G209" s="3"/>
     </row>
-    <row r="210" spans="1:7" ht="62">
+    <row r="210" spans="1:7" ht="63.45">
       <c r="A210" s="3" t="s">
         <v>58</v>
       </c>
@@ -12222,7 +12222,7 @@
       <c r="F210" s="53"/>
       <c r="G210" s="3"/>
     </row>
-    <row r="211" spans="1:7" ht="62">
+    <row r="211" spans="1:7" ht="63.45">
       <c r="A211" s="3" t="s">
         <v>58</v>
       </c>
@@ -12239,7 +12239,7 @@
       <c r="F211" s="53"/>
       <c r="G211" s="3"/>
     </row>
-    <row r="212" spans="1:7" ht="31">
+    <row r="212" spans="1:7" ht="31.75">
       <c r="A212" s="3" t="s">
         <v>58</v>
       </c>
@@ -12273,7 +12273,7 @@
       <c r="F213" s="53"/>
       <c r="G213" s="3"/>
     </row>
-    <row r="214" spans="1:7" ht="31">
+    <row r="214" spans="1:7" ht="31.75">
       <c r="A214" s="3" t="s">
         <v>58</v>
       </c>
@@ -12292,7 +12292,7 @@
       <c r="F214" s="53"/>
       <c r="G214" s="39"/>
     </row>
-    <row r="215" spans="1:7" ht="31">
+    <row r="215" spans="1:7" ht="31.75">
       <c r="A215" s="3" t="s">
         <v>58</v>
       </c>
@@ -12413,7 +12413,7 @@
       <c r="F221" s="53"/>
       <c r="G221" s="3"/>
     </row>
-    <row r="222" spans="1:7" ht="31">
+    <row r="222" spans="1:7" ht="31.75">
       <c r="A222" s="3" t="s">
         <v>58</v>
       </c>
@@ -12447,7 +12447,7 @@
       <c r="F223" s="53"/>
       <c r="G223" s="3"/>
     </row>
-    <row r="224" spans="1:7" ht="31">
+    <row r="224" spans="1:7" ht="31.75">
       <c r="A224" s="3" t="s">
         <v>58</v>
       </c>
@@ -12500,7 +12500,7 @@
       <c r="F226" s="53"/>
       <c r="G226" s="3"/>
     </row>
-    <row r="227" spans="1:7" ht="31">
+    <row r="227" spans="1:7" ht="31.75">
       <c r="A227" s="3" t="s">
         <v>58</v>
       </c>
@@ -12634,7 +12634,7 @@
       <c r="F234" s="53"/>
       <c r="G234" s="19"/>
     </row>
-    <row r="235" spans="1:7" ht="31">
+    <row r="235" spans="1:7" ht="31.75">
       <c r="A235" s="3" t="s">
         <v>58</v>
       </c>
@@ -12794,7 +12794,7 @@
       <c r="F244" s="53"/>
       <c r="G244" s="21"/>
     </row>
-    <row r="245" spans="1:7" ht="62">
+    <row r="245" spans="1:7" ht="63.45">
       <c r="A245" s="3" t="s">
         <v>58</v>
       </c>
@@ -12808,12 +12808,14 @@
         <v>435</v>
       </c>
       <c r="E245" s="53"/>
-      <c r="F245" s="53"/>
+      <c r="F245" s="3" t="s">
+        <v>1153</v>
+      </c>
       <c r="G245" s="5" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="31">
+    <row r="246" spans="1:7">
       <c r="A246" s="3" t="s">
         <v>58</v>
       </c>
@@ -12827,10 +12829,12 @@
         <v>438</v>
       </c>
       <c r="E246" s="53"/>
-      <c r="F246" s="53"/>
+      <c r="F246" s="3" t="s">
+        <v>1153</v>
+      </c>
       <c r="G246" s="5"/>
     </row>
-    <row r="247" spans="1:7" ht="31">
+    <row r="247" spans="1:7" ht="31.75">
       <c r="A247" s="3" t="s">
         <v>58</v>
       </c>
@@ -12844,10 +12848,12 @@
         <v>441</v>
       </c>
       <c r="E247" s="53"/>
-      <c r="F247" s="53"/>
+      <c r="F247" s="3" t="s">
+        <v>1153</v>
+      </c>
       <c r="G247" s="5"/>
     </row>
-    <row r="248" spans="1:7" ht="46.5">
+    <row r="248" spans="1:7" ht="47.6">
       <c r="A248" s="3" t="s">
         <v>58</v>
       </c>
@@ -12861,7 +12867,9 @@
         <v>444</v>
       </c>
       <c r="E248" s="53"/>
-      <c r="F248" s="53"/>
+      <c r="F248" s="3" t="s">
+        <v>1153</v>
+      </c>
       <c r="G248" s="5"/>
     </row>
     <row r="249" spans="1:7">
@@ -12878,10 +12886,12 @@
         <v>447</v>
       </c>
       <c r="E249" s="53"/>
-      <c r="F249" s="53"/>
+      <c r="F249" s="3" t="s">
+        <v>1153</v>
+      </c>
       <c r="G249" s="5"/>
     </row>
-    <row r="250" spans="1:7" ht="31">
+    <row r="250" spans="1:7" ht="31.75">
       <c r="A250" s="3" t="s">
         <v>58</v>
       </c>
@@ -12895,10 +12905,12 @@
         <v>450</v>
       </c>
       <c r="E250" s="53"/>
-      <c r="F250" s="53"/>
+      <c r="F250" s="3" t="s">
+        <v>1153</v>
+      </c>
       <c r="G250" s="5"/>
     </row>
-    <row r="251" spans="1:7" ht="62">
+    <row r="251" spans="1:7" ht="63.45">
       <c r="A251" s="3" t="s">
         <v>58</v>
       </c>
@@ -12912,10 +12924,12 @@
         <v>453</v>
       </c>
       <c r="E251" s="53"/>
-      <c r="F251" s="53"/>
+      <c r="F251" s="3" t="s">
+        <v>1153</v>
+      </c>
       <c r="G251" s="5"/>
     </row>
-    <row r="252" spans="1:7" ht="62">
+    <row r="252" spans="1:7" ht="63.45">
       <c r="A252" s="3" t="s">
         <v>58</v>
       </c>
@@ -12929,10 +12943,12 @@
         <v>456</v>
       </c>
       <c r="E252" s="53"/>
-      <c r="F252" s="53"/>
+      <c r="F252" s="3" t="s">
+        <v>1153</v>
+      </c>
       <c r="G252" s="5"/>
     </row>
-    <row r="253" spans="1:7" ht="93">
+    <row r="253" spans="1:7" ht="95.15">
       <c r="A253" s="3" t="s">
         <v>58</v>
       </c>
@@ -12946,10 +12962,12 @@
         <v>459</v>
       </c>
       <c r="E253" s="53"/>
-      <c r="F253" s="53"/>
+      <c r="F253" s="3" t="s">
+        <v>1153</v>
+      </c>
       <c r="G253" s="5"/>
     </row>
-    <row r="254" spans="1:7" ht="62">
+    <row r="254" spans="1:7" ht="63.45">
       <c r="A254" s="3" t="s">
         <v>58</v>
       </c>
@@ -12963,10 +12981,12 @@
         <v>462</v>
       </c>
       <c r="E254" s="53"/>
-      <c r="F254" s="53"/>
+      <c r="F254" s="3" t="s">
+        <v>1153</v>
+      </c>
       <c r="G254" s="5"/>
     </row>
-    <row r="255" spans="1:7" ht="93">
+    <row r="255" spans="1:7" ht="95.15">
       <c r="A255" s="3" t="s">
         <v>58</v>
       </c>
@@ -12980,10 +13000,12 @@
         <v>465</v>
       </c>
       <c r="E255" s="53"/>
-      <c r="F255" s="53"/>
+      <c r="F255" s="3" t="s">
+        <v>1153</v>
+      </c>
       <c r="G255" s="5"/>
     </row>
-    <row r="256" spans="1:7" ht="31">
+    <row r="256" spans="1:7" ht="31.75">
       <c r="A256" s="3" t="s">
         <v>58</v>
       </c>
@@ -12997,7 +13019,9 @@
         <v>468</v>
       </c>
       <c r="E256" s="53"/>
-      <c r="F256" s="53"/>
+      <c r="F256" s="3" t="s">
+        <v>1153</v>
+      </c>
       <c r="G256" s="5"/>
     </row>
     <row r="257" spans="1:7">
@@ -13030,7 +13054,7 @@
       <c r="F258" s="53"/>
       <c r="G258" s="21"/>
     </row>
-    <row r="259" spans="1:7" ht="62">
+    <row r="259" spans="1:7" ht="63.45">
       <c r="A259" s="3" t="s">
         <v>58</v>
       </c>
@@ -13044,7 +13068,9 @@
         <v>435</v>
       </c>
       <c r="E259" s="53"/>
-      <c r="F259" s="53"/>
+      <c r="F259" s="53" t="s">
+        <v>1155</v>
+      </c>
       <c r="G259" s="5" t="s">
         <v>473</v>
       </c>
@@ -13063,10 +13089,12 @@
         <v>438</v>
       </c>
       <c r="E260" s="53"/>
-      <c r="F260" s="53"/>
+      <c r="F260" s="53" t="s">
+        <v>1155</v>
+      </c>
       <c r="G260" s="5"/>
     </row>
-    <row r="261" spans="1:7" ht="31">
+    <row r="261" spans="1:7" ht="31.75">
       <c r="A261" s="3" t="s">
         <v>58</v>
       </c>
@@ -13080,10 +13108,12 @@
         <v>456</v>
       </c>
       <c r="E261" s="53"/>
-      <c r="F261" s="53"/>
+      <c r="F261" s="53" t="s">
+        <v>1155</v>
+      </c>
       <c r="G261" s="5"/>
     </row>
-    <row r="262" spans="1:7" ht="46.5">
+    <row r="262" spans="1:7" ht="47.6">
       <c r="A262" s="3" t="s">
         <v>58</v>
       </c>
@@ -13097,7 +13127,9 @@
         <v>444</v>
       </c>
       <c r="E262" s="53"/>
-      <c r="F262" s="53"/>
+      <c r="F262" s="53" t="s">
+        <v>1155</v>
+      </c>
       <c r="G262" s="5"/>
     </row>
     <row r="263" spans="1:7">
@@ -13114,10 +13146,12 @@
         <v>447</v>
       </c>
       <c r="E263" s="53"/>
-      <c r="F263" s="53"/>
+      <c r="F263" s="53" t="s">
+        <v>1155</v>
+      </c>
       <c r="G263" s="5"/>
     </row>
-    <row r="264" spans="1:7" ht="31">
+    <row r="264" spans="1:7" ht="31.75">
       <c r="A264" s="3" t="s">
         <v>58</v>
       </c>
@@ -13131,7 +13165,9 @@
         <v>450</v>
       </c>
       <c r="E264" s="53"/>
-      <c r="F264" s="53"/>
+      <c r="F264" s="53" t="s">
+        <v>1155</v>
+      </c>
       <c r="G264" s="5"/>
     </row>
     <row r="265" spans="1:7">
@@ -13148,10 +13184,12 @@
         <v>453</v>
       </c>
       <c r="E265" s="53"/>
-      <c r="F265" s="53"/>
+      <c r="F265" s="53" t="s">
+        <v>1155</v>
+      </c>
       <c r="G265" s="5"/>
     </row>
-    <row r="266" spans="1:7" ht="31">
+    <row r="266" spans="1:7" ht="31.75">
       <c r="A266" s="3" t="s">
         <v>58</v>
       </c>
@@ -13165,10 +13203,12 @@
         <v>459</v>
       </c>
       <c r="E266" s="53"/>
-      <c r="F266" s="53"/>
+      <c r="F266" s="53" t="s">
+        <v>1155</v>
+      </c>
       <c r="G266" s="5"/>
     </row>
-    <row r="267" spans="1:7" ht="31">
+    <row r="267" spans="1:7" ht="31.75">
       <c r="A267" s="3" t="s">
         <v>58</v>
       </c>
@@ -13182,10 +13222,12 @@
         <v>488</v>
       </c>
       <c r="E267" s="53"/>
-      <c r="F267" s="53"/>
+      <c r="F267" s="53" t="s">
+        <v>1155</v>
+      </c>
       <c r="G267" s="5"/>
     </row>
-    <row r="268" spans="1:7" ht="46.5">
+    <row r="268" spans="1:7" ht="47.6">
       <c r="A268" s="3" t="s">
         <v>58</v>
       </c>
@@ -13199,10 +13241,12 @@
         <v>78.3</v>
       </c>
       <c r="E268" s="53"/>
-      <c r="F268" s="53"/>
+      <c r="F268" s="53" t="s">
+        <v>1155</v>
+      </c>
       <c r="G268" s="5"/>
     </row>
-    <row r="269" spans="1:7" ht="46.5">
+    <row r="269" spans="1:7" ht="47.6">
       <c r="A269" s="3" t="s">
         <v>58</v>
       </c>
@@ -13216,10 +13260,12 @@
         <v>493</v>
       </c>
       <c r="E269" s="53"/>
-      <c r="F269" s="53"/>
+      <c r="F269" s="53" t="s">
+        <v>1155</v>
+      </c>
       <c r="G269" s="5"/>
     </row>
-    <row r="270" spans="1:7" ht="62">
+    <row r="270" spans="1:7" ht="63.45">
       <c r="A270" s="3" t="s">
         <v>58</v>
       </c>
@@ -13233,10 +13279,12 @@
         <v>462</v>
       </c>
       <c r="E270" s="53"/>
-      <c r="F270" s="53"/>
+      <c r="F270" s="53" t="s">
+        <v>1155</v>
+      </c>
       <c r="G270" s="3"/>
     </row>
-    <row r="271" spans="1:7" ht="77.5">
+    <row r="271" spans="1:7" ht="79.3">
       <c r="A271" s="3" t="s">
         <v>58</v>
       </c>
@@ -13250,10 +13298,12 @@
         <v>465</v>
       </c>
       <c r="E271" s="53"/>
-      <c r="F271" s="53"/>
+      <c r="F271" s="53" t="s">
+        <v>1155</v>
+      </c>
       <c r="G271" s="5"/>
     </row>
-    <row r="272" spans="1:7" ht="93">
+    <row r="272" spans="1:7" ht="95.15">
       <c r="A272" s="3" t="s">
         <v>58</v>
       </c>
@@ -13267,10 +13317,12 @@
         <v>468</v>
       </c>
       <c r="E272" s="53"/>
-      <c r="F272" s="53"/>
+      <c r="F272" s="53" t="s">
+        <v>1155</v>
+      </c>
       <c r="G272" s="3"/>
     </row>
-    <row r="273" spans="1:7" ht="93">
+    <row r="273" spans="1:7" ht="95.15">
       <c r="A273" s="3" t="s">
         <v>58</v>
       </c>
@@ -13284,10 +13336,12 @@
         <v>502</v>
       </c>
       <c r="E273" s="53"/>
-      <c r="F273" s="53"/>
+      <c r="F273" s="53" t="s">
+        <v>1155</v>
+      </c>
       <c r="G273" s="5"/>
     </row>
-    <row r="274" spans="1:7" ht="62">
+    <row r="274" spans="1:7" ht="63.45">
       <c r="A274" s="3" t="s">
         <v>58</v>
       </c>
@@ -13301,7 +13355,9 @@
         <v>505</v>
       </c>
       <c r="E274" s="53"/>
-      <c r="F274" s="53"/>
+      <c r="F274" s="53" t="s">
+        <v>1155</v>
+      </c>
       <c r="G274" s="5"/>
     </row>
     <row r="275" spans="1:7">
@@ -13334,7 +13390,7 @@
       <c r="F276" s="53"/>
       <c r="G276" s="13"/>
     </row>
-    <row r="277" spans="1:7" ht="62">
+    <row r="277" spans="1:7" ht="63.45">
       <c r="A277" s="3" t="s">
         <v>58</v>
       </c>
@@ -13348,7 +13404,9 @@
         <v>435</v>
       </c>
       <c r="E277" s="53"/>
-      <c r="F277" s="53"/>
+      <c r="F277" s="53" t="s">
+        <v>1157</v>
+      </c>
       <c r="G277" s="5" t="s">
         <v>473</v>
       </c>
@@ -13367,10 +13425,12 @@
         <v>438</v>
       </c>
       <c r="E278" s="53"/>
-      <c r="F278" s="53"/>
+      <c r="F278" s="53" t="s">
+        <v>1157</v>
+      </c>
       <c r="G278" s="5"/>
     </row>
-    <row r="279" spans="1:7" ht="31">
+    <row r="279" spans="1:7" ht="31.75">
       <c r="A279" s="3" t="s">
         <v>58</v>
       </c>
@@ -13384,10 +13444,12 @@
         <v>456</v>
       </c>
       <c r="E279" s="53"/>
-      <c r="F279" s="53"/>
+      <c r="F279" s="53" t="s">
+        <v>1157</v>
+      </c>
       <c r="G279" s="5"/>
     </row>
-    <row r="280" spans="1:7" ht="46.5">
+    <row r="280" spans="1:7" ht="47.6">
       <c r="A280" s="3" t="s">
         <v>58</v>
       </c>
@@ -13401,7 +13463,9 @@
         <v>444</v>
       </c>
       <c r="E280" s="53"/>
-      <c r="F280" s="53"/>
+      <c r="F280" s="53" t="s">
+        <v>1157</v>
+      </c>
       <c r="G280" s="5"/>
     </row>
     <row r="281" spans="1:7">
@@ -13418,10 +13482,12 @@
         <v>447</v>
       </c>
       <c r="E281" s="53"/>
-      <c r="F281" s="53"/>
+      <c r="F281" s="53" t="s">
+        <v>1157</v>
+      </c>
       <c r="G281" s="5"/>
     </row>
-    <row r="282" spans="1:7" ht="31">
+    <row r="282" spans="1:7" ht="31.75">
       <c r="A282" s="3" t="s">
         <v>58</v>
       </c>
@@ -13435,7 +13501,9 @@
         <v>450</v>
       </c>
       <c r="E282" s="53"/>
-      <c r="F282" s="53"/>
+      <c r="F282" s="53" t="s">
+        <v>1157</v>
+      </c>
       <c r="G282" s="5"/>
     </row>
     <row r="283" spans="1:7">
@@ -13452,10 +13520,12 @@
         <v>453</v>
       </c>
       <c r="E283" s="53"/>
-      <c r="F283" s="53"/>
+      <c r="F283" s="53" t="s">
+        <v>1157</v>
+      </c>
       <c r="G283" s="5"/>
     </row>
-    <row r="284" spans="1:7" ht="31">
+    <row r="284" spans="1:7" ht="31.75">
       <c r="A284" s="3" t="s">
         <v>58</v>
       </c>
@@ -13469,10 +13539,12 @@
         <v>459</v>
       </c>
       <c r="E284" s="53"/>
-      <c r="F284" s="53"/>
+      <c r="F284" s="53" t="s">
+        <v>1157</v>
+      </c>
       <c r="G284" s="5"/>
     </row>
-    <row r="285" spans="1:7" ht="31">
+    <row r="285" spans="1:7" ht="31.75">
       <c r="A285" s="3" t="s">
         <v>58</v>
       </c>
@@ -13486,10 +13558,12 @@
         <v>488</v>
       </c>
       <c r="E285" s="53"/>
-      <c r="F285" s="53"/>
+      <c r="F285" s="53" t="s">
+        <v>1157</v>
+      </c>
       <c r="G285" s="5"/>
     </row>
-    <row r="286" spans="1:7" ht="46.5">
+    <row r="286" spans="1:7" ht="47.6">
       <c r="A286" s="3" t="s">
         <v>58</v>
       </c>
@@ -13503,10 +13577,12 @@
         <v>78.3</v>
       </c>
       <c r="E286" s="53"/>
-      <c r="F286" s="53"/>
+      <c r="F286" s="53" t="s">
+        <v>1157</v>
+      </c>
       <c r="G286" s="5"/>
     </row>
-    <row r="287" spans="1:7" ht="46.5">
+    <row r="287" spans="1:7" ht="47.6">
       <c r="A287" s="3" t="s">
         <v>58</v>
       </c>
@@ -13520,10 +13596,12 @@
         <v>493</v>
       </c>
       <c r="E287" s="53"/>
-      <c r="F287" s="53"/>
+      <c r="F287" s="53" t="s">
+        <v>1157</v>
+      </c>
       <c r="G287" s="5"/>
     </row>
-    <row r="288" spans="1:7" ht="62">
+    <row r="288" spans="1:7" ht="63.45">
       <c r="A288" s="3" t="s">
         <v>58</v>
       </c>
@@ -13537,10 +13615,12 @@
         <v>462</v>
       </c>
       <c r="E288" s="53"/>
-      <c r="F288" s="53"/>
+      <c r="F288" s="53" t="s">
+        <v>1157</v>
+      </c>
       <c r="G288" s="3"/>
     </row>
-    <row r="289" spans="1:7" ht="77.5">
+    <row r="289" spans="1:7" ht="79.3">
       <c r="A289" s="3" t="s">
         <v>58</v>
       </c>
@@ -13554,10 +13634,12 @@
         <v>465</v>
       </c>
       <c r="E289" s="53"/>
-      <c r="F289" s="53"/>
+      <c r="F289" s="53" t="s">
+        <v>1157</v>
+      </c>
       <c r="G289" s="5"/>
     </row>
-    <row r="290" spans="1:7" ht="93">
+    <row r="290" spans="1:7" ht="95.15">
       <c r="A290" s="3" t="s">
         <v>58</v>
       </c>
@@ -13571,10 +13653,12 @@
         <v>468</v>
       </c>
       <c r="E290" s="53"/>
-      <c r="F290" s="53"/>
+      <c r="F290" s="53" t="s">
+        <v>1157</v>
+      </c>
       <c r="G290" s="3"/>
     </row>
-    <row r="291" spans="1:7" ht="93">
+    <row r="291" spans="1:7" ht="95.15">
       <c r="A291" s="3" t="s">
         <v>58</v>
       </c>
@@ -13588,10 +13672,12 @@
         <v>502</v>
       </c>
       <c r="E291" s="53"/>
-      <c r="F291" s="53"/>
+      <c r="F291" s="53" t="s">
+        <v>1157</v>
+      </c>
       <c r="G291" s="5"/>
     </row>
-    <row r="292" spans="1:7" ht="62">
+    <row r="292" spans="1:7" ht="63.45">
       <c r="A292" s="3" t="s">
         <v>58</v>
       </c>
@@ -13605,7 +13691,9 @@
         <v>505</v>
       </c>
       <c r="E292" s="53"/>
-      <c r="F292" s="53"/>
+      <c r="F292" s="53" t="s">
+        <v>1157</v>
+      </c>
       <c r="G292" s="5"/>
     </row>
     <row r="293" spans="1:7">
@@ -13638,7 +13726,7 @@
       <c r="F294" s="53"/>
       <c r="G294" s="18"/>
     </row>
-    <row r="295" spans="1:7" ht="46.5">
+    <row r="295" spans="1:7" ht="47.6">
       <c r="A295" s="3" t="s">
         <v>58</v>
       </c>
@@ -13652,7 +13740,9 @@
         <v>526</v>
       </c>
       <c r="E295" s="53"/>
-      <c r="F295" s="53"/>
+      <c r="F295" s="53" t="s">
+        <v>1161</v>
+      </c>
       <c r="G295" s="5"/>
     </row>
     <row r="296" spans="1:7">
@@ -13670,7 +13760,7 @@
       <c r="F296" s="53"/>
       <c r="G296" s="18"/>
     </row>
-    <row r="297" spans="1:7" ht="46.5">
+    <row r="297" spans="1:7" ht="47.6">
       <c r="A297" s="3" t="s">
         <v>58</v>
       </c>
@@ -13684,7 +13774,9 @@
         <v>435</v>
       </c>
       <c r="E297" s="58"/>
-      <c r="F297" s="58"/>
+      <c r="F297" s="53" t="s">
+        <v>1161</v>
+      </c>
       <c r="G297" s="3" t="s">
         <v>530</v>
       </c>
@@ -13703,7 +13795,9 @@
         <v>533</v>
       </c>
       <c r="E298" s="53"/>
-      <c r="F298" s="53"/>
+      <c r="F298" s="53" t="s">
+        <v>1161</v>
+      </c>
       <c r="G298" s="5"/>
     </row>
     <row r="299" spans="1:7">
@@ -13720,10 +13814,12 @@
         <v>536</v>
       </c>
       <c r="E299" s="53"/>
-      <c r="F299" s="53"/>
+      <c r="F299" s="53" t="s">
+        <v>1161</v>
+      </c>
       <c r="G299" s="5"/>
     </row>
-    <row r="300" spans="1:7" ht="46.5">
+    <row r="300" spans="1:7" ht="47.6">
       <c r="A300" s="3" t="s">
         <v>58</v>
       </c>
@@ -13737,10 +13833,12 @@
         <v>539</v>
       </c>
       <c r="E300" s="53"/>
-      <c r="F300" s="53"/>
+      <c r="F300" s="53" t="s">
+        <v>1161</v>
+      </c>
       <c r="G300" s="5"/>
     </row>
-    <row r="301" spans="1:7" ht="31">
+    <row r="301" spans="1:7" ht="31.75">
       <c r="A301" s="3" t="s">
         <v>58</v>
       </c>
@@ -13754,7 +13852,9 @@
         <v>542</v>
       </c>
       <c r="E301" s="53"/>
-      <c r="F301" s="53"/>
+      <c r="F301" s="53" t="s">
+        <v>1161</v>
+      </c>
       <c r="G301" s="5"/>
     </row>
     <row r="302" spans="1:7">
@@ -13771,10 +13871,12 @@
         <v>488</v>
       </c>
       <c r="E302" s="53"/>
-      <c r="F302" s="53"/>
+      <c r="F302" s="53" t="s">
+        <v>1161</v>
+      </c>
       <c r="G302" s="5"/>
     </row>
-    <row r="303" spans="1:7" ht="93">
+    <row r="303" spans="1:7" ht="95.15">
       <c r="A303" s="3" t="s">
         <v>58</v>
       </c>
@@ -13788,7 +13890,9 @@
         <v>547</v>
       </c>
       <c r="E303" s="53"/>
-      <c r="F303" s="53"/>
+      <c r="F303" s="53" t="s">
+        <v>1161</v>
+      </c>
       <c r="G303" s="5"/>
     </row>
     <row r="304" spans="1:7">
@@ -13821,7 +13925,7 @@
       <c r="F305" s="53"/>
       <c r="G305" s="24"/>
     </row>
-    <row r="306" spans="1:7" ht="62">
+    <row r="306" spans="1:7" ht="63.45">
       <c r="A306" s="3" t="s">
         <v>58</v>
       </c>
@@ -13857,7 +13961,7 @@
       <c r="F307" s="53"/>
       <c r="G307" s="3"/>
     </row>
-    <row r="308" spans="1:7" ht="31">
+    <row r="308" spans="1:7" ht="31.75">
       <c r="A308" s="3" t="s">
         <v>58</v>
       </c>
@@ -13874,7 +13978,7 @@
       <c r="F308" s="53"/>
       <c r="G308" s="3"/>
     </row>
-    <row r="309" spans="1:7" ht="46.5">
+    <row r="309" spans="1:7" ht="47.6">
       <c r="A309" s="3" t="s">
         <v>58</v>
       </c>
@@ -13908,7 +14012,7 @@
       <c r="F310" s="53"/>
       <c r="G310" s="3"/>
     </row>
-    <row r="311" spans="1:7" ht="31">
+    <row r="311" spans="1:7" ht="31.75">
       <c r="A311" s="3" t="s">
         <v>58</v>
       </c>
@@ -13942,7 +14046,7 @@
       <c r="F312" s="53"/>
       <c r="G312" s="3"/>
     </row>
-    <row r="313" spans="1:7" ht="31">
+    <row r="313" spans="1:7" ht="31.75">
       <c r="A313" s="3" t="s">
         <v>58</v>
       </c>
@@ -13959,7 +14063,7 @@
       <c r="F313" s="53"/>
       <c r="G313" s="3"/>
     </row>
-    <row r="314" spans="1:7" ht="31">
+    <row r="314" spans="1:7" ht="31.75">
       <c r="A314" s="3" t="s">
         <v>58</v>
       </c>
@@ -13976,7 +14080,7 @@
       <c r="F314" s="53"/>
       <c r="G314" s="3"/>
     </row>
-    <row r="315" spans="1:7" ht="46.5">
+    <row r="315" spans="1:7" ht="47.6">
       <c r="A315" s="3" t="s">
         <v>58</v>
       </c>
@@ -13993,7 +14097,7 @@
       <c r="F315" s="53"/>
       <c r="G315" s="3"/>
     </row>
-    <row r="316" spans="1:7" ht="46.5">
+    <row r="316" spans="1:7" ht="47.6">
       <c r="A316" s="3" t="s">
         <v>58</v>
       </c>
@@ -14010,7 +14114,7 @@
       <c r="F316" s="53"/>
       <c r="G316" s="3"/>
     </row>
-    <row r="317" spans="1:7" ht="62">
+    <row r="317" spans="1:7" ht="63.45">
       <c r="A317" s="3" t="s">
         <v>58</v>
       </c>
@@ -14027,7 +14131,7 @@
       <c r="F317" s="53"/>
       <c r="G317" s="3"/>
     </row>
-    <row r="318" spans="1:7" ht="77.5">
+    <row r="318" spans="1:7" ht="79.3">
       <c r="A318" s="3" t="s">
         <v>58</v>
       </c>
@@ -14044,7 +14148,7 @@
       <c r="F318" s="53"/>
       <c r="G318" s="3"/>
     </row>
-    <row r="319" spans="1:7" ht="93">
+    <row r="319" spans="1:7" ht="95.15">
       <c r="A319" s="3" t="s">
         <v>58</v>
       </c>
@@ -14061,7 +14165,7 @@
       <c r="F319" s="53"/>
       <c r="G319" s="3"/>
     </row>
-    <row r="320" spans="1:7" ht="93">
+    <row r="320" spans="1:7" ht="95.15">
       <c r="A320" s="3" t="s">
         <v>58</v>
       </c>
@@ -14078,7 +14182,7 @@
       <c r="F320" s="53"/>
       <c r="G320" s="3"/>
     </row>
-    <row r="321" spans="1:7" ht="62">
+    <row r="321" spans="1:7" ht="63.45">
       <c r="A321" s="3" t="s">
         <v>58</v>
       </c>
@@ -14140,7 +14244,7 @@
       <c r="F324" s="53"/>
       <c r="G324" s="24"/>
     </row>
-    <row r="325" spans="1:7" ht="108.5">
+    <row r="325" spans="1:7" ht="111">
       <c r="A325" s="3" t="s">
         <v>58</v>
       </c>
@@ -14159,7 +14263,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="31">
+    <row r="326" spans="1:7" ht="31.75">
       <c r="A326" s="3" t="s">
         <v>58</v>
       </c>
@@ -14176,7 +14280,7 @@
       <c r="F326" s="53"/>
       <c r="G326" s="5"/>
     </row>
-    <row r="327" spans="1:7" ht="31">
+    <row r="327" spans="1:7" ht="31.75">
       <c r="A327" s="3" t="s">
         <v>58</v>
       </c>
@@ -14251,7 +14355,7 @@
       </c>
       <c r="G331" s="3"/>
     </row>
-    <row r="332" spans="1:7" ht="31">
+    <row r="332" spans="1:7" ht="31.75">
       <c r="A332" s="3" t="s">
         <v>58</v>
       </c>
@@ -14341,7 +14445,7 @@
       </c>
       <c r="G337" s="5"/>
     </row>
-    <row r="338" spans="1:7" ht="46.5">
+    <row r="338" spans="1:7" ht="31.75">
       <c r="A338" s="3" t="s">
         <v>58</v>
       </c>
@@ -14369,7 +14473,7 @@
       <c r="D339" s="39"/>
       <c r="G339" s="18"/>
     </row>
-    <row r="340" spans="1:7" ht="77.5">
+    <row r="340" spans="1:7" ht="79.3">
       <c r="A340" s="3" t="s">
         <v>58</v>
       </c>
@@ -14388,7 +14492,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="62">
+    <row r="341" spans="1:7" ht="63.45">
       <c r="A341" s="3" t="s">
         <v>58</v>
       </c>
@@ -14405,7 +14509,7 @@
       <c r="F341" s="62"/>
       <c r="G341" s="5"/>
     </row>
-    <row r="342" spans="1:7" ht="31">
+    <row r="342" spans="1:7" ht="31.75">
       <c r="A342" s="3" t="s">
         <v>58</v>
       </c>
@@ -14422,7 +14526,7 @@
       <c r="F342" s="62"/>
       <c r="G342" s="3"/>
     </row>
-    <row r="343" spans="1:7" ht="46.5">
+    <row r="343" spans="1:7" ht="47.6">
       <c r="A343" s="3" t="s">
         <v>58</v>
       </c>
@@ -14439,7 +14543,7 @@
       <c r="F343" s="62"/>
       <c r="G343" s="25"/>
     </row>
-    <row r="344" spans="1:7" ht="31">
+    <row r="344" spans="1:7" ht="31.75">
       <c r="A344" s="3" t="s">
         <v>58</v>
       </c>
@@ -14541,7 +14645,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="31">
+    <row r="350" spans="1:7" ht="31.75">
       <c r="A350" s="3" t="s">
         <v>58</v>
       </c>
@@ -14558,7 +14662,7 @@
       <c r="F350" s="58"/>
       <c r="G350" s="5"/>
     </row>
-    <row r="351" spans="1:7" ht="31">
+    <row r="351" spans="1:7" ht="31.75">
       <c r="A351" s="3" t="s">
         <v>58</v>
       </c>
@@ -14592,7 +14696,7 @@
       <c r="F352" s="53"/>
       <c r="G352" s="25"/>
     </row>
-    <row r="353" spans="1:7" ht="31">
+    <row r="353" spans="1:7" ht="31.75">
       <c r="A353" s="3" t="s">
         <v>58</v>
       </c>
@@ -14641,7 +14745,7 @@
       <c r="F355" s="53"/>
       <c r="G355" s="18"/>
     </row>
-    <row r="356" spans="1:7" ht="108.5">
+    <row r="356" spans="1:7" ht="111">
       <c r="A356" s="3" t="s">
         <v>58</v>
       </c>
@@ -14660,7 +14764,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="31">
+    <row r="357" spans="1:7" ht="31.75">
       <c r="A357" s="3" t="s">
         <v>58</v>
       </c>
@@ -14677,7 +14781,7 @@
       <c r="F357" s="62"/>
       <c r="G357" s="5"/>
     </row>
-    <row r="358" spans="1:7" ht="31">
+    <row r="358" spans="1:7" ht="31.75">
       <c r="A358" s="3" t="s">
         <v>58</v>
       </c>
@@ -14743,7 +14847,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="31">
+    <row r="362" spans="1:7" ht="31.75">
       <c r="A362" s="3" t="s">
         <v>58</v>
       </c>
@@ -14760,7 +14864,7 @@
       <c r="F362" s="53"/>
       <c r="G362" s="5"/>
     </row>
-    <row r="363" spans="1:7" ht="46.5">
+    <row r="363" spans="1:7" ht="47.6">
       <c r="A363" s="3" t="s">
         <v>58</v>
       </c>
@@ -14777,7 +14881,7 @@
       <c r="F363" s="53"/>
       <c r="G363" s="5"/>
     </row>
-    <row r="364" spans="1:7" ht="46.5">
+    <row r="364" spans="1:7" ht="47.6">
       <c r="A364" s="3" t="s">
         <v>58</v>
       </c>
@@ -14794,7 +14898,7 @@
       <c r="F364" s="44"/>
       <c r="G364" s="5"/>
     </row>
-    <row r="365" spans="1:7" ht="31">
+    <row r="365" spans="1:7" ht="31.75">
       <c r="A365" s="3" t="s">
         <v>58</v>
       </c>
@@ -14811,7 +14915,7 @@
       <c r="F365" s="53"/>
       <c r="G365" s="5"/>
     </row>
-    <row r="366" spans="1:7" ht="46.5">
+    <row r="366" spans="1:7" ht="47.6">
       <c r="A366" s="3" t="s">
         <v>58</v>
       </c>
@@ -14915,7 +15019,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="372" spans="1:7" ht="31">
+    <row r="372" spans="1:7" ht="31.75">
       <c r="A372" s="3" t="s">
         <v>58</v>
       </c>
@@ -14932,7 +15036,7 @@
       <c r="F372" s="58"/>
       <c r="G372" s="25"/>
     </row>
-    <row r="373" spans="1:7" ht="31">
+    <row r="373" spans="1:7" ht="31.75">
       <c r="A373" s="3" t="s">
         <v>58</v>
       </c>
@@ -14966,7 +15070,7 @@
       <c r="F374" s="53"/>
       <c r="G374" s="7"/>
     </row>
-    <row r="375" spans="1:7" ht="31">
+    <row r="375" spans="1:7" ht="31.75">
       <c r="A375" s="3" t="s">
         <v>58</v>
       </c>
@@ -15015,7 +15119,7 @@
       <c r="F377" s="53"/>
       <c r="G377" s="21"/>
     </row>
-    <row r="378" spans="1:7" ht="93">
+    <row r="378" spans="1:7" ht="95.15">
       <c r="A378" s="3" t="s">
         <v>58</v>
       </c>
@@ -15034,7 +15138,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="379" spans="1:7" ht="31">
+    <row r="379" spans="1:7" ht="31.75">
       <c r="A379" s="3" t="s">
         <v>58</v>
       </c>
@@ -15051,7 +15155,7 @@
       <c r="F379" s="53"/>
       <c r="G379" s="7"/>
     </row>
-    <row r="380" spans="1:7" ht="31">
+    <row r="380" spans="1:7" ht="31.75">
       <c r="A380" s="3" t="s">
         <v>58</v>
       </c>
@@ -15098,7 +15202,7 @@
       <c r="F382" s="53"/>
       <c r="G382" s="21"/>
     </row>
-    <row r="383" spans="1:7" ht="46.5">
+    <row r="383" spans="1:7" ht="47.6">
       <c r="A383" s="3" t="s">
         <v>58</v>
       </c>
@@ -15117,7 +15221,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="384" spans="1:7" ht="31">
+    <row r="384" spans="1:7" ht="31.75">
       <c r="A384" s="3" t="s">
         <v>58</v>
       </c>
@@ -15151,7 +15255,7 @@
       <c r="F385" s="53"/>
       <c r="G385" s="25"/>
     </row>
-    <row r="386" spans="1:7" ht="46.5">
+    <row r="386" spans="1:7" ht="47.6">
       <c r="A386" s="3" t="s">
         <v>58</v>
       </c>
@@ -15168,7 +15272,7 @@
       <c r="F386" s="53"/>
       <c r="G386" s="25"/>
     </row>
-    <row r="387" spans="1:7" ht="31">
+    <row r="387" spans="1:7" ht="31.75">
       <c r="A387" s="3" t="s">
         <v>58</v>
       </c>
@@ -15185,7 +15289,7 @@
       <c r="F387" s="53"/>
       <c r="G387" s="25"/>
     </row>
-    <row r="388" spans="1:7" ht="46.5">
+    <row r="388" spans="1:7" ht="47.6">
       <c r="A388" s="3" t="s">
         <v>58</v>
       </c>
@@ -15289,7 +15393,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="31">
+    <row r="394" spans="1:7" ht="31.75">
       <c r="A394" s="3" t="s">
         <v>58</v>
       </c>
@@ -15306,7 +15410,7 @@
       <c r="F394" s="58"/>
       <c r="G394" s="25"/>
     </row>
-    <row r="395" spans="1:7" ht="31">
+    <row r="395" spans="1:7" ht="31.75">
       <c r="A395" s="3" t="s">
         <v>58</v>
       </c>
@@ -15340,7 +15444,7 @@
       <c r="F396" s="53"/>
       <c r="G396" s="7"/>
     </row>
-    <row r="397" spans="1:7" ht="31">
+    <row r="397" spans="1:7" ht="31.75">
       <c r="A397" s="3" t="s">
         <v>58</v>
       </c>
@@ -15389,7 +15493,7 @@
       <c r="F399" s="53"/>
       <c r="G399" s="21"/>
     </row>
-    <row r="400" spans="1:7" ht="93">
+    <row r="400" spans="1:7" ht="95.15">
       <c r="A400" s="3" t="s">
         <v>58</v>
       </c>
@@ -15408,7 +15512,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="401" spans="1:7" ht="31">
+    <row r="401" spans="1:7" ht="31.75">
       <c r="A401" s="3" t="s">
         <v>58</v>
       </c>
@@ -15425,7 +15529,7 @@
       <c r="F401" s="53"/>
       <c r="G401" s="25"/>
     </row>
-    <row r="402" spans="1:7" ht="31">
+    <row r="402" spans="1:7" ht="31.75">
       <c r="A402" s="3" t="s">
         <v>58</v>
       </c>
@@ -15525,7 +15629,7 @@
       <c r="F407" s="53"/>
       <c r="G407" s="25"/>
     </row>
-    <row r="408" spans="1:7" ht="31">
+    <row r="408" spans="1:7" ht="31.75">
       <c r="A408" s="3" t="s">
         <v>58</v>
       </c>
@@ -15557,7 +15661,7 @@
       <c r="F409" s="53"/>
       <c r="G409" s="21"/>
     </row>
-    <row r="410" spans="1:7" ht="31">
+    <row r="410" spans="1:7" ht="31.75">
       <c r="A410" s="3" t="s">
         <v>58</v>
       </c>
@@ -15576,7 +15680,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="31">
+    <row r="411" spans="1:7" ht="31.75">
       <c r="A411" s="3" t="s">
         <v>58</v>
       </c>
@@ -15593,7 +15697,7 @@
       <c r="F411" s="62"/>
       <c r="G411" s="7"/>
     </row>
-    <row r="412" spans="1:7" ht="31">
+    <row r="412" spans="1:7" ht="31.75">
       <c r="A412" s="3" t="s">
         <v>58</v>
       </c>
@@ -15661,7 +15765,7 @@
       <c r="F415" s="62"/>
       <c r="G415" s="5"/>
     </row>
-    <row r="416" spans="1:7" ht="31">
+    <row r="416" spans="1:7" ht="31.75">
       <c r="A416" s="3" t="s">
         <v>58</v>
       </c>
@@ -15712,7 +15816,7 @@
       <c r="F418" s="62"/>
       <c r="G418" s="5"/>
     </row>
-    <row r="419" spans="1:7" ht="46.5">
+    <row r="419" spans="1:7" ht="47.6">
       <c r="A419" s="3" t="s">
         <v>58</v>
       </c>
@@ -15744,7 +15848,7 @@
       <c r="F420" s="62"/>
       <c r="G420" s="21"/>
     </row>
-    <row r="421" spans="1:7" ht="77.5">
+    <row r="421" spans="1:7" ht="79.3">
       <c r="A421" s="3" t="s">
         <v>58</v>
       </c>
@@ -15763,7 +15867,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="422" spans="1:7" ht="62">
+    <row r="422" spans="1:7" ht="63.45">
       <c r="A422" s="3" t="s">
         <v>58</v>
       </c>
@@ -15780,7 +15884,7 @@
       <c r="F422" s="62"/>
       <c r="G422" s="25"/>
     </row>
-    <row r="423" spans="1:7" ht="31">
+    <row r="423" spans="1:7" ht="31.75">
       <c r="A423" s="3" t="s">
         <v>58</v>
       </c>
@@ -15799,7 +15903,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="424" spans="1:7" ht="31">
+    <row r="424" spans="1:7" ht="31.75">
       <c r="A424" s="3" t="s">
         <v>58</v>
       </c>
@@ -15884,7 +15988,7 @@
       <c r="F428" s="53"/>
       <c r="G428" s="21"/>
     </row>
-    <row r="429" spans="1:7" ht="31">
+    <row r="429" spans="1:7" ht="31.75">
       <c r="A429" s="3" t="s">
         <v>58</v>
       </c>
@@ -16048,7 +16152,7 @@
       <c r="F438" s="53"/>
       <c r="G438" s="21"/>
     </row>
-    <row r="439" spans="1:7" ht="93">
+    <row r="439" spans="1:7" ht="95.15">
       <c r="A439" s="3" t="s">
         <v>58</v>
       </c>
@@ -16067,7 +16171,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="440" spans="1:7" ht="31">
+    <row r="440" spans="1:7" ht="31.75">
       <c r="A440" s="3" t="s">
         <v>58</v>
       </c>
@@ -16084,7 +16188,7 @@
       <c r="F440" s="53"/>
       <c r="G440" s="25"/>
     </row>
-    <row r="441" spans="1:7" ht="31">
+    <row r="441" spans="1:7" ht="31.75">
       <c r="A441" s="3" t="s">
         <v>58</v>
       </c>
@@ -16131,7 +16235,7 @@
       <c r="F443" s="53"/>
       <c r="G443" s="21"/>
     </row>
-    <row r="444" spans="1:7" ht="31">
+    <row r="444" spans="1:7" ht="31.75">
       <c r="A444" s="3" t="s">
         <v>58</v>
       </c>
@@ -16184,7 +16288,7 @@
       <c r="F446" s="53"/>
       <c r="G446" s="7"/>
     </row>
-    <row r="447" spans="1:7" ht="31">
+    <row r="447" spans="1:7" ht="31.75">
       <c r="A447" s="3" t="s">
         <v>58</v>
       </c>
@@ -16216,7 +16320,7 @@
       <c r="F448" s="53"/>
       <c r="G448" s="7"/>
     </row>
-    <row r="449" spans="1:7" ht="62">
+    <row r="449" spans="1:7" ht="63.45">
       <c r="A449" s="3" t="s">
         <v>58</v>
       </c>
@@ -16233,7 +16337,7 @@
       <c r="F449" s="53"/>
       <c r="G449" s="7"/>
     </row>
-    <row r="450" spans="1:7" ht="31">
+    <row r="450" spans="1:7" ht="31.75">
       <c r="A450" s="3" t="s">
         <v>58</v>
       </c>
@@ -16335,7 +16439,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="456" spans="1:7" ht="31">
+    <row r="456" spans="1:7" ht="31.75">
       <c r="A456" s="3" t="s">
         <v>58</v>
       </c>
@@ -16352,7 +16456,7 @@
       <c r="F456" s="53"/>
       <c r="G456" s="5"/>
     </row>
-    <row r="457" spans="1:7" ht="31">
+    <row r="457" spans="1:7" ht="31.75">
       <c r="A457" s="3" t="s">
         <v>58</v>
       </c>
@@ -16386,7 +16490,7 @@
       <c r="F458" s="53"/>
       <c r="G458" s="3"/>
     </row>
-    <row r="459" spans="1:7" ht="31">
+    <row r="459" spans="1:7" ht="31.75">
       <c r="A459" s="3" t="s">
         <v>58</v>
       </c>
@@ -16421,14 +16525,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="45.08203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.58203125" style="4" customWidth="1"/>
-    <col min="4" max="5" width="81.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="45.0703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="4" customWidth="1"/>
+    <col min="4" max="5" width="81.35546875" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.83203125" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.85546875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
@@ -16512,7 +16616,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="139.5">
+    <row r="5" spans="1:7" ht="126.9">
       <c r="A5" s="3" t="s">
         <v>71</v>
       </c>
@@ -16568,20 +16672,20 @@
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="68.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="100" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.08203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.0703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="20" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.83203125" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.85546875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31">
+    <row r="1" spans="1:7" ht="31.75">
       <c r="A1" s="8" t="s">
         <v>782</v>
       </c>
@@ -16889,7 +16993,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="46.5">
+    <row r="17" spans="1:7" ht="47.6">
       <c r="A17" s="3" t="s">
         <v>125</v>
       </c>
@@ -17271,7 +17375,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="62">
+    <row r="37" spans="1:7" ht="63.45">
       <c r="A37" s="3" t="s">
         <v>257</v>
       </c>
@@ -17292,7 +17396,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="31">
+    <row r="38" spans="1:7" ht="31.75">
       <c r="A38" s="3" t="s">
         <v>526</v>
       </c>
@@ -17368,7 +17472,7 @@
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="46.5">
+    <row r="42" spans="1:7" ht="47.6">
       <c r="A42" s="3" t="s">
         <v>274</v>
       </c>
@@ -17652,15 +17756,15 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="41" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="4" customWidth="1"/>
-    <col min="4" max="5" width="80.83203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="41" customWidth="1"/>
+    <col min="2" max="2" width="47.35546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="80.85546875" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.83203125" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.83203125" style="27" customWidth="1"/>
+    <col min="8" max="256" width="8.85546875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.85546875" style="27" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
@@ -18819,7 +18923,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:256" s="49" customFormat="1" ht="31">
+    <row r="49" spans="1:256" s="49" customFormat="1" ht="31.75">
       <c r="A49" s="40" t="s">
         <v>981</v>
       </c>
@@ -19099,21 +19203,21 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.58203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="44.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="41.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.58203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.35546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="41.35546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="4" customWidth="1"/>
     <col min="7" max="7" width="29" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.83203125" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.83203125" style="27" customWidth="1"/>
+    <col min="8" max="256" width="8.85546875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.85546875" style="27" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
@@ -19568,7 +19672,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="31">
+    <row r="24" spans="1:7" ht="31.75">
       <c r="A24" s="65" t="s">
         <v>1163</v>
       </c>
@@ -19585,7 +19689,7 @@
       <c r="F24" s="65"/>
       <c r="G24" s="65"/>
     </row>
-    <row r="25" spans="1:7" ht="31">
+    <row r="25" spans="1:7" ht="31.75">
       <c r="A25" s="65" t="s">
         <v>1167</v>
       </c>
@@ -19602,7 +19706,7 @@
       <c r="F25" s="65"/>
       <c r="G25" s="65"/>
     </row>
-    <row r="26" spans="1:7" ht="31">
+    <row r="26" spans="1:7" ht="31.75">
       <c r="A26" s="65" t="s">
         <v>1170</v>
       </c>
@@ -19619,7 +19723,7 @@
       <c r="F26" s="65"/>
       <c r="G26" s="65"/>
     </row>
-    <row r="27" spans="1:7" ht="46.5">
+    <row r="27" spans="1:7" ht="47.6">
       <c r="A27" s="65" t="s">
         <v>1173</v>
       </c>
@@ -19636,7 +19740,7 @@
       <c r="F27" s="65"/>
       <c r="G27" s="65"/>
     </row>
-    <row r="28" spans="1:7" ht="46.5">
+    <row r="28" spans="1:7" ht="31.75">
       <c r="A28" s="65" t="s">
         <v>1176</v>
       </c>
@@ -19653,7 +19757,7 @@
       <c r="F28" s="65"/>
       <c r="G28" s="65"/>
     </row>
-    <row r="29" spans="1:7" ht="31">
+    <row r="29" spans="1:7" ht="31.75">
       <c r="A29" s="65" t="s">
         <v>1179</v>
       </c>
@@ -19670,7 +19774,7 @@
       <c r="F29" s="65"/>
       <c r="G29" s="65"/>
     </row>
-    <row r="30" spans="1:7" ht="46.5">
+    <row r="30" spans="1:7" ht="47.6">
       <c r="A30" s="65" t="s">
         <v>1182</v>
       </c>
@@ -19705,15 +19809,15 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="54.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="4" customWidth="1"/>
-    <col min="4" max="5" width="75.58203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="75.5703125" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.83203125" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.83203125" style="27" customWidth="1"/>
+    <col min="8" max="256" width="8.85546875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.85546875" style="27" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
@@ -19821,17 +19925,17 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
     <col min="1" max="1" width="10.5" style="35" customWidth="1"/>
-    <col min="2" max="2" width="53.33203125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="53.35546875" style="28" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="28" customWidth="1"/>
     <col min="4" max="4" width="44.5" style="28" customWidth="1"/>
-    <col min="5" max="5" width="31.83203125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="28" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="28" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="28" customWidth="1"/>
-    <col min="8" max="256" width="8.83203125" style="28" customWidth="1"/>
-    <col min="257" max="1025" width="8.83203125" style="29" customWidth="1"/>
+    <col min="8" max="256" width="8.85546875" style="28" customWidth="1"/>
+    <col min="257" max="1025" width="8.85546875" style="29" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
@@ -20530,7 +20634,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="31">
+    <row r="23" spans="1:7" ht="31.75">
       <c r="A23" s="47" t="s">
         <v>1118</v>
       </c>
@@ -20581,7 +20685,7 @@
       <c r="F25" s="47"/>
       <c r="G25" s="47"/>
     </row>
-    <row r="26" spans="1:7" ht="31">
+    <row r="26" spans="1:7" ht="31.75">
       <c r="A26" s="47" t="s">
         <v>1113</v>
       </c>
@@ -20633,16 +20737,16 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
     <col min="1" max="1" width="19" style="32" customWidth="1"/>
-    <col min="2" max="2" width="53.33203125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="53.35546875" style="27" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="27" customWidth="1"/>
     <col min="4" max="4" width="25" style="27" customWidth="1"/>
     <col min="5" max="5" width="46" style="27" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="27" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="27" customWidth="1"/>
-    <col min="8" max="1025" width="8.83203125" style="27" customWidth="1"/>
+    <col min="8" max="1025" width="8.85546875" style="27" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>

--- a/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757FC94A-54A6-4D5F-BC6C-F60ED9CD50F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BEED81-A1E3-4391-9742-A2E7028CB43F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="0" windowWidth="17205" windowHeight="16830" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="17070" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -8358,15 +8358,15 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="C460" sqref="C460"/>
+    <sheetView topLeftCell="A111" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.875" style="52" customWidth="1"/>
     <col min="2" max="2" width="12" style="50" customWidth="1"/>
-    <col min="3" max="3" width="43.75" style="50" customWidth="1"/>
+    <col min="3" max="3" width="91.5" style="50" customWidth="1"/>
     <col min="4" max="4" width="20.375" style="50" customWidth="1"/>
     <col min="5" max="5" width="21.875" style="50" customWidth="1"/>
     <col min="6" max="6" width="67.625" style="50" customWidth="1"/>
@@ -11057,7 +11057,7 @@
       </c>
       <c r="G144" s="38"/>
     </row>
-    <row r="145" spans="1:7" ht="30">
+    <row r="145" spans="1:7" ht="19.5" customHeight="1">
       <c r="A145" s="39" t="s">
         <v>58</v>
       </c>
@@ -16749,8 +16749,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>

--- a/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BEED81-A1E3-4391-9742-A2E7028CB43F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4995AB-74E4-44E9-A16E-5DE6592CE749}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="17070" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="450" windowWidth="30570" windowHeight="16830" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -24,16 +24,12 @@
     <sheet name="Placeholders" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3630" uniqueCount="1286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3643" uniqueCount="1293">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3137,30 +3133,18 @@
     <t>sp800_78_Test_1</t>
   </si>
   <si>
-    <t>Ensure that RSA key has 2048- or 3072-bit modulus</t>
-  </si>
-  <si>
-    <t>Please check atom that it does what the description says</t>
-  </si>
-  <si>
     <t>78.2</t>
   </si>
   <si>
     <t>sp800_78_Test_2</t>
   </si>
   <si>
-    <t>Ensure that ECDSA key is curve P-256 or P-384</t>
-  </si>
-  <si>
     <t>78.3</t>
   </si>
   <si>
     <t>sp800_78_Test_3</t>
   </si>
   <si>
-    <t>Ensure signature algorithm is from Table 3-2 of SP 800-73-4.</t>
-  </si>
-  <si>
     <t>PKIX.1</t>
   </si>
   <si>
@@ -3891,6 +3875,41 @@
   </si>
   <si>
     <t>8.9.1.6</t>
+  </si>
+  <si>
+    <t>RSA 2048 or ECDSA Curve P-256. Parameterization candidate.</t>
+  </si>
+  <si>
+    <t>RSA (2048 bits)
+ECDSA (Curve P-256 or P-384).   Parameterization candidate.</t>
+  </si>
+  <si>
+    <t>RSA (2048 bits)
+ECDSA (Curve P-256 or P-384). Parameterization candidate.</t>
+  </si>
+  <si>
+    <t>RSA 2048 or ECDSA (Curve P-256).  NIST recommends P-256 in SP 800-78-4.Parameterization candidate.</t>
+  </si>
+  <si>
+    <t>Parameterization candidate.</t>
+  </si>
+  <si>
+    <t>Ensure that RSA key has 2048- or 3072-bit modulus (Table 3-1)</t>
+  </si>
+  <si>
+    <t>Ensure that ECDSA key is curve P-256 or P-384 (Table 3-2)</t>
+  </si>
+  <si>
+    <t>1.2.840.113549.1.1.1:1.2.840.113549.1.1.10,1.2.840.113549.1.1.1:1.2.840.113549.1.1.11,1.2.840.10045.2.1:1.2.840.10045.3.1.7,1.2.840.10045.2.1:1.3.132.0.34</t>
+  </si>
+  <si>
+    <t>If the algorithm value is id-RSASSA-PSS, verify that the signature-&gt;parameters field is populated with SHA-256 (OID = 2.16.840.1.101.3.4.2.1). For the other RSA algorithms, the parameters field is populated with NULL. For ECDSA, the parameters field is absent. (Table 3-3)</t>
+  </si>
+  <si>
+    <t>1.2.840.113549.1.1.10:2.16.840.1.101.3.4.2.1, 1.2.840.113549.1.1.11:NULL, 1.2.840.10045.4.3.2:, 1.2.840.10045.4.3.3:</t>
+  </si>
+  <si>
+    <t>1.2.840.113549.1.1.1:,1.2.840.10045.2.1:1.2.840.10045.3.1.7,1.2.840.10045.2.1:1.3.132.0.34,1.2.840.10045.4.3.3:1.3.132.0.34</t>
   </si>
 </sst>
 </file>
@@ -8358,8 +8377,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H470"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
+    <sheetView topLeftCell="A404" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E411" sqref="E411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8368,8 +8387,8 @@
     <col min="2" max="2" width="12" style="50" customWidth="1"/>
     <col min="3" max="3" width="91.5" style="50" customWidth="1"/>
     <col min="4" max="4" width="20.375" style="50" customWidth="1"/>
-    <col min="5" max="5" width="21.875" style="50" customWidth="1"/>
-    <col min="6" max="6" width="67.625" style="50" customWidth="1"/>
+    <col min="5" max="5" width="29.875" style="50" customWidth="1"/>
+    <col min="6" max="6" width="62.75" style="50" customWidth="1"/>
     <col min="7" max="7" width="84.625" style="50" customWidth="1"/>
     <col min="8" max="8" width="9" style="51"/>
     <col min="9" max="1027" width="8.5" style="34" customWidth="1"/>
@@ -8393,7 +8412,7 @@
         <v>56</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="G1" s="33" t="s">
         <v>55</v>
@@ -8405,7 +8424,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>0</v>
@@ -8435,10 +8454,10 @@
         <v>58</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
@@ -8460,13 +8479,13 @@
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="38" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="G5" s="38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30">
+    <row r="6" spans="1:8">
       <c r="A6" s="38" t="s">
         <v>58</v>
       </c>
@@ -8481,7 +8500,7 @@
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="38" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="G6" s="38"/>
     </row>
@@ -8500,11 +8519,11 @@
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="38" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="G7" s="38"/>
     </row>
-    <row r="8" spans="1:8" ht="30">
+    <row r="8" spans="1:8">
       <c r="A8" s="38" t="s">
         <v>58</v>
       </c>
@@ -8519,11 +8538,11 @@
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="38" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="G8" s="38"/>
     </row>
-    <row r="9" spans="1:8" ht="30">
+    <row r="9" spans="1:8">
       <c r="A9" s="38" t="s">
         <v>58</v>
       </c>
@@ -8538,7 +8557,7 @@
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="38" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="G9" s="38"/>
     </row>
@@ -8557,11 +8576,11 @@
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="38" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="G10" s="38"/>
     </row>
-    <row r="11" spans="1:8" ht="45">
+    <row r="11" spans="1:8" ht="30">
       <c r="A11" s="38" t="s">
         <v>58</v>
       </c>
@@ -8576,11 +8595,11 @@
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="38" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="G11" s="38"/>
     </row>
-    <row r="12" spans="1:8" ht="45">
+    <row r="12" spans="1:8" ht="30">
       <c r="A12" s="38" t="s">
         <v>58</v>
       </c>
@@ -8595,11 +8614,11 @@
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="38" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="G12" s="38"/>
     </row>
-    <row r="13" spans="1:8" ht="30">
+    <row r="13" spans="1:8">
       <c r="A13" s="38" t="s">
         <v>58</v>
       </c>
@@ -8614,11 +8633,11 @@
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="38" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="G13" s="38"/>
     </row>
-    <row r="14" spans="1:8" ht="30">
+    <row r="14" spans="1:8">
       <c r="A14" s="38" t="s">
         <v>58</v>
       </c>
@@ -8633,7 +8652,7 @@
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="38" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="G14" s="38"/>
     </row>
@@ -8652,7 +8671,7 @@
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="38" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="G15" s="38"/>
     </row>
@@ -8676,10 +8695,10 @@
         <v>58</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
@@ -8701,13 +8720,13 @@
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="38" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30">
+    <row r="19" spans="1:7">
       <c r="A19" s="38" t="s">
         <v>58</v>
       </c>
@@ -8722,7 +8741,7 @@
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="38" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G19" s="38"/>
     </row>
@@ -8741,11 +8760,11 @@
       </c>
       <c r="E20" s="38"/>
       <c r="F20" s="38" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G20" s="38"/>
     </row>
-    <row r="21" spans="1:7" ht="30">
+    <row r="21" spans="1:7">
       <c r="A21" s="38" t="s">
         <v>58</v>
       </c>
@@ -8760,7 +8779,7 @@
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="38" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G21" s="38"/>
     </row>
@@ -8779,7 +8798,7 @@
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="38" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G22" s="38"/>
     </row>
@@ -8791,18 +8810,18 @@
         <v>102</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>104</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G23" s="38"/>
     </row>
-    <row r="24" spans="1:7" ht="30">
+    <row r="24" spans="1:7">
       <c r="A24" s="39" t="s">
         <v>58</v>
       </c>
@@ -8810,18 +8829,18 @@
         <v>105</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G24" s="39"/>
     </row>
-    <row r="25" spans="1:7" ht="30">
+    <row r="25" spans="1:7">
       <c r="A25" s="38" t="s">
         <v>58</v>
       </c>
@@ -8836,7 +8855,7 @@
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="38" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G25" s="38"/>
     </row>
@@ -8848,14 +8867,14 @@
         <v>111</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>110</v>
       </c>
       <c r="E26" s="38"/>
       <c r="F26" s="38" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G26" s="38"/>
     </row>
@@ -8867,14 +8886,14 @@
         <v>114</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="39" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G27" s="39"/>
     </row>
@@ -8886,14 +8905,14 @@
         <v>117</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G28" s="39"/>
     </row>
@@ -8902,62 +8921,62 @@
         <v>58</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="E29" s="39"/>
       <c r="F29" s="39" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G29" s="39"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="39"/>
       <c r="B30" s="39" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="39" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G30" s="39"/>
     </row>
-    <row r="31" spans="1:7" ht="30">
+    <row r="31" spans="1:7">
       <c r="A31" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>113</v>
       </c>
       <c r="E31" s="38"/>
       <c r="F31" s="38" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G31" s="38"/>
     </row>
-    <row r="32" spans="1:7" ht="45">
+    <row r="32" spans="1:7" ht="30">
       <c r="A32" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="C32" s="38" t="s">
         <v>115</v>
@@ -8967,7 +8986,7 @@
       </c>
       <c r="E32" s="38"/>
       <c r="F32" s="38" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G32" s="38"/>
     </row>
@@ -8976,17 +8995,17 @@
         <v>58</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="39" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G33" s="39"/>
     </row>
@@ -8995,17 +9014,17 @@
         <v>58</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="39" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G34" s="39"/>
     </row>
@@ -9014,17 +9033,17 @@
         <v>58</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="E35" s="39"/>
       <c r="F35" s="39" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G35" s="39"/>
     </row>
@@ -9033,26 +9052,26 @@
         <v>58</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="E36" s="39"/>
       <c r="F36" s="39" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G36" s="39"/>
     </row>
-    <row r="37" spans="1:7" ht="30">
+    <row r="37" spans="1:7">
       <c r="A37" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="C37" s="38" t="s">
         <v>118</v>
@@ -9062,7 +9081,7 @@
       </c>
       <c r="E37" s="38"/>
       <c r="F37" s="38" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G37" s="38"/>
     </row>
@@ -9081,7 +9100,7 @@
       </c>
       <c r="E38" s="38"/>
       <c r="F38" s="38" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G38" s="38"/>
     </row>
@@ -9100,11 +9119,11 @@
       </c>
       <c r="E39" s="38"/>
       <c r="F39" s="38" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G39" s="38"/>
     </row>
-    <row r="40" spans="1:7" ht="60">
+    <row r="40" spans="1:7" ht="30">
       <c r="A40" s="38" t="s">
         <v>58</v>
       </c>
@@ -9119,7 +9138,7 @@
       </c>
       <c r="E40" s="38"/>
       <c r="F40" s="38" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G40" s="38"/>
     </row>
@@ -9138,7 +9157,7 @@
       </c>
       <c r="E41" s="38"/>
       <c r="F41" s="38" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G41" s="38"/>
     </row>
@@ -9147,7 +9166,7 @@
         <v>131</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>133</v>
@@ -9157,7 +9176,7 @@
       </c>
       <c r="E42" s="38"/>
       <c r="F42" s="38" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="G42" s="38"/>
     </row>
@@ -9181,17 +9200,17 @@
         <v>58</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
     </row>
-    <row r="45" spans="1:7" ht="45">
+    <row r="45" spans="1:7" ht="30">
       <c r="A45" s="38" t="s">
         <v>58</v>
       </c>
@@ -9206,13 +9225,13 @@
       </c>
       <c r="E45" s="38"/>
       <c r="F45" s="38" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30">
+    <row r="46" spans="1:7">
       <c r="A46" s="38" t="s">
         <v>58</v>
       </c>
@@ -9227,7 +9246,7 @@
       </c>
       <c r="E46" s="38"/>
       <c r="F46" s="38" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="G46" s="38"/>
     </row>
@@ -9246,11 +9265,11 @@
       </c>
       <c r="E47" s="38"/>
       <c r="F47" s="38" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="G47" s="38"/>
     </row>
-    <row r="48" spans="1:7" ht="30">
+    <row r="48" spans="1:7">
       <c r="A48" s="38" t="s">
         <v>58</v>
       </c>
@@ -9265,7 +9284,7 @@
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="38" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="G48" s="38"/>
     </row>
@@ -9284,7 +9303,7 @@
       </c>
       <c r="E49" s="38"/>
       <c r="F49" s="38" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="G49" s="38"/>
     </row>
@@ -9303,11 +9322,11 @@
       </c>
       <c r="E50" s="38"/>
       <c r="F50" s="38" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="G50" s="38"/>
     </row>
-    <row r="51" spans="1:7" ht="30">
+    <row r="51" spans="1:7">
       <c r="A51" s="38" t="s">
         <v>58</v>
       </c>
@@ -9322,11 +9341,11 @@
       </c>
       <c r="E51" s="38"/>
       <c r="F51" s="38" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="G51" s="38"/>
     </row>
-    <row r="52" spans="1:7" ht="30">
+    <row r="52" spans="1:7">
       <c r="A52" s="38" t="s">
         <v>58</v>
       </c>
@@ -9341,11 +9360,11 @@
       </c>
       <c r="E52" s="38"/>
       <c r="F52" s="38" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="G52" s="38"/>
     </row>
-    <row r="53" spans="1:7" ht="30">
+    <row r="53" spans="1:7">
       <c r="A53" s="38" t="s">
         <v>58</v>
       </c>
@@ -9360,7 +9379,7 @@
       </c>
       <c r="E53" s="38"/>
       <c r="F53" s="38" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="G53" s="38"/>
     </row>
@@ -9369,7 +9388,7 @@
         <v>131</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="C54" s="38" t="s">
         <v>133</v>
@@ -9379,7 +9398,7 @@
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="38" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="G54" s="38"/>
     </row>
@@ -9403,17 +9422,17 @@
         <v>58</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="D56" s="37"/>
       <c r="E56" s="37"/>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
     </row>
-    <row r="57" spans="1:7" ht="30">
+    <row r="57" spans="1:7">
       <c r="A57" s="38" t="s">
         <v>58</v>
       </c>
@@ -9428,13 +9447,13 @@
       </c>
       <c r="E57" s="38"/>
       <c r="F57" s="38" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="30">
+    <row r="58" spans="1:7">
       <c r="A58" s="38" t="s">
         <v>58</v>
       </c>
@@ -9449,7 +9468,7 @@
       </c>
       <c r="E58" s="38"/>
       <c r="F58" s="38" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="G58" s="38"/>
     </row>
@@ -9468,11 +9487,11 @@
       </c>
       <c r="E59" s="38"/>
       <c r="F59" s="38" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="G59" s="38"/>
     </row>
-    <row r="60" spans="1:7" ht="30">
+    <row r="60" spans="1:7">
       <c r="A60" s="38" t="s">
         <v>58</v>
       </c>
@@ -9487,7 +9506,7 @@
       </c>
       <c r="E60" s="38"/>
       <c r="F60" s="38" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="G60" s="38"/>
     </row>
@@ -9506,11 +9525,11 @@
       </c>
       <c r="E61" s="38"/>
       <c r="F61" s="38" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="G61" s="38"/>
     </row>
-    <row r="62" spans="1:7" ht="30">
+    <row r="62" spans="1:7">
       <c r="A62" s="38" t="s">
         <v>58</v>
       </c>
@@ -9525,11 +9544,11 @@
       </c>
       <c r="E62" s="38"/>
       <c r="F62" s="38" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="G62" s="38"/>
     </row>
-    <row r="63" spans="1:7" ht="30">
+    <row r="63" spans="1:7">
       <c r="A63" s="38" t="s">
         <v>58</v>
       </c>
@@ -9544,11 +9563,11 @@
       </c>
       <c r="E63" s="38"/>
       <c r="F63" s="38" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="G63" s="38"/>
     </row>
-    <row r="64" spans="1:7" ht="30">
+    <row r="64" spans="1:7">
       <c r="A64" s="38" t="s">
         <v>58</v>
       </c>
@@ -9563,7 +9582,7 @@
       </c>
       <c r="E64" s="38"/>
       <c r="F64" s="38" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="G64" s="38"/>
     </row>
@@ -9582,7 +9601,7 @@
       </c>
       <c r="E65" s="38"/>
       <c r="F65" s="38" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="G65" s="38"/>
     </row>
@@ -9606,10 +9625,10 @@
         <v>58</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="D67" s="37"/>
       <c r="E67" s="37"/>
@@ -9631,13 +9650,13 @@
       </c>
       <c r="E68" s="38"/>
       <c r="F68" s="38" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="G68" s="38" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="30">
+    <row r="69" spans="1:7">
       <c r="A69" s="38" t="s">
         <v>58</v>
       </c>
@@ -9652,7 +9671,7 @@
       </c>
       <c r="E69" s="38"/>
       <c r="F69" s="38" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="G69" s="38"/>
     </row>
@@ -9671,11 +9690,11 @@
       </c>
       <c r="E70" s="38"/>
       <c r="F70" s="38" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="G70" s="38"/>
     </row>
-    <row r="71" spans="1:7" ht="30">
+    <row r="71" spans="1:7">
       <c r="A71" s="38" t="s">
         <v>58</v>
       </c>
@@ -9690,11 +9709,11 @@
       </c>
       <c r="E71" s="38"/>
       <c r="F71" s="38" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="G71" s="38"/>
     </row>
-    <row r="72" spans="1:7" ht="30">
+    <row r="72" spans="1:7">
       <c r="A72" s="38" t="s">
         <v>58</v>
       </c>
@@ -9709,11 +9728,11 @@
       </c>
       <c r="E72" s="40"/>
       <c r="F72" s="38" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="G72" s="38"/>
     </row>
-    <row r="73" spans="1:7" ht="30">
+    <row r="73" spans="1:7">
       <c r="A73" s="38" t="s">
         <v>58</v>
       </c>
@@ -9728,7 +9747,7 @@
       </c>
       <c r="E73" s="38"/>
       <c r="F73" s="38" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="G73" s="38"/>
     </row>
@@ -9740,14 +9759,14 @@
         <v>179</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="D74" s="39" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="E74" s="39"/>
       <c r="F74" s="39" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="G74" s="39"/>
     </row>
@@ -9759,18 +9778,18 @@
         <v>182</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="D75" s="39" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="E75" s="39"/>
       <c r="F75" s="39" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="G75" s="39"/>
     </row>
-    <row r="76" spans="1:7" ht="30">
+    <row r="76" spans="1:7">
       <c r="A76" s="38" t="s">
         <v>58</v>
       </c>
@@ -9785,16 +9804,16 @@
       </c>
       <c r="E76" s="38"/>
       <c r="F76" s="38" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="G76" s="38"/>
     </row>
-    <row r="77" spans="1:7" ht="30">
+    <row r="77" spans="1:7">
       <c r="A77" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="C77" s="38" t="s">
         <v>183</v>
@@ -9804,16 +9823,16 @@
       </c>
       <c r="E77" s="38"/>
       <c r="F77" s="38" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="G77" s="38"/>
     </row>
-    <row r="78" spans="1:7" ht="30">
+    <row r="78" spans="1:7">
       <c r="A78" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="C78" s="38" t="s">
         <v>186</v>
@@ -9823,7 +9842,7 @@
       </c>
       <c r="E78" s="38"/>
       <c r="F78" s="38" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="G78" s="38"/>
     </row>
@@ -9832,7 +9851,7 @@
         <v>131</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="C79" s="38" t="s">
         <v>133</v>
@@ -9842,7 +9861,7 @@
       </c>
       <c r="E79" s="38"/>
       <c r="F79" s="38" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="G79" s="38"/>
     </row>
@@ -9851,7 +9870,7 @@
         <v>58</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="C80" s="37" t="s">
         <v>6</v>
@@ -9866,17 +9885,17 @@
         <v>58</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="D81" s="37"/>
       <c r="E81" s="37"/>
       <c r="F81" s="37"/>
       <c r="G81" s="37"/>
     </row>
-    <row r="82" spans="1:7" ht="30">
+    <row r="82" spans="1:7">
       <c r="A82" s="38" t="s">
         <v>58</v>
       </c>
@@ -9891,13 +9910,13 @@
       </c>
       <c r="E82" s="38"/>
       <c r="F82" s="38" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="G82" s="38" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="30">
+    <row r="83" spans="1:7">
       <c r="A83" s="38" t="s">
         <v>58</v>
       </c>
@@ -9912,7 +9931,7 @@
       </c>
       <c r="E83" s="38"/>
       <c r="F83" s="38" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="G83" s="38"/>
     </row>
@@ -9931,11 +9950,11 @@
       </c>
       <c r="E84" s="38"/>
       <c r="F84" s="38" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="G84" s="38"/>
     </row>
-    <row r="85" spans="1:7" ht="30">
+    <row r="85" spans="1:7">
       <c r="A85" s="38" t="s">
         <v>58</v>
       </c>
@@ -9950,11 +9969,11 @@
       </c>
       <c r="E85" s="38"/>
       <c r="F85" s="38" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="G85" s="38"/>
     </row>
-    <row r="86" spans="1:7" ht="30">
+    <row r="86" spans="1:7">
       <c r="A86" s="38" t="s">
         <v>58</v>
       </c>
@@ -9969,11 +9988,11 @@
       </c>
       <c r="E86" s="38"/>
       <c r="F86" s="38" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="G86" s="38"/>
     </row>
-    <row r="87" spans="1:7" ht="30">
+    <row r="87" spans="1:7">
       <c r="A87" s="38" t="s">
         <v>58</v>
       </c>
@@ -9988,7 +10007,7 @@
       </c>
       <c r="E87" s="38"/>
       <c r="F87" s="38" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="G87" s="38"/>
     </row>
@@ -10007,7 +10026,7 @@
       </c>
       <c r="E88" s="38"/>
       <c r="F88" s="38" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="G88" s="38"/>
     </row>
@@ -10016,7 +10035,7 @@
         <v>131</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="C89" s="38" t="s">
         <v>133</v>
@@ -10026,7 +10045,7 @@
       </c>
       <c r="E89" s="38"/>
       <c r="F89" s="38" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="G89" s="38"/>
     </row>
@@ -10050,10 +10069,10 @@
         <v>58</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="D91" s="37"/>
       <c r="E91" s="37"/>
@@ -10075,13 +10094,13 @@
       </c>
       <c r="E92" s="38"/>
       <c r="F92" s="38" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="G92" s="38" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="30">
+    <row r="93" spans="1:7">
       <c r="A93" s="38" t="s">
         <v>58</v>
       </c>
@@ -10096,7 +10115,7 @@
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="38" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="G93" s="38"/>
     </row>
@@ -10115,11 +10134,11 @@
       </c>
       <c r="E94" s="38"/>
       <c r="F94" s="38" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="G94" s="38"/>
     </row>
-    <row r="95" spans="1:7" ht="30">
+    <row r="95" spans="1:7">
       <c r="A95" s="38" t="s">
         <v>58</v>
       </c>
@@ -10134,7 +10153,7 @@
       </c>
       <c r="E95" s="38"/>
       <c r="F95" s="38" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="G95" s="38"/>
     </row>
@@ -10153,7 +10172,7 @@
       </c>
       <c r="E96" s="38"/>
       <c r="F96" s="38" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="G96" s="38"/>
     </row>
@@ -10172,11 +10191,11 @@
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="38" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="G97" s="38"/>
     </row>
-    <row r="98" spans="1:7" ht="30">
+    <row r="98" spans="1:7">
       <c r="A98" s="38" t="s">
         <v>58</v>
       </c>
@@ -10191,11 +10210,11 @@
       </c>
       <c r="E98" s="38"/>
       <c r="F98" s="38" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="G98" s="38"/>
     </row>
-    <row r="99" spans="1:7" ht="30">
+    <row r="99" spans="1:7">
       <c r="A99" s="38" t="s">
         <v>58</v>
       </c>
@@ -10210,11 +10229,11 @@
       </c>
       <c r="E99" s="38"/>
       <c r="F99" s="38" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="G99" s="38"/>
     </row>
-    <row r="100" spans="1:7" ht="30">
+    <row r="100" spans="1:7">
       <c r="A100" s="38" t="s">
         <v>58</v>
       </c>
@@ -10229,7 +10248,7 @@
       </c>
       <c r="E100" s="38"/>
       <c r="F100" s="38" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="G100" s="38"/>
     </row>
@@ -10238,7 +10257,7 @@
         <v>131</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="C101" s="38" t="s">
         <v>133</v>
@@ -10248,7 +10267,7 @@
       </c>
       <c r="E101" s="38"/>
       <c r="F101" s="38" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="G101" s="38"/>
     </row>
@@ -10272,10 +10291,10 @@
         <v>58</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="D103" s="37"/>
       <c r="E103" s="37"/>
@@ -10297,13 +10316,13 @@
       </c>
       <c r="E104" s="38"/>
       <c r="F104" s="38" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="G104" s="38" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="30">
+    <row r="105" spans="1:7">
       <c r="A105" s="38" t="s">
         <v>58</v>
       </c>
@@ -10318,7 +10337,7 @@
       </c>
       <c r="E105" s="38"/>
       <c r="F105" s="38" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="G105" s="38"/>
     </row>
@@ -10337,11 +10356,11 @@
       </c>
       <c r="E106" s="38"/>
       <c r="F106" s="38" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="G106" s="38"/>
     </row>
-    <row r="107" spans="1:7" ht="30">
+    <row r="107" spans="1:7">
       <c r="A107" s="38" t="s">
         <v>58</v>
       </c>
@@ -10356,7 +10375,7 @@
       </c>
       <c r="E107" s="38"/>
       <c r="F107" s="38" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="G107" s="38"/>
     </row>
@@ -10375,7 +10394,7 @@
       </c>
       <c r="E108" s="38"/>
       <c r="F108" s="38" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="G108" s="38"/>
     </row>
@@ -10394,11 +10413,11 @@
       </c>
       <c r="E109" s="38"/>
       <c r="F109" s="38" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="G109" s="38"/>
     </row>
-    <row r="110" spans="1:7" ht="30">
+    <row r="110" spans="1:7">
       <c r="A110" s="38" t="s">
         <v>58</v>
       </c>
@@ -10413,11 +10432,11 @@
       </c>
       <c r="E110" s="38"/>
       <c r="F110" s="38" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="G110" s="38"/>
     </row>
-    <row r="111" spans="1:7" ht="30">
+    <row r="111" spans="1:7">
       <c r="A111" s="38" t="s">
         <v>58</v>
       </c>
@@ -10432,11 +10451,11 @@
       </c>
       <c r="E111" s="38"/>
       <c r="F111" s="38" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="G111" s="38"/>
     </row>
-    <row r="112" spans="1:7" ht="30">
+    <row r="112" spans="1:7">
       <c r="A112" s="38" t="s">
         <v>58</v>
       </c>
@@ -10451,7 +10470,7 @@
       </c>
       <c r="E112" s="38"/>
       <c r="F112" s="38" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="G112" s="38"/>
     </row>
@@ -10460,7 +10479,7 @@
         <v>131</v>
       </c>
       <c r="B113" s="38" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="C113" s="38" t="s">
         <v>133</v>
@@ -10470,7 +10489,7 @@
       </c>
       <c r="E113" s="38"/>
       <c r="F113" s="38" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="G113" s="38"/>
     </row>
@@ -10494,17 +10513,17 @@
         <v>58</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="D115" s="37"/>
       <c r="E115" s="37"/>
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
     </row>
-    <row r="116" spans="1:7" ht="45">
+    <row r="116" spans="1:7" ht="30">
       <c r="A116" s="38" t="s">
         <v>58</v>
       </c>
@@ -10519,13 +10538,13 @@
       </c>
       <c r="E116" s="38"/>
       <c r="F116" s="38" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="G116" s="38" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="30">
+    <row r="117" spans="1:7">
       <c r="A117" s="38" t="s">
         <v>58</v>
       </c>
@@ -10540,7 +10559,7 @@
       </c>
       <c r="E117" s="38"/>
       <c r="F117" s="38" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="G117" s="38"/>
     </row>
@@ -10559,11 +10578,11 @@
       </c>
       <c r="E118" s="38"/>
       <c r="F118" s="38" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="G118" s="38"/>
     </row>
-    <row r="119" spans="1:7" ht="30">
+    <row r="119" spans="1:7">
       <c r="A119" s="38" t="s">
         <v>58</v>
       </c>
@@ -10578,7 +10597,7 @@
       </c>
       <c r="E119" s="38"/>
       <c r="F119" s="38" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="G119" s="38"/>
     </row>
@@ -10597,7 +10616,7 @@
       </c>
       <c r="E120" s="38"/>
       <c r="F120" s="38" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="G120" s="38"/>
     </row>
@@ -10616,11 +10635,11 @@
       </c>
       <c r="E121" s="38"/>
       <c r="F121" s="38" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="G121" s="38"/>
     </row>
-    <row r="122" spans="1:7" ht="30">
+    <row r="122" spans="1:7">
       <c r="A122" s="38" t="s">
         <v>58</v>
       </c>
@@ -10635,11 +10654,11 @@
       </c>
       <c r="E122" s="38"/>
       <c r="F122" s="38" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="G122" s="38"/>
     </row>
-    <row r="123" spans="1:7" ht="30">
+    <row r="123" spans="1:7">
       <c r="A123" s="38" t="s">
         <v>58</v>
       </c>
@@ -10654,11 +10673,11 @@
       </c>
       <c r="E123" s="38"/>
       <c r="F123" s="38" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="G123" s="38"/>
     </row>
-    <row r="124" spans="1:7" ht="30">
+    <row r="124" spans="1:7">
       <c r="A124" s="38" t="s">
         <v>58</v>
       </c>
@@ -10673,7 +10692,7 @@
       </c>
       <c r="E124" s="38"/>
       <c r="F124" s="38" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="G124" s="38"/>
     </row>
@@ -10682,7 +10701,7 @@
         <v>131</v>
       </c>
       <c r="B125" s="38" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="C125" s="38" t="s">
         <v>133</v>
@@ -10692,7 +10711,7 @@
       </c>
       <c r="E125" s="38"/>
       <c r="F125" s="38" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="G125" s="38"/>
     </row>
@@ -10701,7 +10720,7 @@
         <v>58</v>
       </c>
       <c r="B126" s="38" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="C126" s="37" t="s">
         <v>10</v>
@@ -10716,17 +10735,17 @@
         <v>58</v>
       </c>
       <c r="B127" s="38" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="D127" s="37"/>
       <c r="E127" s="37"/>
       <c r="F127" s="37"/>
       <c r="G127" s="37"/>
     </row>
-    <row r="128" spans="1:7" ht="30">
+    <row r="128" spans="1:7">
       <c r="A128" s="38" t="s">
         <v>58</v>
       </c>
@@ -10741,13 +10760,13 @@
       </c>
       <c r="E128" s="38"/>
       <c r="F128" s="38" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="G128" s="38" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="30">
+    <row r="129" spans="1:7">
       <c r="A129" s="38" t="s">
         <v>58</v>
       </c>
@@ -10762,7 +10781,7 @@
       </c>
       <c r="E129" s="38"/>
       <c r="F129" s="38" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="G129" s="38"/>
     </row>
@@ -10781,11 +10800,11 @@
       </c>
       <c r="E130" s="38"/>
       <c r="F130" s="38" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="G130" s="38"/>
     </row>
-    <row r="131" spans="1:7" ht="30">
+    <row r="131" spans="1:7">
       <c r="A131" s="38" t="s">
         <v>58</v>
       </c>
@@ -10800,7 +10819,7 @@
       </c>
       <c r="E131" s="38"/>
       <c r="F131" s="38" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="G131" s="38"/>
     </row>
@@ -10819,7 +10838,7 @@
       </c>
       <c r="E132" s="38"/>
       <c r="F132" s="38" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="G132" s="38"/>
     </row>
@@ -10831,14 +10850,14 @@
         <v>249</v>
       </c>
       <c r="C133" s="38" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="D133" s="38" t="s">
         <v>251</v>
       </c>
       <c r="E133" s="38"/>
       <c r="F133" s="38" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="G133" s="38"/>
     </row>
@@ -10850,18 +10869,18 @@
         <v>252</v>
       </c>
       <c r="C134" s="39" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="D134" s="39" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="E134" s="39"/>
       <c r="F134" s="39" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="G134" s="39"/>
     </row>
-    <row r="135" spans="1:7" ht="30">
+    <row r="135" spans="1:7">
       <c r="A135" s="38" t="s">
         <v>58</v>
       </c>
@@ -10876,16 +10895,16 @@
       </c>
       <c r="E135" s="38"/>
       <c r="F135" s="38" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="G135" s="38"/>
     </row>
-    <row r="136" spans="1:7" ht="45">
+    <row r="136" spans="1:7" ht="30">
       <c r="A136" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B136" s="38" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="C136" s="38" t="s">
         <v>256</v>
@@ -10895,7 +10914,7 @@
       </c>
       <c r="E136" s="38"/>
       <c r="F136" s="38" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="G136" s="38"/>
     </row>
@@ -10919,10 +10938,10 @@
         <v>58</v>
       </c>
       <c r="B138" s="38" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="C138" s="37" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="D138" s="37"/>
       <c r="E138" s="37"/>
@@ -10946,13 +10965,13 @@
         <v>260</v>
       </c>
       <c r="F139" s="38" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="G139" s="38" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="30">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="38" t="s">
         <v>58</v>
       </c>
@@ -10969,7 +10988,7 @@
         <v>260</v>
       </c>
       <c r="F140" s="38" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="G140" s="38"/>
     </row>
@@ -10990,11 +11009,11 @@
         <v>260</v>
       </c>
       <c r="F141" s="38" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="G141" s="38"/>
     </row>
-    <row r="142" spans="1:7" ht="30">
+    <row r="142" spans="1:7">
       <c r="A142" s="38" t="s">
         <v>58</v>
       </c>
@@ -11011,7 +11030,7 @@
         <v>260</v>
       </c>
       <c r="F142" s="38" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="G142" s="38"/>
     </row>
@@ -11023,7 +11042,7 @@
         <v>267</v>
       </c>
       <c r="C143" s="38" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="D143" s="38" t="s">
         <v>269</v>
@@ -11032,7 +11051,7 @@
         <v>260</v>
       </c>
       <c r="F143" s="38" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="G143" s="38"/>
     </row>
@@ -11044,7 +11063,7 @@
         <v>270</v>
       </c>
       <c r="C144" s="38" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="D144" s="38" t="s">
         <v>266</v>
@@ -11053,7 +11072,7 @@
         <v>260</v>
       </c>
       <c r="F144" s="38" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="G144" s="38"/>
     </row>
@@ -11065,44 +11084,44 @@
         <v>272</v>
       </c>
       <c r="C145" s="39" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="D145" s="39" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="E145" s="39"/>
       <c r="F145" s="39" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="G145" s="39"/>
     </row>
-    <row r="146" spans="1:7" ht="30">
+    <row r="146" spans="1:7">
       <c r="A146" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B146" s="38" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="C146" s="38" t="s">
         <v>271</v>
       </c>
       <c r="D146" s="38" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="E146" s="38" t="s">
         <v>260</v>
       </c>
       <c r="F146" s="38" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="G146" s="38"/>
     </row>
-    <row r="147" spans="1:7" ht="90">
+    <row r="147" spans="1:7" ht="45">
       <c r="A147" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B147" s="38" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="C147" s="38" t="s">
         <v>273</v>
@@ -11114,7 +11133,7 @@
         <v>260</v>
       </c>
       <c r="F147" s="38" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="G147" s="38"/>
     </row>
@@ -11123,19 +11142,19 @@
         <v>131</v>
       </c>
       <c r="B148" s="38" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="C148" s="38" t="s">
         <v>133</v>
       </c>
       <c r="D148" s="38" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="E148" s="38" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="F148" s="38" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="G148" s="38"/>
     </row>
@@ -11144,7 +11163,7 @@
         <v>131</v>
       </c>
       <c r="B149" s="38" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="C149" s="38" t="s">
         <v>277</v>
@@ -11154,7 +11173,7 @@
       </c>
       <c r="E149" s="38"/>
       <c r="F149" s="38" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="G149" s="38"/>
     </row>
@@ -11192,7 +11211,7 @@
       <c r="F151" s="37"/>
       <c r="G151" s="37"/>
     </row>
-    <row r="152" spans="1:7" ht="30">
+    <row r="152" spans="1:7">
       <c r="A152" s="38" t="s">
         <v>58</v>
       </c>
@@ -11203,17 +11222,17 @@
         <v>14</v>
       </c>
       <c r="D152" s="38" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="E152" s="38" t="s">
         <v>281</v>
       </c>
       <c r="F152" s="38"/>
       <c r="G152" s="38" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="30">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" s="38" t="s">
         <v>58</v>
       </c>
@@ -11224,17 +11243,17 @@
         <v>15</v>
       </c>
       <c r="D153" s="38" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="E153" s="38" t="s">
         <v>281</v>
       </c>
       <c r="F153" s="38"/>
       <c r="G153" s="38" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="30">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="38" t="s">
         <v>58</v>
       </c>
@@ -11245,17 +11264,17 @@
         <v>283</v>
       </c>
       <c r="D154" s="38" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="E154" s="38" t="s">
         <v>284</v>
       </c>
       <c r="F154" s="38"/>
       <c r="G154" s="38" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="30">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" s="38" t="s">
         <v>58</v>
       </c>
@@ -11311,7 +11330,7 @@
         <v>58</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="C158" s="36" t="s">
         <v>19</v>
@@ -11321,7 +11340,7 @@
       <c r="F158" s="37"/>
       <c r="G158" s="36"/>
     </row>
-    <row r="159" spans="1:7" ht="30">
+    <row r="159" spans="1:7">
       <c r="A159" s="38" t="s">
         <v>58</v>
       </c>
@@ -11351,7 +11370,7 @@
       <c r="F160" s="37"/>
       <c r="G160" s="41"/>
     </row>
-    <row r="161" spans="1:7" ht="30">
+    <row r="161" spans="1:7">
       <c r="A161" s="38" t="s">
         <v>58</v>
       </c>
@@ -11436,7 +11455,7 @@
       <c r="F165" s="41"/>
       <c r="G165" s="41"/>
     </row>
-    <row r="166" spans="1:7" ht="45">
+    <row r="166" spans="1:7">
       <c r="A166" s="38" t="s">
         <v>58</v>
       </c>
@@ -11455,7 +11474,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="30">
+    <row r="167" spans="1:7">
       <c r="A167" s="38" t="s">
         <v>58</v>
       </c>
@@ -11472,7 +11491,7 @@
       <c r="F167" s="38"/>
       <c r="G167" s="38"/>
     </row>
-    <row r="168" spans="1:7" ht="45">
+    <row r="168" spans="1:7" ht="30">
       <c r="A168" s="38" t="s">
         <v>58</v>
       </c>
@@ -11489,7 +11508,7 @@
       <c r="F168" s="38"/>
       <c r="G168" s="38"/>
     </row>
-    <row r="169" spans="1:7" ht="30">
+    <row r="169" spans="1:7">
       <c r="A169" s="38" t="s">
         <v>58</v>
       </c>
@@ -11497,7 +11516,7 @@
         <v>303</v>
       </c>
       <c r="C169" s="38" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="D169" s="40" t="s">
         <v>950</v>
@@ -11506,7 +11525,7 @@
       <c r="F169" s="40"/>
       <c r="G169" s="38"/>
     </row>
-    <row r="170" spans="1:7" ht="45">
+    <row r="170" spans="1:7" ht="30">
       <c r="A170" s="38" t="s">
         <v>58</v>
       </c>
@@ -11523,7 +11542,7 @@
       <c r="F170" s="40"/>
       <c r="G170" s="38"/>
     </row>
-    <row r="171" spans="1:7" ht="30">
+    <row r="171" spans="1:7">
       <c r="A171" s="38" t="s">
         <v>58</v>
       </c>
@@ -11540,7 +11559,7 @@
       <c r="F171" s="40"/>
       <c r="G171" s="38"/>
     </row>
-    <row r="172" spans="1:7" ht="30">
+    <row r="172" spans="1:7">
       <c r="A172" s="38" t="s">
         <v>58</v>
       </c>
@@ -11557,7 +11576,7 @@
       <c r="F172" s="40"/>
       <c r="G172" s="38"/>
     </row>
-    <row r="173" spans="1:7" ht="75">
+    <row r="173" spans="1:7" ht="30">
       <c r="A173" s="38" t="s">
         <v>58</v>
       </c>
@@ -11574,7 +11593,7 @@
       <c r="F173" s="40"/>
       <c r="G173" s="38"/>
     </row>
-    <row r="174" spans="1:7" ht="30">
+    <row r="174" spans="1:7">
       <c r="A174" s="38" t="s">
         <v>58</v>
       </c>
@@ -11591,7 +11610,7 @@
       <c r="F174" s="40"/>
       <c r="G174" s="38"/>
     </row>
-    <row r="175" spans="1:7" ht="75">
+    <row r="175" spans="1:7" ht="30">
       <c r="A175" s="38" t="s">
         <v>58</v>
       </c>
@@ -11608,7 +11627,7 @@
       <c r="F175" s="38"/>
       <c r="G175" s="38"/>
     </row>
-    <row r="176" spans="1:7" ht="45">
+    <row r="176" spans="1:7" ht="30">
       <c r="A176" s="38" t="s">
         <v>58</v>
       </c>
@@ -11625,7 +11644,7 @@
       <c r="F176" s="38"/>
       <c r="G176" s="38"/>
     </row>
-    <row r="177" spans="1:7" ht="30">
+    <row r="177" spans="1:7">
       <c r="A177" s="38" t="s">
         <v>58</v>
       </c>
@@ -11672,7 +11691,7 @@
       <c r="F179" s="41"/>
       <c r="G179" s="41"/>
     </row>
-    <row r="180" spans="1:7" ht="30">
+    <row r="180" spans="1:7">
       <c r="A180" s="38" t="s">
         <v>58</v>
       </c>
@@ -11757,7 +11776,7 @@
       <c r="F184" s="41"/>
       <c r="G184" s="41"/>
     </row>
-    <row r="185" spans="1:7" ht="45">
+    <row r="185" spans="1:7">
       <c r="A185" s="38" t="s">
         <v>58</v>
       </c>
@@ -11776,7 +11795,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="30">
+    <row r="186" spans="1:7">
       <c r="A186" s="38" t="s">
         <v>58</v>
       </c>
@@ -11793,7 +11812,7 @@
       <c r="F186" s="38"/>
       <c r="G186" s="38"/>
     </row>
-    <row r="187" spans="1:7" ht="45">
+    <row r="187" spans="1:7" ht="30">
       <c r="A187" s="38" t="s">
         <v>58</v>
       </c>
@@ -11810,7 +11829,7 @@
       <c r="F187" s="38"/>
       <c r="G187" s="38"/>
     </row>
-    <row r="188" spans="1:7" ht="30">
+    <row r="188" spans="1:7">
       <c r="A188" s="38" t="s">
         <v>58</v>
       </c>
@@ -11818,7 +11837,7 @@
         <v>330</v>
       </c>
       <c r="C188" s="38" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="D188" s="40" t="s">
         <v>950</v>
@@ -11827,7 +11846,7 @@
       <c r="F188" s="40"/>
       <c r="G188" s="38"/>
     </row>
-    <row r="189" spans="1:7" ht="45">
+    <row r="189" spans="1:7" ht="30">
       <c r="A189" s="38" t="s">
         <v>58</v>
       </c>
@@ -11844,7 +11863,7 @@
       <c r="F189" s="40"/>
       <c r="G189" s="38"/>
     </row>
-    <row r="190" spans="1:7" ht="30">
+    <row r="190" spans="1:7">
       <c r="A190" s="38" t="s">
         <v>58</v>
       </c>
@@ -11861,7 +11880,7 @@
       <c r="F190" s="40"/>
       <c r="G190" s="38"/>
     </row>
-    <row r="191" spans="1:7" ht="30">
+    <row r="191" spans="1:7">
       <c r="A191" s="38" t="s">
         <v>58</v>
       </c>
@@ -11878,7 +11897,7 @@
       <c r="F191" s="40"/>
       <c r="G191" s="38"/>
     </row>
-    <row r="192" spans="1:7" ht="45">
+    <row r="192" spans="1:7" ht="30">
       <c r="A192" s="38" t="s">
         <v>58</v>
       </c>
@@ -11895,7 +11914,7 @@
       <c r="F192" s="40"/>
       <c r="G192" s="38"/>
     </row>
-    <row r="193" spans="1:7" ht="30">
+    <row r="193" spans="1:7">
       <c r="A193" s="38" t="s">
         <v>58</v>
       </c>
@@ -11912,7 +11931,7 @@
       <c r="F193" s="40"/>
       <c r="G193" s="38"/>
     </row>
-    <row r="194" spans="1:7" ht="75">
+    <row r="194" spans="1:7" ht="30">
       <c r="A194" s="38" t="s">
         <v>58</v>
       </c>
@@ -11929,7 +11948,7 @@
       <c r="F194" s="38"/>
       <c r="G194" s="38"/>
     </row>
-    <row r="195" spans="1:7" ht="45">
+    <row r="195" spans="1:7" ht="30">
       <c r="A195" s="38" t="s">
         <v>58</v>
       </c>
@@ -11946,7 +11965,7 @@
       <c r="F195" s="38"/>
       <c r="G195" s="38"/>
     </row>
-    <row r="196" spans="1:7" ht="30">
+    <row r="196" spans="1:7">
       <c r="A196" s="38" t="s">
         <v>58</v>
       </c>
@@ -11993,7 +12012,7 @@
       <c r="F198" s="41"/>
       <c r="G198" s="41"/>
     </row>
-    <row r="199" spans="1:7" ht="30">
+    <row r="199" spans="1:7">
       <c r="A199" s="38" t="s">
         <v>58</v>
       </c>
@@ -12097,7 +12116,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="30">
+    <row r="205" spans="1:7">
       <c r="A205" s="38" t="s">
         <v>58</v>
       </c>
@@ -12131,7 +12150,7 @@
       <c r="F206" s="38"/>
       <c r="G206" s="38"/>
     </row>
-    <row r="207" spans="1:7" ht="30">
+    <row r="207" spans="1:7">
       <c r="A207" s="38" t="s">
         <v>58</v>
       </c>
@@ -12148,7 +12167,7 @@
       <c r="F207" s="40"/>
       <c r="G207" s="38"/>
     </row>
-    <row r="208" spans="1:7" ht="45">
+    <row r="208" spans="1:7" ht="30">
       <c r="A208" s="38" t="s">
         <v>58</v>
       </c>
@@ -12165,7 +12184,7 @@
       <c r="F208" s="40"/>
       <c r="G208" s="38"/>
     </row>
-    <row r="209" spans="1:7" ht="30">
+    <row r="209" spans="1:7">
       <c r="A209" s="38" t="s">
         <v>58</v>
       </c>
@@ -12182,7 +12201,7 @@
       <c r="F209" s="40"/>
       <c r="G209" s="38"/>
     </row>
-    <row r="210" spans="1:7" ht="30">
+    <row r="210" spans="1:7">
       <c r="A210" s="38" t="s">
         <v>58</v>
       </c>
@@ -12199,7 +12218,7 @@
       <c r="F210" s="40"/>
       <c r="G210" s="38"/>
     </row>
-    <row r="211" spans="1:7" ht="45">
+    <row r="211" spans="1:7" ht="30">
       <c r="A211" s="38" t="s">
         <v>58</v>
       </c>
@@ -12216,7 +12235,7 @@
       <c r="F211" s="40"/>
       <c r="G211" s="38"/>
     </row>
-    <row r="212" spans="1:7" ht="30">
+    <row r="212" spans="1:7">
       <c r="A212" s="38" t="s">
         <v>58</v>
       </c>
@@ -12233,7 +12252,7 @@
       <c r="F212" s="40"/>
       <c r="G212" s="38"/>
     </row>
-    <row r="213" spans="1:7" ht="75">
+    <row r="213" spans="1:7" ht="30">
       <c r="A213" s="38" t="s">
         <v>58</v>
       </c>
@@ -12250,7 +12269,7 @@
       <c r="F213" s="38"/>
       <c r="G213" s="38"/>
     </row>
-    <row r="214" spans="1:7" ht="45">
+    <row r="214" spans="1:7" ht="30">
       <c r="A214" s="38" t="s">
         <v>58</v>
       </c>
@@ -12267,7 +12286,7 @@
       <c r="F214" s="38"/>
       <c r="G214" s="38"/>
     </row>
-    <row r="215" spans="1:7" ht="30">
+    <row r="215" spans="1:7">
       <c r="A215" s="38" t="s">
         <v>58</v>
       </c>
@@ -12330,10 +12349,10 @@
       <c r="E218" s="38"/>
       <c r="F218" s="38"/>
       <c r="G218" s="38" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="30">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219" s="38" t="s">
         <v>58</v>
       </c>
@@ -12350,7 +12369,7 @@
       <c r="F219" s="38"/>
       <c r="G219" s="38"/>
     </row>
-    <row r="220" spans="1:7" ht="30">
+    <row r="220" spans="1:7">
       <c r="A220" s="38" t="s">
         <v>58</v>
       </c>
@@ -12367,7 +12386,7 @@
       <c r="F220" s="38"/>
       <c r="G220" s="38"/>
     </row>
-    <row r="221" spans="1:7" ht="60">
+    <row r="221" spans="1:7" ht="30">
       <c r="A221" s="38" t="s">
         <v>58</v>
       </c>
@@ -12384,7 +12403,7 @@
       <c r="F221" s="38"/>
       <c r="G221" s="38"/>
     </row>
-    <row r="222" spans="1:7" ht="60">
+    <row r="222" spans="1:7" ht="30">
       <c r="A222" s="38" t="s">
         <v>58</v>
       </c>
@@ -12401,7 +12420,7 @@
       <c r="F222" s="38"/>
       <c r="G222" s="38"/>
     </row>
-    <row r="223" spans="1:7" ht="30">
+    <row r="223" spans="1:7">
       <c r="A223" s="38" t="s">
         <v>58</v>
       </c>
@@ -12418,7 +12437,7 @@
       <c r="F223" s="40"/>
       <c r="G223" s="38"/>
     </row>
-    <row r="224" spans="1:7" ht="30">
+    <row r="224" spans="1:7">
       <c r="A224" s="38" t="s">
         <v>58</v>
       </c>
@@ -12435,7 +12454,7 @@
       <c r="F224" s="38"/>
       <c r="G224" s="38"/>
     </row>
-    <row r="225" spans="1:7" ht="45">
+    <row r="225" spans="1:7">
       <c r="A225" s="38" t="s">
         <v>58</v>
       </c>
@@ -12443,18 +12462,18 @@
         <v>382</v>
       </c>
       <c r="C225" s="40" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="D225" s="40" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="E225" s="38" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="F225" s="38"/>
       <c r="G225" s="38"/>
     </row>
-    <row r="226" spans="1:7" ht="45">
+    <row r="226" spans="1:7">
       <c r="A226" s="38" t="s">
         <v>58</v>
       </c>
@@ -12465,10 +12484,10 @@
         <v>385</v>
       </c>
       <c r="D226" s="40" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="E226" s="38" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="F226" s="38"/>
       <c r="G226" s="38"/>
@@ -12481,7 +12500,7 @@
         <v>386</v>
       </c>
       <c r="C227" s="38" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="D227" s="38">
         <v>76.16</v>
@@ -12555,7 +12574,7 @@
       <c r="E231" s="38"/>
       <c r="F231" s="38"/>
       <c r="G231" s="38" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -12575,7 +12594,7 @@
       <c r="F232" s="38"/>
       <c r="G232" s="38"/>
     </row>
-    <row r="233" spans="1:7" ht="30">
+    <row r="233" spans="1:7">
       <c r="A233" s="38" t="s">
         <v>58</v>
       </c>
@@ -12609,7 +12628,7 @@
       <c r="F234" s="38"/>
       <c r="G234" s="38"/>
     </row>
-    <row r="235" spans="1:7" ht="30">
+    <row r="235" spans="1:7">
       <c r="A235" s="38" t="s">
         <v>58</v>
       </c>
@@ -12623,7 +12642,7 @@
         <v>981</v>
       </c>
       <c r="E235" s="40" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="F235" s="40"/>
       <c r="G235" s="38"/>
@@ -12662,7 +12681,7 @@
       <c r="F237" s="38"/>
       <c r="G237" s="38"/>
     </row>
-    <row r="238" spans="1:7" ht="30">
+    <row r="238" spans="1:7">
       <c r="A238" s="38" t="s">
         <v>58</v>
       </c>
@@ -12796,7 +12815,7 @@
       <c r="F245" s="41"/>
       <c r="G245" s="41"/>
     </row>
-    <row r="246" spans="1:7" ht="30">
+    <row r="246" spans="1:7">
       <c r="A246" s="38" t="s">
         <v>58</v>
       </c>
@@ -12916,7 +12935,7 @@
         <v>58</v>
       </c>
       <c r="B253" s="35" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="C253" s="36" t="s">
         <v>35</v>
@@ -12956,7 +12975,7 @@
       <c r="F255" s="41"/>
       <c r="G255" s="41"/>
     </row>
-    <row r="256" spans="1:7" ht="60">
+    <row r="256" spans="1:7" ht="30">
       <c r="A256" s="38" t="s">
         <v>58</v>
       </c>
@@ -12975,7 +12994,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="30">
+    <row r="257" spans="1:7">
       <c r="A257" s="38" t="s">
         <v>58</v>
       </c>
@@ -12992,7 +13011,7 @@
       <c r="F257" s="38"/>
       <c r="G257" s="44"/>
     </row>
-    <row r="258" spans="1:7" ht="45">
+    <row r="258" spans="1:7">
       <c r="A258" s="38" t="s">
         <v>58</v>
       </c>
@@ -13009,7 +13028,7 @@
       <c r="F258" s="38"/>
       <c r="G258" s="44"/>
     </row>
-    <row r="259" spans="1:7" ht="45">
+    <row r="259" spans="1:7" ht="30">
       <c r="A259" s="38" t="s">
         <v>58</v>
       </c>
@@ -13043,7 +13062,7 @@
       <c r="F260" s="38"/>
       <c r="G260" s="44"/>
     </row>
-    <row r="261" spans="1:7" ht="30">
+    <row r="261" spans="1:7">
       <c r="A261" s="38" t="s">
         <v>58</v>
       </c>
@@ -13060,7 +13079,7 @@
       <c r="F261" s="38"/>
       <c r="G261" s="44"/>
     </row>
-    <row r="262" spans="1:7" ht="75">
+    <row r="262" spans="1:7" ht="30">
       <c r="A262" s="38" t="s">
         <v>58</v>
       </c>
@@ -13077,7 +13096,7 @@
       <c r="F262" s="38"/>
       <c r="G262" s="44"/>
     </row>
-    <row r="263" spans="1:7" ht="60">
+    <row r="263" spans="1:7" ht="30">
       <c r="A263" s="38" t="s">
         <v>58</v>
       </c>
@@ -13094,7 +13113,7 @@
       <c r="F263" s="38"/>
       <c r="G263" s="44"/>
     </row>
-    <row r="264" spans="1:7" ht="105">
+    <row r="264" spans="1:7" ht="45">
       <c r="A264" s="38" t="s">
         <v>58</v>
       </c>
@@ -13111,7 +13130,7 @@
       <c r="F264" s="38"/>
       <c r="G264" s="44"/>
     </row>
-    <row r="265" spans="1:7" ht="75">
+    <row r="265" spans="1:7" ht="30">
       <c r="A265" s="38" t="s">
         <v>58</v>
       </c>
@@ -13128,7 +13147,7 @@
       <c r="F265" s="38"/>
       <c r="G265" s="44"/>
     </row>
-    <row r="266" spans="1:7" ht="105">
+    <row r="266" spans="1:7" ht="45">
       <c r="A266" s="38" t="s">
         <v>58</v>
       </c>
@@ -13145,7 +13164,7 @@
       <c r="F266" s="38"/>
       <c r="G266" s="44"/>
     </row>
-    <row r="267" spans="1:7" ht="30">
+    <row r="267" spans="1:7">
       <c r="A267" s="38" t="s">
         <v>58</v>
       </c>
@@ -13192,7 +13211,7 @@
       <c r="F269" s="41"/>
       <c r="G269" s="41"/>
     </row>
-    <row r="270" spans="1:7" ht="75">
+    <row r="270" spans="1:7" ht="30">
       <c r="A270" s="38" t="s">
         <v>58</v>
       </c>
@@ -13228,7 +13247,7 @@
       <c r="F271" s="38"/>
       <c r="G271" s="44"/>
     </row>
-    <row r="272" spans="1:7" ht="30">
+    <row r="272" spans="1:7">
       <c r="A272" s="38" t="s">
         <v>58</v>
       </c>
@@ -13245,7 +13264,7 @@
       <c r="F272" s="38"/>
       <c r="G272" s="44"/>
     </row>
-    <row r="273" spans="1:7" ht="45">
+    <row r="273" spans="1:7" ht="30">
       <c r="A273" s="38" t="s">
         <v>58</v>
       </c>
@@ -13279,7 +13298,7 @@
       <c r="F274" s="38"/>
       <c r="G274" s="44"/>
     </row>
-    <row r="275" spans="1:7" ht="30">
+    <row r="275" spans="1:7">
       <c r="A275" s="38" t="s">
         <v>58</v>
       </c>
@@ -13296,7 +13315,7 @@
       <c r="F275" s="38"/>
       <c r="G275" s="44"/>
     </row>
-    <row r="276" spans="1:7" ht="30">
+    <row r="276" spans="1:7">
       <c r="A276" s="38" t="s">
         <v>58</v>
       </c>
@@ -13313,7 +13332,7 @@
       <c r="F276" s="38"/>
       <c r="G276" s="44"/>
     </row>
-    <row r="277" spans="1:7" ht="45">
+    <row r="277" spans="1:7">
       <c r="A277" s="38" t="s">
         <v>58</v>
       </c>
@@ -13330,7 +13349,7 @@
       <c r="F277" s="38"/>
       <c r="G277" s="44"/>
     </row>
-    <row r="278" spans="1:7" ht="30">
+    <row r="278" spans="1:7">
       <c r="A278" s="38" t="s">
         <v>58</v>
       </c>
@@ -13347,7 +13366,7 @@
       <c r="F278" s="38"/>
       <c r="G278" s="44"/>
     </row>
-    <row r="279" spans="1:7" ht="45">
+    <row r="279" spans="1:7" ht="30">
       <c r="A279" s="38" t="s">
         <v>58</v>
       </c>
@@ -13364,7 +13383,7 @@
       <c r="F279" s="38"/>
       <c r="G279" s="44"/>
     </row>
-    <row r="280" spans="1:7" ht="60">
+    <row r="280" spans="1:7" ht="30">
       <c r="A280" s="38" t="s">
         <v>58</v>
       </c>
@@ -13381,7 +13400,7 @@
       <c r="F280" s="38"/>
       <c r="G280" s="44"/>
     </row>
-    <row r="281" spans="1:7" ht="75">
+    <row r="281" spans="1:7" ht="30">
       <c r="A281" s="38" t="s">
         <v>58</v>
       </c>
@@ -13398,7 +13417,7 @@
       <c r="F281" s="38"/>
       <c r="G281" s="38"/>
     </row>
-    <row r="282" spans="1:7" ht="90">
+    <row r="282" spans="1:7" ht="45">
       <c r="A282" s="38" t="s">
         <v>58</v>
       </c>
@@ -13415,7 +13434,7 @@
       <c r="F282" s="38"/>
       <c r="G282" s="44"/>
     </row>
-    <row r="283" spans="1:7" ht="105">
+    <row r="283" spans="1:7" ht="45">
       <c r="A283" s="38" t="s">
         <v>58</v>
       </c>
@@ -13432,7 +13451,7 @@
       <c r="F283" s="38"/>
       <c r="G283" s="38"/>
     </row>
-    <row r="284" spans="1:7" ht="105">
+    <row r="284" spans="1:7" ht="45">
       <c r="A284" s="38" t="s">
         <v>58</v>
       </c>
@@ -13449,7 +13468,7 @@
       <c r="F284" s="38"/>
       <c r="G284" s="44"/>
     </row>
-    <row r="285" spans="1:7" ht="75">
+    <row r="285" spans="1:7" ht="30">
       <c r="A285" s="38" t="s">
         <v>58</v>
       </c>
@@ -13496,7 +13515,7 @@
       <c r="F287" s="41"/>
       <c r="G287" s="41"/>
     </row>
-    <row r="288" spans="1:7" ht="75">
+    <row r="288" spans="1:7" ht="30">
       <c r="A288" s="38" t="s">
         <v>58</v>
       </c>
@@ -13532,7 +13551,7 @@
       <c r="F289" s="38"/>
       <c r="G289" s="44"/>
     </row>
-    <row r="290" spans="1:7" ht="30">
+    <row r="290" spans="1:7">
       <c r="A290" s="38" t="s">
         <v>58</v>
       </c>
@@ -13549,7 +13568,7 @@
       <c r="F290" s="38"/>
       <c r="G290" s="44"/>
     </row>
-    <row r="291" spans="1:7" ht="45">
+    <row r="291" spans="1:7" ht="30">
       <c r="A291" s="38" t="s">
         <v>58</v>
       </c>
@@ -13583,7 +13602,7 @@
       <c r="F292" s="38"/>
       <c r="G292" s="44"/>
     </row>
-    <row r="293" spans="1:7" ht="30">
+    <row r="293" spans="1:7">
       <c r="A293" s="38" t="s">
         <v>58</v>
       </c>
@@ -13600,7 +13619,7 @@
       <c r="F293" s="38"/>
       <c r="G293" s="44"/>
     </row>
-    <row r="294" spans="1:7" ht="30">
+    <row r="294" spans="1:7">
       <c r="A294" s="38" t="s">
         <v>58</v>
       </c>
@@ -13617,7 +13636,7 @@
       <c r="F294" s="38"/>
       <c r="G294" s="44"/>
     </row>
-    <row r="295" spans="1:7" ht="45">
+    <row r="295" spans="1:7">
       <c r="A295" s="38" t="s">
         <v>58</v>
       </c>
@@ -13634,7 +13653,7 @@
       <c r="F295" s="38"/>
       <c r="G295" s="44"/>
     </row>
-    <row r="296" spans="1:7" ht="30">
+    <row r="296" spans="1:7">
       <c r="A296" s="38" t="s">
         <v>58</v>
       </c>
@@ -13651,7 +13670,7 @@
       <c r="F296" s="38"/>
       <c r="G296" s="44"/>
     </row>
-    <row r="297" spans="1:7" ht="45">
+    <row r="297" spans="1:7" ht="30">
       <c r="A297" s="38" t="s">
         <v>58</v>
       </c>
@@ -13668,7 +13687,7 @@
       <c r="F297" s="38"/>
       <c r="G297" s="44"/>
     </row>
-    <row r="298" spans="1:7" ht="60">
+    <row r="298" spans="1:7" ht="30">
       <c r="A298" s="38" t="s">
         <v>58</v>
       </c>
@@ -13685,7 +13704,7 @@
       <c r="F298" s="38"/>
       <c r="G298" s="44"/>
     </row>
-    <row r="299" spans="1:7" ht="75">
+    <row r="299" spans="1:7" ht="30">
       <c r="A299" s="38" t="s">
         <v>58</v>
       </c>
@@ -13702,7 +13721,7 @@
       <c r="F299" s="38"/>
       <c r="G299" s="38"/>
     </row>
-    <row r="300" spans="1:7" ht="90">
+    <row r="300" spans="1:7" ht="45">
       <c r="A300" s="38" t="s">
         <v>58</v>
       </c>
@@ -13719,7 +13738,7 @@
       <c r="F300" s="38"/>
       <c r="G300" s="44"/>
     </row>
-    <row r="301" spans="1:7" ht="105">
+    <row r="301" spans="1:7" ht="45">
       <c r="A301" s="38" t="s">
         <v>58</v>
       </c>
@@ -13736,7 +13755,7 @@
       <c r="F301" s="38"/>
       <c r="G301" s="38"/>
     </row>
-    <row r="302" spans="1:7" ht="105">
+    <row r="302" spans="1:7" ht="45">
       <c r="A302" s="38" t="s">
         <v>58</v>
       </c>
@@ -13753,7 +13772,7 @@
       <c r="F302" s="38"/>
       <c r="G302" s="44"/>
     </row>
-    <row r="303" spans="1:7" ht="75">
+    <row r="303" spans="1:7" ht="30">
       <c r="A303" s="38" t="s">
         <v>58</v>
       </c>
@@ -13800,7 +13819,7 @@
       <c r="F305" s="41"/>
       <c r="G305" s="41"/>
     </row>
-    <row r="306" spans="1:7" ht="45">
+    <row r="306" spans="1:7" ht="30">
       <c r="A306" s="38" t="s">
         <v>58</v>
       </c>
@@ -13832,7 +13851,7 @@
       <c r="F307" s="41"/>
       <c r="G307" s="41"/>
     </row>
-    <row r="308" spans="1:7" ht="45">
+    <row r="308" spans="1:7" ht="30">
       <c r="A308" s="38" t="s">
         <v>58</v>
       </c>
@@ -13851,7 +13870,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="30">
+    <row r="309" spans="1:7">
       <c r="A309" s="38" t="s">
         <v>58</v>
       </c>
@@ -13885,7 +13904,7 @@
       <c r="F310" s="38"/>
       <c r="G310" s="44"/>
     </row>
-    <row r="311" spans="1:7" ht="60">
+    <row r="311" spans="1:7" ht="30">
       <c r="A311" s="38" t="s">
         <v>58</v>
       </c>
@@ -13902,7 +13921,7 @@
       <c r="F311" s="38"/>
       <c r="G311" s="44"/>
     </row>
-    <row r="312" spans="1:7" ht="30">
+    <row r="312" spans="1:7">
       <c r="A312" s="38" t="s">
         <v>58</v>
       </c>
@@ -13936,7 +13955,7 @@
       <c r="F313" s="38"/>
       <c r="G313" s="44"/>
     </row>
-    <row r="314" spans="1:7" ht="105">
+    <row r="314" spans="1:7" ht="45">
       <c r="A314" s="38" t="s">
         <v>58</v>
       </c>
@@ -13983,7 +14002,7 @@
       <c r="F316" s="41"/>
       <c r="G316" s="48"/>
     </row>
-    <row r="317" spans="1:7" ht="75">
+    <row r="317" spans="1:7" ht="30">
       <c r="A317" s="38" t="s">
         <v>58</v>
       </c>
@@ -14019,7 +14038,7 @@
       <c r="F318" s="38"/>
       <c r="G318" s="38"/>
     </row>
-    <row r="319" spans="1:7" ht="30">
+    <row r="319" spans="1:7">
       <c r="A319" s="38" t="s">
         <v>58</v>
       </c>
@@ -14036,7 +14055,7 @@
       <c r="F319" s="38"/>
       <c r="G319" s="38"/>
     </row>
-    <row r="320" spans="1:7" ht="45">
+    <row r="320" spans="1:7" ht="30">
       <c r="A320" s="38" t="s">
         <v>58</v>
       </c>
@@ -14070,7 +14089,7 @@
       <c r="F321" s="38"/>
       <c r="G321" s="38"/>
     </row>
-    <row r="322" spans="1:7" ht="30">
+    <row r="322" spans="1:7">
       <c r="A322" s="38" t="s">
         <v>58</v>
       </c>
@@ -14087,7 +14106,7 @@
       <c r="F322" s="38"/>
       <c r="G322" s="38"/>
     </row>
-    <row r="323" spans="1:7" ht="30">
+    <row r="323" spans="1:7">
       <c r="A323" s="38" t="s">
         <v>58</v>
       </c>
@@ -14104,7 +14123,7 @@
       <c r="F323" s="38"/>
       <c r="G323" s="38"/>
     </row>
-    <row r="324" spans="1:7" ht="45">
+    <row r="324" spans="1:7">
       <c r="A324" s="38" t="s">
         <v>58</v>
       </c>
@@ -14121,7 +14140,7 @@
       <c r="F324" s="38"/>
       <c r="G324" s="38"/>
     </row>
-    <row r="325" spans="1:7" ht="30">
+    <row r="325" spans="1:7">
       <c r="A325" s="38" t="s">
         <v>58</v>
       </c>
@@ -14138,7 +14157,7 @@
       <c r="F325" s="38"/>
       <c r="G325" s="38"/>
     </row>
-    <row r="326" spans="1:7" ht="45">
+    <row r="326" spans="1:7" ht="30">
       <c r="A326" s="38" t="s">
         <v>58</v>
       </c>
@@ -14155,7 +14174,7 @@
       <c r="F326" s="38"/>
       <c r="G326" s="38"/>
     </row>
-    <row r="327" spans="1:7" ht="60">
+    <row r="327" spans="1:7" ht="30">
       <c r="A327" s="38" t="s">
         <v>58</v>
       </c>
@@ -14172,7 +14191,7 @@
       <c r="F327" s="38"/>
       <c r="G327" s="38"/>
     </row>
-    <row r="328" spans="1:7" ht="75">
+    <row r="328" spans="1:7" ht="30">
       <c r="A328" s="38" t="s">
         <v>58</v>
       </c>
@@ -14189,7 +14208,7 @@
       <c r="F328" s="38"/>
       <c r="G328" s="38"/>
     </row>
-    <row r="329" spans="1:7" ht="90">
+    <row r="329" spans="1:7" ht="45">
       <c r="A329" s="38" t="s">
         <v>58</v>
       </c>
@@ -14206,7 +14225,7 @@
       <c r="F329" s="38"/>
       <c r="G329" s="38"/>
     </row>
-    <row r="330" spans="1:7" ht="105">
+    <row r="330" spans="1:7" ht="45">
       <c r="A330" s="38" t="s">
         <v>58</v>
       </c>
@@ -14223,7 +14242,7 @@
       <c r="F330" s="38"/>
       <c r="G330" s="38"/>
     </row>
-    <row r="331" spans="1:7" ht="105">
+    <row r="331" spans="1:7" ht="45">
       <c r="A331" s="38" t="s">
         <v>58</v>
       </c>
@@ -14240,7 +14259,7 @@
       <c r="F331" s="38"/>
       <c r="G331" s="38"/>
     </row>
-    <row r="332" spans="1:7" ht="75">
+    <row r="332" spans="1:7" ht="30">
       <c r="A332" s="38" t="s">
         <v>58</v>
       </c>
@@ -14262,7 +14281,7 @@
         <v>58</v>
       </c>
       <c r="B333" s="35" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="C333" s="49" t="s">
         <v>40</v>
@@ -14302,7 +14321,7 @@
       <c r="F335" s="41"/>
       <c r="G335" s="48"/>
     </row>
-    <row r="336" spans="1:7" ht="120">
+    <row r="336" spans="1:7" ht="60">
       <c r="A336" s="38" t="s">
         <v>58</v>
       </c>
@@ -14315,13 +14334,15 @@
       <c r="D336" s="38">
         <v>78.3</v>
       </c>
-      <c r="E336" s="38"/>
+      <c r="E336" s="38" t="s">
+        <v>1286</v>
+      </c>
       <c r="F336" s="38"/>
       <c r="G336" s="44" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="30">
+    <row r="337" spans="1:7" ht="45">
       <c r="A337" s="38" t="s">
         <v>58</v>
       </c>
@@ -14334,11 +14355,13 @@
       <c r="D337" s="38">
         <v>78.099999999999994</v>
       </c>
-      <c r="E337" s="38"/>
+      <c r="E337" s="38" t="s">
+        <v>1282</v>
+      </c>
       <c r="F337" s="38"/>
       <c r="G337" s="44"/>
     </row>
-    <row r="338" spans="1:7" ht="30">
+    <row r="338" spans="1:7">
       <c r="A338" s="38" t="s">
         <v>58</v>
       </c>
@@ -14351,7 +14374,9 @@
       <c r="D338" s="38">
         <v>78.099999999999994</v>
       </c>
-      <c r="E338" s="38"/>
+      <c r="E338" s="38" t="s">
+        <v>1286</v>
+      </c>
       <c r="F338" s="38"/>
       <c r="G338" s="44"/>
     </row>
@@ -14423,7 +14448,7 @@
       <c r="F342" s="38"/>
       <c r="G342" s="38"/>
     </row>
-    <row r="343" spans="1:7" ht="45">
+    <row r="343" spans="1:7">
       <c r="A343" s="38" t="s">
         <v>58</v>
       </c>
@@ -14455,7 +14480,7 @@
       <c r="F344" s="41"/>
       <c r="G344" s="41"/>
     </row>
-    <row r="345" spans="1:7" ht="30">
+    <row r="345" spans="1:7">
       <c r="A345" s="38" t="s">
         <v>58</v>
       </c>
@@ -14471,10 +14496,10 @@
       <c r="E345" s="38"/>
       <c r="F345" s="38"/>
       <c r="G345" s="44" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7" ht="30">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
       <c r="A346" s="38" t="s">
         <v>58</v>
       </c>
@@ -14499,10 +14524,10 @@
         <v>595</v>
       </c>
       <c r="C347" s="44" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="D347" s="38" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="E347" s="38"/>
       <c r="F347" s="38"/>
@@ -14525,7 +14550,7 @@
       <c r="F348" s="38"/>
       <c r="G348" s="44"/>
     </row>
-    <row r="349" spans="1:7" ht="45">
+    <row r="349" spans="1:7">
       <c r="A349" s="38" t="s">
         <v>58</v>
       </c>
@@ -14557,7 +14582,7 @@
       <c r="F350" s="41"/>
       <c r="G350" s="41"/>
     </row>
-    <row r="351" spans="1:7" ht="90">
+    <row r="351" spans="1:7" ht="45">
       <c r="A351" s="38" t="s">
         <v>58</v>
       </c>
@@ -14573,10 +14598,10 @@
       <c r="E351" s="40"/>
       <c r="F351" s="40"/>
       <c r="G351" s="44" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7" ht="60">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" ht="30">
       <c r="A352" s="38" t="s">
         <v>58</v>
       </c>
@@ -14604,13 +14629,13 @@
         <v>612</v>
       </c>
       <c r="D353" s="40" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="E353" s="40"/>
       <c r="F353" s="40"/>
       <c r="G353" s="38"/>
     </row>
-    <row r="354" spans="1:7" ht="45">
+    <row r="354" spans="1:7" ht="30">
       <c r="A354" s="38" t="s">
         <v>58</v>
       </c>
@@ -14627,7 +14652,7 @@
       <c r="F354" s="40"/>
       <c r="G354" s="44"/>
     </row>
-    <row r="355" spans="1:7" ht="30">
+    <row r="355" spans="1:7">
       <c r="A355" s="38" t="s">
         <v>58</v>
       </c>
@@ -14675,7 +14700,7 @@
       <c r="E357" s="38"/>
       <c r="F357" s="38"/>
       <c r="G357" s="38" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -14689,7 +14714,7 @@
         <v>624</v>
       </c>
       <c r="D358" s="40" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="E358" s="40"/>
       <c r="F358" s="40"/>
@@ -14710,7 +14735,7 @@
       <c r="F359" s="41"/>
       <c r="G359" s="41"/>
     </row>
-    <row r="360" spans="1:7" ht="30">
+    <row r="360" spans="1:7">
       <c r="A360" s="38" t="s">
         <v>58</v>
       </c>
@@ -14726,10 +14751,10 @@
       <c r="E360" s="38"/>
       <c r="F360" s="38"/>
       <c r="G360" s="44" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" ht="30">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
       <c r="A361" s="38" t="s">
         <v>58</v>
       </c>
@@ -14740,13 +14765,13 @@
         <v>629</v>
       </c>
       <c r="D361" s="38" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="E361" s="46"/>
       <c r="F361" s="46"/>
       <c r="G361" s="44"/>
     </row>
-    <row r="362" spans="1:7" ht="30">
+    <row r="362" spans="1:7">
       <c r="A362" s="38" t="s">
         <v>58</v>
       </c>
@@ -14774,13 +14799,13 @@
         <v>633</v>
       </c>
       <c r="D363" s="38" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="E363" s="38"/>
       <c r="F363" s="38"/>
       <c r="G363" s="44"/>
     </row>
-    <row r="364" spans="1:7" ht="30">
+    <row r="364" spans="1:7">
       <c r="A364" s="38" t="s">
         <v>58</v>
       </c>
@@ -14791,7 +14816,7 @@
         <v>635</v>
       </c>
       <c r="D364" s="38" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="E364" s="38" t="s">
         <v>636</v>
@@ -14829,7 +14854,7 @@
       <c r="F366" s="41"/>
       <c r="G366" s="41"/>
     </row>
-    <row r="367" spans="1:7" ht="120">
+    <row r="367" spans="1:7" ht="60">
       <c r="A367" s="38" t="s">
         <v>58</v>
       </c>
@@ -14840,15 +14865,17 @@
         <v>567</v>
       </c>
       <c r="D367" s="40" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E367" s="40"/>
+        <v>1036</v>
+      </c>
+      <c r="E367" s="40" t="s">
+        <v>1286</v>
+      </c>
       <c r="F367" s="40"/>
       <c r="G367" s="44" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="30">
+    <row r="368" spans="1:7" ht="60">
       <c r="A368" s="38" t="s">
         <v>58</v>
       </c>
@@ -14861,11 +14888,13 @@
       <c r="D368" s="40" t="s">
         <v>1031</v>
       </c>
-      <c r="E368" s="40"/>
+      <c r="E368" s="40" t="s">
+        <v>1283</v>
+      </c>
       <c r="F368" s="40"/>
       <c r="G368" s="44"/>
     </row>
-    <row r="369" spans="1:7" ht="30">
+    <row r="369" spans="1:7">
       <c r="A369" s="38" t="s">
         <v>58</v>
       </c>
@@ -14878,7 +14907,9 @@
       <c r="D369" s="38">
         <v>78.099999999999994</v>
       </c>
-      <c r="E369" s="38"/>
+      <c r="E369" s="38" t="s">
+        <v>1286</v>
+      </c>
       <c r="F369" s="38"/>
       <c r="G369" s="44"/>
     </row>
@@ -14931,7 +14962,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="30">
+    <row r="373" spans="1:7">
       <c r="A373" s="38" t="s">
         <v>58</v>
       </c>
@@ -14948,7 +14979,7 @@
       <c r="F373" s="38"/>
       <c r="G373" s="44"/>
     </row>
-    <row r="374" spans="1:7" ht="45">
+    <row r="374" spans="1:7" ht="30">
       <c r="A374" s="38" t="s">
         <v>58</v>
       </c>
@@ -14965,7 +14996,7 @@
       <c r="F374" s="38"/>
       <c r="G374" s="44"/>
     </row>
-    <row r="375" spans="1:7" ht="45">
+    <row r="375" spans="1:7" ht="30">
       <c r="A375" s="38" t="s">
         <v>58</v>
       </c>
@@ -14982,7 +15013,7 @@
       <c r="F375" s="40"/>
       <c r="G375" s="44"/>
     </row>
-    <row r="376" spans="1:7" ht="30">
+    <row r="376" spans="1:7">
       <c r="A376" s="38" t="s">
         <v>58</v>
       </c>
@@ -14999,7 +15030,7 @@
       <c r="F376" s="38"/>
       <c r="G376" s="44"/>
     </row>
-    <row r="377" spans="1:7" ht="45">
+    <row r="377" spans="1:7" ht="30">
       <c r="A377" s="38" t="s">
         <v>58</v>
       </c>
@@ -15047,7 +15078,7 @@
       <c r="E379" s="38"/>
       <c r="F379" s="38"/>
       <c r="G379" s="44" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -15061,10 +15092,10 @@
         <v>624</v>
       </c>
       <c r="D380" s="40" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="E380" s="40" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="F380" s="40"/>
       <c r="G380" s="38"/>
@@ -15084,7 +15115,7 @@
       <c r="F381" s="41"/>
       <c r="G381" s="41"/>
     </row>
-    <row r="382" spans="1:7" ht="30">
+    <row r="382" spans="1:7">
       <c r="A382" s="38" t="s">
         <v>58</v>
       </c>
@@ -15100,10 +15131,10 @@
       <c r="E382" s="38"/>
       <c r="F382" s="38"/>
       <c r="G382" s="44" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" ht="30">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
       <c r="A383" s="38" t="s">
         <v>58</v>
       </c>
@@ -15114,13 +15145,13 @@
         <v>666</v>
       </c>
       <c r="D383" s="38" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="E383" s="46"/>
       <c r="F383" s="46"/>
       <c r="G383" s="44"/>
     </row>
-    <row r="384" spans="1:7" ht="30">
+    <row r="384" spans="1:7">
       <c r="A384" s="38" t="s">
         <v>58</v>
       </c>
@@ -15148,13 +15179,13 @@
         <v>633</v>
       </c>
       <c r="D385" s="38" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="E385" s="38"/>
       <c r="F385" s="38"/>
       <c r="G385" s="38"/>
     </row>
-    <row r="386" spans="1:7" ht="30">
+    <row r="386" spans="1:7">
       <c r="A386" s="38" t="s">
         <v>58</v>
       </c>
@@ -15165,7 +15196,7 @@
         <v>635</v>
       </c>
       <c r="D386" s="38" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="E386" s="38" t="s">
         <v>636</v>
@@ -15203,7 +15234,7 @@
       <c r="F388" s="41"/>
       <c r="G388" s="41"/>
     </row>
-    <row r="389" spans="1:7" ht="105">
+    <row r="389" spans="1:7" ht="45">
       <c r="A389" s="38" t="s">
         <v>58</v>
       </c>
@@ -15216,13 +15247,15 @@
       <c r="D389" s="38">
         <v>78.3</v>
       </c>
-      <c r="E389" s="38"/>
+      <c r="E389" s="38" t="s">
+        <v>1286</v>
+      </c>
       <c r="F389" s="38"/>
       <c r="G389" s="44" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="390" spans="1:7" ht="30">
+    <row r="390" spans="1:7" ht="60">
       <c r="A390" s="38" t="s">
         <v>58</v>
       </c>
@@ -15232,14 +15265,16 @@
       <c r="C390" s="38" t="s">
         <v>674</v>
       </c>
-      <c r="D390" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E390" s="38"/>
+      <c r="D390" s="38" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E390" s="40" t="s">
+        <v>1284</v>
+      </c>
       <c r="F390" s="38"/>
       <c r="G390" s="38"/>
     </row>
-    <row r="391" spans="1:7" ht="30">
+    <row r="391" spans="1:7">
       <c r="A391" s="38" t="s">
         <v>58</v>
       </c>
@@ -15252,7 +15287,9 @@
       <c r="D391" s="38">
         <v>78.099999999999994</v>
       </c>
-      <c r="E391" s="38"/>
+      <c r="E391" s="38" t="s">
+        <v>1286</v>
+      </c>
       <c r="F391" s="38"/>
       <c r="G391" s="44"/>
     </row>
@@ -15286,7 +15323,7 @@
       <c r="F393" s="41"/>
       <c r="G393" s="41"/>
     </row>
-    <row r="394" spans="1:7" ht="45">
+    <row r="394" spans="1:7">
       <c r="A394" s="38" t="s">
         <v>58</v>
       </c>
@@ -15297,7 +15334,7 @@
         <v>680</v>
       </c>
       <c r="D394" s="38" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="E394" s="38"/>
       <c r="F394" s="38"/>
@@ -15305,7 +15342,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="395" spans="1:7" ht="45">
+    <row r="395" spans="1:7">
       <c r="A395" s="38" t="s">
         <v>58</v>
       </c>
@@ -15339,7 +15376,7 @@
       <c r="F396" s="38"/>
       <c r="G396" s="44"/>
     </row>
-    <row r="397" spans="1:7" ht="45">
+    <row r="397" spans="1:7" ht="30">
       <c r="A397" s="38" t="s">
         <v>58</v>
       </c>
@@ -15356,7 +15393,7 @@
       <c r="F397" s="38"/>
       <c r="G397" s="44"/>
     </row>
-    <row r="398" spans="1:7" ht="30">
+    <row r="398" spans="1:7">
       <c r="A398" s="38" t="s">
         <v>58</v>
       </c>
@@ -15373,7 +15410,7 @@
       <c r="F398" s="38"/>
       <c r="G398" s="44"/>
     </row>
-    <row r="399" spans="1:7" ht="45">
+    <row r="399" spans="1:7" ht="30">
       <c r="A399" s="38" t="s">
         <v>58</v>
       </c>
@@ -15421,7 +15458,7 @@
       <c r="E401" s="38"/>
       <c r="F401" s="38"/>
       <c r="G401" s="44" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -15435,10 +15472,10 @@
         <v>624</v>
       </c>
       <c r="D402" s="40" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="E402" s="40" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="F402" s="40"/>
       <c r="G402" s="38"/>
@@ -15458,7 +15495,7 @@
       <c r="F403" s="41"/>
       <c r="G403" s="41"/>
     </row>
-    <row r="404" spans="1:7" ht="30">
+    <row r="404" spans="1:7">
       <c r="A404" s="38" t="s">
         <v>58</v>
       </c>
@@ -15474,10 +15511,10 @@
       <c r="E404" s="38"/>
       <c r="F404" s="38"/>
       <c r="G404" s="44" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="405" spans="1:7" ht="30">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7">
       <c r="A405" s="38" t="s">
         <v>58</v>
       </c>
@@ -15488,13 +15525,13 @@
         <v>666</v>
       </c>
       <c r="D405" s="38" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="E405" s="46"/>
       <c r="F405" s="46"/>
       <c r="G405" s="44"/>
     </row>
-    <row r="406" spans="1:7" ht="30">
+    <row r="406" spans="1:7">
       <c r="A406" s="38" t="s">
         <v>58</v>
       </c>
@@ -15522,13 +15559,13 @@
         <v>633</v>
       </c>
       <c r="D407" s="38" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="E407" s="38"/>
       <c r="F407" s="38"/>
       <c r="G407" s="38"/>
     </row>
-    <row r="408" spans="1:7" ht="30">
+    <row r="408" spans="1:7">
       <c r="A408" s="38" t="s">
         <v>58</v>
       </c>
@@ -15539,7 +15576,7 @@
         <v>635</v>
       </c>
       <c r="D408" s="38" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="E408" s="38" t="s">
         <v>636</v>
@@ -15577,7 +15614,7 @@
       <c r="F410" s="41"/>
       <c r="G410" s="41"/>
     </row>
-    <row r="411" spans="1:7" ht="105">
+    <row r="411" spans="1:7" ht="78.75">
       <c r="A411" s="38" t="s">
         <v>58</v>
       </c>
@@ -15590,13 +15627,15 @@
       <c r="D411" s="38">
         <v>78.3</v>
       </c>
-      <c r="E411" s="38"/>
+      <c r="E411" s="3" t="s">
+        <v>1291</v>
+      </c>
       <c r="F411" s="38"/>
       <c r="G411" s="44" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="30">
+    <row r="412" spans="1:7" ht="60">
       <c r="A412" s="38" t="s">
         <v>58</v>
       </c>
@@ -15609,11 +15648,13 @@
       <c r="D412" s="38">
         <v>78.099999999999994</v>
       </c>
-      <c r="E412" s="38"/>
+      <c r="E412" s="38" t="s">
+        <v>1285</v>
+      </c>
       <c r="F412" s="38"/>
       <c r="G412" s="44"/>
     </row>
-    <row r="413" spans="1:7" ht="30">
+    <row r="413" spans="1:7">
       <c r="A413" s="38" t="s">
         <v>58</v>
       </c>
@@ -15626,7 +15667,9 @@
       <c r="D413" s="38">
         <v>78.099999999999994</v>
       </c>
-      <c r="E413" s="38"/>
+      <c r="E413" s="38" t="s">
+        <v>1286</v>
+      </c>
       <c r="F413" s="38"/>
       <c r="G413" s="44"/>
     </row>
@@ -15713,7 +15756,7 @@
       <c r="F418" s="38"/>
       <c r="G418" s="44"/>
     </row>
-    <row r="419" spans="1:7" ht="30">
+    <row r="419" spans="1:7">
       <c r="A419" s="38" t="s">
         <v>58</v>
       </c>
@@ -15745,7 +15788,7 @@
       <c r="F420" s="41"/>
       <c r="G420" s="41"/>
     </row>
-    <row r="421" spans="1:7" ht="30">
+    <row r="421" spans="1:7">
       <c r="A421" s="38" t="s">
         <v>58</v>
       </c>
@@ -15764,7 +15807,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="422" spans="1:7" ht="30">
+    <row r="422" spans="1:7">
       <c r="A422" s="38" t="s">
         <v>58</v>
       </c>
@@ -15781,7 +15824,7 @@
       <c r="F422" s="40"/>
       <c r="G422" s="38"/>
     </row>
-    <row r="423" spans="1:7" ht="30">
+    <row r="423" spans="1:7">
       <c r="A423" s="38" t="s">
         <v>58</v>
       </c>
@@ -15813,7 +15856,7 @@
       <c r="F424" s="41"/>
       <c r="G424" s="41"/>
     </row>
-    <row r="425" spans="1:7" ht="30">
+    <row r="425" spans="1:7">
       <c r="A425" s="38" t="s">
         <v>58</v>
       </c>
@@ -15832,7 +15875,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="426" spans="1:7" ht="30">
+    <row r="426" spans="1:7">
       <c r="A426" s="38" t="s">
         <v>58</v>
       </c>
@@ -15849,7 +15892,7 @@
       <c r="F426" s="40"/>
       <c r="G426" s="44"/>
     </row>
-    <row r="427" spans="1:7" ht="30">
+    <row r="427" spans="1:7">
       <c r="A427" s="38" t="s">
         <v>58</v>
       </c>
@@ -15900,7 +15943,7 @@
       <c r="F429" s="40"/>
       <c r="G429" s="44"/>
     </row>
-    <row r="430" spans="1:7" ht="45">
+    <row r="430" spans="1:7" ht="30">
       <c r="A430" s="38" t="s">
         <v>58</v>
       </c>
@@ -15932,7 +15975,7 @@
       <c r="F431" s="41"/>
       <c r="G431" s="41"/>
     </row>
-    <row r="432" spans="1:7" ht="90">
+    <row r="432" spans="1:7" ht="45">
       <c r="A432" s="38" t="s">
         <v>58</v>
       </c>
@@ -15951,7 +15994,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="433" spans="1:7" ht="60">
+    <row r="433" spans="1:7" ht="30">
       <c r="A433" s="38" t="s">
         <v>58</v>
       </c>
@@ -15968,7 +16011,7 @@
       <c r="F433" s="40"/>
       <c r="G433" s="44"/>
     </row>
-    <row r="434" spans="1:7" ht="30">
+    <row r="434" spans="1:7">
       <c r="A434" s="38" t="s">
         <v>58</v>
       </c>
@@ -15987,7 +16030,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="435" spans="1:7" ht="30">
+    <row r="435" spans="1:7">
       <c r="A435" s="38" t="s">
         <v>58</v>
       </c>
@@ -16035,7 +16078,7 @@
       <c r="E437" s="40"/>
       <c r="F437" s="40"/>
       <c r="G437" s="44" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -16049,10 +16092,10 @@
         <v>624</v>
       </c>
       <c r="D438" s="40" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="E438" s="40" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="F438" s="40"/>
       <c r="G438" s="38"/>
@@ -16065,14 +16108,14 @@
         <v>746</v>
       </c>
       <c r="C439" s="41" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="D439" s="41"/>
       <c r="E439" s="41"/>
       <c r="F439" s="41"/>
       <c r="G439" s="41"/>
     </row>
-    <row r="440" spans="1:7" ht="30">
+    <row r="440" spans="1:7">
       <c r="A440" s="38" t="s">
         <v>58</v>
       </c>
@@ -16083,7 +16126,7 @@
         <v>635</v>
       </c>
       <c r="D440" s="38" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="E440" s="38" t="s">
         <v>636</v>
@@ -16236,7 +16279,7 @@
       <c r="F449" s="41"/>
       <c r="G449" s="41"/>
     </row>
-    <row r="450" spans="1:7" ht="105">
+    <row r="450" spans="1:7" ht="45">
       <c r="A450" s="38" t="s">
         <v>58</v>
       </c>
@@ -16255,7 +16298,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="451" spans="1:7" ht="30">
+    <row r="451" spans="1:7">
       <c r="A451" s="38" t="s">
         <v>58</v>
       </c>
@@ -16272,7 +16315,7 @@
       <c r="F451" s="38"/>
       <c r="G451" s="44"/>
     </row>
-    <row r="452" spans="1:7" ht="30">
+    <row r="452" spans="1:7">
       <c r="A452" s="38" t="s">
         <v>58</v>
       </c>
@@ -16319,7 +16362,7 @@
       <c r="F454" s="41"/>
       <c r="G454" s="41"/>
     </row>
-    <row r="455" spans="1:7" ht="30">
+    <row r="455" spans="1:7">
       <c r="A455" s="38" t="s">
         <v>58</v>
       </c>
@@ -16335,7 +16378,7 @@
       <c r="E455" s="38"/>
       <c r="F455" s="38"/>
       <c r="G455" s="44" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="456" spans="1:7">
@@ -16355,7 +16398,7 @@
       <c r="F456" s="38"/>
       <c r="G456" s="44"/>
     </row>
-    <row r="457" spans="1:7" ht="30">
+    <row r="457" spans="1:7">
       <c r="A457" s="38" t="s">
         <v>58</v>
       </c>
@@ -16366,13 +16409,13 @@
         <v>767</v>
       </c>
       <c r="D457" s="38" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="E457" s="38"/>
       <c r="F457" s="38"/>
       <c r="G457" s="38"/>
     </row>
-    <row r="458" spans="1:7" ht="45">
+    <row r="458" spans="1:7">
       <c r="A458" s="38" t="s">
         <v>58</v>
       </c>
@@ -16397,19 +16440,19 @@
         <v>770</v>
       </c>
       <c r="C459" s="38" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="D459" s="38"/>
       <c r="E459" s="38"/>
       <c r="F459" s="38"/>
       <c r="G459" s="38"/>
     </row>
-    <row r="460" spans="1:7" ht="60">
+    <row r="460" spans="1:7" ht="30">
       <c r="A460" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B460" s="38" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="C460" s="38" t="s">
         <v>771</v>
@@ -16421,15 +16464,15 @@
       <c r="F460" s="38"/>
       <c r="G460" s="38"/>
     </row>
-    <row r="461" spans="1:7" ht="30">
+    <row r="461" spans="1:7">
       <c r="A461" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B461" s="38" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="C461" s="38" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="D461" s="38" t="s">
         <v>724</v>
@@ -16469,7 +16512,7 @@
       <c r="E463" s="38"/>
       <c r="F463" s="38"/>
       <c r="G463" s="44" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -16483,7 +16526,7 @@
         <v>624</v>
       </c>
       <c r="D464" s="40" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="E464" s="40"/>
       <c r="F464" s="40"/>
@@ -16504,7 +16547,7 @@
       <c r="F465" s="41"/>
       <c r="G465" s="41"/>
     </row>
-    <row r="466" spans="1:7" ht="30">
+    <row r="466" spans="1:7">
       <c r="A466" s="38" t="s">
         <v>58</v>
       </c>
@@ -16520,10 +16563,10 @@
       <c r="E466" s="38"/>
       <c r="F466" s="38"/>
       <c r="G466" s="44" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="467" spans="1:7" ht="30">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7">
       <c r="A467" s="38" t="s">
         <v>58</v>
       </c>
@@ -16540,7 +16583,7 @@
       <c r="F467" s="38"/>
       <c r="G467" s="44"/>
     </row>
-    <row r="468" spans="1:7" ht="30">
+    <row r="468" spans="1:7">
       <c r="A468" s="38" t="s">
         <v>58</v>
       </c>
@@ -16568,13 +16611,13 @@
         <v>633</v>
       </c>
       <c r="D469" s="38" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="E469" s="38"/>
       <c r="F469" s="38"/>
       <c r="G469" s="38"/>
     </row>
-    <row r="470" spans="1:7" ht="30">
+    <row r="470" spans="1:7">
       <c r="A470" s="38" t="s">
         <v>58</v>
       </c>
@@ -16585,7 +16628,7 @@
         <v>635</v>
       </c>
       <c r="D470" s="38" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="E470" s="38"/>
       <c r="F470" s="38"/>
@@ -16645,7 +16688,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>789</v>
@@ -16664,7 +16707,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>791</v>
@@ -16683,7 +16726,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>792</v>
@@ -16702,7 +16745,7 @@
         <v>71</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>793</v>
@@ -16721,7 +16764,7 @@
         <v>796</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>797</v>
@@ -16749,7 +16792,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
@@ -18519,7 +18562,7 @@
         <v>278</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>855</v>
@@ -18538,13 +18581,13 @@
         <v>269</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>856</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
@@ -18557,13 +18600,13 @@
         <v>266</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>857</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -18576,7 +18619,7 @@
         <v>274</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>858</v>
@@ -18592,16 +18635,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="32" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="B43" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="32" t="s">
@@ -18611,16 +18654,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="32" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="B44" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="32" t="s">
@@ -18630,16 +18673,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="32" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="B45" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="32" t="s">
@@ -18649,16 +18692,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="32" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="B46" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="32" t="s">
@@ -18668,16 +18711,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="32" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="B47" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="32" t="s">
@@ -18687,16 +18730,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="32" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="B48" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="32" t="s">
@@ -18706,16 +18749,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="32" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="B49" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="32" t="s">
@@ -18725,16 +18768,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="32" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="B50" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="32" t="s">
@@ -18744,16 +18787,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="32" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="B51" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="32" t="s">
@@ -18763,16 +18806,16 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="32" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="B52" s="32" t="s">
         <v>840</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="32" t="s">
@@ -18782,16 +18825,16 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="32" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="B53" s="32" t="s">
         <v>840</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="32" t="s">
@@ -18801,16 +18844,16 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="32" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>848</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="E54" s="32"/>
       <c r="F54" s="32" t="s">
@@ -18820,16 +18863,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="32" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="E55" s="32"/>
       <c r="F55" s="32" t="s">
@@ -18851,7 +18894,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:IV49"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:G49"/>
     </sheetView>
   </sheetViews>
@@ -19407,16 +19450,16 @@
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1">
       <c r="A16" s="31" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>861</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30" t="s">
@@ -19426,16 +19469,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
       <c r="A17" s="31" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>861</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30" t="s">
@@ -19454,7 +19497,7 @@
         <v>895</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30" t="s">
@@ -20033,7 +20076,7 @@
         <v>982</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="E49" s="30"/>
       <c r="F49" s="30"/>
@@ -20303,7 +20346,7 @@
   <dimension ref="A1:IV30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G30"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -20597,7 +20640,7 @@
         <v>435</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>983</v>
@@ -20616,7 +20659,7 @@
         <v>438</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>985</v>
@@ -20635,7 +20678,7 @@
         <v>441</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>987</v>
@@ -20654,7 +20697,7 @@
         <v>456</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>989</v>
@@ -20673,7 +20716,7 @@
         <v>444</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>991</v>
@@ -20692,7 +20735,7 @@
         <v>447</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>993</v>
@@ -20711,7 +20754,7 @@
         <v>450</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>995</v>
@@ -20730,7 +20773,7 @@
         <v>453</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>997</v>
@@ -20749,7 +20792,7 @@
         <v>459</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>999</v>
@@ -20768,7 +20811,7 @@
         <v>1001</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>1002</v>
@@ -20787,7 +20830,7 @@
         <v>462</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>1004</v>
@@ -20806,7 +20849,7 @@
         <v>465</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>1006</v>
@@ -20829,7 +20872,7 @@
         <v>468</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>1010</v>
@@ -20848,7 +20891,7 @@
         <v>502</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>1012</v>
@@ -20871,7 +20914,7 @@
         <v>493</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>1016</v>
@@ -20890,7 +20933,7 @@
         <v>505</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>1018</v>
@@ -20913,7 +20956,7 @@
         <v>533</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>1022</v>
@@ -20932,7 +20975,7 @@
         <v>536</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>1023</v>
@@ -20951,7 +20994,7 @@
         <v>539</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>1024</v>
@@ -20970,7 +21013,7 @@
         <v>542</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>1026</v>
@@ -20989,7 +21032,7 @@
         <v>547</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>1028</v>
@@ -21008,7 +21051,7 @@
         <v>488</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>1030</v>
@@ -21022,16 +21065,16 @@
     </row>
     <row r="24" spans="1:7" ht="31.5">
       <c r="A24" s="32" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
@@ -21039,16 +21082,16 @@
     </row>
     <row r="25" spans="1:7" ht="31.5">
       <c r="A25" s="32" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="B25" s="32" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C25" s="32" t="s">
         <v>1163</v>
       </c>
-      <c r="C25" s="32" t="s">
-        <v>1167</v>
-      </c>
       <c r="D25" s="32" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -21056,16 +21099,16 @@
     </row>
     <row r="26" spans="1:7" ht="31.5">
       <c r="A26" s="32" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
@@ -21073,16 +21116,16 @@
     </row>
     <row r="27" spans="1:7" ht="47.25">
       <c r="A27" s="32" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
@@ -21090,16 +21133,16 @@
     </row>
     <row r="28" spans="1:7" ht="47.25">
       <c r="A28" s="32" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
@@ -21107,16 +21150,16 @@
     </row>
     <row r="29" spans="1:7" ht="31.5">
       <c r="A29" s="32" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
@@ -21124,16 +21167,16 @@
     </row>
     <row r="30" spans="1:7" ht="47.25">
       <c r="A30" s="32" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
@@ -21153,8 +21196,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:IV4"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -21162,14 +21205,15 @@
     <col min="1" max="1" width="10.875" style="4" customWidth="1"/>
     <col min="2" max="2" width="54.625" style="4" customWidth="1"/>
     <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="75.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="75.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="56.625" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
     <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
     <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.95" customHeight="1">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>782</v>
       </c>
@@ -21192,7 +21236,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:7" ht="31.5">
       <c r="A2" s="5" t="s">
         <v>1031</v>
       </c>
@@ -21202,53 +21246,53 @@
       <c r="C2" s="5" t="s">
         <v>1033</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>1035</v>
+      <c r="D2" s="8" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>1292</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>790</v>
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:7" ht="47.25">
       <c r="A3" s="5" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>1032</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>1035</v>
+        <v>1288</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>1289</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>790</v>
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="31.5" customHeight="1">
+    <row r="4" spans="1:7" ht="63">
       <c r="A4" s="5" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>1032</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>1041</v>
+        <v>1037</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>1290</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1008</v>
+        <v>1291</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>790</v>
@@ -21257,7 +21301,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;P</oddFooter>
   </headerFooter>
@@ -21561,23 +21605,23 @@
     </row>
     <row r="2" spans="1:256" ht="31.5" customHeight="1">
       <c r="A2" s="30" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="E2" s="30"/>
       <c r="F2" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
@@ -21585,13 +21629,13 @@
         <v>648</v>
       </c>
       <c r="B3" s="30" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>1043</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>1047</v>
-      </c>
       <c r="D3" s="30" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="30" t="s">
@@ -21604,13 +21648,13 @@
         <v>577</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="30" t="s">
@@ -21623,13 +21667,13 @@
         <v>580</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="30" t="s">
@@ -21642,13 +21686,13 @@
         <v>583</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="E6" s="30"/>
       <c r="F6" s="30" t="s">
@@ -21661,22 +21705,22 @@
         <v>586</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="31.5" customHeight="1">
@@ -21684,13 +21728,13 @@
         <v>591</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="30" t="s">
@@ -21703,13 +21747,13 @@
         <v>594</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30" t="s">
@@ -21722,13 +21766,13 @@
         <v>597</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="30" t="s">
@@ -21741,13 +21785,13 @@
         <v>600</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30" t="s">
@@ -21760,10 +21804,10 @@
         <v>603</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>602</v>
@@ -21779,13 +21823,13 @@
         <v>606</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>1020</v>
@@ -21794,7 +21838,7 @@
         <v>790</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.5" customHeight="1">
@@ -21802,20 +21846,20 @@
         <v>615</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="31.5" customHeight="1">
@@ -21823,13 +21867,13 @@
         <v>618</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="30" t="s">
@@ -21842,13 +21886,13 @@
         <v>651</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30" t="s">
@@ -21858,16 +21902,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
       <c r="A17" s="30" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30" t="s">
@@ -21880,13 +21924,13 @@
         <v>684</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30" t="s">
@@ -21896,25 +21940,25 @@
     </row>
     <row r="19" spans="1:7" ht="31.5" customHeight="1">
       <c r="A19" s="30" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
@@ -21922,13 +21966,13 @@
         <v>721</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="30" t="s">
@@ -21941,56 +21985,56 @@
         <v>724</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="31.5" customHeight="1">
       <c r="A22" s="30" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>809</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="31.5">
       <c r="A23" s="30" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>629</v>
@@ -22001,13 +22045,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="30" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>633</v>
@@ -22018,13 +22062,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="30" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>624</v>
@@ -22035,13 +22079,13 @@
     </row>
     <row r="26" spans="1:7" ht="31.5">
       <c r="A26" s="30" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>635</v>
@@ -22052,13 +22096,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="58" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>767</v>
@@ -22370,40 +22414,40 @@
     </row>
     <row r="2" spans="1:256">
       <c r="A2" s="7" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
         <v>790</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="3" spans="1:256">
       <c r="A3" s="7" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>1145</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>1149</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>809</v>
@@ -22412,19 +22456,19 @@
     </row>
     <row r="4" spans="1:256">
       <c r="A4" s="6" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>809</v>

--- a/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4995AB-74E4-44E9-A16E-5DE6592CE749}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7BEA43-F2B3-495E-A23A-137500F1D6D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="450" windowWidth="30570" windowHeight="16830" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-180" yWindow="165" windowWidth="30570" windowHeight="16830" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,11 @@
     <sheet name="Placeholders" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3643" uniqueCount="1293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="1302">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3521,9 +3520,6 @@
   </si>
   <si>
     <t>CMS_Test_25</t>
-  </si>
-  <si>
-    <t>CMS.4_Extn Verify that digest algorithm is consistent with the signature algorithm</t>
   </si>
   <si>
     <t>CMS.26</t>
@@ -3909,7 +3905,40 @@
     <t>1.2.840.113549.1.1.10:2.16.840.1.101.3.4.2.1, 1.2.840.113549.1.1.11:NULL, 1.2.840.10045.4.3.2:, 1.2.840.10045.4.3.3:</t>
   </si>
   <si>
-    <t>1.2.840.113549.1.1.1:,1.2.840.10045.2.1:1.2.840.10045.3.1.7,1.2.840.10045.2.1:1.3.132.0.34,1.2.840.10045.4.3.3:1.3.132.0.34</t>
+    <t>The digestAlgorithm field value of the SignerInfo is in accordance with Table 3-2 of SP80078</t>
+  </si>
+  <si>
+    <t>10.1.1.8.1</t>
+  </si>
+  <si>
+    <t>The digestAlgorithm field value of the SignerInfo matches the value present in the digestAlgorithms field of the SignedData.</t>
+  </si>
+  <si>
+    <t>CMS.4_Extn Verify the digestAlgorithm field value of the SignerInfo matches the value present in the digestAlgorithms field of the SignedData.</t>
+  </si>
+  <si>
+    <t>10.1.1.13</t>
+  </si>
+  <si>
+    <t>10.5.1.16</t>
+  </si>
+  <si>
+    <t>10.5.1.15</t>
+  </si>
+  <si>
+    <t>10.5.1.8</t>
+  </si>
+  <si>
+    <t>10.5.1.7</t>
+  </si>
+  <si>
+    <t>The key size and types used are in accordance with Table 3-1 of SP 800-78-4.</t>
+  </si>
+  <si>
+    <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID:1.2.840.113549.1.1.1+NULL|1.2.840.10045.2.1+1.2.840.10045.3.1.7,
+X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:1.2.840.113549.1.1.1+NULL|1.2.840.10045.2.1+1.2.840.10045.3.1.7,
+X509_CERTIFICATE_FOR_DIGITAL_CERTIFICATE_OID:1.2.840.113549.1.1.1+NULL|1.2.840.10045.2.1+1.2.840.10045.3.1.7|1.2.840.10045.2.1+1.3.132.0.34,
+X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID:1.2.840.113549.1.1.1+NULL|1.2.840.10045.2.1+1.2.840.10045.3.1.7|1.2.840.10045.2.1+1.3.132.0.34</t>
   </si>
 </sst>
 </file>
@@ -4000,7 +4029,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4052,6 +4081,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -4114,7 +4149,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4290,6 +4325,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8375,10 +8419,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H470"/>
+  <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView topLeftCell="A404" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E411" sqref="E411"/>
+    <sheetView topLeftCell="A327" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B337" sqref="B337:B339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8387,7 +8431,7 @@
     <col min="2" max="2" width="12" style="50" customWidth="1"/>
     <col min="3" max="3" width="91.5" style="50" customWidth="1"/>
     <col min="4" max="4" width="20.375" style="50" customWidth="1"/>
-    <col min="5" max="5" width="29.875" style="50" customWidth="1"/>
+    <col min="5" max="5" width="155.375" style="50" customWidth="1"/>
     <col min="6" max="6" width="62.75" style="50" customWidth="1"/>
     <col min="7" max="7" width="84.625" style="50" customWidth="1"/>
     <col min="8" max="8" width="9" style="51"/>
@@ -8424,7 +8468,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>0</v>
@@ -8454,10 +8498,10 @@
         <v>58</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>1258</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>1259</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
@@ -8695,10 +8739,10 @@
         <v>58</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
@@ -8810,7 +8854,7 @@
         <v>102</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>104</v>
@@ -8829,10 +8873,10 @@
         <v>105</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39" t="s">
@@ -8867,7 +8911,7 @@
         <v>111</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>110</v>
@@ -8886,10 +8930,10 @@
         <v>114</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="39" t="s">
@@ -8905,10 +8949,10 @@
         <v>117</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39" t="s">
@@ -8921,13 +8965,13 @@
         <v>58</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E29" s="39"/>
       <c r="F29" s="39" t="s">
@@ -8938,13 +8982,13 @@
     <row r="30" spans="1:7">
       <c r="A30" s="39"/>
       <c r="B30" s="39" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="39" t="s">
@@ -8957,10 +9001,10 @@
         <v>58</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>113</v>
@@ -8976,7 +9020,7 @@
         <v>58</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C32" s="38" t="s">
         <v>115</v>
@@ -8995,13 +9039,13 @@
         <v>58</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="39" t="s">
@@ -9014,13 +9058,13 @@
         <v>58</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="39" t="s">
@@ -9033,13 +9077,13 @@
         <v>58</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E35" s="39"/>
       <c r="F35" s="39" t="s">
@@ -9052,13 +9096,13 @@
         <v>58</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E36" s="39"/>
       <c r="F36" s="39" t="s">
@@ -9071,7 +9115,7 @@
         <v>58</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C37" s="38" t="s">
         <v>118</v>
@@ -9166,7 +9210,7 @@
         <v>131</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>133</v>
@@ -9200,10 +9244,10 @@
         <v>58</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
@@ -9388,7 +9432,7 @@
         <v>131</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C54" s="38" t="s">
         <v>133</v>
@@ -9422,10 +9466,10 @@
         <v>58</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D56" s="37"/>
       <c r="E56" s="37"/>
@@ -9625,10 +9669,10 @@
         <v>58</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D67" s="37"/>
       <c r="E67" s="37"/>
@@ -9759,10 +9803,10 @@
         <v>179</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D74" s="39" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="E74" s="39"/>
       <c r="F74" s="39" t="s">
@@ -9778,10 +9822,10 @@
         <v>182</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D75" s="39" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="E75" s="39"/>
       <c r="F75" s="39" t="s">
@@ -9813,7 +9857,7 @@
         <v>58</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C77" s="38" t="s">
         <v>183</v>
@@ -9832,7 +9876,7 @@
         <v>58</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C78" s="38" t="s">
         <v>186</v>
@@ -9851,7 +9895,7 @@
         <v>131</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C79" s="38" t="s">
         <v>133</v>
@@ -9870,7 +9914,7 @@
         <v>58</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C80" s="37" t="s">
         <v>6</v>
@@ -9885,10 +9929,10 @@
         <v>58</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D81" s="37"/>
       <c r="E81" s="37"/>
@@ -10035,7 +10079,7 @@
         <v>131</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C89" s="38" t="s">
         <v>133</v>
@@ -10069,10 +10113,10 @@
         <v>58</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D91" s="37"/>
       <c r="E91" s="37"/>
@@ -10257,7 +10301,7 @@
         <v>131</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C101" s="38" t="s">
         <v>133</v>
@@ -10291,10 +10335,10 @@
         <v>58</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D103" s="37"/>
       <c r="E103" s="37"/>
@@ -10479,7 +10523,7 @@
         <v>131</v>
       </c>
       <c r="B113" s="38" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C113" s="38" t="s">
         <v>133</v>
@@ -10513,10 +10557,10 @@
         <v>58</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D115" s="37"/>
       <c r="E115" s="37"/>
@@ -10701,7 +10745,7 @@
         <v>131</v>
       </c>
       <c r="B125" s="38" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C125" s="38" t="s">
         <v>133</v>
@@ -10720,7 +10764,7 @@
         <v>58</v>
       </c>
       <c r="B126" s="38" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C126" s="37" t="s">
         <v>10</v>
@@ -10735,10 +10779,10 @@
         <v>58</v>
       </c>
       <c r="B127" s="38" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D127" s="37"/>
       <c r="E127" s="37"/>
@@ -10850,7 +10894,7 @@
         <v>249</v>
       </c>
       <c r="C133" s="38" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D133" s="38" t="s">
         <v>251</v>
@@ -10869,10 +10913,10 @@
         <v>252</v>
       </c>
       <c r="C134" s="39" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D134" s="39" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E134" s="39"/>
       <c r="F134" s="39" t="s">
@@ -10904,7 +10948,7 @@
         <v>58</v>
       </c>
       <c r="B136" s="38" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C136" s="38" t="s">
         <v>256</v>
@@ -10938,10 +10982,10 @@
         <v>58</v>
       </c>
       <c r="B138" s="38" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C138" s="37" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D138" s="37"/>
       <c r="E138" s="37"/>
@@ -10968,7 +11012,7 @@
         <v>1157</v>
       </c>
       <c r="G139" s="38" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -11042,7 +11086,7 @@
         <v>267</v>
       </c>
       <c r="C143" s="38" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D143" s="38" t="s">
         <v>269</v>
@@ -11063,7 +11107,7 @@
         <v>270</v>
       </c>
       <c r="C144" s="38" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D144" s="38" t="s">
         <v>266</v>
@@ -11084,10 +11128,10 @@
         <v>272</v>
       </c>
       <c r="C145" s="39" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D145" s="39" t="s">
         <v>1245</v>
-      </c>
-      <c r="D145" s="39" t="s">
-        <v>1246</v>
       </c>
       <c r="E145" s="39"/>
       <c r="F145" s="39" t="s">
@@ -11100,7 +11144,7 @@
         <v>58</v>
       </c>
       <c r="B146" s="38" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C146" s="38" t="s">
         <v>271</v>
@@ -11121,7 +11165,7 @@
         <v>58</v>
       </c>
       <c r="B147" s="38" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C147" s="38" t="s">
         <v>273</v>
@@ -11142,7 +11186,7 @@
         <v>131</v>
       </c>
       <c r="B148" s="38" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C148" s="38" t="s">
         <v>133</v>
@@ -11151,7 +11195,7 @@
         <v>1135</v>
       </c>
       <c r="E148" s="38" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="F148" s="38" t="s">
         <v>1157</v>
@@ -11163,7 +11207,7 @@
         <v>131</v>
       </c>
       <c r="B149" s="38" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C149" s="38" t="s">
         <v>277</v>
@@ -11330,7 +11374,7 @@
         <v>58</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C158" s="36" t="s">
         <v>19</v>
@@ -12935,7 +12979,7 @@
         <v>58</v>
       </c>
       <c r="B253" s="35" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C253" s="36" t="s">
         <v>35</v>
@@ -13024,7 +13068,9 @@
       <c r="D258" s="38" t="s">
         <v>441</v>
       </c>
-      <c r="E258" s="38"/>
+      <c r="E258" s="59" t="s">
+        <v>1285</v>
+      </c>
       <c r="F258" s="38"/>
       <c r="G258" s="44"/>
     </row>
@@ -13096,7 +13142,7 @@
       <c r="F262" s="38"/>
       <c r="G262" s="44"/>
     </row>
-    <row r="263" spans="1:7" ht="30">
+    <row r="263" spans="1:7">
       <c r="A263" s="38" t="s">
         <v>58</v>
       </c>
@@ -13104,67 +13150,69 @@
         <v>454</v>
       </c>
       <c r="C263" s="44" t="s">
-        <v>455</v>
+        <v>1291</v>
       </c>
       <c r="D263" s="38" t="s">
         <v>456</v>
       </c>
-      <c r="E263" s="38"/>
+      <c r="E263" s="59" t="s">
+        <v>1285</v>
+      </c>
       <c r="F263" s="38"/>
       <c r="G263" s="44"/>
     </row>
-    <row r="264" spans="1:7" ht="45">
+    <row r="264" spans="1:7" ht="30">
       <c r="A264" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B264" s="38" t="s">
-        <v>457</v>
+        <v>1292</v>
       </c>
       <c r="C264" s="44" t="s">
-        <v>458</v>
+        <v>1293</v>
       </c>
       <c r="D264" s="38" t="s">
-        <v>459</v>
+        <v>1162</v>
       </c>
       <c r="E264" s="38"/>
       <c r="F264" s="38"/>
       <c r="G264" s="44"/>
     </row>
-    <row r="265" spans="1:7" ht="30">
+    <row r="265" spans="1:7" ht="45">
       <c r="A265" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B265" s="38" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C265" s="44" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D265" s="38" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E265" s="38"/>
       <c r="F265" s="38"/>
       <c r="G265" s="44"/>
     </row>
-    <row r="266" spans="1:7" ht="45">
+    <row r="266" spans="1:7" ht="30">
       <c r="A266" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B266" s="38" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C266" s="44" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D266" s="38" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E266" s="38"/>
       <c r="F266" s="38"/>
       <c r="G266" s="44"/>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" ht="45">
       <c r="A267" s="38" t="s">
         <v>58</v>
       </c>
@@ -13172,12 +13220,14 @@
         <v>466</v>
       </c>
       <c r="C267" s="44" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D267" s="38" t="s">
-        <v>468</v>
-      </c>
-      <c r="E267" s="38"/>
+        <v>465</v>
+      </c>
+      <c r="E267" s="59" t="s">
+        <v>1285</v>
+      </c>
       <c r="F267" s="38"/>
       <c r="G267" s="44"/>
     </row>
@@ -13185,114 +13235,114 @@
       <c r="A268" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B268" s="38">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="C268" s="37" t="s">
-        <v>469</v>
-      </c>
-      <c r="D268" s="41"/>
-      <c r="E268" s="41"/>
-      <c r="F268" s="41"/>
-      <c r="G268" s="41"/>
+      <c r="B268" s="38" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C268" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="D268" s="38" t="s">
+        <v>468</v>
+      </c>
+      <c r="E268" s="38"/>
+      <c r="F268" s="38"/>
+      <c r="G268" s="44"/>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B269" s="38" t="s">
-        <v>470</v>
-      </c>
-      <c r="C269" s="41" t="s">
-        <v>36</v>
+      <c r="B269" s="38">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C269" s="37" t="s">
+        <v>469</v>
       </c>
       <c r="D269" s="41"/>
       <c r="E269" s="41"/>
       <c r="F269" s="41"/>
       <c r="G269" s="41"/>
     </row>
-    <row r="270" spans="1:7" ht="30">
+    <row r="270" spans="1:7">
       <c r="A270" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B270" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="C270" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D270" s="41"/>
+      <c r="E270" s="41"/>
+      <c r="F270" s="41"/>
+      <c r="G270" s="41"/>
+    </row>
+    <row r="271" spans="1:7" ht="30">
+      <c r="A271" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B271" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="C270" s="44" t="s">
+      <c r="C271" s="44" t="s">
         <v>472</v>
       </c>
-      <c r="D270" s="38" t="s">
+      <c r="D271" s="38" t="s">
         <v>435</v>
-      </c>
-      <c r="E270" s="38"/>
-      <c r="F270" s="38"/>
-      <c r="G270" s="44" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7">
-      <c r="A271" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B271" s="38" t="s">
-        <v>474</v>
-      </c>
-      <c r="C271" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="D271" s="38" t="s">
-        <v>438</v>
       </c>
       <c r="E271" s="38"/>
       <c r="F271" s="38"/>
-      <c r="G271" s="44"/>
+      <c r="G271" s="44" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B272" s="38" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C272" s="44" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D272" s="38" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="E272" s="38"/>
       <c r="F272" s="38"/>
       <c r="G272" s="44"/>
     </row>
-    <row r="273" spans="1:7" ht="30">
+    <row r="273" spans="1:7">
       <c r="A273" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B273" s="38" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C273" s="44" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D273" s="38" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E273" s="38"/>
       <c r="F273" s="38"/>
       <c r="G273" s="44"/>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" ht="30">
       <c r="A274" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B274" s="38" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C274" s="44" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="D274" s="38" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E274" s="38"/>
       <c r="F274" s="38"/>
@@ -13303,13 +13353,13 @@
         <v>58</v>
       </c>
       <c r="B275" s="38" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C275" s="44" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D275" s="38" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E275" s="38"/>
       <c r="F275" s="38"/>
@@ -13320,13 +13370,13 @@
         <v>58</v>
       </c>
       <c r="B276" s="38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C276" s="44" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="D276" s="38" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E276" s="38"/>
       <c r="F276" s="38"/>
@@ -13337,13 +13387,13 @@
         <v>58</v>
       </c>
       <c r="B277" s="38" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C277" s="44" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D277" s="38" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E277" s="38"/>
       <c r="F277" s="38"/>
@@ -13354,30 +13404,30 @@
         <v>58</v>
       </c>
       <c r="B278" s="38" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C278" s="44" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D278" s="38" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="E278" s="38"/>
       <c r="F278" s="38"/>
       <c r="G278" s="44"/>
     </row>
-    <row r="279" spans="1:7" ht="30">
+    <row r="279" spans="1:7">
       <c r="A279" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B279" s="38" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C279" s="44" t="s">
-        <v>490</v>
-      </c>
-      <c r="D279" s="38">
-        <v>78.3</v>
+        <v>487</v>
+      </c>
+      <c r="D279" s="38" t="s">
+        <v>488</v>
       </c>
       <c r="E279" s="38"/>
       <c r="F279" s="38"/>
@@ -13388,13 +13438,13 @@
         <v>58</v>
       </c>
       <c r="B280" s="38" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C280" s="44" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D280" s="38" t="s">
-        <v>493</v>
+        <v>1162</v>
       </c>
       <c r="E280" s="38"/>
       <c r="F280" s="38"/>
@@ -13405,198 +13455,198 @@
         <v>58</v>
       </c>
       <c r="B281" s="38" t="s">
-        <v>494</v>
-      </c>
-      <c r="C281" s="38" t="s">
-        <v>495</v>
+        <v>491</v>
+      </c>
+      <c r="C281" s="44" t="s">
+        <v>492</v>
       </c>
       <c r="D281" s="38" t="s">
-        <v>462</v>
+        <v>493</v>
       </c>
       <c r="E281" s="38"/>
       <c r="F281" s="38"/>
-      <c r="G281" s="38"/>
-    </row>
-    <row r="282" spans="1:7" ht="45">
+      <c r="G281" s="44"/>
+    </row>
+    <row r="282" spans="1:7" ht="30">
       <c r="A282" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B282" s="38" t="s">
-        <v>496</v>
-      </c>
-      <c r="C282" s="44" t="s">
-        <v>497</v>
+        <v>494</v>
+      </c>
+      <c r="C282" s="38" t="s">
+        <v>495</v>
       </c>
       <c r="D282" s="38" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E282" s="38"/>
       <c r="F282" s="38"/>
-      <c r="G282" s="44"/>
+      <c r="G282" s="38"/>
     </row>
     <row r="283" spans="1:7" ht="45">
       <c r="A283" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B283" s="38" t="s">
-        <v>498</v>
-      </c>
-      <c r="C283" s="38" t="s">
-        <v>499</v>
+        <v>496</v>
+      </c>
+      <c r="C283" s="44" t="s">
+        <v>497</v>
       </c>
       <c r="D283" s="38" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E283" s="38"/>
       <c r="F283" s="38"/>
-      <c r="G283" s="38"/>
+      <c r="G283" s="44"/>
     </row>
     <row r="284" spans="1:7" ht="45">
       <c r="A284" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B284" s="38" t="s">
-        <v>500</v>
-      </c>
-      <c r="C284" s="44" t="s">
-        <v>501</v>
+        <v>498</v>
+      </c>
+      <c r="C284" s="38" t="s">
+        <v>499</v>
       </c>
       <c r="D284" s="38" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="E284" s="38"/>
       <c r="F284" s="38"/>
-      <c r="G284" s="44"/>
-    </row>
-    <row r="285" spans="1:7" ht="30">
+      <c r="G284" s="38"/>
+    </row>
+    <row r="285" spans="1:7" ht="45">
       <c r="A285" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B285" s="38" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C285" s="44" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D285" s="38" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E285" s="38"/>
       <c r="F285" s="38"/>
       <c r="G285" s="44"/>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" ht="30">
       <c r="A286" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B286" s="38">
-        <v>10.3</v>
-      </c>
-      <c r="C286" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D286" s="41"/>
-      <c r="E286" s="41"/>
-      <c r="F286" s="41"/>
-      <c r="G286" s="41"/>
+      <c r="B286" s="38" t="s">
+        <v>503</v>
+      </c>
+      <c r="C286" s="44" t="s">
+        <v>504</v>
+      </c>
+      <c r="D286" s="38" t="s">
+        <v>505</v>
+      </c>
+      <c r="E286" s="38"/>
+      <c r="F286" s="38"/>
+      <c r="G286" s="44"/>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B287" s="38" t="s">
-        <v>506</v>
-      </c>
-      <c r="C287" s="41" t="s">
-        <v>36</v>
+      <c r="B287" s="38">
+        <v>10.3</v>
+      </c>
+      <c r="C287" s="37" t="s">
+        <v>37</v>
       </c>
       <c r="D287" s="41"/>
       <c r="E287" s="41"/>
       <c r="F287" s="41"/>
       <c r="G287" s="41"/>
     </row>
-    <row r="288" spans="1:7" ht="30">
+    <row r="288" spans="1:7">
       <c r="A288" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B288" s="38" t="s">
+        <v>506</v>
+      </c>
+      <c r="C288" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D288" s="41"/>
+      <c r="E288" s="41"/>
+      <c r="F288" s="41"/>
+      <c r="G288" s="41"/>
+    </row>
+    <row r="289" spans="1:7" ht="30">
+      <c r="A289" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B289" s="38" t="s">
         <v>507</v>
       </c>
-      <c r="C288" s="44" t="s">
+      <c r="C289" s="44" t="s">
         <v>472</v>
       </c>
-      <c r="D288" s="38" t="s">
+      <c r="D289" s="38" t="s">
         <v>435</v>
-      </c>
-      <c r="E288" s="38"/>
-      <c r="F288" s="38"/>
-      <c r="G288" s="44" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7">
-      <c r="A289" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B289" s="38" t="s">
-        <v>508</v>
-      </c>
-      <c r="C289" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="D289" s="38" t="s">
-        <v>438</v>
       </c>
       <c r="E289" s="38"/>
       <c r="F289" s="38"/>
-      <c r="G289" s="44"/>
+      <c r="G289" s="44" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B290" s="38" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C290" s="44" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D290" s="38" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="E290" s="38"/>
       <c r="F290" s="38"/>
       <c r="G290" s="44"/>
     </row>
-    <row r="291" spans="1:7" ht="30">
+    <row r="291" spans="1:7">
       <c r="A291" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B291" s="38" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C291" s="44" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D291" s="38" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E291" s="38"/>
       <c r="F291" s="38"/>
       <c r="G291" s="44"/>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" ht="30">
       <c r="A292" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B292" s="38" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C292" s="44" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="D292" s="38" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E292" s="38"/>
       <c r="F292" s="38"/>
@@ -13607,13 +13657,13 @@
         <v>58</v>
       </c>
       <c r="B293" s="38" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C293" s="44" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D293" s="38" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E293" s="38"/>
       <c r="F293" s="38"/>
@@ -13624,13 +13674,13 @@
         <v>58</v>
       </c>
       <c r="B294" s="38" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C294" s="44" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="D294" s="38" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E294" s="38"/>
       <c r="F294" s="38"/>
@@ -13641,13 +13691,13 @@
         <v>58</v>
       </c>
       <c r="B295" s="38" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C295" s="44" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D295" s="38" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E295" s="38"/>
       <c r="F295" s="38"/>
@@ -13658,30 +13708,30 @@
         <v>58</v>
       </c>
       <c r="B296" s="38" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C296" s="44" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D296" s="38" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="E296" s="38"/>
       <c r="F296" s="38"/>
       <c r="G296" s="44"/>
     </row>
-    <row r="297" spans="1:7" ht="30">
+    <row r="297" spans="1:7">
       <c r="A297" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B297" s="38" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C297" s="44" t="s">
-        <v>490</v>
-      </c>
-      <c r="D297" s="38">
-        <v>78.3</v>
+        <v>487</v>
+      </c>
+      <c r="D297" s="38" t="s">
+        <v>488</v>
       </c>
       <c r="E297" s="38"/>
       <c r="F297" s="38"/>
@@ -13692,13 +13742,13 @@
         <v>58</v>
       </c>
       <c r="B298" s="38" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C298" s="44" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D298" s="38" t="s">
-        <v>493</v>
+        <v>1162</v>
       </c>
       <c r="E298" s="38"/>
       <c r="F298" s="38"/>
@@ -13709,230 +13759,230 @@
         <v>58</v>
       </c>
       <c r="B299" s="38" t="s">
-        <v>518</v>
-      </c>
-      <c r="C299" s="38" t="s">
-        <v>495</v>
+        <v>517</v>
+      </c>
+      <c r="C299" s="44" t="s">
+        <v>492</v>
       </c>
       <c r="D299" s="38" t="s">
-        <v>462</v>
+        <v>493</v>
       </c>
       <c r="E299" s="38"/>
       <c r="F299" s="38"/>
-      <c r="G299" s="38"/>
-    </row>
-    <row r="300" spans="1:7" ht="45">
+      <c r="G299" s="44"/>
+    </row>
+    <row r="300" spans="1:7" ht="30">
       <c r="A300" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B300" s="38" t="s">
-        <v>519</v>
-      </c>
-      <c r="C300" s="44" t="s">
-        <v>497</v>
+        <v>518</v>
+      </c>
+      <c r="C300" s="38" t="s">
+        <v>495</v>
       </c>
       <c r="D300" s="38" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E300" s="38"/>
       <c r="F300" s="38"/>
-      <c r="G300" s="44"/>
+      <c r="G300" s="38"/>
     </row>
     <row r="301" spans="1:7" ht="45">
       <c r="A301" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B301" s="38" t="s">
-        <v>520</v>
-      </c>
-      <c r="C301" s="38" t="s">
-        <v>499</v>
+        <v>519</v>
+      </c>
+      <c r="C301" s="44" t="s">
+        <v>497</v>
       </c>
       <c r="D301" s="38" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E301" s="38"/>
       <c r="F301" s="38"/>
-      <c r="G301" s="38"/>
+      <c r="G301" s="44"/>
     </row>
     <row r="302" spans="1:7" ht="45">
       <c r="A302" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B302" s="38" t="s">
-        <v>521</v>
-      </c>
-      <c r="C302" s="44" t="s">
-        <v>501</v>
+        <v>520</v>
+      </c>
+      <c r="C302" s="38" t="s">
+        <v>499</v>
       </c>
       <c r="D302" s="38" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="E302" s="38"/>
       <c r="F302" s="38"/>
-      <c r="G302" s="44"/>
-    </row>
-    <row r="303" spans="1:7" ht="30">
+      <c r="G302" s="38"/>
+    </row>
+    <row r="303" spans="1:7" ht="45">
       <c r="A303" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B303" s="38" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C303" s="44" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D303" s="38" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E303" s="38"/>
       <c r="F303" s="38"/>
       <c r="G303" s="44"/>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" ht="30">
       <c r="A304" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B304" s="38">
-        <v>10.4</v>
-      </c>
-      <c r="C304" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D304" s="41"/>
-      <c r="E304" s="41"/>
-      <c r="F304" s="41"/>
-      <c r="G304" s="41"/>
+      <c r="B304" s="38" t="s">
+        <v>522</v>
+      </c>
+      <c r="C304" s="44" t="s">
+        <v>504</v>
+      </c>
+      <c r="D304" s="38" t="s">
+        <v>505</v>
+      </c>
+      <c r="E304" s="38"/>
+      <c r="F304" s="38"/>
+      <c r="G304" s="44"/>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B305" s="38" t="s">
-        <v>523</v>
-      </c>
-      <c r="C305" s="41" t="s">
-        <v>38</v>
+      <c r="B305" s="38">
+        <v>10.4</v>
+      </c>
+      <c r="C305" s="37" t="s">
+        <v>10</v>
       </c>
       <c r="D305" s="41"/>
       <c r="E305" s="41"/>
       <c r="F305" s="41"/>
       <c r="G305" s="41"/>
     </row>
-    <row r="306" spans="1:7" ht="30">
+    <row r="306" spans="1:7">
       <c r="A306" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B306" s="38" t="s">
+        <v>523</v>
+      </c>
+      <c r="C306" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D306" s="41"/>
+      <c r="E306" s="41"/>
+      <c r="F306" s="41"/>
+      <c r="G306" s="41"/>
+    </row>
+    <row r="307" spans="1:7" ht="30">
+      <c r="A307" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B307" s="38" t="s">
         <v>524</v>
       </c>
-      <c r="C306" s="44" t="s">
+      <c r="C307" s="44" t="s">
         <v>525</v>
       </c>
-      <c r="D306" s="38" t="s">
+      <c r="D307" s="38" t="s">
         <v>526</v>
       </c>
-      <c r="E306" s="38"/>
-      <c r="F306" s="38"/>
-      <c r="G306" s="44"/>
-    </row>
-    <row r="307" spans="1:7">
-      <c r="A307" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B307" s="38" t="s">
+      <c r="E307" s="38"/>
+      <c r="F307" s="38"/>
+      <c r="G307" s="44"/>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B308" s="38" t="s">
         <v>527</v>
       </c>
-      <c r="C307" s="41" t="s">
+      <c r="C308" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D307" s="41"/>
-      <c r="E307" s="41"/>
-      <c r="F307" s="41"/>
-      <c r="G307" s="41"/>
-    </row>
-    <row r="308" spans="1:7" ht="30">
-      <c r="A308" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B308" s="38" t="s">
+      <c r="D308" s="41"/>
+      <c r="E308" s="41"/>
+      <c r="F308" s="41"/>
+      <c r="G308" s="41"/>
+    </row>
+    <row r="309" spans="1:7" ht="30">
+      <c r="A309" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B309" s="38" t="s">
         <v>528</v>
       </c>
-      <c r="C308" s="38" t="s">
+      <c r="C309" s="38" t="s">
         <v>529</v>
       </c>
-      <c r="D308" s="38" t="s">
+      <c r="D309" s="38" t="s">
         <v>435</v>
       </c>
-      <c r="E308" s="46"/>
-      <c r="F308" s="46"/>
-      <c r="G308" s="38" t="s">
+      <c r="E309" s="46"/>
+      <c r="F309" s="46"/>
+      <c r="G309" s="38" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="309" spans="1:7">
-      <c r="A309" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B309" s="38" t="s">
-        <v>531</v>
-      </c>
-      <c r="C309" s="44" t="s">
-        <v>532</v>
-      </c>
-      <c r="D309" s="38" t="s">
-        <v>533</v>
-      </c>
-      <c r="E309" s="38"/>
-      <c r="F309" s="38"/>
-      <c r="G309" s="44"/>
     </row>
     <row r="310" spans="1:7">
       <c r="A310" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B310" s="38" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C310" s="44" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D310" s="38" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E310" s="38"/>
       <c r="F310" s="38"/>
       <c r="G310" s="44"/>
     </row>
-    <row r="311" spans="1:7" ht="30">
+    <row r="311" spans="1:7">
       <c r="A311" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B311" s="38" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C311" s="44" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D311" s="38" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E311" s="38"/>
       <c r="F311" s="38"/>
       <c r="G311" s="44"/>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" ht="30">
       <c r="A312" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B312" s="38" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C312" s="44" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D312" s="38" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E312" s="38"/>
       <c r="F312" s="38"/>
@@ -13943,147 +13993,147 @@
         <v>58</v>
       </c>
       <c r="B313" s="38" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C313" s="44" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D313" s="38" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="E313" s="38"/>
       <c r="F313" s="38"/>
       <c r="G313" s="44"/>
     </row>
-    <row r="314" spans="1:7" ht="45">
+    <row r="314" spans="1:7">
       <c r="A314" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B314" s="38" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C314" s="44" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D314" s="38" t="s">
-        <v>547</v>
+        <v>488</v>
       </c>
       <c r="E314" s="38"/>
       <c r="F314" s="38"/>
       <c r="G314" s="44"/>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" ht="45">
       <c r="A315" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B315" s="38">
-        <v>10.5</v>
-      </c>
-      <c r="C315" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="D315" s="41"/>
-      <c r="E315" s="41"/>
-      <c r="F315" s="41"/>
-      <c r="G315" s="48"/>
+      <c r="B315" s="38" t="s">
+        <v>545</v>
+      </c>
+      <c r="C315" s="44" t="s">
+        <v>546</v>
+      </c>
+      <c r="D315" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="E315" s="38"/>
+      <c r="F315" s="38"/>
+      <c r="G315" s="44"/>
     </row>
     <row r="316" spans="1:7">
       <c r="A316" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B316" s="38" t="s">
-        <v>548</v>
-      </c>
-      <c r="C316" s="48" t="s">
-        <v>36</v>
+      <c r="B316" s="38">
+        <v>10.5</v>
+      </c>
+      <c r="C316" s="47" t="s">
+        <v>39</v>
       </c>
       <c r="D316" s="41"/>
       <c r="E316" s="41"/>
       <c r="F316" s="41"/>
       <c r="G316" s="48"/>
     </row>
-    <row r="317" spans="1:7" ht="30">
+    <row r="317" spans="1:7">
       <c r="A317" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B317" s="38" t="s">
+        <v>548</v>
+      </c>
+      <c r="C317" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D317" s="41"/>
+      <c r="E317" s="41"/>
+      <c r="F317" s="41"/>
+      <c r="G317" s="48"/>
+    </row>
+    <row r="318" spans="1:7" ht="30">
+      <c r="A318" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B318" s="38" t="s">
         <v>549</v>
       </c>
-      <c r="C317" s="38" t="s">
+      <c r="C318" s="38" t="s">
         <v>472</v>
       </c>
-      <c r="D317" s="38" t="s">
+      <c r="D318" s="38" t="s">
         <v>435</v>
-      </c>
-      <c r="E317" s="38"/>
-      <c r="F317" s="38"/>
-      <c r="G317" s="38" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7">
-      <c r="A318" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B318" s="38" t="s">
-        <v>550</v>
-      </c>
-      <c r="C318" s="38" t="s">
-        <v>475</v>
-      </c>
-      <c r="D318" s="38" t="s">
-        <v>438</v>
       </c>
       <c r="E318" s="38"/>
       <c r="F318" s="38"/>
-      <c r="G318" s="38"/>
+      <c r="G318" s="38" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="319" spans="1:7">
       <c r="A319" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B319" s="38" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C319" s="38" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D319" s="38" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="E319" s="38"/>
       <c r="F319" s="38"/>
       <c r="G319" s="38"/>
     </row>
-    <row r="320" spans="1:7" ht="30">
+    <row r="320" spans="1:7">
       <c r="A320" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B320" s="38" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C320" s="38" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D320" s="38" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="E320" s="38"/>
       <c r="F320" s="38"/>
       <c r="G320" s="38"/>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" ht="30">
       <c r="A321" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B321" s="38" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C321" s="38" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="D321" s="38" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E321" s="38"/>
       <c r="F321" s="38"/>
@@ -14094,13 +14144,13 @@
         <v>58</v>
       </c>
       <c r="B322" s="38" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C322" s="38" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D322" s="38" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E322" s="38"/>
       <c r="F322" s="38"/>
@@ -14111,13 +14161,13 @@
         <v>58</v>
       </c>
       <c r="B323" s="38" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C323" s="38" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="D323" s="38" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E323" s="38"/>
       <c r="F323" s="38"/>
@@ -14128,13 +14178,13 @@
         <v>58</v>
       </c>
       <c r="B324" s="38" t="s">
-        <v>556</v>
+        <v>1299</v>
       </c>
       <c r="C324" s="38" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D324" s="38" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E324" s="38"/>
       <c r="F324" s="38"/>
@@ -14145,30 +14195,30 @@
         <v>58</v>
       </c>
       <c r="B325" s="38" t="s">
-        <v>557</v>
+        <v>1298</v>
       </c>
       <c r="C325" s="38" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D325" s="38" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="E325" s="38"/>
       <c r="F325" s="38"/>
       <c r="G325" s="38"/>
     </row>
-    <row r="326" spans="1:7" ht="30">
+    <row r="326" spans="1:7">
       <c r="A326" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B326" s="38" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C326" s="38" t="s">
-        <v>490</v>
-      </c>
-      <c r="D326" s="38">
-        <v>78.3</v>
+        <v>487</v>
+      </c>
+      <c r="D326" s="38" t="s">
+        <v>488</v>
       </c>
       <c r="E326" s="38"/>
       <c r="F326" s="38"/>
@@ -14179,13 +14229,13 @@
         <v>58</v>
       </c>
       <c r="B327" s="38" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C327" s="38" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D327" s="38" t="s">
-        <v>493</v>
+        <v>1162</v>
       </c>
       <c r="E327" s="38"/>
       <c r="F327" s="38"/>
@@ -14196,30 +14246,30 @@
         <v>58</v>
       </c>
       <c r="B328" s="38" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C328" s="38" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D328" s="38" t="s">
-        <v>462</v>
+        <v>493</v>
       </c>
       <c r="E328" s="38"/>
       <c r="F328" s="38"/>
       <c r="G328" s="38"/>
     </row>
-    <row r="329" spans="1:7" ht="45">
+    <row r="329" spans="1:7" ht="30">
       <c r="A329" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B329" s="38" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C329" s="38" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D329" s="38" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E329" s="38"/>
       <c r="F329" s="38"/>
@@ -14230,13 +14280,13 @@
         <v>58</v>
       </c>
       <c r="B330" s="38" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C330" s="38" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D330" s="38" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E330" s="38"/>
       <c r="F330" s="38"/>
@@ -14247,137 +14297,139 @@
         <v>58</v>
       </c>
       <c r="B331" s="38" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C331" s="38" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D331" s="38" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="E331" s="38"/>
       <c r="F331" s="38"/>
       <c r="G331" s="38"/>
     </row>
-    <row r="332" spans="1:7" ht="30">
+    <row r="332" spans="1:7" ht="45">
       <c r="A332" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B332" s="38" t="s">
-        <v>564</v>
+        <v>1297</v>
       </c>
       <c r="C332" s="38" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D332" s="38" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E332" s="38"/>
       <c r="F332" s="38"/>
       <c r="G332" s="38"/>
     </row>
-    <row r="333" spans="1:7" ht="15.75">
+    <row r="333" spans="1:7" ht="30">
       <c r="A333" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B333" s="35" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C333" s="49" t="s">
+      <c r="B333" s="38" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C333" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="D333" s="38" t="s">
+        <v>505</v>
+      </c>
+      <c r="E333" s="38"/>
+      <c r="F333" s="38"/>
+      <c r="G333" s="38"/>
+    </row>
+    <row r="334" spans="1:7" ht="15.75">
+      <c r="A334" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B334" s="35" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C334" s="49" t="s">
         <v>40</v>
-      </c>
-      <c r="D333" s="41"/>
-      <c r="E333" s="41"/>
-      <c r="F333" s="41"/>
-      <c r="G333" s="49"/>
-    </row>
-    <row r="334" spans="1:7">
-      <c r="A334" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B334" s="38">
-        <v>11.1</v>
-      </c>
-      <c r="C334" s="47" t="s">
-        <v>41</v>
       </c>
       <c r="D334" s="41"/>
       <c r="E334" s="41"/>
       <c r="F334" s="41"/>
-      <c r="G334" s="48"/>
+      <c r="G334" s="49"/>
     </row>
     <row r="335" spans="1:7">
       <c r="A335" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B335" s="38" t="s">
-        <v>565</v>
-      </c>
-      <c r="C335" s="48" t="s">
-        <v>42</v>
+      <c r="B335" s="38">
+        <v>11.1</v>
+      </c>
+      <c r="C335" s="47" t="s">
+        <v>41</v>
       </c>
       <c r="D335" s="41"/>
       <c r="E335" s="41"/>
       <c r="F335" s="41"/>
       <c r="G335" s="48"/>
     </row>
-    <row r="336" spans="1:7" ht="60">
+    <row r="336" spans="1:7">
       <c r="A336" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B336" s="38" t="s">
+        <v>565</v>
+      </c>
+      <c r="C336" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D336" s="41"/>
+      <c r="E336" s="41"/>
+      <c r="F336" s="41"/>
+      <c r="G336" s="48"/>
+    </row>
+    <row r="337" spans="1:7" ht="60">
+      <c r="A337" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B337" s="38" t="s">
         <v>566</v>
       </c>
-      <c r="C336" s="44" t="s">
+      <c r="C337" s="44" t="s">
         <v>567</v>
       </c>
-      <c r="D336" s="38">
+      <c r="D337" s="38">
         <v>78.3</v>
       </c>
-      <c r="E336" s="38" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F336" s="38"/>
-      <c r="G336" s="44" t="s">
+      <c r="E337" s="38" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F337" s="38" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G337" s="44" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="45">
-      <c r="A337" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B337" s="38" t="s">
+    <row r="338" spans="1:7" ht="45">
+      <c r="A338" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B338" s="38" t="s">
         <v>569</v>
       </c>
-      <c r="C337" s="44" t="s">
+      <c r="C338" s="44" t="s">
         <v>570</v>
-      </c>
-      <c r="D337" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E337" s="38" t="s">
-        <v>1282</v>
-      </c>
-      <c r="F337" s="38"/>
-      <c r="G337" s="44"/>
-    </row>
-    <row r="338" spans="1:7">
-      <c r="A338" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B338" s="38" t="s">
-        <v>571</v>
-      </c>
-      <c r="C338" s="44" t="s">
-        <v>572</v>
       </c>
       <c r="D338" s="38">
         <v>78.099999999999994</v>
       </c>
       <c r="E338" s="38" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F338" s="38"/>
+        <v>1281</v>
+      </c>
+      <c r="F338" s="38" t="s">
+        <v>1149</v>
+      </c>
       <c r="G338" s="44"/>
     </row>
     <row r="339" spans="1:7">
@@ -14385,152 +14437,166 @@
         <v>58</v>
       </c>
       <c r="B339" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="C339" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D339" s="41"/>
-      <c r="E339" s="41"/>
-      <c r="F339" s="41"/>
-      <c r="G339" s="41"/>
+        <v>571</v>
+      </c>
+      <c r="C339" s="44" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D339" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E339" s="38"/>
+      <c r="F339" s="38" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G339" s="44"/>
     </row>
     <row r="340" spans="1:7">
       <c r="A340" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B340" s="38" t="s">
-        <v>574</v>
-      </c>
-      <c r="C340" s="44" t="s">
-        <v>575</v>
-      </c>
-      <c r="D340" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="E340" s="38"/>
-      <c r="F340" s="38"/>
-      <c r="G340" s="44" t="s">
-        <v>576</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="C340" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D340" s="41"/>
+      <c r="E340" s="41"/>
+      <c r="F340" s="41"/>
+      <c r="G340" s="41"/>
     </row>
     <row r="341" spans="1:7">
       <c r="A341" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B341" s="38" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C341" s="44" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D341" s="38" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E341" s="38"/>
-      <c r="F341" s="38"/>
-      <c r="G341" s="44"/>
+      <c r="F341" s="38" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G341" s="44" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="342" spans="1:7">
       <c r="A342" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B342" s="38" t="s">
-        <v>581</v>
-      </c>
-      <c r="C342" s="38" t="s">
-        <v>582</v>
+        <v>578</v>
+      </c>
+      <c r="C342" s="44" t="s">
+        <v>579</v>
       </c>
       <c r="D342" s="38" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E342" s="38"/>
-      <c r="F342" s="38"/>
-      <c r="G342" s="38"/>
+      <c r="F342" s="38" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G342" s="44"/>
     </row>
     <row r="343" spans="1:7">
       <c r="A343" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B343" s="38" t="s">
-        <v>584</v>
-      </c>
-      <c r="C343" s="44" t="s">
-        <v>585</v>
+        <v>581</v>
+      </c>
+      <c r="C343" s="38" t="s">
+        <v>582</v>
       </c>
       <c r="D343" s="38" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E343" s="38"/>
-      <c r="F343" s="38"/>
-      <c r="G343" s="44"/>
+      <c r="F343" s="38" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G343" s="38"/>
     </row>
     <row r="344" spans="1:7">
       <c r="A344" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B344" s="38" t="s">
-        <v>587</v>
-      </c>
-      <c r="C344" s="41" t="s">
-        <v>588</v>
-      </c>
-      <c r="D344" s="41"/>
-      <c r="E344" s="41"/>
-      <c r="F344" s="41"/>
-      <c r="G344" s="41"/>
+        <v>584</v>
+      </c>
+      <c r="C344" s="44" t="s">
+        <v>585</v>
+      </c>
+      <c r="D344" s="38" t="s">
+        <v>586</v>
+      </c>
+      <c r="E344" s="38"/>
+      <c r="F344" s="38" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G344" s="44"/>
     </row>
     <row r="345" spans="1:7">
       <c r="A345" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B345" s="38" t="s">
-        <v>589</v>
-      </c>
-      <c r="C345" s="44" t="s">
-        <v>590</v>
-      </c>
-      <c r="D345" s="38" t="s">
-        <v>591</v>
-      </c>
-      <c r="E345" s="38"/>
-      <c r="F345" s="38"/>
-      <c r="G345" s="44" t="s">
-        <v>1115</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="C345" s="41" t="s">
+        <v>588</v>
+      </c>
+      <c r="D345" s="41"/>
+      <c r="E345" s="41"/>
+      <c r="F345" s="41"/>
+      <c r="G345" s="41"/>
     </row>
     <row r="346" spans="1:7">
       <c r="A346" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B346" s="38" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C346" s="44" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D346" s="38" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E346" s="38"/>
-      <c r="F346" s="38"/>
-      <c r="G346" s="44"/>
+      <c r="F346" s="38" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G346" s="44" t="s">
+        <v>1115</v>
+      </c>
     </row>
     <row r="347" spans="1:7">
       <c r="A347" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B347" s="38" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C347" s="44" t="s">
-        <v>1113</v>
+        <v>593</v>
       </c>
       <c r="D347" s="38" t="s">
-        <v>1112</v>
+        <v>594</v>
       </c>
       <c r="E347" s="38"/>
-      <c r="F347" s="38"/>
+      <c r="F347" s="38" t="s">
+        <v>1149</v>
+      </c>
       <c r="G347" s="44"/>
     </row>
     <row r="348" spans="1:7">
@@ -14538,16 +14604,18 @@
         <v>58</v>
       </c>
       <c r="B348" s="38" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C348" s="44" t="s">
-        <v>599</v>
+        <v>1113</v>
       </c>
       <c r="D348" s="38" t="s">
-        <v>600</v>
+        <v>1112</v>
       </c>
       <c r="E348" s="38"/>
-      <c r="F348" s="38"/>
+      <c r="F348" s="38" t="s">
+        <v>1149</v>
+      </c>
       <c r="G348" s="44"/>
     </row>
     <row r="349" spans="1:7">
@@ -14555,16 +14623,18 @@
         <v>58</v>
       </c>
       <c r="B349" s="38" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C349" s="44" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D349" s="38" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E349" s="38"/>
-      <c r="F349" s="38"/>
+      <c r="F349" s="38" t="s">
+        <v>1149</v>
+      </c>
       <c r="G349" s="44"/>
     </row>
     <row r="350" spans="1:7">
@@ -14572,101 +14642,111 @@
         <v>58</v>
       </c>
       <c r="B350" s="38" t="s">
+        <v>601</v>
+      </c>
+      <c r="C350" s="44" t="s">
+        <v>602</v>
+      </c>
+      <c r="D350" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="E350" s="38"/>
+      <c r="F350" s="38" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G350" s="44"/>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B351" s="38" t="s">
         <v>604</v>
       </c>
-      <c r="C350" s="41" t="s">
+      <c r="C351" s="41" t="s">
         <v>605</v>
       </c>
-      <c r="D350" s="41"/>
-      <c r="E350" s="41"/>
-      <c r="F350" s="41"/>
-      <c r="G350" s="41"/>
-    </row>
-    <row r="351" spans="1:7" ht="45">
-      <c r="A351" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B351" s="38" t="s">
+      <c r="D351" s="41"/>
+      <c r="E351" s="41"/>
+      <c r="F351" s="41"/>
+      <c r="G351" s="41"/>
+    </row>
+    <row r="352" spans="1:7" ht="45">
+      <c r="A352" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B352" s="38" t="s">
         <v>607</v>
       </c>
-      <c r="C351" s="44" t="s">
+      <c r="C352" s="44" t="s">
         <v>608</v>
-      </c>
-      <c r="D351" s="40" t="s">
-        <v>606</v>
-      </c>
-      <c r="E351" s="40"/>
-      <c r="F351" s="40"/>
-      <c r="G351" s="44" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7" ht="30">
-      <c r="A352" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B352" s="38" t="s">
-        <v>609</v>
-      </c>
-      <c r="C352" s="44" t="s">
-        <v>610</v>
       </c>
       <c r="D352" s="40" t="s">
         <v>606</v>
       </c>
       <c r="E352" s="40"/>
-      <c r="F352" s="40"/>
-      <c r="G352" s="44"/>
-    </row>
-    <row r="353" spans="1:7" ht="37.5" customHeight="1">
+      <c r="F352" s="38" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G352" s="44" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" ht="30">
       <c r="A353" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B353" s="38" t="s">
+        <v>609</v>
+      </c>
+      <c r="C353" s="44" t="s">
+        <v>610</v>
+      </c>
+      <c r="D353" s="40" t="s">
+        <v>606</v>
+      </c>
+      <c r="E353" s="40"/>
+      <c r="F353" s="38" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G353" s="44"/>
+    </row>
+    <row r="354" spans="1:7" ht="37.5" customHeight="1">
+      <c r="A354" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B354" s="38" t="s">
         <v>611</v>
       </c>
-      <c r="C353" s="40" t="s">
+      <c r="C354" s="40" t="s">
         <v>612</v>
       </c>
-      <c r="D353" s="40" t="s">
+      <c r="D354" s="40" t="s">
         <v>1135</v>
       </c>
-      <c r="E353" s="40"/>
-      <c r="F353" s="40"/>
-      <c r="G353" s="38"/>
-    </row>
-    <row r="354" spans="1:7" ht="30">
-      <c r="A354" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B354" s="38" t="s">
+      <c r="E354" s="40"/>
+      <c r="F354" s="38" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G354" s="38"/>
+    </row>
+    <row r="355" spans="1:7" ht="30">
+      <c r="A355" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B355" s="38" t="s">
         <v>613</v>
       </c>
-      <c r="C354" s="44" t="s">
+      <c r="C355" s="44" t="s">
         <v>614</v>
       </c>
-      <c r="D354" s="40" t="s">
+      <c r="D355" s="40" t="s">
         <v>615</v>
       </c>
-      <c r="E354" s="40"/>
-      <c r="F354" s="40"/>
-      <c r="G354" s="44"/>
-    </row>
-    <row r="355" spans="1:7">
-      <c r="A355" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B355" s="38" t="s">
-        <v>616</v>
-      </c>
-      <c r="C355" s="44" t="s">
-        <v>617</v>
-      </c>
-      <c r="D355" s="38" t="s">
-        <v>618</v>
-      </c>
-      <c r="E355" s="38"/>
-      <c r="F355" s="38"/>
+      <c r="E355" s="40"/>
+      <c r="F355" s="38" t="s">
+        <v>1149</v>
+      </c>
       <c r="G355" s="44"/>
     </row>
     <row r="356" spans="1:7">
@@ -14674,118 +14754,128 @@
         <v>58</v>
       </c>
       <c r="B356" s="38" t="s">
-        <v>619</v>
-      </c>
-      <c r="C356" s="41" t="s">
-        <v>620</v>
-      </c>
-      <c r="D356" s="41"/>
-      <c r="E356" s="41"/>
-      <c r="F356" s="41"/>
-      <c r="G356" s="41"/>
+        <v>616</v>
+      </c>
+      <c r="C356" s="44" t="s">
+        <v>617</v>
+      </c>
+      <c r="D356" s="38" t="s">
+        <v>618</v>
+      </c>
+      <c r="E356" s="38"/>
+      <c r="F356" s="38" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G356" s="44"/>
     </row>
     <row r="357" spans="1:7">
       <c r="A357" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B357" s="38" t="s">
-        <v>621</v>
-      </c>
-      <c r="C357" s="44" t="s">
-        <v>622</v>
-      </c>
-      <c r="D357" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="E357" s="38"/>
-      <c r="F357" s="38"/>
-      <c r="G357" s="38" t="s">
-        <v>1107</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="C357" s="41" t="s">
+        <v>620</v>
+      </c>
+      <c r="D357" s="41"/>
+      <c r="E357" s="41"/>
+      <c r="F357" s="41"/>
+      <c r="G357" s="41"/>
     </row>
     <row r="358" spans="1:7">
       <c r="A358" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B358" s="38" t="s">
-        <v>623</v>
-      </c>
-      <c r="C358" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D358" s="40" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E358" s="40"/>
-      <c r="F358" s="40"/>
-      <c r="G358" s="38"/>
+        <v>621</v>
+      </c>
+      <c r="C358" s="44" t="s">
+        <v>622</v>
+      </c>
+      <c r="D358" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="E358" s="38"/>
+      <c r="F358" s="38" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G358" s="38" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="359" spans="1:7">
       <c r="A359" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B359" s="38" t="s">
-        <v>625</v>
-      </c>
-      <c r="C359" s="41" t="s">
-        <v>626</v>
-      </c>
-      <c r="D359" s="41"/>
-      <c r="E359" s="41"/>
-      <c r="F359" s="41"/>
-      <c r="G359" s="41"/>
+        <v>623</v>
+      </c>
+      <c r="C359" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="D359" s="40" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E359" s="40"/>
+      <c r="F359" s="38" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G359" s="38"/>
     </row>
     <row r="360" spans="1:7">
       <c r="A360" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B360" s="38" t="s">
-        <v>627</v>
-      </c>
-      <c r="C360" s="44" t="s">
-        <v>590</v>
-      </c>
-      <c r="D360" s="38" t="s">
-        <v>591</v>
-      </c>
-      <c r="E360" s="38"/>
-      <c r="F360" s="38"/>
-      <c r="G360" s="44" t="s">
-        <v>1120</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="C360" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D360" s="41"/>
+      <c r="E360" s="41"/>
+      <c r="F360" s="41"/>
+      <c r="G360" s="41"/>
     </row>
     <row r="361" spans="1:7">
       <c r="A361" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B361" s="38" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C361" s="44" t="s">
-        <v>629</v>
+        <v>590</v>
       </c>
       <c r="D361" s="38" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E361" s="46"/>
-      <c r="F361" s="46"/>
-      <c r="G361" s="44"/>
+        <v>591</v>
+      </c>
+      <c r="E361" s="38"/>
+      <c r="F361" s="38" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G361" s="44" t="s">
+        <v>1120</v>
+      </c>
     </row>
     <row r="362" spans="1:7">
       <c r="A362" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B362" s="38" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C362" s="44" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D362" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="E362" s="38"/>
-      <c r="F362" s="38"/>
+        <v>1114</v>
+      </c>
+      <c r="E362" s="46"/>
+      <c r="F362" s="38" t="s">
+        <v>1149</v>
+      </c>
       <c r="G362" s="44"/>
     </row>
     <row r="363" spans="1:7">
@@ -14793,16 +14883,18 @@
         <v>58</v>
       </c>
       <c r="B363" s="38" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C363" s="44" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D363" s="38" t="s">
-        <v>1112</v>
+        <v>597</v>
       </c>
       <c r="E363" s="38"/>
-      <c r="F363" s="38"/>
+      <c r="F363" s="38" t="s">
+        <v>1149</v>
+      </c>
       <c r="G363" s="44"/>
     </row>
     <row r="364" spans="1:7">
@@ -14810,107 +14902,113 @@
         <v>58</v>
       </c>
       <c r="B364" s="38" t="s">
-        <v>634</v>
-      </c>
-      <c r="C364" s="40" t="s">
-        <v>635</v>
+        <v>632</v>
+      </c>
+      <c r="C364" s="44" t="s">
+        <v>633</v>
       </c>
       <c r="D364" s="38" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E364" s="38" t="s">
-        <v>636</v>
-      </c>
-      <c r="F364" s="38"/>
-      <c r="G364" s="38"/>
+        <v>1112</v>
+      </c>
+      <c r="E364" s="38"/>
+      <c r="F364" s="38" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G364" s="44"/>
     </row>
     <row r="365" spans="1:7">
       <c r="A365" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B365" s="38">
-        <v>11.2</v>
-      </c>
-      <c r="C365" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D365" s="41"/>
-      <c r="E365" s="41"/>
-      <c r="F365" s="41"/>
-      <c r="G365" s="41"/>
+      <c r="B365" s="38" t="s">
+        <v>634</v>
+      </c>
+      <c r="C365" s="40" t="s">
+        <v>635</v>
+      </c>
+      <c r="D365" s="38" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E365" s="38" t="s">
+        <v>636</v>
+      </c>
+      <c r="F365" s="38" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G365" s="38"/>
     </row>
     <row r="366" spans="1:7">
       <c r="A366" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B366" s="38" t="s">
-        <v>637</v>
-      </c>
-      <c r="C366" s="41" t="s">
-        <v>42</v>
+      <c r="B366" s="38">
+        <v>11.2</v>
+      </c>
+      <c r="C366" s="37" t="s">
+        <v>44</v>
       </c>
       <c r="D366" s="41"/>
       <c r="E366" s="41"/>
       <c r="F366" s="41"/>
       <c r="G366" s="41"/>
     </row>
-    <row r="367" spans="1:7" ht="60">
+    <row r="367" spans="1:7">
       <c r="A367" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B367" s="38" t="s">
-        <v>638</v>
-      </c>
-      <c r="C367" s="44" t="s">
-        <v>567</v>
-      </c>
-      <c r="D367" s="40" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E367" s="40" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F367" s="40"/>
-      <c r="G367" s="44" t="s">
-        <v>568</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="C367" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D367" s="41"/>
+      <c r="E367" s="41"/>
+      <c r="F367" s="41"/>
+      <c r="G367" s="41"/>
     </row>
     <row r="368" spans="1:7" ht="60">
       <c r="A368" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B368" s="38" t="s">
+        <v>638</v>
+      </c>
+      <c r="C368" s="44" t="s">
+        <v>567</v>
+      </c>
+      <c r="D368" s="40" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E368" s="40" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F368" s="38" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G368" s="44" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" ht="60">
+      <c r="A369" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B369" s="38" t="s">
         <v>639</v>
       </c>
-      <c r="C368" s="44" t="s">
+      <c r="C369" s="44" t="s">
         <v>640</v>
       </c>
-      <c r="D368" s="40" t="s">
+      <c r="D369" s="40" t="s">
         <v>1031</v>
       </c>
-      <c r="E368" s="40" t="s">
-        <v>1283</v>
-      </c>
-      <c r="F368" s="40"/>
-      <c r="G368" s="44"/>
-    </row>
-    <row r="369" spans="1:7">
-      <c r="A369" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B369" s="38" t="s">
-        <v>641</v>
-      </c>
-      <c r="C369" s="44" t="s">
-        <v>572</v>
-      </c>
-      <c r="D369" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E369" s="38" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F369" s="38"/>
+      <c r="E369" s="40" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F369" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G369" s="44"/>
     </row>
     <row r="370" spans="1:7">
@@ -14918,25 +15016,31 @@
         <v>58</v>
       </c>
       <c r="B370" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="C370" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D370" s="41"/>
-      <c r="E370" s="41"/>
-      <c r="F370" s="41"/>
-      <c r="G370" s="41"/>
+        <v>641</v>
+      </c>
+      <c r="C370" s="44" t="s">
+        <v>572</v>
+      </c>
+      <c r="D370" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E370" s="38" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F370" s="38" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G370" s="44"/>
     </row>
     <row r="371" spans="1:7">
       <c r="A371" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B371" s="38" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C371" s="41" t="s">
-        <v>644</v>
+        <v>43</v>
       </c>
       <c r="D371" s="41"/>
       <c r="E371" s="41"/>
@@ -14948,52 +15052,54 @@
         <v>58</v>
       </c>
       <c r="B372" s="38" t="s">
-        <v>645</v>
-      </c>
-      <c r="C372" s="38" t="s">
-        <v>646</v>
-      </c>
-      <c r="D372" s="38" t="s">
-        <v>648</v>
-      </c>
-      <c r="E372" s="38"/>
-      <c r="F372" s="38"/>
-      <c r="G372" s="44" t="s">
-        <v>647</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="C372" s="41" t="s">
+        <v>644</v>
+      </c>
+      <c r="D372" s="41"/>
+      <c r="E372" s="41"/>
+      <c r="F372" s="41"/>
+      <c r="G372" s="41"/>
     </row>
     <row r="373" spans="1:7">
       <c r="A373" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B373" s="38" t="s">
+        <v>645</v>
+      </c>
+      <c r="C373" s="38" t="s">
+        <v>646</v>
+      </c>
+      <c r="D373" s="38" t="s">
+        <v>648</v>
+      </c>
+      <c r="E373" s="38"/>
+      <c r="F373" s="38" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G373" s="44" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
+      <c r="A374" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B374" s="38" t="s">
         <v>649</v>
       </c>
-      <c r="C373" s="44" t="s">
+      <c r="C374" s="44" t="s">
         <v>650</v>
       </c>
-      <c r="D373" s="38" t="s">
+      <c r="D374" s="38" t="s">
         <v>651</v>
       </c>
-      <c r="E373" s="38"/>
-      <c r="F373" s="38"/>
-      <c r="G373" s="44"/>
-    </row>
-    <row r="374" spans="1:7" ht="30">
-      <c r="A374" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B374" s="38" t="s">
-        <v>652</v>
-      </c>
-      <c r="C374" s="44" t="s">
-        <v>653</v>
-      </c>
-      <c r="D374" s="38" t="s">
-        <v>603</v>
-      </c>
       <c r="E374" s="38"/>
-      <c r="F374" s="38"/>
+      <c r="F374" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G374" s="44"/>
     </row>
     <row r="375" spans="1:7" ht="30">
@@ -15001,171 +15107,187 @@
         <v>58</v>
       </c>
       <c r="B375" s="38" t="s">
+        <v>652</v>
+      </c>
+      <c r="C375" s="44" t="s">
+        <v>653</v>
+      </c>
+      <c r="D375" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="E375" s="38"/>
+      <c r="F375" s="38" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G375" s="44"/>
+    </row>
+    <row r="376" spans="1:7" ht="30">
+      <c r="A376" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B376" s="38" t="s">
         <v>654</v>
       </c>
-      <c r="C375" s="44" t="s">
+      <c r="C376" s="44" t="s">
         <v>655</v>
       </c>
-      <c r="D375" s="40" t="s">
+      <c r="D376" s="40" t="s">
         <v>615</v>
       </c>
-      <c r="E375" s="40"/>
-      <c r="F375" s="40"/>
-      <c r="G375" s="44"/>
-    </row>
-    <row r="376" spans="1:7">
-      <c r="A376" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B376" s="38" t="s">
+      <c r="E376" s="40"/>
+      <c r="F376" s="38" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G376" s="44"/>
+    </row>
+    <row r="377" spans="1:7">
+      <c r="A377" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B377" s="38" t="s">
         <v>656</v>
       </c>
-      <c r="C376" s="44" t="s">
+      <c r="C377" s="44" t="s">
         <v>657</v>
       </c>
-      <c r="D376" s="38" t="s">
+      <c r="D377" s="38" t="s">
         <v>618</v>
       </c>
-      <c r="E376" s="38"/>
-      <c r="F376" s="38"/>
-      <c r="G376" s="44"/>
-    </row>
-    <row r="377" spans="1:7" ht="30">
-      <c r="A377" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B377" s="38" t="s">
+      <c r="E377" s="38"/>
+      <c r="F377" s="38" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G377" s="44"/>
+    </row>
+    <row r="378" spans="1:7" ht="30">
+      <c r="A378" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B378" s="38" t="s">
         <v>658</v>
       </c>
-      <c r="C377" s="44" t="s">
+      <c r="C378" s="44" t="s">
         <v>659</v>
       </c>
-      <c r="D377" s="38" t="s">
+      <c r="D378" s="38" t="s">
         <v>586</v>
       </c>
-      <c r="E377" s="38"/>
-      <c r="F377" s="38"/>
-      <c r="G377" s="44"/>
-    </row>
-    <row r="378" spans="1:7">
-      <c r="A378" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B378" s="38" t="s">
-        <v>660</v>
-      </c>
-      <c r="C378" s="41" t="s">
-        <v>620</v>
-      </c>
-      <c r="D378" s="41"/>
-      <c r="E378" s="41"/>
-      <c r="F378" s="41"/>
-      <c r="G378" s="41"/>
+      <c r="E378" s="38"/>
+      <c r="F378" s="38" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G378" s="44"/>
     </row>
     <row r="379" spans="1:7">
       <c r="A379" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B379" s="38" t="s">
-        <v>661</v>
-      </c>
-      <c r="C379" s="44" t="s">
-        <v>622</v>
-      </c>
-      <c r="D379" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="E379" s="38"/>
-      <c r="F379" s="38"/>
-      <c r="G379" s="44" t="s">
-        <v>1107</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="C379" s="41" t="s">
+        <v>620</v>
+      </c>
+      <c r="D379" s="41"/>
+      <c r="E379" s="41"/>
+      <c r="F379" s="41"/>
+      <c r="G379" s="41"/>
     </row>
     <row r="380" spans="1:7">
       <c r="A380" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B380" s="38" t="s">
-        <v>662</v>
-      </c>
-      <c r="C380" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D380" s="40" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E380" s="40" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F380" s="40"/>
-      <c r="G380" s="38"/>
+        <v>661</v>
+      </c>
+      <c r="C380" s="44" t="s">
+        <v>622</v>
+      </c>
+      <c r="D380" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="E380" s="38"/>
+      <c r="F380" s="38" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G380" s="44" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="381" spans="1:7">
       <c r="A381" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B381" s="38" t="s">
-        <v>663</v>
-      </c>
-      <c r="C381" s="41" t="s">
-        <v>626</v>
-      </c>
-      <c r="D381" s="41"/>
-      <c r="E381" s="41"/>
-      <c r="F381" s="41"/>
-      <c r="G381" s="41"/>
+        <v>662</v>
+      </c>
+      <c r="C381" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="D381" s="40" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E381" s="40" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F381" s="38" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G381" s="38"/>
     </row>
     <row r="382" spans="1:7">
       <c r="A382" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B382" s="38" t="s">
-        <v>664</v>
-      </c>
-      <c r="C382" s="44" t="s">
-        <v>590</v>
-      </c>
-      <c r="D382" s="38" t="s">
-        <v>591</v>
-      </c>
-      <c r="E382" s="38"/>
-      <c r="F382" s="38"/>
-      <c r="G382" s="44" t="s">
-        <v>1120</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="C382" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D382" s="41"/>
+      <c r="E382" s="41"/>
+      <c r="F382" s="41"/>
+      <c r="G382" s="41"/>
     </row>
     <row r="383" spans="1:7">
       <c r="A383" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B383" s="38" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C383" s="44" t="s">
-        <v>666</v>
+        <v>590</v>
       </c>
       <c r="D383" s="38" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E383" s="46"/>
-      <c r="F383" s="46"/>
-      <c r="G383" s="44"/>
+        <v>591</v>
+      </c>
+      <c r="E383" s="38"/>
+      <c r="F383" s="38" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G383" s="44" t="s">
+        <v>1120</v>
+      </c>
     </row>
     <row r="384" spans="1:7">
       <c r="A384" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B384" s="38" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C384" s="44" t="s">
-        <v>631</v>
+        <v>666</v>
       </c>
       <c r="D384" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="E384" s="38"/>
-      <c r="F384" s="38"/>
+        <v>1114</v>
+      </c>
+      <c r="E384" s="46"/>
+      <c r="F384" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G384" s="44"/>
     </row>
     <row r="385" spans="1:7">
@@ -15173,150 +15295,164 @@
         <v>58</v>
       </c>
       <c r="B385" s="38" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C385" s="44" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D385" s="38" t="s">
-        <v>1112</v>
+        <v>597</v>
       </c>
       <c r="E385" s="38"/>
-      <c r="F385" s="38"/>
-      <c r="G385" s="38"/>
+      <c r="F385" s="38" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G385" s="44"/>
     </row>
     <row r="386" spans="1:7">
       <c r="A386" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B386" s="38" t="s">
-        <v>669</v>
-      </c>
-      <c r="C386" s="40" t="s">
-        <v>635</v>
+        <v>668</v>
+      </c>
+      <c r="C386" s="44" t="s">
+        <v>633</v>
       </c>
       <c r="D386" s="38" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E386" s="38" t="s">
-        <v>636</v>
-      </c>
-      <c r="F386" s="38"/>
+        <v>1112</v>
+      </c>
+      <c r="E386" s="38"/>
+      <c r="F386" s="38" t="s">
+        <v>1153</v>
+      </c>
       <c r="G386" s="38"/>
     </row>
     <row r="387" spans="1:7">
       <c r="A387" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B387" s="38">
-        <v>11.3</v>
-      </c>
-      <c r="C387" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D387" s="41"/>
-      <c r="E387" s="41"/>
-      <c r="F387" s="41"/>
-      <c r="G387" s="41"/>
+      <c r="B387" s="38" t="s">
+        <v>669</v>
+      </c>
+      <c r="C387" s="40" t="s">
+        <v>635</v>
+      </c>
+      <c r="D387" s="38" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E387" s="38" t="s">
+        <v>636</v>
+      </c>
+      <c r="F387" s="38" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G387" s="38"/>
     </row>
     <row r="388" spans="1:7">
       <c r="A388" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B388" s="38" t="s">
-        <v>670</v>
-      </c>
-      <c r="C388" s="41" t="s">
-        <v>42</v>
+      <c r="B388" s="38">
+        <v>11.3</v>
+      </c>
+      <c r="C388" s="37" t="s">
+        <v>45</v>
       </c>
       <c r="D388" s="41"/>
       <c r="E388" s="41"/>
       <c r="F388" s="41"/>
       <c r="G388" s="41"/>
     </row>
-    <row r="389" spans="1:7" ht="45">
+    <row r="389" spans="1:7">
       <c r="A389" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B389" s="38" t="s">
+        <v>670</v>
+      </c>
+      <c r="C389" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D389" s="41"/>
+      <c r="E389" s="41"/>
+      <c r="F389" s="41"/>
+      <c r="G389" s="41"/>
+    </row>
+    <row r="390" spans="1:7" ht="45">
+      <c r="A390" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B390" s="38" t="s">
         <v>671</v>
       </c>
-      <c r="C389" s="44" t="s">
+      <c r="C390" s="44" t="s">
         <v>672</v>
       </c>
-      <c r="D389" s="38">
+      <c r="D390" s="38">
         <v>78.3</v>
       </c>
-      <c r="E389" s="38" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F389" s="38"/>
-      <c r="G389" s="44" t="s">
+      <c r="E390" s="38" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F390" s="38" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G390" s="44" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="390" spans="1:7" ht="60">
-      <c r="A390" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B390" s="38" t="s">
+    <row r="391" spans="1:7" ht="60">
+      <c r="A391" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B391" s="38" t="s">
         <v>673</v>
       </c>
-      <c r="C390" s="38" t="s">
+      <c r="C391" s="38" t="s">
         <v>674</v>
       </c>
-      <c r="D390" s="38" t="s">
+      <c r="D391" s="38" t="s">
         <v>1031</v>
       </c>
-      <c r="E390" s="40" t="s">
-        <v>1284</v>
-      </c>
-      <c r="F390" s="38"/>
-      <c r="G390" s="38"/>
-    </row>
-    <row r="391" spans="1:7">
-      <c r="A391" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B391" s="38" t="s">
-        <v>675</v>
-      </c>
-      <c r="C391" s="44" t="s">
-        <v>676</v>
-      </c>
-      <c r="D391" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E391" s="38" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F391" s="38"/>
-      <c r="G391" s="44"/>
+      <c r="E391" s="40" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F391" s="38" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G391" s="38"/>
     </row>
     <row r="392" spans="1:7">
       <c r="A392" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B392" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="C392" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D392" s="41"/>
-      <c r="E392" s="41"/>
-      <c r="F392" s="41"/>
-      <c r="G392" s="41"/>
+        <v>675</v>
+      </c>
+      <c r="C392" s="44" t="s">
+        <v>676</v>
+      </c>
+      <c r="D392" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E392" s="38" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F392" s="38" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G392" s="44"/>
     </row>
     <row r="393" spans="1:7">
       <c r="A393" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B393" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C393" s="41" t="s">
-        <v>644</v>
+        <v>43</v>
       </c>
       <c r="D393" s="41"/>
       <c r="E393" s="41"/>
@@ -15328,224 +15464,242 @@
         <v>58</v>
       </c>
       <c r="B394" s="38" t="s">
-        <v>679</v>
-      </c>
-      <c r="C394" s="44" t="s">
-        <v>680</v>
-      </c>
-      <c r="D394" s="38" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E394" s="38"/>
-      <c r="F394" s="38"/>
-      <c r="G394" s="44" t="s">
-        <v>681</v>
-      </c>
+        <v>678</v>
+      </c>
+      <c r="C394" s="41" t="s">
+        <v>644</v>
+      </c>
+      <c r="D394" s="41"/>
+      <c r="E394" s="41"/>
+      <c r="F394" s="41"/>
+      <c r="G394" s="41"/>
     </row>
     <row r="395" spans="1:7">
       <c r="A395" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B395" s="38" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C395" s="44" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D395" s="38" t="s">
-        <v>684</v>
+        <v>1073</v>
       </c>
       <c r="E395" s="38"/>
-      <c r="F395" s="38"/>
-      <c r="G395" s="44"/>
+      <c r="F395" s="38" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G395" s="44" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="396" spans="1:7">
       <c r="A396" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B396" s="38" t="s">
+        <v>682</v>
+      </c>
+      <c r="C396" s="44" t="s">
+        <v>683</v>
+      </c>
+      <c r="D396" s="38" t="s">
+        <v>684</v>
+      </c>
+      <c r="E396" s="38"/>
+      <c r="F396" s="38" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G396" s="44"/>
+    </row>
+    <row r="397" spans="1:7">
+      <c r="A397" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B397" s="38" t="s">
         <v>685</v>
       </c>
-      <c r="C396" s="44" t="s">
+      <c r="C397" s="44" t="s">
         <v>686</v>
       </c>
-      <c r="D396" s="38" t="s">
+      <c r="D397" s="38" t="s">
         <v>580</v>
       </c>
-      <c r="E396" s="38"/>
-      <c r="F396" s="38"/>
-      <c r="G396" s="44"/>
-    </row>
-    <row r="397" spans="1:7" ht="30">
-      <c r="A397" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B397" s="38" t="s">
+      <c r="E397" s="38"/>
+      <c r="F397" s="38" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G397" s="44"/>
+    </row>
+    <row r="398" spans="1:7" ht="30">
+      <c r="A398" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B398" s="38" t="s">
         <v>687</v>
       </c>
-      <c r="C397" s="44" t="s">
+      <c r="C398" s="44" t="s">
         <v>688</v>
       </c>
-      <c r="D397" s="38" t="s">
+      <c r="D398" s="38" t="s">
         <v>603</v>
       </c>
-      <c r="E397" s="38"/>
-      <c r="F397" s="38"/>
-      <c r="G397" s="44"/>
-    </row>
-    <row r="398" spans="1:7">
-      <c r="A398" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B398" s="38" t="s">
+      <c r="E398" s="38"/>
+      <c r="F398" s="38" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G398" s="44"/>
+    </row>
+    <row r="399" spans="1:7">
+      <c r="A399" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B399" s="38" t="s">
         <v>689</v>
       </c>
-      <c r="C398" s="44" t="s">
+      <c r="C399" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="D398" s="38" t="s">
+      <c r="D399" s="38" t="s">
         <v>618</v>
       </c>
-      <c r="E398" s="38"/>
-      <c r="F398" s="38"/>
-      <c r="G398" s="44"/>
-    </row>
-    <row r="399" spans="1:7" ht="30">
-      <c r="A399" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B399" s="38" t="s">
+      <c r="E399" s="38"/>
+      <c r="F399" s="38" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G399" s="44"/>
+    </row>
+    <row r="400" spans="1:7" ht="30">
+      <c r="A400" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B400" s="38" t="s">
         <v>691</v>
       </c>
-      <c r="C399" s="44" t="s">
+      <c r="C400" s="44" t="s">
         <v>659</v>
       </c>
-      <c r="D399" s="38" t="s">
+      <c r="D400" s="38" t="s">
         <v>586</v>
       </c>
-      <c r="E399" s="38"/>
-      <c r="F399" s="38"/>
-      <c r="G399" s="44"/>
-    </row>
-    <row r="400" spans="1:7">
-      <c r="A400" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B400" s="38" t="s">
-        <v>692</v>
-      </c>
-      <c r="C400" s="41" t="s">
-        <v>620</v>
-      </c>
-      <c r="D400" s="41"/>
-      <c r="E400" s="41"/>
-      <c r="F400" s="41"/>
-      <c r="G400" s="41"/>
+      <c r="E400" s="38"/>
+      <c r="F400" s="38" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G400" s="44"/>
     </row>
     <row r="401" spans="1:7">
       <c r="A401" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B401" s="38" t="s">
-        <v>693</v>
-      </c>
-      <c r="C401" s="44" t="s">
-        <v>622</v>
-      </c>
-      <c r="D401" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="E401" s="38"/>
-      <c r="F401" s="38"/>
-      <c r="G401" s="44" t="s">
-        <v>1107</v>
-      </c>
+        <v>692</v>
+      </c>
+      <c r="C401" s="41" t="s">
+        <v>620</v>
+      </c>
+      <c r="D401" s="41"/>
+      <c r="E401" s="41"/>
+      <c r="F401" s="41"/>
+      <c r="G401" s="41"/>
     </row>
     <row r="402" spans="1:7">
       <c r="A402" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B402" s="38" t="s">
-        <v>694</v>
-      </c>
-      <c r="C402" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D402" s="40" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E402" s="40" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F402" s="40"/>
-      <c r="G402" s="38"/>
+        <v>693</v>
+      </c>
+      <c r="C402" s="44" t="s">
+        <v>622</v>
+      </c>
+      <c r="D402" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="E402" s="38"/>
+      <c r="F402" s="38" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G402" s="44" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="403" spans="1:7">
       <c r="A403" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B403" s="38" t="s">
-        <v>695</v>
-      </c>
-      <c r="C403" s="41" t="s">
-        <v>626</v>
-      </c>
-      <c r="D403" s="41"/>
-      <c r="E403" s="41"/>
-      <c r="F403" s="41"/>
-      <c r="G403" s="41"/>
+        <v>694</v>
+      </c>
+      <c r="C403" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="D403" s="40" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E403" s="40" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F403" s="38" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G403" s="38"/>
     </row>
     <row r="404" spans="1:7">
       <c r="A404" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B404" s="38" t="s">
-        <v>696</v>
-      </c>
-      <c r="C404" s="44" t="s">
-        <v>590</v>
-      </c>
-      <c r="D404" s="38" t="s">
-        <v>591</v>
-      </c>
-      <c r="E404" s="38"/>
-      <c r="F404" s="38"/>
-      <c r="G404" s="44" t="s">
-        <v>1120</v>
-      </c>
+        <v>695</v>
+      </c>
+      <c r="C404" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D404" s="41"/>
+      <c r="E404" s="41"/>
+      <c r="F404" s="41"/>
+      <c r="G404" s="41"/>
     </row>
     <row r="405" spans="1:7">
       <c r="A405" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B405" s="38" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C405" s="44" t="s">
-        <v>666</v>
+        <v>590</v>
       </c>
       <c r="D405" s="38" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E405" s="46"/>
-      <c r="F405" s="46"/>
-      <c r="G405" s="44"/>
+        <v>591</v>
+      </c>
+      <c r="E405" s="38"/>
+      <c r="F405" s="38" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G405" s="44" t="s">
+        <v>1120</v>
+      </c>
     </row>
     <row r="406" spans="1:7">
       <c r="A406" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B406" s="38" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C406" s="44" t="s">
-        <v>631</v>
+        <v>666</v>
       </c>
       <c r="D406" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="E406" s="38"/>
-      <c r="F406" s="38"/>
+        <v>1114</v>
+      </c>
+      <c r="E406" s="46"/>
+      <c r="F406" s="38" t="s">
+        <v>1154</v>
+      </c>
       <c r="G406" s="44"/>
     </row>
     <row r="407" spans="1:7">
@@ -15553,124 +15707,132 @@
         <v>58</v>
       </c>
       <c r="B407" s="38" t="s">
-        <v>699</v>
-      </c>
-      <c r="C407" s="38" t="s">
-        <v>633</v>
+        <v>698</v>
+      </c>
+      <c r="C407" s="44" t="s">
+        <v>631</v>
       </c>
       <c r="D407" s="38" t="s">
-        <v>1112</v>
+        <v>597</v>
       </c>
       <c r="E407" s="38"/>
-      <c r="F407" s="38"/>
-      <c r="G407" s="38"/>
+      <c r="F407" s="38" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G407" s="44"/>
     </row>
     <row r="408" spans="1:7">
       <c r="A408" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B408" s="38" t="s">
-        <v>700</v>
-      </c>
-      <c r="C408" s="40" t="s">
-        <v>635</v>
+        <v>699</v>
+      </c>
+      <c r="C408" s="38" t="s">
+        <v>633</v>
       </c>
       <c r="D408" s="38" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E408" s="38" t="s">
-        <v>636</v>
-      </c>
-      <c r="F408" s="38"/>
+        <v>1112</v>
+      </c>
+      <c r="E408" s="38"/>
+      <c r="F408" s="38" t="s">
+        <v>1154</v>
+      </c>
       <c r="G408" s="38"/>
     </row>
     <row r="409" spans="1:7">
       <c r="A409" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B409" s="38">
-        <v>11.4</v>
-      </c>
-      <c r="C409" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D409" s="41"/>
-      <c r="E409" s="41"/>
-      <c r="F409" s="41"/>
-      <c r="G409" s="41"/>
+      <c r="B409" s="38" t="s">
+        <v>700</v>
+      </c>
+      <c r="C409" s="40" t="s">
+        <v>635</v>
+      </c>
+      <c r="D409" s="38" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E409" s="38" t="s">
+        <v>636</v>
+      </c>
+      <c r="F409" s="38" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G409" s="38"/>
     </row>
     <row r="410" spans="1:7">
       <c r="A410" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B410" s="38" t="s">
-        <v>701</v>
-      </c>
-      <c r="C410" s="41" t="s">
-        <v>42</v>
+      <c r="B410" s="38">
+        <v>11.4</v>
+      </c>
+      <c r="C410" s="37" t="s">
+        <v>46</v>
       </c>
       <c r="D410" s="41"/>
       <c r="E410" s="41"/>
       <c r="F410" s="41"/>
       <c r="G410" s="41"/>
     </row>
-    <row r="411" spans="1:7" ht="78.75">
+    <row r="411" spans="1:7">
       <c r="A411" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B411" s="38" t="s">
+        <v>701</v>
+      </c>
+      <c r="C411" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D411" s="41"/>
+      <c r="E411" s="41"/>
+      <c r="F411" s="41"/>
+      <c r="G411" s="41"/>
+    </row>
+    <row r="412" spans="1:7" ht="78.75">
+      <c r="A412" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B412" s="38" t="s">
         <v>702</v>
       </c>
-      <c r="C411" s="44" t="s">
+      <c r="C412" s="44" t="s">
         <v>672</v>
       </c>
-      <c r="D411" s="38">
+      <c r="D412" s="38">
         <v>78.3</v>
       </c>
-      <c r="E411" s="3" t="s">
-        <v>1291</v>
-      </c>
-      <c r="F411" s="38"/>
-      <c r="G411" s="44" t="s">
+      <c r="E412" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F412" s="38" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G412" s="44" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="60">
-      <c r="A412" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B412" s="38" t="s">
+    <row r="413" spans="1:7" ht="60">
+      <c r="A413" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B413" s="38" t="s">
         <v>703</v>
       </c>
-      <c r="C412" s="44" t="s">
+      <c r="C413" s="44" t="s">
         <v>704</v>
-      </c>
-      <c r="D412" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E412" s="38" t="s">
-        <v>1285</v>
-      </c>
-      <c r="F412" s="38"/>
-      <c r="G412" s="44"/>
-    </row>
-    <row r="413" spans="1:7">
-      <c r="A413" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B413" s="38" t="s">
-        <v>705</v>
-      </c>
-      <c r="C413" s="44" t="s">
-        <v>676</v>
       </c>
       <c r="D413" s="38">
         <v>78.099999999999994</v>
       </c>
       <c r="E413" s="38" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F413" s="38"/>
+        <v>1284</v>
+      </c>
+      <c r="F413" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G413" s="44"/>
     </row>
     <row r="414" spans="1:7">
@@ -15678,25 +15840,31 @@
         <v>58</v>
       </c>
       <c r="B414" s="38" t="s">
-        <v>706</v>
-      </c>
-      <c r="C414" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D414" s="41"/>
-      <c r="E414" s="41"/>
-      <c r="F414" s="41"/>
-      <c r="G414" s="41"/>
+        <v>705</v>
+      </c>
+      <c r="C414" s="44" t="s">
+        <v>676</v>
+      </c>
+      <c r="D414" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E414" s="38" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F414" s="38" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G414" s="44"/>
     </row>
     <row r="415" spans="1:7">
       <c r="A415" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B415" s="38" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C415" s="41" t="s">
-        <v>644</v>
+        <v>43</v>
       </c>
       <c r="D415" s="41"/>
       <c r="E415" s="41"/>
@@ -15708,52 +15876,54 @@
         <v>58</v>
       </c>
       <c r="B416" s="38" t="s">
-        <v>708</v>
-      </c>
-      <c r="C416" s="38" t="s">
-        <v>646</v>
-      </c>
-      <c r="D416" s="38" t="s">
-        <v>648</v>
-      </c>
-      <c r="E416" s="38"/>
-      <c r="F416" s="38"/>
-      <c r="G416" s="38" t="s">
-        <v>709</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="C416" s="41" t="s">
+        <v>644</v>
+      </c>
+      <c r="D416" s="41"/>
+      <c r="E416" s="41"/>
+      <c r="F416" s="41"/>
+      <c r="G416" s="41"/>
     </row>
     <row r="417" spans="1:7">
       <c r="A417" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B417" s="38" t="s">
-        <v>710</v>
-      </c>
-      <c r="C417" s="44" t="s">
-        <v>711</v>
+        <v>708</v>
+      </c>
+      <c r="C417" s="38" t="s">
+        <v>646</v>
       </c>
       <c r="D417" s="38" t="s">
-        <v>577</v>
+        <v>648</v>
       </c>
       <c r="E417" s="38"/>
-      <c r="F417" s="38"/>
-      <c r="G417" s="44"/>
+      <c r="F417" s="38" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G417" s="38" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="418" spans="1:7">
       <c r="A418" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B418" s="38" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C418" s="44" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D418" s="38" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E418" s="38"/>
-      <c r="F418" s="38"/>
+      <c r="F418" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G418" s="44"/>
     </row>
     <row r="419" spans="1:7">
@@ -15761,84 +15931,92 @@
         <v>58</v>
       </c>
       <c r="B419" s="38" t="s">
-        <v>714</v>
-      </c>
-      <c r="C419" s="38" t="s">
-        <v>715</v>
+        <v>712</v>
+      </c>
+      <c r="C419" s="44" t="s">
+        <v>713</v>
       </c>
       <c r="D419" s="38" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E419" s="38"/>
-      <c r="F419" s="38"/>
-      <c r="G419" s="38"/>
+      <c r="F419" s="38" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G419" s="44"/>
     </row>
     <row r="420" spans="1:7">
       <c r="A420" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B420" s="38" t="s">
-        <v>716</v>
-      </c>
-      <c r="C420" s="41" t="s">
-        <v>717</v>
-      </c>
-      <c r="D420" s="41"/>
-      <c r="E420" s="41"/>
-      <c r="F420" s="41"/>
-      <c r="G420" s="41"/>
+        <v>714</v>
+      </c>
+      <c r="C420" s="38" t="s">
+        <v>715</v>
+      </c>
+      <c r="D420" s="38" t="s">
+        <v>586</v>
+      </c>
+      <c r="E420" s="38"/>
+      <c r="F420" s="38" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G420" s="38"/>
     </row>
     <row r="421" spans="1:7">
       <c r="A421" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B421" s="38" t="s">
-        <v>718</v>
-      </c>
-      <c r="C421" s="38" t="s">
-        <v>719</v>
-      </c>
-      <c r="D421" s="38" t="s">
-        <v>721</v>
-      </c>
-      <c r="E421" s="38"/>
-      <c r="F421" s="38"/>
-      <c r="G421" s="38" t="s">
-        <v>720</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="C421" s="41" t="s">
+        <v>717</v>
+      </c>
+      <c r="D421" s="41"/>
+      <c r="E421" s="41"/>
+      <c r="F421" s="41"/>
+      <c r="G421" s="41"/>
     </row>
     <row r="422" spans="1:7">
       <c r="A422" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B422" s="38" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C422" s="38" t="s">
-        <v>723</v>
-      </c>
-      <c r="D422" s="40" t="s">
-        <v>724</v>
-      </c>
-      <c r="E422" s="40"/>
-      <c r="F422" s="40"/>
-      <c r="G422" s="38"/>
+        <v>719</v>
+      </c>
+      <c r="D422" s="38" t="s">
+        <v>721</v>
+      </c>
+      <c r="E422" s="38"/>
+      <c r="F422" s="38" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G422" s="38" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="423" spans="1:7">
       <c r="A423" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B423" s="38" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C423" s="38" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D423" s="40" t="s">
         <v>724</v>
       </c>
       <c r="E423" s="40"/>
-      <c r="F423" s="40"/>
+      <c r="F423" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G423" s="38"/>
     </row>
     <row r="424" spans="1:7">
@@ -15846,67 +16024,73 @@
         <v>58</v>
       </c>
       <c r="B424" s="38" t="s">
-        <v>727</v>
-      </c>
-      <c r="C424" s="41" t="s">
-        <v>626</v>
-      </c>
-      <c r="D424" s="41"/>
-      <c r="E424" s="41"/>
-      <c r="F424" s="41"/>
-      <c r="G424" s="41"/>
+        <v>725</v>
+      </c>
+      <c r="C424" s="38" t="s">
+        <v>726</v>
+      </c>
+      <c r="D424" s="40" t="s">
+        <v>724</v>
+      </c>
+      <c r="E424" s="40"/>
+      <c r="F424" s="38" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G424" s="38"/>
     </row>
     <row r="425" spans="1:7">
       <c r="A425" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B425" s="38" t="s">
-        <v>728</v>
-      </c>
-      <c r="C425" s="44" t="s">
-        <v>590</v>
-      </c>
-      <c r="D425" s="40" t="s">
-        <v>591</v>
-      </c>
-      <c r="E425" s="40"/>
-      <c r="F425" s="40"/>
-      <c r="G425" s="44" t="s">
-        <v>729</v>
-      </c>
+        <v>727</v>
+      </c>
+      <c r="C425" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D425" s="41"/>
+      <c r="E425" s="41"/>
+      <c r="F425" s="41"/>
+      <c r="G425" s="41"/>
     </row>
     <row r="426" spans="1:7">
       <c r="A426" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B426" s="38" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C426" s="44" t="s">
-        <v>731</v>
+        <v>590</v>
       </c>
       <c r="D426" s="40" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E426" s="40"/>
-      <c r="F426" s="40"/>
-      <c r="G426" s="44"/>
+      <c r="F426" s="38" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G426" s="44" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="427" spans="1:7">
       <c r="A427" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B427" s="38" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C427" s="44" t="s">
-        <v>631</v>
+        <v>731</v>
       </c>
       <c r="D427" s="40" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E427" s="40"/>
-      <c r="F427" s="40"/>
+      <c r="F427" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G427" s="44"/>
     </row>
     <row r="428" spans="1:7">
@@ -15914,267 +16098,275 @@
         <v>58</v>
       </c>
       <c r="B428" s="38" t="s">
-        <v>733</v>
-      </c>
-      <c r="C428" s="38" t="s">
-        <v>633</v>
+        <v>732</v>
+      </c>
+      <c r="C428" s="44" t="s">
+        <v>631</v>
       </c>
       <c r="D428" s="40" t="s">
         <v>597</v>
       </c>
       <c r="E428" s="40"/>
-      <c r="F428" s="40"/>
-      <c r="G428" s="38"/>
+      <c r="F428" s="38" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G428" s="44"/>
     </row>
     <row r="429" spans="1:7">
       <c r="A429" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B429" s="38" t="s">
+        <v>733</v>
+      </c>
+      <c r="C429" s="38" t="s">
+        <v>633</v>
+      </c>
+      <c r="D429" s="40" t="s">
+        <v>597</v>
+      </c>
+      <c r="E429" s="40"/>
+      <c r="F429" s="38" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G429" s="38"/>
+    </row>
+    <row r="430" spans="1:7">
+      <c r="A430" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B430" s="38" t="s">
         <v>734</v>
       </c>
-      <c r="C429" s="44" t="s">
+      <c r="C430" s="44" t="s">
         <v>599</v>
       </c>
-      <c r="D429" s="40" t="s">
+      <c r="D430" s="40" t="s">
         <v>600</v>
       </c>
-      <c r="E429" s="40"/>
-      <c r="F429" s="40"/>
-      <c r="G429" s="44"/>
-    </row>
-    <row r="430" spans="1:7" ht="30">
-      <c r="A430" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B430" s="38" t="s">
+      <c r="E430" s="40"/>
+      <c r="F430" s="38" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G430" s="44"/>
+    </row>
+    <row r="431" spans="1:7" ht="30">
+      <c r="A431" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B431" s="38" t="s">
         <v>735</v>
       </c>
-      <c r="C430" s="44" t="s">
+      <c r="C431" s="44" t="s">
         <v>688</v>
       </c>
-      <c r="D430" s="40" t="s">
+      <c r="D431" s="40" t="s">
         <v>603</v>
       </c>
-      <c r="E430" s="40"/>
-      <c r="F430" s="40"/>
-      <c r="G430" s="44"/>
-    </row>
-    <row r="431" spans="1:7">
-      <c r="A431" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B431" s="38" t="s">
+      <c r="E431" s="40"/>
+      <c r="F431" s="38" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G431" s="44"/>
+    </row>
+    <row r="432" spans="1:7">
+      <c r="A432" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B432" s="38" t="s">
         <v>736</v>
       </c>
-      <c r="C431" s="41" t="s">
+      <c r="C432" s="41" t="s">
         <v>605</v>
       </c>
-      <c r="D431" s="41"/>
-      <c r="E431" s="41"/>
-      <c r="F431" s="41"/>
-      <c r="G431" s="41"/>
-    </row>
-    <row r="432" spans="1:7" ht="45">
-      <c r="A432" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B432" s="38" t="s">
+      <c r="D432" s="41"/>
+      <c r="E432" s="41"/>
+      <c r="F432" s="41"/>
+      <c r="G432" s="41"/>
+    </row>
+    <row r="433" spans="1:7" ht="45">
+      <c r="A433" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B433" s="38" t="s">
         <v>737</v>
       </c>
-      <c r="C432" s="44" t="s">
+      <c r="C433" s="44" t="s">
         <v>608</v>
-      </c>
-      <c r="D432" s="40" t="s">
-        <v>606</v>
-      </c>
-      <c r="E432" s="40"/>
-      <c r="F432" s="40"/>
-      <c r="G432" s="44" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="433" spans="1:7" ht="30">
-      <c r="A433" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B433" s="38" t="s">
-        <v>739</v>
-      </c>
-      <c r="C433" s="44" t="s">
-        <v>610</v>
       </c>
       <c r="D433" s="40" t="s">
         <v>606</v>
       </c>
       <c r="E433" s="40"/>
       <c r="F433" s="40"/>
-      <c r="G433" s="44"/>
-    </row>
-    <row r="434" spans="1:7">
+      <c r="G433" s="44" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" ht="30">
       <c r="A434" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B434" s="38" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C434" s="44" t="s">
-        <v>741</v>
+        <v>610</v>
       </c>
       <c r="D434" s="40" t="s">
         <v>606</v>
       </c>
       <c r="E434" s="40"/>
       <c r="F434" s="40"/>
-      <c r="G434" s="44" t="s">
-        <v>606</v>
-      </c>
+      <c r="G434" s="44"/>
     </row>
     <row r="435" spans="1:7">
       <c r="A435" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B435" s="38" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C435" s="44" t="s">
-        <v>690</v>
-      </c>
-      <c r="D435" s="38" t="s">
-        <v>618</v>
+        <v>741</v>
+      </c>
+      <c r="D435" s="40" t="s">
+        <v>606</v>
       </c>
       <c r="E435" s="40"/>
       <c r="F435" s="40"/>
-      <c r="G435" s="44"/>
+      <c r="G435" s="44" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="436" spans="1:7">
       <c r="A436" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B436" s="38" t="s">
-        <v>743</v>
-      </c>
-      <c r="C436" s="41" t="s">
-        <v>620</v>
-      </c>
-      <c r="D436" s="41"/>
-      <c r="E436" s="41"/>
-      <c r="F436" s="41"/>
-      <c r="G436" s="41"/>
+        <v>742</v>
+      </c>
+      <c r="C436" s="44" t="s">
+        <v>690</v>
+      </c>
+      <c r="D436" s="38" t="s">
+        <v>618</v>
+      </c>
+      <c r="E436" s="40"/>
+      <c r="F436" s="40"/>
+      <c r="G436" s="44"/>
     </row>
     <row r="437" spans="1:7">
       <c r="A437" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B437" s="38" t="s">
-        <v>744</v>
-      </c>
-      <c r="C437" s="44" t="s">
-        <v>622</v>
-      </c>
-      <c r="D437" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="E437" s="40"/>
-      <c r="F437" s="40"/>
-      <c r="G437" s="44" t="s">
-        <v>1107</v>
-      </c>
+        <v>743</v>
+      </c>
+      <c r="C437" s="41" t="s">
+        <v>620</v>
+      </c>
+      <c r="D437" s="41"/>
+      <c r="E437" s="41"/>
+      <c r="F437" s="41"/>
+      <c r="G437" s="41"/>
     </row>
     <row r="438" spans="1:7">
       <c r="A438" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B438" s="38" t="s">
-        <v>745</v>
-      </c>
-      <c r="C438" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D438" s="40" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E438" s="40" t="s">
-        <v>1133</v>
-      </c>
+        <v>744</v>
+      </c>
+      <c r="C438" s="44" t="s">
+        <v>622</v>
+      </c>
+      <c r="D438" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="E438" s="40"/>
       <c r="F438" s="40"/>
-      <c r="G438" s="38"/>
+      <c r="G438" s="44" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="439" spans="1:7">
       <c r="A439" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B439" s="38" t="s">
-        <v>746</v>
-      </c>
-      <c r="C439" s="41" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D439" s="41"/>
-      <c r="E439" s="41"/>
-      <c r="F439" s="41"/>
-      <c r="G439" s="41"/>
+        <v>745</v>
+      </c>
+      <c r="C439" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="D439" s="40" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E439" s="40" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F439" s="40"/>
+      <c r="G439" s="38"/>
     </row>
     <row r="440" spans="1:7">
       <c r="A440" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B440" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="C440" s="40" t="s">
-        <v>635</v>
-      </c>
-      <c r="D440" s="38" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E440" s="38" t="s">
-        <v>636</v>
-      </c>
-      <c r="F440" s="38"/>
-      <c r="G440" s="38"/>
+        <v>746</v>
+      </c>
+      <c r="C440" s="41" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D440" s="41"/>
+      <c r="E440" s="41"/>
+      <c r="F440" s="41"/>
+      <c r="G440" s="41"/>
     </row>
     <row r="441" spans="1:7">
       <c r="A441" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B441" s="38">
-        <v>11.5</v>
-      </c>
-      <c r="C441" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D441" s="41"/>
-      <c r="E441" s="41"/>
-      <c r="F441" s="41"/>
-      <c r="G441" s="37"/>
+      <c r="B441" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="C441" s="40" t="s">
+        <v>635</v>
+      </c>
+      <c r="D441" s="38" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E441" s="38" t="s">
+        <v>636</v>
+      </c>
+      <c r="F441" s="38"/>
+      <c r="G441" s="38"/>
     </row>
     <row r="442" spans="1:7">
       <c r="A442" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B442" s="38" t="s">
-        <v>752</v>
-      </c>
-      <c r="C442" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D442" s="38"/>
-      <c r="E442" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="F442" s="44"/>
-      <c r="G442" s="44"/>
+      <c r="B442" s="38">
+        <v>11.5</v>
+      </c>
+      <c r="C442" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D442" s="41"/>
+      <c r="E442" s="41"/>
+      <c r="F442" s="41"/>
+      <c r="G442" s="37"/>
     </row>
     <row r="443" spans="1:7">
       <c r="A443" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B443" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C443" s="44" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D443" s="38"/>
       <c r="E443" s="44" t="s">
@@ -16188,10 +16380,10 @@
         <v>58</v>
       </c>
       <c r="B444" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C444" s="44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D444" s="38"/>
       <c r="E444" s="44" t="s">
@@ -16204,43 +16396,43 @@
       <c r="A445" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B445" s="38">
-        <v>11.6</v>
-      </c>
-      <c r="C445" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D445" s="41"/>
-      <c r="E445" s="37"/>
-      <c r="F445" s="37"/>
-      <c r="G445" s="37"/>
+      <c r="B445" s="38" t="s">
+        <v>754</v>
+      </c>
+      <c r="C445" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D445" s="38"/>
+      <c r="E445" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="F445" s="44"/>
+      <c r="G445" s="44"/>
     </row>
     <row r="446" spans="1:7">
       <c r="A446" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B446" s="38" t="s">
-        <v>755</v>
-      </c>
-      <c r="C446" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D446" s="38"/>
-      <c r="E446" s="44" t="s">
-        <v>279</v>
-      </c>
-      <c r="F446" s="44"/>
-      <c r="G446" s="44"/>
+      <c r="B446" s="38">
+        <v>11.6</v>
+      </c>
+      <c r="C446" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D446" s="41"/>
+      <c r="E446" s="37"/>
+      <c r="F446" s="37"/>
+      <c r="G446" s="37"/>
     </row>
     <row r="447" spans="1:7">
       <c r="A447" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B447" s="38" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C447" s="44" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D447" s="38"/>
       <c r="E447" s="44" t="s">
@@ -16253,77 +16445,77 @@
       <c r="A448" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B448" s="38">
-        <v>11.7</v>
-      </c>
-      <c r="C448" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D448" s="41"/>
-      <c r="E448" s="41"/>
-      <c r="F448" s="41"/>
-      <c r="G448" s="37"/>
+      <c r="B448" s="38" t="s">
+        <v>756</v>
+      </c>
+      <c r="C448" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D448" s="38"/>
+      <c r="E448" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="F448" s="44"/>
+      <c r="G448" s="44"/>
     </row>
     <row r="449" spans="1:7">
       <c r="A449" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B449" s="38" t="s">
-        <v>757</v>
-      </c>
-      <c r="C449" s="41" t="s">
-        <v>42</v>
+      <c r="B449" s="38">
+        <v>11.7</v>
+      </c>
+      <c r="C449" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="D449" s="41"/>
       <c r="E449" s="41"/>
       <c r="F449" s="41"/>
-      <c r="G449" s="41"/>
-    </row>
-    <row r="450" spans="1:7" ht="45">
+      <c r="G449" s="37"/>
+    </row>
+    <row r="450" spans="1:7">
       <c r="A450" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B450" s="38" t="s">
+        <v>757</v>
+      </c>
+      <c r="C450" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D450" s="41"/>
+      <c r="E450" s="41"/>
+      <c r="F450" s="41"/>
+      <c r="G450" s="41"/>
+    </row>
+    <row r="451" spans="1:7" ht="45">
+      <c r="A451" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B451" s="38" t="s">
         <v>758</v>
       </c>
-      <c r="C450" s="44" t="s">
+      <c r="C451" s="44" t="s">
         <v>672</v>
       </c>
-      <c r="D450" s="38">
+      <c r="D451" s="38">
         <v>78.3</v>
-      </c>
-      <c r="E450" s="38"/>
-      <c r="F450" s="38"/>
-      <c r="G450" s="44" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="451" spans="1:7">
-      <c r="A451" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B451" s="38" t="s">
-        <v>759</v>
-      </c>
-      <c r="C451" s="44" t="s">
-        <v>704</v>
-      </c>
-      <c r="D451" s="38">
-        <v>78.099999999999994</v>
       </c>
       <c r="E451" s="38"/>
       <c r="F451" s="38"/>
-      <c r="G451" s="44"/>
+      <c r="G451" s="44" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="452" spans="1:7">
       <c r="A452" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B452" s="38" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C452" s="44" t="s">
-        <v>676</v>
+        <v>704</v>
       </c>
       <c r="D452" s="38">
         <v>78.099999999999994</v>
@@ -16337,25 +16529,27 @@
         <v>58</v>
       </c>
       <c r="B453" s="38" t="s">
-        <v>761</v>
-      </c>
-      <c r="C453" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D453" s="41"/>
-      <c r="E453" s="41"/>
-      <c r="F453" s="41"/>
-      <c r="G453" s="41"/>
+        <v>760</v>
+      </c>
+      <c r="C453" s="44" t="s">
+        <v>676</v>
+      </c>
+      <c r="D453" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E453" s="38"/>
+      <c r="F453" s="38"/>
+      <c r="G453" s="44"/>
     </row>
     <row r="454" spans="1:7">
       <c r="A454" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B454" s="38" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C454" s="41" t="s">
-        <v>644</v>
+        <v>43</v>
       </c>
       <c r="D454" s="41"/>
       <c r="E454" s="41"/>
@@ -16367,66 +16561,64 @@
         <v>58</v>
       </c>
       <c r="B455" s="38" t="s">
-        <v>763</v>
-      </c>
-      <c r="C455" s="44" t="s">
-        <v>764</v>
-      </c>
-      <c r="D455" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="E455" s="38"/>
-      <c r="F455" s="38"/>
-      <c r="G455" s="44" t="s">
-        <v>1110</v>
-      </c>
+        <v>762</v>
+      </c>
+      <c r="C455" s="41" t="s">
+        <v>644</v>
+      </c>
+      <c r="D455" s="41"/>
+      <c r="E455" s="41"/>
+      <c r="F455" s="41"/>
+      <c r="G455" s="41"/>
     </row>
     <row r="456" spans="1:7">
       <c r="A456" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B456" s="38" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C456" s="44" t="s">
-        <v>713</v>
+        <v>764</v>
       </c>
       <c r="D456" s="38" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E456" s="38"/>
       <c r="F456" s="38"/>
-      <c r="G456" s="44"/>
+      <c r="G456" s="44" t="s">
+        <v>1110</v>
+      </c>
     </row>
     <row r="457" spans="1:7">
       <c r="A457" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B457" s="38" t="s">
-        <v>766</v>
-      </c>
-      <c r="C457" s="40" t="s">
-        <v>767</v>
+        <v>765</v>
+      </c>
+      <c r="C457" s="44" t="s">
+        <v>713</v>
       </c>
       <c r="D457" s="38" t="s">
-        <v>1111</v>
+        <v>580</v>
       </c>
       <c r="E457" s="38"/>
       <c r="F457" s="38"/>
-      <c r="G457" s="38"/>
+      <c r="G457" s="44"/>
     </row>
     <row r="458" spans="1:7">
       <c r="A458" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B458" s="38" t="s">
-        <v>768</v>
-      </c>
-      <c r="C458" s="38" t="s">
-        <v>769</v>
+        <v>766</v>
+      </c>
+      <c r="C458" s="40" t="s">
+        <v>767</v>
       </c>
       <c r="D458" s="38" t="s">
-        <v>618</v>
+        <v>1111</v>
       </c>
       <c r="E458" s="38"/>
       <c r="F458" s="38"/>
@@ -16437,45 +16629,45 @@
         <v>58</v>
       </c>
       <c r="B459" s="38" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C459" s="38" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D459" s="38"/>
+        <v>769</v>
+      </c>
+      <c r="D459" s="38" t="s">
+        <v>618</v>
+      </c>
       <c r="E459" s="38"/>
       <c r="F459" s="38"/>
       <c r="G459" s="38"/>
     </row>
-    <row r="460" spans="1:7" ht="30">
+    <row r="460" spans="1:7">
       <c r="A460" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B460" s="38" t="s">
-        <v>1131</v>
+        <v>770</v>
       </c>
       <c r="C460" s="38" t="s">
-        <v>771</v>
-      </c>
-      <c r="D460" s="38" t="s">
-        <v>586</v>
-      </c>
+        <v>1130</v>
+      </c>
+      <c r="D460" s="38"/>
       <c r="E460" s="38"/>
       <c r="F460" s="38"/>
       <c r="G460" s="38"/>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" ht="30">
       <c r="A461" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B461" s="38" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C461" s="38" t="s">
-        <v>1129</v>
+        <v>771</v>
       </c>
       <c r="D461" s="38" t="s">
-        <v>724</v>
+        <v>586</v>
       </c>
       <c r="E461" s="38"/>
       <c r="F461" s="38"/>
@@ -16486,115 +16678,115 @@
         <v>58</v>
       </c>
       <c r="B462" s="38" t="s">
-        <v>773</v>
-      </c>
-      <c r="C462" s="41" t="s">
-        <v>620</v>
-      </c>
-      <c r="D462" s="41"/>
-      <c r="E462" s="41"/>
-      <c r="F462" s="41"/>
-      <c r="G462" s="41"/>
+        <v>1132</v>
+      </c>
+      <c r="C462" s="38" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D462" s="38" t="s">
+        <v>724</v>
+      </c>
+      <c r="E462" s="38"/>
+      <c r="F462" s="38"/>
+      <c r="G462" s="38"/>
     </row>
     <row r="463" spans="1:7">
       <c r="A463" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B463" s="38" t="s">
-        <v>774</v>
-      </c>
-      <c r="C463" s="44" t="s">
-        <v>622</v>
-      </c>
-      <c r="D463" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="E463" s="38"/>
-      <c r="F463" s="38"/>
-      <c r="G463" s="44" t="s">
-        <v>1107</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="C463" s="41" t="s">
+        <v>620</v>
+      </c>
+      <c r="D463" s="41"/>
+      <c r="E463" s="41"/>
+      <c r="F463" s="41"/>
+      <c r="G463" s="41"/>
     </row>
     <row r="464" spans="1:7">
       <c r="A464" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B464" s="38" t="s">
-        <v>775</v>
-      </c>
-      <c r="C464" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D464" s="40" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E464" s="40"/>
-      <c r="F464" s="40"/>
-      <c r="G464" s="38"/>
+        <v>774</v>
+      </c>
+      <c r="C464" s="44" t="s">
+        <v>622</v>
+      </c>
+      <c r="D464" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="E464" s="38"/>
+      <c r="F464" s="38"/>
+      <c r="G464" s="44" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="465" spans="1:7">
       <c r="A465" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B465" s="38" t="s">
-        <v>776</v>
-      </c>
-      <c r="C465" s="41" t="s">
-        <v>626</v>
-      </c>
-      <c r="D465" s="41"/>
-      <c r="E465" s="41"/>
-      <c r="F465" s="41"/>
-      <c r="G465" s="41"/>
+        <v>775</v>
+      </c>
+      <c r="C465" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="D465" s="40" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E465" s="40"/>
+      <c r="F465" s="40"/>
+      <c r="G465" s="38"/>
     </row>
     <row r="466" spans="1:7">
       <c r="A466" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B466" s="38" t="s">
-        <v>777</v>
-      </c>
-      <c r="C466" s="44" t="s">
-        <v>590</v>
-      </c>
-      <c r="D466" s="38" t="s">
-        <v>591</v>
-      </c>
-      <c r="E466" s="38"/>
-      <c r="F466" s="38"/>
-      <c r="G466" s="44" t="s">
-        <v>1108</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="C466" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D466" s="41"/>
+      <c r="E466" s="41"/>
+      <c r="F466" s="41"/>
+      <c r="G466" s="41"/>
     </row>
     <row r="467" spans="1:7">
       <c r="A467" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B467" s="38" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C467" s="44" t="s">
-        <v>666</v>
+        <v>590</v>
       </c>
       <c r="D467" s="38" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E467" s="38"/>
       <c r="F467" s="38"/>
-      <c r="G467" s="44"/>
+      <c r="G467" s="44" t="s">
+        <v>1108</v>
+      </c>
     </row>
     <row r="468" spans="1:7">
       <c r="A468" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B468" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C468" s="44" t="s">
-        <v>631</v>
+        <v>666</v>
       </c>
       <c r="D468" s="38" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E468" s="38"/>
       <c r="F468" s="38"/>
@@ -16605,34 +16797,51 @@
         <v>58</v>
       </c>
       <c r="B469" s="38" t="s">
-        <v>780</v>
-      </c>
-      <c r="C469" s="38" t="s">
-        <v>633</v>
+        <v>779</v>
+      </c>
+      <c r="C469" s="44" t="s">
+        <v>631</v>
       </c>
       <c r="D469" s="38" t="s">
-        <v>1112</v>
+        <v>597</v>
       </c>
       <c r="E469" s="38"/>
       <c r="F469" s="38"/>
-      <c r="G469" s="38"/>
+      <c r="G469" s="44"/>
     </row>
     <row r="470" spans="1:7">
       <c r="A470" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B470" s="38" t="s">
-        <v>781</v>
-      </c>
-      <c r="C470" s="40" t="s">
-        <v>635</v>
+        <v>780</v>
+      </c>
+      <c r="C470" s="38" t="s">
+        <v>633</v>
       </c>
       <c r="D470" s="38" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="E470" s="38"/>
       <c r="F470" s="38"/>
       <c r="G470" s="38"/>
+    </row>
+    <row r="471" spans="1:7">
+      <c r="A471" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B471" s="38" t="s">
+        <v>781</v>
+      </c>
+      <c r="C471" s="40" t="s">
+        <v>635</v>
+      </c>
+      <c r="D471" s="38" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E471" s="38"/>
+      <c r="F471" s="38"/>
+      <c r="G471" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -18587,7 +18796,7 @@
         <v>856</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
@@ -18606,7 +18815,7 @@
         <v>857</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -18635,16 +18844,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="32" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B43" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C43" s="32" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D43" s="32" t="s">
         <v>1180</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>1181</v>
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="32" t="s">
@@ -18654,16 +18863,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="32" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B44" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="32" t="s">
@@ -18673,16 +18882,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="32" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B45" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="32" t="s">
@@ -18692,16 +18901,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="32" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B46" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="32" t="s">
@@ -18711,16 +18920,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="32" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B47" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="32" t="s">
@@ -18730,16 +18939,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="32" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B48" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="32" t="s">
@@ -18749,16 +18958,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="32" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B49" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="32" t="s">
@@ -18768,16 +18977,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="32" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B50" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="32" t="s">
@@ -18787,16 +18996,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="32" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B51" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="32" t="s">
@@ -18806,16 +19015,16 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="32" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B52" s="32" t="s">
         <v>840</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="32" t="s">
@@ -18825,16 +19034,16 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="32" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B53" s="32" t="s">
         <v>840</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="32" t="s">
@@ -18844,16 +19053,16 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="32" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>848</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E54" s="32"/>
       <c r="F54" s="32" t="s">
@@ -18863,16 +19072,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="32" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B55" s="32" t="s">
         <v>1095</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E55" s="32"/>
       <c r="F55" s="32" t="s">
@@ -18894,8 +19103,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:IV49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G49"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -20346,7 +20555,7 @@
   <dimension ref="A1:IV30"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -21080,7 +21289,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
     </row>
-    <row r="25" spans="1:7" ht="31.5">
+    <row r="25" spans="1:7" ht="47.25">
       <c r="A25" s="32" t="s">
         <v>1162</v>
       </c>
@@ -21091,7 +21300,7 @@
         <v>1163</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>1164</v>
+        <v>1294</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -21099,16 +21308,16 @@
     </row>
     <row r="26" spans="1:7" ht="31.5">
       <c r="A26" s="32" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>1159</v>
       </c>
       <c r="C26" s="32" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D26" s="32" t="s">
         <v>1166</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>1167</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
@@ -21116,16 +21325,16 @@
     </row>
     <row r="27" spans="1:7" ht="47.25">
       <c r="A27" s="32" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B27" s="32" t="s">
         <v>1159</v>
       </c>
       <c r="C27" s="32" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D27" s="32" t="s">
         <v>1169</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>1170</v>
       </c>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
@@ -21133,16 +21342,16 @@
     </row>
     <row r="28" spans="1:7" ht="47.25">
       <c r="A28" s="32" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B28" s="32" t="s">
         <v>1159</v>
       </c>
       <c r="C28" s="32" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D28" s="32" t="s">
         <v>1172</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>1173</v>
       </c>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
@@ -21150,16 +21359,16 @@
     </row>
     <row r="29" spans="1:7" ht="31.5">
       <c r="A29" s="32" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B29" s="32" t="s">
         <v>1159</v>
       </c>
       <c r="C29" s="32" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D29" s="32" t="s">
         <v>1175</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>1176</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
@@ -21167,16 +21376,16 @@
     </row>
     <row r="30" spans="1:7" ht="47.25">
       <c r="A30" s="32" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B30" s="32" t="s">
         <v>1159</v>
       </c>
       <c r="C30" s="32" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D30" s="32" t="s">
         <v>1178</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>1179</v>
       </c>
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
@@ -21184,7 +21393,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;P</oddFooter>
   </headerFooter>
@@ -21197,7 +21406,7 @@
   <dimension ref="A1:IV4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -21206,14 +21415,14 @@
     <col min="2" max="2" width="54.625" style="4" customWidth="1"/>
     <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
     <col min="4" max="4" width="75.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="56.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="132.375" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
     <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
     <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:256">
       <c r="A1" s="5" t="s">
         <v>782</v>
       </c>
@@ -21236,28 +21445,277 @@
         <v>788</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="31.5">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:256" s="61" customFormat="1" ht="63">
+      <c r="A2" s="8" t="s">
         <v>1031</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>1032</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>1033</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1287</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>1292</v>
-      </c>
-      <c r="F2" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>790</v>
       </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="47.25">
+      <c r="G2" s="28"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="60"/>
+      <c r="AP2" s="60"/>
+      <c r="AQ2" s="60"/>
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="60"/>
+      <c r="AT2" s="60"/>
+      <c r="AU2" s="60"/>
+      <c r="AV2" s="60"/>
+      <c r="AW2" s="60"/>
+      <c r="AX2" s="60"/>
+      <c r="AY2" s="60"/>
+      <c r="AZ2" s="60"/>
+      <c r="BA2" s="60"/>
+      <c r="BB2" s="60"/>
+      <c r="BC2" s="60"/>
+      <c r="BD2" s="60"/>
+      <c r="BE2" s="60"/>
+      <c r="BF2" s="60"/>
+      <c r="BG2" s="60"/>
+      <c r="BH2" s="60"/>
+      <c r="BI2" s="60"/>
+      <c r="BJ2" s="60"/>
+      <c r="BK2" s="60"/>
+      <c r="BL2" s="60"/>
+      <c r="BM2" s="60"/>
+      <c r="BN2" s="60"/>
+      <c r="BO2" s="60"/>
+      <c r="BP2" s="60"/>
+      <c r="BQ2" s="60"/>
+      <c r="BR2" s="60"/>
+      <c r="BS2" s="60"/>
+      <c r="BT2" s="60"/>
+      <c r="BU2" s="60"/>
+      <c r="BV2" s="60"/>
+      <c r="BW2" s="60"/>
+      <c r="BX2" s="60"/>
+      <c r="BY2" s="60"/>
+      <c r="BZ2" s="60"/>
+      <c r="CA2" s="60"/>
+      <c r="CB2" s="60"/>
+      <c r="CC2" s="60"/>
+      <c r="CD2" s="60"/>
+      <c r="CE2" s="60"/>
+      <c r="CF2" s="60"/>
+      <c r="CG2" s="60"/>
+      <c r="CH2" s="60"/>
+      <c r="CI2" s="60"/>
+      <c r="CJ2" s="60"/>
+      <c r="CK2" s="60"/>
+      <c r="CL2" s="60"/>
+      <c r="CM2" s="60"/>
+      <c r="CN2" s="60"/>
+      <c r="CO2" s="60"/>
+      <c r="CP2" s="60"/>
+      <c r="CQ2" s="60"/>
+      <c r="CR2" s="60"/>
+      <c r="CS2" s="60"/>
+      <c r="CT2" s="60"/>
+      <c r="CU2" s="60"/>
+      <c r="CV2" s="60"/>
+      <c r="CW2" s="60"/>
+      <c r="CX2" s="60"/>
+      <c r="CY2" s="60"/>
+      <c r="CZ2" s="60"/>
+      <c r="DA2" s="60"/>
+      <c r="DB2" s="60"/>
+      <c r="DC2" s="60"/>
+      <c r="DD2" s="60"/>
+      <c r="DE2" s="60"/>
+      <c r="DF2" s="60"/>
+      <c r="DG2" s="60"/>
+      <c r="DH2" s="60"/>
+      <c r="DI2" s="60"/>
+      <c r="DJ2" s="60"/>
+      <c r="DK2" s="60"/>
+      <c r="DL2" s="60"/>
+      <c r="DM2" s="60"/>
+      <c r="DN2" s="60"/>
+      <c r="DO2" s="60"/>
+      <c r="DP2" s="60"/>
+      <c r="DQ2" s="60"/>
+      <c r="DR2" s="60"/>
+      <c r="DS2" s="60"/>
+      <c r="DT2" s="60"/>
+      <c r="DU2" s="60"/>
+      <c r="DV2" s="60"/>
+      <c r="DW2" s="60"/>
+      <c r="DX2" s="60"/>
+      <c r="DY2" s="60"/>
+      <c r="DZ2" s="60"/>
+      <c r="EA2" s="60"/>
+      <c r="EB2" s="60"/>
+      <c r="EC2" s="60"/>
+      <c r="ED2" s="60"/>
+      <c r="EE2" s="60"/>
+      <c r="EF2" s="60"/>
+      <c r="EG2" s="60"/>
+      <c r="EH2" s="60"/>
+      <c r="EI2" s="60"/>
+      <c r="EJ2" s="60"/>
+      <c r="EK2" s="60"/>
+      <c r="EL2" s="60"/>
+      <c r="EM2" s="60"/>
+      <c r="EN2" s="60"/>
+      <c r="EO2" s="60"/>
+      <c r="EP2" s="60"/>
+      <c r="EQ2" s="60"/>
+      <c r="ER2" s="60"/>
+      <c r="ES2" s="60"/>
+      <c r="ET2" s="60"/>
+      <c r="EU2" s="60"/>
+      <c r="EV2" s="60"/>
+      <c r="EW2" s="60"/>
+      <c r="EX2" s="60"/>
+      <c r="EY2" s="60"/>
+      <c r="EZ2" s="60"/>
+      <c r="FA2" s="60"/>
+      <c r="FB2" s="60"/>
+      <c r="FC2" s="60"/>
+      <c r="FD2" s="60"/>
+      <c r="FE2" s="60"/>
+      <c r="FF2" s="60"/>
+      <c r="FG2" s="60"/>
+      <c r="FH2" s="60"/>
+      <c r="FI2" s="60"/>
+      <c r="FJ2" s="60"/>
+      <c r="FK2" s="60"/>
+      <c r="FL2" s="60"/>
+      <c r="FM2" s="60"/>
+      <c r="FN2" s="60"/>
+      <c r="FO2" s="60"/>
+      <c r="FP2" s="60"/>
+      <c r="FQ2" s="60"/>
+      <c r="FR2" s="60"/>
+      <c r="FS2" s="60"/>
+      <c r="FT2" s="60"/>
+      <c r="FU2" s="60"/>
+      <c r="FV2" s="60"/>
+      <c r="FW2" s="60"/>
+      <c r="FX2" s="60"/>
+      <c r="FY2" s="60"/>
+      <c r="FZ2" s="60"/>
+      <c r="GA2" s="60"/>
+      <c r="GB2" s="60"/>
+      <c r="GC2" s="60"/>
+      <c r="GD2" s="60"/>
+      <c r="GE2" s="60"/>
+      <c r="GF2" s="60"/>
+      <c r="GG2" s="60"/>
+      <c r="GH2" s="60"/>
+      <c r="GI2" s="60"/>
+      <c r="GJ2" s="60"/>
+      <c r="GK2" s="60"/>
+      <c r="GL2" s="60"/>
+      <c r="GM2" s="60"/>
+      <c r="GN2" s="60"/>
+      <c r="GO2" s="60"/>
+      <c r="GP2" s="60"/>
+      <c r="GQ2" s="60"/>
+      <c r="GR2" s="60"/>
+      <c r="GS2" s="60"/>
+      <c r="GT2" s="60"/>
+      <c r="GU2" s="60"/>
+      <c r="GV2" s="60"/>
+      <c r="GW2" s="60"/>
+      <c r="GX2" s="60"/>
+      <c r="GY2" s="60"/>
+      <c r="GZ2" s="60"/>
+      <c r="HA2" s="60"/>
+      <c r="HB2" s="60"/>
+      <c r="HC2" s="60"/>
+      <c r="HD2" s="60"/>
+      <c r="HE2" s="60"/>
+      <c r="HF2" s="60"/>
+      <c r="HG2" s="60"/>
+      <c r="HH2" s="60"/>
+      <c r="HI2" s="60"/>
+      <c r="HJ2" s="60"/>
+      <c r="HK2" s="60"/>
+      <c r="HL2" s="60"/>
+      <c r="HM2" s="60"/>
+      <c r="HN2" s="60"/>
+      <c r="HO2" s="60"/>
+      <c r="HP2" s="60"/>
+      <c r="HQ2" s="60"/>
+      <c r="HR2" s="60"/>
+      <c r="HS2" s="60"/>
+      <c r="HT2" s="60"/>
+      <c r="HU2" s="60"/>
+      <c r="HV2" s="60"/>
+      <c r="HW2" s="60"/>
+      <c r="HX2" s="60"/>
+      <c r="HY2" s="60"/>
+      <c r="HZ2" s="60"/>
+      <c r="IA2" s="60"/>
+      <c r="IB2" s="60"/>
+      <c r="IC2" s="60"/>
+      <c r="ID2" s="60"/>
+      <c r="IE2" s="60"/>
+      <c r="IF2" s="60"/>
+      <c r="IG2" s="60"/>
+      <c r="IH2" s="60"/>
+      <c r="II2" s="60"/>
+      <c r="IJ2" s="60"/>
+      <c r="IK2" s="60"/>
+      <c r="IL2" s="60"/>
+      <c r="IM2" s="60"/>
+      <c r="IN2" s="60"/>
+      <c r="IO2" s="60"/>
+      <c r="IP2" s="60"/>
+      <c r="IQ2" s="60"/>
+      <c r="IR2" s="60"/>
+      <c r="IS2" s="60"/>
+      <c r="IT2" s="60"/>
+      <c r="IU2" s="60"/>
+      <c r="IV2" s="60"/>
+    </row>
+    <row r="3" spans="1:256" ht="31.5">
       <c r="A3" s="5" t="s">
         <v>1034</v>
       </c>
@@ -21268,17 +21726,17 @@
         <v>1035</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>1288</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>1289</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>790</v>
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="63">
+    <row r="4" spans="1:256" ht="63">
       <c r="A4" s="5" t="s">
         <v>1036</v>
       </c>
@@ -21289,10 +21747,10 @@
         <v>1037</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>1290</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>1291</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>790</v>

--- a/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\gsa-devel\piv-conformance-swing\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7BEA43-F2B3-495E-A23A-137500F1D6D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87D595A-DBDD-42C6-85EB-1D796A0520F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="165" windowWidth="30570" windowHeight="16830" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="18472" windowHeight="11623" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -4727,17 +4727,17 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="57.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="57.35546875" style="4" customWidth="1"/>
     <col min="3" max="5" width="10.5" style="4" customWidth="1"/>
-    <col min="6" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
+    <col min="6" max="256" width="8.85546875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.85546875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A2" s="2">
         <v>8</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A3" s="3">
         <v>8.1</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>59</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>63</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>66</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>69</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>75</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>78</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>81</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>84</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>87</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>90</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A15" s="3">
         <v>8.1999999999999993</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>93</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>96</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>97</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="19" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>98</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>99</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="21" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>102</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>105</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>108</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>111</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>114</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>117</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="27" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>120</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>123</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="29" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>126</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="30" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>128</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="31" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>132</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="32" spans="1:2" ht="17.149999999999999" customHeight="1">
       <c r="A32" s="3">
         <v>8.3000000000000007</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="33" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>134</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="34" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>137</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="35" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>138</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="36" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>139</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="37" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>140</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="38" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>143</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="39" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>146</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="40" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>149</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="41" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>152</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="42" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>155</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="43" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A43" s="3">
         <v>8.4</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="44" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>156</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="45" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>159</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="46" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>160</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="47" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>161</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="48" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>162</v>
       </c>
@@ -5124,7 +5124,7 @@
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
     </row>
-    <row r="49" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="49" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>163</v>
       </c>
@@ -5135,7 +5135,7 @@
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
     </row>
-    <row r="50" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="50" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>164</v>
       </c>
@@ -5146,7 +5146,7 @@
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
     </row>
-    <row r="51" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="51" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>165</v>
       </c>
@@ -5157,7 +5157,7 @@
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
     </row>
-    <row r="52" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="52" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>166</v>
       </c>
@@ -5168,7 +5168,7 @@
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
     </row>
-    <row r="53" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="53" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A53" s="3">
         <v>8.5</v>
       </c>
@@ -5179,7 +5179,7 @@
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
     </row>
-    <row r="54" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="54" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>167</v>
       </c>
@@ -5190,7 +5190,7 @@
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
     </row>
-    <row r="55" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="55" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>170</v>
       </c>
@@ -5201,7 +5201,7 @@
       <c r="D55" s="18"/>
       <c r="E55" s="18"/>
     </row>
-    <row r="56" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="56" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>171</v>
       </c>
@@ -5212,7 +5212,7 @@
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
     </row>
-    <row r="57" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="57" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>172</v>
       </c>
@@ -5223,7 +5223,7 @@
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
     </row>
-    <row r="58" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="58" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>173</v>
       </c>
@@ -5234,7 +5234,7 @@
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
     </row>
-    <row r="59" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="59" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>176</v>
       </c>
@@ -5245,7 +5245,7 @@
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
     </row>
-    <row r="60" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="60" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>179</v>
       </c>
@@ -5256,7 +5256,7 @@
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
     </row>
-    <row r="61" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="61" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>182</v>
       </c>
@@ -5267,7 +5267,7 @@
       <c r="D61" s="18"/>
       <c r="E61" s="18"/>
     </row>
-    <row r="62" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="62" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>185</v>
       </c>
@@ -5278,7 +5278,7 @@
       <c r="D62" s="18"/>
       <c r="E62" s="18"/>
     </row>
-    <row r="63" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="63" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>188</v>
       </c>
@@ -5289,7 +5289,7 @@
       <c r="D63" s="18"/>
       <c r="E63" s="18"/>
     </row>
-    <row r="64" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="64" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A64" s="3">
         <v>8.6</v>
       </c>
@@ -5300,7 +5300,7 @@
       <c r="D64" s="18"/>
       <c r="E64" s="18"/>
     </row>
-    <row r="65" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="65" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>189</v>
       </c>
@@ -5311,7 +5311,7 @@
       <c r="D65" s="18"/>
       <c r="E65" s="18"/>
     </row>
-    <row r="66" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="66" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>192</v>
       </c>
@@ -5322,7 +5322,7 @@
       <c r="D66" s="18"/>
       <c r="E66" s="18"/>
     </row>
-    <row r="67" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="67" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>193</v>
       </c>
@@ -5333,7 +5333,7 @@
       <c r="D67" s="18"/>
       <c r="E67" s="18"/>
     </row>
-    <row r="68" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="68" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>194</v>
       </c>
@@ -5344,7 +5344,7 @@
       <c r="D68" s="18"/>
       <c r="E68" s="18"/>
     </row>
-    <row r="69" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="69" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>195</v>
       </c>
@@ -5355,7 +5355,7 @@
       <c r="D69" s="18"/>
       <c r="E69" s="18"/>
     </row>
-    <row r="70" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="70" spans="1:5" ht="17.149999999999999" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>198</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="31.5">
+    <row r="74" spans="1:5" ht="31.75">
       <c r="A74" s="3" t="s">
         <v>205</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="31.5">
+    <row r="85" spans="1:2" ht="31.75">
       <c r="A85" s="3" t="s">
         <v>217</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="31.5">
+    <row r="96" spans="1:2" ht="31.75">
       <c r="A96" s="3" t="s">
         <v>229</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="31.5">
+    <row r="114" spans="1:2" ht="31.75">
       <c r="A114" s="3" t="s">
         <v>255</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="28.5">
+    <row r="116" spans="1:2" ht="28.3">
       <c r="A116" s="3" t="s">
         <v>258</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="47.25">
+    <row r="121" spans="1:2" ht="47.6">
       <c r="A121" s="3" t="s">
         <v>267</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="63">
+    <row r="123" spans="1:2" ht="63.45">
       <c r="A123" s="3" t="s">
         <v>272</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="31.5">
+    <row r="142" spans="1:2" ht="31.75">
       <c r="A142" s="3" t="s">
         <v>296</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="31.5">
+    <row r="144" spans="1:2" ht="31.75">
       <c r="A144" s="3" t="s">
         <v>301</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="47.25">
+    <row r="145" spans="1:2" ht="31.75">
       <c r="A145" s="3" t="s">
         <v>303</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="47.25">
+    <row r="146" spans="1:2" ht="47.6">
       <c r="A146" s="3" t="s">
         <v>305</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="47.25">
+    <row r="149" spans="1:2" ht="47.6">
       <c r="A149" s="3" t="s">
         <v>311</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="63">
+    <row r="151" spans="1:2" ht="47.6">
       <c r="A151" s="3" t="s">
         <v>315</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="31.5">
+    <row r="152" spans="1:2" ht="31.75">
       <c r="A152" s="3" t="s">
         <v>317</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="31.5">
+    <row r="153" spans="1:2" ht="31.75">
       <c r="A153" s="3" t="s">
         <v>319</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="31.5">
+    <row r="161" spans="1:2" ht="31.75">
       <c r="A161" s="3" t="s">
         <v>327</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="31.5">
+    <row r="163" spans="1:2" ht="31.75">
       <c r="A163" s="3" t="s">
         <v>329</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="31.5">
+    <row r="164" spans="1:2" ht="31.75">
       <c r="A164" s="3" t="s">
         <v>330</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="47.25">
+    <row r="165" spans="1:2" ht="47.6">
       <c r="A165" s="3" t="s">
         <v>332</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="31.5">
+    <row r="168" spans="1:2" ht="31.75">
       <c r="A168" s="3" t="s">
         <v>336</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="63">
+    <row r="170" spans="1:2" ht="47.6">
       <c r="A170" s="3" t="s">
         <v>340</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="31.5">
+    <row r="171" spans="1:2" ht="31.75">
       <c r="A171" s="3" t="s">
         <v>341</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="31.5">
+    <row r="172" spans="1:2" ht="31.75">
       <c r="A172" s="3" t="s">
         <v>342</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="47.25">
+    <row r="184" spans="1:2" ht="47.6">
       <c r="A184" s="3" t="s">
         <v>332</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="31.5">
+    <row r="187" spans="1:2" ht="31.75">
       <c r="A187" s="3" t="s">
         <v>360</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="63">
+    <row r="189" spans="1:2" ht="47.6">
       <c r="A189" s="3" t="s">
         <v>363</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="31.5">
+    <row r="190" spans="1:2" ht="31.75">
       <c r="A190" s="3" t="s">
         <v>364</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="31.5">
+    <row r="191" spans="1:2" ht="31.75">
       <c r="A191" s="3" t="s">
         <v>365</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="47.25">
+    <row r="197" spans="1:2" ht="47.6">
       <c r="A197" s="3" t="s">
         <v>375</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="47.25">
+    <row r="198" spans="1:2" ht="47.6">
       <c r="A198" s="3" t="s">
         <v>377</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="31.5">
+    <row r="201" spans="1:2" ht="31.75">
       <c r="A201" s="3" t="s">
         <v>382</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="31.5">
+    <row r="202" spans="1:2" ht="31.75">
       <c r="A202" s="3" t="s">
         <v>384</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="31.5">
+    <row r="215" spans="1:2" ht="31.75">
       <c r="A215" s="3" t="s">
         <v>409</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="47.25">
+    <row r="233" spans="1:2" ht="47.6">
       <c r="A233" s="3" t="s">
         <v>432</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="31.5">
+    <row r="235" spans="1:2" ht="31.75">
       <c r="A235" s="3" t="s">
         <v>439</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="31.5">
+    <row r="236" spans="1:2" ht="31.75">
       <c r="A236" s="3" t="s">
         <v>442</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="47.25">
+    <row r="239" spans="1:2" ht="47.6">
       <c r="A239" s="3" t="s">
         <v>451</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="47.25">
+    <row r="240" spans="1:2" ht="47.6">
       <c r="A240" s="3" t="s">
         <v>454</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="78.75">
+    <row r="241" spans="1:2" ht="79.3">
       <c r="A241" s="3" t="s">
         <v>457</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="47.25">
+    <row r="242" spans="1:2" ht="47.6">
       <c r="A242" s="3" t="s">
         <v>460</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="78.75">
+    <row r="243" spans="1:2" ht="79.3">
       <c r="A243" s="3" t="s">
         <v>463</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="31.5">
+    <row r="244" spans="1:2" ht="31.75">
       <c r="A244" s="3" t="s">
         <v>466</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="47.25">
+    <row r="247" spans="1:2" ht="47.6">
       <c r="A247" s="3" t="s">
         <v>471</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="31.5">
+    <row r="249" spans="1:2" ht="31.75">
       <c r="A249" s="3" t="s">
         <v>476</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="31.5">
+    <row r="250" spans="1:2" ht="31.75">
       <c r="A250" s="3" t="s">
         <v>478</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="31.5">
+    <row r="254" spans="1:2" ht="31.75">
       <c r="A254" s="3" t="s">
         <v>484</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="31.5">
+    <row r="255" spans="1:2" ht="31.75">
       <c r="A255" s="3" t="s">
         <v>486</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="31.5">
+    <row r="256" spans="1:2" ht="31.75">
       <c r="A256" s="3" t="s">
         <v>489</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="47.25">
+    <row r="257" spans="1:2" ht="47.6">
       <c r="A257" s="3" t="s">
         <v>491</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="47.25">
+    <row r="258" spans="1:2" ht="47.6">
       <c r="A258" s="3" t="s">
         <v>494</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="63">
+    <row r="259" spans="1:2" ht="63.45">
       <c r="A259" s="3" t="s">
         <v>496</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="78.75">
+    <row r="260" spans="1:2" ht="79.3">
       <c r="A260" s="3" t="s">
         <v>498</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="78.75">
+    <row r="261" spans="1:2" ht="79.3">
       <c r="A261" s="3" t="s">
         <v>500</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="47.25">
+    <row r="262" spans="1:2" ht="47.6">
       <c r="A262" s="3" t="s">
         <v>503</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="47.25">
+    <row r="265" spans="1:2" ht="47.6">
       <c r="A265" s="3" t="s">
         <v>507</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="31.5">
+    <row r="267" spans="1:2" ht="31.75">
       <c r="A267" s="3" t="s">
         <v>509</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="31.5">
+    <row r="268" spans="1:2" ht="31.75">
       <c r="A268" s="3" t="s">
         <v>510</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="31.5">
+    <row r="272" spans="1:2" ht="31.75">
       <c r="A272" s="3" t="s">
         <v>514</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="31.5">
+    <row r="273" spans="1:2" ht="31.75">
       <c r="A273" s="3" t="s">
         <v>515</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="31.5">
+    <row r="274" spans="1:2" ht="31.75">
       <c r="A274" s="3" t="s">
         <v>516</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="47.25">
+    <row r="275" spans="1:2" ht="47.6">
       <c r="A275" s="3" t="s">
         <v>517</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="47.25">
+    <row r="276" spans="1:2" ht="47.6">
       <c r="A276" s="3" t="s">
         <v>518</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="63">
+    <row r="277" spans="1:2" ht="63.45">
       <c r="A277" s="3" t="s">
         <v>519</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="78.75">
+    <row r="278" spans="1:2" ht="79.3">
       <c r="A278" s="3" t="s">
         <v>520</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="78.75">
+    <row r="279" spans="1:2" ht="79.3">
       <c r="A279" s="3" t="s">
         <v>521</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="47.25">
+    <row r="280" spans="1:2" ht="47.6">
       <c r="A280" s="3" t="s">
         <v>522</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="31.5">
+    <row r="283" spans="1:2" ht="31.75">
       <c r="A283" s="3" t="s">
         <v>524</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="31.5">
+    <row r="285" spans="1:2" ht="31.75">
       <c r="A285" s="3" t="s">
         <v>528</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="47.25">
+    <row r="288" spans="1:2" ht="47.6">
       <c r="A288" s="3" t="s">
         <v>537</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="78.75">
+    <row r="291" spans="1:2" ht="79.3">
       <c r="A291" s="3" t="s">
         <v>545</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="47.25">
+    <row r="294" spans="1:2" ht="47.6">
       <c r="A294" s="3" t="s">
         <v>549</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="31.5">
+    <row r="296" spans="1:2" ht="31.75">
       <c r="A296" s="3" t="s">
         <v>551</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="31.5">
+    <row r="297" spans="1:2" ht="31.75">
       <c r="A297" s="3" t="s">
         <v>552</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="31.5">
+    <row r="301" spans="1:2" ht="31.75">
       <c r="A301" s="3" t="s">
         <v>556</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="31.5">
+    <row r="302" spans="1:2" ht="31.75">
       <c r="A302" s="3" t="s">
         <v>557</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="31.5">
+    <row r="303" spans="1:2" ht="31.75">
       <c r="A303" s="3" t="s">
         <v>558</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="47.25">
+    <row r="304" spans="1:2" ht="47.6">
       <c r="A304" s="3" t="s">
         <v>559</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="47.25">
+    <row r="305" spans="1:2" ht="47.6">
       <c r="A305" s="3" t="s">
         <v>560</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="63">
+    <row r="306" spans="1:2" ht="63.45">
       <c r="A306" s="3" t="s">
         <v>561</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="78.75">
+    <row r="307" spans="1:2" ht="79.3">
       <c r="A307" s="3" t="s">
         <v>562</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="78.75">
+    <row r="308" spans="1:2" ht="79.3">
       <c r="A308" s="3" t="s">
         <v>563</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="47.25">
+    <row r="309" spans="1:2" ht="47.6">
       <c r="A309" s="3" t="s">
         <v>564</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="94.5">
+    <row r="313" spans="1:2" ht="95.15">
       <c r="A313" s="3" t="s">
         <v>566</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="31.5">
+    <row r="314" spans="1:2" ht="31.75">
       <c r="A314" s="3" t="s">
         <v>569</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="31.5">
+    <row r="320" spans="1:2" ht="31.75">
       <c r="A320" s="3" t="s">
         <v>584</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="31.5">
+    <row r="324" spans="1:2" ht="31.75">
       <c r="A324" s="3" t="s">
         <v>595</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="31.5">
+    <row r="326" spans="1:2" ht="31.75">
       <c r="A326" s="3" t="s">
         <v>601</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="63">
+    <row r="328" spans="1:2" ht="63.45">
       <c r="A328" s="3" t="s">
         <v>607</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="47.25">
+    <row r="329" spans="1:2" ht="47.6">
       <c r="A329" s="3" t="s">
         <v>609</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="31.5">
+    <row r="331" spans="1:2" ht="31.75">
       <c r="A331" s="3" t="s">
         <v>613</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="31.5">
+    <row r="332" spans="1:2" ht="31.75">
       <c r="A332" s="3" t="s">
         <v>616</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="31.5">
+    <row r="339" spans="1:2" ht="31.75">
       <c r="A339" s="3" t="s">
         <v>630</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="94.5">
+    <row r="344" spans="1:2" ht="95.15">
       <c r="A344" s="3" t="s">
         <v>638</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="31.5">
+    <row r="345" spans="1:2" ht="31.75">
       <c r="A345" s="3" t="s">
         <v>639</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="31.5">
+    <row r="351" spans="1:2" ht="31.75">
       <c r="A351" s="3" t="s">
         <v>652</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="31.5">
+    <row r="352" spans="1:2" ht="31.75">
       <c r="A352" s="3" t="s">
         <v>654</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="31.5">
+    <row r="353" spans="1:2" ht="31.75">
       <c r="A353" s="3" t="s">
         <v>656</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="31.5">
+    <row r="354" spans="1:2" ht="47.6">
       <c r="A354" s="3" t="s">
         <v>658</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="31.5">
+    <row r="361" spans="1:2" ht="31.75">
       <c r="A361" s="3" t="s">
         <v>667</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="78.75">
+    <row r="366" spans="1:2" ht="79.3">
       <c r="A366" s="3" t="s">
         <v>671</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="31.5">
+    <row r="367" spans="1:2" ht="31.75">
       <c r="A367" s="3" t="s">
         <v>673</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="31.5">
+    <row r="371" spans="1:2" ht="31.75">
       <c r="A371" s="3" t="s">
         <v>679</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="31.5">
+    <row r="372" spans="1:2" ht="31.75">
       <c r="A372" s="3" t="s">
         <v>682</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="31.5">
+    <row r="374" spans="1:2" ht="31.75">
       <c r="A374" s="3" t="s">
         <v>687</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="31.5">
+    <row r="375" spans="1:2" ht="31.75">
       <c r="A375" s="3" t="s">
         <v>689</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="31.5">
+    <row r="376" spans="1:2" ht="47.6">
       <c r="A376" s="3" t="s">
         <v>691</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="31.5">
+    <row r="383" spans="1:2" ht="31.75">
       <c r="A383" s="3" t="s">
         <v>698</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="78.75">
+    <row r="388" spans="1:2" ht="79.3">
       <c r="A388" s="3" t="s">
         <v>702</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="31.5">
+    <row r="389" spans="1:2" ht="31.75">
       <c r="A389" s="3" t="s">
         <v>703</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="31.5">
+    <row r="396" spans="1:2" ht="31.75">
       <c r="A396" s="3" t="s">
         <v>714</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="31.5">
+    <row r="399" spans="1:2" ht="31.75">
       <c r="A399" s="3" t="s">
         <v>722</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="31.5">
+    <row r="404" spans="1:2" ht="31.75">
       <c r="A404" s="3" t="s">
         <v>732</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="31.5">
+    <row r="407" spans="1:2" ht="31.75">
       <c r="A407" s="3" t="s">
         <v>735</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="63">
+    <row r="409" spans="1:2" ht="63.45">
       <c r="A409" s="3" t="s">
         <v>737</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="47.25">
+    <row r="410" spans="1:2" ht="47.6">
       <c r="A410" s="3" t="s">
         <v>739</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="31.5">
+    <row r="412" spans="1:2" ht="31.75">
       <c r="A412" s="3" t="s">
         <v>742</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="31.5">
+    <row r="419" spans="1:2" ht="31.75">
       <c r="A419" s="3" t="s">
         <v>749</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="78.75">
+    <row r="431" spans="1:2" ht="79.3">
       <c r="A431" s="3" t="s">
         <v>758</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="31.5">
+    <row r="432" spans="1:2" ht="31.75">
       <c r="A432" s="3" t="s">
         <v>759</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="31.5">
+    <row r="439" spans="1:2" ht="31.75">
       <c r="A439" s="3" t="s">
         <v>768</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="47.25">
+    <row r="440" spans="1:2" ht="47.6">
       <c r="A440" s="3" t="s">
         <v>770</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="31.5">
+    <row r="448" spans="1:2" ht="31.75">
       <c r="A448" s="3" t="s">
         <v>779</v>
       </c>
@@ -8421,25 +8421,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView topLeftCell="A327" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B337" sqref="B337:B339"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="52" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="52" customWidth="1"/>
     <col min="2" max="2" width="12" style="50" customWidth="1"/>
     <col min="3" max="3" width="91.5" style="50" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="50" customWidth="1"/>
-    <col min="5" max="5" width="155.375" style="50" customWidth="1"/>
-    <col min="6" max="6" width="62.75" style="50" customWidth="1"/>
-    <col min="7" max="7" width="84.625" style="50" customWidth="1"/>
+    <col min="4" max="4" width="20.35546875" style="50" customWidth="1"/>
+    <col min="5" max="5" width="155.35546875" style="50" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="62.7109375" style="50" customWidth="1"/>
+    <col min="7" max="7" width="84.640625" style="50" customWidth="1"/>
     <col min="8" max="8" width="9" style="51"/>
     <col min="9" max="1027" width="8.5" style="34" customWidth="1"/>
     <col min="1028" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="54" customFormat="1" ht="15.75">
+    <row r="1" spans="1:8" s="54" customFormat="1" ht="15.45">
       <c r="A1" s="33" t="s">
         <v>52</v>
       </c>
@@ -8463,7 +8463,7 @@
       </c>
       <c r="H1" s="53"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:8" ht="15.45">
       <c r="A2" s="35" t="s">
         <v>58</v>
       </c>
@@ -11181,7 +11181,7 @@
       </c>
       <c r="G147" s="38"/>
     </row>
-    <row r="148" spans="1:7" ht="30">
+    <row r="148" spans="1:7">
       <c r="A148" s="38" t="s">
         <v>131</v>
       </c>
@@ -11369,7 +11369,7 @@
       <c r="F157" s="37"/>
       <c r="G157" s="41"/>
     </row>
-    <row r="158" spans="1:7" ht="15.75">
+    <row r="158" spans="1:7" ht="15.45">
       <c r="A158" s="35" t="s">
         <v>58</v>
       </c>
@@ -11499,7 +11499,7 @@
       <c r="F165" s="41"/>
       <c r="G165" s="41"/>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" ht="30">
       <c r="A166" s="38" t="s">
         <v>58</v>
       </c>
@@ -11654,7 +11654,7 @@
       <c r="F174" s="40"/>
       <c r="G174" s="38"/>
     </row>
-    <row r="175" spans="1:7" ht="30">
+    <row r="175" spans="1:7" ht="45">
       <c r="A175" s="38" t="s">
         <v>58</v>
       </c>
@@ -11820,7 +11820,7 @@
       <c r="F184" s="41"/>
       <c r="G184" s="41"/>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" ht="30">
       <c r="A185" s="38" t="s">
         <v>58</v>
       </c>
@@ -11975,7 +11975,7 @@
       <c r="F193" s="40"/>
       <c r="G193" s="38"/>
     </row>
-    <row r="194" spans="1:7" ht="30">
+    <row r="194" spans="1:7" ht="45">
       <c r="A194" s="38" t="s">
         <v>58</v>
       </c>
@@ -12296,7 +12296,7 @@
       <c r="F212" s="40"/>
       <c r="G212" s="38"/>
     </row>
-    <row r="213" spans="1:7" ht="30">
+    <row r="213" spans="1:7" ht="45">
       <c r="A213" s="38" t="s">
         <v>58</v>
       </c>
@@ -12517,7 +12517,7 @@
       <c r="F225" s="38"/>
       <c r="G225" s="38"/>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" ht="30">
       <c r="A226" s="38" t="s">
         <v>58</v>
       </c>
@@ -12974,7 +12974,7 @@
       <c r="F252" s="38"/>
       <c r="G252" s="38"/>
     </row>
-    <row r="253" spans="1:7" ht="15.75">
+    <row r="253" spans="1:7" ht="15.45">
       <c r="A253" s="38" t="s">
         <v>58</v>
       </c>
@@ -14343,7 +14343,7 @@
       <c r="F333" s="38"/>
       <c r="G333" s="38"/>
     </row>
-    <row r="334" spans="1:7" ht="15.75">
+    <row r="334" spans="1:7" ht="15.45">
       <c r="A334" s="38" t="s">
         <v>58</v>
       </c>
@@ -14411,7 +14411,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="45">
+    <row r="338" spans="1:7">
       <c r="A338" s="38" t="s">
         <v>58</v>
       </c>
@@ -14990,7 +14990,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="369" spans="1:7" ht="60">
+    <row r="369" spans="1:7" ht="30">
       <c r="A369" s="38" t="s">
         <v>58</v>
       </c>
@@ -15402,7 +15402,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="60">
+    <row r="391" spans="1:7" ht="30">
       <c r="A391" s="38" t="s">
         <v>58</v>
       </c>
@@ -15791,7 +15791,7 @@
       <c r="F411" s="41"/>
       <c r="G411" s="41"/>
     </row>
-    <row r="412" spans="1:7" ht="78.75">
+    <row r="412" spans="1:7" ht="45">
       <c r="A412" s="38" t="s">
         <v>58</v>
       </c>
@@ -15814,7 +15814,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="413" spans="1:7" ht="60">
+    <row r="413" spans="1:7">
       <c r="A413" s="38" t="s">
         <v>58</v>
       </c>
@@ -16858,14 +16858,14 @@
       <selection activeCell="G6" sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="45.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="81.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.640625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="81.35546875" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.85546875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -16949,7 +16949,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="126">
+    <row r="5" spans="1:7" ht="126.9">
       <c r="A5" s="3" t="s">
         <v>71</v>
       </c>
@@ -17005,20 +17005,20 @@
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
     <col min="1" max="1" width="10.5" style="29" customWidth="1"/>
     <col min="2" max="2" width="68.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="4" customWidth="1"/>
     <col min="4" max="4" width="100" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="22.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="20" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.85546875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="24" customFormat="1" ht="31.5">
+    <row r="1" spans="1:1025" s="24" customFormat="1" ht="31.75">
       <c r="A1" s="8" t="s">
         <v>782</v>
       </c>
@@ -18173,7 +18173,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:1025" ht="31.5">
+    <row r="8" spans="1:1025">
       <c r="A8" s="3" t="s">
         <v>810</v>
       </c>
@@ -18344,7 +18344,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="47.25">
+    <row r="17" spans="1:7" ht="47.6">
       <c r="A17" s="3" t="s">
         <v>125</v>
       </c>
@@ -18726,7 +18726,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="63">
+    <row r="37" spans="1:7" ht="63.45">
       <c r="A37" s="3" t="s">
         <v>257</v>
       </c>
@@ -18747,7 +18747,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="31.5">
+    <row r="38" spans="1:7" ht="31.75">
       <c r="A38" s="3" t="s">
         <v>526</v>
       </c>
@@ -18823,7 +18823,7 @@
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="47.25">
+    <row r="42" spans="1:7" ht="47.6">
       <c r="A42" s="3" t="s">
         <v>274</v>
       </c>
@@ -19107,19 +19107,19 @@
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="47.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="80.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="47.35546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="80.85546875" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
+    <col min="8" max="256" width="8.85546875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.85546875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="24" customFormat="1" ht="30.95" customHeight="1">
+    <row r="1" spans="1:256" s="24" customFormat="1" ht="31" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>782</v>
       </c>
@@ -19391,7 +19391,7 @@
       <c r="IU1" s="23"/>
       <c r="IV1" s="23"/>
     </row>
-    <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A2" s="30" t="s">
         <v>860</v>
       </c>
@@ -19410,7 +19410,7 @@
       </c>
       <c r="G2" s="30"/>
     </row>
-    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A3" s="30" t="s">
         <v>863</v>
       </c>
@@ -19429,7 +19429,7 @@
       </c>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>865</v>
       </c>
@@ -19467,7 +19467,7 @@
       </c>
       <c r="G5" s="30"/>
     </row>
-    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A6" s="30" t="s">
         <v>869</v>
       </c>
@@ -19486,7 +19486,7 @@
       </c>
       <c r="G6" s="30"/>
     </row>
-    <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A7" s="30" t="s">
         <v>872</v>
       </c>
@@ -19505,7 +19505,7 @@
       </c>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A8" s="30" t="s">
         <v>875</v>
       </c>
@@ -19543,7 +19543,7 @@
       </c>
       <c r="G9" s="30"/>
     </row>
-    <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A10" s="30" t="s">
         <v>881</v>
       </c>
@@ -19562,7 +19562,7 @@
       </c>
       <c r="G10" s="30"/>
     </row>
-    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A11" s="30" t="s">
         <v>883</v>
       </c>
@@ -19581,7 +19581,7 @@
       </c>
       <c r="G11" s="30"/>
     </row>
-    <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A12" s="30" t="s">
         <v>885</v>
       </c>
@@ -19619,7 +19619,7 @@
       </c>
       <c r="G13" s="30"/>
     </row>
-    <row r="14" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A14" s="30" t="s">
         <v>890</v>
       </c>
@@ -19638,7 +19638,7 @@
       </c>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A15" s="30" t="s">
         <v>892</v>
       </c>
@@ -19695,7 +19695,7 @@
       </c>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A18" s="30" t="s">
         <v>894</v>
       </c>
@@ -19714,7 +19714,7 @@
       </c>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="19" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A19" s="30" t="s">
         <v>896</v>
       </c>
@@ -19733,7 +19733,7 @@
       </c>
       <c r="G19" s="30"/>
     </row>
-    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A20" s="30" t="s">
         <v>898</v>
       </c>
@@ -19752,7 +19752,7 @@
       </c>
       <c r="G20" s="30"/>
     </row>
-    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="21" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A21" s="30" t="s">
         <v>900</v>
       </c>
@@ -19771,7 +19771,7 @@
       </c>
       <c r="G21" s="30"/>
     </row>
-    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A22" s="30" t="s">
         <v>903</v>
       </c>
@@ -19790,7 +19790,7 @@
       </c>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A23" s="30" t="s">
         <v>905</v>
       </c>
@@ -19809,7 +19809,7 @@
       </c>
       <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A24" s="30" t="s">
         <v>907</v>
       </c>
@@ -19828,7 +19828,7 @@
       </c>
       <c r="G24" s="30"/>
     </row>
-    <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A25" s="30" t="s">
         <v>909</v>
       </c>
@@ -19847,7 +19847,7 @@
       </c>
       <c r="G25" s="30"/>
     </row>
-    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A26" s="30" t="s">
         <v>912</v>
       </c>
@@ -19866,7 +19866,7 @@
       </c>
       <c r="G26" s="30"/>
     </row>
-    <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="27" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A27" s="30" t="s">
         <v>914</v>
       </c>
@@ -19885,7 +19885,7 @@
       </c>
       <c r="G27" s="30"/>
     </row>
-    <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A28" s="30" t="s">
         <v>917</v>
       </c>
@@ -19904,7 +19904,7 @@
       </c>
       <c r="G28" s="30"/>
     </row>
-    <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="29" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A29" s="30" t="s">
         <v>919</v>
       </c>
@@ -19923,7 +19923,7 @@
       </c>
       <c r="G29" s="30"/>
     </row>
-    <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="30" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A30" s="30" t="s">
         <v>921</v>
       </c>
@@ -19942,7 +19942,7 @@
       </c>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="31" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A31" s="30" t="s">
         <v>923</v>
       </c>
@@ -19961,7 +19961,7 @@
       </c>
       <c r="G31" s="30"/>
     </row>
-    <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="32" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A32" s="30" t="s">
         <v>926</v>
       </c>
@@ -19980,7 +19980,7 @@
       </c>
       <c r="G32" s="30"/>
     </row>
-    <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="33" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A33" s="30" t="s">
         <v>929</v>
       </c>
@@ -19999,7 +19999,7 @@
       </c>
       <c r="G33" s="30"/>
     </row>
-    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="34" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A34" s="30" t="s">
         <v>932</v>
       </c>
@@ -20018,7 +20018,7 @@
       </c>
       <c r="G34" s="30"/>
     </row>
-    <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="35" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A35" s="30" t="s">
         <v>935</v>
       </c>
@@ -20037,7 +20037,7 @@
       </c>
       <c r="G35" s="30"/>
     </row>
-    <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="36" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A36" s="30" t="s">
         <v>938</v>
       </c>
@@ -20056,7 +20056,7 @@
       </c>
       <c r="G36" s="30"/>
     </row>
-    <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="37" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A37" s="30" t="s">
         <v>941</v>
       </c>
@@ -20075,7 +20075,7 @@
       </c>
       <c r="G37" s="30"/>
     </row>
-    <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="38" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A38" s="30" t="s">
         <v>944</v>
       </c>
@@ -20094,7 +20094,7 @@
       </c>
       <c r="G38" s="30"/>
     </row>
-    <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="39" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A39" s="30" t="s">
         <v>947</v>
       </c>
@@ -20113,7 +20113,7 @@
       </c>
       <c r="G39" s="30"/>
     </row>
-    <row r="40" spans="1:7" ht="30.95" customHeight="1">
+    <row r="40" spans="1:7" ht="31" customHeight="1">
       <c r="A40" s="30" t="s">
         <v>950</v>
       </c>
@@ -20149,7 +20149,7 @@
       <c r="F41" s="30"/>
       <c r="G41" s="30"/>
     </row>
-    <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="42" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A42" s="30" t="s">
         <v>957</v>
       </c>
@@ -20166,7 +20166,7 @@
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
     </row>
-    <row r="43" spans="1:7" ht="30.95" customHeight="1">
+    <row r="43" spans="1:7" ht="31" customHeight="1">
       <c r="A43" s="30" t="s">
         <v>960</v>
       </c>
@@ -20204,7 +20204,7 @@
       <c r="F44" s="30"/>
       <c r="G44" s="30"/>
     </row>
-    <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="45" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A45" s="30" t="s">
         <v>968</v>
       </c>
@@ -20257,7 +20257,7 @@
       <c r="F47" s="30"/>
       <c r="G47" s="30"/>
     </row>
-    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="48" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A48" s="30" t="s">
         <v>978</v>
       </c>
@@ -20274,7 +20274,7 @@
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
     </row>
-    <row r="49" spans="1:256" s="57" customFormat="1" ht="31.5">
+    <row r="49" spans="1:256" s="57" customFormat="1" ht="31.75">
       <c r="A49" s="31" t="s">
         <v>981</v>
       </c>
@@ -20558,21 +20558,21 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
     <col min="1" max="1" width="10.5" style="29" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="41.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.35546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="41.35546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="29" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
+    <col min="8" max="256" width="8.85546875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.85546875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="24" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" s="24" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>782</v>
       </c>
@@ -21272,7 +21272,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="31.5">
+    <row r="24" spans="1:7" ht="31.75">
       <c r="A24" s="32" t="s">
         <v>1158</v>
       </c>
@@ -21289,7 +21289,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
     </row>
-    <row r="25" spans="1:7" ht="47.25">
+    <row r="25" spans="1:7" ht="47.6">
       <c r="A25" s="32" t="s">
         <v>1162</v>
       </c>
@@ -21306,7 +21306,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
     </row>
-    <row r="26" spans="1:7" ht="31.5">
+    <row r="26" spans="1:7" ht="31.75">
       <c r="A26" s="32" t="s">
         <v>1164</v>
       </c>
@@ -21323,7 +21323,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
     </row>
-    <row r="27" spans="1:7" ht="47.25">
+    <row r="27" spans="1:7" ht="47.6">
       <c r="A27" s="32" t="s">
         <v>1167</v>
       </c>
@@ -21340,7 +21340,7 @@
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
     </row>
-    <row r="28" spans="1:7" ht="47.25">
+    <row r="28" spans="1:7" ht="31.75">
       <c r="A28" s="32" t="s">
         <v>1170</v>
       </c>
@@ -21357,7 +21357,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
     </row>
-    <row r="29" spans="1:7" ht="31.5">
+    <row r="29" spans="1:7" ht="31.75">
       <c r="A29" s="32" t="s">
         <v>1173</v>
       </c>
@@ -21374,7 +21374,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
     </row>
-    <row r="30" spans="1:7" ht="47.25">
+    <row r="30" spans="1:7" ht="47.6">
       <c r="A30" s="32" t="s">
         <v>1176</v>
       </c>
@@ -21405,20 +21405,20 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:IV4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="54.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="75.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="132.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="54.640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="75.640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="132.35546875" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
+    <col min="8" max="256" width="8.85546875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.85546875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -21445,7 +21445,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="2" spans="1:256" s="61" customFormat="1" ht="63">
+    <row r="2" spans="1:256" s="61" customFormat="1" ht="63.45">
       <c r="A2" s="8" t="s">
         <v>1031</v>
       </c>
@@ -21715,7 +21715,7 @@
       <c r="IU2" s="60"/>
       <c r="IV2" s="60"/>
     </row>
-    <row r="3" spans="1:256" ht="31.5">
+    <row r="3" spans="1:256">
       <c r="A3" s="5" t="s">
         <v>1034</v>
       </c>
@@ -21736,7 +21736,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:256" ht="63">
+    <row r="4" spans="1:256" ht="63.45">
       <c r="A4" s="5" t="s">
         <v>1036</v>
       </c>
@@ -21775,21 +21775,21 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
     <col min="1" max="1" width="10.5" style="25" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="53.35546875" style="20" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="20" customWidth="1"/>
     <col min="4" max="4" width="44.5" style="20" customWidth="1"/>
-    <col min="5" max="5" width="31.875" style="20" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="20" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="20" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="21" customWidth="1"/>
+    <col min="8" max="256" width="8.85546875" style="20" customWidth="1"/>
+    <col min="257" max="1025" width="8.85546875" style="21" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="27" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:256" s="27" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>782</v>
       </c>
@@ -22082,7 +22082,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A3" s="30" t="s">
         <v>648</v>
       </c>
@@ -22101,7 +22101,7 @@
       </c>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>577</v>
       </c>
@@ -22120,7 +22120,7 @@
       </c>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A5" s="30" t="s">
         <v>580</v>
       </c>
@@ -22139,7 +22139,7 @@
       </c>
       <c r="G5" s="30"/>
     </row>
-    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A6" s="30" t="s">
         <v>583</v>
       </c>
@@ -22238,7 +22238,7 @@
       </c>
       <c r="G10" s="30"/>
     </row>
-    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:256" ht="17.149999999999999" customHeight="1">
       <c r="A11" s="30" t="s">
         <v>600</v>
       </c>
@@ -22257,7 +22257,7 @@
       </c>
       <c r="G11" s="30"/>
     </row>
-    <row r="12" spans="1:256" ht="33.6" customHeight="1">
+    <row r="12" spans="1:256" ht="33.65" customHeight="1">
       <c r="A12" s="30" t="s">
         <v>603</v>
       </c>
@@ -22419,7 +22419,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="1:7" ht="17.149999999999999" customHeight="1">
       <c r="A20" s="30" t="s">
         <v>721</v>
       </c>
@@ -22484,7 +22484,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="31.5">
+    <row r="23" spans="1:7" ht="31.75">
       <c r="A23" s="30" t="s">
         <v>1114</v>
       </c>
@@ -22535,7 +22535,7 @@
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
     </row>
-    <row r="26" spans="1:7" ht="31.5">
+    <row r="26" spans="1:7" ht="31.75">
       <c r="A26" s="30" t="s">
         <v>1109</v>
       </c>
@@ -22585,16 +22585,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
   <cols>
     <col min="1" max="1" width="19" style="22" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="53.35546875" style="19" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="19" customWidth="1"/>
     <col min="4" max="4" width="25" style="19" customWidth="1"/>
     <col min="5" max="5" width="46" style="19" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="19" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="19" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="19" customWidth="1"/>
+    <col min="8" max="1025" width="8.85546875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>

--- a/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\gsa-devel\piv-conformance-swing\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87D595A-DBDD-42C6-85EB-1D796A0520F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB36662-B68E-4B2C-A5FB-CC99DD6BFCA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="18472" windowHeight="11623" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="1302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="1302">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -8421,8 +8421,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A446" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F431" sqref="F431:F471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -16181,7 +16181,9 @@
       </c>
       <c r="D432" s="41"/>
       <c r="E432" s="41"/>
-      <c r="F432" s="41"/>
+      <c r="F432" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G432" s="41"/>
     </row>
     <row r="433" spans="1:7" ht="45">
@@ -16198,7 +16200,9 @@
         <v>606</v>
       </c>
       <c r="E433" s="40"/>
-      <c r="F433" s="40"/>
+      <c r="F433" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G433" s="44" t="s">
         <v>738</v>
       </c>
@@ -16217,7 +16221,9 @@
         <v>606</v>
       </c>
       <c r="E434" s="40"/>
-      <c r="F434" s="40"/>
+      <c r="F434" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G434" s="44"/>
     </row>
     <row r="435" spans="1:7">
@@ -16234,7 +16240,9 @@
         <v>606</v>
       </c>
       <c r="E435" s="40"/>
-      <c r="F435" s="40"/>
+      <c r="F435" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G435" s="44" t="s">
         <v>606</v>
       </c>
@@ -16253,7 +16261,9 @@
         <v>618</v>
       </c>
       <c r="E436" s="40"/>
-      <c r="F436" s="40"/>
+      <c r="F436" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G436" s="44"/>
     </row>
     <row r="437" spans="1:7">
@@ -16268,7 +16278,9 @@
       </c>
       <c r="D437" s="41"/>
       <c r="E437" s="41"/>
-      <c r="F437" s="41"/>
+      <c r="F437" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G437" s="41"/>
     </row>
     <row r="438" spans="1:7">
@@ -16285,7 +16297,9 @@
         <v>597</v>
       </c>
       <c r="E438" s="40"/>
-      <c r="F438" s="40"/>
+      <c r="F438" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G438" s="44" t="s">
         <v>1107</v>
       </c>
@@ -16306,7 +16320,9 @@
       <c r="E439" s="40" t="s">
         <v>1133</v>
       </c>
-      <c r="F439" s="40"/>
+      <c r="F439" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G439" s="38"/>
     </row>
     <row r="440" spans="1:7">
@@ -16321,7 +16337,9 @@
       </c>
       <c r="D440" s="41"/>
       <c r="E440" s="41"/>
-      <c r="F440" s="41"/>
+      <c r="F440" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G440" s="41"/>
     </row>
     <row r="441" spans="1:7">
@@ -16340,7 +16358,9 @@
       <c r="E441" s="38" t="s">
         <v>636</v>
       </c>
-      <c r="F441" s="38"/>
+      <c r="F441" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G441" s="38"/>
     </row>
     <row r="442" spans="1:7">
@@ -16355,7 +16375,9 @@
       </c>
       <c r="D442" s="41"/>
       <c r="E442" s="41"/>
-      <c r="F442" s="41"/>
+      <c r="F442" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G442" s="37"/>
     </row>
     <row r="443" spans="1:7">
@@ -16372,7 +16394,9 @@
       <c r="E443" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="F443" s="44"/>
+      <c r="F443" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G443" s="44"/>
     </row>
     <row r="444" spans="1:7">
@@ -16389,7 +16413,9 @@
       <c r="E444" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="F444" s="44"/>
+      <c r="F444" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G444" s="44"/>
     </row>
     <row r="445" spans="1:7">
@@ -16406,7 +16432,9 @@
       <c r="E445" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="F445" s="44"/>
+      <c r="F445" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G445" s="44"/>
     </row>
     <row r="446" spans="1:7">
@@ -16421,7 +16449,9 @@
       </c>
       <c r="D446" s="41"/>
       <c r="E446" s="37"/>
-      <c r="F446" s="37"/>
+      <c r="F446" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G446" s="37"/>
     </row>
     <row r="447" spans="1:7">
@@ -16438,7 +16468,9 @@
       <c r="E447" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="F447" s="44"/>
+      <c r="F447" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G447" s="44"/>
     </row>
     <row r="448" spans="1:7">
@@ -16455,7 +16487,9 @@
       <c r="E448" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="F448" s="44"/>
+      <c r="F448" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G448" s="44"/>
     </row>
     <row r="449" spans="1:7">
@@ -16470,7 +16504,9 @@
       </c>
       <c r="D449" s="41"/>
       <c r="E449" s="41"/>
-      <c r="F449" s="41"/>
+      <c r="F449" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G449" s="37"/>
     </row>
     <row r="450" spans="1:7">
@@ -16485,7 +16521,9 @@
       </c>
       <c r="D450" s="41"/>
       <c r="E450" s="41"/>
-      <c r="F450" s="41"/>
+      <c r="F450" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G450" s="41"/>
     </row>
     <row r="451" spans="1:7" ht="45">
@@ -16502,7 +16540,9 @@
         <v>78.3</v>
       </c>
       <c r="E451" s="38"/>
-      <c r="F451" s="38"/>
+      <c r="F451" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G451" s="44" t="s">
         <v>568</v>
       </c>
@@ -16521,7 +16561,9 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E452" s="38"/>
-      <c r="F452" s="38"/>
+      <c r="F452" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G452" s="44"/>
     </row>
     <row r="453" spans="1:7">
@@ -16538,7 +16580,9 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E453" s="38"/>
-      <c r="F453" s="38"/>
+      <c r="F453" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G453" s="44"/>
     </row>
     <row r="454" spans="1:7">
@@ -16553,7 +16597,9 @@
       </c>
       <c r="D454" s="41"/>
       <c r="E454" s="41"/>
-      <c r="F454" s="41"/>
+      <c r="F454" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G454" s="41"/>
     </row>
     <row r="455" spans="1:7">
@@ -16568,7 +16614,9 @@
       </c>
       <c r="D455" s="41"/>
       <c r="E455" s="41"/>
-      <c r="F455" s="41"/>
+      <c r="F455" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G455" s="41"/>
     </row>
     <row r="456" spans="1:7">
@@ -16585,7 +16633,9 @@
         <v>577</v>
       </c>
       <c r="E456" s="38"/>
-      <c r="F456" s="38"/>
+      <c r="F456" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G456" s="44" t="s">
         <v>1110</v>
       </c>
@@ -16604,7 +16654,9 @@
         <v>580</v>
       </c>
       <c r="E457" s="38"/>
-      <c r="F457" s="38"/>
+      <c r="F457" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G457" s="44"/>
     </row>
     <row r="458" spans="1:7">
@@ -16621,10 +16673,12 @@
         <v>1111</v>
       </c>
       <c r="E458" s="38"/>
-      <c r="F458" s="38"/>
+      <c r="F458" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G458" s="38"/>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" ht="30">
       <c r="A459" s="38" t="s">
         <v>58</v>
       </c>
@@ -16638,7 +16692,9 @@
         <v>618</v>
       </c>
       <c r="E459" s="38"/>
-      <c r="F459" s="38"/>
+      <c r="F459" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G459" s="38"/>
     </row>
     <row r="460" spans="1:7">
@@ -16653,7 +16709,9 @@
       </c>
       <c r="D460" s="38"/>
       <c r="E460" s="38"/>
-      <c r="F460" s="38"/>
+      <c r="F460" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G460" s="38"/>
     </row>
     <row r="461" spans="1:7" ht="30">
@@ -16670,7 +16728,9 @@
         <v>586</v>
       </c>
       <c r="E461" s="38"/>
-      <c r="F461" s="38"/>
+      <c r="F461" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G461" s="38"/>
     </row>
     <row r="462" spans="1:7">
@@ -16687,7 +16747,9 @@
         <v>724</v>
       </c>
       <c r="E462" s="38"/>
-      <c r="F462" s="38"/>
+      <c r="F462" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G462" s="38"/>
     </row>
     <row r="463" spans="1:7">
@@ -16702,7 +16764,9 @@
       </c>
       <c r="D463" s="41"/>
       <c r="E463" s="41"/>
-      <c r="F463" s="41"/>
+      <c r="F463" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G463" s="41"/>
     </row>
     <row r="464" spans="1:7">
@@ -16719,7 +16783,9 @@
         <v>597</v>
       </c>
       <c r="E464" s="38"/>
-      <c r="F464" s="38"/>
+      <c r="F464" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G464" s="44" t="s">
         <v>1107</v>
       </c>
@@ -16738,7 +16804,9 @@
         <v>1106</v>
       </c>
       <c r="E465" s="40"/>
-      <c r="F465" s="40"/>
+      <c r="F465" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G465" s="38"/>
     </row>
     <row r="466" spans="1:7">
@@ -16753,7 +16821,9 @@
       </c>
       <c r="D466" s="41"/>
       <c r="E466" s="41"/>
-      <c r="F466" s="41"/>
+      <c r="F466" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G466" s="41"/>
     </row>
     <row r="467" spans="1:7">
@@ -16770,7 +16840,9 @@
         <v>591</v>
       </c>
       <c r="E467" s="38"/>
-      <c r="F467" s="38"/>
+      <c r="F467" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G467" s="44" t="s">
         <v>1108</v>
       </c>
@@ -16789,7 +16861,9 @@
         <v>594</v>
       </c>
       <c r="E468" s="38"/>
-      <c r="F468" s="38"/>
+      <c r="F468" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G468" s="44"/>
     </row>
     <row r="469" spans="1:7">
@@ -16806,7 +16880,9 @@
         <v>597</v>
       </c>
       <c r="E469" s="38"/>
-      <c r="F469" s="38"/>
+      <c r="F469" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G469" s="44"/>
     </row>
     <row r="470" spans="1:7">
@@ -16823,7 +16899,9 @@
         <v>1112</v>
       </c>
       <c r="E470" s="38"/>
-      <c r="F470" s="38"/>
+      <c r="F470" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G470" s="38"/>
     </row>
     <row r="471" spans="1:7">
@@ -16840,7 +16918,9 @@
         <v>1109</v>
       </c>
       <c r="E471" s="38"/>
-      <c r="F471" s="38"/>
+      <c r="F471" s="38" t="s">
+        <v>1155</v>
+      </c>
       <c r="G471" s="38"/>
     </row>
   </sheetData>

--- a/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\gsa-devel\piv-conformance-swing\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB36662-B68E-4B2C-A5FB-CC99DD6BFCA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF3F608-6A9E-463F-A8C4-E4C6A2744622}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="1302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3765" uniqueCount="1303">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3939,6 +3939,9 @@
 X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:1.2.840.113549.1.1.1+NULL|1.2.840.10045.2.1+1.2.840.10045.3.1.7,
 X509_CERTIFICATE_FOR_DIGITAL_CERTIFICATE_OID:1.2.840.113549.1.1.1+NULL|1.2.840.10045.2.1+1.2.840.10045.3.1.7|1.2.840.10045.2.1+1.3.132.0.34,
 X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID:1.2.840.113549.1.1.1+NULL|1.2.840.10045.2.1+1.2.840.10045.3.1.7|1.2.840.10045.2.1+1.3.132.0.34</t>
+  </si>
+  <si>
+    <t>2.5.29.31</t>
   </si>
 </sst>
 </file>
@@ -8421,7 +8424,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A446" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A446" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="F431" sqref="F431:F471"/>
     </sheetView>
   </sheetViews>
@@ -21851,8 +21854,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
@@ -22611,7 +22614,9 @@
       <c r="D25" s="30" t="s">
         <v>624</v>
       </c>
-      <c r="E25" s="30"/>
+      <c r="E25" s="30" t="s">
+        <v>1302</v>
+      </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
     </row>

--- a/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\gsa-devel\piv-conformance-swing\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\python_den\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF3F608-6A9E-463F-A8C4-E4C6A2744622}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157BDD65-E08D-45D6-9CF4-873670D657A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6705" yWindow="960" windowWidth="28755" windowHeight="17760" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3765" uniqueCount="1303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3765" uniqueCount="1305">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3942,6 +3942,12 @@
   </si>
   <si>
     <t>2.5.29.31</t>
+  </si>
+  <si>
+    <t>Extended key usage (extKeyUsage) extension is present and maked critical</t>
+  </si>
+  <si>
+    <t>Extended key usage (extKeyUsage) extension asserts id-PIV-cardAuth</t>
   </si>
 </sst>
 </file>
@@ -4152,7 +4158,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4337,6 +4343,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4730,17 +4739,17 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="57.35546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="57.375" style="4" customWidth="1"/>
     <col min="3" max="5" width="10.5" style="4" customWidth="1"/>
-    <col min="6" max="256" width="8.85546875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.85546875" style="19" customWidth="1"/>
+    <col min="6" max="256" width="8.875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="1" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -4748,7 +4757,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="2" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="2">
         <v>8</v>
       </c>
@@ -4756,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="3" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="3">
         <v>8.1</v>
       </c>
@@ -4764,7 +4773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="4" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>59</v>
       </c>
@@ -4772,7 +4781,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="5" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>63</v>
       </c>
@@ -4780,7 +4789,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="6" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>66</v>
       </c>
@@ -4788,7 +4797,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="7" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>69</v>
       </c>
@@ -4796,7 +4805,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="8" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -4804,7 +4813,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="9" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>75</v>
       </c>
@@ -4812,7 +4821,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="10" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>78</v>
       </c>
@@ -4820,7 +4829,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="11" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>81</v>
       </c>
@@ -4828,7 +4837,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="12" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>84</v>
       </c>
@@ -4836,7 +4845,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="13" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>87</v>
       </c>
@@ -4844,7 +4853,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="14" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>90</v>
       </c>
@@ -4852,7 +4861,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="15" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="3">
         <v>8.1999999999999993</v>
       </c>
@@ -4860,7 +4869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="16" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>93</v>
       </c>
@@ -4868,7 +4877,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="17" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>96</v>
       </c>
@@ -4876,7 +4885,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="18" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>97</v>
       </c>
@@ -4884,7 +4893,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="19" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>98</v>
       </c>
@@ -4892,7 +4901,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="20" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>99</v>
       </c>
@@ -4900,7 +4909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="21" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>102</v>
       </c>
@@ -4908,7 +4917,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="22" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>105</v>
       </c>
@@ -4916,7 +4925,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="23" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>108</v>
       </c>
@@ -4924,7 +4933,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="24" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>111</v>
       </c>
@@ -4932,7 +4941,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="25" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>114</v>
       </c>
@@ -4940,7 +4949,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="26" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>117</v>
       </c>
@@ -4948,7 +4957,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="27" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>120</v>
       </c>
@@ -4956,7 +4965,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="28" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>123</v>
       </c>
@@ -4964,7 +4973,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="29" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>126</v>
       </c>
@@ -4972,7 +4981,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="30" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>128</v>
       </c>
@@ -4980,7 +4989,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="31" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>132</v>
       </c>
@@ -4988,7 +4997,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="17.149999999999999" customHeight="1">
+    <row r="32" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="3">
         <v>8.3000000000000007</v>
       </c>
@@ -4996,7 +5005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="33" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>134</v>
       </c>
@@ -5004,7 +5013,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="34" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>137</v>
       </c>
@@ -5012,7 +5021,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="35" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>138</v>
       </c>
@@ -5020,7 +5029,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="36" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>139</v>
       </c>
@@ -5028,7 +5037,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="37" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>140</v>
       </c>
@@ -5036,7 +5045,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="38" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>143</v>
       </c>
@@ -5044,7 +5053,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="39" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>146</v>
       </c>
@@ -5052,7 +5061,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="40" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>149</v>
       </c>
@@ -5060,7 +5069,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="41" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>152</v>
       </c>
@@ -5068,7 +5077,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="42" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>155</v>
       </c>
@@ -5076,7 +5085,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="43" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="3">
         <v>8.4</v>
       </c>
@@ -5084,7 +5093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="44" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>156</v>
       </c>
@@ -5092,7 +5101,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="45" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>159</v>
       </c>
@@ -5100,7 +5109,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="46" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>160</v>
       </c>
@@ -5108,7 +5117,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="47" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>161</v>
       </c>
@@ -5116,7 +5125,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="48" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>162</v>
       </c>
@@ -5127,7 +5136,7 @@
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
     </row>
-    <row r="49" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="49" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>163</v>
       </c>
@@ -5138,7 +5147,7 @@
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
     </row>
-    <row r="50" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="50" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>164</v>
       </c>
@@ -5149,7 +5158,7 @@
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
     </row>
-    <row r="51" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="51" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>165</v>
       </c>
@@ -5160,7 +5169,7 @@
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
     </row>
-    <row r="52" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="52" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>166</v>
       </c>
@@ -5171,7 +5180,7 @@
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
     </row>
-    <row r="53" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="53" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A53" s="3">
         <v>8.5</v>
       </c>
@@ -5182,7 +5191,7 @@
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
     </row>
-    <row r="54" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="54" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>167</v>
       </c>
@@ -5193,7 +5202,7 @@
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
     </row>
-    <row r="55" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="55" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>170</v>
       </c>
@@ -5204,7 +5213,7 @@
       <c r="D55" s="18"/>
       <c r="E55" s="18"/>
     </row>
-    <row r="56" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="56" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>171</v>
       </c>
@@ -5215,7 +5224,7 @@
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
     </row>
-    <row r="57" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="57" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>172</v>
       </c>
@@ -5226,7 +5235,7 @@
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
     </row>
-    <row r="58" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="58" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>173</v>
       </c>
@@ -5237,7 +5246,7 @@
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
     </row>
-    <row r="59" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="59" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>176</v>
       </c>
@@ -5248,7 +5257,7 @@
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
     </row>
-    <row r="60" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="60" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>179</v>
       </c>
@@ -5259,7 +5268,7 @@
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
     </row>
-    <row r="61" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="61" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>182</v>
       </c>
@@ -5270,7 +5279,7 @@
       <c r="D61" s="18"/>
       <c r="E61" s="18"/>
     </row>
-    <row r="62" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="62" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>185</v>
       </c>
@@ -5281,7 +5290,7 @@
       <c r="D62" s="18"/>
       <c r="E62" s="18"/>
     </row>
-    <row r="63" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="63" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>188</v>
       </c>
@@ -5292,7 +5301,7 @@
       <c r="D63" s="18"/>
       <c r="E63" s="18"/>
     </row>
-    <row r="64" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="64" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A64" s="3">
         <v>8.6</v>
       </c>
@@ -5303,7 +5312,7 @@
       <c r="D64" s="18"/>
       <c r="E64" s="18"/>
     </row>
-    <row r="65" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="65" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>189</v>
       </c>
@@ -5314,7 +5323,7 @@
       <c r="D65" s="18"/>
       <c r="E65" s="18"/>
     </row>
-    <row r="66" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="66" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>192</v>
       </c>
@@ -5325,7 +5334,7 @@
       <c r="D66" s="18"/>
       <c r="E66" s="18"/>
     </row>
-    <row r="67" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="67" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>193</v>
       </c>
@@ -5336,7 +5345,7 @@
       <c r="D67" s="18"/>
       <c r="E67" s="18"/>
     </row>
-    <row r="68" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="68" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>194</v>
       </c>
@@ -5347,7 +5356,7 @@
       <c r="D68" s="18"/>
       <c r="E68" s="18"/>
     </row>
-    <row r="69" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="69" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>195</v>
       </c>
@@ -5358,7 +5367,7 @@
       <c r="D69" s="18"/>
       <c r="E69" s="18"/>
     </row>
-    <row r="70" spans="1:5" ht="17.149999999999999" customHeight="1">
+    <row r="70" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>198</v>
       </c>
@@ -5393,7 +5402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="31.75">
+    <row r="74" spans="1:5" ht="31.5">
       <c r="A74" s="3" t="s">
         <v>205</v>
       </c>
@@ -5481,7 +5490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="31.75">
+    <row r="85" spans="1:2" ht="31.5">
       <c r="A85" s="3" t="s">
         <v>217</v>
       </c>
@@ -5569,7 +5578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="31.75">
+    <row r="96" spans="1:2" ht="31.5">
       <c r="A96" s="3" t="s">
         <v>229</v>
       </c>
@@ -5713,7 +5722,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="31.75">
+    <row r="114" spans="1:2" ht="31.5">
       <c r="A114" s="3" t="s">
         <v>255</v>
       </c>
@@ -5729,7 +5738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="28.3">
+    <row r="116" spans="1:2" ht="28.5">
       <c r="A116" s="3" t="s">
         <v>258</v>
       </c>
@@ -5769,7 +5778,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="47.6">
+    <row r="121" spans="1:2" ht="47.25">
       <c r="A121" s="3" t="s">
         <v>267</v>
       </c>
@@ -5785,7 +5794,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="63.45">
+    <row r="123" spans="1:2" ht="63">
       <c r="A123" s="3" t="s">
         <v>272</v>
       </c>
@@ -5937,7 +5946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="31.75">
+    <row r="142" spans="1:2" ht="31.5">
       <c r="A142" s="3" t="s">
         <v>296</v>
       </c>
@@ -5953,7 +5962,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="31.75">
+    <row r="144" spans="1:2" ht="31.5">
       <c r="A144" s="3" t="s">
         <v>301</v>
       </c>
@@ -5961,7 +5970,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="31.75">
+    <row r="145" spans="1:2" ht="47.25">
       <c r="A145" s="3" t="s">
         <v>303</v>
       </c>
@@ -5969,7 +5978,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="47.6">
+    <row r="146" spans="1:2" ht="47.25">
       <c r="A146" s="3" t="s">
         <v>305</v>
       </c>
@@ -5993,7 +6002,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="47.6">
+    <row r="149" spans="1:2" ht="47.25">
       <c r="A149" s="3" t="s">
         <v>311</v>
       </c>
@@ -6009,7 +6018,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="47.6">
+    <row r="151" spans="1:2" ht="63">
       <c r="A151" s="3" t="s">
         <v>315</v>
       </c>
@@ -6017,7 +6026,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="31.75">
+    <row r="152" spans="1:2" ht="31.5">
       <c r="A152" s="3" t="s">
         <v>317</v>
       </c>
@@ -6025,7 +6034,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="31.75">
+    <row r="153" spans="1:2" ht="31.5">
       <c r="A153" s="3" t="s">
         <v>319</v>
       </c>
@@ -6089,7 +6098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="31.75">
+    <row r="161" spans="1:2" ht="31.5">
       <c r="A161" s="3" t="s">
         <v>327</v>
       </c>
@@ -6105,7 +6114,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="31.75">
+    <row r="163" spans="1:2" ht="31.5">
       <c r="A163" s="3" t="s">
         <v>329</v>
       </c>
@@ -6113,7 +6122,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="31.75">
+    <row r="164" spans="1:2" ht="31.5">
       <c r="A164" s="3" t="s">
         <v>330</v>
       </c>
@@ -6121,7 +6130,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="47.6">
+    <row r="165" spans="1:2" ht="47.25">
       <c r="A165" s="3" t="s">
         <v>332</v>
       </c>
@@ -6145,7 +6154,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="31.75">
+    <row r="168" spans="1:2" ht="31.5">
       <c r="A168" s="3" t="s">
         <v>336</v>
       </c>
@@ -6161,7 +6170,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="47.6">
+    <row r="170" spans="1:2" ht="63">
       <c r="A170" s="3" t="s">
         <v>340</v>
       </c>
@@ -6169,7 +6178,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="31.75">
+    <row r="171" spans="1:2" ht="31.5">
       <c r="A171" s="3" t="s">
         <v>341</v>
       </c>
@@ -6177,7 +6186,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="31.75">
+    <row r="172" spans="1:2" ht="31.5">
       <c r="A172" s="3" t="s">
         <v>342</v>
       </c>
@@ -6273,7 +6282,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="47.6">
+    <row r="184" spans="1:2" ht="47.25">
       <c r="A184" s="3" t="s">
         <v>332</v>
       </c>
@@ -6297,7 +6306,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="31.75">
+    <row r="187" spans="1:2" ht="31.5">
       <c r="A187" s="3" t="s">
         <v>360</v>
       </c>
@@ -6313,7 +6322,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="47.6">
+    <row r="189" spans="1:2" ht="63">
       <c r="A189" s="3" t="s">
         <v>363</v>
       </c>
@@ -6321,7 +6330,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="31.75">
+    <row r="190" spans="1:2" ht="31.5">
       <c r="A190" s="3" t="s">
         <v>364</v>
       </c>
@@ -6329,7 +6338,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="31.75">
+    <row r="191" spans="1:2" ht="31.5">
       <c r="A191" s="3" t="s">
         <v>365</v>
       </c>
@@ -6377,7 +6386,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="47.6">
+    <row r="197" spans="1:2" ht="47.25">
       <c r="A197" s="3" t="s">
         <v>375</v>
       </c>
@@ -6385,7 +6394,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="47.6">
+    <row r="198" spans="1:2" ht="47.25">
       <c r="A198" s="3" t="s">
         <v>377</v>
       </c>
@@ -6409,7 +6418,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="31.75">
+    <row r="201" spans="1:2" ht="31.5">
       <c r="A201" s="3" t="s">
         <v>382</v>
       </c>
@@ -6417,7 +6426,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="31.75">
+    <row r="202" spans="1:2" ht="31.5">
       <c r="A202" s="3" t="s">
         <v>384</v>
       </c>
@@ -6521,7 +6530,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="31.75">
+    <row r="215" spans="1:2" ht="31.5">
       <c r="A215" s="3" t="s">
         <v>409</v>
       </c>
@@ -6665,7 +6674,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="47.6">
+    <row r="233" spans="1:2" ht="47.25">
       <c r="A233" s="3" t="s">
         <v>432</v>
       </c>
@@ -6681,7 +6690,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="31.75">
+    <row r="235" spans="1:2" ht="31.5">
       <c r="A235" s="3" t="s">
         <v>439</v>
       </c>
@@ -6689,7 +6698,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="31.75">
+    <row r="236" spans="1:2" ht="31.5">
       <c r="A236" s="3" t="s">
         <v>442</v>
       </c>
@@ -6713,7 +6722,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="47.6">
+    <row r="239" spans="1:2" ht="47.25">
       <c r="A239" s="3" t="s">
         <v>451</v>
       </c>
@@ -6721,7 +6730,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="47.6">
+    <row r="240" spans="1:2" ht="47.25">
       <c r="A240" s="3" t="s">
         <v>454</v>
       </c>
@@ -6729,7 +6738,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="79.3">
+    <row r="241" spans="1:2" ht="78.75">
       <c r="A241" s="3" t="s">
         <v>457</v>
       </c>
@@ -6737,7 +6746,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="47.6">
+    <row r="242" spans="1:2" ht="47.25">
       <c r="A242" s="3" t="s">
         <v>460</v>
       </c>
@@ -6745,7 +6754,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="79.3">
+    <row r="243" spans="1:2" ht="78.75">
       <c r="A243" s="3" t="s">
         <v>463</v>
       </c>
@@ -6753,7 +6762,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="31.75">
+    <row r="244" spans="1:2" ht="31.5">
       <c r="A244" s="3" t="s">
         <v>466</v>
       </c>
@@ -6777,7 +6786,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="47.6">
+    <row r="247" spans="1:2" ht="47.25">
       <c r="A247" s="3" t="s">
         <v>471</v>
       </c>
@@ -6793,7 +6802,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="31.75">
+    <row r="249" spans="1:2" ht="31.5">
       <c r="A249" s="3" t="s">
         <v>476</v>
       </c>
@@ -6801,7 +6810,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="31.75">
+    <row r="250" spans="1:2" ht="31.5">
       <c r="A250" s="3" t="s">
         <v>478</v>
       </c>
@@ -6833,7 +6842,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="31.75">
+    <row r="254" spans="1:2" ht="31.5">
       <c r="A254" s="3" t="s">
         <v>484</v>
       </c>
@@ -6841,7 +6850,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="31.75">
+    <row r="255" spans="1:2" ht="31.5">
       <c r="A255" s="3" t="s">
         <v>486</v>
       </c>
@@ -6849,7 +6858,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="31.75">
+    <row r="256" spans="1:2" ht="31.5">
       <c r="A256" s="3" t="s">
         <v>489</v>
       </c>
@@ -6857,7 +6866,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="47.6">
+    <row r="257" spans="1:2" ht="47.25">
       <c r="A257" s="3" t="s">
         <v>491</v>
       </c>
@@ -6865,7 +6874,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="47.6">
+    <row r="258" spans="1:2" ht="47.25">
       <c r="A258" s="3" t="s">
         <v>494</v>
       </c>
@@ -6873,7 +6882,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="63.45">
+    <row r="259" spans="1:2" ht="63">
       <c r="A259" s="3" t="s">
         <v>496</v>
       </c>
@@ -6881,7 +6890,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="79.3">
+    <row r="260" spans="1:2" ht="78.75">
       <c r="A260" s="3" t="s">
         <v>498</v>
       </c>
@@ -6889,7 +6898,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="79.3">
+    <row r="261" spans="1:2" ht="78.75">
       <c r="A261" s="3" t="s">
         <v>500</v>
       </c>
@@ -6897,7 +6906,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="47.6">
+    <row r="262" spans="1:2" ht="47.25">
       <c r="A262" s="3" t="s">
         <v>503</v>
       </c>
@@ -6921,7 +6930,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="47.6">
+    <row r="265" spans="1:2" ht="47.25">
       <c r="A265" s="3" t="s">
         <v>507</v>
       </c>
@@ -6937,7 +6946,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="31.75">
+    <row r="267" spans="1:2" ht="31.5">
       <c r="A267" s="3" t="s">
         <v>509</v>
       </c>
@@ -6945,7 +6954,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="31.75">
+    <row r="268" spans="1:2" ht="31.5">
       <c r="A268" s="3" t="s">
         <v>510</v>
       </c>
@@ -6977,7 +6986,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="31.75">
+    <row r="272" spans="1:2" ht="31.5">
       <c r="A272" s="3" t="s">
         <v>514</v>
       </c>
@@ -6985,7 +6994,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="31.75">
+    <row r="273" spans="1:2" ht="31.5">
       <c r="A273" s="3" t="s">
         <v>515</v>
       </c>
@@ -6993,7 +7002,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="31.75">
+    <row r="274" spans="1:2" ht="31.5">
       <c r="A274" s="3" t="s">
         <v>516</v>
       </c>
@@ -7001,7 +7010,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="47.6">
+    <row r="275" spans="1:2" ht="47.25">
       <c r="A275" s="3" t="s">
         <v>517</v>
       </c>
@@ -7009,7 +7018,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="47.6">
+    <row r="276" spans="1:2" ht="47.25">
       <c r="A276" s="3" t="s">
         <v>518</v>
       </c>
@@ -7017,7 +7026,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="63.45">
+    <row r="277" spans="1:2" ht="63">
       <c r="A277" s="3" t="s">
         <v>519</v>
       </c>
@@ -7025,7 +7034,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="79.3">
+    <row r="278" spans="1:2" ht="78.75">
       <c r="A278" s="3" t="s">
         <v>520</v>
       </c>
@@ -7033,7 +7042,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="79.3">
+    <row r="279" spans="1:2" ht="78.75">
       <c r="A279" s="3" t="s">
         <v>521</v>
       </c>
@@ -7041,7 +7050,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="47.6">
+    <row r="280" spans="1:2" ht="47.25">
       <c r="A280" s="3" t="s">
         <v>522</v>
       </c>
@@ -7065,7 +7074,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="31.75">
+    <row r="283" spans="1:2" ht="31.5">
       <c r="A283" s="3" t="s">
         <v>524</v>
       </c>
@@ -7081,7 +7090,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="31.75">
+    <row r="285" spans="1:2" ht="31.5">
       <c r="A285" s="3" t="s">
         <v>528</v>
       </c>
@@ -7105,7 +7114,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="47.6">
+    <row r="288" spans="1:2" ht="47.25">
       <c r="A288" s="3" t="s">
         <v>537</v>
       </c>
@@ -7129,7 +7138,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="79.3">
+    <row r="291" spans="1:2" ht="78.75">
       <c r="A291" s="3" t="s">
         <v>545</v>
       </c>
@@ -7153,7 +7162,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="47.6">
+    <row r="294" spans="1:2" ht="47.25">
       <c r="A294" s="3" t="s">
         <v>549</v>
       </c>
@@ -7169,7 +7178,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="31.75">
+    <row r="296" spans="1:2" ht="31.5">
       <c r="A296" s="3" t="s">
         <v>551</v>
       </c>
@@ -7177,7 +7186,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="31.75">
+    <row r="297" spans="1:2" ht="31.5">
       <c r="A297" s="3" t="s">
         <v>552</v>
       </c>
@@ -7209,7 +7218,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="31.75">
+    <row r="301" spans="1:2" ht="31.5">
       <c r="A301" s="3" t="s">
         <v>556</v>
       </c>
@@ -7217,7 +7226,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="31.75">
+    <row r="302" spans="1:2" ht="31.5">
       <c r="A302" s="3" t="s">
         <v>557</v>
       </c>
@@ -7225,7 +7234,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="31.75">
+    <row r="303" spans="1:2" ht="31.5">
       <c r="A303" s="3" t="s">
         <v>558</v>
       </c>
@@ -7233,7 +7242,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="47.6">
+    <row r="304" spans="1:2" ht="47.25">
       <c r="A304" s="3" t="s">
         <v>559</v>
       </c>
@@ -7241,7 +7250,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="47.6">
+    <row r="305" spans="1:2" ht="47.25">
       <c r="A305" s="3" t="s">
         <v>560</v>
       </c>
@@ -7249,7 +7258,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="63.45">
+    <row r="306" spans="1:2" ht="63">
       <c r="A306" s="3" t="s">
         <v>561</v>
       </c>
@@ -7257,7 +7266,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="79.3">
+    <row r="307" spans="1:2" ht="78.75">
       <c r="A307" s="3" t="s">
         <v>562</v>
       </c>
@@ -7265,7 +7274,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="79.3">
+    <row r="308" spans="1:2" ht="78.75">
       <c r="A308" s="3" t="s">
         <v>563</v>
       </c>
@@ -7273,7 +7282,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="47.6">
+    <row r="309" spans="1:2" ht="47.25">
       <c r="A309" s="3" t="s">
         <v>564</v>
       </c>
@@ -7305,7 +7314,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="95.15">
+    <row r="313" spans="1:2" ht="94.5">
       <c r="A313" s="3" t="s">
         <v>566</v>
       </c>
@@ -7313,7 +7322,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="31.75">
+    <row r="314" spans="1:2" ht="31.5">
       <c r="A314" s="3" t="s">
         <v>569</v>
       </c>
@@ -7361,7 +7370,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="31.75">
+    <row r="320" spans="1:2" ht="31.5">
       <c r="A320" s="3" t="s">
         <v>584</v>
       </c>
@@ -7393,7 +7402,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="31.75">
+    <row r="324" spans="1:2" ht="31.5">
       <c r="A324" s="3" t="s">
         <v>595</v>
       </c>
@@ -7409,7 +7418,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="31.75">
+    <row r="326" spans="1:2" ht="31.5">
       <c r="A326" s="3" t="s">
         <v>601</v>
       </c>
@@ -7425,7 +7434,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="63.45">
+    <row r="328" spans="1:2" ht="63">
       <c r="A328" s="3" t="s">
         <v>607</v>
       </c>
@@ -7433,7 +7442,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="47.6">
+    <row r="329" spans="1:2" ht="47.25">
       <c r="A329" s="3" t="s">
         <v>609</v>
       </c>
@@ -7449,7 +7458,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="31.75">
+    <row r="331" spans="1:2" ht="31.5">
       <c r="A331" s="3" t="s">
         <v>613</v>
       </c>
@@ -7457,7 +7466,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="31.75">
+    <row r="332" spans="1:2" ht="31.5">
       <c r="A332" s="3" t="s">
         <v>616</v>
       </c>
@@ -7513,7 +7522,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="31.75">
+    <row r="339" spans="1:2" ht="31.5">
       <c r="A339" s="3" t="s">
         <v>630</v>
       </c>
@@ -7553,7 +7562,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="95.15">
+    <row r="344" spans="1:2" ht="94.5">
       <c r="A344" s="3" t="s">
         <v>638</v>
       </c>
@@ -7561,7 +7570,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="31.75">
+    <row r="345" spans="1:2" ht="31.5">
       <c r="A345" s="3" t="s">
         <v>639</v>
       </c>
@@ -7609,7 +7618,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="31.75">
+    <row r="351" spans="1:2" ht="31.5">
       <c r="A351" s="3" t="s">
         <v>652</v>
       </c>
@@ -7617,7 +7626,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="31.75">
+    <row r="352" spans="1:2" ht="31.5">
       <c r="A352" s="3" t="s">
         <v>654</v>
       </c>
@@ -7625,7 +7634,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="31.75">
+    <row r="353" spans="1:2" ht="31.5">
       <c r="A353" s="3" t="s">
         <v>656</v>
       </c>
@@ -7633,7 +7642,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="47.6">
+    <row r="354" spans="1:2" ht="31.5">
       <c r="A354" s="3" t="s">
         <v>658</v>
       </c>
@@ -7689,7 +7698,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="31.75">
+    <row r="361" spans="1:2" ht="31.5">
       <c r="A361" s="3" t="s">
         <v>667</v>
       </c>
@@ -7729,7 +7738,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="79.3">
+    <row r="366" spans="1:2" ht="78.75">
       <c r="A366" s="3" t="s">
         <v>671</v>
       </c>
@@ -7737,7 +7746,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="31.75">
+    <row r="367" spans="1:2" ht="31.5">
       <c r="A367" s="3" t="s">
         <v>673</v>
       </c>
@@ -7769,7 +7778,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="31.75">
+    <row r="371" spans="1:2" ht="31.5">
       <c r="A371" s="3" t="s">
         <v>679</v>
       </c>
@@ -7777,7 +7786,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="31.75">
+    <row r="372" spans="1:2" ht="31.5">
       <c r="A372" s="3" t="s">
         <v>682</v>
       </c>
@@ -7793,7 +7802,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="31.75">
+    <row r="374" spans="1:2" ht="31.5">
       <c r="A374" s="3" t="s">
         <v>687</v>
       </c>
@@ -7801,7 +7810,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="31.75">
+    <row r="375" spans="1:2" ht="31.5">
       <c r="A375" s="3" t="s">
         <v>689</v>
       </c>
@@ -7809,7 +7818,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="47.6">
+    <row r="376" spans="1:2" ht="31.5">
       <c r="A376" s="3" t="s">
         <v>691</v>
       </c>
@@ -7865,7 +7874,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="31.75">
+    <row r="383" spans="1:2" ht="31.5">
       <c r="A383" s="3" t="s">
         <v>698</v>
       </c>
@@ -7905,7 +7914,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="79.3">
+    <row r="388" spans="1:2" ht="78.75">
       <c r="A388" s="3" t="s">
         <v>702</v>
       </c>
@@ -7913,7 +7922,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="31.75">
+    <row r="389" spans="1:2" ht="31.5">
       <c r="A389" s="3" t="s">
         <v>703</v>
       </c>
@@ -7969,7 +7978,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="31.75">
+    <row r="396" spans="1:2" ht="31.5">
       <c r="A396" s="3" t="s">
         <v>714</v>
       </c>
@@ -7993,7 +8002,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="31.75">
+    <row r="399" spans="1:2" ht="31.5">
       <c r="A399" s="3" t="s">
         <v>722</v>
       </c>
@@ -8033,7 +8042,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="31.75">
+    <row r="404" spans="1:2" ht="31.5">
       <c r="A404" s="3" t="s">
         <v>732</v>
       </c>
@@ -8057,7 +8066,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="31.75">
+    <row r="407" spans="1:2" ht="31.5">
       <c r="A407" s="3" t="s">
         <v>735</v>
       </c>
@@ -8073,7 +8082,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="63.45">
+    <row r="409" spans="1:2" ht="63">
       <c r="A409" s="3" t="s">
         <v>737</v>
       </c>
@@ -8081,7 +8090,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="47.6">
+    <row r="410" spans="1:2" ht="47.25">
       <c r="A410" s="3" t="s">
         <v>739</v>
       </c>
@@ -8097,7 +8106,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="31.75">
+    <row r="412" spans="1:2" ht="31.5">
       <c r="A412" s="3" t="s">
         <v>742</v>
       </c>
@@ -8153,7 +8162,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="31.75">
+    <row r="419" spans="1:2" ht="31.5">
       <c r="A419" s="3" t="s">
         <v>749</v>
       </c>
@@ -8249,7 +8258,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="79.3">
+    <row r="431" spans="1:2" ht="78.75">
       <c r="A431" s="3" t="s">
         <v>758</v>
       </c>
@@ -8257,7 +8266,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="31.75">
+    <row r="432" spans="1:2" ht="31.5">
       <c r="A432" s="3" t="s">
         <v>759</v>
       </c>
@@ -8313,7 +8322,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="31.75">
+    <row r="439" spans="1:2" ht="31.5">
       <c r="A439" s="3" t="s">
         <v>768</v>
       </c>
@@ -8321,7 +8330,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="47.6">
+    <row r="440" spans="1:2" ht="47.25">
       <c r="A440" s="3" t="s">
         <v>770</v>
       </c>
@@ -8385,7 +8394,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="31.75">
+    <row r="448" spans="1:2" ht="31.5">
       <c r="A448" s="3" t="s">
         <v>779</v>
       </c>
@@ -8424,25 +8433,23 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView topLeftCell="A446" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F431" sqref="F431:F471"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="52" customWidth="1"/>
+    <col min="1" max="1" width="17.875" style="52" customWidth="1"/>
     <col min="2" max="2" width="12" style="50" customWidth="1"/>
     <col min="3" max="3" width="91.5" style="50" customWidth="1"/>
-    <col min="4" max="4" width="20.35546875" style="50" customWidth="1"/>
-    <col min="5" max="5" width="155.35546875" style="50" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" style="50" customWidth="1"/>
-    <col min="7" max="7" width="84.640625" style="50" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="50" customWidth="1"/>
+    <col min="5" max="5" width="155.375" style="50" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="62.75" style="50" customWidth="1"/>
+    <col min="7" max="7" width="84.625" style="50" customWidth="1"/>
     <col min="8" max="8" width="9" style="51"/>
     <col min="9" max="1027" width="8.5" style="34" customWidth="1"/>
     <col min="1028" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="54" customFormat="1" ht="15.45">
+    <row r="1" spans="1:8" s="54" customFormat="1" ht="15.75">
       <c r="A1" s="33" t="s">
         <v>52</v>
       </c>
@@ -8466,7 +8473,7 @@
       </c>
       <c r="H1" s="53"/>
     </row>
-    <row r="2" spans="1:8" ht="15.45">
+    <row r="2" spans="1:8" ht="15.75">
       <c r="A2" s="35" t="s">
         <v>58</v>
       </c>
@@ -11372,7 +11379,7 @@
       <c r="F157" s="37"/>
       <c r="G157" s="41"/>
     </row>
-    <row r="158" spans="1:7" ht="15.45">
+    <row r="158" spans="1:7" ht="15.75">
       <c r="A158" s="35" t="s">
         <v>58</v>
       </c>
@@ -11502,7 +11509,7 @@
       <c r="F165" s="41"/>
       <c r="G165" s="41"/>
     </row>
-    <row r="166" spans="1:7" ht="30">
+    <row r="166" spans="1:7">
       <c r="A166" s="38" t="s">
         <v>58</v>
       </c>
@@ -11657,7 +11664,7 @@
       <c r="F174" s="40"/>
       <c r="G174" s="38"/>
     </row>
-    <row r="175" spans="1:7" ht="45">
+    <row r="175" spans="1:7" ht="30">
       <c r="A175" s="38" t="s">
         <v>58</v>
       </c>
@@ -11823,7 +11830,7 @@
       <c r="F184" s="41"/>
       <c r="G184" s="41"/>
     </row>
-    <row r="185" spans="1:7" ht="30">
+    <row r="185" spans="1:7">
       <c r="A185" s="38" t="s">
         <v>58</v>
       </c>
@@ -11978,7 +11985,7 @@
       <c r="F193" s="40"/>
       <c r="G193" s="38"/>
     </row>
-    <row r="194" spans="1:7" ht="45">
+    <row r="194" spans="1:7" ht="30">
       <c r="A194" s="38" t="s">
         <v>58</v>
       </c>
@@ -12299,7 +12306,7 @@
       <c r="F212" s="40"/>
       <c r="G212" s="38"/>
     </row>
-    <row r="213" spans="1:7" ht="45">
+    <row r="213" spans="1:7" ht="30">
       <c r="A213" s="38" t="s">
         <v>58</v>
       </c>
@@ -12520,7 +12527,7 @@
       <c r="F225" s="38"/>
       <c r="G225" s="38"/>
     </row>
-    <row r="226" spans="1:7" ht="30">
+    <row r="226" spans="1:7">
       <c r="A226" s="38" t="s">
         <v>58</v>
       </c>
@@ -12977,7 +12984,7 @@
       <c r="F252" s="38"/>
       <c r="G252" s="38"/>
     </row>
-    <row r="253" spans="1:7" ht="15.45">
+    <row r="253" spans="1:7" ht="15.75">
       <c r="A253" s="38" t="s">
         <v>58</v>
       </c>
@@ -14346,7 +14353,7 @@
       <c r="F333" s="38"/>
       <c r="G333" s="38"/>
     </row>
-    <row r="334" spans="1:7" ht="15.45">
+    <row r="334" spans="1:7" ht="15.75">
       <c r="A334" s="38" t="s">
         <v>58</v>
       </c>
@@ -15989,11 +15996,11 @@
       <c r="B422" s="38" t="s">
         <v>718</v>
       </c>
-      <c r="C422" s="38" t="s">
-        <v>719</v>
+      <c r="C422" s="62" t="s">
+        <v>1303</v>
       </c>
       <c r="D422" s="38" t="s">
-        <v>721</v>
+        <v>1078</v>
       </c>
       <c r="E422" s="38"/>
       <c r="F422" s="38" t="s">
@@ -16010,11 +16017,11 @@
       <c r="B423" s="38" t="s">
         <v>722</v>
       </c>
-      <c r="C423" s="38" t="s">
-        <v>723</v>
+      <c r="C423" s="62" t="s">
+        <v>1304</v>
       </c>
       <c r="D423" s="40" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E423" s="40"/>
       <c r="F423" s="38" t="s">
@@ -16029,7 +16036,7 @@
       <c r="B424" s="38" t="s">
         <v>725</v>
       </c>
-      <c r="C424" s="38" t="s">
+      <c r="C424" s="62" t="s">
         <v>726</v>
       </c>
       <c r="D424" s="40" t="s">
@@ -16681,7 +16688,7 @@
       </c>
       <c r="G458" s="38"/>
     </row>
-    <row r="459" spans="1:7" ht="30">
+    <row r="459" spans="1:7">
       <c r="A459" s="38" t="s">
         <v>58</v>
       </c>
@@ -16937,18 +16944,16 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.640625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="81.35546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="45.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="81.375" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.85546875" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -17032,7 +17037,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="126.9">
+    <row r="5" spans="1:7" ht="126">
       <c r="A5" s="3" t="s">
         <v>71</v>
       </c>
@@ -17084,24 +17089,22 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.5" style="29" customWidth="1"/>
     <col min="2" max="2" width="68.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="4" customWidth="1"/>
     <col min="4" max="4" width="100" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.875" style="4" customWidth="1"/>
     <col min="7" max="7" width="20" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.85546875" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="24" customFormat="1" ht="31.75">
+    <row r="1" spans="1:1025" s="24" customFormat="1" ht="31.5">
       <c r="A1" s="8" t="s">
         <v>782</v>
       </c>
@@ -18256,7 +18259,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:1025">
+    <row r="8" spans="1:1025" ht="31.5">
       <c r="A8" s="3" t="s">
         <v>810</v>
       </c>
@@ -18427,7 +18430,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="47.6">
+    <row r="17" spans="1:7" ht="47.25">
       <c r="A17" s="3" t="s">
         <v>125</v>
       </c>
@@ -18809,7 +18812,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="63.45">
+    <row r="37" spans="1:7" ht="63">
       <c r="A37" s="3" t="s">
         <v>257</v>
       </c>
@@ -18830,7 +18833,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="31.75">
+    <row r="38" spans="1:7" ht="31.5">
       <c r="A38" s="3" t="s">
         <v>526</v>
       </c>
@@ -18906,7 +18909,7 @@
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="47.6">
+    <row r="42" spans="1:7" ht="47.25">
       <c r="A42" s="3" t="s">
         <v>274</v>
       </c>
@@ -19186,23 +19189,21 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:IV49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="47.35546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="80.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="47.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="80.875" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.85546875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.85546875" style="19" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="24" customFormat="1" ht="31" customHeight="1">
+    <row r="1" spans="1:256" s="24" customFormat="1" ht="30.95" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>782</v>
       </c>
@@ -19474,7 +19475,7 @@
       <c r="IU1" s="23"/>
       <c r="IV1" s="23"/>
     </row>
-    <row r="2" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="30" t="s">
         <v>860</v>
       </c>
@@ -19493,7 +19494,7 @@
       </c>
       <c r="G2" s="30"/>
     </row>
-    <row r="3" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="30" t="s">
         <v>863</v>
       </c>
@@ -19512,7 +19513,7 @@
       </c>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>865</v>
       </c>
@@ -19550,7 +19551,7 @@
       </c>
       <c r="G5" s="30"/>
     </row>
-    <row r="6" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="30" t="s">
         <v>869</v>
       </c>
@@ -19569,7 +19570,7 @@
       </c>
       <c r="G6" s="30"/>
     </row>
-    <row r="7" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="30" t="s">
         <v>872</v>
       </c>
@@ -19588,7 +19589,7 @@
       </c>
       <c r="G7" s="30"/>
     </row>
-    <row r="8" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="30" t="s">
         <v>875</v>
       </c>
@@ -19626,7 +19627,7 @@
       </c>
       <c r="G9" s="30"/>
     </row>
-    <row r="10" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="30" t="s">
         <v>881</v>
       </c>
@@ -19645,7 +19646,7 @@
       </c>
       <c r="G10" s="30"/>
     </row>
-    <row r="11" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="30" t="s">
         <v>883</v>
       </c>
@@ -19664,7 +19665,7 @@
       </c>
       <c r="G11" s="30"/>
     </row>
-    <row r="12" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="30" t="s">
         <v>885</v>
       </c>
@@ -19702,7 +19703,7 @@
       </c>
       <c r="G13" s="30"/>
     </row>
-    <row r="14" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="14" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="30" t="s">
         <v>890</v>
       </c>
@@ -19721,7 +19722,7 @@
       </c>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="30" t="s">
         <v>892</v>
       </c>
@@ -19778,7 +19779,7 @@
       </c>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="30" t="s">
         <v>894</v>
       </c>
@@ -19797,7 +19798,7 @@
       </c>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="30" t="s">
         <v>896</v>
       </c>
@@ -19816,7 +19817,7 @@
       </c>
       <c r="G19" s="30"/>
     </row>
-    <row r="20" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="30" t="s">
         <v>898</v>
       </c>
@@ -19835,7 +19836,7 @@
       </c>
       <c r="G20" s="30"/>
     </row>
-    <row r="21" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="30" t="s">
         <v>900</v>
       </c>
@@ -19854,7 +19855,7 @@
       </c>
       <c r="G21" s="30"/>
     </row>
-    <row r="22" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="30" t="s">
         <v>903</v>
       </c>
@@ -19873,7 +19874,7 @@
       </c>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="30" t="s">
         <v>905</v>
       </c>
@@ -19892,7 +19893,7 @@
       </c>
       <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="30" t="s">
         <v>907</v>
       </c>
@@ -19911,7 +19912,7 @@
       </c>
       <c r="G24" s="30"/>
     </row>
-    <row r="25" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="30" t="s">
         <v>909</v>
       </c>
@@ -19930,7 +19931,7 @@
       </c>
       <c r="G25" s="30"/>
     </row>
-    <row r="26" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="30" t="s">
         <v>912</v>
       </c>
@@ -19949,7 +19950,7 @@
       </c>
       <c r="G26" s="30"/>
     </row>
-    <row r="27" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="30" t="s">
         <v>914</v>
       </c>
@@ -19968,7 +19969,7 @@
       </c>
       <c r="G27" s="30"/>
     </row>
-    <row r="28" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="30" t="s">
         <v>917</v>
       </c>
@@ -19987,7 +19988,7 @@
       </c>
       <c r="G28" s="30"/>
     </row>
-    <row r="29" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="30" t="s">
         <v>919</v>
       </c>
@@ -20006,7 +20007,7 @@
       </c>
       <c r="G29" s="30"/>
     </row>
-    <row r="30" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="30" t="s">
         <v>921</v>
       </c>
@@ -20025,7 +20026,7 @@
       </c>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="30" t="s">
         <v>923</v>
       </c>
@@ -20044,7 +20045,7 @@
       </c>
       <c r="G31" s="30"/>
     </row>
-    <row r="32" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="30" t="s">
         <v>926</v>
       </c>
@@ -20063,7 +20064,7 @@
       </c>
       <c r="G32" s="30"/>
     </row>
-    <row r="33" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="30" t="s">
         <v>929</v>
       </c>
@@ -20082,7 +20083,7 @@
       </c>
       <c r="G33" s="30"/>
     </row>
-    <row r="34" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="30" t="s">
         <v>932</v>
       </c>
@@ -20101,7 +20102,7 @@
       </c>
       <c r="G34" s="30"/>
     </row>
-    <row r="35" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="30" t="s">
         <v>935</v>
       </c>
@@ -20120,7 +20121,7 @@
       </c>
       <c r="G35" s="30"/>
     </row>
-    <row r="36" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="30" t="s">
         <v>938</v>
       </c>
@@ -20139,7 +20140,7 @@
       </c>
       <c r="G36" s="30"/>
     </row>
-    <row r="37" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="30" t="s">
         <v>941</v>
       </c>
@@ -20158,7 +20159,7 @@
       </c>
       <c r="G37" s="30"/>
     </row>
-    <row r="38" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="30" t="s">
         <v>944</v>
       </c>
@@ -20177,7 +20178,7 @@
       </c>
       <c r="G38" s="30"/>
     </row>
-    <row r="39" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="30" t="s">
         <v>947</v>
       </c>
@@ -20196,7 +20197,7 @@
       </c>
       <c r="G39" s="30"/>
     </row>
-    <row r="40" spans="1:7" ht="31" customHeight="1">
+    <row r="40" spans="1:7" ht="30.95" customHeight="1">
       <c r="A40" s="30" t="s">
         <v>950</v>
       </c>
@@ -20232,7 +20233,7 @@
       <c r="F41" s="30"/>
       <c r="G41" s="30"/>
     </row>
-    <row r="42" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="30" t="s">
         <v>957</v>
       </c>
@@ -20249,7 +20250,7 @@
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
     </row>
-    <row r="43" spans="1:7" ht="31" customHeight="1">
+    <row r="43" spans="1:7" ht="30.95" customHeight="1">
       <c r="A43" s="30" t="s">
         <v>960</v>
       </c>
@@ -20287,7 +20288,7 @@
       <c r="F44" s="30"/>
       <c r="G44" s="30"/>
     </row>
-    <row r="45" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="30" t="s">
         <v>968</v>
       </c>
@@ -20340,7 +20341,7 @@
       <c r="F47" s="30"/>
       <c r="G47" s="30"/>
     </row>
-    <row r="48" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="30" t="s">
         <v>978</v>
       </c>
@@ -20357,7 +20358,7 @@
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
     </row>
-    <row r="49" spans="1:256" s="57" customFormat="1" ht="31.75">
+    <row r="49" spans="1:256" s="57" customFormat="1" ht="31.5">
       <c r="A49" s="31" t="s">
         <v>981</v>
       </c>
@@ -20637,25 +20638,23 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.5" style="29" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="44.35546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="41.35546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="41.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="29" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.85546875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.85546875" style="19" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="24" customFormat="1" ht="17.149999999999999" customHeight="1">
+    <row r="1" spans="1:256" s="24" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>782</v>
       </c>
@@ -21355,7 +21354,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="31.75">
+    <row r="24" spans="1:7" ht="31.5">
       <c r="A24" s="32" t="s">
         <v>1158</v>
       </c>
@@ -21372,7 +21371,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
     </row>
-    <row r="25" spans="1:7" ht="47.6">
+    <row r="25" spans="1:7" ht="47.25">
       <c r="A25" s="32" t="s">
         <v>1162</v>
       </c>
@@ -21389,7 +21388,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
     </row>
-    <row r="26" spans="1:7" ht="31.75">
+    <row r="26" spans="1:7" ht="31.5">
       <c r="A26" s="32" t="s">
         <v>1164</v>
       </c>
@@ -21406,7 +21405,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
     </row>
-    <row r="27" spans="1:7" ht="47.6">
+    <row r="27" spans="1:7" ht="47.25">
       <c r="A27" s="32" t="s">
         <v>1167</v>
       </c>
@@ -21423,7 +21422,7 @@
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
     </row>
-    <row r="28" spans="1:7" ht="31.75">
+    <row r="28" spans="1:7" ht="47.25">
       <c r="A28" s="32" t="s">
         <v>1170</v>
       </c>
@@ -21440,7 +21439,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
     </row>
-    <row r="29" spans="1:7" ht="31.75">
+    <row r="29" spans="1:7" ht="31.5">
       <c r="A29" s="32" t="s">
         <v>1173</v>
       </c>
@@ -21457,7 +21456,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
     </row>
-    <row r="30" spans="1:7" ht="47.6">
+    <row r="30" spans="1:7" ht="47.25">
       <c r="A30" s="32" t="s">
         <v>1176</v>
       </c>
@@ -21488,20 +21487,20 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:IV4"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="54.640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="75.640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="132.35546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="54.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="75.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="132.375" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.85546875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.85546875" style="19" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -21528,7 +21527,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="2" spans="1:256" s="61" customFormat="1" ht="63.45">
+    <row r="2" spans="1:256" s="61" customFormat="1" ht="63">
       <c r="A2" s="8" t="s">
         <v>1031</v>
       </c>
@@ -21798,7 +21797,7 @@
       <c r="IU2" s="60"/>
       <c r="IV2" s="60"/>
     </row>
-    <row r="3" spans="1:256">
+    <row r="3" spans="1:256" ht="31.5">
       <c r="A3" s="5" t="s">
         <v>1034</v>
       </c>
@@ -21819,7 +21818,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:256" ht="63.45">
+    <row r="4" spans="1:256" ht="63">
       <c r="A4" s="5" t="s">
         <v>1036</v>
       </c>
@@ -21854,25 +21853,23 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.5" style="25" customWidth="1"/>
-    <col min="2" max="2" width="53.35546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="53.375" style="20" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="20" customWidth="1"/>
     <col min="4" max="4" width="44.5" style="20" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="20" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="31.875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="20" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="20" customWidth="1"/>
-    <col min="8" max="256" width="8.85546875" style="20" customWidth="1"/>
-    <col min="257" max="1025" width="8.85546875" style="21" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="20" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="21" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="27" customFormat="1" ht="17.149999999999999" customHeight="1">
+    <row r="1" spans="1:256" s="27" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>782</v>
       </c>
@@ -22165,7 +22162,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="3" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="30" t="s">
         <v>648</v>
       </c>
@@ -22184,7 +22181,7 @@
       </c>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>577</v>
       </c>
@@ -22203,7 +22200,7 @@
       </c>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="5" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="30" t="s">
         <v>580</v>
       </c>
@@ -22222,7 +22219,7 @@
       </c>
       <c r="G5" s="30"/>
     </row>
-    <row r="6" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="30" t="s">
         <v>583</v>
       </c>
@@ -22321,7 +22318,7 @@
       </c>
       <c r="G10" s="30"/>
     </row>
-    <row r="11" spans="1:256" ht="17.149999999999999" customHeight="1">
+    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="30" t="s">
         <v>600</v>
       </c>
@@ -22340,7 +22337,7 @@
       </c>
       <c r="G11" s="30"/>
     </row>
-    <row r="12" spans="1:256" ht="33.65" customHeight="1">
+    <row r="12" spans="1:256" ht="33.6" customHeight="1">
       <c r="A12" s="30" t="s">
         <v>603</v>
       </c>
@@ -22502,7 +22499,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.149999999999999" customHeight="1">
+    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="30" t="s">
         <v>721</v>
       </c>
@@ -22567,7 +22564,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="31.75">
+    <row r="23" spans="1:7" ht="31.5">
       <c r="A23" s="30" t="s">
         <v>1114</v>
       </c>
@@ -22620,7 +22617,7 @@
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
     </row>
-    <row r="26" spans="1:7" ht="31.75">
+    <row r="26" spans="1:7" ht="31.5">
       <c r="A26" s="30" t="s">
         <v>1109</v>
       </c>
@@ -22670,16 +22667,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19" style="22" customWidth="1"/>
-    <col min="2" max="2" width="53.35546875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="53.375" style="19" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="19" customWidth="1"/>
     <col min="4" max="4" width="25" style="19" customWidth="1"/>
     <col min="5" max="5" width="46" style="19" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="19" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="19" customWidth="1"/>
-    <col min="8" max="1025" width="8.85546875" style="19" customWidth="1"/>
+    <col min="8" max="1025" width="8.875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>

--- a/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\python_den\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157BDD65-E08D-45D6-9CF4-873670D657A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95414E9-B2DB-4670-AEBC-33E4B1B98FF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6705" yWindow="960" windowWidth="28755" windowHeight="17760" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6705" yWindow="960" windowWidth="28755" windowHeight="17760" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3765" uniqueCount="1305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3761" uniqueCount="1302">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -2499,9 +2499,6 @@
     <t>sp800_73_4_Test_16</t>
   </si>
   <si>
-    <t>CHUID_OID:5</t>
-  </si>
-  <si>
     <t>73-4.17</t>
   </si>
   <si>
@@ -3052,9 +3049,6 @@
   </si>
   <si>
     <t>Validate that the signature algorithm value for RSA with PKCS #1 v1.5 padding specifies the rsaEncryption OID (as per Section 3.2 of RFC 3370) and for ECDSA and RSA with PSS padding, the signatureAlgorithm is in accordance with Table 3-3 of SP 800-78.</t>
-  </si>
-  <si>
-    <t>1.2.840.113549.1.1.5, 1.2.840.113549.1.1.11, 1.2.840.113549.1.1.10, 1.2.840.10045.4.3.2, 1.2.840.10045.4.3.3</t>
   </si>
   <si>
     <t>Need to see if sunset date still applies</t>
@@ -3896,9 +3890,6 @@
     <t>Ensure that ECDSA key is curve P-256 or P-384 (Table 3-2)</t>
   </si>
   <si>
-    <t>1.2.840.113549.1.1.1:1.2.840.113549.1.1.10,1.2.840.113549.1.1.1:1.2.840.113549.1.1.11,1.2.840.10045.2.1:1.2.840.10045.3.1.7,1.2.840.10045.2.1:1.3.132.0.34</t>
-  </si>
-  <si>
     <t>If the algorithm value is id-RSASSA-PSS, verify that the signature-&gt;parameters field is populated with SHA-256 (OID = 2.16.840.1.101.3.4.2.1). For the other RSA algorithms, the parameters field is populated with NULL. For ECDSA, the parameters field is absent. (Table 3-3)</t>
   </si>
   <si>
@@ -3935,12 +3926,6 @@
     <t>The key size and types used are in accordance with Table 3-1 of SP 800-78-4.</t>
   </si>
   <si>
-    <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID:1.2.840.113549.1.1.1+NULL|1.2.840.10045.2.1+1.2.840.10045.3.1.7,
-X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:1.2.840.113549.1.1.1+NULL|1.2.840.10045.2.1+1.2.840.10045.3.1.7,
-X509_CERTIFICATE_FOR_DIGITAL_CERTIFICATE_OID:1.2.840.113549.1.1.1+NULL|1.2.840.10045.2.1+1.2.840.10045.3.1.7|1.2.840.10045.2.1+1.3.132.0.34,
-X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID:1.2.840.113549.1.1.1+NULL|1.2.840.10045.2.1+1.2.840.10045.3.1.7|1.2.840.10045.2.1+1.3.132.0.34</t>
-  </si>
-  <si>
     <t>2.5.29.31</t>
   </si>
   <si>
@@ -3948,6 +3933,9 @@
   </si>
   <si>
     <t>Extended key usage (extKeyUsage) extension asserts id-PIV-cardAuth</t>
+  </si>
+  <si>
+    <t>CHUID_OID:15</t>
   </si>
 </sst>
 </file>
@@ -4038,7 +4026,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4096,6 +4084,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -4158,7 +4158,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4346,6 +4346,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8433,7 +8442,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -8466,7 +8475,7 @@
         <v>56</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="G1" s="33" t="s">
         <v>55</v>
@@ -8478,7 +8487,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>0</v>
@@ -8508,10 +8517,10 @@
         <v>58</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
@@ -8533,7 +8542,7 @@
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="38" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="G5" s="38" t="s">
         <v>61</v>
@@ -8554,7 +8563,7 @@
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="38" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="G6" s="38"/>
     </row>
@@ -8573,7 +8582,7 @@
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="38" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="G7" s="38"/>
     </row>
@@ -8592,7 +8601,7 @@
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="38" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="G8" s="38"/>
     </row>
@@ -8611,7 +8620,7 @@
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="38" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="G9" s="38"/>
     </row>
@@ -8630,7 +8639,7 @@
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="38" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="G10" s="38"/>
     </row>
@@ -8649,7 +8658,7 @@
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="38" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="G11" s="38"/>
     </row>
@@ -8668,7 +8677,7 @@
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="38" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="G12" s="38"/>
     </row>
@@ -8687,7 +8696,7 @@
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="38" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="G13" s="38"/>
     </row>
@@ -8706,7 +8715,7 @@
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="38" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="G14" s="38"/>
     </row>
@@ -8725,7 +8734,7 @@
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="38" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="G15" s="38"/>
     </row>
@@ -8749,10 +8758,10 @@
         <v>58</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
@@ -8774,7 +8783,7 @@
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="38" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>95</v>
@@ -8795,7 +8804,7 @@
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="38" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G19" s="38"/>
     </row>
@@ -8814,7 +8823,7 @@
       </c>
       <c r="E20" s="38"/>
       <c r="F20" s="38" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G20" s="38"/>
     </row>
@@ -8833,7 +8842,7 @@
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="38" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G21" s="38"/>
     </row>
@@ -8852,7 +8861,7 @@
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="38" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G22" s="38"/>
     </row>
@@ -8864,14 +8873,14 @@
         <v>102</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>104</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G23" s="38"/>
     </row>
@@ -8883,14 +8892,14 @@
         <v>105</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G24" s="39"/>
     </row>
@@ -8909,7 +8918,7 @@
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="38" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G25" s="38"/>
     </row>
@@ -8921,14 +8930,14 @@
         <v>111</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>110</v>
       </c>
       <c r="E26" s="38"/>
       <c r="F26" s="38" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G26" s="38"/>
     </row>
@@ -8940,14 +8949,14 @@
         <v>114</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="39" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G27" s="39"/>
     </row>
@@ -8959,14 +8968,14 @@
         <v>117</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G28" s="39"/>
     </row>
@@ -8975,34 +8984,34 @@
         <v>58</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="E29" s="39"/>
       <c r="F29" s="39" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G29" s="39"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="39"/>
       <c r="B30" s="39" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="39" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G30" s="39"/>
     </row>
@@ -9011,17 +9020,17 @@
         <v>58</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>113</v>
       </c>
       <c r="E31" s="38"/>
       <c r="F31" s="38" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G31" s="38"/>
     </row>
@@ -9030,7 +9039,7 @@
         <v>58</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C32" s="38" t="s">
         <v>115</v>
@@ -9040,7 +9049,7 @@
       </c>
       <c r="E32" s="38"/>
       <c r="F32" s="38" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G32" s="38"/>
     </row>
@@ -9049,17 +9058,17 @@
         <v>58</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="39" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G33" s="39"/>
     </row>
@@ -9068,17 +9077,17 @@
         <v>58</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="39" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G34" s="39"/>
     </row>
@@ -9087,17 +9096,17 @@
         <v>58</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="E35" s="39"/>
       <c r="F35" s="39" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G35" s="39"/>
     </row>
@@ -9106,17 +9115,17 @@
         <v>58</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="E36" s="39"/>
       <c r="F36" s="39" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G36" s="39"/>
     </row>
@@ -9125,7 +9134,7 @@
         <v>58</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C37" s="38" t="s">
         <v>118</v>
@@ -9135,7 +9144,7 @@
       </c>
       <c r="E37" s="38"/>
       <c r="F37" s="38" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G37" s="38"/>
     </row>
@@ -9154,7 +9163,7 @@
       </c>
       <c r="E38" s="38"/>
       <c r="F38" s="38" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G38" s="38"/>
     </row>
@@ -9173,7 +9182,7 @@
       </c>
       <c r="E39" s="38"/>
       <c r="F39" s="38" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G39" s="38"/>
     </row>
@@ -9192,7 +9201,7 @@
       </c>
       <c r="E40" s="38"/>
       <c r="F40" s="38" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G40" s="38"/>
     </row>
@@ -9211,7 +9220,7 @@
       </c>
       <c r="E41" s="38"/>
       <c r="F41" s="38" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G41" s="38"/>
     </row>
@@ -9220,7 +9229,7 @@
         <v>131</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>133</v>
@@ -9230,7 +9239,7 @@
       </c>
       <c r="E42" s="38"/>
       <c r="F42" s="38" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G42" s="38"/>
     </row>
@@ -9254,10 +9263,10 @@
         <v>58</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
@@ -9279,7 +9288,7 @@
       </c>
       <c r="E45" s="38"/>
       <c r="F45" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>136</v>
@@ -9300,7 +9309,7 @@
       </c>
       <c r="E46" s="38"/>
       <c r="F46" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G46" s="38"/>
     </row>
@@ -9319,7 +9328,7 @@
       </c>
       <c r="E47" s="38"/>
       <c r="F47" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G47" s="38"/>
     </row>
@@ -9338,7 +9347,7 @@
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G48" s="38"/>
     </row>
@@ -9357,7 +9366,7 @@
       </c>
       <c r="E49" s="38"/>
       <c r="F49" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G49" s="38"/>
     </row>
@@ -9376,7 +9385,7 @@
       </c>
       <c r="E50" s="38"/>
       <c r="F50" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G50" s="38"/>
     </row>
@@ -9395,7 +9404,7 @@
       </c>
       <c r="E51" s="38"/>
       <c r="F51" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G51" s="38"/>
     </row>
@@ -9414,7 +9423,7 @@
       </c>
       <c r="E52" s="38"/>
       <c r="F52" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G52" s="38"/>
     </row>
@@ -9433,7 +9442,7 @@
       </c>
       <c r="E53" s="38"/>
       <c r="F53" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G53" s="38"/>
     </row>
@@ -9442,7 +9451,7 @@
         <v>131</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="C54" s="38" t="s">
         <v>133</v>
@@ -9452,7 +9461,7 @@
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G54" s="38"/>
     </row>
@@ -9476,10 +9485,10 @@
         <v>58</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D56" s="37"/>
       <c r="E56" s="37"/>
@@ -9501,7 +9510,7 @@
       </c>
       <c r="E57" s="38"/>
       <c r="F57" s="38" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>158</v>
@@ -9522,7 +9531,7 @@
       </c>
       <c r="E58" s="38"/>
       <c r="F58" s="38" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="G58" s="38"/>
     </row>
@@ -9541,7 +9550,7 @@
       </c>
       <c r="E59" s="38"/>
       <c r="F59" s="38" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="G59" s="38"/>
     </row>
@@ -9560,7 +9569,7 @@
       </c>
       <c r="E60" s="38"/>
       <c r="F60" s="38" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="G60" s="38"/>
     </row>
@@ -9579,7 +9588,7 @@
       </c>
       <c r="E61" s="38"/>
       <c r="F61" s="38" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="G61" s="38"/>
     </row>
@@ -9598,7 +9607,7 @@
       </c>
       <c r="E62" s="38"/>
       <c r="F62" s="38" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="G62" s="38"/>
     </row>
@@ -9617,7 +9626,7 @@
       </c>
       <c r="E63" s="38"/>
       <c r="F63" s="38" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="G63" s="38"/>
     </row>
@@ -9636,7 +9645,7 @@
       </c>
       <c r="E64" s="38"/>
       <c r="F64" s="38" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="G64" s="38"/>
     </row>
@@ -9655,7 +9664,7 @@
       </c>
       <c r="E65" s="38"/>
       <c r="F65" s="38" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="G65" s="38"/>
     </row>
@@ -9679,10 +9688,10 @@
         <v>58</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D67" s="37"/>
       <c r="E67" s="37"/>
@@ -9704,7 +9713,7 @@
       </c>
       <c r="E68" s="38"/>
       <c r="F68" s="38" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="G68" s="38" t="s">
         <v>169</v>
@@ -9725,7 +9734,7 @@
       </c>
       <c r="E69" s="38"/>
       <c r="F69" s="38" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="G69" s="38"/>
     </row>
@@ -9744,7 +9753,7 @@
       </c>
       <c r="E70" s="38"/>
       <c r="F70" s="38" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="G70" s="38"/>
     </row>
@@ -9763,7 +9772,7 @@
       </c>
       <c r="E71" s="38"/>
       <c r="F71" s="38" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="G71" s="38"/>
     </row>
@@ -9782,7 +9791,7 @@
       </c>
       <c r="E72" s="40"/>
       <c r="F72" s="38" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="G72" s="38"/>
     </row>
@@ -9801,7 +9810,7 @@
       </c>
       <c r="E73" s="38"/>
       <c r="F73" s="38" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="G73" s="38"/>
     </row>
@@ -9813,14 +9822,14 @@
         <v>179</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="D74" s="39" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="E74" s="39"/>
       <c r="F74" s="39" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="G74" s="39"/>
     </row>
@@ -9832,14 +9841,14 @@
         <v>182</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="D75" s="39" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="E75" s="39"/>
       <c r="F75" s="39" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="G75" s="39"/>
     </row>
@@ -9858,7 +9867,7 @@
       </c>
       <c r="E76" s="38"/>
       <c r="F76" s="38" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="G76" s="38"/>
     </row>
@@ -9867,7 +9876,7 @@
         <v>58</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="C77" s="38" t="s">
         <v>183</v>
@@ -9877,7 +9886,7 @@
       </c>
       <c r="E77" s="38"/>
       <c r="F77" s="38" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="G77" s="38"/>
     </row>
@@ -9886,7 +9895,7 @@
         <v>58</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C78" s="38" t="s">
         <v>186</v>
@@ -9896,7 +9905,7 @@
       </c>
       <c r="E78" s="38"/>
       <c r="F78" s="38" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="G78" s="38"/>
     </row>
@@ -9905,7 +9914,7 @@
         <v>131</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C79" s="38" t="s">
         <v>133</v>
@@ -9915,7 +9924,7 @@
       </c>
       <c r="E79" s="38"/>
       <c r="F79" s="38" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="G79" s="38"/>
     </row>
@@ -9924,7 +9933,7 @@
         <v>58</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C80" s="37" t="s">
         <v>6</v>
@@ -9939,10 +9948,10 @@
         <v>58</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D81" s="37"/>
       <c r="E81" s="37"/>
@@ -9964,7 +9973,7 @@
       </c>
       <c r="E82" s="38"/>
       <c r="F82" s="38" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="G82" s="38" t="s">
         <v>191</v>
@@ -9985,7 +9994,7 @@
       </c>
       <c r="E83" s="38"/>
       <c r="F83" s="38" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="G83" s="38"/>
     </row>
@@ -10004,7 +10013,7 @@
       </c>
       <c r="E84" s="38"/>
       <c r="F84" s="38" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="G84" s="38"/>
     </row>
@@ -10023,7 +10032,7 @@
       </c>
       <c r="E85" s="38"/>
       <c r="F85" s="38" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="G85" s="38"/>
     </row>
@@ -10042,7 +10051,7 @@
       </c>
       <c r="E86" s="38"/>
       <c r="F86" s="38" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="G86" s="38"/>
     </row>
@@ -10061,7 +10070,7 @@
       </c>
       <c r="E87" s="38"/>
       <c r="F87" s="38" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="G87" s="38"/>
     </row>
@@ -10080,7 +10089,7 @@
       </c>
       <c r="E88" s="38"/>
       <c r="F88" s="38" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="G88" s="38"/>
     </row>
@@ -10089,7 +10098,7 @@
         <v>131</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="C89" s="38" t="s">
         <v>133</v>
@@ -10099,7 +10108,7 @@
       </c>
       <c r="E89" s="38"/>
       <c r="F89" s="38" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="G89" s="38"/>
     </row>
@@ -10123,10 +10132,10 @@
         <v>58</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D91" s="37"/>
       <c r="E91" s="37"/>
@@ -10148,7 +10157,7 @@
       </c>
       <c r="E92" s="38"/>
       <c r="F92" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G92" s="38" t="s">
         <v>207</v>
@@ -10169,7 +10178,7 @@
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G93" s="38"/>
     </row>
@@ -10188,7 +10197,7 @@
       </c>
       <c r="E94" s="38"/>
       <c r="F94" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G94" s="38"/>
     </row>
@@ -10207,7 +10216,7 @@
       </c>
       <c r="E95" s="38"/>
       <c r="F95" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G95" s="38"/>
     </row>
@@ -10226,7 +10235,7 @@
       </c>
       <c r="E96" s="38"/>
       <c r="F96" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G96" s="38"/>
     </row>
@@ -10245,7 +10254,7 @@
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G97" s="38"/>
     </row>
@@ -10264,7 +10273,7 @@
       </c>
       <c r="E98" s="38"/>
       <c r="F98" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G98" s="38"/>
     </row>
@@ -10283,7 +10292,7 @@
       </c>
       <c r="E99" s="38"/>
       <c r="F99" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G99" s="38"/>
     </row>
@@ -10302,7 +10311,7 @@
       </c>
       <c r="E100" s="38"/>
       <c r="F100" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G100" s="38"/>
     </row>
@@ -10311,7 +10320,7 @@
         <v>131</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C101" s="38" t="s">
         <v>133</v>
@@ -10321,7 +10330,7 @@
       </c>
       <c r="E101" s="38"/>
       <c r="F101" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G101" s="38"/>
     </row>
@@ -10345,10 +10354,10 @@
         <v>58</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D103" s="37"/>
       <c r="E103" s="37"/>
@@ -10370,7 +10379,7 @@
       </c>
       <c r="E104" s="38"/>
       <c r="F104" s="38" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G104" s="38" t="s">
         <v>219</v>
@@ -10391,7 +10400,7 @@
       </c>
       <c r="E105" s="38"/>
       <c r="F105" s="38" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G105" s="38"/>
     </row>
@@ -10410,7 +10419,7 @@
       </c>
       <c r="E106" s="38"/>
       <c r="F106" s="38" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G106" s="38"/>
     </row>
@@ -10429,7 +10438,7 @@
       </c>
       <c r="E107" s="38"/>
       <c r="F107" s="38" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G107" s="38"/>
     </row>
@@ -10448,7 +10457,7 @@
       </c>
       <c r="E108" s="38"/>
       <c r="F108" s="38" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G108" s="38"/>
     </row>
@@ -10467,7 +10476,7 @@
       </c>
       <c r="E109" s="38"/>
       <c r="F109" s="38" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G109" s="38"/>
     </row>
@@ -10486,7 +10495,7 @@
       </c>
       <c r="E110" s="38"/>
       <c r="F110" s="38" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G110" s="38"/>
     </row>
@@ -10505,7 +10514,7 @@
       </c>
       <c r="E111" s="38"/>
       <c r="F111" s="38" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G111" s="38"/>
     </row>
@@ -10524,7 +10533,7 @@
       </c>
       <c r="E112" s="38"/>
       <c r="F112" s="38" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G112" s="38"/>
     </row>
@@ -10533,7 +10542,7 @@
         <v>131</v>
       </c>
       <c r="B113" s="38" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C113" s="38" t="s">
         <v>133</v>
@@ -10543,7 +10552,7 @@
       </c>
       <c r="E113" s="38"/>
       <c r="F113" s="38" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G113" s="38"/>
     </row>
@@ -10567,10 +10576,10 @@
         <v>58</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D115" s="37"/>
       <c r="E115" s="37"/>
@@ -10592,7 +10601,7 @@
       </c>
       <c r="E116" s="38"/>
       <c r="F116" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G116" s="38" t="s">
         <v>136</v>
@@ -10613,7 +10622,7 @@
       </c>
       <c r="E117" s="38"/>
       <c r="F117" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G117" s="38"/>
     </row>
@@ -10632,7 +10641,7 @@
       </c>
       <c r="E118" s="38"/>
       <c r="F118" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G118" s="38"/>
     </row>
@@ -10651,7 +10660,7 @@
       </c>
       <c r="E119" s="38"/>
       <c r="F119" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G119" s="38"/>
     </row>
@@ -10670,7 +10679,7 @@
       </c>
       <c r="E120" s="38"/>
       <c r="F120" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G120" s="38"/>
     </row>
@@ -10689,7 +10698,7 @@
       </c>
       <c r="E121" s="38"/>
       <c r="F121" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G121" s="38"/>
     </row>
@@ -10708,7 +10717,7 @@
       </c>
       <c r="E122" s="38"/>
       <c r="F122" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G122" s="38"/>
     </row>
@@ -10727,7 +10736,7 @@
       </c>
       <c r="E123" s="38"/>
       <c r="F123" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G123" s="38"/>
     </row>
@@ -10746,7 +10755,7 @@
       </c>
       <c r="E124" s="38"/>
       <c r="F124" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G124" s="38"/>
     </row>
@@ -10755,7 +10764,7 @@
         <v>131</v>
       </c>
       <c r="B125" s="38" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="C125" s="38" t="s">
         <v>133</v>
@@ -10765,7 +10774,7 @@
       </c>
       <c r="E125" s="38"/>
       <c r="F125" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G125" s="38"/>
     </row>
@@ -10774,7 +10783,7 @@
         <v>58</v>
       </c>
       <c r="B126" s="38" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="C126" s="37" t="s">
         <v>10</v>
@@ -10789,10 +10798,10 @@
         <v>58</v>
       </c>
       <c r="B127" s="38" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D127" s="37"/>
       <c r="E127" s="37"/>
@@ -10814,7 +10823,7 @@
       </c>
       <c r="E128" s="38"/>
       <c r="F128" s="38" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="G128" s="38" t="s">
         <v>242</v>
@@ -10835,7 +10844,7 @@
       </c>
       <c r="E129" s="38"/>
       <c r="F129" s="38" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="G129" s="38"/>
     </row>
@@ -10854,7 +10863,7 @@
       </c>
       <c r="E130" s="38"/>
       <c r="F130" s="38" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="G130" s="38"/>
     </row>
@@ -10873,7 +10882,7 @@
       </c>
       <c r="E131" s="38"/>
       <c r="F131" s="38" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="G131" s="38"/>
     </row>
@@ -10892,7 +10901,7 @@
       </c>
       <c r="E132" s="38"/>
       <c r="F132" s="38" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="G132" s="38"/>
     </row>
@@ -10904,14 +10913,14 @@
         <v>249</v>
       </c>
       <c r="C133" s="38" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="D133" s="38" t="s">
         <v>251</v>
       </c>
       <c r="E133" s="38"/>
       <c r="F133" s="38" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="G133" s="38"/>
     </row>
@@ -10923,14 +10932,14 @@
         <v>252</v>
       </c>
       <c r="C134" s="39" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D134" s="39" t="s">
         <v>1241</v>
-      </c>
-      <c r="D134" s="39" t="s">
-        <v>1243</v>
       </c>
       <c r="E134" s="39"/>
       <c r="F134" s="39" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="G134" s="39"/>
     </row>
@@ -10949,7 +10958,7 @@
       </c>
       <c r="E135" s="38"/>
       <c r="F135" s="38" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="G135" s="38"/>
     </row>
@@ -10958,7 +10967,7 @@
         <v>58</v>
       </c>
       <c r="B136" s="38" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C136" s="38" t="s">
         <v>256</v>
@@ -10968,7 +10977,7 @@
       </c>
       <c r="E136" s="38"/>
       <c r="F136" s="38" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="G136" s="38"/>
     </row>
@@ -10992,10 +11001,10 @@
         <v>58</v>
       </c>
       <c r="B138" s="38" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="C138" s="37" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D138" s="37"/>
       <c r="E138" s="37"/>
@@ -11019,10 +11028,10 @@
         <v>260</v>
       </c>
       <c r="F139" s="38" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="G139" s="38" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -11042,7 +11051,7 @@
         <v>260</v>
       </c>
       <c r="F140" s="38" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="G140" s="38"/>
     </row>
@@ -11063,7 +11072,7 @@
         <v>260</v>
       </c>
       <c r="F141" s="38" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="G141" s="38"/>
     </row>
@@ -11084,7 +11093,7 @@
         <v>260</v>
       </c>
       <c r="F142" s="38" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="G142" s="38"/>
     </row>
@@ -11096,7 +11105,7 @@
         <v>267</v>
       </c>
       <c r="C143" s="38" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D143" s="38" t="s">
         <v>269</v>
@@ -11105,7 +11114,7 @@
         <v>260</v>
       </c>
       <c r="F143" s="38" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="G143" s="38"/>
     </row>
@@ -11117,7 +11126,7 @@
         <v>270</v>
       </c>
       <c r="C144" s="38" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="D144" s="38" t="s">
         <v>266</v>
@@ -11126,7 +11135,7 @@
         <v>260</v>
       </c>
       <c r="F144" s="38" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="G144" s="38"/>
     </row>
@@ -11138,14 +11147,14 @@
         <v>272</v>
       </c>
       <c r="C145" s="39" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="D145" s="39" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="E145" s="39"/>
       <c r="F145" s="39" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="G145" s="39"/>
     </row>
@@ -11154,19 +11163,19 @@
         <v>58</v>
       </c>
       <c r="B146" s="38" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C146" s="38" t="s">
         <v>271</v>
       </c>
       <c r="D146" s="38" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E146" s="38" t="s">
         <v>260</v>
       </c>
       <c r="F146" s="38" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="G146" s="38"/>
     </row>
@@ -11175,7 +11184,7 @@
         <v>58</v>
       </c>
       <c r="B147" s="38" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C147" s="38" t="s">
         <v>273</v>
@@ -11187,7 +11196,7 @@
         <v>260</v>
       </c>
       <c r="F147" s="38" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="G147" s="38"/>
     </row>
@@ -11196,19 +11205,19 @@
         <v>131</v>
       </c>
       <c r="B148" s="38" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C148" s="38" t="s">
         <v>133</v>
       </c>
       <c r="D148" s="38" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E148" s="38" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="F148" s="38" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="G148" s="38"/>
     </row>
@@ -11217,7 +11226,7 @@
         <v>131</v>
       </c>
       <c r="B149" s="38" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C149" s="38" t="s">
         <v>277</v>
@@ -11227,7 +11236,7 @@
       </c>
       <c r="E149" s="38"/>
       <c r="F149" s="38" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="G149" s="38"/>
     </row>
@@ -11276,14 +11285,14 @@
         <v>14</v>
       </c>
       <c r="D152" s="38" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E152" s="38" t="s">
         <v>281</v>
       </c>
       <c r="F152" s="38"/>
       <c r="G152" s="38" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -11297,14 +11306,14 @@
         <v>15</v>
       </c>
       <c r="D153" s="38" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E153" s="38" t="s">
         <v>281</v>
       </c>
       <c r="F153" s="38"/>
       <c r="G153" s="38" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -11318,14 +11327,14 @@
         <v>283</v>
       </c>
       <c r="D154" s="38" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E154" s="38" t="s">
         <v>284</v>
       </c>
       <c r="F154" s="38"/>
       <c r="G154" s="38" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -11384,7 +11393,7 @@
         <v>58</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C158" s="36" t="s">
         <v>19</v>
@@ -11570,10 +11579,10 @@
         <v>303</v>
       </c>
       <c r="C169" s="38" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="D169" s="40" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E169" s="40"/>
       <c r="F169" s="40"/>
@@ -11891,10 +11900,10 @@
         <v>330</v>
       </c>
       <c r="C188" s="38" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="D188" s="40" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E188" s="40"/>
       <c r="F188" s="40"/>
@@ -12162,7 +12171,7 @@
         <v>350</v>
       </c>
       <c r="D204" s="38" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E204" s="38"/>
       <c r="F204" s="38"/>
@@ -12215,7 +12224,7 @@
         <v>356</v>
       </c>
       <c r="D207" s="40" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E207" s="40"/>
       <c r="F207" s="40"/>
@@ -12403,7 +12412,7 @@
       <c r="E218" s="38"/>
       <c r="F218" s="38"/>
       <c r="G218" s="38" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -12485,7 +12494,7 @@
         <v>379</v>
       </c>
       <c r="D223" s="40" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E223" s="40"/>
       <c r="F223" s="40"/>
@@ -12516,13 +12525,13 @@
         <v>382</v>
       </c>
       <c r="C225" s="40" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="D225" s="40" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E225" s="38" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="F225" s="38"/>
       <c r="G225" s="38"/>
@@ -12538,10 +12547,10 @@
         <v>385</v>
       </c>
       <c r="D226" s="40" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E226" s="38" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="F226" s="38"/>
       <c r="G226" s="38"/>
@@ -12554,7 +12563,7 @@
         <v>386</v>
       </c>
       <c r="C227" s="38" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="D227" s="38">
         <v>76.16</v>
@@ -12628,7 +12637,7 @@
       <c r="E231" s="38"/>
       <c r="F231" s="38"/>
       <c r="G231" s="38" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -12642,7 +12651,7 @@
         <v>398</v>
       </c>
       <c r="D232" s="38" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E232" s="38"/>
       <c r="F232" s="38"/>
@@ -12693,10 +12702,10 @@
         <v>404</v>
       </c>
       <c r="D235" s="40" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E235" s="40" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="F235" s="40"/>
       <c r="G235" s="38"/>
@@ -12989,7 +12998,7 @@
         <v>58</v>
       </c>
       <c r="B253" s="35" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C253" s="36" t="s">
         <v>35</v>
@@ -13079,7 +13088,7 @@
         <v>441</v>
       </c>
       <c r="E258" s="59" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="F258" s="38"/>
       <c r="G258" s="44"/>
@@ -13160,13 +13169,13 @@
         <v>454</v>
       </c>
       <c r="C263" s="44" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="D263" s="38" t="s">
         <v>456</v>
       </c>
       <c r="E263" s="59" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="F263" s="38"/>
       <c r="G263" s="44"/>
@@ -13176,13 +13185,13 @@
         <v>58</v>
       </c>
       <c r="B264" s="38" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="C264" s="44" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="D264" s="38" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="E264" s="38"/>
       <c r="F264" s="38"/>
@@ -13236,7 +13245,7 @@
         <v>465</v>
       </c>
       <c r="E267" s="59" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="F267" s="38"/>
       <c r="G267" s="44"/>
@@ -13246,7 +13255,7 @@
         <v>58</v>
       </c>
       <c r="B268" s="38" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="C268" s="44" t="s">
         <v>467</v>
@@ -13454,7 +13463,7 @@
         <v>490</v>
       </c>
       <c r="D280" s="38" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="E280" s="38"/>
       <c r="F280" s="38"/>
@@ -13758,7 +13767,7 @@
         <v>490</v>
       </c>
       <c r="D298" s="38" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="E298" s="38"/>
       <c r="F298" s="38"/>
@@ -14188,7 +14197,7 @@
         <v>58</v>
       </c>
       <c r="B324" s="38" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="C324" s="38" t="s">
         <v>483</v>
@@ -14205,7 +14214,7 @@
         <v>58</v>
       </c>
       <c r="B325" s="38" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="C325" s="38" t="s">
         <v>485</v>
@@ -14245,7 +14254,7 @@
         <v>490</v>
       </c>
       <c r="D327" s="38" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="E327" s="38"/>
       <c r="F327" s="38"/>
@@ -14324,7 +14333,7 @@
         <v>58</v>
       </c>
       <c r="B332" s="38" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="C332" s="38" t="s">
         <v>501</v>
@@ -14341,7 +14350,7 @@
         <v>58</v>
       </c>
       <c r="B333" s="38" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="C333" s="38" t="s">
         <v>504</v>
@@ -14358,7 +14367,7 @@
         <v>58</v>
       </c>
       <c r="B334" s="35" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="C334" s="49" t="s">
         <v>40</v>
@@ -14412,10 +14421,10 @@
         <v>78.3</v>
       </c>
       <c r="E337" s="38" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="F337" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G337" s="44" t="s">
         <v>568</v>
@@ -14435,10 +14444,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E338" s="38" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="F338" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G338" s="44"/>
     </row>
@@ -14450,14 +14459,14 @@
         <v>571</v>
       </c>
       <c r="C339" s="44" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="D339" s="38">
         <v>78.099999999999994</v>
       </c>
       <c r="E339" s="38"/>
       <c r="F339" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G339" s="44"/>
     </row>
@@ -14491,7 +14500,7 @@
       </c>
       <c r="E341" s="38"/>
       <c r="F341" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G341" s="44" t="s">
         <v>576</v>
@@ -14512,7 +14521,7 @@
       </c>
       <c r="E342" s="38"/>
       <c r="F342" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G342" s="44"/>
     </row>
@@ -14531,7 +14540,7 @@
       </c>
       <c r="E343" s="38"/>
       <c r="F343" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G343" s="38"/>
     </row>
@@ -14550,7 +14559,7 @@
       </c>
       <c r="E344" s="38"/>
       <c r="F344" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G344" s="44"/>
     </row>
@@ -14584,10 +14593,10 @@
       </c>
       <c r="E346" s="38"/>
       <c r="F346" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G346" s="44" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -14605,7 +14614,7 @@
       </c>
       <c r="E347" s="38"/>
       <c r="F347" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G347" s="44"/>
     </row>
@@ -14617,14 +14626,14 @@
         <v>595</v>
       </c>
       <c r="C348" s="44" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D348" s="38" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="E348" s="38"/>
       <c r="F348" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G348" s="44"/>
     </row>
@@ -14643,7 +14652,7 @@
       </c>
       <c r="E349" s="38"/>
       <c r="F349" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G349" s="44"/>
     </row>
@@ -14662,7 +14671,7 @@
       </c>
       <c r="E350" s="38"/>
       <c r="F350" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G350" s="44"/>
     </row>
@@ -14696,10 +14705,10 @@
       </c>
       <c r="E352" s="40"/>
       <c r="F352" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G352" s="44" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="30">
@@ -14717,7 +14726,7 @@
       </c>
       <c r="E353" s="40"/>
       <c r="F353" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G353" s="44"/>
     </row>
@@ -14732,11 +14741,11 @@
         <v>612</v>
       </c>
       <c r="D354" s="40" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E354" s="40"/>
       <c r="F354" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G354" s="38"/>
     </row>
@@ -14755,7 +14764,7 @@
       </c>
       <c r="E355" s="40"/>
       <c r="F355" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G355" s="44"/>
     </row>
@@ -14774,7 +14783,7 @@
       </c>
       <c r="E356" s="38"/>
       <c r="F356" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G356" s="44"/>
     </row>
@@ -14808,10 +14817,10 @@
       </c>
       <c r="E358" s="38"/>
       <c r="F358" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G358" s="38" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -14825,11 +14834,11 @@
         <v>624</v>
       </c>
       <c r="D359" s="40" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E359" s="40"/>
       <c r="F359" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G359" s="38"/>
     </row>
@@ -14863,10 +14872,10 @@
       </c>
       <c r="E361" s="38"/>
       <c r="F361" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G361" s="44" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -14880,11 +14889,11 @@
         <v>629</v>
       </c>
       <c r="D362" s="38" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E362" s="46"/>
       <c r="F362" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G362" s="44"/>
     </row>
@@ -14903,7 +14912,7 @@
       </c>
       <c r="E363" s="38"/>
       <c r="F363" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G363" s="44"/>
     </row>
@@ -14918,11 +14927,11 @@
         <v>633</v>
       </c>
       <c r="D364" s="38" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="E364" s="38"/>
       <c r="F364" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G364" s="44"/>
     </row>
@@ -14937,13 +14946,13 @@
         <v>635</v>
       </c>
       <c r="D365" s="38" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E365" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F365" s="38" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="G365" s="38"/>
     </row>
@@ -14988,13 +14997,13 @@
         <v>567</v>
       </c>
       <c r="D368" s="40" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E368" s="40" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="F368" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G368" s="44" t="s">
         <v>568</v>
@@ -15011,13 +15020,13 @@
         <v>640</v>
       </c>
       <c r="D369" s="40" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E369" s="40" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F369" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G369" s="44"/>
     </row>
@@ -15035,10 +15044,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E370" s="38" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="F370" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G370" s="44"/>
     </row>
@@ -15087,7 +15096,7 @@
       </c>
       <c r="E373" s="38"/>
       <c r="F373" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G373" s="44" t="s">
         <v>647</v>
@@ -15108,7 +15117,7 @@
       </c>
       <c r="E374" s="38"/>
       <c r="F374" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G374" s="44"/>
     </row>
@@ -15127,7 +15136,7 @@
       </c>
       <c r="E375" s="38"/>
       <c r="F375" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G375" s="44"/>
     </row>
@@ -15146,7 +15155,7 @@
       </c>
       <c r="E376" s="40"/>
       <c r="F376" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G376" s="44"/>
     </row>
@@ -15165,7 +15174,7 @@
       </c>
       <c r="E377" s="38"/>
       <c r="F377" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G377" s="44"/>
     </row>
@@ -15184,7 +15193,7 @@
       </c>
       <c r="E378" s="38"/>
       <c r="F378" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G378" s="44"/>
     </row>
@@ -15218,10 +15227,10 @@
       </c>
       <c r="E380" s="38"/>
       <c r="F380" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G380" s="44" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -15235,13 +15244,13 @@
         <v>624</v>
       </c>
       <c r="D381" s="40" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E381" s="40" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="F381" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G381" s="38"/>
     </row>
@@ -15275,10 +15284,10 @@
       </c>
       <c r="E383" s="38"/>
       <c r="F383" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G383" s="44" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -15292,11 +15301,11 @@
         <v>666</v>
       </c>
       <c r="D384" s="38" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E384" s="46"/>
       <c r="F384" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G384" s="44"/>
     </row>
@@ -15315,7 +15324,7 @@
       </c>
       <c r="E385" s="38"/>
       <c r="F385" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G385" s="44"/>
     </row>
@@ -15330,11 +15339,11 @@
         <v>633</v>
       </c>
       <c r="D386" s="38" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="E386" s="38"/>
       <c r="F386" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G386" s="38"/>
     </row>
@@ -15349,13 +15358,13 @@
         <v>635</v>
       </c>
       <c r="D387" s="38" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E387" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F387" s="38" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="G387" s="38"/>
     </row>
@@ -15403,10 +15412,10 @@
         <v>78.3</v>
       </c>
       <c r="E390" s="38" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="F390" s="38" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G390" s="44" t="s">
         <v>568</v>
@@ -15423,13 +15432,13 @@
         <v>674</v>
       </c>
       <c r="D391" s="38" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E391" s="40" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F391" s="38" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G391" s="38"/>
     </row>
@@ -15447,10 +15456,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E392" s="38" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="F392" s="38" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G392" s="44"/>
     </row>
@@ -15495,11 +15504,11 @@
         <v>680</v>
       </c>
       <c r="D395" s="38" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="E395" s="38"/>
       <c r="F395" s="38" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G395" s="44" t="s">
         <v>681</v>
@@ -15520,7 +15529,7 @@
       </c>
       <c r="E396" s="38"/>
       <c r="F396" s="38" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G396" s="44"/>
     </row>
@@ -15539,7 +15548,7 @@
       </c>
       <c r="E397" s="38"/>
       <c r="F397" s="38" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G397" s="44"/>
     </row>
@@ -15558,7 +15567,7 @@
       </c>
       <c r="E398" s="38"/>
       <c r="F398" s="38" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G398" s="44"/>
     </row>
@@ -15577,7 +15586,7 @@
       </c>
       <c r="E399" s="38"/>
       <c r="F399" s="38" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G399" s="44"/>
     </row>
@@ -15596,7 +15605,7 @@
       </c>
       <c r="E400" s="38"/>
       <c r="F400" s="38" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G400" s="44"/>
     </row>
@@ -15630,10 +15639,10 @@
       </c>
       <c r="E402" s="38"/>
       <c r="F402" s="38" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G402" s="44" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -15647,13 +15656,13 @@
         <v>624</v>
       </c>
       <c r="D403" s="40" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E403" s="40" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="F403" s="38" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G403" s="38"/>
     </row>
@@ -15687,10 +15696,10 @@
       </c>
       <c r="E405" s="38"/>
       <c r="F405" s="38" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G405" s="44" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -15704,11 +15713,11 @@
         <v>666</v>
       </c>
       <c r="D406" s="38" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E406" s="46"/>
       <c r="F406" s="38" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G406" s="44"/>
     </row>
@@ -15727,7 +15736,7 @@
       </c>
       <c r="E407" s="38"/>
       <c r="F407" s="38" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G407" s="44"/>
     </row>
@@ -15742,11 +15751,11 @@
         <v>633</v>
       </c>
       <c r="D408" s="38" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="E408" s="38"/>
       <c r="F408" s="38" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G408" s="38"/>
     </row>
@@ -15761,13 +15770,13 @@
         <v>635</v>
       </c>
       <c r="D409" s="38" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E409" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F409" s="38" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G409" s="38"/>
     </row>
@@ -15815,10 +15824,10 @@
         <v>78.3</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="F412" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G412" s="44" t="s">
         <v>568</v>
@@ -15838,10 +15847,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E413" s="38" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F413" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G413" s="44"/>
     </row>
@@ -15859,10 +15868,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E414" s="38" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="F414" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G414" s="44"/>
     </row>
@@ -15911,7 +15920,7 @@
       </c>
       <c r="E417" s="38"/>
       <c r="F417" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G417" s="38" t="s">
         <v>709</v>
@@ -15932,7 +15941,7 @@
       </c>
       <c r="E418" s="38"/>
       <c r="F418" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G418" s="44"/>
     </row>
@@ -15951,7 +15960,7 @@
       </c>
       <c r="E419" s="38"/>
       <c r="F419" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G419" s="44"/>
     </row>
@@ -15970,7 +15979,7 @@
       </c>
       <c r="E420" s="38"/>
       <c r="F420" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G420" s="38"/>
     </row>
@@ -15997,14 +16006,14 @@
         <v>718</v>
       </c>
       <c r="C422" s="62" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="D422" s="38" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E422" s="38"/>
       <c r="F422" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G422" s="38" t="s">
         <v>720</v>
@@ -16018,14 +16027,14 @@
         <v>722</v>
       </c>
       <c r="C423" s="62" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="D423" s="40" t="s">
         <v>721</v>
       </c>
       <c r="E423" s="40"/>
       <c r="F423" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G423" s="38"/>
     </row>
@@ -16044,7 +16053,7 @@
       </c>
       <c r="E424" s="40"/>
       <c r="F424" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G424" s="38"/>
     </row>
@@ -16078,7 +16087,7 @@
       </c>
       <c r="E426" s="40"/>
       <c r="F426" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G426" s="44" t="s">
         <v>729</v>
@@ -16099,7 +16108,7 @@
       </c>
       <c r="E427" s="40"/>
       <c r="F427" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G427" s="44"/>
     </row>
@@ -16118,7 +16127,7 @@
       </c>
       <c r="E428" s="40"/>
       <c r="F428" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G428" s="44"/>
     </row>
@@ -16137,7 +16146,7 @@
       </c>
       <c r="E429" s="40"/>
       <c r="F429" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G429" s="38"/>
     </row>
@@ -16156,7 +16165,7 @@
       </c>
       <c r="E430" s="40"/>
       <c r="F430" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G430" s="44"/>
     </row>
@@ -16175,7 +16184,7 @@
       </c>
       <c r="E431" s="40"/>
       <c r="F431" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G431" s="44"/>
     </row>
@@ -16192,7 +16201,7 @@
       <c r="D432" s="41"/>
       <c r="E432" s="41"/>
       <c r="F432" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G432" s="41"/>
     </row>
@@ -16211,7 +16220,7 @@
       </c>
       <c r="E433" s="40"/>
       <c r="F433" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G433" s="44" t="s">
         <v>738</v>
@@ -16232,7 +16241,7 @@
       </c>
       <c r="E434" s="40"/>
       <c r="F434" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G434" s="44"/>
     </row>
@@ -16251,7 +16260,7 @@
       </c>
       <c r="E435" s="40"/>
       <c r="F435" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G435" s="44" t="s">
         <v>606</v>
@@ -16272,7 +16281,7 @@
       </c>
       <c r="E436" s="40"/>
       <c r="F436" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G436" s="44"/>
     </row>
@@ -16289,7 +16298,7 @@
       <c r="D437" s="41"/>
       <c r="E437" s="41"/>
       <c r="F437" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G437" s="41"/>
     </row>
@@ -16308,10 +16317,10 @@
       </c>
       <c r="E438" s="40"/>
       <c r="F438" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G438" s="44" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -16325,13 +16334,13 @@
         <v>624</v>
       </c>
       <c r="D439" s="40" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E439" s="40" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="F439" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G439" s="38"/>
     </row>
@@ -16343,12 +16352,12 @@
         <v>746</v>
       </c>
       <c r="C440" s="41" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="D440" s="41"/>
       <c r="E440" s="41"/>
       <c r="F440" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G440" s="41"/>
     </row>
@@ -16363,13 +16372,13 @@
         <v>635</v>
       </c>
       <c r="D441" s="38" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E441" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F441" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G441" s="38"/>
     </row>
@@ -16386,7 +16395,7 @@
       <c r="D442" s="41"/>
       <c r="E442" s="41"/>
       <c r="F442" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G442" s="37"/>
     </row>
@@ -16405,7 +16414,7 @@
         <v>279</v>
       </c>
       <c r="F443" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G443" s="44"/>
     </row>
@@ -16424,7 +16433,7 @@
         <v>279</v>
       </c>
       <c r="F444" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G444" s="44"/>
     </row>
@@ -16443,7 +16452,7 @@
         <v>279</v>
       </c>
       <c r="F445" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G445" s="44"/>
     </row>
@@ -16460,7 +16469,7 @@
       <c r="D446" s="41"/>
       <c r="E446" s="37"/>
       <c r="F446" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G446" s="37"/>
     </row>
@@ -16479,7 +16488,7 @@
         <v>279</v>
       </c>
       <c r="F447" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G447" s="44"/>
     </row>
@@ -16498,7 +16507,7 @@
         <v>279</v>
       </c>
       <c r="F448" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G448" s="44"/>
     </row>
@@ -16515,7 +16524,7 @@
       <c r="D449" s="41"/>
       <c r="E449" s="41"/>
       <c r="F449" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G449" s="37"/>
     </row>
@@ -16532,7 +16541,7 @@
       <c r="D450" s="41"/>
       <c r="E450" s="41"/>
       <c r="F450" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G450" s="41"/>
     </row>
@@ -16551,7 +16560,7 @@
       </c>
       <c r="E451" s="38"/>
       <c r="F451" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G451" s="44" t="s">
         <v>568</v>
@@ -16572,7 +16581,7 @@
       </c>
       <c r="E452" s="38"/>
       <c r="F452" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G452" s="44"/>
     </row>
@@ -16591,7 +16600,7 @@
       </c>
       <c r="E453" s="38"/>
       <c r="F453" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G453" s="44"/>
     </row>
@@ -16608,7 +16617,7 @@
       <c r="D454" s="41"/>
       <c r="E454" s="41"/>
       <c r="F454" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G454" s="41"/>
     </row>
@@ -16625,7 +16634,7 @@
       <c r="D455" s="41"/>
       <c r="E455" s="41"/>
       <c r="F455" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G455" s="41"/>
     </row>
@@ -16644,10 +16653,10 @@
       </c>
       <c r="E456" s="38"/>
       <c r="F456" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G456" s="44" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -16665,7 +16674,7 @@
       </c>
       <c r="E457" s="38"/>
       <c r="F457" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G457" s="44"/>
     </row>
@@ -16680,11 +16689,11 @@
         <v>767</v>
       </c>
       <c r="D458" s="38" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="E458" s="38"/>
       <c r="F458" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G458" s="38"/>
     </row>
@@ -16703,7 +16712,7 @@
       </c>
       <c r="E459" s="38"/>
       <c r="F459" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G459" s="38"/>
     </row>
@@ -16715,12 +16724,12 @@
         <v>770</v>
       </c>
       <c r="C460" s="38" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="D460" s="38"/>
       <c r="E460" s="38"/>
       <c r="F460" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G460" s="38"/>
     </row>
@@ -16729,7 +16738,7 @@
         <v>58</v>
       </c>
       <c r="B461" s="38" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C461" s="38" t="s">
         <v>771</v>
@@ -16739,7 +16748,7 @@
       </c>
       <c r="E461" s="38"/>
       <c r="F461" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G461" s="38"/>
     </row>
@@ -16748,17 +16757,17 @@
         <v>58</v>
       </c>
       <c r="B462" s="38" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C462" s="38" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D462" s="38" t="s">
         <v>724</v>
       </c>
       <c r="E462" s="38"/>
       <c r="F462" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G462" s="38"/>
     </row>
@@ -16775,7 +16784,7 @@
       <c r="D463" s="41"/>
       <c r="E463" s="41"/>
       <c r="F463" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G463" s="41"/>
     </row>
@@ -16794,10 +16803,10 @@
       </c>
       <c r="E464" s="38"/>
       <c r="F464" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G464" s="44" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -16811,11 +16820,11 @@
         <v>624</v>
       </c>
       <c r="D465" s="40" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E465" s="40"/>
       <c r="F465" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G465" s="38"/>
     </row>
@@ -16832,7 +16841,7 @@
       <c r="D466" s="41"/>
       <c r="E466" s="41"/>
       <c r="F466" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G466" s="41"/>
     </row>
@@ -16851,10 +16860,10 @@
       </c>
       <c r="E467" s="38"/>
       <c r="F467" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G467" s="44" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -16872,7 +16881,7 @@
       </c>
       <c r="E468" s="38"/>
       <c r="F468" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G468" s="44"/>
     </row>
@@ -16891,7 +16900,7 @@
       </c>
       <c r="E469" s="38"/>
       <c r="F469" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G469" s="44"/>
     </row>
@@ -16906,11 +16915,11 @@
         <v>633</v>
       </c>
       <c r="D470" s="38" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="E470" s="38"/>
       <c r="F470" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G470" s="38"/>
     </row>
@@ -16925,11 +16934,11 @@
         <v>635</v>
       </c>
       <c r="D471" s="38" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E471" s="38"/>
       <c r="F471" s="38" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G471" s="38"/>
     </row>
@@ -16985,7 +16994,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>789</v>
@@ -17004,7 +17013,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>791</v>
@@ -17023,7 +17032,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>792</v>
@@ -17042,7 +17051,7 @@
         <v>71</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>793</v>
@@ -17061,7 +17070,7 @@
         <v>796</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>797</v>
@@ -17097,7 +17106,7 @@
     <col min="2" max="2" width="68.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="23.875" style="4" customWidth="1"/>
     <col min="4" max="4" width="100" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="4" customWidth="1"/>
     <col min="6" max="6" width="22.875" style="4" customWidth="1"/>
     <col min="7" max="7" width="20" style="4" customWidth="1"/>
     <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
@@ -18430,7 +18439,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="47.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>125</v>
       </c>
@@ -18444,7 +18453,7 @@
         <v>124</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>823</v>
+        <v>1301</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>790</v>
@@ -18453,16 +18462,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>813</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>825</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>826</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
@@ -18475,10 +18484,10 @@
         <v>142</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>827</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>828</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>141</v>
@@ -18494,10 +18503,10 @@
         <v>145</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>144</v>
@@ -18513,10 +18522,10 @@
         <v>148</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>147</v>
@@ -18532,10 +18541,10 @@
         <v>151</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>150</v>
@@ -18551,10 +18560,10 @@
         <v>154</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>153</v>
@@ -18570,10 +18579,10 @@
         <v>92</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>91</v>
@@ -18589,13 +18598,13 @@
         <v>130</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>834</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>835</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>836</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
@@ -18608,13 +18617,13 @@
         <v>200</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>837</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>838</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
@@ -18627,10 +18636,10 @@
         <v>203</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>202</v>
@@ -18646,10 +18655,10 @@
         <v>175</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>840</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>841</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>174</v>
@@ -18665,10 +18674,10 @@
         <v>178</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>177</v>
@@ -18684,10 +18693,10 @@
         <v>181</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>180</v>
@@ -18703,10 +18712,10 @@
         <v>184</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>183</v>
@@ -18722,10 +18731,10 @@
         <v>187</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>186</v>
@@ -18741,10 +18750,10 @@
         <v>197</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>846</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>847</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>196</v>
@@ -18760,10 +18769,10 @@
         <v>248</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>848</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>849</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>247</v>
@@ -18779,10 +18788,10 @@
         <v>251</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>250</v>
@@ -18798,10 +18807,10 @@
         <v>254</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>253</v>
@@ -18817,10 +18826,10 @@
         <v>257</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>256</v>
@@ -18830,7 +18839,7 @@
         <v>809</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="31.5">
@@ -18838,10 +18847,10 @@
         <v>526</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>525</v>
@@ -18857,10 +18866,10 @@
         <v>278</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>277</v>
@@ -18876,13 +18885,13 @@
         <v>269</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
@@ -18895,13 +18904,13 @@
         <v>266</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -18914,13 +18923,13 @@
         <v>274</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>858</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>859</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
@@ -18930,16 +18939,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="32" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B43" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="32" t="s">
@@ -18949,16 +18958,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="32" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B44" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="32" t="s">
@@ -18968,16 +18977,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="32" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B45" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="32" t="s">
@@ -18987,16 +18996,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="32" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B46" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="32" t="s">
@@ -19006,16 +19015,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="32" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B47" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="32" t="s">
@@ -19025,16 +19034,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="32" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B48" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="32" t="s">
@@ -19044,16 +19053,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="32" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B49" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="32" t="s">
@@ -19063,16 +19072,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="32" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B50" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="32" t="s">
@@ -19082,16 +19091,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="32" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B51" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="32" t="s">
@@ -19101,16 +19110,16 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="32" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="32" t="s">
@@ -19120,16 +19129,16 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="32" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="32" t="s">
@@ -19139,16 +19148,16 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="32" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="E54" s="32"/>
       <c r="F54" s="32" t="s">
@@ -19158,16 +19167,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="32" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="E55" s="32"/>
       <c r="F55" s="32" t="s">
@@ -19189,7 +19198,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:IV49"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40:E45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
@@ -19477,13 +19488,13 @@
     </row>
     <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="30" t="s">
+        <v>859</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>860</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="C2" s="30" t="s">
         <v>861</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>862</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>290</v>
@@ -19496,13 +19507,13 @@
     </row>
     <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="30" t="s">
+        <v>862</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>863</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>864</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>292</v>
@@ -19515,13 +19526,13 @@
     </row>
     <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="30" t="s">
+        <v>864</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>865</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>866</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>294</v>
@@ -19534,13 +19545,13 @@
     </row>
     <row r="5" spans="1:256" ht="31.5" customHeight="1">
       <c r="A5" s="30" t="s">
+        <v>866</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>867</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>868</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>297</v>
@@ -19553,16 +19564,16 @@
     </row>
     <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="30" t="s">
+        <v>868</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>869</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="D6" s="30" t="s">
         <v>870</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>871</v>
       </c>
       <c r="E6" s="30"/>
       <c r="F6" s="30" t="s">
@@ -19572,16 +19583,16 @@
     </row>
     <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="30" t="s">
+        <v>871</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C7" s="30" t="s">
         <v>872</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C7" s="30" t="s">
+      <c r="D7" s="30" t="s">
         <v>873</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>874</v>
       </c>
       <c r="E7" s="30"/>
       <c r="F7" s="30" t="s">
@@ -19591,16 +19602,16 @@
     </row>
     <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="30" t="s">
+        <v>874</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>875</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="D8" s="30" t="s">
         <v>876</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>877</v>
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="30" t="s">
@@ -19610,16 +19621,16 @@
     </row>
     <row r="9" spans="1:256" ht="31.5" customHeight="1">
       <c r="A9" s="30" t="s">
+        <v>877</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>878</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="D9" s="30" t="s">
         <v>879</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>880</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30" t="s">
@@ -19629,13 +19640,13 @@
     </row>
     <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="30" t="s">
+        <v>880</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>881</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>882</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>370</v>
@@ -19648,13 +19659,13 @@
     </row>
     <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="30" t="s">
+        <v>882</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>883</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>884</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>372</v>
@@ -19667,16 +19678,16 @@
     </row>
     <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="30" t="s">
+        <v>884</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>885</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C12" s="30" t="s">
+      <c r="D12" s="30" t="s">
         <v>886</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>887</v>
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="30" t="s">
@@ -19686,13 +19697,13 @@
     </row>
     <row r="13" spans="1:256" ht="31.5" customHeight="1">
       <c r="A13" s="30" t="s">
+        <v>887</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>888</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>889</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>376</v>
@@ -19705,13 +19716,13 @@
     </row>
     <row r="14" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="30" t="s">
+        <v>889</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>890</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>891</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>379</v>
@@ -19724,13 +19735,13 @@
     </row>
     <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>892</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>893</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>381</v>
@@ -19743,16 +19754,16 @@
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1">
       <c r="A16" s="31" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30" t="s">
@@ -19762,16 +19773,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
       <c r="A17" s="31" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30" t="s">
@@ -19781,16 +19792,16 @@
     </row>
     <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="30" t="s">
+        <v>893</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>894</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>895</v>
-      </c>
       <c r="D18" s="31" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30" t="s">
@@ -19800,13 +19811,13 @@
     </row>
     <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="30" t="s">
+        <v>895</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>896</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>897</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>390</v>
@@ -19819,13 +19830,13 @@
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="30" t="s">
+        <v>897</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>898</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>899</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>392</v>
@@ -19838,16 +19849,16 @@
     </row>
     <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="30" t="s">
+        <v>899</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>900</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C21" s="30" t="s">
+      <c r="D21" s="30" t="s">
         <v>901</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>902</v>
       </c>
       <c r="E21" s="30"/>
       <c r="F21" s="30" t="s">
@@ -19857,13 +19868,13 @@
     </row>
     <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="30" t="s">
+        <v>902</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>903</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>904</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>398</v>
@@ -19876,13 +19887,13 @@
     </row>
     <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="30" t="s">
+        <v>904</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C23" s="30" t="s">
         <v>905</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>906</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>400</v>
@@ -19895,13 +19906,13 @@
     </row>
     <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="30" t="s">
+        <v>906</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>907</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>908</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>402</v>
@@ -19914,16 +19925,16 @@
     </row>
     <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="30" t="s">
+        <v>908</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C25" s="30" t="s">
         <v>909</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C25" s="30" t="s">
+      <c r="D25" s="30" t="s">
         <v>910</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>911</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="30" t="s">
@@ -19933,13 +19944,13 @@
     </row>
     <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="30" t="s">
+        <v>911</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C26" s="30" t="s">
         <v>912</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>913</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>408</v>
@@ -19952,16 +19963,16 @@
     </row>
     <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="30" t="s">
+        <v>913</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C27" s="30" t="s">
         <v>914</v>
       </c>
-      <c r="B27" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C27" s="30" t="s">
+      <c r="D27" s="30" t="s">
         <v>915</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>916</v>
       </c>
       <c r="E27" s="30"/>
       <c r="F27" s="30" t="s">
@@ -19971,13 +19982,13 @@
     </row>
     <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="30" t="s">
+        <v>916</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C28" s="30" t="s">
         <v>917</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>918</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>412</v>
@@ -19990,13 +20001,13 @@
     </row>
     <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="30" t="s">
+        <v>918</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C29" s="30" t="s">
         <v>919</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>920</v>
       </c>
       <c r="D29" s="30" t="s">
         <v>414</v>
@@ -20009,13 +20020,13 @@
     </row>
     <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="30" t="s">
+        <v>920</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C30" s="30" t="s">
         <v>921</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>922</v>
       </c>
       <c r="D30" s="30" t="s">
         <v>416</v>
@@ -20028,16 +20039,16 @@
     </row>
     <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="30" t="s">
+        <v>922</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C31" s="30" t="s">
         <v>923</v>
       </c>
-      <c r="B31" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C31" s="30" t="s">
+      <c r="D31" s="30" t="s">
         <v>924</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>925</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="30" t="s">
@@ -20047,16 +20058,16 @@
     </row>
     <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="30" t="s">
+        <v>925</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C32" s="30" t="s">
         <v>926</v>
       </c>
-      <c r="B32" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C32" s="30" t="s">
+      <c r="D32" s="30" t="s">
         <v>927</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>928</v>
       </c>
       <c r="E32" s="30"/>
       <c r="F32" s="30" t="s">
@@ -20066,16 +20077,16 @@
     </row>
     <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="30" t="s">
+        <v>928</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C33" s="30" t="s">
         <v>929</v>
       </c>
-      <c r="B33" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C33" s="30" t="s">
+      <c r="D33" s="30" t="s">
         <v>930</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>931</v>
       </c>
       <c r="E33" s="30"/>
       <c r="F33" s="30" t="s">
@@ -20085,16 +20096,16 @@
     </row>
     <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="30" t="s">
+        <v>931</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C34" s="30" t="s">
         <v>932</v>
       </c>
-      <c r="B34" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C34" s="30" t="s">
+      <c r="D34" s="30" t="s">
         <v>933</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>934</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="30" t="s">
@@ -20104,16 +20115,16 @@
     </row>
     <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="30" t="s">
+        <v>934</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C35" s="30" t="s">
         <v>935</v>
       </c>
-      <c r="B35" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C35" s="30" t="s">
+      <c r="D35" s="30" t="s">
         <v>936</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>937</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="30" t="s">
@@ -20123,16 +20134,16 @@
     </row>
     <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="30" t="s">
+        <v>937</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C36" s="30" t="s">
         <v>938</v>
       </c>
-      <c r="B36" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C36" s="30" t="s">
+      <c r="D36" s="30" t="s">
         <v>939</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>940</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="30" t="s">
@@ -20142,16 +20153,16 @@
     </row>
     <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="30" t="s">
+        <v>940</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C37" s="30" t="s">
         <v>941</v>
       </c>
-      <c r="B37" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C37" s="30" t="s">
+      <c r="D37" s="30" t="s">
         <v>942</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>943</v>
       </c>
       <c r="E37" s="30"/>
       <c r="F37" s="30" t="s">
@@ -20161,16 +20172,16 @@
     </row>
     <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="30" t="s">
+        <v>943</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C38" s="30" t="s">
         <v>944</v>
       </c>
-      <c r="B38" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C38" s="30" t="s">
+      <c r="D38" s="30" t="s">
         <v>945</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>946</v>
       </c>
       <c r="E38" s="30"/>
       <c r="F38" s="30" t="s">
@@ -20180,16 +20191,16 @@
     </row>
     <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="30" t="s">
+        <v>946</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C39" s="30" t="s">
         <v>947</v>
       </c>
-      <c r="B39" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C39" s="30" t="s">
+      <c r="D39" s="30" t="s">
         <v>948</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>949</v>
       </c>
       <c r="E39" s="30"/>
       <c r="F39" s="30" t="s">
@@ -20199,35 +20210,35 @@
     </row>
     <row r="40" spans="1:7" ht="30.95" customHeight="1">
       <c r="A40" s="30" t="s">
+        <v>949</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C40" s="30" t="s">
         <v>950</v>
       </c>
-      <c r="B40" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C40" s="30" t="s">
+      <c r="D40" s="30" t="s">
         <v>951</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="E40" s="30" t="s">
         <v>952</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>953</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="30"/>
     </row>
     <row r="41" spans="1:7" ht="31.5" customHeight="1">
       <c r="A41" s="30" t="s">
+        <v>953</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C41" s="30" t="s">
         <v>954</v>
       </c>
-      <c r="B41" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C41" s="30" t="s">
+      <c r="D41" s="30" t="s">
         <v>955</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>956</v>
       </c>
       <c r="E41" s="30"/>
       <c r="F41" s="30"/>
@@ -20235,16 +20246,16 @@
     </row>
     <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="30" t="s">
+        <v>956</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C42" s="30" t="s">
         <v>957</v>
       </c>
-      <c r="B42" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C42" s="30" t="s">
+      <c r="D42" s="30" t="s">
         <v>958</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>959</v>
       </c>
       <c r="E42" s="30"/>
       <c r="F42" s="30"/>
@@ -20252,73 +20263,73 @@
     </row>
     <row r="43" spans="1:7" ht="30.95" customHeight="1">
       <c r="A43" s="30" t="s">
+        <v>959</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C43" s="30" t="s">
         <v>960</v>
       </c>
-      <c r="B43" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C43" s="30" t="s">
+      <c r="D43" s="30" t="s">
         <v>961</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="E43" s="30" t="s">
         <v>962</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>963</v>
       </c>
       <c r="F43" s="30"/>
       <c r="G43" s="30"/>
     </row>
     <row r="44" spans="1:7" ht="47.25" customHeight="1">
       <c r="A44" s="30" t="s">
+        <v>963</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C44" s="30" t="s">
         <v>964</v>
       </c>
-      <c r="B44" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C44" s="30" t="s">
+      <c r="D44" s="30" t="s">
         <v>965</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="E44" s="30" t="s">
         <v>966</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>967</v>
       </c>
       <c r="F44" s="30"/>
       <c r="G44" s="30"/>
     </row>
     <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="30" t="s">
+        <v>967</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C45" s="30" t="s">
         <v>968</v>
       </c>
-      <c r="B45" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C45" s="30" t="s">
+      <c r="D45" s="30" t="s">
         <v>969</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="E45" s="30" t="s">
         <v>970</v>
-      </c>
-      <c r="E45" s="30" t="s">
-        <v>971</v>
       </c>
       <c r="F45" s="30"/>
       <c r="G45" s="30"/>
     </row>
     <row r="46" spans="1:7" ht="31.5" customHeight="1">
       <c r="A46" s="30" t="s">
+        <v>971</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C46" s="30" t="s">
         <v>972</v>
       </c>
-      <c r="B46" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C46" s="30" t="s">
+      <c r="D46" s="30" t="s">
         <v>973</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>974</v>
       </c>
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
@@ -20326,16 +20337,16 @@
     </row>
     <row r="47" spans="1:7" ht="31.5" customHeight="1">
       <c r="A47" s="30" t="s">
+        <v>974</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C47" s="30" t="s">
         <v>975</v>
       </c>
-      <c r="B47" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C47" s="30" t="s">
+      <c r="D47" s="30" t="s">
         <v>976</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>977</v>
       </c>
       <c r="E47" s="30"/>
       <c r="F47" s="30"/>
@@ -20343,16 +20354,16 @@
     </row>
     <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="30" t="s">
+        <v>977</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C48" s="30" t="s">
         <v>978</v>
       </c>
-      <c r="B48" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C48" s="30" t="s">
+      <c r="D48" s="30" t="s">
         <v>979</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>980</v>
       </c>
       <c r="E48" s="30"/>
       <c r="F48" s="30"/>
@@ -20360,16 +20371,16 @@
     </row>
     <row r="49" spans="1:256" s="57" customFormat="1" ht="31.5">
       <c r="A49" s="31" t="s">
+        <v>980</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C49" s="31" t="s">
         <v>981</v>
       </c>
-      <c r="B49" s="30" t="s">
-        <v>861</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>982</v>
-      </c>
       <c r="D49" s="31" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="E49" s="30"/>
       <c r="F49" s="30"/>
@@ -20638,7 +20649,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
@@ -20931,13 +20944,13 @@
         <v>435</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>983</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>984</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
@@ -20950,13 +20963,13 @@
         <v>438</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>985</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>986</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
@@ -20969,13 +20982,13 @@
         <v>441</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>987</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>988</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
@@ -20988,13 +21001,13 @@
         <v>456</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>989</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>990</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
@@ -21007,13 +21020,13 @@
         <v>444</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>991</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>992</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
@@ -21026,13 +21039,13 @@
         <v>447</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>993</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>994</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
@@ -21045,13 +21058,13 @@
         <v>450</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>995</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>996</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
@@ -21064,13 +21077,13 @@
         <v>453</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>997</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>998</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
@@ -21083,13 +21096,13 @@
         <v>459</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>999</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>1000</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
@@ -21099,16 +21112,16 @@
     </row>
     <row r="11" spans="1:256" ht="47.25" customHeight="1">
       <c r="A11" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>1001</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>1002</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>1003</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
@@ -21121,13 +21134,13 @@
         <v>462</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>1004</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>1005</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
@@ -21140,22 +21153,20 @@
         <v>465</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>1006</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>1008</v>
-      </c>
+      <c r="E13" s="63"/>
       <c r="F13" s="5" t="s">
         <v>790</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.5" customHeight="1">
@@ -21163,13 +21174,13 @@
         <v>468</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
@@ -21182,22 +21193,22 @@
         <v>502</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>1012</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>1014</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>790</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="16" spans="1:256" ht="47.25" customHeight="1">
@@ -21205,13 +21216,13 @@
         <v>493</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
@@ -21224,22 +21235,22 @@
         <v>505</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>1018</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>1019</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>1020</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>790</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" customHeight="1">
@@ -21247,10 +21258,10 @@
         <v>533</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>532</v>
@@ -21266,10 +21277,10 @@
         <v>536</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>535</v>
@@ -21285,13 +21296,13 @@
         <v>539</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
@@ -21304,13 +21315,13 @@
         <v>542</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
@@ -21323,13 +21334,13 @@
         <v>547</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
@@ -21342,10 +21353,10 @@
         <v>488</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>544</v>
@@ -21356,16 +21367,16 @@
     </row>
     <row r="24" spans="1:7" ht="31.5">
       <c r="A24" s="32" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C24" s="32" t="s">
         <v>1158</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="D24" s="32" t="s">
         <v>1159</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>1161</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
@@ -21373,16 +21384,16 @@
     </row>
     <row r="25" spans="1:7" ht="47.25">
       <c r="A25" s="32" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -21390,16 +21401,16 @@
     </row>
     <row r="26" spans="1:7" ht="31.5">
       <c r="A26" s="32" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D26" s="32" t="s">
         <v>1164</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>1166</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
@@ -21407,16 +21418,16 @@
     </row>
     <row r="27" spans="1:7" ht="47.25">
       <c r="A27" s="32" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D27" s="32" t="s">
         <v>1167</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>1169</v>
       </c>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
@@ -21424,16 +21435,16 @@
     </row>
     <row r="28" spans="1:7" ht="47.25">
       <c r="A28" s="32" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D28" s="32" t="s">
         <v>1170</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>1172</v>
       </c>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
@@ -21441,16 +21452,16 @@
     </row>
     <row r="29" spans="1:7" ht="31.5">
       <c r="A29" s="32" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D29" s="32" t="s">
         <v>1173</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>1175</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
@@ -21458,16 +21469,16 @@
     </row>
     <row r="30" spans="1:7" ht="47.25">
       <c r="A30" s="32" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D30" s="32" t="s">
         <v>1176</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>1178</v>
       </c>
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
@@ -21487,9 +21498,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:IV4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:B4"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
@@ -21527,22 +21536,20 @@
         <v>788</v>
       </c>
     </row>
-    <row r="2" spans="1:256" s="61" customFormat="1" ht="63">
+    <row r="2" spans="1:256" s="61" customFormat="1">
       <c r="A2" s="8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>1031</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>1033</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>1301</v>
-      </c>
+        <v>1284</v>
+      </c>
+      <c r="E2" s="64"/>
       <c r="F2" s="28" t="s">
         <v>790</v>
       </c>
@@ -21797,22 +21804,20 @@
       <c r="IU2" s="60"/>
       <c r="IV2" s="60"/>
     </row>
-    <row r="3" spans="1:256" ht="31.5">
+    <row r="3" spans="1:256">
       <c r="A3" s="5" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1287</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>1288</v>
-      </c>
+        <v>1285</v>
+      </c>
+      <c r="E3" s="65"/>
       <c r="F3" s="3" t="s">
         <v>790</v>
       </c>
@@ -21820,20 +21825,18 @@
     </row>
     <row r="4" spans="1:256" ht="63">
       <c r="A4" s="5" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1289</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>1290</v>
-      </c>
+        <v>1286</v>
+      </c>
+      <c r="E4" s="64"/>
       <c r="F4" s="3" t="s">
         <v>790</v>
       </c>
@@ -22143,23 +22146,23 @@
     </row>
     <row r="2" spans="1:256" ht="31.5" customHeight="1">
       <c r="A2" s="30" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>1038</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="D2" s="30" t="s">
         <v>1039</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>1041</v>
       </c>
       <c r="E2" s="30"/>
       <c r="F2" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
@@ -22167,13 +22170,13 @@
         <v>648</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="30" t="s">
@@ -22186,13 +22189,13 @@
         <v>577</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="30" t="s">
@@ -22205,13 +22208,13 @@
         <v>580</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="30" t="s">
@@ -22224,13 +22227,13 @@
         <v>583</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E6" s="30"/>
       <c r="F6" s="30" t="s">
@@ -22243,22 +22246,22 @@
         <v>586</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C7" s="30" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E7" s="30" t="s">
         <v>1051</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>1053</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="31.5" customHeight="1">
@@ -22266,13 +22269,13 @@
         <v>591</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="30" t="s">
@@ -22285,13 +22288,13 @@
         <v>594</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30" t="s">
@@ -22304,13 +22307,13 @@
         <v>597</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="30" t="s">
@@ -22323,13 +22326,13 @@
         <v>600</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30" t="s">
@@ -22342,10 +22345,10 @@
         <v>603</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>602</v>
@@ -22361,22 +22364,22 @@
         <v>606</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.5" customHeight="1">
@@ -22384,20 +22387,20 @@
         <v>615</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="31.5" customHeight="1">
@@ -22405,13 +22408,13 @@
         <v>618</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="30" t="s">
@@ -22424,13 +22427,13 @@
         <v>651</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30" t="s">
@@ -22440,16 +22443,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
       <c r="A17" s="30" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>1073</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>1075</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30" t="s">
@@ -22462,13 +22465,13 @@
         <v>684</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30" t="s">
@@ -22478,25 +22481,25 @@
     </row>
     <row r="19" spans="1:7" ht="31.5" customHeight="1">
       <c r="A19" s="30" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D19" s="30" t="s">
         <v>1078</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C19" s="30" t="s">
+      <c r="E19" s="30" t="s">
         <v>1079</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>1081</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
@@ -22504,13 +22507,13 @@
         <v>721</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="30" t="s">
@@ -22523,56 +22526,56 @@
         <v>724</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C21" s="30" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E21" s="30" t="s">
         <v>1084</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>1086</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="31.5" customHeight="1">
       <c r="A22" s="30" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>1088</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C22" s="30" t="s">
+      <c r="E22" s="30" t="s">
         <v>1089</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>1091</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>809</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="31.5">
       <c r="A23" s="30" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C23" s="30" t="s">
         <v>1114</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>1116</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>629</v>
@@ -22583,13 +22586,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="30" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>633</v>
@@ -22600,32 +22603,32 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="30" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>624</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7" ht="31.5">
       <c r="A26" s="30" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>635</v>
@@ -22636,13 +22639,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="58" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>767</v>
@@ -22954,40 +22957,40 @@
     </row>
     <row r="2" spans="1:256">
       <c r="A2" s="7" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
         <v>790</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="3" spans="1:256">
       <c r="A3" s="7" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>809</v>
@@ -22996,19 +22999,19 @@
     </row>
     <row r="4" spans="1:256">
       <c r="A4" s="6" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>809</v>

--- a/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geoff\gsa-devel\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95414E9-B2DB-4670-AEBC-33E4B1B98FF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF29BDA9-CEAE-4605-80E1-5C5B7C1C5EEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6705" yWindow="960" windowWidth="28755" windowHeight="17760" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,15 @@
     <sheet name="PKIX" sheetId="8" r:id="rId8"/>
     <sheet name="Placeholders" sheetId="9" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Steps Overview'!$A$1:$G$471</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3761" uniqueCount="1302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="1303">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -2926,9 +2929,6 @@
   </si>
   <si>
     <t>Verify that for the modality, the CBEFF Biometric Data Type encoding value shall be 128, 32, or 2 which corresponds to cardholder fingerprints, facial image, and iris.</t>
-  </si>
-  <si>
-    <t>CARDHOLDER_FINGERPRINTS_OID:128,CARDHOLDER_FACIAL_IMAGE_OID:32:2,CARDHOLDER_IRIS_IMAGES_OID:64</t>
   </si>
   <si>
     <t>76.43</t>
@@ -3935,7 +3935,13 @@
     <t>Extended key usage (extKeyUsage) extension asserts id-PIV-cardAuth</t>
   </si>
   <si>
-    <t>CHUID_OID:15</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>CARDHOLDER_FINGERPRINTS_OID:128,CARDHOLDER_FACIAL_IMAGE_OID:32,CARDHOLDER_IRIS_IMAGES_OID:2</t>
+  </si>
+  <si>
+    <t>CARDHOLDER_IRIS_IMAGES_OID</t>
   </si>
 </sst>
 </file>
@@ -4748,13 +4754,13 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="57.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="57.3984375" style="4" customWidth="1"/>
     <col min="3" max="5" width="10.5" style="4" customWidth="1"/>
-    <col min="6" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
+    <col min="6" max="256" width="8.8984375" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -5411,7 +5417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="31.5">
+    <row r="74" spans="1:5" ht="31.2">
       <c r="A74" s="3" t="s">
         <v>205</v>
       </c>
@@ -5499,7 +5505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="31.5">
+    <row r="85" spans="1:2" ht="31.2">
       <c r="A85" s="3" t="s">
         <v>217</v>
       </c>
@@ -5587,7 +5593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="31.5">
+    <row r="96" spans="1:2" ht="31.2">
       <c r="A96" s="3" t="s">
         <v>229</v>
       </c>
@@ -5675,7 +5681,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" ht="31.2">
       <c r="A107" s="3" t="s">
         <v>240</v>
       </c>
@@ -5731,7 +5737,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="31.5">
+    <row r="114" spans="1:2" ht="31.2">
       <c r="A114" s="3" t="s">
         <v>255</v>
       </c>
@@ -5747,7 +5753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="28.5">
+    <row r="116" spans="1:2" ht="27.6">
       <c r="A116" s="3" t="s">
         <v>258</v>
       </c>
@@ -5787,7 +5793,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="47.25">
+    <row r="121" spans="1:2" ht="46.8">
       <c r="A121" s="3" t="s">
         <v>267</v>
       </c>
@@ -5803,7 +5809,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="63">
+    <row r="123" spans="1:2" ht="62.4">
       <c r="A123" s="3" t="s">
         <v>272</v>
       </c>
@@ -5955,7 +5961,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="31.5">
+    <row r="142" spans="1:2" ht="31.2">
       <c r="A142" s="3" t="s">
         <v>296</v>
       </c>
@@ -5971,7 +5977,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="31.5">
+    <row r="144" spans="1:2" ht="31.2">
       <c r="A144" s="3" t="s">
         <v>301</v>
       </c>
@@ -5979,7 +5985,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="47.25">
+    <row r="145" spans="1:2" ht="46.8">
       <c r="A145" s="3" t="s">
         <v>303</v>
       </c>
@@ -5987,7 +5993,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="47.25">
+    <row r="146" spans="1:2" ht="46.8">
       <c r="A146" s="3" t="s">
         <v>305</v>
       </c>
@@ -6011,7 +6017,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="47.25">
+    <row r="149" spans="1:2" ht="46.8">
       <c r="A149" s="3" t="s">
         <v>311</v>
       </c>
@@ -6027,7 +6033,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="63">
+    <row r="151" spans="1:2" ht="62.4">
       <c r="A151" s="3" t="s">
         <v>315</v>
       </c>
@@ -6035,7 +6041,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="31.5">
+    <row r="152" spans="1:2" ht="31.2">
       <c r="A152" s="3" t="s">
         <v>317</v>
       </c>
@@ -6043,7 +6049,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="31.5">
+    <row r="153" spans="1:2" ht="31.2">
       <c r="A153" s="3" t="s">
         <v>319</v>
       </c>
@@ -6107,7 +6113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="31.5">
+    <row r="161" spans="1:2" ht="31.2">
       <c r="A161" s="3" t="s">
         <v>327</v>
       </c>
@@ -6123,7 +6129,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="31.5">
+    <row r="163" spans="1:2" ht="31.2">
       <c r="A163" s="3" t="s">
         <v>329</v>
       </c>
@@ -6131,7 +6137,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="31.5">
+    <row r="164" spans="1:2" ht="31.2">
       <c r="A164" s="3" t="s">
         <v>330</v>
       </c>
@@ -6139,7 +6145,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="47.25">
+    <row r="165" spans="1:2" ht="46.8">
       <c r="A165" s="3" t="s">
         <v>332</v>
       </c>
@@ -6163,7 +6169,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="31.5">
+    <row r="168" spans="1:2" ht="31.2">
       <c r="A168" s="3" t="s">
         <v>336</v>
       </c>
@@ -6179,7 +6185,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="63">
+    <row r="170" spans="1:2" ht="62.4">
       <c r="A170" s="3" t="s">
         <v>340</v>
       </c>
@@ -6187,7 +6193,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="31.5">
+    <row r="171" spans="1:2" ht="31.2">
       <c r="A171" s="3" t="s">
         <v>341</v>
       </c>
@@ -6195,7 +6201,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="31.5">
+    <row r="172" spans="1:2" ht="31.2">
       <c r="A172" s="3" t="s">
         <v>342</v>
       </c>
@@ -6291,7 +6297,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="47.25">
+    <row r="184" spans="1:2" ht="46.8">
       <c r="A184" s="3" t="s">
         <v>332</v>
       </c>
@@ -6307,7 +6313,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" ht="31.2">
       <c r="A186" s="3" t="s">
         <v>358</v>
       </c>
@@ -6315,7 +6321,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="31.5">
+    <row r="187" spans="1:2" ht="31.2">
       <c r="A187" s="3" t="s">
         <v>360</v>
       </c>
@@ -6331,7 +6337,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="63">
+    <row r="189" spans="1:2" ht="62.4">
       <c r="A189" s="3" t="s">
         <v>363</v>
       </c>
@@ -6339,7 +6345,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="31.5">
+    <row r="190" spans="1:2" ht="31.2">
       <c r="A190" s="3" t="s">
         <v>364</v>
       </c>
@@ -6347,7 +6353,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="31.5">
+    <row r="191" spans="1:2" ht="31.2">
       <c r="A191" s="3" t="s">
         <v>365</v>
       </c>
@@ -6395,7 +6401,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="47.25">
+    <row r="197" spans="1:2" ht="46.8">
       <c r="A197" s="3" t="s">
         <v>375</v>
       </c>
@@ -6403,7 +6409,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="47.25">
+    <row r="198" spans="1:2" ht="46.8">
       <c r="A198" s="3" t="s">
         <v>377</v>
       </c>
@@ -6427,7 +6433,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="31.5">
+    <row r="201" spans="1:2" ht="31.2">
       <c r="A201" s="3" t="s">
         <v>382</v>
       </c>
@@ -6435,7 +6441,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="31.5">
+    <row r="202" spans="1:2" ht="31.2">
       <c r="A202" s="3" t="s">
         <v>384</v>
       </c>
@@ -6539,7 +6545,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="31.5">
+    <row r="215" spans="1:2" ht="31.2">
       <c r="A215" s="3" t="s">
         <v>409</v>
       </c>
@@ -6683,7 +6689,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="47.25">
+    <row r="233" spans="1:2" ht="46.8">
       <c r="A233" s="3" t="s">
         <v>432</v>
       </c>
@@ -6699,7 +6705,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="31.5">
+    <row r="235" spans="1:2" ht="31.2">
       <c r="A235" s="3" t="s">
         <v>439</v>
       </c>
@@ -6707,7 +6713,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="31.5">
+    <row r="236" spans="1:2" ht="31.2">
       <c r="A236" s="3" t="s">
         <v>442</v>
       </c>
@@ -6723,7 +6729,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" ht="31.2">
       <c r="A238" s="3" t="s">
         <v>448</v>
       </c>
@@ -6731,7 +6737,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="47.25">
+    <row r="239" spans="1:2" ht="62.4">
       <c r="A239" s="3" t="s">
         <v>451</v>
       </c>
@@ -6739,7 +6745,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="47.25">
+    <row r="240" spans="1:2" ht="46.8">
       <c r="A240" s="3" t="s">
         <v>454</v>
       </c>
@@ -6747,7 +6753,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="78.75">
+    <row r="241" spans="1:2" ht="78">
       <c r="A241" s="3" t="s">
         <v>457</v>
       </c>
@@ -6755,7 +6761,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="47.25">
+    <row r="242" spans="1:2" ht="62.4">
       <c r="A242" s="3" t="s">
         <v>460</v>
       </c>
@@ -6763,7 +6769,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="78.75">
+    <row r="243" spans="1:2" ht="78">
       <c r="A243" s="3" t="s">
         <v>463</v>
       </c>
@@ -6771,7 +6777,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="31.5">
+    <row r="244" spans="1:2" ht="31.2">
       <c r="A244" s="3" t="s">
         <v>466</v>
       </c>
@@ -6795,7 +6801,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="47.25">
+    <row r="247" spans="1:2" ht="46.8">
       <c r="A247" s="3" t="s">
         <v>471</v>
       </c>
@@ -6811,7 +6817,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="31.5">
+    <row r="249" spans="1:2" ht="31.2">
       <c r="A249" s="3" t="s">
         <v>476</v>
       </c>
@@ -6819,7 +6825,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="31.5">
+    <row r="250" spans="1:2" ht="31.2">
       <c r="A250" s="3" t="s">
         <v>478</v>
       </c>
@@ -6835,7 +6841,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" ht="31.2">
       <c r="A252" s="3" t="s">
         <v>481</v>
       </c>
@@ -6851,7 +6857,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="31.5">
+    <row r="254" spans="1:2" ht="31.2">
       <c r="A254" s="3" t="s">
         <v>484</v>
       </c>
@@ -6859,7 +6865,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="31.5">
+    <row r="255" spans="1:2" ht="31.2">
       <c r="A255" s="3" t="s">
         <v>486</v>
       </c>
@@ -6867,7 +6873,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="31.5">
+    <row r="256" spans="1:2" ht="31.2">
       <c r="A256" s="3" t="s">
         <v>489</v>
       </c>
@@ -6875,7 +6881,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="47.25">
+    <row r="257" spans="1:2" ht="46.8">
       <c r="A257" s="3" t="s">
         <v>491</v>
       </c>
@@ -6883,7 +6889,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="47.25">
+    <row r="258" spans="1:2" ht="62.4">
       <c r="A258" s="3" t="s">
         <v>494</v>
       </c>
@@ -6891,7 +6897,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="63">
+    <row r="259" spans="1:2" ht="62.4">
       <c r="A259" s="3" t="s">
         <v>496</v>
       </c>
@@ -6899,7 +6905,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="78.75">
+    <row r="260" spans="1:2" ht="78">
       <c r="A260" s="3" t="s">
         <v>498</v>
       </c>
@@ -6907,7 +6913,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="78.75">
+    <row r="261" spans="1:2" ht="78">
       <c r="A261" s="3" t="s">
         <v>500</v>
       </c>
@@ -6915,7 +6921,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="47.25">
+    <row r="262" spans="1:2" ht="46.8">
       <c r="A262" s="3" t="s">
         <v>503</v>
       </c>
@@ -6939,7 +6945,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="47.25">
+    <row r="265" spans="1:2" ht="46.8">
       <c r="A265" s="3" t="s">
         <v>507</v>
       </c>
@@ -6955,7 +6961,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="31.5">
+    <row r="267" spans="1:2" ht="31.2">
       <c r="A267" s="3" t="s">
         <v>509</v>
       </c>
@@ -6963,7 +6969,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="31.5">
+    <row r="268" spans="1:2" ht="31.2">
       <c r="A268" s="3" t="s">
         <v>510</v>
       </c>
@@ -6979,7 +6985,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" ht="31.2">
       <c r="A270" s="3" t="s">
         <v>512</v>
       </c>
@@ -6995,7 +7001,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="31.5">
+    <row r="272" spans="1:2" ht="31.2">
       <c r="A272" s="3" t="s">
         <v>514</v>
       </c>
@@ -7003,7 +7009,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="31.5">
+    <row r="273" spans="1:2" ht="31.2">
       <c r="A273" s="3" t="s">
         <v>515</v>
       </c>
@@ -7011,7 +7017,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="31.5">
+    <row r="274" spans="1:2" ht="31.2">
       <c r="A274" s="3" t="s">
         <v>516</v>
       </c>
@@ -7019,7 +7025,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="47.25">
+    <row r="275" spans="1:2" ht="46.8">
       <c r="A275" s="3" t="s">
         <v>517</v>
       </c>
@@ -7027,7 +7033,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="47.25">
+    <row r="276" spans="1:2" ht="62.4">
       <c r="A276" s="3" t="s">
         <v>518</v>
       </c>
@@ -7035,7 +7041,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="63">
+    <row r="277" spans="1:2" ht="62.4">
       <c r="A277" s="3" t="s">
         <v>519</v>
       </c>
@@ -7043,7 +7049,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="78.75">
+    <row r="278" spans="1:2" ht="78">
       <c r="A278" s="3" t="s">
         <v>520</v>
       </c>
@@ -7051,7 +7057,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="78.75">
+    <row r="279" spans="1:2" ht="78">
       <c r="A279" s="3" t="s">
         <v>521</v>
       </c>
@@ -7059,7 +7065,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="47.25">
+    <row r="280" spans="1:2" ht="46.8">
       <c r="A280" s="3" t="s">
         <v>522</v>
       </c>
@@ -7083,7 +7089,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="31.5">
+    <row r="283" spans="1:2" ht="31.2">
       <c r="A283" s="3" t="s">
         <v>524</v>
       </c>
@@ -7099,7 +7105,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="31.5">
+    <row r="285" spans="1:2" ht="31.2">
       <c r="A285" s="3" t="s">
         <v>528</v>
       </c>
@@ -7123,7 +7129,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="47.25">
+    <row r="288" spans="1:2" ht="46.8">
       <c r="A288" s="3" t="s">
         <v>537</v>
       </c>
@@ -7147,7 +7153,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="78.75">
+    <row r="291" spans="1:2" ht="78">
       <c r="A291" s="3" t="s">
         <v>545</v>
       </c>
@@ -7171,7 +7177,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="47.25">
+    <row r="294" spans="1:2" ht="46.8">
       <c r="A294" s="3" t="s">
         <v>549</v>
       </c>
@@ -7187,7 +7193,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="31.5">
+    <row r="296" spans="1:2" ht="31.2">
       <c r="A296" s="3" t="s">
         <v>551</v>
       </c>
@@ -7195,7 +7201,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="31.5">
+    <row r="297" spans="1:2" ht="31.2">
       <c r="A297" s="3" t="s">
         <v>552</v>
       </c>
@@ -7211,7 +7217,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" ht="31.2">
       <c r="A299" s="3" t="s">
         <v>554</v>
       </c>
@@ -7227,7 +7233,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="31.5">
+    <row r="301" spans="1:2" ht="31.2">
       <c r="A301" s="3" t="s">
         <v>556</v>
       </c>
@@ -7235,7 +7241,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="31.5">
+    <row r="302" spans="1:2" ht="31.2">
       <c r="A302" s="3" t="s">
         <v>557</v>
       </c>
@@ -7243,7 +7249,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="31.5">
+    <row r="303" spans="1:2" ht="31.2">
       <c r="A303" s="3" t="s">
         <v>558</v>
       </c>
@@ -7251,7 +7257,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="47.25">
+    <row r="304" spans="1:2" ht="46.8">
       <c r="A304" s="3" t="s">
         <v>559</v>
       </c>
@@ -7259,7 +7265,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="47.25">
+    <row r="305" spans="1:2" ht="62.4">
       <c r="A305" s="3" t="s">
         <v>560</v>
       </c>
@@ -7267,7 +7273,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="63">
+    <row r="306" spans="1:2" ht="62.4">
       <c r="A306" s="3" t="s">
         <v>561</v>
       </c>
@@ -7275,7 +7281,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="78.75">
+    <row r="307" spans="1:2" ht="78">
       <c r="A307" s="3" t="s">
         <v>562</v>
       </c>
@@ -7283,7 +7289,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="78.75">
+    <row r="308" spans="1:2" ht="78">
       <c r="A308" s="3" t="s">
         <v>563</v>
       </c>
@@ -7291,7 +7297,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="47.25">
+    <row r="309" spans="1:2" ht="46.8">
       <c r="A309" s="3" t="s">
         <v>564</v>
       </c>
@@ -7323,7 +7329,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="94.5">
+    <row r="313" spans="1:2" ht="93.6">
       <c r="A313" s="3" t="s">
         <v>566</v>
       </c>
@@ -7331,7 +7337,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="31.5">
+    <row r="314" spans="1:2" ht="31.2">
       <c r="A314" s="3" t="s">
         <v>569</v>
       </c>
@@ -7379,7 +7385,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="31.5">
+    <row r="320" spans="1:2" ht="31.2">
       <c r="A320" s="3" t="s">
         <v>584</v>
       </c>
@@ -7411,7 +7417,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="31.5">
+    <row r="324" spans="1:2" ht="46.8">
       <c r="A324" s="3" t="s">
         <v>595</v>
       </c>
@@ -7427,7 +7433,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="31.5">
+    <row r="326" spans="1:2" ht="31.2">
       <c r="A326" s="3" t="s">
         <v>601</v>
       </c>
@@ -7443,7 +7449,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="63">
+    <row r="328" spans="1:2" ht="62.4">
       <c r="A328" s="3" t="s">
         <v>607</v>
       </c>
@@ -7451,7 +7457,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="47.25">
+    <row r="329" spans="1:2" ht="46.8">
       <c r="A329" s="3" t="s">
         <v>609</v>
       </c>
@@ -7467,7 +7473,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="31.5">
+    <row r="331" spans="1:2" ht="31.2">
       <c r="A331" s="3" t="s">
         <v>613</v>
       </c>
@@ -7475,7 +7481,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="31.5">
+    <row r="332" spans="1:2" ht="31.2">
       <c r="A332" s="3" t="s">
         <v>616</v>
       </c>
@@ -7531,7 +7537,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="31.5">
+    <row r="339" spans="1:2" ht="31.2">
       <c r="A339" s="3" t="s">
         <v>630</v>
       </c>
@@ -7571,7 +7577,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="94.5">
+    <row r="344" spans="1:2" ht="93.6">
       <c r="A344" s="3" t="s">
         <v>638</v>
       </c>
@@ -7579,7 +7585,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="31.5">
+    <row r="345" spans="1:2" ht="31.2">
       <c r="A345" s="3" t="s">
         <v>639</v>
       </c>
@@ -7627,7 +7633,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="31.5">
+    <row r="351" spans="1:2" ht="31.2">
       <c r="A351" s="3" t="s">
         <v>652</v>
       </c>
@@ -7635,7 +7641,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="31.5">
+    <row r="352" spans="1:2" ht="31.2">
       <c r="A352" s="3" t="s">
         <v>654</v>
       </c>
@@ -7643,7 +7649,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="31.5">
+    <row r="353" spans="1:2" ht="31.2">
       <c r="A353" s="3" t="s">
         <v>656</v>
       </c>
@@ -7651,7 +7657,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="31.5">
+    <row r="354" spans="1:2" ht="46.8">
       <c r="A354" s="3" t="s">
         <v>658</v>
       </c>
@@ -7707,7 +7713,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="31.5">
+    <row r="361" spans="1:2" ht="31.2">
       <c r="A361" s="3" t="s">
         <v>667</v>
       </c>
@@ -7747,7 +7753,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="78.75">
+    <row r="366" spans="1:2" ht="78">
       <c r="A366" s="3" t="s">
         <v>671</v>
       </c>
@@ -7755,7 +7761,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="31.5">
+    <row r="367" spans="1:2" ht="31.2">
       <c r="A367" s="3" t="s">
         <v>673</v>
       </c>
@@ -7787,7 +7793,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="31.5">
+    <row r="371" spans="1:2" ht="31.2">
       <c r="A371" s="3" t="s">
         <v>679</v>
       </c>
@@ -7795,7 +7801,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="31.5">
+    <row r="372" spans="1:2" ht="31.2">
       <c r="A372" s="3" t="s">
         <v>682</v>
       </c>
@@ -7811,7 +7817,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="31.5">
+    <row r="374" spans="1:2" ht="31.2">
       <c r="A374" s="3" t="s">
         <v>687</v>
       </c>
@@ -7819,7 +7825,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="31.5">
+    <row r="375" spans="1:2" ht="31.2">
       <c r="A375" s="3" t="s">
         <v>689</v>
       </c>
@@ -7827,7 +7833,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="31.5">
+    <row r="376" spans="1:2" ht="46.8">
       <c r="A376" s="3" t="s">
         <v>691</v>
       </c>
@@ -7883,7 +7889,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="31.5">
+    <row r="383" spans="1:2" ht="31.2">
       <c r="A383" s="3" t="s">
         <v>698</v>
       </c>
@@ -7923,7 +7929,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="78.75">
+    <row r="388" spans="1:2" ht="78">
       <c r="A388" s="3" t="s">
         <v>702</v>
       </c>
@@ -7931,7 +7937,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="31.5">
+    <row r="389" spans="1:2" ht="31.2">
       <c r="A389" s="3" t="s">
         <v>703</v>
       </c>
@@ -7987,7 +7993,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="31.5">
+    <row r="396" spans="1:2" ht="31.2">
       <c r="A396" s="3" t="s">
         <v>714</v>
       </c>
@@ -8011,7 +8017,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="31.5">
+    <row r="399" spans="1:2" ht="31.2">
       <c r="A399" s="3" t="s">
         <v>722</v>
       </c>
@@ -8051,7 +8057,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="31.5">
+    <row r="404" spans="1:2" ht="31.2">
       <c r="A404" s="3" t="s">
         <v>732</v>
       </c>
@@ -8075,7 +8081,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="31.5">
+    <row r="407" spans="1:2" ht="31.2">
       <c r="A407" s="3" t="s">
         <v>735</v>
       </c>
@@ -8091,7 +8097,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="63">
+    <row r="409" spans="1:2" ht="62.4">
       <c r="A409" s="3" t="s">
         <v>737</v>
       </c>
@@ -8099,7 +8105,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="47.25">
+    <row r="410" spans="1:2" ht="46.8">
       <c r="A410" s="3" t="s">
         <v>739</v>
       </c>
@@ -8115,7 +8121,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="31.5">
+    <row r="412" spans="1:2" ht="31.2">
       <c r="A412" s="3" t="s">
         <v>742</v>
       </c>
@@ -8171,7 +8177,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="31.5">
+    <row r="419" spans="1:2" ht="31.2">
       <c r="A419" s="3" t="s">
         <v>749</v>
       </c>
@@ -8267,7 +8273,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="78.75">
+    <row r="431" spans="1:2" ht="78">
       <c r="A431" s="3" t="s">
         <v>758</v>
       </c>
@@ -8275,7 +8281,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="31.5">
+    <row r="432" spans="1:2" ht="31.2">
       <c r="A432" s="3" t="s">
         <v>759</v>
       </c>
@@ -8331,7 +8337,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="31.5">
+    <row r="439" spans="1:2" ht="31.2">
       <c r="A439" s="3" t="s">
         <v>768</v>
       </c>
@@ -8339,7 +8345,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="47.25">
+    <row r="440" spans="1:2" ht="46.8">
       <c r="A440" s="3" t="s">
         <v>770</v>
       </c>
@@ -8403,7 +8409,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="31.5">
+    <row r="448" spans="1:2" ht="31.2">
       <c r="A448" s="3" t="s">
         <v>779</v>
       </c>
@@ -8442,23 +8448,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A319" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F333" sqref="F333"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="52" customWidth="1"/>
+    <col min="1" max="1" width="17.8984375" style="52" customWidth="1"/>
     <col min="2" max="2" width="12" style="50" customWidth="1"/>
     <col min="3" max="3" width="91.5" style="50" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="50" customWidth="1"/>
-    <col min="5" max="5" width="155.375" style="50" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="62.75" style="50" customWidth="1"/>
-    <col min="7" max="7" width="84.625" style="50" customWidth="1"/>
+    <col min="4" max="4" width="20.3984375" style="50" customWidth="1"/>
+    <col min="5" max="5" width="155.3984375" style="50" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="62.69921875" style="50" customWidth="1"/>
+    <col min="7" max="7" width="84.59765625" style="50" customWidth="1"/>
     <col min="8" max="8" width="9" style="51"/>
     <col min="9" max="1027" width="8.5" style="34" customWidth="1"/>
     <col min="1028" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="54" customFormat="1" ht="15.75">
+    <row r="1" spans="1:8" s="54" customFormat="1" ht="15.6">
       <c r="A1" s="33" t="s">
         <v>52</v>
       </c>
@@ -8475,19 +8483,19 @@
         <v>56</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G1" s="33" t="s">
         <v>55</v>
       </c>
       <c r="H1" s="53"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:8" ht="15.6">
       <c r="A2" s="35" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>0</v>
@@ -8517,10 +8525,10 @@
         <v>58</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>1255</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>1256</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
@@ -8542,7 +8550,7 @@
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G5" s="38" t="s">
         <v>61</v>
@@ -8563,7 +8571,7 @@
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G6" s="38"/>
     </row>
@@ -8582,7 +8590,7 @@
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G7" s="38"/>
     </row>
@@ -8601,7 +8609,7 @@
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G8" s="38"/>
     </row>
@@ -8620,7 +8628,7 @@
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G9" s="38"/>
     </row>
@@ -8639,7 +8647,7 @@
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G10" s="38"/>
     </row>
@@ -8658,7 +8666,7 @@
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G11" s="38"/>
     </row>
@@ -8677,7 +8685,7 @@
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G12" s="38"/>
     </row>
@@ -8696,7 +8704,7 @@
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G13" s="38"/>
     </row>
@@ -8715,7 +8723,7 @@
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G14" s="38"/>
     </row>
@@ -8734,7 +8742,7 @@
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G15" s="38"/>
     </row>
@@ -8758,10 +8766,10 @@
         <v>58</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
@@ -8783,7 +8791,7 @@
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>95</v>
@@ -8804,7 +8812,7 @@
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G19" s="38"/>
     </row>
@@ -8823,7 +8831,7 @@
       </c>
       <c r="E20" s="38"/>
       <c r="F20" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G20" s="38"/>
     </row>
@@ -8842,7 +8850,7 @@
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G21" s="38"/>
     </row>
@@ -8861,7 +8869,7 @@
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G22" s="38"/>
     </row>
@@ -8873,14 +8881,14 @@
         <v>102</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>104</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G23" s="38"/>
     </row>
@@ -8892,14 +8900,14 @@
         <v>105</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G24" s="39"/>
     </row>
@@ -8918,7 +8926,7 @@
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G25" s="38"/>
     </row>
@@ -8930,14 +8938,14 @@
         <v>111</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>110</v>
       </c>
       <c r="E26" s="38"/>
       <c r="F26" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G26" s="38"/>
     </row>
@@ -8949,14 +8957,14 @@
         <v>114</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="39" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G27" s="39"/>
     </row>
@@ -8968,14 +8976,14 @@
         <v>117</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G28" s="39"/>
     </row>
@@ -8984,34 +8992,34 @@
         <v>58</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E29" s="39"/>
       <c r="F29" s="39" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G29" s="39"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="39"/>
       <c r="B30" s="39" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="39" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G30" s="39"/>
     </row>
@@ -9020,17 +9028,17 @@
         <v>58</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>113</v>
       </c>
       <c r="E31" s="38"/>
       <c r="F31" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G31" s="38"/>
     </row>
@@ -9039,7 +9047,7 @@
         <v>58</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C32" s="38" t="s">
         <v>115</v>
@@ -9049,7 +9057,7 @@
       </c>
       <c r="E32" s="38"/>
       <c r="F32" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G32" s="38"/>
     </row>
@@ -9058,17 +9066,17 @@
         <v>58</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="39" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G33" s="39"/>
     </row>
@@ -9077,17 +9085,17 @@
         <v>58</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="39" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G34" s="39"/>
     </row>
@@ -9096,17 +9104,17 @@
         <v>58</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E35" s="39"/>
       <c r="F35" s="39" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G35" s="39"/>
     </row>
@@ -9115,17 +9123,17 @@
         <v>58</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E36" s="39"/>
       <c r="F36" s="39" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G36" s="39"/>
     </row>
@@ -9134,7 +9142,7 @@
         <v>58</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C37" s="38" t="s">
         <v>118</v>
@@ -9144,7 +9152,7 @@
       </c>
       <c r="E37" s="38"/>
       <c r="F37" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G37" s="38"/>
     </row>
@@ -9163,7 +9171,7 @@
       </c>
       <c r="E38" s="38"/>
       <c r="F38" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G38" s="38"/>
     </row>
@@ -9182,7 +9190,7 @@
       </c>
       <c r="E39" s="38"/>
       <c r="F39" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G39" s="38"/>
     </row>
@@ -9201,7 +9209,7 @@
       </c>
       <c r="E40" s="38"/>
       <c r="F40" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G40" s="38"/>
     </row>
@@ -9220,7 +9228,7 @@
       </c>
       <c r="E41" s="38"/>
       <c r="F41" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G41" s="38"/>
     </row>
@@ -9229,7 +9237,7 @@
         <v>131</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>133</v>
@@ -9239,7 +9247,7 @@
       </c>
       <c r="E42" s="38"/>
       <c r="F42" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G42" s="38"/>
     </row>
@@ -9263,10 +9271,10 @@
         <v>58</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
@@ -9288,7 +9296,7 @@
       </c>
       <c r="E45" s="38"/>
       <c r="F45" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>136</v>
@@ -9309,7 +9317,7 @@
       </c>
       <c r="E46" s="38"/>
       <c r="F46" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G46" s="38"/>
     </row>
@@ -9328,7 +9336,7 @@
       </c>
       <c r="E47" s="38"/>
       <c r="F47" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G47" s="38"/>
     </row>
@@ -9347,7 +9355,7 @@
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G48" s="38"/>
     </row>
@@ -9366,7 +9374,7 @@
       </c>
       <c r="E49" s="38"/>
       <c r="F49" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G49" s="38"/>
     </row>
@@ -9385,7 +9393,7 @@
       </c>
       <c r="E50" s="38"/>
       <c r="F50" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G50" s="38"/>
     </row>
@@ -9404,7 +9412,7 @@
       </c>
       <c r="E51" s="38"/>
       <c r="F51" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G51" s="38"/>
     </row>
@@ -9423,7 +9431,7 @@
       </c>
       <c r="E52" s="38"/>
       <c r="F52" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G52" s="38"/>
     </row>
@@ -9442,7 +9450,7 @@
       </c>
       <c r="E53" s="38"/>
       <c r="F53" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G53" s="38"/>
     </row>
@@ -9451,7 +9459,7 @@
         <v>131</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C54" s="38" t="s">
         <v>133</v>
@@ -9461,7 +9469,7 @@
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G54" s="38"/>
     </row>
@@ -9485,10 +9493,10 @@
         <v>58</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D56" s="37"/>
       <c r="E56" s="37"/>
@@ -9510,7 +9518,7 @@
       </c>
       <c r="E57" s="38"/>
       <c r="F57" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>158</v>
@@ -9531,7 +9539,7 @@
       </c>
       <c r="E58" s="38"/>
       <c r="F58" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G58" s="38"/>
     </row>
@@ -9550,7 +9558,7 @@
       </c>
       <c r="E59" s="38"/>
       <c r="F59" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G59" s="38"/>
     </row>
@@ -9569,7 +9577,7 @@
       </c>
       <c r="E60" s="38"/>
       <c r="F60" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G60" s="38"/>
     </row>
@@ -9588,7 +9596,7 @@
       </c>
       <c r="E61" s="38"/>
       <c r="F61" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G61" s="38"/>
     </row>
@@ -9607,7 +9615,7 @@
       </c>
       <c r="E62" s="38"/>
       <c r="F62" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G62" s="38"/>
     </row>
@@ -9626,7 +9634,7 @@
       </c>
       <c r="E63" s="38"/>
       <c r="F63" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G63" s="38"/>
     </row>
@@ -9645,7 +9653,7 @@
       </c>
       <c r="E64" s="38"/>
       <c r="F64" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G64" s="38"/>
     </row>
@@ -9664,7 +9672,7 @@
       </c>
       <c r="E65" s="38"/>
       <c r="F65" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G65" s="38"/>
     </row>
@@ -9688,10 +9696,10 @@
         <v>58</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D67" s="37"/>
       <c r="E67" s="37"/>
@@ -9713,7 +9721,7 @@
       </c>
       <c r="E68" s="38"/>
       <c r="F68" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G68" s="38" t="s">
         <v>169</v>
@@ -9734,7 +9742,7 @@
       </c>
       <c r="E69" s="38"/>
       <c r="F69" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G69" s="38"/>
     </row>
@@ -9753,7 +9761,7 @@
       </c>
       <c r="E70" s="38"/>
       <c r="F70" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G70" s="38"/>
     </row>
@@ -9772,7 +9780,7 @@
       </c>
       <c r="E71" s="38"/>
       <c r="F71" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G71" s="38"/>
     </row>
@@ -9791,7 +9799,7 @@
       </c>
       <c r="E72" s="40"/>
       <c r="F72" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G72" s="38"/>
     </row>
@@ -9810,7 +9818,7 @@
       </c>
       <c r="E73" s="38"/>
       <c r="F73" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G73" s="38"/>
     </row>
@@ -9822,14 +9830,14 @@
         <v>179</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D74" s="39" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E74" s="39"/>
       <c r="F74" s="39" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G74" s="39"/>
     </row>
@@ -9841,14 +9849,14 @@
         <v>182</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D75" s="39" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E75" s="39"/>
       <c r="F75" s="39" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G75" s="39"/>
     </row>
@@ -9867,7 +9875,7 @@
       </c>
       <c r="E76" s="38"/>
       <c r="F76" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G76" s="38"/>
     </row>
@@ -9876,7 +9884,7 @@
         <v>58</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C77" s="38" t="s">
         <v>183</v>
@@ -9886,7 +9894,7 @@
       </c>
       <c r="E77" s="38"/>
       <c r="F77" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G77" s="38"/>
     </row>
@@ -9895,7 +9903,7 @@
         <v>58</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C78" s="38" t="s">
         <v>186</v>
@@ -9905,7 +9913,7 @@
       </c>
       <c r="E78" s="38"/>
       <c r="F78" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G78" s="38"/>
     </row>
@@ -9914,7 +9922,7 @@
         <v>131</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C79" s="38" t="s">
         <v>133</v>
@@ -9924,7 +9932,7 @@
       </c>
       <c r="E79" s="38"/>
       <c r="F79" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G79" s="38"/>
     </row>
@@ -9933,7 +9941,7 @@
         <v>58</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C80" s="37" t="s">
         <v>6</v>
@@ -9948,10 +9956,10 @@
         <v>58</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D81" s="37"/>
       <c r="E81" s="37"/>
@@ -9973,7 +9981,7 @@
       </c>
       <c r="E82" s="38"/>
       <c r="F82" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G82" s="38" t="s">
         <v>191</v>
@@ -9994,7 +10002,7 @@
       </c>
       <c r="E83" s="38"/>
       <c r="F83" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G83" s="38"/>
     </row>
@@ -10013,7 +10021,7 @@
       </c>
       <c r="E84" s="38"/>
       <c r="F84" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G84" s="38"/>
     </row>
@@ -10032,7 +10040,7 @@
       </c>
       <c r="E85" s="38"/>
       <c r="F85" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G85" s="38"/>
     </row>
@@ -10051,7 +10059,7 @@
       </c>
       <c r="E86" s="38"/>
       <c r="F86" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G86" s="38"/>
     </row>
@@ -10070,7 +10078,7 @@
       </c>
       <c r="E87" s="38"/>
       <c r="F87" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G87" s="38"/>
     </row>
@@ -10089,7 +10097,7 @@
       </c>
       <c r="E88" s="38"/>
       <c r="F88" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G88" s="38"/>
     </row>
@@ -10098,7 +10106,7 @@
         <v>131</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C89" s="38" t="s">
         <v>133</v>
@@ -10108,7 +10116,7 @@
       </c>
       <c r="E89" s="38"/>
       <c r="F89" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G89" s="38"/>
     </row>
@@ -10132,10 +10140,10 @@
         <v>58</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D91" s="37"/>
       <c r="E91" s="37"/>
@@ -10157,7 +10165,7 @@
       </c>
       <c r="E92" s="38"/>
       <c r="F92" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G92" s="38" t="s">
         <v>207</v>
@@ -10178,7 +10186,7 @@
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G93" s="38"/>
     </row>
@@ -10197,7 +10205,7 @@
       </c>
       <c r="E94" s="38"/>
       <c r="F94" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G94" s="38"/>
     </row>
@@ -10216,7 +10224,7 @@
       </c>
       <c r="E95" s="38"/>
       <c r="F95" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G95" s="38"/>
     </row>
@@ -10235,7 +10243,7 @@
       </c>
       <c r="E96" s="38"/>
       <c r="F96" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G96" s="38"/>
     </row>
@@ -10254,7 +10262,7 @@
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G97" s="38"/>
     </row>
@@ -10273,7 +10281,7 @@
       </c>
       <c r="E98" s="38"/>
       <c r="F98" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G98" s="38"/>
     </row>
@@ -10292,7 +10300,7 @@
       </c>
       <c r="E99" s="38"/>
       <c r="F99" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G99" s="38"/>
     </row>
@@ -10311,7 +10319,7 @@
       </c>
       <c r="E100" s="38"/>
       <c r="F100" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G100" s="38"/>
     </row>
@@ -10320,7 +10328,7 @@
         <v>131</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C101" s="38" t="s">
         <v>133</v>
@@ -10330,7 +10338,7 @@
       </c>
       <c r="E101" s="38"/>
       <c r="F101" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G101" s="38"/>
     </row>
@@ -10354,10 +10362,10 @@
         <v>58</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D103" s="37"/>
       <c r="E103" s="37"/>
@@ -10379,7 +10387,7 @@
       </c>
       <c r="E104" s="38"/>
       <c r="F104" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G104" s="38" t="s">
         <v>219</v>
@@ -10400,7 +10408,7 @@
       </c>
       <c r="E105" s="38"/>
       <c r="F105" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G105" s="38"/>
     </row>
@@ -10419,7 +10427,7 @@
       </c>
       <c r="E106" s="38"/>
       <c r="F106" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G106" s="38"/>
     </row>
@@ -10438,7 +10446,7 @@
       </c>
       <c r="E107" s="38"/>
       <c r="F107" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G107" s="38"/>
     </row>
@@ -10457,7 +10465,7 @@
       </c>
       <c r="E108" s="38"/>
       <c r="F108" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G108" s="38"/>
     </row>
@@ -10476,7 +10484,7 @@
       </c>
       <c r="E109" s="38"/>
       <c r="F109" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G109" s="38"/>
     </row>
@@ -10495,7 +10503,7 @@
       </c>
       <c r="E110" s="38"/>
       <c r="F110" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G110" s="38"/>
     </row>
@@ -10514,7 +10522,7 @@
       </c>
       <c r="E111" s="38"/>
       <c r="F111" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G111" s="38"/>
     </row>
@@ -10533,7 +10541,7 @@
       </c>
       <c r="E112" s="38"/>
       <c r="F112" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G112" s="38"/>
     </row>
@@ -10542,7 +10550,7 @@
         <v>131</v>
       </c>
       <c r="B113" s="38" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C113" s="38" t="s">
         <v>133</v>
@@ -10552,7 +10560,7 @@
       </c>
       <c r="E113" s="38"/>
       <c r="F113" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G113" s="38"/>
     </row>
@@ -10576,10 +10584,10 @@
         <v>58</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D115" s="37"/>
       <c r="E115" s="37"/>
@@ -10601,7 +10609,7 @@
       </c>
       <c r="E116" s="38"/>
       <c r="F116" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G116" s="38" t="s">
         <v>136</v>
@@ -10622,7 +10630,7 @@
       </c>
       <c r="E117" s="38"/>
       <c r="F117" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G117" s="38"/>
     </row>
@@ -10641,7 +10649,7 @@
       </c>
       <c r="E118" s="38"/>
       <c r="F118" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G118" s="38"/>
     </row>
@@ -10660,7 +10668,7 @@
       </c>
       <c r="E119" s="38"/>
       <c r="F119" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G119" s="38"/>
     </row>
@@ -10679,7 +10687,7 @@
       </c>
       <c r="E120" s="38"/>
       <c r="F120" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G120" s="38"/>
     </row>
@@ -10698,7 +10706,7 @@
       </c>
       <c r="E121" s="38"/>
       <c r="F121" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G121" s="38"/>
     </row>
@@ -10717,7 +10725,7 @@
       </c>
       <c r="E122" s="38"/>
       <c r="F122" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G122" s="38"/>
     </row>
@@ -10736,7 +10744,7 @@
       </c>
       <c r="E123" s="38"/>
       <c r="F123" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G123" s="38"/>
     </row>
@@ -10755,7 +10763,7 @@
       </c>
       <c r="E124" s="38"/>
       <c r="F124" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G124" s="38"/>
     </row>
@@ -10764,7 +10772,7 @@
         <v>131</v>
       </c>
       <c r="B125" s="38" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C125" s="38" t="s">
         <v>133</v>
@@ -10774,7 +10782,7 @@
       </c>
       <c r="E125" s="38"/>
       <c r="F125" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G125" s="38"/>
     </row>
@@ -10783,7 +10791,7 @@
         <v>58</v>
       </c>
       <c r="B126" s="38" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C126" s="37" t="s">
         <v>10</v>
@@ -10798,10 +10806,10 @@
         <v>58</v>
       </c>
       <c r="B127" s="38" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D127" s="37"/>
       <c r="E127" s="37"/>
@@ -10823,7 +10831,7 @@
       </c>
       <c r="E128" s="38"/>
       <c r="F128" s="38" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G128" s="38" t="s">
         <v>242</v>
@@ -10844,7 +10852,7 @@
       </c>
       <c r="E129" s="38"/>
       <c r="F129" s="38" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G129" s="38"/>
     </row>
@@ -10863,7 +10871,7 @@
       </c>
       <c r="E130" s="38"/>
       <c r="F130" s="38" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G130" s="38"/>
     </row>
@@ -10882,7 +10890,7 @@
       </c>
       <c r="E131" s="38"/>
       <c r="F131" s="38" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G131" s="38"/>
     </row>
@@ -10901,7 +10909,7 @@
       </c>
       <c r="E132" s="38"/>
       <c r="F132" s="38" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G132" s="38"/>
     </row>
@@ -10913,14 +10921,14 @@
         <v>249</v>
       </c>
       <c r="C133" s="38" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D133" s="38" t="s">
         <v>251</v>
       </c>
       <c r="E133" s="38"/>
       <c r="F133" s="38" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G133" s="38"/>
     </row>
@@ -10932,14 +10940,14 @@
         <v>252</v>
       </c>
       <c r="C134" s="39" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D134" s="39" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E134" s="39"/>
       <c r="F134" s="39" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G134" s="39"/>
     </row>
@@ -10958,7 +10966,7 @@
       </c>
       <c r="E135" s="38"/>
       <c r="F135" s="38" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G135" s="38"/>
     </row>
@@ -10967,7 +10975,7 @@
         <v>58</v>
       </c>
       <c r="B136" s="38" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C136" s="38" t="s">
         <v>256</v>
@@ -10977,7 +10985,7 @@
       </c>
       <c r="E136" s="38"/>
       <c r="F136" s="38" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G136" s="38"/>
     </row>
@@ -11001,10 +11009,10 @@
         <v>58</v>
       </c>
       <c r="B138" s="38" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C138" s="37" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D138" s="37"/>
       <c r="E138" s="37"/>
@@ -11028,10 +11036,10 @@
         <v>260</v>
       </c>
       <c r="F139" s="38" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G139" s="38" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -11051,7 +11059,7 @@
         <v>260</v>
       </c>
       <c r="F140" s="38" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G140" s="38"/>
     </row>
@@ -11072,7 +11080,7 @@
         <v>260</v>
       </c>
       <c r="F141" s="38" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G141" s="38"/>
     </row>
@@ -11093,7 +11101,7 @@
         <v>260</v>
       </c>
       <c r="F142" s="38" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G142" s="38"/>
     </row>
@@ -11105,7 +11113,7 @@
         <v>267</v>
       </c>
       <c r="C143" s="38" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D143" s="38" t="s">
         <v>269</v>
@@ -11114,7 +11122,7 @@
         <v>260</v>
       </c>
       <c r="F143" s="38" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G143" s="38"/>
     </row>
@@ -11126,7 +11134,7 @@
         <v>270</v>
       </c>
       <c r="C144" s="38" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D144" s="38" t="s">
         <v>266</v>
@@ -11135,7 +11143,7 @@
         <v>260</v>
       </c>
       <c r="F144" s="38" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G144" s="38"/>
     </row>
@@ -11147,14 +11155,14 @@
         <v>272</v>
       </c>
       <c r="C145" s="39" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D145" s="39" t="s">
         <v>1242</v>
-      </c>
-      <c r="D145" s="39" t="s">
-        <v>1243</v>
       </c>
       <c r="E145" s="39"/>
       <c r="F145" s="39" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G145" s="39"/>
     </row>
@@ -11163,19 +11171,19 @@
         <v>58</v>
       </c>
       <c r="B146" s="38" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C146" s="38" t="s">
         <v>271</v>
       </c>
       <c r="D146" s="38" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E146" s="38" t="s">
         <v>260</v>
       </c>
       <c r="F146" s="38" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G146" s="38"/>
     </row>
@@ -11184,7 +11192,7 @@
         <v>58</v>
       </c>
       <c r="B147" s="38" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C147" s="38" t="s">
         <v>273</v>
@@ -11196,7 +11204,7 @@
         <v>260</v>
       </c>
       <c r="F147" s="38" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G147" s="38"/>
     </row>
@@ -11205,19 +11213,19 @@
         <v>131</v>
       </c>
       <c r="B148" s="38" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C148" s="38" t="s">
         <v>133</v>
       </c>
       <c r="D148" s="38" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E148" s="38" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="F148" s="38" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G148" s="38"/>
     </row>
@@ -11226,7 +11234,7 @@
         <v>131</v>
       </c>
       <c r="B149" s="38" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C149" s="38" t="s">
         <v>277</v>
@@ -11236,7 +11244,7 @@
       </c>
       <c r="E149" s="38"/>
       <c r="F149" s="38" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G149" s="38"/>
     </row>
@@ -11285,14 +11293,14 @@
         <v>14</v>
       </c>
       <c r="D152" s="38" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E152" s="38" t="s">
         <v>281</v>
       </c>
       <c r="F152" s="38"/>
       <c r="G152" s="38" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -11306,14 +11314,14 @@
         <v>15</v>
       </c>
       <c r="D153" s="38" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E153" s="38" t="s">
         <v>281</v>
       </c>
       <c r="F153" s="38"/>
       <c r="G153" s="38" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -11327,14 +11335,14 @@
         <v>283</v>
       </c>
       <c r="D154" s="38" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E154" s="38" t="s">
         <v>284</v>
       </c>
       <c r="F154" s="38"/>
       <c r="G154" s="38" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -11388,12 +11396,12 @@
       <c r="F157" s="37"/>
       <c r="G157" s="41"/>
     </row>
-    <row r="158" spans="1:7" ht="15.75">
+    <row r="158" spans="1:7" ht="15.6">
       <c r="A158" s="35" t="s">
         <v>58</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C158" s="36" t="s">
         <v>19</v>
@@ -11579,7 +11587,7 @@
         <v>303</v>
       </c>
       <c r="C169" s="38" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D169" s="40" t="s">
         <v>949</v>
@@ -11673,7 +11681,7 @@
       <c r="F174" s="40"/>
       <c r="G174" s="38"/>
     </row>
-    <row r="175" spans="1:7" ht="30">
+    <row r="175" spans="1:7" ht="45">
       <c r="A175" s="38" t="s">
         <v>58</v>
       </c>
@@ -11900,7 +11908,7 @@
         <v>330</v>
       </c>
       <c r="C188" s="38" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D188" s="40" t="s">
         <v>949</v>
@@ -11994,7 +12002,7 @@
       <c r="F193" s="40"/>
       <c r="G193" s="38"/>
     </row>
-    <row r="194" spans="1:7" ht="30">
+    <row r="194" spans="1:7" ht="45">
       <c r="A194" s="38" t="s">
         <v>58</v>
       </c>
@@ -12315,7 +12323,7 @@
       <c r="F212" s="40"/>
       <c r="G212" s="38"/>
     </row>
-    <row r="213" spans="1:7" ht="30">
+    <row r="213" spans="1:7" ht="45">
       <c r="A213" s="38" t="s">
         <v>58</v>
       </c>
@@ -12412,7 +12420,7 @@
       <c r="E218" s="38"/>
       <c r="F218" s="38"/>
       <c r="G218" s="38" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -12525,18 +12533,18 @@
         <v>382</v>
       </c>
       <c r="C225" s="40" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D225" s="40" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E225" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F225" s="38"/>
       <c r="G225" s="38"/>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" ht="30">
       <c r="A226" s="38" t="s">
         <v>58</v>
       </c>
@@ -12547,10 +12555,10 @@
         <v>385</v>
       </c>
       <c r="D226" s="40" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E226" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F226" s="38"/>
       <c r="G226" s="38"/>
@@ -12563,7 +12571,7 @@
         <v>386</v>
       </c>
       <c r="C227" s="38" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D227" s="38">
         <v>76.16</v>
@@ -12637,7 +12645,7 @@
       <c r="E231" s="38"/>
       <c r="F231" s="38"/>
       <c r="G231" s="38" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -12702,10 +12710,10 @@
         <v>404</v>
       </c>
       <c r="D235" s="40" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E235" s="40" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F235" s="40"/>
       <c r="G235" s="38"/>
@@ -12993,12 +13001,12 @@
       <c r="F252" s="38"/>
       <c r="G252" s="38"/>
     </row>
-    <row r="253" spans="1:7" ht="15.75">
+    <row r="253" spans="1:7" ht="15.6">
       <c r="A253" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B253" s="35" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C253" s="36" t="s">
         <v>35</v>
@@ -13088,7 +13096,7 @@
         <v>441</v>
       </c>
       <c r="E258" s="59" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F258" s="38"/>
       <c r="G258" s="44"/>
@@ -13169,13 +13177,13 @@
         <v>454</v>
       </c>
       <c r="C263" s="44" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D263" s="38" t="s">
         <v>456</v>
       </c>
       <c r="E263" s="59" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F263" s="38"/>
       <c r="G263" s="44"/>
@@ -13185,13 +13193,13 @@
         <v>58</v>
       </c>
       <c r="B264" s="38" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C264" s="44" t="s">
         <v>1289</v>
       </c>
-      <c r="C264" s="44" t="s">
-        <v>1290</v>
-      </c>
       <c r="D264" s="38" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E264" s="38"/>
       <c r="F264" s="38"/>
@@ -13245,7 +13253,7 @@
         <v>465</v>
       </c>
       <c r="E267" s="59" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F267" s="38"/>
       <c r="G267" s="44"/>
@@ -13255,7 +13263,7 @@
         <v>58</v>
       </c>
       <c r="B268" s="38" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C268" s="44" t="s">
         <v>467</v>
@@ -13418,7 +13426,7 @@
       <c r="F277" s="38"/>
       <c r="G277" s="44"/>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" ht="30">
       <c r="A278" s="38" t="s">
         <v>58</v>
       </c>
@@ -13463,7 +13471,7 @@
         <v>490</v>
       </c>
       <c r="D280" s="38" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E280" s="38"/>
       <c r="F280" s="38"/>
@@ -13568,7 +13576,9 @@
         <v>505</v>
       </c>
       <c r="E286" s="38"/>
-      <c r="F286" s="38"/>
+      <c r="F286" s="38" t="s">
+        <v>1145</v>
+      </c>
       <c r="G286" s="44"/>
     </row>
     <row r="287" spans="1:7">
@@ -13722,7 +13732,7 @@
       <c r="F295" s="38"/>
       <c r="G295" s="44"/>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" ht="30">
       <c r="A296" s="38" t="s">
         <v>58</v>
       </c>
@@ -13767,7 +13777,7 @@
         <v>490</v>
       </c>
       <c r="D298" s="38" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E298" s="38"/>
       <c r="F298" s="38"/>
@@ -13872,7 +13882,9 @@
         <v>505</v>
       </c>
       <c r="E304" s="38"/>
-      <c r="F304" s="38"/>
+      <c r="F304" s="38" t="s">
+        <v>1149</v>
+      </c>
       <c r="G304" s="44"/>
     </row>
     <row r="305" spans="1:7">
@@ -14197,7 +14209,7 @@
         <v>58</v>
       </c>
       <c r="B324" s="38" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C324" s="38" t="s">
         <v>483</v>
@@ -14209,12 +14221,12 @@
       <c r="F324" s="38"/>
       <c r="G324" s="38"/>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" ht="30">
       <c r="A325" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B325" s="38" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C325" s="38" t="s">
         <v>485</v>
@@ -14254,7 +14266,7 @@
         <v>490</v>
       </c>
       <c r="D327" s="38" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E327" s="38"/>
       <c r="F327" s="38"/>
@@ -14333,7 +14345,7 @@
         <v>58</v>
       </c>
       <c r="B332" s="38" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C332" s="38" t="s">
         <v>501</v>
@@ -14350,7 +14362,7 @@
         <v>58</v>
       </c>
       <c r="B333" s="38" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C333" s="38" t="s">
         <v>504</v>
@@ -14359,15 +14371,17 @@
         <v>505</v>
       </c>
       <c r="E333" s="38"/>
-      <c r="F333" s="38"/>
+      <c r="F333" s="38" t="s">
+        <v>1302</v>
+      </c>
       <c r="G333" s="38"/>
     </row>
-    <row r="334" spans="1:7" ht="15.75">
+    <row r="334" spans="1:7" ht="15.6">
       <c r="A334" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B334" s="35" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C334" s="49" t="s">
         <v>40</v>
@@ -14421,10 +14435,10 @@
         <v>78.3</v>
       </c>
       <c r="E337" s="38" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F337" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G337" s="44" t="s">
         <v>568</v>
@@ -14444,10 +14458,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E338" s="38" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="F338" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G338" s="44"/>
     </row>
@@ -14459,14 +14473,14 @@
         <v>571</v>
       </c>
       <c r="C339" s="44" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D339" s="38">
         <v>78.099999999999994</v>
       </c>
       <c r="E339" s="38"/>
       <c r="F339" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G339" s="44"/>
     </row>
@@ -14500,7 +14514,7 @@
       </c>
       <c r="E341" s="38"/>
       <c r="F341" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G341" s="44" t="s">
         <v>576</v>
@@ -14521,7 +14535,7 @@
       </c>
       <c r="E342" s="38"/>
       <c r="F342" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G342" s="44"/>
     </row>
@@ -14540,7 +14554,7 @@
       </c>
       <c r="E343" s="38"/>
       <c r="F343" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G343" s="38"/>
     </row>
@@ -14559,7 +14573,7 @@
       </c>
       <c r="E344" s="38"/>
       <c r="F344" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G344" s="44"/>
     </row>
@@ -14593,10 +14607,10 @@
       </c>
       <c r="E346" s="38"/>
       <c r="F346" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G346" s="44" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -14614,7 +14628,7 @@
       </c>
       <c r="E347" s="38"/>
       <c r="F347" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G347" s="44"/>
     </row>
@@ -14626,14 +14640,14 @@
         <v>595</v>
       </c>
       <c r="C348" s="44" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D348" s="38" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E348" s="38"/>
       <c r="F348" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G348" s="44"/>
     </row>
@@ -14652,7 +14666,7 @@
       </c>
       <c r="E349" s="38"/>
       <c r="F349" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G349" s="44"/>
     </row>
@@ -14671,7 +14685,7 @@
       </c>
       <c r="E350" s="38"/>
       <c r="F350" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G350" s="44"/>
     </row>
@@ -14705,10 +14719,10 @@
       </c>
       <c r="E352" s="40"/>
       <c r="F352" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G352" s="44" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="30">
@@ -14726,7 +14740,7 @@
       </c>
       <c r="E353" s="40"/>
       <c r="F353" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G353" s="44"/>
     </row>
@@ -14741,11 +14755,11 @@
         <v>612</v>
       </c>
       <c r="D354" s="40" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E354" s="40"/>
       <c r="F354" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G354" s="38"/>
     </row>
@@ -14764,7 +14778,7 @@
       </c>
       <c r="E355" s="40"/>
       <c r="F355" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G355" s="44"/>
     </row>
@@ -14783,7 +14797,7 @@
       </c>
       <c r="E356" s="38"/>
       <c r="F356" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G356" s="44"/>
     </row>
@@ -14817,10 +14831,10 @@
       </c>
       <c r="E358" s="38"/>
       <c r="F358" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G358" s="38" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -14834,11 +14848,11 @@
         <v>624</v>
       </c>
       <c r="D359" s="40" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E359" s="40"/>
       <c r="F359" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G359" s="38"/>
     </row>
@@ -14872,10 +14886,10 @@
       </c>
       <c r="E361" s="38"/>
       <c r="F361" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G361" s="44" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -14889,11 +14903,11 @@
         <v>629</v>
       </c>
       <c r="D362" s="38" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E362" s="46"/>
       <c r="F362" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G362" s="44"/>
     </row>
@@ -14912,7 +14926,7 @@
       </c>
       <c r="E363" s="38"/>
       <c r="F363" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G363" s="44"/>
     </row>
@@ -14927,11 +14941,11 @@
         <v>633</v>
       </c>
       <c r="D364" s="38" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E364" s="38"/>
       <c r="F364" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G364" s="44"/>
     </row>
@@ -14946,13 +14960,13 @@
         <v>635</v>
       </c>
       <c r="D365" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E365" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F365" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G365" s="38"/>
     </row>
@@ -14997,13 +15011,13 @@
         <v>567</v>
       </c>
       <c r="D368" s="40" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E368" s="40" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F368" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G368" s="44" t="s">
         <v>568</v>
@@ -15020,13 +15034,13 @@
         <v>640</v>
       </c>
       <c r="D369" s="40" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E369" s="40" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F369" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G369" s="44"/>
     </row>
@@ -15044,10 +15058,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E370" s="38" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F370" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G370" s="44"/>
     </row>
@@ -15096,7 +15110,7 @@
       </c>
       <c r="E373" s="38"/>
       <c r="F373" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G373" s="44" t="s">
         <v>647</v>
@@ -15117,7 +15131,7 @@
       </c>
       <c r="E374" s="38"/>
       <c r="F374" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G374" s="44"/>
     </row>
@@ -15136,7 +15150,7 @@
       </c>
       <c r="E375" s="38"/>
       <c r="F375" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G375" s="44"/>
     </row>
@@ -15155,7 +15169,7 @@
       </c>
       <c r="E376" s="40"/>
       <c r="F376" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G376" s="44"/>
     </row>
@@ -15174,7 +15188,7 @@
       </c>
       <c r="E377" s="38"/>
       <c r="F377" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G377" s="44"/>
     </row>
@@ -15193,7 +15207,7 @@
       </c>
       <c r="E378" s="38"/>
       <c r="F378" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G378" s="44"/>
     </row>
@@ -15227,10 +15241,10 @@
       </c>
       <c r="E380" s="38"/>
       <c r="F380" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G380" s="44" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -15244,13 +15258,13 @@
         <v>624</v>
       </c>
       <c r="D381" s="40" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E381" s="40" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F381" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G381" s="38"/>
     </row>
@@ -15284,10 +15298,10 @@
       </c>
       <c r="E383" s="38"/>
       <c r="F383" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G383" s="44" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -15301,11 +15315,11 @@
         <v>666</v>
       </c>
       <c r="D384" s="38" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E384" s="46"/>
       <c r="F384" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G384" s="44"/>
     </row>
@@ -15324,7 +15338,7 @@
       </c>
       <c r="E385" s="38"/>
       <c r="F385" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G385" s="44"/>
     </row>
@@ -15339,11 +15353,11 @@
         <v>633</v>
       </c>
       <c r="D386" s="38" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E386" s="38"/>
       <c r="F386" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G386" s="38"/>
     </row>
@@ -15358,13 +15372,13 @@
         <v>635</v>
       </c>
       <c r="D387" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E387" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F387" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G387" s="38"/>
     </row>
@@ -15412,10 +15426,10 @@
         <v>78.3</v>
       </c>
       <c r="E390" s="38" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F390" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G390" s="44" t="s">
         <v>568</v>
@@ -15432,13 +15446,13 @@
         <v>674</v>
       </c>
       <c r="D391" s="38" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E391" s="40" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F391" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G391" s="38"/>
     </row>
@@ -15456,10 +15470,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E392" s="38" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F392" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G392" s="44"/>
     </row>
@@ -15504,11 +15518,11 @@
         <v>680</v>
       </c>
       <c r="D395" s="38" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E395" s="38"/>
       <c r="F395" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G395" s="44" t="s">
         <v>681</v>
@@ -15529,7 +15543,7 @@
       </c>
       <c r="E396" s="38"/>
       <c r="F396" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G396" s="44"/>
     </row>
@@ -15548,7 +15562,7 @@
       </c>
       <c r="E397" s="38"/>
       <c r="F397" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G397" s="44"/>
     </row>
@@ -15567,7 +15581,7 @@
       </c>
       <c r="E398" s="38"/>
       <c r="F398" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G398" s="44"/>
     </row>
@@ -15586,7 +15600,7 @@
       </c>
       <c r="E399" s="38"/>
       <c r="F399" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G399" s="44"/>
     </row>
@@ -15605,7 +15619,7 @@
       </c>
       <c r="E400" s="38"/>
       <c r="F400" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G400" s="44"/>
     </row>
@@ -15639,10 +15653,10 @@
       </c>
       <c r="E402" s="38"/>
       <c r="F402" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G402" s="44" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -15656,13 +15670,13 @@
         <v>624</v>
       </c>
       <c r="D403" s="40" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E403" s="40" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F403" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G403" s="38"/>
     </row>
@@ -15696,10 +15710,10 @@
       </c>
       <c r="E405" s="38"/>
       <c r="F405" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G405" s="44" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -15713,11 +15727,11 @@
         <v>666</v>
       </c>
       <c r="D406" s="38" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E406" s="46"/>
       <c r="F406" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G406" s="44"/>
     </row>
@@ -15736,7 +15750,7 @@
       </c>
       <c r="E407" s="38"/>
       <c r="F407" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G407" s="44"/>
     </row>
@@ -15751,11 +15765,11 @@
         <v>633</v>
       </c>
       <c r="D408" s="38" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E408" s="38"/>
       <c r="F408" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G408" s="38"/>
     </row>
@@ -15770,13 +15784,13 @@
         <v>635</v>
       </c>
       <c r="D409" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E409" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F409" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G409" s="38"/>
     </row>
@@ -15824,10 +15838,10 @@
         <v>78.3</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F412" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G412" s="44" t="s">
         <v>568</v>
@@ -15847,10 +15861,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E413" s="38" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F413" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G413" s="44"/>
     </row>
@@ -15868,10 +15882,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E414" s="38" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F414" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G414" s="44"/>
     </row>
@@ -15920,7 +15934,7 @@
       </c>
       <c r="E417" s="38"/>
       <c r="F417" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G417" s="38" t="s">
         <v>709</v>
@@ -15941,7 +15955,7 @@
       </c>
       <c r="E418" s="38"/>
       <c r="F418" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G418" s="44"/>
     </row>
@@ -15960,7 +15974,7 @@
       </c>
       <c r="E419" s="38"/>
       <c r="F419" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G419" s="44"/>
     </row>
@@ -15979,7 +15993,7 @@
       </c>
       <c r="E420" s="38"/>
       <c r="F420" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G420" s="38"/>
     </row>
@@ -16006,14 +16020,14 @@
         <v>718</v>
       </c>
       <c r="C422" s="62" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D422" s="38" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E422" s="38"/>
       <c r="F422" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G422" s="38" t="s">
         <v>720</v>
@@ -16027,14 +16041,14 @@
         <v>722</v>
       </c>
       <c r="C423" s="62" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D423" s="40" t="s">
         <v>721</v>
       </c>
       <c r="E423" s="40"/>
       <c r="F423" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G423" s="38"/>
     </row>
@@ -16053,7 +16067,7 @@
       </c>
       <c r="E424" s="40"/>
       <c r="F424" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G424" s="38"/>
     </row>
@@ -16087,7 +16101,7 @@
       </c>
       <c r="E426" s="40"/>
       <c r="F426" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G426" s="44" t="s">
         <v>729</v>
@@ -16108,7 +16122,7 @@
       </c>
       <c r="E427" s="40"/>
       <c r="F427" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G427" s="44"/>
     </row>
@@ -16127,7 +16141,7 @@
       </c>
       <c r="E428" s="40"/>
       <c r="F428" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G428" s="44"/>
     </row>
@@ -16146,7 +16160,7 @@
       </c>
       <c r="E429" s="40"/>
       <c r="F429" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G429" s="38"/>
     </row>
@@ -16165,7 +16179,7 @@
       </c>
       <c r="E430" s="40"/>
       <c r="F430" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G430" s="44"/>
     </row>
@@ -16184,7 +16198,7 @@
       </c>
       <c r="E431" s="40"/>
       <c r="F431" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G431" s="44"/>
     </row>
@@ -16201,7 +16215,7 @@
       <c r="D432" s="41"/>
       <c r="E432" s="41"/>
       <c r="F432" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G432" s="41"/>
     </row>
@@ -16220,7 +16234,7 @@
       </c>
       <c r="E433" s="40"/>
       <c r="F433" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G433" s="44" t="s">
         <v>738</v>
@@ -16241,7 +16255,7 @@
       </c>
       <c r="E434" s="40"/>
       <c r="F434" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G434" s="44"/>
     </row>
@@ -16260,7 +16274,7 @@
       </c>
       <c r="E435" s="40"/>
       <c r="F435" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G435" s="44" t="s">
         <v>606</v>
@@ -16281,7 +16295,7 @@
       </c>
       <c r="E436" s="40"/>
       <c r="F436" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G436" s="44"/>
     </row>
@@ -16298,7 +16312,7 @@
       <c r="D437" s="41"/>
       <c r="E437" s="41"/>
       <c r="F437" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G437" s="41"/>
     </row>
@@ -16317,10 +16331,10 @@
       </c>
       <c r="E438" s="40"/>
       <c r="F438" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G438" s="44" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -16334,13 +16348,13 @@
         <v>624</v>
       </c>
       <c r="D439" s="40" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E439" s="40" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F439" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G439" s="38"/>
     </row>
@@ -16352,12 +16366,12 @@
         <v>746</v>
       </c>
       <c r="C440" s="41" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D440" s="41"/>
       <c r="E440" s="41"/>
       <c r="F440" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G440" s="41"/>
     </row>
@@ -16372,13 +16386,13 @@
         <v>635</v>
       </c>
       <c r="D441" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E441" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F441" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G441" s="38"/>
     </row>
@@ -16395,7 +16409,7 @@
       <c r="D442" s="41"/>
       <c r="E442" s="41"/>
       <c r="F442" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G442" s="37"/>
     </row>
@@ -16414,7 +16428,7 @@
         <v>279</v>
       </c>
       <c r="F443" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G443" s="44"/>
     </row>
@@ -16433,7 +16447,7 @@
         <v>279</v>
       </c>
       <c r="F444" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G444" s="44"/>
     </row>
@@ -16452,7 +16466,7 @@
         <v>279</v>
       </c>
       <c r="F445" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G445" s="44"/>
     </row>
@@ -16469,7 +16483,7 @@
       <c r="D446" s="41"/>
       <c r="E446" s="37"/>
       <c r="F446" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G446" s="37"/>
     </row>
@@ -16488,7 +16502,7 @@
         <v>279</v>
       </c>
       <c r="F447" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G447" s="44"/>
     </row>
@@ -16507,7 +16521,7 @@
         <v>279</v>
       </c>
       <c r="F448" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G448" s="44"/>
     </row>
@@ -16524,7 +16538,7 @@
       <c r="D449" s="41"/>
       <c r="E449" s="41"/>
       <c r="F449" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G449" s="37"/>
     </row>
@@ -16541,7 +16555,7 @@
       <c r="D450" s="41"/>
       <c r="E450" s="41"/>
       <c r="F450" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G450" s="41"/>
     </row>
@@ -16560,7 +16574,7 @@
       </c>
       <c r="E451" s="38"/>
       <c r="F451" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G451" s="44" t="s">
         <v>568</v>
@@ -16581,7 +16595,7 @@
       </c>
       <c r="E452" s="38"/>
       <c r="F452" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G452" s="44"/>
     </row>
@@ -16600,7 +16614,7 @@
       </c>
       <c r="E453" s="38"/>
       <c r="F453" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G453" s="44"/>
     </row>
@@ -16617,7 +16631,7 @@
       <c r="D454" s="41"/>
       <c r="E454" s="41"/>
       <c r="F454" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G454" s="41"/>
     </row>
@@ -16634,7 +16648,7 @@
       <c r="D455" s="41"/>
       <c r="E455" s="41"/>
       <c r="F455" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G455" s="41"/>
     </row>
@@ -16653,10 +16667,10 @@
       </c>
       <c r="E456" s="38"/>
       <c r="F456" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G456" s="44" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -16674,7 +16688,7 @@
       </c>
       <c r="E457" s="38"/>
       <c r="F457" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G457" s="44"/>
     </row>
@@ -16689,11 +16703,11 @@
         <v>767</v>
       </c>
       <c r="D458" s="38" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E458" s="38"/>
       <c r="F458" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G458" s="38"/>
     </row>
@@ -16712,7 +16726,7 @@
       </c>
       <c r="E459" s="38"/>
       <c r="F459" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G459" s="38"/>
     </row>
@@ -16724,12 +16738,12 @@
         <v>770</v>
       </c>
       <c r="C460" s="38" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D460" s="38"/>
       <c r="E460" s="38"/>
       <c r="F460" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G460" s="38"/>
     </row>
@@ -16738,7 +16752,7 @@
         <v>58</v>
       </c>
       <c r="B461" s="38" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C461" s="38" t="s">
         <v>771</v>
@@ -16748,7 +16762,7 @@
       </c>
       <c r="E461" s="38"/>
       <c r="F461" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G461" s="38"/>
     </row>
@@ -16757,17 +16771,17 @@
         <v>58</v>
       </c>
       <c r="B462" s="38" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C462" s="38" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D462" s="38" t="s">
         <v>724</v>
       </c>
       <c r="E462" s="38"/>
       <c r="F462" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G462" s="38"/>
     </row>
@@ -16784,7 +16798,7 @@
       <c r="D463" s="41"/>
       <c r="E463" s="41"/>
       <c r="F463" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G463" s="41"/>
     </row>
@@ -16803,10 +16817,10 @@
       </c>
       <c r="E464" s="38"/>
       <c r="F464" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G464" s="44" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -16820,11 +16834,11 @@
         <v>624</v>
       </c>
       <c r="D465" s="40" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E465" s="40"/>
       <c r="F465" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G465" s="38"/>
     </row>
@@ -16841,7 +16855,7 @@
       <c r="D466" s="41"/>
       <c r="E466" s="41"/>
       <c r="F466" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G466" s="41"/>
     </row>
@@ -16860,10 +16874,10 @@
       </c>
       <c r="E467" s="38"/>
       <c r="F467" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G467" s="44" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -16881,7 +16895,7 @@
       </c>
       <c r="E468" s="38"/>
       <c r="F468" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G468" s="44"/>
     </row>
@@ -16900,7 +16914,7 @@
       </c>
       <c r="E469" s="38"/>
       <c r="F469" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G469" s="44"/>
     </row>
@@ -16915,11 +16929,11 @@
         <v>633</v>
       </c>
       <c r="D470" s="38" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E470" s="38"/>
       <c r="F470" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G470" s="38"/>
     </row>
@@ -16934,11 +16948,11 @@
         <v>635</v>
       </c>
       <c r="D471" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E471" s="38"/>
       <c r="F471" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G471" s="38"/>
     </row>
@@ -16955,14 +16969,14 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="45.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="81.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="45.09765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="81.3984375" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -16994,7 +17008,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>789</v>
@@ -17013,7 +17027,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>791</v>
@@ -17032,7 +17046,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>792</v>
@@ -17046,12 +17060,12 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="126">
+    <row r="5" spans="1:7" ht="140.4">
       <c r="A5" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>793</v>
@@ -17070,7 +17084,7 @@
         <v>796</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>797</v>
@@ -17098,22 +17112,24 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.5" style="29" customWidth="1"/>
     <col min="2" max="2" width="68.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" style="4" customWidth="1"/>
     <col min="4" max="4" width="100" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="22.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.8984375" style="4" customWidth="1"/>
     <col min="7" max="7" width="20" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="24" customFormat="1" ht="31.5">
+    <row r="1" spans="1:1025" s="24" customFormat="1">
       <c r="A1" s="8" t="s">
         <v>782</v>
       </c>
@@ -18268,7 +18284,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:1025" ht="31.5">
+    <row r="8" spans="1:1025" ht="31.2">
       <c r="A8" s="3" t="s">
         <v>810</v>
       </c>
@@ -18453,7 +18469,7 @@
         <v>124</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>790</v>
@@ -18821,7 +18837,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="63">
+    <row r="37" spans="1:7" ht="78">
       <c r="A37" s="3" t="s">
         <v>257</v>
       </c>
@@ -18842,7 +18858,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="31.5">
+    <row r="38" spans="1:7" ht="31.2">
       <c r="A38" s="3" t="s">
         <v>526</v>
       </c>
@@ -18866,7 +18882,7 @@
         <v>278</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>854</v>
@@ -18885,13 +18901,13 @@
         <v>269</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>855</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
@@ -18904,13 +18920,13 @@
         <v>266</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>856</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -18918,12 +18934,12 @@
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="47.25">
+    <row r="42" spans="1:7" ht="46.8">
       <c r="A42" s="3" t="s">
         <v>274</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>857</v>
@@ -18939,16 +18955,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="32" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B43" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C43" s="32" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D43" s="32" t="s">
         <v>1177</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>1178</v>
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="32" t="s">
@@ -18958,16 +18974,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="32" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B44" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="32" t="s">
@@ -18977,16 +18993,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="32" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B45" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="32" t="s">
@@ -18996,16 +19012,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="32" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B46" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="32" t="s">
@@ -19015,16 +19031,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="32" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B47" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="32" t="s">
@@ -19034,16 +19050,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="32" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B48" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="32" t="s">
@@ -19053,16 +19069,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="32" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B49" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="32" t="s">
@@ -19072,16 +19088,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="32" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B50" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="32" t="s">
@@ -19091,16 +19107,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="32" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B51" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="32" t="s">
@@ -19110,16 +19126,16 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="32" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B52" s="32" t="s">
         <v>839</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="32" t="s">
@@ -19129,16 +19145,16 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="32" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B53" s="32" t="s">
         <v>839</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="32" t="s">
@@ -19148,16 +19164,16 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="32" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>847</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E54" s="32"/>
       <c r="F54" s="32" t="s">
@@ -19167,16 +19183,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="32" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E55" s="32"/>
       <c r="F55" s="32" t="s">
@@ -19198,23 +19214,23 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:IV49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:E45"/>
+    <sheetView showGridLines="0" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="47.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="80.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="47.3984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="80.8984375" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="24" customFormat="1" ht="30.95" customHeight="1">
+    <row r="1" spans="1:256" s="24" customFormat="1" ht="30.9" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>782</v>
       </c>
@@ -19754,16 +19770,16 @@
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1">
       <c r="A16" s="31" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>860</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30" t="s">
@@ -19773,16 +19789,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
       <c r="A17" s="31" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>860</v>
       </c>
       <c r="C17" s="31" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D17" s="31" t="s">
         <v>1098</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>1099</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30" t="s">
@@ -19801,7 +19817,7 @@
         <v>894</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30" t="s">
@@ -20208,7 +20224,7 @@
       </c>
       <c r="G39" s="30"/>
     </row>
-    <row r="40" spans="1:7" ht="30.95" customHeight="1">
+    <row r="40" spans="1:7" ht="30.9" customHeight="1">
       <c r="A40" s="30" t="s">
         <v>949</v>
       </c>
@@ -20261,7 +20277,7 @@
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
     </row>
-    <row r="43" spans="1:7" ht="30.95" customHeight="1">
+    <row r="43" spans="1:7" ht="30.9" customHeight="1">
       <c r="A43" s="30" t="s">
         <v>959</v>
       </c>
@@ -20294,42 +20310,42 @@
         <v>965</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>966</v>
+        <v>1301</v>
       </c>
       <c r="F44" s="30"/>
       <c r="G44" s="30"/>
     </row>
     <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="30" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B45" s="30" t="s">
         <v>860</v>
       </c>
       <c r="C45" s="30" t="s">
+        <v>967</v>
+      </c>
+      <c r="D45" s="30" t="s">
         <v>968</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="E45" s="30" t="s">
         <v>969</v>
-      </c>
-      <c r="E45" s="30" t="s">
-        <v>970</v>
       </c>
       <c r="F45" s="30"/>
       <c r="G45" s="30"/>
     </row>
     <row r="46" spans="1:7" ht="31.5" customHeight="1">
       <c r="A46" s="30" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B46" s="30" t="s">
         <v>860</v>
       </c>
       <c r="C46" s="30" t="s">
+        <v>971</v>
+      </c>
+      <c r="D46" s="30" t="s">
         <v>972</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>973</v>
       </c>
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
@@ -20337,16 +20353,16 @@
     </row>
     <row r="47" spans="1:7" ht="31.5" customHeight="1">
       <c r="A47" s="30" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B47" s="30" t="s">
         <v>860</v>
       </c>
       <c r="C47" s="30" t="s">
+        <v>974</v>
+      </c>
+      <c r="D47" s="30" t="s">
         <v>975</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>976</v>
       </c>
       <c r="E47" s="30"/>
       <c r="F47" s="30"/>
@@ -20354,33 +20370,33 @@
     </row>
     <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="30" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B48" s="30" t="s">
         <v>860</v>
       </c>
       <c r="C48" s="30" t="s">
+        <v>977</v>
+      </c>
+      <c r="D48" s="30" t="s">
         <v>978</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>979</v>
       </c>
       <c r="E48" s="30"/>
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
     </row>
-    <row r="49" spans="1:256" s="57" customFormat="1" ht="31.5">
+    <row r="49" spans="1:256" s="57" customFormat="1" ht="31.2">
       <c r="A49" s="31" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B49" s="30" t="s">
         <v>860</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E49" s="30"/>
       <c r="F49" s="30"/>
@@ -20649,21 +20665,21 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.5" style="29" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="41.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.3984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="41.3984375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" style="4" customWidth="1"/>
     <col min="7" max="7" width="29" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -20944,13 +20960,13 @@
         <v>435</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>982</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>983</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
@@ -20963,13 +20979,13 @@
         <v>438</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>984</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>985</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
@@ -20982,13 +20998,13 @@
         <v>441</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>986</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>987</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
@@ -21001,13 +21017,13 @@
         <v>456</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>988</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>989</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
@@ -21020,13 +21036,13 @@
         <v>444</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>990</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>991</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
@@ -21039,13 +21055,13 @@
         <v>447</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>992</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>993</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
@@ -21058,13 +21074,13 @@
         <v>450</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>994</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>995</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
@@ -21077,13 +21093,13 @@
         <v>453</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>996</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>997</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
@@ -21096,13 +21112,13 @@
         <v>459</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>998</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>999</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
@@ -21112,16 +21128,16 @@
     </row>
     <row r="11" spans="1:256" ht="47.25" customHeight="1">
       <c r="A11" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>1000</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>1001</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>1002</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
@@ -21134,13 +21150,13 @@
         <v>462</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>1003</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>1004</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
@@ -21153,20 +21169,20 @@
         <v>465</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>1005</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>1006</v>
       </c>
       <c r="E13" s="63"/>
       <c r="F13" s="5" t="s">
         <v>790</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.5" customHeight="1">
@@ -21174,13 +21190,13 @@
         <v>468</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>1008</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>1009</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
@@ -21193,22 +21209,22 @@
         <v>502</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>1011</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>1012</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>790</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="16" spans="1:256" ht="47.25" customHeight="1">
@@ -21216,13 +21232,13 @@
         <v>493</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>1014</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>1015</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
@@ -21235,22 +21251,22 @@
         <v>505</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>1016</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>1017</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>1018</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>790</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" customHeight="1">
@@ -21258,10 +21274,10 @@
         <v>533</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>532</v>
@@ -21277,10 +21293,10 @@
         <v>536</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>535</v>
@@ -21296,13 +21312,13 @@
         <v>539</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>1022</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>1023</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
@@ -21315,13 +21331,13 @@
         <v>542</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>1024</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>1025</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
@@ -21334,13 +21350,13 @@
         <v>547</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>1026</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>1027</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
@@ -21353,10 +21369,10 @@
         <v>488</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>544</v>
@@ -21365,120 +21381,120 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="31.5">
+    <row r="24" spans="1:7" ht="31.2">
       <c r="A24" s="32" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B24" s="32" t="s">
         <v>1156</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="C24" s="32" t="s">
         <v>1157</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="D24" s="32" t="s">
         <v>1158</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>1159</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
     </row>
-    <row r="25" spans="1:7" ht="47.25">
+    <row r="25" spans="1:7" ht="46.8">
       <c r="A25" s="32" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C25" s="32" t="s">
         <v>1160</v>
       </c>
-      <c r="B25" s="32" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>1161</v>
-      </c>
       <c r="D25" s="32" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
     </row>
-    <row r="26" spans="1:7" ht="31.5">
+    <row r="26" spans="1:7" ht="31.2">
       <c r="A26" s="32" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C26" s="32" t="s">
         <v>1162</v>
       </c>
-      <c r="B26" s="32" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C26" s="32" t="s">
+      <c r="D26" s="32" t="s">
         <v>1163</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>1164</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
     </row>
-    <row r="27" spans="1:7" ht="47.25">
+    <row r="27" spans="1:7" ht="46.8">
       <c r="A27" s="32" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>1165</v>
       </c>
-      <c r="B27" s="32" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C27" s="32" t="s">
+      <c r="D27" s="32" t="s">
         <v>1166</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>1167</v>
       </c>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
     </row>
-    <row r="28" spans="1:7" ht="47.25">
+    <row r="28" spans="1:7" ht="46.8">
       <c r="A28" s="32" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C28" s="32" t="s">
         <v>1168</v>
       </c>
-      <c r="B28" s="32" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C28" s="32" t="s">
+      <c r="D28" s="32" t="s">
         <v>1169</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>1170</v>
       </c>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
     </row>
-    <row r="29" spans="1:7" ht="31.5">
+    <row r="29" spans="1:7" ht="46.8">
       <c r="A29" s="32" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C29" s="32" t="s">
         <v>1171</v>
       </c>
-      <c r="B29" s="32" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C29" s="32" t="s">
+      <c r="D29" s="32" t="s">
         <v>1172</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>1173</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
     </row>
-    <row r="30" spans="1:7" ht="47.25">
+    <row r="30" spans="1:7" ht="46.8">
       <c r="A30" s="32" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C30" s="32" t="s">
         <v>1174</v>
       </c>
-      <c r="B30" s="32" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C30" s="32" t="s">
+      <c r="D30" s="32" t="s">
         <v>1175</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>1176</v>
       </c>
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
@@ -21500,16 +21516,16 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="54.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="75.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="132.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="54.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="75.59765625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="132.3984375" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -21538,16 +21554,16 @@
     </row>
     <row r="2" spans="1:256" s="61" customFormat="1">
       <c r="A2" s="8" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1029</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>1030</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>1031</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E2" s="64"/>
       <c r="F2" s="28" t="s">
@@ -21806,16 +21822,16 @@
     </row>
     <row r="3" spans="1:256">
       <c r="A3" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>1032</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1033</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E3" s="65"/>
       <c r="F3" s="3" t="s">
@@ -21823,18 +21839,18 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:256" ht="63">
+    <row r="4" spans="1:256" ht="62.4">
       <c r="A4" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>1034</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>1035</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E4" s="64"/>
       <c r="F4" s="3" t="s">
@@ -21858,17 +21874,17 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.5" style="25" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="53.3984375" style="20" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="20" customWidth="1"/>
     <col min="4" max="4" width="44.5" style="20" customWidth="1"/>
-    <col min="5" max="5" width="31.875" style="20" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="31.8984375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="20" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="20" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="20" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="21" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="20" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="21" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
@@ -22146,23 +22162,23 @@
     </row>
     <row r="2" spans="1:256" ht="31.5" customHeight="1">
       <c r="A2" s="30" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>1036</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="C2" s="30" t="s">
         <v>1037</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="D2" s="30" t="s">
         <v>1038</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>1039</v>
       </c>
       <c r="E2" s="30"/>
       <c r="F2" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1">
@@ -22170,13 +22186,13 @@
         <v>648</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C3" s="30" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>1041</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>1042</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="30" t="s">
@@ -22189,13 +22205,13 @@
         <v>577</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C4" s="30" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>1043</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>1044</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="30" t="s">
@@ -22208,13 +22224,13 @@
         <v>580</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C5" s="30" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>1045</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>1046</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="30" t="s">
@@ -22227,13 +22243,13 @@
         <v>583</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C6" s="30" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>1047</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>1048</v>
       </c>
       <c r="E6" s="30"/>
       <c r="F6" s="30" t="s">
@@ -22246,22 +22262,22 @@
         <v>586</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C7" s="30" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>1049</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="E7" s="30" t="s">
         <v>1050</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>1051</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="31.5" customHeight="1">
@@ -22269,13 +22285,13 @@
         <v>591</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C8" s="30" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>1052</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>1053</v>
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="30" t="s">
@@ -22288,13 +22304,13 @@
         <v>594</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C9" s="30" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>1054</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>1055</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30" t="s">
@@ -22307,13 +22323,13 @@
         <v>597</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C10" s="30" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>1056</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>1057</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="30" t="s">
@@ -22326,13 +22342,13 @@
         <v>600</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C11" s="30" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>1058</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>1059</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30" t="s">
@@ -22345,10 +22361,10 @@
         <v>603</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>602</v>
@@ -22364,22 +22380,22 @@
         <v>606</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C13" s="30" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>1061</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>1062</v>
-      </c>
       <c r="E13" s="30" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.5" customHeight="1">
@@ -22387,20 +22403,20 @@
         <v>615</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C14" s="30" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>1064</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>1065</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="31.5" customHeight="1">
@@ -22408,13 +22424,13 @@
         <v>618</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C15" s="30" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>1067</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>1068</v>
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="30" t="s">
@@ -22427,13 +22443,13 @@
         <v>651</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C16" s="30" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>1069</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>1070</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30" t="s">
@@ -22443,16 +22459,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
       <c r="A17" s="30" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>1071</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C17" s="30" t="s">
+      <c r="D17" s="30" t="s">
         <v>1072</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>1073</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30" t="s">
@@ -22465,13 +22481,13 @@
         <v>684</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C18" s="30" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>1074</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>1075</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30" t="s">
@@ -22481,25 +22497,25 @@
     </row>
     <row r="19" spans="1:7" ht="31.5" customHeight="1">
       <c r="A19" s="30" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>1076</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C19" s="30" t="s">
+      <c r="D19" s="30" t="s">
         <v>1077</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="E19" s="30" t="s">
         <v>1078</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>1079</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
@@ -22507,13 +22523,13 @@
         <v>721</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C20" s="30" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D20" s="30" t="s">
         <v>1080</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>1081</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="30" t="s">
@@ -22526,56 +22542,56 @@
         <v>724</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C21" s="30" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D21" s="30" t="s">
         <v>1082</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="E21" s="30" t="s">
         <v>1083</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>1084</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="31.5" customHeight="1">
       <c r="A22" s="30" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>1086</v>
       </c>
-      <c r="B22" s="30" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C22" s="30" t="s">
+      <c r="D22" s="30" t="s">
         <v>1087</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="E22" s="30" t="s">
         <v>1088</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>1089</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>809</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="31.5">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="31.2">
       <c r="A23" s="30" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>629</v>
@@ -22586,13 +22602,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="30" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>633</v>
@@ -22603,32 +22619,32 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="30" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>624</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
     </row>
-    <row r="26" spans="1:7" ht="31.5">
+    <row r="26" spans="1:7" ht="31.2">
       <c r="A26" s="30" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>635</v>
@@ -22639,13 +22655,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="58" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>767</v>
@@ -22670,16 +22686,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="19" style="22" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="53.3984375" style="19" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="19" customWidth="1"/>
     <col min="4" max="4" width="25" style="19" customWidth="1"/>
     <col min="5" max="5" width="46" style="19" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="19" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="19" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="19" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -22957,40 +22973,40 @@
     </row>
     <row r="2" spans="1:256">
       <c r="A2" s="7" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
         <v>790</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="3" spans="1:256">
       <c r="A3" s="7" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>1137</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1138</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>809</v>
@@ -22999,19 +23015,19 @@
     </row>
     <row r="4" spans="1:256">
       <c r="A4" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>1142</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>1143</v>
-      </c>
       <c r="C4" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>1140</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1141</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>809</v>

--- a/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geoff\gsa-devel\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF29BDA9-CEAE-4605-80E1-5C5B7C1C5EEA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1455D6BD-30A3-4F34-8403-A0B484D0BB20}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3183,9 +3183,6 @@
     <t>Confirm that id- fpki-common-authentication OID is asserted in certificate policies</t>
   </si>
   <si>
-    <t>2.16.840.1.101.3.2.1.48.11</t>
-  </si>
-  <si>
     <t>PKIX_Test_7</t>
   </si>
   <si>
@@ -3942,6 +3939,9 @@
   </si>
   <si>
     <t>CARDHOLDER_IRIS_IMAGES_OID</t>
+  </si>
+  <si>
+    <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID;2.16.840.1.101.3.2.1.48.11,X509_CERTIFICATE_FOR_DIGITAL_SIGNATURE_OID;2.16.840.1.101.3.2.1.48.9:2.16.840.1.101.3.2.1.48.12,X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID;2.16.840.1.101.3.2.1.48.9:2.16.840.1.101.3.2.1.48.12,X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID;2.16.840.1.101.3.2.1.48.13,CARD_HOLDER_UNIQUE_IDENTIFIER_OID;2.16.840.1.101.3.2.1.48.86</t>
   </si>
 </sst>
 </file>
@@ -8448,8 +8448,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F333" sqref="F333"/>
+    <sheetView tabSelected="1" topLeftCell="A445" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F449" sqref="F449:F471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8483,7 +8483,7 @@
         <v>56</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G1" s="33" t="s">
         <v>55</v>
@@ -8495,7 +8495,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>0</v>
@@ -8525,10 +8525,10 @@
         <v>58</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>1254</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>1255</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
@@ -8550,7 +8550,7 @@
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G5" s="38" t="s">
         <v>61</v>
@@ -8571,7 +8571,7 @@
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G6" s="38"/>
     </row>
@@ -8590,7 +8590,7 @@
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G7" s="38"/>
     </row>
@@ -8609,7 +8609,7 @@
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G8" s="38"/>
     </row>
@@ -8628,7 +8628,7 @@
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G9" s="38"/>
     </row>
@@ -8647,7 +8647,7 @@
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G10" s="38"/>
     </row>
@@ -8666,7 +8666,7 @@
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G11" s="38"/>
     </row>
@@ -8685,7 +8685,7 @@
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G12" s="38"/>
     </row>
@@ -8704,7 +8704,7 @@
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G13" s="38"/>
     </row>
@@ -8723,7 +8723,7 @@
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G14" s="38"/>
     </row>
@@ -8742,7 +8742,7 @@
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G15" s="38"/>
     </row>
@@ -8766,10 +8766,10 @@
         <v>58</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
@@ -8791,7 +8791,7 @@
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>95</v>
@@ -8812,7 +8812,7 @@
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G19" s="38"/>
     </row>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="E20" s="38"/>
       <c r="F20" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G20" s="38"/>
     </row>
@@ -8850,7 +8850,7 @@
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G21" s="38"/>
     </row>
@@ -8869,7 +8869,7 @@
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G22" s="38"/>
     </row>
@@ -8881,14 +8881,14 @@
         <v>102</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>104</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G23" s="38"/>
     </row>
@@ -8900,14 +8900,14 @@
         <v>105</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G24" s="39"/>
     </row>
@@ -8926,7 +8926,7 @@
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G25" s="38"/>
     </row>
@@ -8938,14 +8938,14 @@
         <v>111</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>110</v>
       </c>
       <c r="E26" s="38"/>
       <c r="F26" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G26" s="38"/>
     </row>
@@ -8957,14 +8957,14 @@
         <v>114</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="39" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G27" s="39"/>
     </row>
@@ -8976,14 +8976,14 @@
         <v>117</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G28" s="39"/>
     </row>
@@ -8992,34 +8992,34 @@
         <v>58</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E29" s="39"/>
       <c r="F29" s="39" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G29" s="39"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="39"/>
       <c r="B30" s="39" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="39" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G30" s="39"/>
     </row>
@@ -9028,17 +9028,17 @@
         <v>58</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>113</v>
       </c>
       <c r="E31" s="38"/>
       <c r="F31" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G31" s="38"/>
     </row>
@@ -9047,7 +9047,7 @@
         <v>58</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C32" s="38" t="s">
         <v>115</v>
@@ -9057,7 +9057,7 @@
       </c>
       <c r="E32" s="38"/>
       <c r="F32" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G32" s="38"/>
     </row>
@@ -9066,17 +9066,17 @@
         <v>58</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="39" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G33" s="39"/>
     </row>
@@ -9085,17 +9085,17 @@
         <v>58</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="39" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G34" s="39"/>
     </row>
@@ -9104,17 +9104,17 @@
         <v>58</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E35" s="39"/>
       <c r="F35" s="39" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G35" s="39"/>
     </row>
@@ -9123,17 +9123,17 @@
         <v>58</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E36" s="39"/>
       <c r="F36" s="39" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G36" s="39"/>
     </row>
@@ -9142,7 +9142,7 @@
         <v>58</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C37" s="38" t="s">
         <v>118</v>
@@ -9152,7 +9152,7 @@
       </c>
       <c r="E37" s="38"/>
       <c r="F37" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G37" s="38"/>
     </row>
@@ -9171,7 +9171,7 @@
       </c>
       <c r="E38" s="38"/>
       <c r="F38" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G38" s="38"/>
     </row>
@@ -9190,7 +9190,7 @@
       </c>
       <c r="E39" s="38"/>
       <c r="F39" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G39" s="38"/>
     </row>
@@ -9209,7 +9209,7 @@
       </c>
       <c r="E40" s="38"/>
       <c r="F40" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G40" s="38"/>
     </row>
@@ -9228,7 +9228,7 @@
       </c>
       <c r="E41" s="38"/>
       <c r="F41" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G41" s="38"/>
     </row>
@@ -9237,7 +9237,7 @@
         <v>131</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>133</v>
@@ -9247,7 +9247,7 @@
       </c>
       <c r="E42" s="38"/>
       <c r="F42" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G42" s="38"/>
     </row>
@@ -9271,10 +9271,10 @@
         <v>58</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
@@ -9296,7 +9296,7 @@
       </c>
       <c r="E45" s="38"/>
       <c r="F45" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>136</v>
@@ -9317,7 +9317,7 @@
       </c>
       <c r="E46" s="38"/>
       <c r="F46" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G46" s="38"/>
     </row>
@@ -9336,7 +9336,7 @@
       </c>
       <c r="E47" s="38"/>
       <c r="F47" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G47" s="38"/>
     </row>
@@ -9355,7 +9355,7 @@
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G48" s="38"/>
     </row>
@@ -9374,7 +9374,7 @@
       </c>
       <c r="E49" s="38"/>
       <c r="F49" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G49" s="38"/>
     </row>
@@ -9393,7 +9393,7 @@
       </c>
       <c r="E50" s="38"/>
       <c r="F50" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G50" s="38"/>
     </row>
@@ -9412,7 +9412,7 @@
       </c>
       <c r="E51" s="38"/>
       <c r="F51" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G51" s="38"/>
     </row>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="E52" s="38"/>
       <c r="F52" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G52" s="38"/>
     </row>
@@ -9450,7 +9450,7 @@
       </c>
       <c r="E53" s="38"/>
       <c r="F53" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G53" s="38"/>
     </row>
@@ -9459,7 +9459,7 @@
         <v>131</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C54" s="38" t="s">
         <v>133</v>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G54" s="38"/>
     </row>
@@ -9493,10 +9493,10 @@
         <v>58</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D56" s="37"/>
       <c r="E56" s="37"/>
@@ -9518,7 +9518,7 @@
       </c>
       <c r="E57" s="38"/>
       <c r="F57" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>158</v>
@@ -9539,7 +9539,7 @@
       </c>
       <c r="E58" s="38"/>
       <c r="F58" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G58" s="38"/>
     </row>
@@ -9558,7 +9558,7 @@
       </c>
       <c r="E59" s="38"/>
       <c r="F59" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G59" s="38"/>
     </row>
@@ -9577,7 +9577,7 @@
       </c>
       <c r="E60" s="38"/>
       <c r="F60" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G60" s="38"/>
     </row>
@@ -9596,7 +9596,7 @@
       </c>
       <c r="E61" s="38"/>
       <c r="F61" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G61" s="38"/>
     </row>
@@ -9615,7 +9615,7 @@
       </c>
       <c r="E62" s="38"/>
       <c r="F62" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G62" s="38"/>
     </row>
@@ -9634,7 +9634,7 @@
       </c>
       <c r="E63" s="38"/>
       <c r="F63" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G63" s="38"/>
     </row>
@@ -9653,7 +9653,7 @@
       </c>
       <c r="E64" s="38"/>
       <c r="F64" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G64" s="38"/>
     </row>
@@ -9672,7 +9672,7 @@
       </c>
       <c r="E65" s="38"/>
       <c r="F65" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G65" s="38"/>
     </row>
@@ -9696,10 +9696,10 @@
         <v>58</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D67" s="37"/>
       <c r="E67" s="37"/>
@@ -9721,7 +9721,7 @@
       </c>
       <c r="E68" s="38"/>
       <c r="F68" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G68" s="38" t="s">
         <v>169</v>
@@ -9742,7 +9742,7 @@
       </c>
       <c r="E69" s="38"/>
       <c r="F69" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G69" s="38"/>
     </row>
@@ -9761,7 +9761,7 @@
       </c>
       <c r="E70" s="38"/>
       <c r="F70" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G70" s="38"/>
     </row>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="E71" s="38"/>
       <c r="F71" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G71" s="38"/>
     </row>
@@ -9799,7 +9799,7 @@
       </c>
       <c r="E72" s="40"/>
       <c r="F72" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G72" s="38"/>
     </row>
@@ -9818,7 +9818,7 @@
       </c>
       <c r="E73" s="38"/>
       <c r="F73" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G73" s="38"/>
     </row>
@@ -9830,14 +9830,14 @@
         <v>179</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D74" s="39" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E74" s="39"/>
       <c r="F74" s="39" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G74" s="39"/>
     </row>
@@ -9849,14 +9849,14 @@
         <v>182</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D75" s="39" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E75" s="39"/>
       <c r="F75" s="39" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G75" s="39"/>
     </row>
@@ -9875,7 +9875,7 @@
       </c>
       <c r="E76" s="38"/>
       <c r="F76" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G76" s="38"/>
     </row>
@@ -9884,7 +9884,7 @@
         <v>58</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C77" s="38" t="s">
         <v>183</v>
@@ -9894,7 +9894,7 @@
       </c>
       <c r="E77" s="38"/>
       <c r="F77" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G77" s="38"/>
     </row>
@@ -9903,7 +9903,7 @@
         <v>58</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C78" s="38" t="s">
         <v>186</v>
@@ -9913,7 +9913,7 @@
       </c>
       <c r="E78" s="38"/>
       <c r="F78" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G78" s="38"/>
     </row>
@@ -9922,7 +9922,7 @@
         <v>131</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C79" s="38" t="s">
         <v>133</v>
@@ -9932,7 +9932,7 @@
       </c>
       <c r="E79" s="38"/>
       <c r="F79" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G79" s="38"/>
     </row>
@@ -9941,7 +9941,7 @@
         <v>58</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C80" s="37" t="s">
         <v>6</v>
@@ -9956,10 +9956,10 @@
         <v>58</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D81" s="37"/>
       <c r="E81" s="37"/>
@@ -9981,7 +9981,7 @@
       </c>
       <c r="E82" s="38"/>
       <c r="F82" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G82" s="38" t="s">
         <v>191</v>
@@ -10002,7 +10002,7 @@
       </c>
       <c r="E83" s="38"/>
       <c r="F83" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G83" s="38"/>
     </row>
@@ -10021,7 +10021,7 @@
       </c>
       <c r="E84" s="38"/>
       <c r="F84" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G84" s="38"/>
     </row>
@@ -10040,7 +10040,7 @@
       </c>
       <c r="E85" s="38"/>
       <c r="F85" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G85" s="38"/>
     </row>
@@ -10059,7 +10059,7 @@
       </c>
       <c r="E86" s="38"/>
       <c r="F86" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G86" s="38"/>
     </row>
@@ -10078,7 +10078,7 @@
       </c>
       <c r="E87" s="38"/>
       <c r="F87" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G87" s="38"/>
     </row>
@@ -10097,7 +10097,7 @@
       </c>
       <c r="E88" s="38"/>
       <c r="F88" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G88" s="38"/>
     </row>
@@ -10106,7 +10106,7 @@
         <v>131</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C89" s="38" t="s">
         <v>133</v>
@@ -10116,7 +10116,7 @@
       </c>
       <c r="E89" s="38"/>
       <c r="F89" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G89" s="38"/>
     </row>
@@ -10140,10 +10140,10 @@
         <v>58</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D91" s="37"/>
       <c r="E91" s="37"/>
@@ -10165,7 +10165,7 @@
       </c>
       <c r="E92" s="38"/>
       <c r="F92" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G92" s="38" t="s">
         <v>207</v>
@@ -10186,7 +10186,7 @@
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G93" s="38"/>
     </row>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="E94" s="38"/>
       <c r="F94" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G94" s="38"/>
     </row>
@@ -10224,7 +10224,7 @@
       </c>
       <c r="E95" s="38"/>
       <c r="F95" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G95" s="38"/>
     </row>
@@ -10243,7 +10243,7 @@
       </c>
       <c r="E96" s="38"/>
       <c r="F96" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G96" s="38"/>
     </row>
@@ -10262,7 +10262,7 @@
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G97" s="38"/>
     </row>
@@ -10281,7 +10281,7 @@
       </c>
       <c r="E98" s="38"/>
       <c r="F98" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G98" s="38"/>
     </row>
@@ -10300,7 +10300,7 @@
       </c>
       <c r="E99" s="38"/>
       <c r="F99" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G99" s="38"/>
     </row>
@@ -10319,7 +10319,7 @@
       </c>
       <c r="E100" s="38"/>
       <c r="F100" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G100" s="38"/>
     </row>
@@ -10328,7 +10328,7 @@
         <v>131</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C101" s="38" t="s">
         <v>133</v>
@@ -10338,7 +10338,7 @@
       </c>
       <c r="E101" s="38"/>
       <c r="F101" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G101" s="38"/>
     </row>
@@ -10362,10 +10362,10 @@
         <v>58</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D103" s="37"/>
       <c r="E103" s="37"/>
@@ -10387,7 +10387,7 @@
       </c>
       <c r="E104" s="38"/>
       <c r="F104" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G104" s="38" t="s">
         <v>219</v>
@@ -10408,7 +10408,7 @@
       </c>
       <c r="E105" s="38"/>
       <c r="F105" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G105" s="38"/>
     </row>
@@ -10427,7 +10427,7 @@
       </c>
       <c r="E106" s="38"/>
       <c r="F106" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G106" s="38"/>
     </row>
@@ -10446,7 +10446,7 @@
       </c>
       <c r="E107" s="38"/>
       <c r="F107" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G107" s="38"/>
     </row>
@@ -10465,7 +10465,7 @@
       </c>
       <c r="E108" s="38"/>
       <c r="F108" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G108" s="38"/>
     </row>
@@ -10484,7 +10484,7 @@
       </c>
       <c r="E109" s="38"/>
       <c r="F109" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G109" s="38"/>
     </row>
@@ -10503,7 +10503,7 @@
       </c>
       <c r="E110" s="38"/>
       <c r="F110" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G110" s="38"/>
     </row>
@@ -10522,7 +10522,7 @@
       </c>
       <c r="E111" s="38"/>
       <c r="F111" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G111" s="38"/>
     </row>
@@ -10541,7 +10541,7 @@
       </c>
       <c r="E112" s="38"/>
       <c r="F112" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G112" s="38"/>
     </row>
@@ -10550,7 +10550,7 @@
         <v>131</v>
       </c>
       <c r="B113" s="38" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C113" s="38" t="s">
         <v>133</v>
@@ -10560,7 +10560,7 @@
       </c>
       <c r="E113" s="38"/>
       <c r="F113" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G113" s="38"/>
     </row>
@@ -10584,10 +10584,10 @@
         <v>58</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D115" s="37"/>
       <c r="E115" s="37"/>
@@ -10609,7 +10609,7 @@
       </c>
       <c r="E116" s="38"/>
       <c r="F116" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G116" s="38" t="s">
         <v>136</v>
@@ -10630,7 +10630,7 @@
       </c>
       <c r="E117" s="38"/>
       <c r="F117" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G117" s="38"/>
     </row>
@@ -10649,7 +10649,7 @@
       </c>
       <c r="E118" s="38"/>
       <c r="F118" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G118" s="38"/>
     </row>
@@ -10668,7 +10668,7 @@
       </c>
       <c r="E119" s="38"/>
       <c r="F119" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G119" s="38"/>
     </row>
@@ -10687,7 +10687,7 @@
       </c>
       <c r="E120" s="38"/>
       <c r="F120" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G120" s="38"/>
     </row>
@@ -10706,7 +10706,7 @@
       </c>
       <c r="E121" s="38"/>
       <c r="F121" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G121" s="38"/>
     </row>
@@ -10725,7 +10725,7 @@
       </c>
       <c r="E122" s="38"/>
       <c r="F122" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G122" s="38"/>
     </row>
@@ -10744,7 +10744,7 @@
       </c>
       <c r="E123" s="38"/>
       <c r="F123" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G123" s="38"/>
     </row>
@@ -10763,7 +10763,7 @@
       </c>
       <c r="E124" s="38"/>
       <c r="F124" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G124" s="38"/>
     </row>
@@ -10772,7 +10772,7 @@
         <v>131</v>
       </c>
       <c r="B125" s="38" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C125" s="38" t="s">
         <v>133</v>
@@ -10782,7 +10782,7 @@
       </c>
       <c r="E125" s="38"/>
       <c r="F125" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G125" s="38"/>
     </row>
@@ -10791,7 +10791,7 @@
         <v>58</v>
       </c>
       <c r="B126" s="38" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C126" s="37" t="s">
         <v>10</v>
@@ -10806,10 +10806,10 @@
         <v>58</v>
       </c>
       <c r="B127" s="38" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D127" s="37"/>
       <c r="E127" s="37"/>
@@ -10831,7 +10831,7 @@
       </c>
       <c r="E128" s="38"/>
       <c r="F128" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G128" s="38" t="s">
         <v>242</v>
@@ -10852,7 +10852,7 @@
       </c>
       <c r="E129" s="38"/>
       <c r="F129" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G129" s="38"/>
     </row>
@@ -10871,7 +10871,7 @@
       </c>
       <c r="E130" s="38"/>
       <c r="F130" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G130" s="38"/>
     </row>
@@ -10890,7 +10890,7 @@
       </c>
       <c r="E131" s="38"/>
       <c r="F131" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G131" s="38"/>
     </row>
@@ -10909,7 +10909,7 @@
       </c>
       <c r="E132" s="38"/>
       <c r="F132" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G132" s="38"/>
     </row>
@@ -10921,14 +10921,14 @@
         <v>249</v>
       </c>
       <c r="C133" s="38" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D133" s="38" t="s">
         <v>251</v>
       </c>
       <c r="E133" s="38"/>
       <c r="F133" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G133" s="38"/>
     </row>
@@ -10940,14 +10940,14 @@
         <v>252</v>
       </c>
       <c r="C134" s="39" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D134" s="39" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E134" s="39"/>
       <c r="F134" s="39" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G134" s="39"/>
     </row>
@@ -10966,7 +10966,7 @@
       </c>
       <c r="E135" s="38"/>
       <c r="F135" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G135" s="38"/>
     </row>
@@ -10975,7 +10975,7 @@
         <v>58</v>
       </c>
       <c r="B136" s="38" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C136" s="38" t="s">
         <v>256</v>
@@ -10985,7 +10985,7 @@
       </c>
       <c r="E136" s="38"/>
       <c r="F136" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G136" s="38"/>
     </row>
@@ -11009,10 +11009,10 @@
         <v>58</v>
       </c>
       <c r="B138" s="38" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C138" s="37" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D138" s="37"/>
       <c r="E138" s="37"/>
@@ -11036,10 +11036,10 @@
         <v>260</v>
       </c>
       <c r="F139" s="38" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G139" s="38" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -11059,7 +11059,7 @@
         <v>260</v>
       </c>
       <c r="F140" s="38" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G140" s="38"/>
     </row>
@@ -11080,7 +11080,7 @@
         <v>260</v>
       </c>
       <c r="F141" s="38" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G141" s="38"/>
     </row>
@@ -11101,7 +11101,7 @@
         <v>260</v>
       </c>
       <c r="F142" s="38" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G142" s="38"/>
     </row>
@@ -11113,7 +11113,7 @@
         <v>267</v>
       </c>
       <c r="C143" s="38" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D143" s="38" t="s">
         <v>269</v>
@@ -11122,7 +11122,7 @@
         <v>260</v>
       </c>
       <c r="F143" s="38" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G143" s="38"/>
     </row>
@@ -11134,7 +11134,7 @@
         <v>270</v>
       </c>
       <c r="C144" s="38" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D144" s="38" t="s">
         <v>266</v>
@@ -11143,7 +11143,7 @@
         <v>260</v>
       </c>
       <c r="F144" s="38" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G144" s="38"/>
     </row>
@@ -11155,14 +11155,14 @@
         <v>272</v>
       </c>
       <c r="C145" s="39" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D145" s="39" t="s">
         <v>1241</v>
-      </c>
-      <c r="D145" s="39" t="s">
-        <v>1242</v>
       </c>
       <c r="E145" s="39"/>
       <c r="F145" s="39" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G145" s="39"/>
     </row>
@@ -11171,19 +11171,19 @@
         <v>58</v>
       </c>
       <c r="B146" s="38" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C146" s="38" t="s">
         <v>271</v>
       </c>
       <c r="D146" s="38" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E146" s="38" t="s">
         <v>260</v>
       </c>
       <c r="F146" s="38" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G146" s="38"/>
     </row>
@@ -11192,7 +11192,7 @@
         <v>58</v>
       </c>
       <c r="B147" s="38" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C147" s="38" t="s">
         <v>273</v>
@@ -11204,7 +11204,7 @@
         <v>260</v>
       </c>
       <c r="F147" s="38" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G147" s="38"/>
     </row>
@@ -11213,19 +11213,19 @@
         <v>131</v>
       </c>
       <c r="B148" s="38" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C148" s="38" t="s">
         <v>133</v>
       </c>
       <c r="D148" s="38" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E148" s="38" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F148" s="38" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G148" s="38"/>
     </row>
@@ -11234,7 +11234,7 @@
         <v>131</v>
       </c>
       <c r="B149" s="38" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C149" s="38" t="s">
         <v>277</v>
@@ -11244,7 +11244,7 @@
       </c>
       <c r="E149" s="38"/>
       <c r="F149" s="38" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G149" s="38"/>
     </row>
@@ -11293,14 +11293,14 @@
         <v>14</v>
       </c>
       <c r="D152" s="38" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E152" s="38" t="s">
         <v>281</v>
       </c>
       <c r="F152" s="38"/>
       <c r="G152" s="38" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -11314,14 +11314,14 @@
         <v>15</v>
       </c>
       <c r="D153" s="38" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E153" s="38" t="s">
         <v>281</v>
       </c>
       <c r="F153" s="38"/>
       <c r="G153" s="38" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -11335,14 +11335,14 @@
         <v>283</v>
       </c>
       <c r="D154" s="38" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E154" s="38" t="s">
         <v>284</v>
       </c>
       <c r="F154" s="38"/>
       <c r="G154" s="38" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -11401,7 +11401,7 @@
         <v>58</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C158" s="36" t="s">
         <v>19</v>
@@ -11587,7 +11587,7 @@
         <v>303</v>
       </c>
       <c r="C169" s="38" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D169" s="40" t="s">
         <v>949</v>
@@ -11908,7 +11908,7 @@
         <v>330</v>
       </c>
       <c r="C188" s="38" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D188" s="40" t="s">
         <v>949</v>
@@ -12420,7 +12420,7 @@
       <c r="E218" s="38"/>
       <c r="F218" s="38"/>
       <c r="G218" s="38" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -12533,13 +12533,13 @@
         <v>382</v>
       </c>
       <c r="C225" s="40" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D225" s="40" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E225" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F225" s="38"/>
       <c r="G225" s="38"/>
@@ -12555,10 +12555,10 @@
         <v>385</v>
       </c>
       <c r="D226" s="40" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E226" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F226" s="38"/>
       <c r="G226" s="38"/>
@@ -12571,7 +12571,7 @@
         <v>386</v>
       </c>
       <c r="C227" s="38" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D227" s="38">
         <v>76.16</v>
@@ -12645,7 +12645,7 @@
       <c r="E231" s="38"/>
       <c r="F231" s="38"/>
       <c r="G231" s="38" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -12713,7 +12713,7 @@
         <v>979</v>
       </c>
       <c r="E235" s="40" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F235" s="40"/>
       <c r="G235" s="38"/>
@@ -13006,7 +13006,7 @@
         <v>58</v>
       </c>
       <c r="B253" s="35" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C253" s="36" t="s">
         <v>35</v>
@@ -13096,7 +13096,7 @@
         <v>441</v>
       </c>
       <c r="E258" s="59" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F258" s="38"/>
       <c r="G258" s="44"/>
@@ -13177,13 +13177,13 @@
         <v>454</v>
       </c>
       <c r="C263" s="44" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D263" s="38" t="s">
         <v>456</v>
       </c>
       <c r="E263" s="59" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F263" s="38"/>
       <c r="G263" s="44"/>
@@ -13193,13 +13193,13 @@
         <v>58</v>
       </c>
       <c r="B264" s="38" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C264" s="44" t="s">
         <v>1288</v>
       </c>
-      <c r="C264" s="44" t="s">
-        <v>1289</v>
-      </c>
       <c r="D264" s="38" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E264" s="38"/>
       <c r="F264" s="38"/>
@@ -13253,7 +13253,7 @@
         <v>465</v>
       </c>
       <c r="E267" s="59" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F267" s="38"/>
       <c r="G267" s="44"/>
@@ -13263,7 +13263,7 @@
         <v>58</v>
       </c>
       <c r="B268" s="38" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C268" s="44" t="s">
         <v>467</v>
@@ -13471,7 +13471,7 @@
         <v>490</v>
       </c>
       <c r="D280" s="38" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E280" s="38"/>
       <c r="F280" s="38"/>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="E286" s="38"/>
       <c r="F286" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G286" s="44"/>
     </row>
@@ -13777,7 +13777,7 @@
         <v>490</v>
       </c>
       <c r="D298" s="38" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E298" s="38"/>
       <c r="F298" s="38"/>
@@ -13883,7 +13883,7 @@
       </c>
       <c r="E304" s="38"/>
       <c r="F304" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G304" s="44"/>
     </row>
@@ -14209,7 +14209,7 @@
         <v>58</v>
       </c>
       <c r="B324" s="38" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C324" s="38" t="s">
         <v>483</v>
@@ -14226,7 +14226,7 @@
         <v>58</v>
       </c>
       <c r="B325" s="38" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C325" s="38" t="s">
         <v>485</v>
@@ -14266,7 +14266,7 @@
         <v>490</v>
       </c>
       <c r="D327" s="38" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E327" s="38"/>
       <c r="F327" s="38"/>
@@ -14345,7 +14345,7 @@
         <v>58</v>
       </c>
       <c r="B332" s="38" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C332" s="38" t="s">
         <v>501</v>
@@ -14362,7 +14362,7 @@
         <v>58</v>
       </c>
       <c r="B333" s="38" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C333" s="38" t="s">
         <v>504</v>
@@ -14372,7 +14372,7 @@
       </c>
       <c r="E333" s="38"/>
       <c r="F333" s="38" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="G333" s="38"/>
     </row>
@@ -14381,7 +14381,7 @@
         <v>58</v>
       </c>
       <c r="B334" s="35" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C334" s="49" t="s">
         <v>40</v>
@@ -14435,10 +14435,10 @@
         <v>78.3</v>
       </c>
       <c r="E337" s="38" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F337" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G337" s="44" t="s">
         <v>568</v>
@@ -14458,10 +14458,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E338" s="38" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F338" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G338" s="44"/>
     </row>
@@ -14473,14 +14473,14 @@
         <v>571</v>
       </c>
       <c r="C339" s="44" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D339" s="38">
         <v>78.099999999999994</v>
       </c>
       <c r="E339" s="38"/>
       <c r="F339" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G339" s="44"/>
     </row>
@@ -14514,7 +14514,7 @@
       </c>
       <c r="E341" s="38"/>
       <c r="F341" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G341" s="44" t="s">
         <v>576</v>
@@ -14535,7 +14535,7 @@
       </c>
       <c r="E342" s="38"/>
       <c r="F342" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G342" s="44"/>
     </row>
@@ -14554,7 +14554,7 @@
       </c>
       <c r="E343" s="38"/>
       <c r="F343" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G343" s="38"/>
     </row>
@@ -14573,7 +14573,7 @@
       </c>
       <c r="E344" s="38"/>
       <c r="F344" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G344" s="44"/>
     </row>
@@ -14607,10 +14607,10 @@
       </c>
       <c r="E346" s="38"/>
       <c r="F346" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G346" s="44" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="E347" s="38"/>
       <c r="F347" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G347" s="44"/>
     </row>
@@ -14640,14 +14640,14 @@
         <v>595</v>
       </c>
       <c r="C348" s="44" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D348" s="38" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E348" s="38"/>
       <c r="F348" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G348" s="44"/>
     </row>
@@ -14666,7 +14666,7 @@
       </c>
       <c r="E349" s="38"/>
       <c r="F349" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G349" s="44"/>
     </row>
@@ -14685,7 +14685,7 @@
       </c>
       <c r="E350" s="38"/>
       <c r="F350" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G350" s="44"/>
     </row>
@@ -14719,10 +14719,10 @@
       </c>
       <c r="E352" s="40"/>
       <c r="F352" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G352" s="44" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="30">
@@ -14740,7 +14740,7 @@
       </c>
       <c r="E353" s="40"/>
       <c r="F353" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G353" s="44"/>
     </row>
@@ -14755,11 +14755,11 @@
         <v>612</v>
       </c>
       <c r="D354" s="40" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E354" s="40"/>
       <c r="F354" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G354" s="38"/>
     </row>
@@ -14778,7 +14778,7 @@
       </c>
       <c r="E355" s="40"/>
       <c r="F355" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G355" s="44"/>
     </row>
@@ -14797,7 +14797,7 @@
       </c>
       <c r="E356" s="38"/>
       <c r="F356" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G356" s="44"/>
     </row>
@@ -14831,10 +14831,10 @@
       </c>
       <c r="E358" s="38"/>
       <c r="F358" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G358" s="38" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -14848,11 +14848,11 @@
         <v>624</v>
       </c>
       <c r="D359" s="40" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E359" s="40"/>
       <c r="F359" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G359" s="38"/>
     </row>
@@ -14886,10 +14886,10 @@
       </c>
       <c r="E361" s="38"/>
       <c r="F361" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G361" s="44" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -14903,11 +14903,11 @@
         <v>629</v>
       </c>
       <c r="D362" s="38" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E362" s="46"/>
       <c r="F362" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G362" s="44"/>
     </row>
@@ -14926,7 +14926,7 @@
       </c>
       <c r="E363" s="38"/>
       <c r="F363" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G363" s="44"/>
     </row>
@@ -14941,11 +14941,11 @@
         <v>633</v>
       </c>
       <c r="D364" s="38" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E364" s="38"/>
       <c r="F364" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G364" s="44"/>
     </row>
@@ -14960,13 +14960,13 @@
         <v>635</v>
       </c>
       <c r="D365" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E365" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F365" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G365" s="38"/>
     </row>
@@ -15014,10 +15014,10 @@
         <v>1033</v>
       </c>
       <c r="E368" s="40" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F368" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G368" s="44" t="s">
         <v>568</v>
@@ -15037,10 +15037,10 @@
         <v>1028</v>
       </c>
       <c r="E369" s="40" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="F369" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G369" s="44"/>
     </row>
@@ -15058,10 +15058,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E370" s="38" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F370" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G370" s="44"/>
     </row>
@@ -15110,7 +15110,7 @@
       </c>
       <c r="E373" s="38"/>
       <c r="F373" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G373" s="44" t="s">
         <v>647</v>
@@ -15131,7 +15131,7 @@
       </c>
       <c r="E374" s="38"/>
       <c r="F374" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G374" s="44"/>
     </row>
@@ -15150,7 +15150,7 @@
       </c>
       <c r="E375" s="38"/>
       <c r="F375" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G375" s="44"/>
     </row>
@@ -15169,7 +15169,7 @@
       </c>
       <c r="E376" s="40"/>
       <c r="F376" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G376" s="44"/>
     </row>
@@ -15188,7 +15188,7 @@
       </c>
       <c r="E377" s="38"/>
       <c r="F377" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G377" s="44"/>
     </row>
@@ -15207,7 +15207,7 @@
       </c>
       <c r="E378" s="38"/>
       <c r="F378" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G378" s="44"/>
     </row>
@@ -15241,10 +15241,10 @@
       </c>
       <c r="E380" s="38"/>
       <c r="F380" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G380" s="44" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -15258,13 +15258,13 @@
         <v>624</v>
       </c>
       <c r="D381" s="40" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E381" s="40" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F381" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G381" s="38"/>
     </row>
@@ -15298,10 +15298,10 @@
       </c>
       <c r="E383" s="38"/>
       <c r="F383" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G383" s="44" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -15315,11 +15315,11 @@
         <v>666</v>
       </c>
       <c r="D384" s="38" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E384" s="46"/>
       <c r="F384" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G384" s="44"/>
     </row>
@@ -15338,7 +15338,7 @@
       </c>
       <c r="E385" s="38"/>
       <c r="F385" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G385" s="44"/>
     </row>
@@ -15353,11 +15353,11 @@
         <v>633</v>
       </c>
       <c r="D386" s="38" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E386" s="38"/>
       <c r="F386" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G386" s="38"/>
     </row>
@@ -15372,13 +15372,13 @@
         <v>635</v>
       </c>
       <c r="D387" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E387" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F387" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G387" s="38"/>
     </row>
@@ -15426,10 +15426,10 @@
         <v>78.3</v>
       </c>
       <c r="E390" s="38" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F390" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G390" s="44" t="s">
         <v>568</v>
@@ -15449,10 +15449,10 @@
         <v>1028</v>
       </c>
       <c r="E391" s="40" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F391" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G391" s="38"/>
     </row>
@@ -15470,10 +15470,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E392" s="38" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F392" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G392" s="44"/>
     </row>
@@ -15518,11 +15518,11 @@
         <v>680</v>
       </c>
       <c r="D395" s="38" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E395" s="38"/>
       <c r="F395" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G395" s="44" t="s">
         <v>681</v>
@@ -15543,7 +15543,7 @@
       </c>
       <c r="E396" s="38"/>
       <c r="F396" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G396" s="44"/>
     </row>
@@ -15562,7 +15562,7 @@
       </c>
       <c r="E397" s="38"/>
       <c r="F397" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G397" s="44"/>
     </row>
@@ -15581,7 +15581,7 @@
       </c>
       <c r="E398" s="38"/>
       <c r="F398" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G398" s="44"/>
     </row>
@@ -15600,7 +15600,7 @@
       </c>
       <c r="E399" s="38"/>
       <c r="F399" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G399" s="44"/>
     </row>
@@ -15619,7 +15619,7 @@
       </c>
       <c r="E400" s="38"/>
       <c r="F400" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G400" s="44"/>
     </row>
@@ -15653,10 +15653,10 @@
       </c>
       <c r="E402" s="38"/>
       <c r="F402" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G402" s="44" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -15670,13 +15670,13 @@
         <v>624</v>
       </c>
       <c r="D403" s="40" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E403" s="40" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F403" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G403" s="38"/>
     </row>
@@ -15710,10 +15710,10 @@
       </c>
       <c r="E405" s="38"/>
       <c r="F405" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G405" s="44" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -15727,11 +15727,11 @@
         <v>666</v>
       </c>
       <c r="D406" s="38" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E406" s="46"/>
       <c r="F406" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G406" s="44"/>
     </row>
@@ -15750,7 +15750,7 @@
       </c>
       <c r="E407" s="38"/>
       <c r="F407" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G407" s="44"/>
     </row>
@@ -15765,11 +15765,11 @@
         <v>633</v>
       </c>
       <c r="D408" s="38" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E408" s="38"/>
       <c r="F408" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G408" s="38"/>
     </row>
@@ -15784,13 +15784,13 @@
         <v>635</v>
       </c>
       <c r="D409" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E409" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F409" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G409" s="38"/>
     </row>
@@ -15838,10 +15838,10 @@
         <v>78.3</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="F412" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G412" s="44" t="s">
         <v>568</v>
@@ -15861,10 +15861,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E413" s="38" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F413" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G413" s="44"/>
     </row>
@@ -15882,10 +15882,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E414" s="38" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F414" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G414" s="44"/>
     </row>
@@ -15934,7 +15934,7 @@
       </c>
       <c r="E417" s="38"/>
       <c r="F417" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G417" s="38" t="s">
         <v>709</v>
@@ -15955,7 +15955,7 @@
       </c>
       <c r="E418" s="38"/>
       <c r="F418" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G418" s="44"/>
     </row>
@@ -15974,7 +15974,7 @@
       </c>
       <c r="E419" s="38"/>
       <c r="F419" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G419" s="44"/>
     </row>
@@ -15993,7 +15993,7 @@
       </c>
       <c r="E420" s="38"/>
       <c r="F420" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G420" s="38"/>
     </row>
@@ -16020,14 +16020,14 @@
         <v>718</v>
       </c>
       <c r="C422" s="62" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D422" s="38" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E422" s="38"/>
       <c r="F422" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G422" s="38" t="s">
         <v>720</v>
@@ -16041,14 +16041,14 @@
         <v>722</v>
       </c>
       <c r="C423" s="62" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D423" s="40" t="s">
         <v>721</v>
       </c>
       <c r="E423" s="40"/>
       <c r="F423" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G423" s="38"/>
     </row>
@@ -16067,7 +16067,7 @@
       </c>
       <c r="E424" s="40"/>
       <c r="F424" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G424" s="38"/>
     </row>
@@ -16101,7 +16101,7 @@
       </c>
       <c r="E426" s="40"/>
       <c r="F426" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G426" s="44" t="s">
         <v>729</v>
@@ -16122,7 +16122,7 @@
       </c>
       <c r="E427" s="40"/>
       <c r="F427" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G427" s="44"/>
     </row>
@@ -16141,7 +16141,7 @@
       </c>
       <c r="E428" s="40"/>
       <c r="F428" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G428" s="44"/>
     </row>
@@ -16160,7 +16160,7 @@
       </c>
       <c r="E429" s="40"/>
       <c r="F429" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G429" s="38"/>
     </row>
@@ -16179,7 +16179,7 @@
       </c>
       <c r="E430" s="40"/>
       <c r="F430" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G430" s="44"/>
     </row>
@@ -16198,7 +16198,7 @@
       </c>
       <c r="E431" s="40"/>
       <c r="F431" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G431" s="44"/>
     </row>
@@ -16215,7 +16215,7 @@
       <c r="D432" s="41"/>
       <c r="E432" s="41"/>
       <c r="F432" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G432" s="41"/>
     </row>
@@ -16234,7 +16234,7 @@
       </c>
       <c r="E433" s="40"/>
       <c r="F433" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G433" s="44" t="s">
         <v>738</v>
@@ -16255,7 +16255,7 @@
       </c>
       <c r="E434" s="40"/>
       <c r="F434" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G434" s="44"/>
     </row>
@@ -16274,7 +16274,7 @@
       </c>
       <c r="E435" s="40"/>
       <c r="F435" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G435" s="44" t="s">
         <v>606</v>
@@ -16295,7 +16295,7 @@
       </c>
       <c r="E436" s="40"/>
       <c r="F436" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G436" s="44"/>
     </row>
@@ -16312,7 +16312,7 @@
       <c r="D437" s="41"/>
       <c r="E437" s="41"/>
       <c r="F437" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G437" s="41"/>
     </row>
@@ -16331,10 +16331,10 @@
       </c>
       <c r="E438" s="40"/>
       <c r="F438" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G438" s="44" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -16348,13 +16348,13 @@
         <v>624</v>
       </c>
       <c r="D439" s="40" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E439" s="40" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F439" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G439" s="38"/>
     </row>
@@ -16366,12 +16366,12 @@
         <v>746</v>
       </c>
       <c r="C440" s="41" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D440" s="41"/>
       <c r="E440" s="41"/>
       <c r="F440" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G440" s="41"/>
     </row>
@@ -16386,13 +16386,13 @@
         <v>635</v>
       </c>
       <c r="D441" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E441" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F441" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G441" s="38"/>
     </row>
@@ -16409,7 +16409,7 @@
       <c r="D442" s="41"/>
       <c r="E442" s="41"/>
       <c r="F442" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G442" s="37"/>
     </row>
@@ -16428,7 +16428,7 @@
         <v>279</v>
       </c>
       <c r="F443" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G443" s="44"/>
     </row>
@@ -16447,7 +16447,7 @@
         <v>279</v>
       </c>
       <c r="F444" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G444" s="44"/>
     </row>
@@ -16466,7 +16466,7 @@
         <v>279</v>
       </c>
       <c r="F445" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G445" s="44"/>
     </row>
@@ -16483,7 +16483,7 @@
       <c r="D446" s="41"/>
       <c r="E446" s="37"/>
       <c r="F446" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G446" s="37"/>
     </row>
@@ -16502,7 +16502,7 @@
         <v>279</v>
       </c>
       <c r="F447" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G447" s="44"/>
     </row>
@@ -16521,7 +16521,7 @@
         <v>279</v>
       </c>
       <c r="F448" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G448" s="44"/>
     </row>
@@ -16538,7 +16538,7 @@
       <c r="D449" s="41"/>
       <c r="E449" s="41"/>
       <c r="F449" s="38" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="G449" s="37"/>
     </row>
@@ -16555,7 +16555,7 @@
       <c r="D450" s="41"/>
       <c r="E450" s="41"/>
       <c r="F450" s="38" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="G450" s="41"/>
     </row>
@@ -16574,7 +16574,7 @@
       </c>
       <c r="E451" s="38"/>
       <c r="F451" s="38" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="G451" s="44" t="s">
         <v>568</v>
@@ -16595,7 +16595,7 @@
       </c>
       <c r="E452" s="38"/>
       <c r="F452" s="38" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="G452" s="44"/>
     </row>
@@ -16614,7 +16614,7 @@
       </c>
       <c r="E453" s="38"/>
       <c r="F453" s="38" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="G453" s="44"/>
     </row>
@@ -16631,7 +16631,7 @@
       <c r="D454" s="41"/>
       <c r="E454" s="41"/>
       <c r="F454" s="38" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="G454" s="41"/>
     </row>
@@ -16648,7 +16648,7 @@
       <c r="D455" s="41"/>
       <c r="E455" s="41"/>
       <c r="F455" s="38" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="G455" s="41"/>
     </row>
@@ -16667,10 +16667,10 @@
       </c>
       <c r="E456" s="38"/>
       <c r="F456" s="38" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="G456" s="44" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -16688,7 +16688,7 @@
       </c>
       <c r="E457" s="38"/>
       <c r="F457" s="38" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="G457" s="44"/>
     </row>
@@ -16703,15 +16703,15 @@
         <v>767</v>
       </c>
       <c r="D458" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E458" s="38"/>
       <c r="F458" s="38" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="G458" s="38"/>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" ht="30">
       <c r="A459" s="38" t="s">
         <v>58</v>
       </c>
@@ -16726,7 +16726,7 @@
       </c>
       <c r="E459" s="38"/>
       <c r="F459" s="38" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="G459" s="38"/>
     </row>
@@ -16738,12 +16738,12 @@
         <v>770</v>
       </c>
       <c r="C460" s="38" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D460" s="38"/>
       <c r="E460" s="38"/>
       <c r="F460" s="38" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="G460" s="38"/>
     </row>
@@ -16752,7 +16752,7 @@
         <v>58</v>
       </c>
       <c r="B461" s="38" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C461" s="38" t="s">
         <v>771</v>
@@ -16762,7 +16762,7 @@
       </c>
       <c r="E461" s="38"/>
       <c r="F461" s="38" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="G461" s="38"/>
     </row>
@@ -16771,17 +16771,17 @@
         <v>58</v>
       </c>
       <c r="B462" s="38" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C462" s="38" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D462" s="38" t="s">
         <v>724</v>
       </c>
       <c r="E462" s="38"/>
       <c r="F462" s="38" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="G462" s="38"/>
     </row>
@@ -16798,7 +16798,7 @@
       <c r="D463" s="41"/>
       <c r="E463" s="41"/>
       <c r="F463" s="38" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="G463" s="41"/>
     </row>
@@ -16817,10 +16817,10 @@
       </c>
       <c r="E464" s="38"/>
       <c r="F464" s="38" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="G464" s="44" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -16834,11 +16834,11 @@
         <v>624</v>
       </c>
       <c r="D465" s="40" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E465" s="40"/>
       <c r="F465" s="38" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="G465" s="38"/>
     </row>
@@ -16855,7 +16855,7 @@
       <c r="D466" s="41"/>
       <c r="E466" s="41"/>
       <c r="F466" s="38" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="G466" s="41"/>
     </row>
@@ -16874,10 +16874,10 @@
       </c>
       <c r="E467" s="38"/>
       <c r="F467" s="38" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="G467" s="44" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -16895,7 +16895,7 @@
       </c>
       <c r="E468" s="38"/>
       <c r="F468" s="38" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="G468" s="44"/>
     </row>
@@ -16914,7 +16914,7 @@
       </c>
       <c r="E469" s="38"/>
       <c r="F469" s="38" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="G469" s="44"/>
     </row>
@@ -16929,11 +16929,11 @@
         <v>633</v>
       </c>
       <c r="D470" s="38" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E470" s="38"/>
       <c r="F470" s="38" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="G470" s="38"/>
     </row>
@@ -16948,15 +16948,16 @@
         <v>635</v>
       </c>
       <c r="D471" s="38" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E471" s="38"/>
       <c r="F471" s="38" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="G471" s="38"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G471" xr:uid="{D331C0AB-26E8-4A68-9DCE-42FE6AA1F39D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -17008,7 +17009,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>789</v>
@@ -17027,7 +17028,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>791</v>
@@ -17046,7 +17047,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>792</v>
@@ -17065,7 +17066,7 @@
         <v>71</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>793</v>
@@ -17084,7 +17085,7 @@
         <v>796</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>797</v>
@@ -18469,7 +18470,7 @@
         <v>124</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>790</v>
@@ -18882,7 +18883,7 @@
         <v>278</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>854</v>
@@ -18901,13 +18902,13 @@
         <v>269</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>855</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
@@ -18920,13 +18921,13 @@
         <v>266</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>856</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -18939,7 +18940,7 @@
         <v>274</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>857</v>
@@ -18955,16 +18956,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="32" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B43" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C43" s="32" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D43" s="32" t="s">
         <v>1176</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>1177</v>
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="32" t="s">
@@ -18974,16 +18975,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="32" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B44" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="32" t="s">
@@ -18993,16 +18994,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="32" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B45" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="32" t="s">
@@ -19012,16 +19013,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="32" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B46" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="32" t="s">
@@ -19031,16 +19032,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="32" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B47" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="32" t="s">
@@ -19050,16 +19051,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="32" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B48" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="32" t="s">
@@ -19069,16 +19070,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="32" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B49" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="32" t="s">
@@ -19088,16 +19089,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="32" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B50" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="32" t="s">
@@ -19107,16 +19108,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="32" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B51" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="32" t="s">
@@ -19126,16 +19127,16 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="32" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B52" s="32" t="s">
         <v>839</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="32" t="s">
@@ -19145,16 +19146,16 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="32" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B53" s="32" t="s">
         <v>839</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="32" t="s">
@@ -19164,16 +19165,16 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="32" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>847</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E54" s="32"/>
       <c r="F54" s="32" t="s">
@@ -19183,16 +19184,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="32" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E55" s="32"/>
       <c r="F55" s="32" t="s">
@@ -19770,16 +19771,16 @@
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1">
       <c r="A16" s="31" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>860</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30" t="s">
@@ -19789,16 +19790,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
       <c r="A17" s="31" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>860</v>
       </c>
       <c r="C17" s="31" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D17" s="31" t="s">
         <v>1097</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>1098</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30" t="s">
@@ -19817,7 +19818,7 @@
         <v>894</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30" t="s">
@@ -20310,7 +20311,7 @@
         <v>965</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F44" s="30"/>
       <c r="G44" s="30"/>
@@ -20396,7 +20397,7 @@
         <v>980</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E49" s="30"/>
       <c r="F49" s="30"/>
@@ -20960,7 +20961,7 @@
         <v>435</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>981</v>
@@ -20979,7 +20980,7 @@
         <v>438</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>983</v>
@@ -20998,7 +20999,7 @@
         <v>441</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>985</v>
@@ -21017,7 +21018,7 @@
         <v>456</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>987</v>
@@ -21036,7 +21037,7 @@
         <v>444</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>989</v>
@@ -21055,7 +21056,7 @@
         <v>447</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>991</v>
@@ -21074,7 +21075,7 @@
         <v>450</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>993</v>
@@ -21093,7 +21094,7 @@
         <v>453</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>995</v>
@@ -21112,7 +21113,7 @@
         <v>459</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>997</v>
@@ -21131,7 +21132,7 @@
         <v>999</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>1000</v>
@@ -21150,7 +21151,7 @@
         <v>462</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>1002</v>
@@ -21169,7 +21170,7 @@
         <v>465</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>1004</v>
@@ -21190,7 +21191,7 @@
         <v>468</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>1007</v>
@@ -21209,7 +21210,7 @@
         <v>502</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>1009</v>
@@ -21232,7 +21233,7 @@
         <v>493</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>1013</v>
@@ -21251,7 +21252,7 @@
         <v>505</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>1015</v>
@@ -21274,7 +21275,7 @@
         <v>533</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>1019</v>
@@ -21293,7 +21294,7 @@
         <v>536</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>1020</v>
@@ -21312,7 +21313,7 @@
         <v>539</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>1021</v>
@@ -21331,7 +21332,7 @@
         <v>542</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>1023</v>
@@ -21350,7 +21351,7 @@
         <v>547</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>1025</v>
@@ -21369,7 +21370,7 @@
         <v>488</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>1027</v>
@@ -21383,16 +21384,16 @@
     </row>
     <row r="24" spans="1:7" ht="31.2">
       <c r="A24" s="32" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B24" s="32" t="s">
         <v>1155</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="C24" s="32" t="s">
         <v>1156</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="D24" s="32" t="s">
         <v>1157</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>1158</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
@@ -21400,16 +21401,16 @@
     </row>
     <row r="25" spans="1:7" ht="46.8">
       <c r="A25" s="32" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C25" s="32" t="s">
         <v>1159</v>
       </c>
-      <c r="B25" s="32" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>1160</v>
-      </c>
       <c r="D25" s="32" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -21417,16 +21418,16 @@
     </row>
     <row r="26" spans="1:7" ht="31.2">
       <c r="A26" s="32" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C26" s="32" t="s">
         <v>1161</v>
       </c>
-      <c r="B26" s="32" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C26" s="32" t="s">
+      <c r="D26" s="32" t="s">
         <v>1162</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>1163</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
@@ -21434,16 +21435,16 @@
     </row>
     <row r="27" spans="1:7" ht="46.8">
       <c r="A27" s="32" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>1164</v>
       </c>
-      <c r="B27" s="32" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C27" s="32" t="s">
+      <c r="D27" s="32" t="s">
         <v>1165</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>1166</v>
       </c>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
@@ -21451,16 +21452,16 @@
     </row>
     <row r="28" spans="1:7" ht="46.8">
       <c r="A28" s="32" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C28" s="32" t="s">
         <v>1167</v>
       </c>
-      <c r="B28" s="32" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C28" s="32" t="s">
+      <c r="D28" s="32" t="s">
         <v>1168</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>1169</v>
       </c>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
@@ -21468,16 +21469,16 @@
     </row>
     <row r="29" spans="1:7" ht="46.8">
       <c r="A29" s="32" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C29" s="32" t="s">
         <v>1170</v>
       </c>
-      <c r="B29" s="32" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C29" s="32" t="s">
+      <c r="D29" s="32" t="s">
         <v>1171</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>1172</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
@@ -21485,16 +21486,16 @@
     </row>
     <row r="30" spans="1:7" ht="46.8">
       <c r="A30" s="32" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C30" s="32" t="s">
         <v>1173</v>
       </c>
-      <c r="B30" s="32" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C30" s="32" t="s">
+      <c r="D30" s="32" t="s">
         <v>1174</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>1175</v>
       </c>
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
@@ -21563,7 +21564,7 @@
         <v>1030</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E2" s="64"/>
       <c r="F2" s="28" t="s">
@@ -21831,7 +21832,7 @@
         <v>1032</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E3" s="65"/>
       <c r="F3" s="3" t="s">
@@ -21850,7 +21851,7 @@
         <v>1034</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E4" s="64"/>
       <c r="F4" s="3" t="s">
@@ -21872,7 +21873,9 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
@@ -22271,13 +22274,13 @@
         <v>1049</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>1050</v>
+        <v>1302</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="31.5" customHeight="1">
@@ -22288,10 +22291,10 @@
         <v>1036</v>
       </c>
       <c r="C8" s="30" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>1051</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>1052</v>
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="30" t="s">
@@ -22307,10 +22310,10 @@
         <v>1036</v>
       </c>
       <c r="C9" s="30" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>1053</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>1054</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30" t="s">
@@ -22326,10 +22329,10 @@
         <v>1036</v>
       </c>
       <c r="C10" s="30" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>1055</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>1056</v>
       </c>
       <c r="E10" s="30"/>
       <c r="F10" s="30" t="s">
@@ -22345,10 +22348,10 @@
         <v>1036</v>
       </c>
       <c r="C11" s="30" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D11" s="30" t="s">
         <v>1057</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>1058</v>
       </c>
       <c r="E11" s="30"/>
       <c r="F11" s="30" t="s">
@@ -22364,7 +22367,7 @@
         <v>1036</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>602</v>
@@ -22383,10 +22386,10 @@
         <v>1036</v>
       </c>
       <c r="C13" s="30" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D13" s="30" t="s">
         <v>1060</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>1061</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>1017</v>
@@ -22395,7 +22398,7 @@
         <v>790</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.5" customHeight="1">
@@ -22406,17 +22409,17 @@
         <v>1036</v>
       </c>
       <c r="C14" s="30" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>1063</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>1064</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="31.5" customHeight="1">
@@ -22427,10 +22430,10 @@
         <v>1036</v>
       </c>
       <c r="C15" s="30" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>1066</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>1067</v>
       </c>
       <c r="E15" s="30"/>
       <c r="F15" s="30" t="s">
@@ -22446,10 +22449,10 @@
         <v>1036</v>
       </c>
       <c r="C16" s="30" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>1068</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>1069</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30" t="s">
@@ -22459,16 +22462,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
       <c r="A17" s="30" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>1036</v>
       </c>
       <c r="C17" s="30" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>1071</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>1072</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30" t="s">
@@ -22484,10 +22487,10 @@
         <v>1036</v>
       </c>
       <c r="C18" s="30" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>1073</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>1074</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30" t="s">
@@ -22497,25 +22500,25 @@
     </row>
     <row r="19" spans="1:7" ht="31.5" customHeight="1">
       <c r="A19" s="30" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>1036</v>
       </c>
       <c r="C19" s="30" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D19" s="30" t="s">
         <v>1076</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="E19" s="30" t="s">
         <v>1077</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>1078</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
@@ -22526,10 +22529,10 @@
         <v>1036</v>
       </c>
       <c r="C20" s="30" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D20" s="30" t="s">
         <v>1079</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>1080</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="30" t="s">
@@ -22545,53 +22548,53 @@
         <v>1036</v>
       </c>
       <c r="C21" s="30" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D21" s="30" t="s">
         <v>1081</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="E21" s="30" t="s">
         <v>1082</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>1083</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="31.5" customHeight="1">
       <c r="A22" s="30" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>1036</v>
       </c>
       <c r="C22" s="30" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>1086</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="E22" s="30" t="s">
         <v>1087</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>1088</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>809</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="31.2">
       <c r="A23" s="30" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B23" s="30" t="s">
         <v>1036</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>629</v>
@@ -22602,13 +22605,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="30" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B24" s="30" t="s">
         <v>1036</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>633</v>
@@ -22619,32 +22622,32 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="30" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B25" s="30" t="s">
         <v>1036</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>624</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7" ht="31.2">
       <c r="A26" s="30" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>1036</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>635</v>
@@ -22655,13 +22658,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="58" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>1036</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>767</v>
@@ -22973,40 +22976,40 @@
     </row>
     <row r="2" spans="1:256">
       <c r="A2" s="7" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
         <v>790</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="3" spans="1:256">
       <c r="A3" s="7" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>1136</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1137</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>809</v>
@@ -23015,19 +23018,19 @@
     </row>
     <row r="4" spans="1:256">
       <c r="A4" s="6" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>1141</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>1142</v>
-      </c>
       <c r="C4" s="6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>1139</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1140</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>809</v>

--- a/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geoff\gsa-devel\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1455D6BD-30A3-4F34-8403-A0B484D0BB20}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF8F7BA-6B4C-4BDE-947E-668BAC046960}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="1303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="1304">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3942,6 +3942,9 @@
   </si>
   <si>
     <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID;2.16.840.1.101.3.2.1.48.11,X509_CERTIFICATE_FOR_DIGITAL_SIGNATURE_OID;2.16.840.1.101.3.2.1.48.9:2.16.840.1.101.3.2.1.48.12,X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID;2.16.840.1.101.3.2.1.48.9:2.16.840.1.101.3.2.1.48.12,X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID;2.16.840.1.101.3.2.1.48.13,CARD_HOLDER_UNIQUE_IDENTIFIER_OID;2.16.840.1.101.3.2.1.48.86</t>
+  </si>
+  <si>
+    <t>Confirm that version of signed data structure is 3</t>
   </si>
 </sst>
 </file>
@@ -8448,7 +8451,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A445" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A445" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="F449" sqref="F449:F471"/>
     </sheetView>
   </sheetViews>
@@ -20666,8 +20669,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -21281,7 +21284,7 @@
         <v>1019</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>532</v>
+        <v>1303</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">

--- a/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geoff\gsa-devel\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF8F7BA-6B4C-4BDE-947E-668BAC046960}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CBA72E-FD6E-4640-977C-85DF09533163}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="1304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="1303">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3277,9 +3277,6 @@
   </si>
   <si>
     <t>Confirm id-PIV-cardAuth exists in extendedKeyUsage extension and does not assert any other OIDs</t>
-  </si>
-  <si>
-    <t>2.16.840.1.101.3.6.8</t>
   </si>
   <si>
     <t>Card Auth id-PIV-cardAuth EKU keyPurposeID OID</t>
@@ -8486,7 +8483,7 @@
         <v>56</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G1" s="33" t="s">
         <v>55</v>
@@ -8498,7 +8495,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>0</v>
@@ -8528,10 +8525,10 @@
         <v>58</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>1253</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>1254</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
@@ -8553,7 +8550,7 @@
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G5" s="38" t="s">
         <v>61</v>
@@ -8574,7 +8571,7 @@
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G6" s="38"/>
     </row>
@@ -8593,7 +8590,7 @@
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G7" s="38"/>
     </row>
@@ -8612,7 +8609,7 @@
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G8" s="38"/>
     </row>
@@ -8631,7 +8628,7 @@
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G9" s="38"/>
     </row>
@@ -8650,7 +8647,7 @@
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G10" s="38"/>
     </row>
@@ -8669,7 +8666,7 @@
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G11" s="38"/>
     </row>
@@ -8688,7 +8685,7 @@
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G12" s="38"/>
     </row>
@@ -8707,7 +8704,7 @@
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G13" s="38"/>
     </row>
@@ -8726,7 +8723,7 @@
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G14" s="38"/>
     </row>
@@ -8745,7 +8742,7 @@
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="38" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G15" s="38"/>
     </row>
@@ -8769,10 +8766,10 @@
         <v>58</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
@@ -8794,7 +8791,7 @@
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>95</v>
@@ -8815,7 +8812,7 @@
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G19" s="38"/>
     </row>
@@ -8834,7 +8831,7 @@
       </c>
       <c r="E20" s="38"/>
       <c r="F20" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G20" s="38"/>
     </row>
@@ -8853,7 +8850,7 @@
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G21" s="38"/>
     </row>
@@ -8872,7 +8869,7 @@
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G22" s="38"/>
     </row>
@@ -8884,14 +8881,14 @@
         <v>102</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>104</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G23" s="38"/>
     </row>
@@ -8903,14 +8900,14 @@
         <v>105</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G24" s="39"/>
     </row>
@@ -8929,7 +8926,7 @@
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G25" s="38"/>
     </row>
@@ -8941,14 +8938,14 @@
         <v>111</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D26" s="38" t="s">
         <v>110</v>
       </c>
       <c r="E26" s="38"/>
       <c r="F26" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G26" s="38"/>
     </row>
@@ -8960,14 +8957,14 @@
         <v>114</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="39" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G27" s="39"/>
     </row>
@@ -8979,14 +8976,14 @@
         <v>117</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G28" s="39"/>
     </row>
@@ -8995,34 +8992,34 @@
         <v>58</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E29" s="39"/>
       <c r="F29" s="39" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G29" s="39"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="39"/>
       <c r="B30" s="39" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="39" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G30" s="39"/>
     </row>
@@ -9031,17 +9028,17 @@
         <v>58</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>113</v>
       </c>
       <c r="E31" s="38"/>
       <c r="F31" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G31" s="38"/>
     </row>
@@ -9050,7 +9047,7 @@
         <v>58</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C32" s="38" t="s">
         <v>115</v>
@@ -9060,7 +9057,7 @@
       </c>
       <c r="E32" s="38"/>
       <c r="F32" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G32" s="38"/>
     </row>
@@ -9069,17 +9066,17 @@
         <v>58</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="39" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G33" s="39"/>
     </row>
@@ -9088,17 +9085,17 @@
         <v>58</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="39" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G34" s="39"/>
     </row>
@@ -9107,17 +9104,17 @@
         <v>58</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E35" s="39"/>
       <c r="F35" s="39" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G35" s="39"/>
     </row>
@@ -9126,17 +9123,17 @@
         <v>58</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E36" s="39"/>
       <c r="F36" s="39" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G36" s="39"/>
     </row>
@@ -9145,7 +9142,7 @@
         <v>58</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C37" s="38" t="s">
         <v>118</v>
@@ -9155,7 +9152,7 @@
       </c>
       <c r="E37" s="38"/>
       <c r="F37" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G37" s="38"/>
     </row>
@@ -9174,7 +9171,7 @@
       </c>
       <c r="E38" s="38"/>
       <c r="F38" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G38" s="38"/>
     </row>
@@ -9193,7 +9190,7 @@
       </c>
       <c r="E39" s="38"/>
       <c r="F39" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G39" s="38"/>
     </row>
@@ -9212,7 +9209,7 @@
       </c>
       <c r="E40" s="38"/>
       <c r="F40" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G40" s="38"/>
     </row>
@@ -9231,7 +9228,7 @@
       </c>
       <c r="E41" s="38"/>
       <c r="F41" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G41" s="38"/>
     </row>
@@ -9240,7 +9237,7 @@
         <v>131</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>133</v>
@@ -9250,7 +9247,7 @@
       </c>
       <c r="E42" s="38"/>
       <c r="F42" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G42" s="38"/>
     </row>
@@ -9274,10 +9271,10 @@
         <v>58</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
@@ -9299,7 +9296,7 @@
       </c>
       <c r="E45" s="38"/>
       <c r="F45" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>136</v>
@@ -9320,7 +9317,7 @@
       </c>
       <c r="E46" s="38"/>
       <c r="F46" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G46" s="38"/>
     </row>
@@ -9339,7 +9336,7 @@
       </c>
       <c r="E47" s="38"/>
       <c r="F47" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G47" s="38"/>
     </row>
@@ -9358,7 +9355,7 @@
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G48" s="38"/>
     </row>
@@ -9377,7 +9374,7 @@
       </c>
       <c r="E49" s="38"/>
       <c r="F49" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G49" s="38"/>
     </row>
@@ -9396,7 +9393,7 @@
       </c>
       <c r="E50" s="38"/>
       <c r="F50" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G50" s="38"/>
     </row>
@@ -9415,7 +9412,7 @@
       </c>
       <c r="E51" s="38"/>
       <c r="F51" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G51" s="38"/>
     </row>
@@ -9434,7 +9431,7 @@
       </c>
       <c r="E52" s="38"/>
       <c r="F52" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G52" s="38"/>
     </row>
@@ -9453,7 +9450,7 @@
       </c>
       <c r="E53" s="38"/>
       <c r="F53" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G53" s="38"/>
     </row>
@@ -9462,7 +9459,7 @@
         <v>131</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C54" s="38" t="s">
         <v>133</v>
@@ -9472,7 +9469,7 @@
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G54" s="38"/>
     </row>
@@ -9496,10 +9493,10 @@
         <v>58</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D56" s="37"/>
       <c r="E56" s="37"/>
@@ -9521,7 +9518,7 @@
       </c>
       <c r="E57" s="38"/>
       <c r="F57" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>158</v>
@@ -9542,7 +9539,7 @@
       </c>
       <c r="E58" s="38"/>
       <c r="F58" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G58" s="38"/>
     </row>
@@ -9561,7 +9558,7 @@
       </c>
       <c r="E59" s="38"/>
       <c r="F59" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G59" s="38"/>
     </row>
@@ -9580,7 +9577,7 @@
       </c>
       <c r="E60" s="38"/>
       <c r="F60" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G60" s="38"/>
     </row>
@@ -9599,7 +9596,7 @@
       </c>
       <c r="E61" s="38"/>
       <c r="F61" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G61" s="38"/>
     </row>
@@ -9618,7 +9615,7 @@
       </c>
       <c r="E62" s="38"/>
       <c r="F62" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G62" s="38"/>
     </row>
@@ -9637,7 +9634,7 @@
       </c>
       <c r="E63" s="38"/>
       <c r="F63" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G63" s="38"/>
     </row>
@@ -9656,7 +9653,7 @@
       </c>
       <c r="E64" s="38"/>
       <c r="F64" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G64" s="38"/>
     </row>
@@ -9675,7 +9672,7 @@
       </c>
       <c r="E65" s="38"/>
       <c r="F65" s="38" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G65" s="38"/>
     </row>
@@ -9699,10 +9696,10 @@
         <v>58</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D67" s="37"/>
       <c r="E67" s="37"/>
@@ -9724,7 +9721,7 @@
       </c>
       <c r="E68" s="38"/>
       <c r="F68" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G68" s="38" t="s">
         <v>169</v>
@@ -9745,7 +9742,7 @@
       </c>
       <c r="E69" s="38"/>
       <c r="F69" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G69" s="38"/>
     </row>
@@ -9764,7 +9761,7 @@
       </c>
       <c r="E70" s="38"/>
       <c r="F70" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G70" s="38"/>
     </row>
@@ -9783,7 +9780,7 @@
       </c>
       <c r="E71" s="38"/>
       <c r="F71" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G71" s="38"/>
     </row>
@@ -9802,7 +9799,7 @@
       </c>
       <c r="E72" s="40"/>
       <c r="F72" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G72" s="38"/>
     </row>
@@ -9821,7 +9818,7 @@
       </c>
       <c r="E73" s="38"/>
       <c r="F73" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G73" s="38"/>
     </row>
@@ -9833,14 +9830,14 @@
         <v>179</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D74" s="39" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E74" s="39"/>
       <c r="F74" s="39" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G74" s="39"/>
     </row>
@@ -9852,14 +9849,14 @@
         <v>182</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D75" s="39" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E75" s="39"/>
       <c r="F75" s="39" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G75" s="39"/>
     </row>
@@ -9878,7 +9875,7 @@
       </c>
       <c r="E76" s="38"/>
       <c r="F76" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G76" s="38"/>
     </row>
@@ -9887,7 +9884,7 @@
         <v>58</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C77" s="38" t="s">
         <v>183</v>
@@ -9897,7 +9894,7 @@
       </c>
       <c r="E77" s="38"/>
       <c r="F77" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G77" s="38"/>
     </row>
@@ -9906,7 +9903,7 @@
         <v>58</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C78" s="38" t="s">
         <v>186</v>
@@ -9916,7 +9913,7 @@
       </c>
       <c r="E78" s="38"/>
       <c r="F78" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G78" s="38"/>
     </row>
@@ -9925,7 +9922,7 @@
         <v>131</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C79" s="38" t="s">
         <v>133</v>
@@ -9935,7 +9932,7 @@
       </c>
       <c r="E79" s="38"/>
       <c r="F79" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G79" s="38"/>
     </row>
@@ -9944,7 +9941,7 @@
         <v>58</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C80" s="37" t="s">
         <v>6</v>
@@ -9959,10 +9956,10 @@
         <v>58</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D81" s="37"/>
       <c r="E81" s="37"/>
@@ -9984,7 +9981,7 @@
       </c>
       <c r="E82" s="38"/>
       <c r="F82" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G82" s="38" t="s">
         <v>191</v>
@@ -10005,7 +10002,7 @@
       </c>
       <c r="E83" s="38"/>
       <c r="F83" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G83" s="38"/>
     </row>
@@ -10024,7 +10021,7 @@
       </c>
       <c r="E84" s="38"/>
       <c r="F84" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G84" s="38"/>
     </row>
@@ -10043,7 +10040,7 @@
       </c>
       <c r="E85" s="38"/>
       <c r="F85" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G85" s="38"/>
     </row>
@@ -10062,7 +10059,7 @@
       </c>
       <c r="E86" s="38"/>
       <c r="F86" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G86" s="38"/>
     </row>
@@ -10081,7 +10078,7 @@
       </c>
       <c r="E87" s="38"/>
       <c r="F87" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G87" s="38"/>
     </row>
@@ -10100,7 +10097,7 @@
       </c>
       <c r="E88" s="38"/>
       <c r="F88" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G88" s="38"/>
     </row>
@@ -10109,7 +10106,7 @@
         <v>131</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C89" s="38" t="s">
         <v>133</v>
@@ -10119,7 +10116,7 @@
       </c>
       <c r="E89" s="38"/>
       <c r="F89" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G89" s="38"/>
     </row>
@@ -10143,10 +10140,10 @@
         <v>58</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D91" s="37"/>
       <c r="E91" s="37"/>
@@ -10168,7 +10165,7 @@
       </c>
       <c r="E92" s="38"/>
       <c r="F92" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G92" s="38" t="s">
         <v>207</v>
@@ -10189,7 +10186,7 @@
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G93" s="38"/>
     </row>
@@ -10208,7 +10205,7 @@
       </c>
       <c r="E94" s="38"/>
       <c r="F94" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G94" s="38"/>
     </row>
@@ -10227,7 +10224,7 @@
       </c>
       <c r="E95" s="38"/>
       <c r="F95" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G95" s="38"/>
     </row>
@@ -10246,7 +10243,7 @@
       </c>
       <c r="E96" s="38"/>
       <c r="F96" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G96" s="38"/>
     </row>
@@ -10265,7 +10262,7 @@
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G97" s="38"/>
     </row>
@@ -10284,7 +10281,7 @@
       </c>
       <c r="E98" s="38"/>
       <c r="F98" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G98" s="38"/>
     </row>
@@ -10303,7 +10300,7 @@
       </c>
       <c r="E99" s="38"/>
       <c r="F99" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G99" s="38"/>
     </row>
@@ -10322,7 +10319,7 @@
       </c>
       <c r="E100" s="38"/>
       <c r="F100" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G100" s="38"/>
     </row>
@@ -10331,7 +10328,7 @@
         <v>131</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C101" s="38" t="s">
         <v>133</v>
@@ -10341,7 +10338,7 @@
       </c>
       <c r="E101" s="38"/>
       <c r="F101" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G101" s="38"/>
     </row>
@@ -10365,10 +10362,10 @@
         <v>58</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D103" s="37"/>
       <c r="E103" s="37"/>
@@ -10390,7 +10387,7 @@
       </c>
       <c r="E104" s="38"/>
       <c r="F104" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G104" s="38" t="s">
         <v>219</v>
@@ -10411,7 +10408,7 @@
       </c>
       <c r="E105" s="38"/>
       <c r="F105" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G105" s="38"/>
     </row>
@@ -10430,7 +10427,7 @@
       </c>
       <c r="E106" s="38"/>
       <c r="F106" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G106" s="38"/>
     </row>
@@ -10449,7 +10446,7 @@
       </c>
       <c r="E107" s="38"/>
       <c r="F107" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G107" s="38"/>
     </row>
@@ -10468,7 +10465,7 @@
       </c>
       <c r="E108" s="38"/>
       <c r="F108" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G108" s="38"/>
     </row>
@@ -10487,7 +10484,7 @@
       </c>
       <c r="E109" s="38"/>
       <c r="F109" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G109" s="38"/>
     </row>
@@ -10506,7 +10503,7 @@
       </c>
       <c r="E110" s="38"/>
       <c r="F110" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G110" s="38"/>
     </row>
@@ -10525,7 +10522,7 @@
       </c>
       <c r="E111" s="38"/>
       <c r="F111" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G111" s="38"/>
     </row>
@@ -10544,7 +10541,7 @@
       </c>
       <c r="E112" s="38"/>
       <c r="F112" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G112" s="38"/>
     </row>
@@ -10553,7 +10550,7 @@
         <v>131</v>
       </c>
       <c r="B113" s="38" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C113" s="38" t="s">
         <v>133</v>
@@ -10563,7 +10560,7 @@
       </c>
       <c r="E113" s="38"/>
       <c r="F113" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G113" s="38"/>
     </row>
@@ -10587,10 +10584,10 @@
         <v>58</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D115" s="37"/>
       <c r="E115" s="37"/>
@@ -10612,7 +10609,7 @@
       </c>
       <c r="E116" s="38"/>
       <c r="F116" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G116" s="38" t="s">
         <v>136</v>
@@ -10633,7 +10630,7 @@
       </c>
       <c r="E117" s="38"/>
       <c r="F117" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G117" s="38"/>
     </row>
@@ -10652,7 +10649,7 @@
       </c>
       <c r="E118" s="38"/>
       <c r="F118" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G118" s="38"/>
     </row>
@@ -10671,7 +10668,7 @@
       </c>
       <c r="E119" s="38"/>
       <c r="F119" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G119" s="38"/>
     </row>
@@ -10690,7 +10687,7 @@
       </c>
       <c r="E120" s="38"/>
       <c r="F120" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G120" s="38"/>
     </row>
@@ -10709,7 +10706,7 @@
       </c>
       <c r="E121" s="38"/>
       <c r="F121" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G121" s="38"/>
     </row>
@@ -10728,7 +10725,7 @@
       </c>
       <c r="E122" s="38"/>
       <c r="F122" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G122" s="38"/>
     </row>
@@ -10747,7 +10744,7 @@
       </c>
       <c r="E123" s="38"/>
       <c r="F123" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G123" s="38"/>
     </row>
@@ -10766,7 +10763,7 @@
       </c>
       <c r="E124" s="38"/>
       <c r="F124" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G124" s="38"/>
     </row>
@@ -10775,7 +10772,7 @@
         <v>131</v>
       </c>
       <c r="B125" s="38" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C125" s="38" t="s">
         <v>133</v>
@@ -10785,7 +10782,7 @@
       </c>
       <c r="E125" s="38"/>
       <c r="F125" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G125" s="38"/>
     </row>
@@ -10794,7 +10791,7 @@
         <v>58</v>
       </c>
       <c r="B126" s="38" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C126" s="37" t="s">
         <v>10</v>
@@ -10809,10 +10806,10 @@
         <v>58</v>
       </c>
       <c r="B127" s="38" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D127" s="37"/>
       <c r="E127" s="37"/>
@@ -10834,7 +10831,7 @@
       </c>
       <c r="E128" s="38"/>
       <c r="F128" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G128" s="38" t="s">
         <v>242</v>
@@ -10855,7 +10852,7 @@
       </c>
       <c r="E129" s="38"/>
       <c r="F129" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G129" s="38"/>
     </row>
@@ -10874,7 +10871,7 @@
       </c>
       <c r="E130" s="38"/>
       <c r="F130" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G130" s="38"/>
     </row>
@@ -10893,7 +10890,7 @@
       </c>
       <c r="E131" s="38"/>
       <c r="F131" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G131" s="38"/>
     </row>
@@ -10912,7 +10909,7 @@
       </c>
       <c r="E132" s="38"/>
       <c r="F132" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G132" s="38"/>
     </row>
@@ -10924,14 +10921,14 @@
         <v>249</v>
       </c>
       <c r="C133" s="38" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D133" s="38" t="s">
         <v>251</v>
       </c>
       <c r="E133" s="38"/>
       <c r="F133" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G133" s="38"/>
     </row>
@@ -10943,14 +10940,14 @@
         <v>252</v>
       </c>
       <c r="C134" s="39" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D134" s="39" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E134" s="39"/>
       <c r="F134" s="39" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G134" s="39"/>
     </row>
@@ -10969,7 +10966,7 @@
       </c>
       <c r="E135" s="38"/>
       <c r="F135" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G135" s="38"/>
     </row>
@@ -10978,7 +10975,7 @@
         <v>58</v>
       </c>
       <c r="B136" s="38" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C136" s="38" t="s">
         <v>256</v>
@@ -10988,7 +10985,7 @@
       </c>
       <c r="E136" s="38"/>
       <c r="F136" s="38" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G136" s="38"/>
     </row>
@@ -11012,10 +11009,10 @@
         <v>58</v>
       </c>
       <c r="B138" s="38" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C138" s="37" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D138" s="37"/>
       <c r="E138" s="37"/>
@@ -11039,10 +11036,10 @@
         <v>260</v>
       </c>
       <c r="F139" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G139" s="38" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -11062,7 +11059,7 @@
         <v>260</v>
       </c>
       <c r="F140" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G140" s="38"/>
     </row>
@@ -11083,7 +11080,7 @@
         <v>260</v>
       </c>
       <c r="F141" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G141" s="38"/>
     </row>
@@ -11104,7 +11101,7 @@
         <v>260</v>
       </c>
       <c r="F142" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G142" s="38"/>
     </row>
@@ -11116,7 +11113,7 @@
         <v>267</v>
       </c>
       <c r="C143" s="38" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D143" s="38" t="s">
         <v>269</v>
@@ -11125,7 +11122,7 @@
         <v>260</v>
       </c>
       <c r="F143" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G143" s="38"/>
     </row>
@@ -11137,7 +11134,7 @@
         <v>270</v>
       </c>
       <c r="C144" s="38" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D144" s="38" t="s">
         <v>266</v>
@@ -11146,7 +11143,7 @@
         <v>260</v>
       </c>
       <c r="F144" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G144" s="38"/>
     </row>
@@ -11158,14 +11155,14 @@
         <v>272</v>
       </c>
       <c r="C145" s="39" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D145" s="39" t="s">
         <v>1240</v>
-      </c>
-      <c r="D145" s="39" t="s">
-        <v>1241</v>
       </c>
       <c r="E145" s="39"/>
       <c r="F145" s="39" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G145" s="39"/>
     </row>
@@ -11174,19 +11171,19 @@
         <v>58</v>
       </c>
       <c r="B146" s="38" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C146" s="38" t="s">
         <v>271</v>
       </c>
       <c r="D146" s="38" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E146" s="38" t="s">
         <v>260</v>
       </c>
       <c r="F146" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G146" s="38"/>
     </row>
@@ -11195,7 +11192,7 @@
         <v>58</v>
       </c>
       <c r="B147" s="38" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C147" s="38" t="s">
         <v>273</v>
@@ -11207,7 +11204,7 @@
         <v>260</v>
       </c>
       <c r="F147" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G147" s="38"/>
     </row>
@@ -11216,19 +11213,19 @@
         <v>131</v>
       </c>
       <c r="B148" s="38" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C148" s="38" t="s">
         <v>133</v>
       </c>
       <c r="D148" s="38" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E148" s="38" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F148" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G148" s="38"/>
     </row>
@@ -11237,7 +11234,7 @@
         <v>131</v>
       </c>
       <c r="B149" s="38" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C149" s="38" t="s">
         <v>277</v>
@@ -11247,7 +11244,7 @@
       </c>
       <c r="E149" s="38"/>
       <c r="F149" s="38" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G149" s="38"/>
     </row>
@@ -11296,14 +11293,14 @@
         <v>14</v>
       </c>
       <c r="D152" s="38" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E152" s="38" t="s">
         <v>281</v>
       </c>
       <c r="F152" s="38"/>
       <c r="G152" s="38" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -11317,14 +11314,14 @@
         <v>15</v>
       </c>
       <c r="D153" s="38" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E153" s="38" t="s">
         <v>281</v>
       </c>
       <c r="F153" s="38"/>
       <c r="G153" s="38" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -11338,14 +11335,14 @@
         <v>283</v>
       </c>
       <c r="D154" s="38" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E154" s="38" t="s">
         <v>284</v>
       </c>
       <c r="F154" s="38"/>
       <c r="G154" s="38" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -11404,7 +11401,7 @@
         <v>58</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C158" s="36" t="s">
         <v>19</v>
@@ -11590,7 +11587,7 @@
         <v>303</v>
       </c>
       <c r="C169" s="38" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D169" s="40" t="s">
         <v>949</v>
@@ -11911,7 +11908,7 @@
         <v>330</v>
       </c>
       <c r="C188" s="38" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D188" s="40" t="s">
         <v>949</v>
@@ -12423,7 +12420,7 @@
       <c r="E218" s="38"/>
       <c r="F218" s="38"/>
       <c r="G218" s="38" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -12536,13 +12533,13 @@
         <v>382</v>
       </c>
       <c r="C225" s="40" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D225" s="40" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E225" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F225" s="38"/>
       <c r="G225" s="38"/>
@@ -12558,10 +12555,10 @@
         <v>385</v>
       </c>
       <c r="D226" s="40" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E226" s="38" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F226" s="38"/>
       <c r="G226" s="38"/>
@@ -12574,7 +12571,7 @@
         <v>386</v>
       </c>
       <c r="C227" s="38" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D227" s="38">
         <v>76.16</v>
@@ -12648,7 +12645,7 @@
       <c r="E231" s="38"/>
       <c r="F231" s="38"/>
       <c r="G231" s="38" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -12716,7 +12713,7 @@
         <v>979</v>
       </c>
       <c r="E235" s="40" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F235" s="40"/>
       <c r="G235" s="38"/>
@@ -13009,7 +13006,7 @@
         <v>58</v>
       </c>
       <c r="B253" s="35" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C253" s="36" t="s">
         <v>35</v>
@@ -13099,7 +13096,7 @@
         <v>441</v>
       </c>
       <c r="E258" s="59" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F258" s="38"/>
       <c r="G258" s="44"/>
@@ -13180,13 +13177,13 @@
         <v>454</v>
       </c>
       <c r="C263" s="44" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D263" s="38" t="s">
         <v>456</v>
       </c>
       <c r="E263" s="59" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F263" s="38"/>
       <c r="G263" s="44"/>
@@ -13196,13 +13193,13 @@
         <v>58</v>
       </c>
       <c r="B264" s="38" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C264" s="44" t="s">
         <v>1287</v>
       </c>
-      <c r="C264" s="44" t="s">
-        <v>1288</v>
-      </c>
       <c r="D264" s="38" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E264" s="38"/>
       <c r="F264" s="38"/>
@@ -13256,7 +13253,7 @@
         <v>465</v>
       </c>
       <c r="E267" s="59" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F267" s="38"/>
       <c r="G267" s="44"/>
@@ -13266,7 +13263,7 @@
         <v>58</v>
       </c>
       <c r="B268" s="38" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C268" s="44" t="s">
         <v>467</v>
@@ -13474,7 +13471,7 @@
         <v>490</v>
       </c>
       <c r="D280" s="38" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E280" s="38"/>
       <c r="F280" s="38"/>
@@ -13580,7 +13577,7 @@
       </c>
       <c r="E286" s="38"/>
       <c r="F286" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G286" s="44"/>
     </row>
@@ -13780,7 +13777,7 @@
         <v>490</v>
       </c>
       <c r="D298" s="38" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E298" s="38"/>
       <c r="F298" s="38"/>
@@ -13886,7 +13883,7 @@
       </c>
       <c r="E304" s="38"/>
       <c r="F304" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G304" s="44"/>
     </row>
@@ -14212,7 +14209,7 @@
         <v>58</v>
       </c>
       <c r="B324" s="38" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C324" s="38" t="s">
         <v>483</v>
@@ -14229,7 +14226,7 @@
         <v>58</v>
       </c>
       <c r="B325" s="38" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C325" s="38" t="s">
         <v>485</v>
@@ -14269,7 +14266,7 @@
         <v>490</v>
       </c>
       <c r="D327" s="38" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E327" s="38"/>
       <c r="F327" s="38"/>
@@ -14348,7 +14345,7 @@
         <v>58</v>
       </c>
       <c r="B332" s="38" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C332" s="38" t="s">
         <v>501</v>
@@ -14365,7 +14362,7 @@
         <v>58</v>
       </c>
       <c r="B333" s="38" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C333" s="38" t="s">
         <v>504</v>
@@ -14375,7 +14372,7 @@
       </c>
       <c r="E333" s="38"/>
       <c r="F333" s="38" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="G333" s="38"/>
     </row>
@@ -14384,7 +14381,7 @@
         <v>58</v>
       </c>
       <c r="B334" s="35" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C334" s="49" t="s">
         <v>40</v>
@@ -14438,10 +14435,10 @@
         <v>78.3</v>
       </c>
       <c r="E337" s="38" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F337" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G337" s="44" t="s">
         <v>568</v>
@@ -14461,10 +14458,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E338" s="38" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F338" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G338" s="44"/>
     </row>
@@ -14476,14 +14473,14 @@
         <v>571</v>
       </c>
       <c r="C339" s="44" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D339" s="38">
         <v>78.099999999999994</v>
       </c>
       <c r="E339" s="38"/>
       <c r="F339" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G339" s="44"/>
     </row>
@@ -14517,7 +14514,7 @@
       </c>
       <c r="E341" s="38"/>
       <c r="F341" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G341" s="44" t="s">
         <v>576</v>
@@ -14538,7 +14535,7 @@
       </c>
       <c r="E342" s="38"/>
       <c r="F342" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G342" s="44"/>
     </row>
@@ -14557,7 +14554,7 @@
       </c>
       <c r="E343" s="38"/>
       <c r="F343" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G343" s="38"/>
     </row>
@@ -14576,7 +14573,7 @@
       </c>
       <c r="E344" s="38"/>
       <c r="F344" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G344" s="44"/>
     </row>
@@ -14610,10 +14607,10 @@
       </c>
       <c r="E346" s="38"/>
       <c r="F346" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G346" s="44" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -14631,7 +14628,7 @@
       </c>
       <c r="E347" s="38"/>
       <c r="F347" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G347" s="44"/>
     </row>
@@ -14643,14 +14640,14 @@
         <v>595</v>
       </c>
       <c r="C348" s="44" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D348" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E348" s="38"/>
       <c r="F348" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G348" s="44"/>
     </row>
@@ -14669,7 +14666,7 @@
       </c>
       <c r="E349" s="38"/>
       <c r="F349" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G349" s="44"/>
     </row>
@@ -14688,7 +14685,7 @@
       </c>
       <c r="E350" s="38"/>
       <c r="F350" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G350" s="44"/>
     </row>
@@ -14722,10 +14719,10 @@
       </c>
       <c r="E352" s="40"/>
       <c r="F352" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G352" s="44" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="30">
@@ -14743,7 +14740,7 @@
       </c>
       <c r="E353" s="40"/>
       <c r="F353" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G353" s="44"/>
     </row>
@@ -14758,11 +14755,11 @@
         <v>612</v>
       </c>
       <c r="D354" s="40" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E354" s="40"/>
       <c r="F354" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G354" s="38"/>
     </row>
@@ -14781,7 +14778,7 @@
       </c>
       <c r="E355" s="40"/>
       <c r="F355" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G355" s="44"/>
     </row>
@@ -14800,7 +14797,7 @@
       </c>
       <c r="E356" s="38"/>
       <c r="F356" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G356" s="44"/>
     </row>
@@ -14834,10 +14831,10 @@
       </c>
       <c r="E358" s="38"/>
       <c r="F358" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G358" s="38" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -14851,11 +14848,11 @@
         <v>624</v>
       </c>
       <c r="D359" s="40" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E359" s="40"/>
       <c r="F359" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G359" s="38"/>
     </row>
@@ -14889,10 +14886,10 @@
       </c>
       <c r="E361" s="38"/>
       <c r="F361" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G361" s="44" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -14906,11 +14903,11 @@
         <v>629</v>
       </c>
       <c r="D362" s="38" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E362" s="46"/>
       <c r="F362" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G362" s="44"/>
     </row>
@@ -14929,7 +14926,7 @@
       </c>
       <c r="E363" s="38"/>
       <c r="F363" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G363" s="44"/>
     </row>
@@ -14944,11 +14941,11 @@
         <v>633</v>
       </c>
       <c r="D364" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E364" s="38"/>
       <c r="F364" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G364" s="44"/>
     </row>
@@ -14963,13 +14960,13 @@
         <v>635</v>
       </c>
       <c r="D365" s="38" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E365" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F365" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G365" s="38"/>
     </row>
@@ -15017,10 +15014,10 @@
         <v>1033</v>
       </c>
       <c r="E368" s="40" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F368" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G368" s="44" t="s">
         <v>568</v>
@@ -15040,10 +15037,10 @@
         <v>1028</v>
       </c>
       <c r="E369" s="40" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F369" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G369" s="44"/>
     </row>
@@ -15061,10 +15058,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E370" s="38" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F370" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G370" s="44"/>
     </row>
@@ -15113,7 +15110,7 @@
       </c>
       <c r="E373" s="38"/>
       <c r="F373" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G373" s="44" t="s">
         <v>647</v>
@@ -15134,7 +15131,7 @@
       </c>
       <c r="E374" s="38"/>
       <c r="F374" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G374" s="44"/>
     </row>
@@ -15153,7 +15150,7 @@
       </c>
       <c r="E375" s="38"/>
       <c r="F375" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G375" s="44"/>
     </row>
@@ -15172,7 +15169,7 @@
       </c>
       <c r="E376" s="40"/>
       <c r="F376" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G376" s="44"/>
     </row>
@@ -15191,7 +15188,7 @@
       </c>
       <c r="E377" s="38"/>
       <c r="F377" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G377" s="44"/>
     </row>
@@ -15210,7 +15207,7 @@
       </c>
       <c r="E378" s="38"/>
       <c r="F378" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G378" s="44"/>
     </row>
@@ -15244,10 +15241,10 @@
       </c>
       <c r="E380" s="38"/>
       <c r="F380" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G380" s="44" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -15261,13 +15258,13 @@
         <v>624</v>
       </c>
       <c r="D381" s="40" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E381" s="40" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F381" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G381" s="38"/>
     </row>
@@ -15301,10 +15298,10 @@
       </c>
       <c r="E383" s="38"/>
       <c r="F383" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G383" s="44" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -15318,11 +15315,11 @@
         <v>666</v>
       </c>
       <c r="D384" s="38" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E384" s="46"/>
       <c r="F384" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G384" s="44"/>
     </row>
@@ -15341,7 +15338,7 @@
       </c>
       <c r="E385" s="38"/>
       <c r="F385" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G385" s="44"/>
     </row>
@@ -15356,11 +15353,11 @@
         <v>633</v>
       </c>
       <c r="D386" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E386" s="38"/>
       <c r="F386" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G386" s="38"/>
     </row>
@@ -15375,13 +15372,13 @@
         <v>635</v>
       </c>
       <c r="D387" s="38" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E387" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F387" s="38" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G387" s="38"/>
     </row>
@@ -15429,10 +15426,10 @@
         <v>78.3</v>
       </c>
       <c r="E390" s="38" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F390" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G390" s="44" t="s">
         <v>568</v>
@@ -15452,10 +15449,10 @@
         <v>1028</v>
       </c>
       <c r="E391" s="40" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="F391" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G391" s="38"/>
     </row>
@@ -15473,10 +15470,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E392" s="38" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F392" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G392" s="44"/>
     </row>
@@ -15525,7 +15522,7 @@
       </c>
       <c r="E395" s="38"/>
       <c r="F395" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G395" s="44" t="s">
         <v>681</v>
@@ -15546,7 +15543,7 @@
       </c>
       <c r="E396" s="38"/>
       <c r="F396" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G396" s="44"/>
     </row>
@@ -15565,7 +15562,7 @@
       </c>
       <c r="E397" s="38"/>
       <c r="F397" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G397" s="44"/>
     </row>
@@ -15584,7 +15581,7 @@
       </c>
       <c r="E398" s="38"/>
       <c r="F398" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G398" s="44"/>
     </row>
@@ -15603,7 +15600,7 @@
       </c>
       <c r="E399" s="38"/>
       <c r="F399" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G399" s="44"/>
     </row>
@@ -15622,7 +15619,7 @@
       </c>
       <c r="E400" s="38"/>
       <c r="F400" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G400" s="44"/>
     </row>
@@ -15656,10 +15653,10 @@
       </c>
       <c r="E402" s="38"/>
       <c r="F402" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G402" s="44" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -15673,13 +15670,13 @@
         <v>624</v>
       </c>
       <c r="D403" s="40" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E403" s="40" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F403" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G403" s="38"/>
     </row>
@@ -15713,10 +15710,10 @@
       </c>
       <c r="E405" s="38"/>
       <c r="F405" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G405" s="44" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -15730,11 +15727,11 @@
         <v>666</v>
       </c>
       <c r="D406" s="38" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E406" s="46"/>
       <c r="F406" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G406" s="44"/>
     </row>
@@ -15753,7 +15750,7 @@
       </c>
       <c r="E407" s="38"/>
       <c r="F407" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G407" s="44"/>
     </row>
@@ -15768,11 +15765,11 @@
         <v>633</v>
       </c>
       <c r="D408" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E408" s="38"/>
       <c r="F408" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G408" s="38"/>
     </row>
@@ -15787,13 +15784,13 @@
         <v>635</v>
       </c>
       <c r="D409" s="38" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E409" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F409" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G409" s="38"/>
     </row>
@@ -15841,10 +15838,10 @@
         <v>78.3</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F412" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G412" s="44" t="s">
         <v>568</v>
@@ -15864,10 +15861,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E413" s="38" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F413" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G413" s="44"/>
     </row>
@@ -15885,10 +15882,10 @@
         <v>78.099999999999994</v>
       </c>
       <c r="E414" s="38" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="F414" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G414" s="44"/>
     </row>
@@ -15937,7 +15934,7 @@
       </c>
       <c r="E417" s="38"/>
       <c r="F417" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G417" s="38" t="s">
         <v>709</v>
@@ -15958,7 +15955,7 @@
       </c>
       <c r="E418" s="38"/>
       <c r="F418" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G418" s="44"/>
     </row>
@@ -15977,7 +15974,7 @@
       </c>
       <c r="E419" s="38"/>
       <c r="F419" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G419" s="44"/>
     </row>
@@ -15996,7 +15993,7 @@
       </c>
       <c r="E420" s="38"/>
       <c r="F420" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G420" s="38"/>
     </row>
@@ -16023,14 +16020,14 @@
         <v>718</v>
       </c>
       <c r="C422" s="62" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D422" s="38" t="s">
         <v>1074</v>
       </c>
       <c r="E422" s="38"/>
       <c r="F422" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G422" s="38" t="s">
         <v>720</v>
@@ -16044,14 +16041,14 @@
         <v>722</v>
       </c>
       <c r="C423" s="62" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D423" s="40" t="s">
         <v>721</v>
       </c>
       <c r="E423" s="40"/>
       <c r="F423" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G423" s="38"/>
     </row>
@@ -16070,7 +16067,7 @@
       </c>
       <c r="E424" s="40"/>
       <c r="F424" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G424" s="38"/>
     </row>
@@ -16104,7 +16101,7 @@
       </c>
       <c r="E426" s="40"/>
       <c r="F426" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G426" s="44" t="s">
         <v>729</v>
@@ -16125,7 +16122,7 @@
       </c>
       <c r="E427" s="40"/>
       <c r="F427" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G427" s="44"/>
     </row>
@@ -16144,7 +16141,7 @@
       </c>
       <c r="E428" s="40"/>
       <c r="F428" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G428" s="44"/>
     </row>
@@ -16163,7 +16160,7 @@
       </c>
       <c r="E429" s="40"/>
       <c r="F429" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G429" s="38"/>
     </row>
@@ -16182,7 +16179,7 @@
       </c>
       <c r="E430" s="40"/>
       <c r="F430" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G430" s="44"/>
     </row>
@@ -16201,7 +16198,7 @@
       </c>
       <c r="E431" s="40"/>
       <c r="F431" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G431" s="44"/>
     </row>
@@ -16218,7 +16215,7 @@
       <c r="D432" s="41"/>
       <c r="E432" s="41"/>
       <c r="F432" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G432" s="41"/>
     </row>
@@ -16237,7 +16234,7 @@
       </c>
       <c r="E433" s="40"/>
       <c r="F433" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G433" s="44" t="s">
         <v>738</v>
@@ -16258,7 +16255,7 @@
       </c>
       <c r="E434" s="40"/>
       <c r="F434" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G434" s="44"/>
     </row>
@@ -16277,7 +16274,7 @@
       </c>
       <c r="E435" s="40"/>
       <c r="F435" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G435" s="44" t="s">
         <v>606</v>
@@ -16298,7 +16295,7 @@
       </c>
       <c r="E436" s="40"/>
       <c r="F436" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G436" s="44"/>
     </row>
@@ -16315,7 +16312,7 @@
       <c r="D437" s="41"/>
       <c r="E437" s="41"/>
       <c r="F437" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G437" s="41"/>
     </row>
@@ -16334,10 +16331,10 @@
       </c>
       <c r="E438" s="40"/>
       <c r="F438" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G438" s="44" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -16351,13 +16348,13 @@
         <v>624</v>
       </c>
       <c r="D439" s="40" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E439" s="40" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F439" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G439" s="38"/>
     </row>
@@ -16369,12 +16366,12 @@
         <v>746</v>
       </c>
       <c r="C440" s="41" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D440" s="41"/>
       <c r="E440" s="41"/>
       <c r="F440" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G440" s="41"/>
     </row>
@@ -16389,13 +16386,13 @@
         <v>635</v>
       </c>
       <c r="D441" s="38" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E441" s="38" t="s">
         <v>636</v>
       </c>
       <c r="F441" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G441" s="38"/>
     </row>
@@ -16412,7 +16409,7 @@
       <c r="D442" s="41"/>
       <c r="E442" s="41"/>
       <c r="F442" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G442" s="37"/>
     </row>
@@ -16431,7 +16428,7 @@
         <v>279</v>
       </c>
       <c r="F443" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G443" s="44"/>
     </row>
@@ -16450,7 +16447,7 @@
         <v>279</v>
       </c>
       <c r="F444" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G444" s="44"/>
     </row>
@@ -16469,7 +16466,7 @@
         <v>279</v>
       </c>
       <c r="F445" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G445" s="44"/>
     </row>
@@ -16486,7 +16483,7 @@
       <c r="D446" s="41"/>
       <c r="E446" s="37"/>
       <c r="F446" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G446" s="37"/>
     </row>
@@ -16505,7 +16502,7 @@
         <v>279</v>
       </c>
       <c r="F447" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G447" s="44"/>
     </row>
@@ -16524,7 +16521,7 @@
         <v>279</v>
       </c>
       <c r="F448" s="38" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G448" s="44"/>
     </row>
@@ -16541,7 +16538,7 @@
       <c r="D449" s="41"/>
       <c r="E449" s="41"/>
       <c r="F449" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G449" s="37"/>
     </row>
@@ -16558,7 +16555,7 @@
       <c r="D450" s="41"/>
       <c r="E450" s="41"/>
       <c r="F450" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G450" s="41"/>
     </row>
@@ -16577,7 +16574,7 @@
       </c>
       <c r="E451" s="38"/>
       <c r="F451" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G451" s="44" t="s">
         <v>568</v>
@@ -16598,7 +16595,7 @@
       </c>
       <c r="E452" s="38"/>
       <c r="F452" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G452" s="44"/>
     </row>
@@ -16617,7 +16614,7 @@
       </c>
       <c r="E453" s="38"/>
       <c r="F453" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G453" s="44"/>
     </row>
@@ -16634,7 +16631,7 @@
       <c r="D454" s="41"/>
       <c r="E454" s="41"/>
       <c r="F454" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G454" s="41"/>
     </row>
@@ -16651,7 +16648,7 @@
       <c r="D455" s="41"/>
       <c r="E455" s="41"/>
       <c r="F455" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G455" s="41"/>
     </row>
@@ -16670,10 +16667,10 @@
       </c>
       <c r="E456" s="38"/>
       <c r="F456" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G456" s="44" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -16691,7 +16688,7 @@
       </c>
       <c r="E457" s="38"/>
       <c r="F457" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G457" s="44"/>
     </row>
@@ -16706,11 +16703,11 @@
         <v>767</v>
       </c>
       <c r="D458" s="38" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E458" s="38"/>
       <c r="F458" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G458" s="38"/>
     </row>
@@ -16729,7 +16726,7 @@
       </c>
       <c r="E459" s="38"/>
       <c r="F459" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G459" s="38"/>
     </row>
@@ -16741,12 +16738,12 @@
         <v>770</v>
       </c>
       <c r="C460" s="38" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D460" s="38"/>
       <c r="E460" s="38"/>
       <c r="F460" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G460" s="38"/>
     </row>
@@ -16755,7 +16752,7 @@
         <v>58</v>
       </c>
       <c r="B461" s="38" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C461" s="38" t="s">
         <v>771</v>
@@ -16765,7 +16762,7 @@
       </c>
       <c r="E461" s="38"/>
       <c r="F461" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G461" s="38"/>
     </row>
@@ -16774,17 +16771,17 @@
         <v>58</v>
       </c>
       <c r="B462" s="38" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C462" s="38" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D462" s="38" t="s">
         <v>724</v>
       </c>
       <c r="E462" s="38"/>
       <c r="F462" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G462" s="38"/>
     </row>
@@ -16801,7 +16798,7 @@
       <c r="D463" s="41"/>
       <c r="E463" s="41"/>
       <c r="F463" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G463" s="41"/>
     </row>
@@ -16820,10 +16817,10 @@
       </c>
       <c r="E464" s="38"/>
       <c r="F464" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G464" s="44" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -16837,11 +16834,11 @@
         <v>624</v>
       </c>
       <c r="D465" s="40" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E465" s="40"/>
       <c r="F465" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G465" s="38"/>
     </row>
@@ -16858,7 +16855,7 @@
       <c r="D466" s="41"/>
       <c r="E466" s="41"/>
       <c r="F466" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G466" s="41"/>
     </row>
@@ -16877,10 +16874,10 @@
       </c>
       <c r="E467" s="38"/>
       <c r="F467" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G467" s="44" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -16898,7 +16895,7 @@
       </c>
       <c r="E468" s="38"/>
       <c r="F468" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G468" s="44"/>
     </row>
@@ -16917,7 +16914,7 @@
       </c>
       <c r="E469" s="38"/>
       <c r="F469" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G469" s="44"/>
     </row>
@@ -16932,11 +16929,11 @@
         <v>633</v>
       </c>
       <c r="D470" s="38" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E470" s="38"/>
       <c r="F470" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G470" s="38"/>
     </row>
@@ -16951,11 +16948,11 @@
         <v>635</v>
       </c>
       <c r="D471" s="38" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E471" s="38"/>
       <c r="F471" s="38" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G471" s="38"/>
     </row>
@@ -17012,7 +17009,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>789</v>
@@ -17031,7 +17028,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>791</v>
@@ -17050,7 +17047,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>792</v>
@@ -17069,7 +17066,7 @@
         <v>71</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>793</v>
@@ -17088,7 +17085,7 @@
         <v>796</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>797</v>
@@ -18473,7 +18470,7 @@
         <v>124</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>790</v>
@@ -18886,7 +18883,7 @@
         <v>278</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>854</v>
@@ -18905,13 +18902,13 @@
         <v>269</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>855</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
@@ -18924,13 +18921,13 @@
         <v>266</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>856</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -18943,7 +18940,7 @@
         <v>274</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>857</v>
@@ -18959,16 +18956,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="32" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B43" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C43" s="32" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D43" s="32" t="s">
         <v>1175</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>1176</v>
       </c>
       <c r="E43" s="32"/>
       <c r="F43" s="32" t="s">
@@ -18978,16 +18975,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="32" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B44" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D44" s="32" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="32" t="s">
@@ -18997,16 +18994,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="32" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B45" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D45" s="32" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="32" t="s">
@@ -19016,16 +19013,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="32" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B46" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="32" t="s">
@@ -19035,16 +19032,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="32" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B47" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="32" t="s">
@@ -19054,16 +19051,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="32" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B48" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="32" t="s">
@@ -19073,16 +19070,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="32" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B49" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="32" t="s">
@@ -19092,16 +19089,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="32" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B50" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="32" t="s">
@@ -19111,16 +19108,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="32" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B51" s="32" t="s">
         <v>813</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="32" t="s">
@@ -19130,16 +19127,16 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="32" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B52" s="32" t="s">
         <v>839</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="32" t="s">
@@ -19149,16 +19146,16 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="32" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B53" s="32" t="s">
         <v>839</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="32" t="s">
@@ -19168,16 +19165,16 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="32" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>847</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E54" s="32"/>
       <c r="F54" s="32" t="s">
@@ -19187,16 +19184,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="32" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E55" s="32"/>
       <c r="F55" s="32" t="s">
@@ -19774,16 +19771,16 @@
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1">
       <c r="A16" s="31" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>860</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30" t="s">
@@ -19793,16 +19790,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1">
       <c r="A17" s="31" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>860</v>
       </c>
       <c r="C17" s="31" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D17" s="31" t="s">
         <v>1096</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>1097</v>
       </c>
       <c r="E17" s="30"/>
       <c r="F17" s="30" t="s">
@@ -19821,7 +19818,7 @@
         <v>894</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30" t="s">
@@ -20314,7 +20311,7 @@
         <v>965</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F44" s="30"/>
       <c r="G44" s="30"/>
@@ -20400,7 +20397,7 @@
         <v>980</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E49" s="30"/>
       <c r="F49" s="30"/>
@@ -20669,8 +20666,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -20964,7 +20961,7 @@
         <v>435</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>981</v>
@@ -20983,7 +20980,7 @@
         <v>438</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>983</v>
@@ -21002,7 +20999,7 @@
         <v>441</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>985</v>
@@ -21021,7 +21018,7 @@
         <v>456</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>987</v>
@@ -21040,7 +21037,7 @@
         <v>444</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>989</v>
@@ -21059,7 +21056,7 @@
         <v>447</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>991</v>
@@ -21078,7 +21075,7 @@
         <v>450</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>993</v>
@@ -21097,7 +21094,7 @@
         <v>453</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>995</v>
@@ -21116,7 +21113,7 @@
         <v>459</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>997</v>
@@ -21135,7 +21132,7 @@
         <v>999</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>1000</v>
@@ -21154,7 +21151,7 @@
         <v>462</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>1002</v>
@@ -21173,7 +21170,7 @@
         <v>465</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>1004</v>
@@ -21194,7 +21191,7 @@
         <v>468</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>1007</v>
@@ -21213,7 +21210,7 @@
         <v>502</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>1009</v>
@@ -21236,7 +21233,7 @@
         <v>493</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>1013</v>
@@ -21255,7 +21252,7 @@
         <v>505</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>1015</v>
@@ -21278,13 +21275,13 @@
         <v>533</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>1019</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
@@ -21297,7 +21294,7 @@
         <v>536</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>1020</v>
@@ -21316,7 +21313,7 @@
         <v>539</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>1021</v>
@@ -21335,7 +21332,7 @@
         <v>542</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>1023</v>
@@ -21354,7 +21351,7 @@
         <v>547</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>1025</v>
@@ -21373,7 +21370,7 @@
         <v>488</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>1027</v>
@@ -21387,16 +21384,16 @@
     </row>
     <row r="24" spans="1:7" ht="31.2">
       <c r="A24" s="32" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B24" s="32" t="s">
         <v>1154</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="C24" s="32" t="s">
         <v>1155</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="D24" s="32" t="s">
         <v>1156</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>1157</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
@@ -21404,16 +21401,16 @@
     </row>
     <row r="25" spans="1:7" ht="46.8">
       <c r="A25" s="32" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C25" s="32" t="s">
         <v>1158</v>
       </c>
-      <c r="B25" s="32" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>1159</v>
-      </c>
       <c r="D25" s="32" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -21421,16 +21418,16 @@
     </row>
     <row r="26" spans="1:7" ht="31.2">
       <c r="A26" s="32" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C26" s="32" t="s">
         <v>1160</v>
       </c>
-      <c r="B26" s="32" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C26" s="32" t="s">
+      <c r="D26" s="32" t="s">
         <v>1161</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>1162</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
@@ -21438,16 +21435,16 @@
     </row>
     <row r="27" spans="1:7" ht="46.8">
       <c r="A27" s="32" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>1163</v>
       </c>
-      <c r="B27" s="32" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C27" s="32" t="s">
+      <c r="D27" s="32" t="s">
         <v>1164</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>1165</v>
       </c>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
@@ -21455,16 +21452,16 @@
     </row>
     <row r="28" spans="1:7" ht="46.8">
       <c r="A28" s="32" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C28" s="32" t="s">
         <v>1166</v>
       </c>
-      <c r="B28" s="32" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C28" s="32" t="s">
+      <c r="D28" s="32" t="s">
         <v>1167</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>1168</v>
       </c>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
@@ -21472,16 +21469,16 @@
     </row>
     <row r="29" spans="1:7" ht="46.8">
       <c r="A29" s="32" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C29" s="32" t="s">
         <v>1169</v>
       </c>
-      <c r="B29" s="32" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C29" s="32" t="s">
+      <c r="D29" s="32" t="s">
         <v>1170</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>1171</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
@@ -21489,16 +21486,16 @@
     </row>
     <row r="30" spans="1:7" ht="46.8">
       <c r="A30" s="32" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C30" s="32" t="s">
         <v>1172</v>
       </c>
-      <c r="B30" s="32" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C30" s="32" t="s">
+      <c r="D30" s="32" t="s">
         <v>1173</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>1174</v>
       </c>
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
@@ -21567,7 +21564,7 @@
         <v>1030</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E2" s="64"/>
       <c r="F2" s="28" t="s">
@@ -21835,7 +21832,7 @@
         <v>1032</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E3" s="65"/>
       <c r="F3" s="3" t="s">
@@ -21854,7 +21851,7 @@
         <v>1034</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E4" s="64"/>
       <c r="F4" s="3" t="s">
@@ -21876,8 +21873,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -22277,13 +22274,13 @@
         <v>1049</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="31.5" customHeight="1">
@@ -22521,7 +22518,7 @@
         <v>790</v>
       </c>
       <c r="G19" s="31" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
@@ -22557,47 +22554,47 @@
         <v>1081</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>1082</v>
+        <v>1301</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>790</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="31.5" customHeight="1">
       <c r="A22" s="30" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B22" s="30" t="s">
         <v>1036</v>
       </c>
       <c r="C22" s="30" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>1085</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="E22" s="30" t="s">
         <v>1086</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>1087</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>809</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="31.2">
       <c r="A23" s="30" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B23" s="30" t="s">
         <v>1036</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>629</v>
@@ -22608,13 +22605,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="30" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B24" s="30" t="s">
         <v>1036</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>633</v>
@@ -22625,32 +22622,32 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="30" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B25" s="30" t="s">
         <v>1036</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>624</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7" ht="31.2">
       <c r="A26" s="30" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>1036</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>635</v>
@@ -22661,13 +22658,13 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="58" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>1036</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>767</v>
@@ -22979,40 +22976,40 @@
     </row>
     <row r="2" spans="1:256">
       <c r="A2" s="7" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
         <v>790</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="3" spans="1:256">
       <c r="A3" s="7" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>1135</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1136</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>809</v>
@@ -23021,19 +23018,19 @@
     </row>
     <row r="4" spans="1:256">
       <c r="A4" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>1140</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>1141</v>
-      </c>
       <c r="C4" s="6" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>1138</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1139</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>809</v>

--- a/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geoff\gsa-devel\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CBA72E-FD6E-4640-977C-85DF09533163}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D83060D-AAE9-4B0A-BB4D-EDC10D923E94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="17070" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,14 @@
     <sheet name="Placeholders" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Steps Overview'!$A$1:$G$471</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Steps Overview'!$A$1:$G$472</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="1303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3775" uniqueCount="1309">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3942,6 +3942,24 @@
   </si>
   <si>
     <t>Confirm that version of signed data structure is 3</t>
+  </si>
+  <si>
+    <t>Recorded length matches actual SB length</t>
+  </si>
+  <si>
+    <t>Recorded length matches actual BDB length</t>
+  </si>
+  <si>
+    <t>76.48</t>
+  </si>
+  <si>
+    <t>sp800_76Test_48</t>
+  </si>
+  <si>
+    <t>9.1.1.5</t>
+  </si>
+  <si>
+    <t>The Patron Header Version field has a value of 0x03.</t>
   </si>
 </sst>
 </file>
@@ -4105,7 +4123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -4157,6 +4175,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1">
@@ -4164,7 +4210,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4361,6 +4407,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4754,13 +4815,13 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="57.3984375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="57.375" style="4" customWidth="1"/>
     <col min="3" max="5" width="10.5" style="4" customWidth="1"/>
-    <col min="6" max="256" width="8.8984375" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.8984375" style="19" customWidth="1"/>
+    <col min="6" max="256" width="8.875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -5417,7 +5478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="31.2">
+    <row r="74" spans="1:5" ht="31.5">
       <c r="A74" s="3" t="s">
         <v>205</v>
       </c>
@@ -5505,7 +5566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="31.2">
+    <row r="85" spans="1:2" ht="31.5">
       <c r="A85" s="3" t="s">
         <v>217</v>
       </c>
@@ -5593,7 +5654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="31.2">
+    <row r="96" spans="1:2" ht="31.5">
       <c r="A96" s="3" t="s">
         <v>229</v>
       </c>
@@ -5681,7 +5742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="31.2">
+    <row r="107" spans="1:2">
       <c r="A107" s="3" t="s">
         <v>240</v>
       </c>
@@ -5737,7 +5798,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="31.2">
+    <row r="114" spans="1:2" ht="31.5">
       <c r="A114" s="3" t="s">
         <v>255</v>
       </c>
@@ -5753,7 +5814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="27.6">
+    <row r="116" spans="1:2" ht="28.5">
       <c r="A116" s="3" t="s">
         <v>258</v>
       </c>
@@ -5793,7 +5854,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="46.8">
+    <row r="121" spans="1:2" ht="47.25">
       <c r="A121" s="3" t="s">
         <v>267</v>
       </c>
@@ -5809,7 +5870,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="62.4">
+    <row r="123" spans="1:2" ht="63">
       <c r="A123" s="3" t="s">
         <v>272</v>
       </c>
@@ -5961,7 +6022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="31.2">
+    <row r="142" spans="1:2" ht="31.5">
       <c r="A142" s="3" t="s">
         <v>296</v>
       </c>
@@ -5977,7 +6038,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="31.2">
+    <row r="144" spans="1:2" ht="31.5">
       <c r="A144" s="3" t="s">
         <v>301</v>
       </c>
@@ -5985,7 +6046,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="46.8">
+    <row r="145" spans="1:2" ht="47.25">
       <c r="A145" s="3" t="s">
         <v>303</v>
       </c>
@@ -5993,7 +6054,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="46.8">
+    <row r="146" spans="1:2" ht="47.25">
       <c r="A146" s="3" t="s">
         <v>305</v>
       </c>
@@ -6017,7 +6078,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="46.8">
+    <row r="149" spans="1:2" ht="47.25">
       <c r="A149" s="3" t="s">
         <v>311</v>
       </c>
@@ -6033,7 +6094,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="62.4">
+    <row r="151" spans="1:2" ht="63">
       <c r="A151" s="3" t="s">
         <v>315</v>
       </c>
@@ -6041,7 +6102,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="31.2">
+    <row r="152" spans="1:2" ht="31.5">
       <c r="A152" s="3" t="s">
         <v>317</v>
       </c>
@@ -6049,7 +6110,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="31.2">
+    <row r="153" spans="1:2" ht="31.5">
       <c r="A153" s="3" t="s">
         <v>319</v>
       </c>
@@ -6113,7 +6174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="31.2">
+    <row r="161" spans="1:2" ht="31.5">
       <c r="A161" s="3" t="s">
         <v>327</v>
       </c>
@@ -6129,7 +6190,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="31.2">
+    <row r="163" spans="1:2" ht="31.5">
       <c r="A163" s="3" t="s">
         <v>329</v>
       </c>
@@ -6137,7 +6198,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="31.2">
+    <row r="164" spans="1:2" ht="31.5">
       <c r="A164" s="3" t="s">
         <v>330</v>
       </c>
@@ -6145,7 +6206,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="46.8">
+    <row r="165" spans="1:2" ht="47.25">
       <c r="A165" s="3" t="s">
         <v>332</v>
       </c>
@@ -6169,7 +6230,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="31.2">
+    <row r="168" spans="1:2" ht="31.5">
       <c r="A168" s="3" t="s">
         <v>336</v>
       </c>
@@ -6185,7 +6246,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="62.4">
+    <row r="170" spans="1:2" ht="63">
       <c r="A170" s="3" t="s">
         <v>340</v>
       </c>
@@ -6193,7 +6254,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="31.2">
+    <row r="171" spans="1:2" ht="31.5">
       <c r="A171" s="3" t="s">
         <v>341</v>
       </c>
@@ -6201,7 +6262,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="31.2">
+    <row r="172" spans="1:2" ht="31.5">
       <c r="A172" s="3" t="s">
         <v>342</v>
       </c>
@@ -6297,7 +6358,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="46.8">
+    <row r="184" spans="1:2" ht="47.25">
       <c r="A184" s="3" t="s">
         <v>332</v>
       </c>
@@ -6313,7 +6374,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="31.2">
+    <row r="186" spans="1:2">
       <c r="A186" s="3" t="s">
         <v>358</v>
       </c>
@@ -6321,7 +6382,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="31.2">
+    <row r="187" spans="1:2" ht="31.5">
       <c r="A187" s="3" t="s">
         <v>360</v>
       </c>
@@ -6337,7 +6398,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="62.4">
+    <row r="189" spans="1:2" ht="63">
       <c r="A189" s="3" t="s">
         <v>363</v>
       </c>
@@ -6345,7 +6406,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="31.2">
+    <row r="190" spans="1:2" ht="31.5">
       <c r="A190" s="3" t="s">
         <v>364</v>
       </c>
@@ -6353,7 +6414,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="31.2">
+    <row r="191" spans="1:2" ht="31.5">
       <c r="A191" s="3" t="s">
         <v>365</v>
       </c>
@@ -6401,7 +6462,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="46.8">
+    <row r="197" spans="1:2" ht="47.25">
       <c r="A197" s="3" t="s">
         <v>375</v>
       </c>
@@ -6409,7 +6470,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="46.8">
+    <row r="198" spans="1:2" ht="47.25">
       <c r="A198" s="3" t="s">
         <v>377</v>
       </c>
@@ -6433,7 +6494,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="31.2">
+    <row r="201" spans="1:2" ht="31.5">
       <c r="A201" s="3" t="s">
         <v>382</v>
       </c>
@@ -6441,7 +6502,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="31.2">
+    <row r="202" spans="1:2" ht="31.5">
       <c r="A202" s="3" t="s">
         <v>384</v>
       </c>
@@ -6545,7 +6606,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="31.2">
+    <row r="215" spans="1:2" ht="31.5">
       <c r="A215" s="3" t="s">
         <v>409</v>
       </c>
@@ -6689,7 +6750,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="46.8">
+    <row r="233" spans="1:2" ht="47.25">
       <c r="A233" s="3" t="s">
         <v>432</v>
       </c>
@@ -6705,7 +6766,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="31.2">
+    <row r="235" spans="1:2" ht="31.5">
       <c r="A235" s="3" t="s">
         <v>439</v>
       </c>
@@ -6713,7 +6774,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="31.2">
+    <row r="236" spans="1:2" ht="31.5">
       <c r="A236" s="3" t="s">
         <v>442</v>
       </c>
@@ -6729,7 +6790,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="31.2">
+    <row r="238" spans="1:2">
       <c r="A238" s="3" t="s">
         <v>448</v>
       </c>
@@ -6737,7 +6798,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="62.4">
+    <row r="239" spans="1:2" ht="47.25">
       <c r="A239" s="3" t="s">
         <v>451</v>
       </c>
@@ -6745,7 +6806,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="46.8">
+    <row r="240" spans="1:2" ht="47.25">
       <c r="A240" s="3" t="s">
         <v>454</v>
       </c>
@@ -6753,7 +6814,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="78">
+    <row r="241" spans="1:2" ht="78.75">
       <c r="A241" s="3" t="s">
         <v>457</v>
       </c>
@@ -6761,7 +6822,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="62.4">
+    <row r="242" spans="1:2" ht="47.25">
       <c r="A242" s="3" t="s">
         <v>460</v>
       </c>
@@ -6769,7 +6830,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="78">
+    <row r="243" spans="1:2" ht="78.75">
       <c r="A243" s="3" t="s">
         <v>463</v>
       </c>
@@ -6777,7 +6838,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="31.2">
+    <row r="244" spans="1:2" ht="31.5">
       <c r="A244" s="3" t="s">
         <v>466</v>
       </c>
@@ -6801,7 +6862,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="46.8">
+    <row r="247" spans="1:2" ht="47.25">
       <c r="A247" s="3" t="s">
         <v>471</v>
       </c>
@@ -6817,7 +6878,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="31.2">
+    <row r="249" spans="1:2" ht="31.5">
       <c r="A249" s="3" t="s">
         <v>476</v>
       </c>
@@ -6825,7 +6886,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="31.2">
+    <row r="250" spans="1:2" ht="31.5">
       <c r="A250" s="3" t="s">
         <v>478</v>
       </c>
@@ -6841,7 +6902,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="31.2">
+    <row r="252" spans="1:2">
       <c r="A252" s="3" t="s">
         <v>481</v>
       </c>
@@ -6857,7 +6918,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="31.2">
+    <row r="254" spans="1:2" ht="31.5">
       <c r="A254" s="3" t="s">
         <v>484</v>
       </c>
@@ -6865,7 +6926,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="31.2">
+    <row r="255" spans="1:2" ht="31.5">
       <c r="A255" s="3" t="s">
         <v>486</v>
       </c>
@@ -6873,7 +6934,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="31.2">
+    <row r="256" spans="1:2" ht="31.5">
       <c r="A256" s="3" t="s">
         <v>489</v>
       </c>
@@ -6881,7 +6942,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="46.8">
+    <row r="257" spans="1:2" ht="47.25">
       <c r="A257" s="3" t="s">
         <v>491</v>
       </c>
@@ -6889,7 +6950,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="62.4">
+    <row r="258" spans="1:2" ht="47.25">
       <c r="A258" s="3" t="s">
         <v>494</v>
       </c>
@@ -6897,7 +6958,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="62.4">
+    <row r="259" spans="1:2" ht="63">
       <c r="A259" s="3" t="s">
         <v>496</v>
       </c>
@@ -6905,7 +6966,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="78">
+    <row r="260" spans="1:2" ht="78.75">
       <c r="A260" s="3" t="s">
         <v>498</v>
       </c>
@@ -6913,7 +6974,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="78">
+    <row r="261" spans="1:2" ht="78.75">
       <c r="A261" s="3" t="s">
         <v>500</v>
       </c>
@@ -6921,7 +6982,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="46.8">
+    <row r="262" spans="1:2" ht="47.25">
       <c r="A262" s="3" t="s">
         <v>503</v>
       </c>
@@ -6945,7 +7006,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="46.8">
+    <row r="265" spans="1:2" ht="47.25">
       <c r="A265" s="3" t="s">
         <v>507</v>
       </c>
@@ -6961,7 +7022,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="31.2">
+    <row r="267" spans="1:2" ht="31.5">
       <c r="A267" s="3" t="s">
         <v>509</v>
       </c>
@@ -6969,7 +7030,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="31.2">
+    <row r="268" spans="1:2" ht="31.5">
       <c r="A268" s="3" t="s">
         <v>510</v>
       </c>
@@ -6985,7 +7046,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="31.2">
+    <row r="270" spans="1:2">
       <c r="A270" s="3" t="s">
         <v>512</v>
       </c>
@@ -7001,7 +7062,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="31.2">
+    <row r="272" spans="1:2" ht="31.5">
       <c r="A272" s="3" t="s">
         <v>514</v>
       </c>
@@ -7009,7 +7070,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="31.2">
+    <row r="273" spans="1:2" ht="31.5">
       <c r="A273" s="3" t="s">
         <v>515</v>
       </c>
@@ -7017,7 +7078,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="31.2">
+    <row r="274" spans="1:2" ht="31.5">
       <c r="A274" s="3" t="s">
         <v>516</v>
       </c>
@@ -7025,7 +7086,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="46.8">
+    <row r="275" spans="1:2" ht="47.25">
       <c r="A275" s="3" t="s">
         <v>517</v>
       </c>
@@ -7033,7 +7094,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="62.4">
+    <row r="276" spans="1:2" ht="47.25">
       <c r="A276" s="3" t="s">
         <v>518</v>
       </c>
@@ -7041,7 +7102,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="62.4">
+    <row r="277" spans="1:2" ht="63">
       <c r="A277" s="3" t="s">
         <v>519</v>
       </c>
@@ -7049,7 +7110,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="78">
+    <row r="278" spans="1:2" ht="78.75">
       <c r="A278" s="3" t="s">
         <v>520</v>
       </c>
@@ -7057,7 +7118,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="78">
+    <row r="279" spans="1:2" ht="78.75">
       <c r="A279" s="3" t="s">
         <v>521</v>
       </c>
@@ -7065,7 +7126,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="46.8">
+    <row r="280" spans="1:2" ht="47.25">
       <c r="A280" s="3" t="s">
         <v>522</v>
       </c>
@@ -7089,7 +7150,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="31.2">
+    <row r="283" spans="1:2" ht="31.5">
       <c r="A283" s="3" t="s">
         <v>524</v>
       </c>
@@ -7105,7 +7166,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="31.2">
+    <row r="285" spans="1:2" ht="31.5">
       <c r="A285" s="3" t="s">
         <v>528</v>
       </c>
@@ -7129,7 +7190,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="46.8">
+    <row r="288" spans="1:2" ht="47.25">
       <c r="A288" s="3" t="s">
         <v>537</v>
       </c>
@@ -7153,7 +7214,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="78">
+    <row r="291" spans="1:2" ht="78.75">
       <c r="A291" s="3" t="s">
         <v>545</v>
       </c>
@@ -7177,7 +7238,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="46.8">
+    <row r="294" spans="1:2" ht="47.25">
       <c r="A294" s="3" t="s">
         <v>549</v>
       </c>
@@ -7193,7 +7254,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="31.2">
+    <row r="296" spans="1:2" ht="31.5">
       <c r="A296" s="3" t="s">
         <v>551</v>
       </c>
@@ -7201,7 +7262,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="31.2">
+    <row r="297" spans="1:2" ht="31.5">
       <c r="A297" s="3" t="s">
         <v>552</v>
       </c>
@@ -7217,7 +7278,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="31.2">
+    <row r="299" spans="1:2">
       <c r="A299" s="3" t="s">
         <v>554</v>
       </c>
@@ -7233,7 +7294,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="31.2">
+    <row r="301" spans="1:2" ht="31.5">
       <c r="A301" s="3" t="s">
         <v>556</v>
       </c>
@@ -7241,7 +7302,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="31.2">
+    <row r="302" spans="1:2" ht="31.5">
       <c r="A302" s="3" t="s">
         <v>557</v>
       </c>
@@ -7249,7 +7310,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="31.2">
+    <row r="303" spans="1:2" ht="31.5">
       <c r="A303" s="3" t="s">
         <v>558</v>
       </c>
@@ -7257,7 +7318,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="46.8">
+    <row r="304" spans="1:2" ht="47.25">
       <c r="A304" s="3" t="s">
         <v>559</v>
       </c>
@@ -7265,7 +7326,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="62.4">
+    <row r="305" spans="1:2" ht="47.25">
       <c r="A305" s="3" t="s">
         <v>560</v>
       </c>
@@ -7273,7 +7334,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="62.4">
+    <row r="306" spans="1:2" ht="63">
       <c r="A306" s="3" t="s">
         <v>561</v>
       </c>
@@ -7281,7 +7342,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="78">
+    <row r="307" spans="1:2" ht="78.75">
       <c r="A307" s="3" t="s">
         <v>562</v>
       </c>
@@ -7289,7 +7350,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="78">
+    <row r="308" spans="1:2" ht="78.75">
       <c r="A308" s="3" t="s">
         <v>563</v>
       </c>
@@ -7297,7 +7358,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="46.8">
+    <row r="309" spans="1:2" ht="47.25">
       <c r="A309" s="3" t="s">
         <v>564</v>
       </c>
@@ -7329,7 +7390,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="93.6">
+    <row r="313" spans="1:2" ht="94.5">
       <c r="A313" s="3" t="s">
         <v>566</v>
       </c>
@@ -7337,7 +7398,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="31.2">
+    <row r="314" spans="1:2" ht="31.5">
       <c r="A314" s="3" t="s">
         <v>569</v>
       </c>
@@ -7385,7 +7446,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="31.2">
+    <row r="320" spans="1:2" ht="31.5">
       <c r="A320" s="3" t="s">
         <v>584</v>
       </c>
@@ -7417,7 +7478,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="46.8">
+    <row r="324" spans="1:2" ht="31.5">
       <c r="A324" s="3" t="s">
         <v>595</v>
       </c>
@@ -7433,7 +7494,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="31.2">
+    <row r="326" spans="1:2" ht="31.5">
       <c r="A326" s="3" t="s">
         <v>601</v>
       </c>
@@ -7449,7 +7510,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="62.4">
+    <row r="328" spans="1:2" ht="63">
       <c r="A328" s="3" t="s">
         <v>607</v>
       </c>
@@ -7457,7 +7518,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="46.8">
+    <row r="329" spans="1:2" ht="47.25">
       <c r="A329" s="3" t="s">
         <v>609</v>
       </c>
@@ -7473,7 +7534,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="31.2">
+    <row r="331" spans="1:2" ht="31.5">
       <c r="A331" s="3" t="s">
         <v>613</v>
       </c>
@@ -7481,7 +7542,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="31.2">
+    <row r="332" spans="1:2" ht="31.5">
       <c r="A332" s="3" t="s">
         <v>616</v>
       </c>
@@ -7537,7 +7598,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="31.2">
+    <row r="339" spans="1:2" ht="31.5">
       <c r="A339" s="3" t="s">
         <v>630</v>
       </c>
@@ -7577,7 +7638,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="93.6">
+    <row r="344" spans="1:2" ht="94.5">
       <c r="A344" s="3" t="s">
         <v>638</v>
       </c>
@@ -7585,7 +7646,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="31.2">
+    <row r="345" spans="1:2" ht="31.5">
       <c r="A345" s="3" t="s">
         <v>639</v>
       </c>
@@ -7633,7 +7694,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="31.2">
+    <row r="351" spans="1:2" ht="31.5">
       <c r="A351" s="3" t="s">
         <v>652</v>
       </c>
@@ -7641,7 +7702,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="31.2">
+    <row r="352" spans="1:2" ht="31.5">
       <c r="A352" s="3" t="s">
         <v>654</v>
       </c>
@@ -7649,7 +7710,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="31.2">
+    <row r="353" spans="1:2" ht="31.5">
       <c r="A353" s="3" t="s">
         <v>656</v>
       </c>
@@ -7657,7 +7718,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="46.8">
+    <row r="354" spans="1:2" ht="31.5">
       <c r="A354" s="3" t="s">
         <v>658</v>
       </c>
@@ -7713,7 +7774,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="31.2">
+    <row r="361" spans="1:2" ht="31.5">
       <c r="A361" s="3" t="s">
         <v>667</v>
       </c>
@@ -7753,7 +7814,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="78">
+    <row r="366" spans="1:2" ht="78.75">
       <c r="A366" s="3" t="s">
         <v>671</v>
       </c>
@@ -7761,7 +7822,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="31.2">
+    <row r="367" spans="1:2" ht="31.5">
       <c r="A367" s="3" t="s">
         <v>673</v>
       </c>
@@ -7793,7 +7854,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="31.2">
+    <row r="371" spans="1:2" ht="31.5">
       <c r="A371" s="3" t="s">
         <v>679</v>
       </c>
@@ -7801,7 +7862,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="31.2">
+    <row r="372" spans="1:2" ht="31.5">
       <c r="A372" s="3" t="s">
         <v>682</v>
       </c>
@@ -7817,7 +7878,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="31.2">
+    <row r="374" spans="1:2" ht="31.5">
       <c r="A374" s="3" t="s">
         <v>687</v>
       </c>
@@ -7825,7 +7886,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="31.2">
+    <row r="375" spans="1:2" ht="31.5">
       <c r="A375" s="3" t="s">
         <v>689</v>
       </c>
@@ -7833,7 +7894,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="46.8">
+    <row r="376" spans="1:2" ht="31.5">
       <c r="A376" s="3" t="s">
         <v>691</v>
       </c>
@@ -7889,7 +7950,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="31.2">
+    <row r="383" spans="1:2" ht="31.5">
       <c r="A383" s="3" t="s">
         <v>698</v>
       </c>
@@ -7929,7 +7990,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="78">
+    <row r="388" spans="1:2" ht="78.75">
       <c r="A388" s="3" t="s">
         <v>702</v>
       </c>
@@ -7937,7 +7998,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="31.2">
+    <row r="389" spans="1:2" ht="31.5">
       <c r="A389" s="3" t="s">
         <v>703</v>
       </c>
@@ -7993,7 +8054,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="31.2">
+    <row r="396" spans="1:2" ht="31.5">
       <c r="A396" s="3" t="s">
         <v>714</v>
       </c>
@@ -8017,7 +8078,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="31.2">
+    <row r="399" spans="1:2" ht="31.5">
       <c r="A399" s="3" t="s">
         <v>722</v>
       </c>
@@ -8057,7 +8118,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="31.2">
+    <row r="404" spans="1:2" ht="31.5">
       <c r="A404" s="3" t="s">
         <v>732</v>
       </c>
@@ -8081,7 +8142,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="31.2">
+    <row r="407" spans="1:2" ht="31.5">
       <c r="A407" s="3" t="s">
         <v>735</v>
       </c>
@@ -8097,7 +8158,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="62.4">
+    <row r="409" spans="1:2" ht="63">
       <c r="A409" s="3" t="s">
         <v>737</v>
       </c>
@@ -8105,7 +8166,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="46.8">
+    <row r="410" spans="1:2" ht="47.25">
       <c r="A410" s="3" t="s">
         <v>739</v>
       </c>
@@ -8121,7 +8182,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="31.2">
+    <row r="412" spans="1:2" ht="31.5">
       <c r="A412" s="3" t="s">
         <v>742</v>
       </c>
@@ -8177,7 +8238,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="31.2">
+    <row r="419" spans="1:2" ht="31.5">
       <c r="A419" s="3" t="s">
         <v>749</v>
       </c>
@@ -8273,7 +8334,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="78">
+    <row r="431" spans="1:2" ht="78.75">
       <c r="A431" s="3" t="s">
         <v>758</v>
       </c>
@@ -8281,7 +8342,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="31.2">
+    <row r="432" spans="1:2" ht="31.5">
       <c r="A432" s="3" t="s">
         <v>759</v>
       </c>
@@ -8337,7 +8398,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="31.2">
+    <row r="439" spans="1:2" ht="31.5">
       <c r="A439" s="3" t="s">
         <v>768</v>
       </c>
@@ -8345,7 +8406,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="46.8">
+    <row r="440" spans="1:2" ht="47.25">
       <c r="A440" s="3" t="s">
         <v>770</v>
       </c>
@@ -8409,7 +8470,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="31.2">
+    <row r="448" spans="1:2" ht="31.5">
       <c r="A448" s="3" t="s">
         <v>779</v>
       </c>
@@ -8446,27 +8507,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H471"/>
+  <dimension ref="A1:H472"/>
   <sheetViews>
-    <sheetView topLeftCell="A445" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F449" sqref="F449:F471"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.8984375" style="52" customWidth="1"/>
+    <col min="1" max="1" width="17.875" style="52" customWidth="1"/>
     <col min="2" max="2" width="12" style="50" customWidth="1"/>
     <col min="3" max="3" width="91.5" style="50" customWidth="1"/>
-    <col min="4" max="4" width="20.3984375" style="50" customWidth="1"/>
-    <col min="5" max="5" width="155.3984375" style="50" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="62.69921875" style="50" customWidth="1"/>
-    <col min="7" max="7" width="84.59765625" style="50" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="50" customWidth="1"/>
+    <col min="5" max="5" width="155.375" style="50" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="62.75" style="50" customWidth="1"/>
+    <col min="7" max="7" width="84.625" style="50" customWidth="1"/>
     <col min="8" max="8" width="9" style="51"/>
     <col min="9" max="1027" width="8.5" style="34" customWidth="1"/>
     <col min="1028" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="54" customFormat="1" ht="15.6">
+    <row r="1" spans="1:8" s="54" customFormat="1" ht="15.75">
       <c r="A1" s="33" t="s">
         <v>52</v>
       </c>
@@ -8490,7 +8551,7 @@
       </c>
       <c r="H1" s="53"/>
     </row>
-    <row r="2" spans="1:8" ht="15.6">
+    <row r="2" spans="1:8" ht="15.75">
       <c r="A2" s="35" t="s">
         <v>58</v>
       </c>
@@ -11396,7 +11457,7 @@
       <c r="F157" s="37"/>
       <c r="G157" s="41"/>
     </row>
-    <row r="158" spans="1:7" ht="15.6">
+    <row r="158" spans="1:7" ht="15.75">
       <c r="A158" s="35" t="s">
         <v>58</v>
       </c>
@@ -11441,7 +11502,7 @@
       <c r="F160" s="37"/>
       <c r="G160" s="41"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:8">
       <c r="A161" s="38" t="s">
         <v>58</v>
       </c>
@@ -11449,7 +11510,7 @@
         <v>286</v>
       </c>
       <c r="C161" s="38" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D161" s="38">
         <v>76.099999999999994</v>
@@ -11460,7 +11521,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:8">
       <c r="A162" s="38" t="s">
         <v>58</v>
       </c>
@@ -11468,7 +11529,7 @@
         <v>289</v>
       </c>
       <c r="C162" s="38" t="s">
-        <v>290</v>
+        <v>1304</v>
       </c>
       <c r="D162" s="38">
         <v>76.2</v>
@@ -11477,7 +11538,7 @@
       <c r="F162" s="38"/>
       <c r="G162" s="38"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:8">
       <c r="A163" s="38" t="s">
         <v>58</v>
       </c>
@@ -11485,16 +11546,16 @@
         <v>291</v>
       </c>
       <c r="C163" s="38" t="s">
-        <v>292</v>
-      </c>
-      <c r="D163" s="38">
-        <v>76.3</v>
+        <v>294</v>
+      </c>
+      <c r="D163" s="38" t="s">
+        <v>864</v>
       </c>
       <c r="E163" s="38"/>
       <c r="F163" s="38"/>
       <c r="G163" s="38"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:8">
       <c r="A164" s="38" t="s">
         <v>58</v>
       </c>
@@ -11502,231 +11563,232 @@
         <v>293</v>
       </c>
       <c r="C164" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="D164" s="38">
-        <v>76.400000000000006</v>
+        <v>1303</v>
+      </c>
+      <c r="D164" s="38" t="s">
+        <v>1305</v>
       </c>
       <c r="E164" s="38"/>
       <c r="F164" s="38"/>
       <c r="G164" s="38"/>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:8">
       <c r="A165" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B165" s="38" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C165" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="D165" s="38" t="s">
+        <v>866</v>
+      </c>
+      <c r="E165" s="38"/>
+      <c r="F165" s="38"/>
+      <c r="G165" s="38" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B166" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="C165" s="41" t="s">
+      <c r="C166" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D165" s="41"/>
-      <c r="E165" s="41"/>
-      <c r="F165" s="41"/>
-      <c r="G165" s="41"/>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B166" s="38" t="s">
+      <c r="D166" s="41"/>
+      <c r="E166" s="41"/>
+      <c r="F166" s="41"/>
+      <c r="G166" s="41"/>
+    </row>
+    <row r="167" spans="1:8" s="70" customFormat="1">
+      <c r="A167" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B167" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="C166" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="D166" s="38">
-        <v>76.5</v>
-      </c>
-      <c r="E166" s="38"/>
-      <c r="F166" s="38"/>
-      <c r="G166" s="38" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B167" s="38" t="s">
+      <c r="C167" s="40" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D167" s="40" t="s">
+        <v>868</v>
+      </c>
+      <c r="E167" s="40"/>
+      <c r="F167" s="40"/>
+      <c r="G167" s="40"/>
+      <c r="H167" s="69"/>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B168" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="C167" s="38" t="s">
+      <c r="C168" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="D167" s="38">
+      <c r="D168" s="38">
         <v>76.599999999999994</v>
-      </c>
-      <c r="E167" s="38"/>
-      <c r="F167" s="38"/>
-      <c r="G167" s="38"/>
-    </row>
-    <row r="168" spans="1:7" ht="30">
-      <c r="A168" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B168" s="38" t="s">
-        <v>301</v>
-      </c>
-      <c r="C168" s="38" t="s">
-        <v>302</v>
-      </c>
-      <c r="D168" s="38">
-        <v>76.7</v>
       </c>
       <c r="E168" s="38"/>
       <c r="F168" s="38"/>
       <c r="G168" s="38"/>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:8" ht="30">
       <c r="A169" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B169" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="C169" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="D169" s="38">
+        <v>76.7</v>
+      </c>
+      <c r="E169" s="38"/>
+      <c r="F169" s="38"/>
+      <c r="G169" s="38"/>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B170" s="38" t="s">
         <v>303</v>
       </c>
-      <c r="C169" s="38" t="s">
+      <c r="C170" s="38" t="s">
         <v>1119</v>
       </c>
-      <c r="D169" s="40" t="s">
+      <c r="D170" s="40" t="s">
         <v>949</v>
-      </c>
-      <c r="E169" s="40"/>
-      <c r="F169" s="40"/>
-      <c r="G169" s="38"/>
-    </row>
-    <row r="170" spans="1:7" ht="30">
-      <c r="A170" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B170" s="38" t="s">
-        <v>305</v>
-      </c>
-      <c r="C170" s="38" t="s">
-        <v>306</v>
-      </c>
-      <c r="D170" s="40">
-        <v>76.39</v>
       </c>
       <c r="E170" s="40"/>
       <c r="F170" s="40"/>
       <c r="G170" s="38"/>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:8" ht="30">
       <c r="A171" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B171" s="38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C171" s="38" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D171" s="40">
-        <v>76.400000000000006</v>
+        <v>76.39</v>
       </c>
       <c r="E171" s="40"/>
       <c r="F171" s="40"/>
       <c r="G171" s="38"/>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:8">
       <c r="A172" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B172" s="38" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C172" s="38" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D172" s="40">
-        <v>76.41</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="E172" s="40"/>
       <c r="F172" s="40"/>
       <c r="G172" s="38"/>
     </row>
-    <row r="173" spans="1:7" ht="30">
+    <row r="173" spans="1:8">
       <c r="A173" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B173" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C173" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D173" s="40">
-        <v>76.42</v>
+        <v>76.41</v>
       </c>
       <c r="E173" s="40"/>
       <c r="F173" s="40"/>
       <c r="G173" s="38"/>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:8" ht="30">
       <c r="A174" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B174" s="38" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C174" s="38" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="D174" s="40">
-        <v>76.430000000000007</v>
+        <v>76.42</v>
       </c>
       <c r="E174" s="40"/>
       <c r="F174" s="40"/>
       <c r="G174" s="38"/>
     </row>
-    <row r="175" spans="1:7" ht="45">
+    <row r="175" spans="1:8">
       <c r="A175" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B175" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="C175" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="D175" s="40">
+        <v>76.430000000000007</v>
+      </c>
+      <c r="E175" s="40"/>
+      <c r="F175" s="40"/>
+      <c r="G175" s="38"/>
+    </row>
+    <row r="176" spans="1:8" ht="30">
+      <c r="A176" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B176" s="38" t="s">
         <v>315</v>
       </c>
-      <c r="C175" s="38" t="s">
+      <c r="C176" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="D175" s="38">
+      <c r="D176" s="38">
         <v>76.44</v>
-      </c>
-      <c r="E175" s="38"/>
-      <c r="F175" s="38"/>
-      <c r="G175" s="38"/>
-    </row>
-    <row r="176" spans="1:7" ht="30">
-      <c r="A176" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B176" s="38" t="s">
-        <v>317</v>
-      </c>
-      <c r="C176" s="38" t="s">
-        <v>318</v>
-      </c>
-      <c r="D176" s="38">
-        <v>76.45</v>
       </c>
       <c r="E176" s="38"/>
       <c r="F176" s="38"/>
       <c r="G176" s="38"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" ht="30">
       <c r="A177" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B177" s="38" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C177" s="38" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D177" s="38">
-        <v>76.459999999999994</v>
+        <v>76.45</v>
       </c>
       <c r="E177" s="38"/>
       <c r="F177" s="38"/>
@@ -11736,80 +11798,80 @@
       <c r="A178" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B178" s="38">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C178" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D178" s="41"/>
-      <c r="E178" s="41"/>
-      <c r="F178" s="41"/>
-      <c r="G178" s="42"/>
+      <c r="B178" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="C178" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="D178" s="38">
+        <v>76.459999999999994</v>
+      </c>
+      <c r="E178" s="38"/>
+      <c r="F178" s="38"/>
+      <c r="G178" s="38"/>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B179" s="38" t="s">
-        <v>321</v>
-      </c>
-      <c r="C179" s="41" t="s">
-        <v>24</v>
+      <c r="B179" s="38">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C179" s="42" t="s">
+        <v>23</v>
       </c>
       <c r="D179" s="41"/>
       <c r="E179" s="41"/>
       <c r="F179" s="41"/>
-      <c r="G179" s="41"/>
+      <c r="G179" s="42"/>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B180" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="C180" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="D180" s="38">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="E180" s="38"/>
-      <c r="F180" s="38"/>
-      <c r="G180" s="38" t="s">
-        <v>288</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="C180" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D180" s="41"/>
+      <c r="E180" s="41"/>
+      <c r="F180" s="41"/>
+      <c r="G180" s="41"/>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B181" s="38" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C181" s="38" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D181" s="38">
-        <v>76.2</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="E181" s="38"/>
       <c r="F181" s="38"/>
-      <c r="G181" s="38"/>
+      <c r="G181" s="38" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B182" s="38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C182" s="38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D182" s="38">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="E182" s="38"/>
       <c r="F182" s="38"/>
@@ -11820,13 +11882,13 @@
         <v>58</v>
       </c>
       <c r="B183" s="38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C183" s="38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D183" s="38">
-        <v>76.400000000000006</v>
+        <v>76.3</v>
       </c>
       <c r="E183" s="38"/>
       <c r="F183" s="38"/>
@@ -11837,115 +11899,115 @@
         <v>58</v>
       </c>
       <c r="B184" s="38" t="s">
-        <v>326</v>
-      </c>
-      <c r="C184" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D184" s="41"/>
-      <c r="E184" s="41"/>
-      <c r="F184" s="41"/>
-      <c r="G184" s="41"/>
+        <v>325</v>
+      </c>
+      <c r="C184" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="D184" s="38">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="E184" s="38"/>
+      <c r="F184" s="38"/>
+      <c r="G184" s="38"/>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B185" s="38" t="s">
-        <v>327</v>
-      </c>
-      <c r="C185" s="38" t="s">
-        <v>297</v>
-      </c>
-      <c r="D185" s="38">
-        <v>76.5</v>
-      </c>
-      <c r="E185" s="38"/>
-      <c r="F185" s="38"/>
-      <c r="G185" s="38" t="s">
-        <v>298</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="C185" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185" s="41"/>
+      <c r="E185" s="41"/>
+      <c r="F185" s="41"/>
+      <c r="G185" s="41"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B186" s="38" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C186" s="38" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D186" s="38">
-        <v>76.599999999999994</v>
+        <v>76.5</v>
       </c>
       <c r="E186" s="38"/>
       <c r="F186" s="38"/>
-      <c r="G186" s="38"/>
-    </row>
-    <row r="187" spans="1:7" ht="30">
+      <c r="G186" s="38" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B187" s="38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C187" s="38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D187" s="38">
-        <v>76.7</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="E187" s="38"/>
       <c r="F187" s="38"/>
       <c r="G187" s="38"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" ht="30">
       <c r="A188" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B188" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="C188" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="D188" s="38">
+        <v>76.7</v>
+      </c>
+      <c r="E188" s="38"/>
+      <c r="F188" s="38"/>
+      <c r="G188" s="38"/>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B189" s="38" t="s">
         <v>330</v>
       </c>
-      <c r="C188" s="38" t="s">
+      <c r="C189" s="38" t="s">
         <v>1118</v>
       </c>
-      <c r="D188" s="40" t="s">
+      <c r="D189" s="40" t="s">
         <v>949</v>
-      </c>
-      <c r="E188" s="40"/>
-      <c r="F188" s="40"/>
-      <c r="G188" s="38"/>
-    </row>
-    <row r="189" spans="1:7" ht="30">
-      <c r="A189" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B189" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="C189" s="38" t="s">
-        <v>306</v>
-      </c>
-      <c r="D189" s="40">
-        <v>76.39</v>
       </c>
       <c r="E189" s="40"/>
       <c r="F189" s="40"/>
       <c r="G189" s="38"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" ht="30">
       <c r="A190" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B190" s="38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C190" s="38" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D190" s="40">
-        <v>76.400000000000006</v>
+        <v>76.39</v>
       </c>
       <c r="E190" s="40"/>
       <c r="F190" s="40"/>
@@ -11956,67 +12018,67 @@
         <v>58</v>
       </c>
       <c r="B191" s="38" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C191" s="38" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="D191" s="40">
-        <v>76.41</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="E191" s="40"/>
       <c r="F191" s="40"/>
       <c r="G191" s="38"/>
     </row>
-    <row r="192" spans="1:7" ht="30">
+    <row r="192" spans="1:7">
       <c r="A192" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B192" s="38" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C192" s="38" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D192" s="40">
-        <v>76.42</v>
+        <v>76.41</v>
       </c>
       <c r="E192" s="40"/>
       <c r="F192" s="40"/>
       <c r="G192" s="38"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" ht="30">
       <c r="A193" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B193" s="38" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C193" s="38" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D193" s="40">
-        <v>76.430000000000007</v>
+        <v>76.42</v>
       </c>
       <c r="E193" s="40"/>
       <c r="F193" s="40"/>
       <c r="G193" s="38"/>
     </row>
-    <row r="194" spans="1:7" ht="45">
+    <row r="194" spans="1:7">
       <c r="A194" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B194" s="38" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C194" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="D194" s="38">
-        <v>76.44</v>
-      </c>
-      <c r="E194" s="38"/>
-      <c r="F194" s="38"/>
+        <v>339</v>
+      </c>
+      <c r="D194" s="40">
+        <v>76.430000000000007</v>
+      </c>
+      <c r="E194" s="40"/>
+      <c r="F194" s="40"/>
       <c r="G194" s="38"/>
     </row>
     <row r="195" spans="1:7" ht="30">
@@ -12024,30 +12086,30 @@
         <v>58</v>
       </c>
       <c r="B195" s="38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C195" s="38" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D195" s="38">
-        <v>76.45</v>
+        <v>76.44</v>
       </c>
       <c r="E195" s="38"/>
       <c r="F195" s="38"/>
       <c r="G195" s="38"/>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" ht="30">
       <c r="A196" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B196" s="38" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C196" s="38" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D196" s="38">
-        <v>76.459999999999994</v>
+        <v>76.45</v>
       </c>
       <c r="E196" s="38"/>
       <c r="F196" s="38"/>
@@ -12057,26 +12119,28 @@
       <c r="A197" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B197" s="38">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C197" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D197" s="41"/>
-      <c r="E197" s="41"/>
-      <c r="F197" s="41"/>
-      <c r="G197" s="41"/>
+      <c r="B197" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="C197" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="D197" s="38">
+        <v>76.459999999999994</v>
+      </c>
+      <c r="E197" s="38"/>
+      <c r="F197" s="38"/>
+      <c r="G197" s="38"/>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B198" s="38" t="s">
-        <v>343</v>
-      </c>
-      <c r="C198" s="41" t="s">
-        <v>27</v>
+      <c r="B198" s="38">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C198" s="37" t="s">
+        <v>26</v>
       </c>
       <c r="D198" s="41"/>
       <c r="E198" s="41"/>
@@ -12088,49 +12152,47 @@
         <v>58</v>
       </c>
       <c r="B199" s="38" t="s">
-        <v>344</v>
-      </c>
-      <c r="C199" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="D199" s="38">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="E199" s="38"/>
-      <c r="F199" s="38"/>
-      <c r="G199" s="38" t="s">
-        <v>288</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="C199" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D199" s="41"/>
+      <c r="E199" s="41"/>
+      <c r="F199" s="41"/>
+      <c r="G199" s="41"/>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B200" s="38" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C200" s="38" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D200" s="38">
-        <v>76.2</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="E200" s="38"/>
       <c r="F200" s="38"/>
-      <c r="G200" s="38"/>
+      <c r="G200" s="38" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B201" s="38" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C201" s="38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D201" s="38">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="E201" s="38"/>
       <c r="F201" s="38"/>
@@ -12141,13 +12203,13 @@
         <v>58</v>
       </c>
       <c r="B202" s="38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C202" s="38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D202" s="38">
-        <v>76.400000000000006</v>
+        <v>76.3</v>
       </c>
       <c r="E202" s="38"/>
       <c r="F202" s="38"/>
@@ -12158,115 +12220,115 @@
         <v>58</v>
       </c>
       <c r="B203" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="C203" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="D203" s="38">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="E203" s="38"/>
+      <c r="F203" s="38"/>
+      <c r="G203" s="38"/>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B204" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="C203" s="41" t="s">
+      <c r="C204" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D203" s="41"/>
-      <c r="E203" s="41"/>
-      <c r="F203" s="41"/>
-      <c r="G203" s="41"/>
-    </row>
-    <row r="204" spans="1:7" ht="42" customHeight="1">
-      <c r="A204" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B204" s="38" t="s">
+      <c r="D204" s="41"/>
+      <c r="E204" s="41"/>
+      <c r="F204" s="41"/>
+      <c r="G204" s="41"/>
+    </row>
+    <row r="205" spans="1:7" ht="42" customHeight="1">
+      <c r="A205" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B205" s="38" t="s">
         <v>349</v>
       </c>
-      <c r="C204" s="38" t="s">
+      <c r="C205" s="38" t="s">
         <v>350</v>
       </c>
-      <c r="D204" s="38" t="s">
+      <c r="D205" s="38" t="s">
         <v>868</v>
-      </c>
-      <c r="E204" s="38"/>
-      <c r="F204" s="38"/>
-      <c r="G204" s="38" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
-      <c r="A205" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B205" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="C205" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="D205" s="38">
-        <v>76.599999999999994</v>
       </c>
       <c r="E205" s="38"/>
       <c r="F205" s="38"/>
-      <c r="G205" s="38"/>
-    </row>
-    <row r="206" spans="1:7" ht="36.75" customHeight="1">
+      <c r="G205" s="38" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B206" s="38" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C206" s="38" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="D206" s="38">
-        <v>76.7</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="E206" s="38"/>
       <c r="F206" s="38"/>
       <c r="G206" s="38"/>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" ht="36.75" customHeight="1">
       <c r="A207" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B207" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="C207" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="D207" s="38">
+        <v>76.7</v>
+      </c>
+      <c r="E207" s="38"/>
+      <c r="F207" s="38"/>
+      <c r="G207" s="38"/>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B208" s="38" t="s">
         <v>355</v>
       </c>
-      <c r="C207" s="38" t="s">
+      <c r="C208" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="D207" s="40" t="s">
+      <c r="D208" s="40" t="s">
         <v>949</v>
-      </c>
-      <c r="E207" s="40"/>
-      <c r="F207" s="40"/>
-      <c r="G207" s="38"/>
-    </row>
-    <row r="208" spans="1:7" ht="30">
-      <c r="A208" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B208" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="C208" s="38" t="s">
-        <v>306</v>
-      </c>
-      <c r="D208" s="40">
-        <v>76.39</v>
       </c>
       <c r="E208" s="40"/>
       <c r="F208" s="40"/>
       <c r="G208" s="38"/>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" ht="30">
       <c r="A209" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B209" s="38" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="C209" s="38" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D209" s="40">
-        <v>76.400000000000006</v>
+        <v>76.39</v>
       </c>
       <c r="E209" s="40"/>
       <c r="F209" s="40"/>
@@ -12277,67 +12339,67 @@
         <v>58</v>
       </c>
       <c r="B210" s="38" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C210" s="38" t="s">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="D210" s="40">
-        <v>76.41</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="E210" s="40"/>
       <c r="F210" s="40"/>
       <c r="G210" s="38"/>
     </row>
-    <row r="211" spans="1:7" ht="30">
+    <row r="211" spans="1:7">
       <c r="A211" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B211" s="38" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C211" s="38" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D211" s="40">
-        <v>76.42</v>
+        <v>76.41</v>
       </c>
       <c r="E211" s="40"/>
       <c r="F211" s="40"/>
       <c r="G211" s="38"/>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" ht="30">
       <c r="A212" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B212" s="38" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C212" s="38" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="D212" s="40">
-        <v>76.430000000000007</v>
+        <v>76.42</v>
       </c>
       <c r="E212" s="40"/>
       <c r="F212" s="40"/>
       <c r="G212" s="38"/>
     </row>
-    <row r="213" spans="1:7" ht="45">
+    <row r="213" spans="1:7">
       <c r="A213" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B213" s="38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C213" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="D213" s="38">
-        <v>76.44</v>
-      </c>
-      <c r="E213" s="38"/>
-      <c r="F213" s="38"/>
+        <v>339</v>
+      </c>
+      <c r="D213" s="40">
+        <v>76.430000000000007</v>
+      </c>
+      <c r="E213" s="40"/>
+      <c r="F213" s="40"/>
       <c r="G213" s="38"/>
     </row>
     <row r="214" spans="1:7" ht="30">
@@ -12345,30 +12407,30 @@
         <v>58</v>
       </c>
       <c r="B214" s="38" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C214" s="38" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D214" s="38">
-        <v>76.45</v>
+        <v>76.44</v>
       </c>
       <c r="E214" s="38"/>
       <c r="F214" s="38"/>
       <c r="G214" s="38"/>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" ht="30">
       <c r="A215" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B215" s="38" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C215" s="38" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D215" s="38">
-        <v>76.459999999999994</v>
+        <v>76.45</v>
       </c>
       <c r="E215" s="38"/>
       <c r="F215" s="38"/>
@@ -12378,97 +12440,97 @@
       <c r="A216" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B216" s="38">
-        <v>9.4</v>
-      </c>
-      <c r="C216" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="D216" s="41"/>
-      <c r="E216" s="41"/>
-      <c r="F216" s="41"/>
-      <c r="G216" s="43"/>
+      <c r="B216" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="C216" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="D216" s="38">
+        <v>76.459999999999994</v>
+      </c>
+      <c r="E216" s="38"/>
+      <c r="F216" s="38"/>
+      <c r="G216" s="38"/>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B217" s="38" t="s">
-        <v>367</v>
-      </c>
-      <c r="C217" s="41" t="s">
-        <v>368</v>
+      <c r="B217" s="38">
+        <v>9.4</v>
+      </c>
+      <c r="C217" s="42" t="s">
+        <v>366</v>
       </c>
       <c r="D217" s="41"/>
       <c r="E217" s="41"/>
       <c r="F217" s="41"/>
-      <c r="G217" s="41"/>
-    </row>
-    <row r="218" spans="1:7" ht="30">
+      <c r="G217" s="43"/>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B218" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="C218" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="D218" s="41"/>
+      <c r="E218" s="41"/>
+      <c r="F218" s="41"/>
+      <c r="G218" s="41"/>
+    </row>
+    <row r="219" spans="1:7" ht="30">
+      <c r="A219" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B219" s="38" t="s">
         <v>369</v>
       </c>
-      <c r="C218" s="38" t="s">
+      <c r="C219" s="38" t="s">
         <v>370</v>
       </c>
-      <c r="D218" s="38">
+      <c r="D219" s="38">
         <v>76.900000000000006</v>
-      </c>
-      <c r="E218" s="38"/>
-      <c r="F218" s="38"/>
-      <c r="G218" s="38" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7">
-      <c r="A219" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B219" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="C219" s="38" t="s">
-        <v>372</v>
-      </c>
-      <c r="D219" s="38">
-        <v>76.099999999999994</v>
       </c>
       <c r="E219" s="38"/>
       <c r="F219" s="38"/>
-      <c r="G219" s="38"/>
+      <c r="G219" s="38" t="s">
+        <v>1131</v>
+      </c>
     </row>
     <row r="220" spans="1:7">
       <c r="A220" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B220" s="38" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C220" s="38" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D220" s="38">
-        <v>76.11</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="E220" s="38"/>
       <c r="F220" s="38"/>
       <c r="G220" s="38"/>
     </row>
-    <row r="221" spans="1:7" ht="30">
+    <row r="221" spans="1:7">
       <c r="A221" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B221" s="38" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C221" s="38" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D221" s="38">
-        <v>76.12</v>
+        <v>76.11</v>
       </c>
       <c r="E221" s="38"/>
       <c r="F221" s="38"/>
@@ -12479,7 +12541,7 @@
         <v>58</v>
       </c>
       <c r="B222" s="38" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C222" s="38" t="s">
         <v>376</v>
@@ -12491,21 +12553,21 @@
       <c r="F222" s="38"/>
       <c r="G222" s="38"/>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" ht="30">
       <c r="A223" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B223" s="38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C223" s="38" t="s">
-        <v>379</v>
-      </c>
-      <c r="D223" s="40" t="s">
-        <v>889</v>
-      </c>
-      <c r="E223" s="40"/>
-      <c r="F223" s="40"/>
+        <v>376</v>
+      </c>
+      <c r="D223" s="38">
+        <v>76.12</v>
+      </c>
+      <c r="E223" s="38"/>
+      <c r="F223" s="38"/>
       <c r="G223" s="38"/>
     </row>
     <row r="224" spans="1:7">
@@ -12513,16 +12575,16 @@
         <v>58</v>
       </c>
       <c r="B224" s="38" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C224" s="38" t="s">
-        <v>381</v>
-      </c>
-      <c r="D224" s="38">
-        <v>76.14</v>
-      </c>
-      <c r="E224" s="38"/>
-      <c r="F224" s="38"/>
+        <v>379</v>
+      </c>
+      <c r="D224" s="40" t="s">
+        <v>889</v>
+      </c>
+      <c r="E224" s="40"/>
+      <c r="F224" s="40"/>
       <c r="G224" s="38"/>
     </row>
     <row r="225" spans="1:7">
@@ -12530,29 +12592,27 @@
         <v>58</v>
       </c>
       <c r="B225" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="C225" s="40" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D225" s="40" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E225" s="38" t="s">
-        <v>1099</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="C225" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="D225" s="38">
+        <v>76.14</v>
+      </c>
+      <c r="E225" s="38"/>
       <c r="F225" s="38"/>
       <c r="G225" s="38"/>
     </row>
-    <row r="226" spans="1:7" ht="30">
+    <row r="226" spans="1:7">
       <c r="A226" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B226" s="38" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C226" s="40" t="s">
-        <v>385</v>
+        <v>1092</v>
       </c>
       <c r="D226" s="40" t="s">
         <v>1130</v>
@@ -12568,15 +12628,17 @@
         <v>58</v>
       </c>
       <c r="B227" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="C227" s="38" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D227" s="38">
-        <v>76.16</v>
-      </c>
-      <c r="E227" s="38"/>
+        <v>384</v>
+      </c>
+      <c r="C227" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D227" s="40" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E227" s="38" t="s">
+        <v>1099</v>
+      </c>
       <c r="F227" s="38"/>
       <c r="G227" s="38"/>
     </row>
@@ -12585,13 +12647,13 @@
         <v>58</v>
       </c>
       <c r="B228" s="38" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C228" s="38" t="s">
-        <v>390</v>
+        <v>1100</v>
       </c>
       <c r="D228" s="38">
-        <v>76.17</v>
+        <v>76.16</v>
       </c>
       <c r="E228" s="38"/>
       <c r="F228" s="38"/>
@@ -12602,13 +12664,13 @@
         <v>58</v>
       </c>
       <c r="B229" s="38" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C229" s="38" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D229" s="38">
-        <v>76.180000000000007</v>
+        <v>76.17</v>
       </c>
       <c r="E229" s="38"/>
       <c r="F229" s="38"/>
@@ -12619,64 +12681,64 @@
         <v>58</v>
       </c>
       <c r="B230" s="38" t="s">
-        <v>393</v>
-      </c>
-      <c r="C230" s="41" t="s">
-        <v>394</v>
-      </c>
-      <c r="D230" s="41"/>
-      <c r="E230" s="41"/>
-      <c r="F230" s="41"/>
-      <c r="G230" s="41"/>
+        <v>391</v>
+      </c>
+      <c r="C230" s="38" t="s">
+        <v>392</v>
+      </c>
+      <c r="D230" s="38">
+        <v>76.180000000000007</v>
+      </c>
+      <c r="E230" s="38"/>
+      <c r="F230" s="38"/>
+      <c r="G230" s="38"/>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B231" s="38" t="s">
-        <v>395</v>
-      </c>
-      <c r="C231" s="38" t="s">
-        <v>396</v>
-      </c>
-      <c r="D231" s="38">
-        <v>76.19</v>
-      </c>
-      <c r="E231" s="38"/>
-      <c r="F231" s="38"/>
-      <c r="G231" s="38" t="s">
-        <v>1094</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="C231" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="D231" s="41"/>
+      <c r="E231" s="41"/>
+      <c r="F231" s="41"/>
+      <c r="G231" s="41"/>
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B232" s="38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C232" s="38" t="s">
-        <v>398</v>
-      </c>
-      <c r="D232" s="38" t="s">
-        <v>902</v>
+        <v>396</v>
+      </c>
+      <c r="D232" s="38">
+        <v>76.19</v>
       </c>
       <c r="E232" s="38"/>
       <c r="F232" s="38"/>
-      <c r="G232" s="38"/>
+      <c r="G232" s="38" t="s">
+        <v>1094</v>
+      </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B233" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C233" s="38" t="s">
-        <v>400</v>
-      </c>
-      <c r="D233" s="38">
-        <v>76.209999999999994</v>
+        <v>398</v>
+      </c>
+      <c r="D233" s="38" t="s">
+        <v>902</v>
       </c>
       <c r="E233" s="38"/>
       <c r="F233" s="38"/>
@@ -12687,13 +12749,13 @@
         <v>58</v>
       </c>
       <c r="B234" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C234" s="38" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D234" s="38">
-        <v>76.22</v>
+        <v>76.209999999999994</v>
       </c>
       <c r="E234" s="38"/>
       <c r="F234" s="38"/>
@@ -12704,18 +12766,16 @@
         <v>58</v>
       </c>
       <c r="B235" s="38" t="s">
-        <v>403</v>
-      </c>
-      <c r="C235" s="40" t="s">
-        <v>404</v>
-      </c>
-      <c r="D235" s="40" t="s">
-        <v>979</v>
-      </c>
-      <c r="E235" s="40" t="s">
-        <v>1129</v>
-      </c>
-      <c r="F235" s="40"/>
+        <v>401</v>
+      </c>
+      <c r="C235" s="38" t="s">
+        <v>402</v>
+      </c>
+      <c r="D235" s="38">
+        <v>76.22</v>
+      </c>
+      <c r="E235" s="38"/>
+      <c r="F235" s="38"/>
       <c r="G235" s="38"/>
     </row>
     <row r="236" spans="1:7">
@@ -12723,16 +12783,18 @@
         <v>58</v>
       </c>
       <c r="B236" s="38" t="s">
-        <v>405</v>
-      </c>
-      <c r="C236" s="38" t="s">
-        <v>406</v>
-      </c>
-      <c r="D236" s="38">
-        <v>76.23</v>
-      </c>
-      <c r="E236" s="38"/>
-      <c r="F236" s="38"/>
+        <v>403</v>
+      </c>
+      <c r="C236" s="40" t="s">
+        <v>404</v>
+      </c>
+      <c r="D236" s="40" t="s">
+        <v>979</v>
+      </c>
+      <c r="E236" s="40" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F236" s="40"/>
       <c r="G236" s="38"/>
     </row>
     <row r="237" spans="1:7">
@@ -12740,13 +12802,13 @@
         <v>58</v>
       </c>
       <c r="B237" s="38" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C237" s="38" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D237" s="38">
-        <v>76.239999999999995</v>
+        <v>76.23</v>
       </c>
       <c r="E237" s="38"/>
       <c r="F237" s="38"/>
@@ -12757,13 +12819,13 @@
         <v>58</v>
       </c>
       <c r="B238" s="38" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C238" s="38" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D238" s="38">
-        <v>76.25</v>
+        <v>76.239999999999995</v>
       </c>
       <c r="E238" s="38"/>
       <c r="F238" s="38"/>
@@ -12774,13 +12836,13 @@
         <v>58</v>
       </c>
       <c r="B239" s="38" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C239" s="38" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D239" s="38">
-        <v>76.260000000000005</v>
+        <v>76.25</v>
       </c>
       <c r="E239" s="38"/>
       <c r="F239" s="38"/>
@@ -12791,13 +12853,13 @@
         <v>58</v>
       </c>
       <c r="B240" s="38" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C240" s="38" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D240" s="38">
-        <v>76.27</v>
+        <v>76.260000000000005</v>
       </c>
       <c r="E240" s="38"/>
       <c r="F240" s="38"/>
@@ -12808,13 +12870,13 @@
         <v>58</v>
       </c>
       <c r="B241" s="38" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C241" s="38" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D241" s="38">
-        <v>76.28</v>
+        <v>76.27</v>
       </c>
       <c r="E241" s="38"/>
       <c r="F241" s="38"/>
@@ -12825,125 +12887,125 @@
         <v>58</v>
       </c>
       <c r="B242" s="38" t="s">
-        <v>417</v>
-      </c>
-      <c r="C242" s="41" t="s">
-        <v>418</v>
-      </c>
-      <c r="D242" s="41"/>
-      <c r="E242" s="41"/>
-      <c r="F242" s="41"/>
-      <c r="G242" s="41"/>
+        <v>415</v>
+      </c>
+      <c r="C242" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="D242" s="38">
+        <v>76.28</v>
+      </c>
+      <c r="E242" s="38"/>
+      <c r="F242" s="38"/>
+      <c r="G242" s="38"/>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B243" s="38" t="s">
-        <v>419</v>
-      </c>
-      <c r="C243" s="38" t="s">
-        <v>420</v>
-      </c>
-      <c r="D243" s="38">
-        <v>76.239999999999995</v>
-      </c>
-      <c r="E243" s="38"/>
-      <c r="F243" s="38"/>
-      <c r="G243" s="38" t="s">
-        <v>421</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="C243" s="41" t="s">
+        <v>418</v>
+      </c>
+      <c r="D243" s="41"/>
+      <c r="E243" s="41"/>
+      <c r="F243" s="41"/>
+      <c r="G243" s="41"/>
     </row>
     <row r="244" spans="1:7">
       <c r="A244" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B244" s="38" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C244" s="38" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D244" s="38">
-        <v>76.28</v>
+        <v>76.239999999999995</v>
       </c>
       <c r="E244" s="38"/>
       <c r="F244" s="38"/>
-      <c r="G244" s="38"/>
+      <c r="G244" s="38" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B245" s="38">
-        <v>9.5</v>
-      </c>
-      <c r="C245" s="37" t="s">
-        <v>424</v>
-      </c>
-      <c r="D245" s="41"/>
-      <c r="E245" s="41"/>
-      <c r="F245" s="41"/>
-      <c r="G245" s="41"/>
+      <c r="B245" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="C245" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="D245" s="38">
+        <v>76.28</v>
+      </c>
+      <c r="E245" s="38"/>
+      <c r="F245" s="38"/>
+      <c r="G245" s="38"/>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B246" s="38" t="s">
-        <v>425</v>
-      </c>
-      <c r="C246" s="44" t="s">
-        <v>426</v>
-      </c>
-      <c r="D246" s="38"/>
-      <c r="E246" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="F246" s="38"/>
-      <c r="G246" s="38"/>
+      <c r="B246" s="38">
+        <v>9.5</v>
+      </c>
+      <c r="C246" s="37" t="s">
+        <v>424</v>
+      </c>
+      <c r="D246" s="41"/>
+      <c r="E246" s="41"/>
+      <c r="F246" s="41"/>
+      <c r="G246" s="41"/>
     </row>
     <row r="247" spans="1:7">
       <c r="A247" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B247" s="38">
-        <v>9.6</v>
-      </c>
-      <c r="C247" s="42" t="s">
-        <v>29</v>
+      <c r="B247" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="C247" s="44" t="s">
+        <v>426</v>
       </c>
       <c r="D247" s="38"/>
-      <c r="E247" s="38"/>
+      <c r="E247" s="38" t="s">
+        <v>279</v>
+      </c>
       <c r="F247" s="38"/>
-      <c r="G247" s="43"/>
+      <c r="G247" s="38"/>
     </row>
     <row r="248" spans="1:7">
       <c r="A248" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B248" s="38" t="s">
-        <v>427</v>
-      </c>
-      <c r="C248" s="44" t="s">
-        <v>30</v>
+      <c r="B248" s="38">
+        <v>9.6</v>
+      </c>
+      <c r="C248" s="42" t="s">
+        <v>29</v>
       </c>
       <c r="D248" s="38"/>
-      <c r="E248" s="38" t="s">
-        <v>279</v>
-      </c>
+      <c r="E248" s="38"/>
       <c r="F248" s="38"/>
-      <c r="G248" s="38"/>
+      <c r="G248" s="43"/>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B249" s="38" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C249" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D249" s="38"/>
       <c r="E249" s="38" t="s">
@@ -12956,43 +13018,43 @@
       <c r="A250" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B250" s="38">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="C250" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D250" s="41"/>
-      <c r="E250" s="41"/>
-      <c r="F250" s="41"/>
-      <c r="G250" s="41"/>
+      <c r="B250" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="C250" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D250" s="38"/>
+      <c r="E250" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="F250" s="38"/>
+      <c r="G250" s="38"/>
     </row>
     <row r="251" spans="1:7">
       <c r="A251" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B251" s="38" t="s">
-        <v>429</v>
-      </c>
-      <c r="C251" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D251" s="38"/>
-      <c r="E251" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="F251" s="38"/>
-      <c r="G251" s="38"/>
+      <c r="B251" s="38">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C251" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D251" s="41"/>
+      <c r="E251" s="41"/>
+      <c r="F251" s="41"/>
+      <c r="G251" s="41"/>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B252" s="38" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C252" s="44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D252" s="38"/>
       <c r="E252" s="38" t="s">
@@ -13001,135 +13063,135 @@
       <c r="F252" s="38"/>
       <c r="G252" s="38"/>
     </row>
-    <row r="253" spans="1:7" ht="15.6">
+    <row r="253" spans="1:7">
       <c r="A253" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B253" s="35" t="s">
+      <c r="B253" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="C253" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D253" s="38"/>
+      <c r="E253" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="F253" s="38"/>
+      <c r="G253" s="38"/>
+    </row>
+    <row r="254" spans="1:7" ht="15.75">
+      <c r="A254" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B254" s="35" t="s">
         <v>1269</v>
       </c>
-      <c r="C253" s="36" t="s">
+      <c r="C254" s="36" t="s">
         <v>35</v>
-      </c>
-      <c r="D253" s="41"/>
-      <c r="E253" s="41"/>
-      <c r="F253" s="41"/>
-      <c r="G253" s="45"/>
-    </row>
-    <row r="254" spans="1:7">
-      <c r="A254" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B254" s="38">
-        <v>10.1</v>
-      </c>
-      <c r="C254" s="37" t="s">
-        <v>2</v>
       </c>
       <c r="D254" s="41"/>
       <c r="E254" s="41"/>
       <c r="F254" s="41"/>
-      <c r="G254" s="41"/>
+      <c r="G254" s="45"/>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B255" s="38" t="s">
-        <v>431</v>
-      </c>
-      <c r="C255" s="41" t="s">
-        <v>36</v>
+      <c r="B255" s="38">
+        <v>10.1</v>
+      </c>
+      <c r="C255" s="37" t="s">
+        <v>2</v>
       </c>
       <c r="D255" s="41"/>
       <c r="E255" s="41"/>
       <c r="F255" s="41"/>
       <c r="G255" s="41"/>
     </row>
-    <row r="256" spans="1:7" ht="30">
+    <row r="256" spans="1:7">
       <c r="A256" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B256" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="C256" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D256" s="41"/>
+      <c r="E256" s="41"/>
+      <c r="F256" s="41"/>
+      <c r="G256" s="41"/>
+    </row>
+    <row r="257" spans="1:7" ht="30">
+      <c r="A257" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B257" s="38" t="s">
         <v>432</v>
       </c>
-      <c r="C256" s="44" t="s">
+      <c r="C257" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="D256" s="38" t="s">
+      <c r="D257" s="38" t="s">
         <v>435</v>
-      </c>
-      <c r="E256" s="38"/>
-      <c r="F256" s="38"/>
-      <c r="G256" s="44" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7">
-      <c r="A257" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B257" s="38" t="s">
-        <v>436</v>
-      </c>
-      <c r="C257" s="44" t="s">
-        <v>437</v>
-      </c>
-      <c r="D257" s="38" t="s">
-        <v>438</v>
       </c>
       <c r="E257" s="38"/>
       <c r="F257" s="38"/>
-      <c r="G257" s="44"/>
+      <c r="G257" s="44" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B258" s="38" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C258" s="44" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D258" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="E258" s="59" t="s">
-        <v>1280</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="E258" s="38"/>
       <c r="F258" s="38"/>
       <c r="G258" s="44"/>
     </row>
-    <row r="259" spans="1:7" ht="30">
+    <row r="259" spans="1:7">
       <c r="A259" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B259" s="38" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C259" s="44" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D259" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="E259" s="38"/>
+        <v>441</v>
+      </c>
+      <c r="E259" s="59" t="s">
+        <v>1280</v>
+      </c>
       <c r="F259" s="38"/>
       <c r="G259" s="44"/>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" ht="30">
       <c r="A260" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B260" s="38" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C260" s="44" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D260" s="38" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E260" s="38"/>
       <c r="F260" s="38"/>
@@ -13140,138 +13202,138 @@
         <v>58</v>
       </c>
       <c r="B261" s="38" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C261" s="44" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D261" s="38" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E261" s="38"/>
       <c r="F261" s="38"/>
       <c r="G261" s="44"/>
     </row>
-    <row r="262" spans="1:7" ht="30">
+    <row r="262" spans="1:7">
       <c r="A262" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B262" s="38" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C262" s="44" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D262" s="38" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E262" s="38"/>
       <c r="F262" s="38"/>
       <c r="G262" s="44"/>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" ht="30">
       <c r="A263" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B263" s="38" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C263" s="44" t="s">
-        <v>1285</v>
+        <v>452</v>
       </c>
       <c r="D263" s="38" t="s">
-        <v>456</v>
-      </c>
-      <c r="E263" s="59" t="s">
-        <v>1280</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="E263" s="38"/>
       <c r="F263" s="38"/>
       <c r="G263" s="44"/>
     </row>
-    <row r="264" spans="1:7" ht="30">
+    <row r="264" spans="1:7">
       <c r="A264" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B264" s="38" t="s">
-        <v>1286</v>
+        <v>454</v>
       </c>
       <c r="C264" s="44" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="D264" s="38" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E264" s="38"/>
+        <v>456</v>
+      </c>
+      <c r="E264" s="59" t="s">
+        <v>1280</v>
+      </c>
       <c r="F264" s="38"/>
       <c r="G264" s="44"/>
     </row>
-    <row r="265" spans="1:7" ht="45">
+    <row r="265" spans="1:7" ht="30">
       <c r="A265" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B265" s="38" t="s">
-        <v>457</v>
+        <v>1286</v>
       </c>
       <c r="C265" s="44" t="s">
-        <v>458</v>
+        <v>1287</v>
       </c>
       <c r="D265" s="38" t="s">
-        <v>459</v>
+        <v>1157</v>
       </c>
       <c r="E265" s="38"/>
       <c r="F265" s="38"/>
       <c r="G265" s="44"/>
     </row>
-    <row r="266" spans="1:7" ht="30">
+    <row r="266" spans="1:7" ht="45">
       <c r="A266" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B266" s="38" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C266" s="44" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D266" s="38" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E266" s="38"/>
       <c r="F266" s="38"/>
       <c r="G266" s="44"/>
     </row>
-    <row r="267" spans="1:7" ht="45">
+    <row r="267" spans="1:7" ht="30">
       <c r="A267" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B267" s="38" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C267" s="44" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D267" s="38" t="s">
-        <v>465</v>
-      </c>
-      <c r="E267" s="59" t="s">
-        <v>1280</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="E267" s="38"/>
       <c r="F267" s="38"/>
       <c r="G267" s="44"/>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" ht="45">
       <c r="A268" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B268" s="38" t="s">
-        <v>1289</v>
+        <v>466</v>
       </c>
       <c r="C268" s="44" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D268" s="38" t="s">
-        <v>468</v>
-      </c>
-      <c r="E268" s="38"/>
+        <v>465</v>
+      </c>
+      <c r="E268" s="59" t="s">
+        <v>1280</v>
+      </c>
       <c r="F268" s="38"/>
       <c r="G268" s="44"/>
     </row>
@@ -13279,114 +13341,114 @@
       <c r="A269" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B269" s="38">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="C269" s="37" t="s">
-        <v>469</v>
-      </c>
-      <c r="D269" s="41"/>
-      <c r="E269" s="41"/>
-      <c r="F269" s="41"/>
-      <c r="G269" s="41"/>
+      <c r="B269" s="38" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C269" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="D269" s="38" t="s">
+        <v>468</v>
+      </c>
+      <c r="E269" s="38"/>
+      <c r="F269" s="38"/>
+      <c r="G269" s="44"/>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B270" s="38" t="s">
-        <v>470</v>
-      </c>
-      <c r="C270" s="41" t="s">
-        <v>36</v>
+      <c r="B270" s="38">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C270" s="37" t="s">
+        <v>469</v>
       </c>
       <c r="D270" s="41"/>
       <c r="E270" s="41"/>
       <c r="F270" s="41"/>
       <c r="G270" s="41"/>
     </row>
-    <row r="271" spans="1:7" ht="30">
+    <row r="271" spans="1:7">
       <c r="A271" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B271" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="C271" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D271" s="41"/>
+      <c r="E271" s="41"/>
+      <c r="F271" s="41"/>
+      <c r="G271" s="41"/>
+    </row>
+    <row r="272" spans="1:7" ht="30">
+      <c r="A272" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B272" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="C271" s="44" t="s">
+      <c r="C272" s="44" t="s">
         <v>472</v>
       </c>
-      <c r="D271" s="38" t="s">
+      <c r="D272" s="38" t="s">
         <v>435</v>
-      </c>
-      <c r="E271" s="38"/>
-      <c r="F271" s="38"/>
-      <c r="G271" s="44" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7">
-      <c r="A272" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B272" s="38" t="s">
-        <v>474</v>
-      </c>
-      <c r="C272" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="D272" s="38" t="s">
-        <v>438</v>
       </c>
       <c r="E272" s="38"/>
       <c r="F272" s="38"/>
-      <c r="G272" s="44"/>
+      <c r="G272" s="44" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B273" s="38" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C273" s="44" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D273" s="38" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E273" s="38"/>
       <c r="F273" s="38"/>
       <c r="G273" s="44"/>
     </row>
-    <row r="274" spans="1:7" ht="30">
+    <row r="274" spans="1:7">
       <c r="A274" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B274" s="38" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C274" s="44" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D274" s="38" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E274" s="38"/>
       <c r="F274" s="38"/>
       <c r="G274" s="44"/>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" ht="30">
       <c r="A275" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B275" s="38" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C275" s="44" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="D275" s="38" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E275" s="38"/>
       <c r="F275" s="38"/>
@@ -13397,13 +13459,13 @@
         <v>58</v>
       </c>
       <c r="B276" s="38" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C276" s="44" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D276" s="38" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E276" s="38"/>
       <c r="F276" s="38"/>
@@ -13414,30 +13476,30 @@
         <v>58</v>
       </c>
       <c r="B277" s="38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C277" s="44" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="D277" s="38" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E277" s="38"/>
       <c r="F277" s="38"/>
       <c r="G277" s="44"/>
     </row>
-    <row r="278" spans="1:7" ht="30">
+    <row r="278" spans="1:7">
       <c r="A278" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B278" s="38" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C278" s="44" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D278" s="38" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E278" s="38"/>
       <c r="F278" s="38"/>
@@ -13448,30 +13510,30 @@
         <v>58</v>
       </c>
       <c r="B279" s="38" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C279" s="44" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D279" s="38" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="E279" s="38"/>
       <c r="F279" s="38"/>
       <c r="G279" s="44"/>
     </row>
-    <row r="280" spans="1:7" ht="30">
+    <row r="280" spans="1:7">
       <c r="A280" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B280" s="38" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C280" s="44" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D280" s="38" t="s">
-        <v>1157</v>
+        <v>488</v>
       </c>
       <c r="E280" s="38"/>
       <c r="F280" s="38"/>
@@ -13482,13 +13544,13 @@
         <v>58</v>
       </c>
       <c r="B281" s="38" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C281" s="44" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D281" s="38" t="s">
-        <v>493</v>
+        <v>1157</v>
       </c>
       <c r="E281" s="38"/>
       <c r="F281" s="38"/>
@@ -13499,200 +13561,200 @@
         <v>58</v>
       </c>
       <c r="B282" s="38" t="s">
-        <v>494</v>
-      </c>
-      <c r="C282" s="38" t="s">
-        <v>495</v>
+        <v>491</v>
+      </c>
+      <c r="C282" s="44" t="s">
+        <v>492</v>
       </c>
       <c r="D282" s="38" t="s">
-        <v>462</v>
+        <v>493</v>
       </c>
       <c r="E282" s="38"/>
       <c r="F282" s="38"/>
-      <c r="G282" s="38"/>
-    </row>
-    <row r="283" spans="1:7" ht="45">
+      <c r="G282" s="44"/>
+    </row>
+    <row r="283" spans="1:7" ht="30">
       <c r="A283" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B283" s="38" t="s">
-        <v>496</v>
-      </c>
-      <c r="C283" s="44" t="s">
-        <v>497</v>
+        <v>494</v>
+      </c>
+      <c r="C283" s="38" t="s">
+        <v>495</v>
       </c>
       <c r="D283" s="38" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E283" s="38"/>
       <c r="F283" s="38"/>
-      <c r="G283" s="44"/>
+      <c r="G283" s="38"/>
     </row>
     <row r="284" spans="1:7" ht="45">
       <c r="A284" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B284" s="38" t="s">
-        <v>498</v>
-      </c>
-      <c r="C284" s="38" t="s">
-        <v>499</v>
+        <v>496</v>
+      </c>
+      <c r="C284" s="44" t="s">
+        <v>497</v>
       </c>
       <c r="D284" s="38" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E284" s="38"/>
       <c r="F284" s="38"/>
-      <c r="G284" s="38"/>
+      <c r="G284" s="44"/>
     </row>
     <row r="285" spans="1:7" ht="45">
       <c r="A285" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B285" s="38" t="s">
-        <v>500</v>
-      </c>
-      <c r="C285" s="44" t="s">
-        <v>501</v>
+        <v>498</v>
+      </c>
+      <c r="C285" s="38" t="s">
+        <v>499</v>
       </c>
       <c r="D285" s="38" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="E285" s="38"/>
       <c r="F285" s="38"/>
-      <c r="G285" s="44"/>
-    </row>
-    <row r="286" spans="1:7" ht="30">
+      <c r="G285" s="38"/>
+    </row>
+    <row r="286" spans="1:7" ht="45">
       <c r="A286" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B286" s="38" t="s">
+        <v>500</v>
+      </c>
+      <c r="C286" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="D286" s="38" t="s">
+        <v>502</v>
+      </c>
+      <c r="E286" s="38"/>
+      <c r="F286" s="38"/>
+      <c r="G286" s="44"/>
+    </row>
+    <row r="287" spans="1:7" ht="30">
+      <c r="A287" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B287" s="38" t="s">
         <v>503</v>
       </c>
-      <c r="C286" s="44" t="s">
+      <c r="C287" s="44" t="s">
         <v>504</v>
       </c>
-      <c r="D286" s="38" t="s">
+      <c r="D287" s="38" t="s">
         <v>505</v>
       </c>
-      <c r="E286" s="38"/>
-      <c r="F286" s="38" t="s">
+      <c r="E287" s="38"/>
+      <c r="F287" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G286" s="44"/>
-    </row>
-    <row r="287" spans="1:7">
-      <c r="A287" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B287" s="38">
-        <v>10.3</v>
-      </c>
-      <c r="C287" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="D287" s="41"/>
-      <c r="E287" s="41"/>
-      <c r="F287" s="41"/>
-      <c r="G287" s="41"/>
+      <c r="G287" s="44"/>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B288" s="38" t="s">
-        <v>506</v>
-      </c>
-      <c r="C288" s="41" t="s">
-        <v>36</v>
+      <c r="B288" s="38">
+        <v>10.3</v>
+      </c>
+      <c r="C288" s="37" t="s">
+        <v>37</v>
       </c>
       <c r="D288" s="41"/>
       <c r="E288" s="41"/>
       <c r="F288" s="41"/>
       <c r="G288" s="41"/>
     </row>
-    <row r="289" spans="1:7" ht="30">
+    <row r="289" spans="1:7">
       <c r="A289" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B289" s="38" t="s">
+        <v>506</v>
+      </c>
+      <c r="C289" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D289" s="41"/>
+      <c r="E289" s="41"/>
+      <c r="F289" s="41"/>
+      <c r="G289" s="41"/>
+    </row>
+    <row r="290" spans="1:7" ht="30">
+      <c r="A290" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B290" s="38" t="s">
         <v>507</v>
       </c>
-      <c r="C289" s="44" t="s">
+      <c r="C290" s="44" t="s">
         <v>472</v>
       </c>
-      <c r="D289" s="38" t="s">
+      <c r="D290" s="38" t="s">
         <v>435</v>
-      </c>
-      <c r="E289" s="38"/>
-      <c r="F289" s="38"/>
-      <c r="G289" s="44" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
-      <c r="A290" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B290" s="38" t="s">
-        <v>508</v>
-      </c>
-      <c r="C290" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="D290" s="38" t="s">
-        <v>438</v>
       </c>
       <c r="E290" s="38"/>
       <c r="F290" s="38"/>
-      <c r="G290" s="44"/>
+      <c r="G290" s="44" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="291" spans="1:7">
       <c r="A291" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B291" s="38" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C291" s="44" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D291" s="38" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E291" s="38"/>
       <c r="F291" s="38"/>
       <c r="G291" s="44"/>
     </row>
-    <row r="292" spans="1:7" ht="30">
+    <row r="292" spans="1:7">
       <c r="A292" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B292" s="38" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C292" s="44" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D292" s="38" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E292" s="38"/>
       <c r="F292" s="38"/>
       <c r="G292" s="44"/>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" ht="30">
       <c r="A293" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B293" s="38" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C293" s="44" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="D293" s="38" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E293" s="38"/>
       <c r="F293" s="38"/>
@@ -13703,13 +13765,13 @@
         <v>58</v>
       </c>
       <c r="B294" s="38" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C294" s="44" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D294" s="38" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E294" s="38"/>
       <c r="F294" s="38"/>
@@ -13720,30 +13782,30 @@
         <v>58</v>
       </c>
       <c r="B295" s="38" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C295" s="44" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="D295" s="38" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E295" s="38"/>
       <c r="F295" s="38"/>
       <c r="G295" s="44"/>
     </row>
-    <row r="296" spans="1:7" ht="30">
+    <row r="296" spans="1:7">
       <c r="A296" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B296" s="38" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C296" s="44" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D296" s="38" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E296" s="38"/>
       <c r="F296" s="38"/>
@@ -13754,30 +13816,30 @@
         <v>58</v>
       </c>
       <c r="B297" s="38" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C297" s="44" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D297" s="38" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="E297" s="38"/>
       <c r="F297" s="38"/>
       <c r="G297" s="44"/>
     </row>
-    <row r="298" spans="1:7" ht="30">
+    <row r="298" spans="1:7">
       <c r="A298" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B298" s="38" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C298" s="44" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D298" s="38" t="s">
-        <v>1157</v>
+        <v>488</v>
       </c>
       <c r="E298" s="38"/>
       <c r="F298" s="38"/>
@@ -13788,13 +13850,13 @@
         <v>58</v>
       </c>
       <c r="B299" s="38" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C299" s="44" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D299" s="38" t="s">
-        <v>493</v>
+        <v>1157</v>
       </c>
       <c r="E299" s="38"/>
       <c r="F299" s="38"/>
@@ -13805,232 +13867,232 @@
         <v>58</v>
       </c>
       <c r="B300" s="38" t="s">
-        <v>518</v>
-      </c>
-      <c r="C300" s="38" t="s">
-        <v>495</v>
+        <v>517</v>
+      </c>
+      <c r="C300" s="44" t="s">
+        <v>492</v>
       </c>
       <c r="D300" s="38" t="s">
-        <v>462</v>
+        <v>493</v>
       </c>
       <c r="E300" s="38"/>
       <c r="F300" s="38"/>
-      <c r="G300" s="38"/>
-    </row>
-    <row r="301" spans="1:7" ht="45">
+      <c r="G300" s="44"/>
+    </row>
+    <row r="301" spans="1:7" ht="30">
       <c r="A301" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B301" s="38" t="s">
-        <v>519</v>
-      </c>
-      <c r="C301" s="44" t="s">
-        <v>497</v>
+        <v>518</v>
+      </c>
+      <c r="C301" s="38" t="s">
+        <v>495</v>
       </c>
       <c r="D301" s="38" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E301" s="38"/>
       <c r="F301" s="38"/>
-      <c r="G301" s="44"/>
+      <c r="G301" s="38"/>
     </row>
     <row r="302" spans="1:7" ht="45">
       <c r="A302" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B302" s="38" t="s">
-        <v>520</v>
-      </c>
-      <c r="C302" s="38" t="s">
-        <v>499</v>
+        <v>519</v>
+      </c>
+      <c r="C302" s="44" t="s">
+        <v>497</v>
       </c>
       <c r="D302" s="38" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E302" s="38"/>
       <c r="F302" s="38"/>
-      <c r="G302" s="38"/>
+      <c r="G302" s="44"/>
     </row>
     <row r="303" spans="1:7" ht="45">
       <c r="A303" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B303" s="38" t="s">
-        <v>521</v>
-      </c>
-      <c r="C303" s="44" t="s">
-        <v>501</v>
+        <v>520</v>
+      </c>
+      <c r="C303" s="38" t="s">
+        <v>499</v>
       </c>
       <c r="D303" s="38" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="E303" s="38"/>
       <c r="F303" s="38"/>
-      <c r="G303" s="44"/>
-    </row>
-    <row r="304" spans="1:7" ht="30">
+      <c r="G303" s="38"/>
+    </row>
+    <row r="304" spans="1:7" ht="45">
       <c r="A304" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B304" s="38" t="s">
+        <v>521</v>
+      </c>
+      <c r="C304" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="D304" s="38" t="s">
+        <v>502</v>
+      </c>
+      <c r="E304" s="38"/>
+      <c r="F304" s="38"/>
+      <c r="G304" s="44"/>
+    </row>
+    <row r="305" spans="1:7" ht="30">
+      <c r="A305" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B305" s="38" t="s">
         <v>522</v>
       </c>
-      <c r="C304" s="44" t="s">
+      <c r="C305" s="44" t="s">
         <v>504</v>
       </c>
-      <c r="D304" s="38" t="s">
+      <c r="D305" s="38" t="s">
         <v>505</v>
       </c>
-      <c r="E304" s="38"/>
-      <c r="F304" s="38" t="s">
+      <c r="E305" s="38"/>
+      <c r="F305" s="38" t="s">
         <v>1147</v>
       </c>
-      <c r="G304" s="44"/>
-    </row>
-    <row r="305" spans="1:7">
-      <c r="A305" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B305" s="38">
-        <v>10.4</v>
-      </c>
-      <c r="C305" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D305" s="41"/>
-      <c r="E305" s="41"/>
-      <c r="F305" s="41"/>
-      <c r="G305" s="41"/>
+      <c r="G305" s="44"/>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B306" s="38" t="s">
-        <v>523</v>
-      </c>
-      <c r="C306" s="41" t="s">
-        <v>38</v>
+      <c r="B306" s="38">
+        <v>10.4</v>
+      </c>
+      <c r="C306" s="37" t="s">
+        <v>10</v>
       </c>
       <c r="D306" s="41"/>
       <c r="E306" s="41"/>
       <c r="F306" s="41"/>
       <c r="G306" s="41"/>
     </row>
-    <row r="307" spans="1:7" ht="30">
+    <row r="307" spans="1:7">
       <c r="A307" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B307" s="38" t="s">
+        <v>523</v>
+      </c>
+      <c r="C307" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D307" s="41"/>
+      <c r="E307" s="41"/>
+      <c r="F307" s="41"/>
+      <c r="G307" s="41"/>
+    </row>
+    <row r="308" spans="1:7" ht="30">
+      <c r="A308" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B308" s="38" t="s">
         <v>524</v>
       </c>
-      <c r="C307" s="44" t="s">
+      <c r="C308" s="44" t="s">
         <v>525</v>
       </c>
-      <c r="D307" s="38" t="s">
+      <c r="D308" s="38" t="s">
         <v>526</v>
       </c>
-      <c r="E307" s="38"/>
-      <c r="F307" s="38"/>
-      <c r="G307" s="44"/>
-    </row>
-    <row r="308" spans="1:7">
-      <c r="A308" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B308" s="38" t="s">
+      <c r="E308" s="38"/>
+      <c r="F308" s="38"/>
+      <c r="G308" s="44"/>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B309" s="38" t="s">
         <v>527</v>
       </c>
-      <c r="C308" s="41" t="s">
+      <c r="C309" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D308" s="41"/>
-      <c r="E308" s="41"/>
-      <c r="F308" s="41"/>
-      <c r="G308" s="41"/>
-    </row>
-    <row r="309" spans="1:7" ht="30">
-      <c r="A309" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B309" s="38" t="s">
+      <c r="D309" s="41"/>
+      <c r="E309" s="41"/>
+      <c r="F309" s="41"/>
+      <c r="G309" s="41"/>
+    </row>
+    <row r="310" spans="1:7" ht="30">
+      <c r="A310" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B310" s="38" t="s">
         <v>528</v>
       </c>
-      <c r="C309" s="38" t="s">
+      <c r="C310" s="38" t="s">
         <v>529</v>
       </c>
-      <c r="D309" s="38" t="s">
+      <c r="D310" s="38" t="s">
         <v>435</v>
       </c>
-      <c r="E309" s="46"/>
-      <c r="F309" s="46"/>
-      <c r="G309" s="38" t="s">
+      <c r="E310" s="46"/>
+      <c r="F310" s="46"/>
+      <c r="G310" s="38" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="310" spans="1:7">
-      <c r="A310" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B310" s="38" t="s">
-        <v>531</v>
-      </c>
-      <c r="C310" s="44" t="s">
-        <v>532</v>
-      </c>
-      <c r="D310" s="38" t="s">
-        <v>533</v>
-      </c>
-      <c r="E310" s="38"/>
-      <c r="F310" s="38"/>
-      <c r="G310" s="44"/>
     </row>
     <row r="311" spans="1:7">
       <c r="A311" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B311" s="38" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C311" s="44" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D311" s="38" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E311" s="38"/>
       <c r="F311" s="38"/>
       <c r="G311" s="44"/>
     </row>
-    <row r="312" spans="1:7" ht="30">
+    <row r="312" spans="1:7">
       <c r="A312" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B312" s="38" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C312" s="44" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D312" s="38" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E312" s="38"/>
       <c r="F312" s="38"/>
       <c r="G312" s="44"/>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" ht="30">
       <c r="A313" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B313" s="38" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C313" s="44" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D313" s="38" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E313" s="38"/>
       <c r="F313" s="38"/>
@@ -14041,147 +14103,147 @@
         <v>58</v>
       </c>
       <c r="B314" s="38" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C314" s="44" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D314" s="38" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="E314" s="38"/>
       <c r="F314" s="38"/>
       <c r="G314" s="44"/>
     </row>
-    <row r="315" spans="1:7" ht="45">
+    <row r="315" spans="1:7">
       <c r="A315" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B315" s="38" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C315" s="44" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D315" s="38" t="s">
-        <v>547</v>
+        <v>488</v>
       </c>
       <c r="E315" s="38"/>
       <c r="F315" s="38"/>
       <c r="G315" s="44"/>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" ht="45">
       <c r="A316" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B316" s="38">
-        <v>10.5</v>
-      </c>
-      <c r="C316" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="D316" s="41"/>
-      <c r="E316" s="41"/>
-      <c r="F316" s="41"/>
-      <c r="G316" s="48"/>
+      <c r="B316" s="38" t="s">
+        <v>545</v>
+      </c>
+      <c r="C316" s="44" t="s">
+        <v>546</v>
+      </c>
+      <c r="D316" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="E316" s="38"/>
+      <c r="F316" s="38"/>
+      <c r="G316" s="44"/>
     </row>
     <row r="317" spans="1:7">
       <c r="A317" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B317" s="38" t="s">
-        <v>548</v>
-      </c>
-      <c r="C317" s="48" t="s">
-        <v>36</v>
+      <c r="B317" s="38">
+        <v>10.5</v>
+      </c>
+      <c r="C317" s="47" t="s">
+        <v>39</v>
       </c>
       <c r="D317" s="41"/>
       <c r="E317" s="41"/>
       <c r="F317" s="41"/>
       <c r="G317" s="48"/>
     </row>
-    <row r="318" spans="1:7" ht="30">
+    <row r="318" spans="1:7">
       <c r="A318" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B318" s="38" t="s">
+        <v>548</v>
+      </c>
+      <c r="C318" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D318" s="41"/>
+      <c r="E318" s="41"/>
+      <c r="F318" s="41"/>
+      <c r="G318" s="48"/>
+    </row>
+    <row r="319" spans="1:7" ht="30">
+      <c r="A319" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B319" s="38" t="s">
         <v>549</v>
       </c>
-      <c r="C318" s="38" t="s">
+      <c r="C319" s="38" t="s">
         <v>472</v>
       </c>
-      <c r="D318" s="38" t="s">
+      <c r="D319" s="38" t="s">
         <v>435</v>
-      </c>
-      <c r="E318" s="38"/>
-      <c r="F318" s="38"/>
-      <c r="G318" s="38" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7">
-      <c r="A319" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B319" s="38" t="s">
-        <v>550</v>
-      </c>
-      <c r="C319" s="38" t="s">
-        <v>475</v>
-      </c>
-      <c r="D319" s="38" t="s">
-        <v>438</v>
       </c>
       <c r="E319" s="38"/>
       <c r="F319" s="38"/>
-      <c r="G319" s="38"/>
+      <c r="G319" s="38" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="320" spans="1:7">
       <c r="A320" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B320" s="38" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C320" s="38" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D320" s="38" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="E320" s="38"/>
       <c r="F320" s="38"/>
       <c r="G320" s="38"/>
     </row>
-    <row r="321" spans="1:7" ht="30">
+    <row r="321" spans="1:7">
       <c r="A321" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B321" s="38" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C321" s="38" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D321" s="38" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="E321" s="38"/>
       <c r="F321" s="38"/>
       <c r="G321" s="38"/>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" ht="30">
       <c r="A322" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B322" s="38" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C322" s="38" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="D322" s="38" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E322" s="38"/>
       <c r="F322" s="38"/>
@@ -14192,13 +14254,13 @@
         <v>58</v>
       </c>
       <c r="B323" s="38" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C323" s="38" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D323" s="38" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E323" s="38"/>
       <c r="F323" s="38"/>
@@ -14209,30 +14271,30 @@
         <v>58</v>
       </c>
       <c r="B324" s="38" t="s">
-        <v>1293</v>
+        <v>554</v>
       </c>
       <c r="C324" s="38" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="D324" s="38" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E324" s="38"/>
       <c r="F324" s="38"/>
       <c r="G324" s="38"/>
     </row>
-    <row r="325" spans="1:7" ht="30">
+    <row r="325" spans="1:7">
       <c r="A325" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B325" s="38" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="C325" s="38" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D325" s="38" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E325" s="38"/>
       <c r="F325" s="38"/>
@@ -14243,30 +14305,30 @@
         <v>58</v>
       </c>
       <c r="B326" s="38" t="s">
-        <v>559</v>
+        <v>1292</v>
       </c>
       <c r="C326" s="38" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D326" s="38" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="E326" s="38"/>
       <c r="F326" s="38"/>
       <c r="G326" s="38"/>
     </row>
-    <row r="327" spans="1:7" ht="30">
+    <row r="327" spans="1:7">
       <c r="A327" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B327" s="38" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C327" s="38" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D327" s="38" t="s">
-        <v>1157</v>
+        <v>488</v>
       </c>
       <c r="E327" s="38"/>
       <c r="F327" s="38"/>
@@ -14277,13 +14339,13 @@
         <v>58</v>
       </c>
       <c r="B328" s="38" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C328" s="38" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D328" s="38" t="s">
-        <v>493</v>
+        <v>1157</v>
       </c>
       <c r="E328" s="38"/>
       <c r="F328" s="38"/>
@@ -14294,30 +14356,30 @@
         <v>58</v>
       </c>
       <c r="B329" s="38" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C329" s="38" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D329" s="38" t="s">
-        <v>462</v>
+        <v>493</v>
       </c>
       <c r="E329" s="38"/>
       <c r="F329" s="38"/>
       <c r="G329" s="38"/>
     </row>
-    <row r="330" spans="1:7" ht="45">
+    <row r="330" spans="1:7" ht="30">
       <c r="A330" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B330" s="38" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C330" s="38" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D330" s="38" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E330" s="38"/>
       <c r="F330" s="38"/>
@@ -14328,13 +14390,13 @@
         <v>58</v>
       </c>
       <c r="B331" s="38" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C331" s="38" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D331" s="38" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E331" s="38"/>
       <c r="F331" s="38"/>
@@ -14345,140 +14407,138 @@
         <v>58</v>
       </c>
       <c r="B332" s="38" t="s">
-        <v>1291</v>
+        <v>564</v>
       </c>
       <c r="C332" s="38" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D332" s="38" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="E332" s="38"/>
       <c r="F332" s="38"/>
       <c r="G332" s="38"/>
     </row>
-    <row r="333" spans="1:7" ht="30">
+    <row r="333" spans="1:7" ht="45">
       <c r="A333" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B333" s="38" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C333" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="D333" s="38" t="s">
+        <v>502</v>
+      </c>
+      <c r="E333" s="38"/>
+      <c r="F333" s="38"/>
+      <c r="G333" s="38"/>
+    </row>
+    <row r="334" spans="1:7" ht="30">
+      <c r="A334" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B334" s="38" t="s">
         <v>1290</v>
       </c>
-      <c r="C333" s="38" t="s">
+      <c r="C334" s="38" t="s">
         <v>504</v>
       </c>
-      <c r="D333" s="38" t="s">
+      <c r="D334" s="38" t="s">
         <v>505</v>
       </c>
-      <c r="E333" s="38"/>
-      <c r="F333" s="38" t="s">
+      <c r="E334" s="38"/>
+      <c r="F334" s="38" t="s">
         <v>1300</v>
       </c>
-      <c r="G333" s="38"/>
-    </row>
-    <row r="334" spans="1:7" ht="15.6">
-      <c r="A334" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B334" s="35" t="s">
+      <c r="G334" s="38"/>
+    </row>
+    <row r="335" spans="1:7" ht="15.75">
+      <c r="A335" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B335" s="35" t="s">
         <v>1270</v>
       </c>
-      <c r="C334" s="49" t="s">
+      <c r="C335" s="49" t="s">
         <v>40</v>
-      </c>
-      <c r="D334" s="41"/>
-      <c r="E334" s="41"/>
-      <c r="F334" s="41"/>
-      <c r="G334" s="49"/>
-    </row>
-    <row r="335" spans="1:7">
-      <c r="A335" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B335" s="38">
-        <v>11.1</v>
-      </c>
-      <c r="C335" s="47" t="s">
-        <v>41</v>
       </c>
       <c r="D335" s="41"/>
       <c r="E335" s="41"/>
       <c r="F335" s="41"/>
-      <c r="G335" s="48"/>
+      <c r="G335" s="49"/>
     </row>
     <row r="336" spans="1:7">
       <c r="A336" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B336" s="38" t="s">
-        <v>565</v>
-      </c>
-      <c r="C336" s="48" t="s">
-        <v>42</v>
+      <c r="B336" s="38">
+        <v>11.1</v>
+      </c>
+      <c r="C336" s="47" t="s">
+        <v>41</v>
       </c>
       <c r="D336" s="41"/>
       <c r="E336" s="41"/>
       <c r="F336" s="41"/>
       <c r="G336" s="48"/>
     </row>
-    <row r="337" spans="1:7" ht="60">
+    <row r="337" spans="1:7">
       <c r="A337" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B337" s="38" t="s">
+        <v>565</v>
+      </c>
+      <c r="C337" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D337" s="41"/>
+      <c r="E337" s="41"/>
+      <c r="F337" s="41"/>
+      <c r="G337" s="48"/>
+    </row>
+    <row r="338" spans="1:7" ht="60">
+      <c r="A338" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B338" s="38" t="s">
         <v>566</v>
       </c>
-      <c r="C337" s="44" t="s">
+      <c r="C338" s="44" t="s">
         <v>567</v>
       </c>
-      <c r="D337" s="38">
+      <c r="D338" s="38">
         <v>78.3</v>
       </c>
-      <c r="E337" s="38" t="s">
+      <c r="E338" s="38" t="s">
         <v>1280</v>
-      </c>
-      <c r="F337" s="38" t="s">
-        <v>1144</v>
-      </c>
-      <c r="G337" s="44" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7">
-      <c r="A338" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B338" s="38" t="s">
-        <v>569</v>
-      </c>
-      <c r="C338" s="44" t="s">
-        <v>570</v>
-      </c>
-      <c r="D338" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E338" s="38" t="s">
-        <v>1276</v>
       </c>
       <c r="F338" s="38" t="s">
         <v>1144</v>
       </c>
-      <c r="G338" s="44"/>
+      <c r="G338" s="44" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="339" spans="1:7">
       <c r="A339" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B339" s="38" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C339" s="44" t="s">
-        <v>1294</v>
+        <v>570</v>
       </c>
       <c r="D339" s="38">
         <v>78.099999999999994</v>
       </c>
-      <c r="E339" s="38"/>
+      <c r="E339" s="38" t="s">
+        <v>1276</v>
+      </c>
       <c r="F339" s="38" t="s">
         <v>1144</v>
       </c>
@@ -14489,161 +14549,161 @@
         <v>58</v>
       </c>
       <c r="B340" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="C340" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D340" s="41"/>
-      <c r="E340" s="41"/>
-      <c r="F340" s="41"/>
-      <c r="G340" s="41"/>
+        <v>571</v>
+      </c>
+      <c r="C340" s="44" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D340" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E340" s="38"/>
+      <c r="F340" s="38" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G340" s="44"/>
     </row>
     <row r="341" spans="1:7">
       <c r="A341" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B341" s="38" t="s">
-        <v>574</v>
-      </c>
-      <c r="C341" s="44" t="s">
-        <v>575</v>
-      </c>
-      <c r="D341" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="E341" s="38"/>
-      <c r="F341" s="38" t="s">
-        <v>1144</v>
-      </c>
-      <c r="G341" s="44" t="s">
-        <v>576</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="C341" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D341" s="41"/>
+      <c r="E341" s="41"/>
+      <c r="F341" s="41"/>
+      <c r="G341" s="41"/>
     </row>
     <row r="342" spans="1:7">
       <c r="A342" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B342" s="38" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C342" s="44" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D342" s="38" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E342" s="38"/>
       <c r="F342" s="38" t="s">
         <v>1144</v>
       </c>
-      <c r="G342" s="44"/>
+      <c r="G342" s="44" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="343" spans="1:7">
       <c r="A343" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B343" s="38" t="s">
-        <v>581</v>
-      </c>
-      <c r="C343" s="38" t="s">
-        <v>582</v>
+        <v>578</v>
+      </c>
+      <c r="C343" s="44" t="s">
+        <v>579</v>
       </c>
       <c r="D343" s="38" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E343" s="38"/>
       <c r="F343" s="38" t="s">
         <v>1144</v>
       </c>
-      <c r="G343" s="38"/>
+      <c r="G343" s="44"/>
     </row>
     <row r="344" spans="1:7">
       <c r="A344" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B344" s="38" t="s">
-        <v>584</v>
-      </c>
-      <c r="C344" s="44" t="s">
-        <v>585</v>
+        <v>581</v>
+      </c>
+      <c r="C344" s="38" t="s">
+        <v>582</v>
       </c>
       <c r="D344" s="38" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E344" s="38"/>
       <c r="F344" s="38" t="s">
         <v>1144</v>
       </c>
-      <c r="G344" s="44"/>
+      <c r="G344" s="38"/>
     </row>
     <row r="345" spans="1:7">
       <c r="A345" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B345" s="38" t="s">
-        <v>587</v>
-      </c>
-      <c r="C345" s="41" t="s">
-        <v>588</v>
-      </c>
-      <c r="D345" s="41"/>
-      <c r="E345" s="41"/>
-      <c r="F345" s="41"/>
-      <c r="G345" s="41"/>
+        <v>584</v>
+      </c>
+      <c r="C345" s="44" t="s">
+        <v>585</v>
+      </c>
+      <c r="D345" s="38" t="s">
+        <v>586</v>
+      </c>
+      <c r="E345" s="38"/>
+      <c r="F345" s="38" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G345" s="44"/>
     </row>
     <row r="346" spans="1:7">
       <c r="A346" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B346" s="38" t="s">
-        <v>589</v>
-      </c>
-      <c r="C346" s="44" t="s">
-        <v>590</v>
-      </c>
-      <c r="D346" s="38" t="s">
-        <v>591</v>
-      </c>
-      <c r="E346" s="38"/>
-      <c r="F346" s="38" t="s">
-        <v>1144</v>
-      </c>
-      <c r="G346" s="44" t="s">
-        <v>1110</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="C346" s="41" t="s">
+        <v>588</v>
+      </c>
+      <c r="D346" s="41"/>
+      <c r="E346" s="41"/>
+      <c r="F346" s="41"/>
+      <c r="G346" s="41"/>
     </row>
     <row r="347" spans="1:7">
       <c r="A347" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B347" s="38" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C347" s="44" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D347" s="38" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E347" s="38"/>
       <c r="F347" s="38" t="s">
         <v>1144</v>
       </c>
-      <c r="G347" s="44"/>
+      <c r="G347" s="44" t="s">
+        <v>1110</v>
+      </c>
     </row>
     <row r="348" spans="1:7">
       <c r="A348" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B348" s="38" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C348" s="44" t="s">
-        <v>1108</v>
+        <v>593</v>
       </c>
       <c r="D348" s="38" t="s">
-        <v>1107</v>
+        <v>594</v>
       </c>
       <c r="E348" s="38"/>
       <c r="F348" s="38" t="s">
@@ -14656,13 +14716,13 @@
         <v>58</v>
       </c>
       <c r="B349" s="38" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C349" s="44" t="s">
-        <v>599</v>
+        <v>1108</v>
       </c>
       <c r="D349" s="38" t="s">
-        <v>600</v>
+        <v>1107</v>
       </c>
       <c r="E349" s="38"/>
       <c r="F349" s="38" t="s">
@@ -14675,13 +14735,13 @@
         <v>58</v>
       </c>
       <c r="B350" s="38" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C350" s="44" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D350" s="38" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E350" s="38"/>
       <c r="F350" s="38" t="s">
@@ -14694,46 +14754,44 @@
         <v>58</v>
       </c>
       <c r="B351" s="38" t="s">
+        <v>601</v>
+      </c>
+      <c r="C351" s="44" t="s">
+        <v>602</v>
+      </c>
+      <c r="D351" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="E351" s="38"/>
+      <c r="F351" s="38" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G351" s="44"/>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B352" s="38" t="s">
         <v>604</v>
       </c>
-      <c r="C351" s="41" t="s">
+      <c r="C352" s="41" t="s">
         <v>605</v>
       </c>
-      <c r="D351" s="41"/>
-      <c r="E351" s="41"/>
-      <c r="F351" s="41"/>
-      <c r="G351" s="41"/>
-    </row>
-    <row r="352" spans="1:7" ht="45">
-      <c r="A352" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B352" s="38" t="s">
+      <c r="D352" s="41"/>
+      <c r="E352" s="41"/>
+      <c r="F352" s="41"/>
+      <c r="G352" s="41"/>
+    </row>
+    <row r="353" spans="1:7" ht="45">
+      <c r="A353" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B353" s="38" t="s">
         <v>607</v>
       </c>
-      <c r="C352" s="44" t="s">
+      <c r="C353" s="44" t="s">
         <v>608</v>
-      </c>
-      <c r="D352" s="40" t="s">
-        <v>606</v>
-      </c>
-      <c r="E352" s="40"/>
-      <c r="F352" s="38" t="s">
-        <v>1144</v>
-      </c>
-      <c r="G352" s="44" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" ht="30">
-      <c r="A353" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B353" s="38" t="s">
-        <v>609</v>
-      </c>
-      <c r="C353" s="44" t="s">
-        <v>610</v>
       </c>
       <c r="D353" s="40" t="s">
         <v>606</v>
@@ -14742,60 +14800,62 @@
       <c r="F353" s="38" t="s">
         <v>1144</v>
       </c>
-      <c r="G353" s="44"/>
-    </row>
-    <row r="354" spans="1:7" ht="37.5" customHeight="1">
+      <c r="G353" s="44" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" ht="30">
       <c r="A354" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B354" s="38" t="s">
-        <v>611</v>
-      </c>
-      <c r="C354" s="40" t="s">
-        <v>612</v>
+        <v>609</v>
+      </c>
+      <c r="C354" s="44" t="s">
+        <v>610</v>
       </c>
       <c r="D354" s="40" t="s">
-        <v>1130</v>
+        <v>606</v>
       </c>
       <c r="E354" s="40"/>
       <c r="F354" s="38" t="s">
         <v>1144</v>
       </c>
-      <c r="G354" s="38"/>
-    </row>
-    <row r="355" spans="1:7" ht="30">
+      <c r="G354" s="44"/>
+    </row>
+    <row r="355" spans="1:7" ht="37.5" customHeight="1">
       <c r="A355" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B355" s="38" t="s">
-        <v>613</v>
-      </c>
-      <c r="C355" s="44" t="s">
-        <v>614</v>
+        <v>611</v>
+      </c>
+      <c r="C355" s="40" t="s">
+        <v>612</v>
       </c>
       <c r="D355" s="40" t="s">
-        <v>615</v>
+        <v>1130</v>
       </c>
       <c r="E355" s="40"/>
       <c r="F355" s="38" t="s">
         <v>1144</v>
       </c>
-      <c r="G355" s="44"/>
-    </row>
-    <row r="356" spans="1:7">
+      <c r="G355" s="38"/>
+    </row>
+    <row r="356" spans="1:7" ht="30">
       <c r="A356" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B356" s="38" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C356" s="44" t="s">
-        <v>617</v>
-      </c>
-      <c r="D356" s="38" t="s">
-        <v>618</v>
-      </c>
-      <c r="E356" s="38"/>
+        <v>614</v>
+      </c>
+      <c r="D356" s="40" t="s">
+        <v>615</v>
+      </c>
+      <c r="E356" s="40"/>
       <c r="F356" s="38" t="s">
         <v>1144</v>
       </c>
@@ -14806,125 +14866,125 @@
         <v>58</v>
       </c>
       <c r="B357" s="38" t="s">
-        <v>619</v>
-      </c>
-      <c r="C357" s="41" t="s">
-        <v>620</v>
-      </c>
-      <c r="D357" s="41"/>
-      <c r="E357" s="41"/>
-      <c r="F357" s="41"/>
-      <c r="G357" s="41"/>
+        <v>616</v>
+      </c>
+      <c r="C357" s="44" t="s">
+        <v>617</v>
+      </c>
+      <c r="D357" s="38" t="s">
+        <v>618</v>
+      </c>
+      <c r="E357" s="38"/>
+      <c r="F357" s="38" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G357" s="44"/>
     </row>
     <row r="358" spans="1:7">
       <c r="A358" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B358" s="38" t="s">
-        <v>621</v>
-      </c>
-      <c r="C358" s="44" t="s">
-        <v>622</v>
-      </c>
-      <c r="D358" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="E358" s="38"/>
-      <c r="F358" s="38" t="s">
-        <v>1144</v>
-      </c>
-      <c r="G358" s="38" t="s">
-        <v>1102</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="C358" s="41" t="s">
+        <v>620</v>
+      </c>
+      <c r="D358" s="41"/>
+      <c r="E358" s="41"/>
+      <c r="F358" s="41"/>
+      <c r="G358" s="41"/>
     </row>
     <row r="359" spans="1:7">
       <c r="A359" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B359" s="38" t="s">
-        <v>623</v>
-      </c>
-      <c r="C359" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D359" s="40" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E359" s="40"/>
+        <v>621</v>
+      </c>
+      <c r="C359" s="44" t="s">
+        <v>622</v>
+      </c>
+      <c r="D359" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="E359" s="38"/>
       <c r="F359" s="38" t="s">
         <v>1144</v>
       </c>
-      <c r="G359" s="38"/>
+      <c r="G359" s="38" t="s">
+        <v>1102</v>
+      </c>
     </row>
     <row r="360" spans="1:7">
       <c r="A360" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B360" s="38" t="s">
-        <v>625</v>
-      </c>
-      <c r="C360" s="41" t="s">
-        <v>626</v>
-      </c>
-      <c r="D360" s="41"/>
-      <c r="E360" s="41"/>
-      <c r="F360" s="41"/>
-      <c r="G360" s="41"/>
+        <v>623</v>
+      </c>
+      <c r="C360" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="D360" s="40" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E360" s="40"/>
+      <c r="F360" s="38" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G360" s="38"/>
     </row>
     <row r="361" spans="1:7">
       <c r="A361" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B361" s="38" t="s">
-        <v>627</v>
-      </c>
-      <c r="C361" s="44" t="s">
-        <v>590</v>
-      </c>
-      <c r="D361" s="38" t="s">
-        <v>591</v>
-      </c>
-      <c r="E361" s="38"/>
-      <c r="F361" s="38" t="s">
-        <v>1144</v>
-      </c>
-      <c r="G361" s="44" t="s">
-        <v>1115</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="C361" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D361" s="41"/>
+      <c r="E361" s="41"/>
+      <c r="F361" s="41"/>
+      <c r="G361" s="41"/>
     </row>
     <row r="362" spans="1:7">
       <c r="A362" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B362" s="38" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C362" s="44" t="s">
-        <v>629</v>
+        <v>590</v>
       </c>
       <c r="D362" s="38" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E362" s="46"/>
+        <v>591</v>
+      </c>
+      <c r="E362" s="38"/>
       <c r="F362" s="38" t="s">
         <v>1144</v>
       </c>
-      <c r="G362" s="44"/>
+      <c r="G362" s="44" t="s">
+        <v>1115</v>
+      </c>
     </row>
     <row r="363" spans="1:7">
       <c r="A363" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B363" s="38" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C363" s="44" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D363" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="E363" s="38"/>
+        <v>1109</v>
+      </c>
+      <c r="E363" s="46"/>
       <c r="F363" s="38" t="s">
         <v>1144</v>
       </c>
@@ -14935,13 +14995,13 @@
         <v>58</v>
       </c>
       <c r="B364" s="38" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C364" s="44" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D364" s="38" t="s">
-        <v>1107</v>
+        <v>597</v>
       </c>
       <c r="E364" s="38"/>
       <c r="F364" s="38" t="s">
@@ -14954,111 +15014,109 @@
         <v>58</v>
       </c>
       <c r="B365" s="38" t="s">
-        <v>634</v>
-      </c>
-      <c r="C365" s="40" t="s">
-        <v>635</v>
+        <v>632</v>
+      </c>
+      <c r="C365" s="44" t="s">
+        <v>633</v>
       </c>
       <c r="D365" s="38" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E365" s="38" t="s">
-        <v>636</v>
-      </c>
+        <v>1107</v>
+      </c>
+      <c r="E365" s="38"/>
       <c r="F365" s="38" t="s">
         <v>1144</v>
       </c>
-      <c r="G365" s="38"/>
+      <c r="G365" s="44"/>
     </row>
     <row r="366" spans="1:7">
       <c r="A366" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B366" s="38">
-        <v>11.2</v>
-      </c>
-      <c r="C366" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D366" s="41"/>
-      <c r="E366" s="41"/>
-      <c r="F366" s="41"/>
-      <c r="G366" s="41"/>
+      <c r="B366" s="38" t="s">
+        <v>634</v>
+      </c>
+      <c r="C366" s="40" t="s">
+        <v>635</v>
+      </c>
+      <c r="D366" s="38" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E366" s="38" t="s">
+        <v>636</v>
+      </c>
+      <c r="F366" s="38" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G366" s="38"/>
     </row>
     <row r="367" spans="1:7">
       <c r="A367" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B367" s="38" t="s">
-        <v>637</v>
-      </c>
-      <c r="C367" s="41" t="s">
-        <v>42</v>
+      <c r="B367" s="38">
+        <v>11.2</v>
+      </c>
+      <c r="C367" s="37" t="s">
+        <v>44</v>
       </c>
       <c r="D367" s="41"/>
       <c r="E367" s="41"/>
       <c r="F367" s="41"/>
       <c r="G367" s="41"/>
     </row>
-    <row r="368" spans="1:7" ht="60">
+    <row r="368" spans="1:7">
       <c r="A368" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B368" s="38" t="s">
+        <v>637</v>
+      </c>
+      <c r="C368" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D368" s="41"/>
+      <c r="E368" s="41"/>
+      <c r="F368" s="41"/>
+      <c r="G368" s="41"/>
+    </row>
+    <row r="369" spans="1:7" ht="60">
+      <c r="A369" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B369" s="38" t="s">
         <v>638</v>
       </c>
-      <c r="C368" s="44" t="s">
+      <c r="C369" s="44" t="s">
         <v>567</v>
       </c>
-      <c r="D368" s="40" t="s">
+      <c r="D369" s="40" t="s">
         <v>1033</v>
       </c>
-      <c r="E368" s="40" t="s">
+      <c r="E369" s="40" t="s">
         <v>1280</v>
-      </c>
-      <c r="F368" s="38" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G368" s="44" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" ht="30">
-      <c r="A369" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B369" s="38" t="s">
-        <v>639</v>
-      </c>
-      <c r="C369" s="44" t="s">
-        <v>640</v>
-      </c>
-      <c r="D369" s="40" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E369" s="40" t="s">
-        <v>1277</v>
       </c>
       <c r="F369" s="38" t="s">
         <v>1148</v>
       </c>
-      <c r="G369" s="44"/>
-    </row>
-    <row r="370" spans="1:7">
+      <c r="G369" s="44" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" ht="30">
       <c r="A370" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B370" s="38" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C370" s="44" t="s">
-        <v>572</v>
-      </c>
-      <c r="D370" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E370" s="38" t="s">
-        <v>1280</v>
+        <v>640</v>
+      </c>
+      <c r="D370" s="40" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E370" s="40" t="s">
+        <v>1277</v>
       </c>
       <c r="F370" s="38" t="s">
         <v>1148</v>
@@ -15070,25 +15128,31 @@
         <v>58</v>
       </c>
       <c r="B371" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="C371" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D371" s="41"/>
-      <c r="E371" s="41"/>
-      <c r="F371" s="41"/>
-      <c r="G371" s="41"/>
+        <v>641</v>
+      </c>
+      <c r="C371" s="44" t="s">
+        <v>572</v>
+      </c>
+      <c r="D371" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E371" s="38" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F371" s="38" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G371" s="44"/>
     </row>
     <row r="372" spans="1:7">
       <c r="A372" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B372" s="38" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C372" s="41" t="s">
-        <v>644</v>
+        <v>43</v>
       </c>
       <c r="D372" s="41"/>
       <c r="E372" s="41"/>
@@ -15100,53 +15164,49 @@
         <v>58</v>
       </c>
       <c r="B373" s="38" t="s">
-        <v>645</v>
-      </c>
-      <c r="C373" s="38" t="s">
-        <v>646</v>
-      </c>
-      <c r="D373" s="38" t="s">
-        <v>648</v>
-      </c>
-      <c r="E373" s="38"/>
-      <c r="F373" s="38" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G373" s="44" t="s">
-        <v>647</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="C373" s="41" t="s">
+        <v>644</v>
+      </c>
+      <c r="D373" s="41"/>
+      <c r="E373" s="41"/>
+      <c r="F373" s="41"/>
+      <c r="G373" s="41"/>
     </row>
     <row r="374" spans="1:7">
       <c r="A374" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B374" s="38" t="s">
-        <v>649</v>
-      </c>
-      <c r="C374" s="44" t="s">
-        <v>650</v>
+        <v>645</v>
+      </c>
+      <c r="C374" s="38" t="s">
+        <v>646</v>
       </c>
       <c r="D374" s="38" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E374" s="38"/>
       <c r="F374" s="38" t="s">
         <v>1148</v>
       </c>
-      <c r="G374" s="44"/>
-    </row>
-    <row r="375" spans="1:7" ht="30">
+      <c r="G374" s="44" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
       <c r="A375" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B375" s="38" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C375" s="44" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D375" s="38" t="s">
-        <v>603</v>
+        <v>651</v>
       </c>
       <c r="E375" s="38"/>
       <c r="F375" s="38" t="s">
@@ -15159,51 +15219,51 @@
         <v>58</v>
       </c>
       <c r="B376" s="38" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C376" s="44" t="s">
-        <v>655</v>
-      </c>
-      <c r="D376" s="40" t="s">
-        <v>615</v>
-      </c>
-      <c r="E376" s="40"/>
+        <v>653</v>
+      </c>
+      <c r="D376" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="E376" s="38"/>
       <c r="F376" s="38" t="s">
         <v>1148</v>
       </c>
       <c r="G376" s="44"/>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" ht="30">
       <c r="A377" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B377" s="38" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C377" s="44" t="s">
-        <v>657</v>
-      </c>
-      <c r="D377" s="38" t="s">
-        <v>618</v>
-      </c>
-      <c r="E377" s="38"/>
+        <v>655</v>
+      </c>
+      <c r="D377" s="40" t="s">
+        <v>615</v>
+      </c>
+      <c r="E377" s="40"/>
       <c r="F377" s="38" t="s">
         <v>1148</v>
       </c>
       <c r="G377" s="44"/>
     </row>
-    <row r="378" spans="1:7" ht="30">
+    <row r="378" spans="1:7">
       <c r="A378" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B378" s="38" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C378" s="44" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D378" s="38" t="s">
-        <v>586</v>
+        <v>618</v>
       </c>
       <c r="E378" s="38"/>
       <c r="F378" s="38" t="s">
@@ -15211,132 +15271,132 @@
       </c>
       <c r="G378" s="44"/>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" ht="30">
       <c r="A379" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B379" s="38" t="s">
-        <v>660</v>
-      </c>
-      <c r="C379" s="41" t="s">
-        <v>620</v>
-      </c>
-      <c r="D379" s="41"/>
-      <c r="E379" s="41"/>
-      <c r="F379" s="41"/>
-      <c r="G379" s="41"/>
+        <v>658</v>
+      </c>
+      <c r="C379" s="44" t="s">
+        <v>659</v>
+      </c>
+      <c r="D379" s="38" t="s">
+        <v>586</v>
+      </c>
+      <c r="E379" s="38"/>
+      <c r="F379" s="38" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G379" s="44"/>
     </row>
     <row r="380" spans="1:7">
       <c r="A380" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B380" s="38" t="s">
-        <v>661</v>
-      </c>
-      <c r="C380" s="44" t="s">
-        <v>622</v>
-      </c>
-      <c r="D380" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="E380" s="38"/>
-      <c r="F380" s="38" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G380" s="44" t="s">
-        <v>1102</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="C380" s="41" t="s">
+        <v>620</v>
+      </c>
+      <c r="D380" s="41"/>
+      <c r="E380" s="41"/>
+      <c r="F380" s="41"/>
+      <c r="G380" s="41"/>
     </row>
     <row r="381" spans="1:7">
       <c r="A381" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B381" s="38" t="s">
-        <v>662</v>
-      </c>
-      <c r="C381" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D381" s="40" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E381" s="40" t="s">
-        <v>1128</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="C381" s="44" t="s">
+        <v>622</v>
+      </c>
+      <c r="D381" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="E381" s="38"/>
       <c r="F381" s="38" t="s">
         <v>1148</v>
       </c>
-      <c r="G381" s="38"/>
+      <c r="G381" s="44" t="s">
+        <v>1102</v>
+      </c>
     </row>
     <row r="382" spans="1:7">
       <c r="A382" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B382" s="38" t="s">
-        <v>663</v>
-      </c>
-      <c r="C382" s="41" t="s">
-        <v>626</v>
-      </c>
-      <c r="D382" s="41"/>
-      <c r="E382" s="41"/>
-      <c r="F382" s="41"/>
-      <c r="G382" s="41"/>
+        <v>662</v>
+      </c>
+      <c r="C382" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="D382" s="40" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E382" s="40" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F382" s="38" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G382" s="38"/>
     </row>
     <row r="383" spans="1:7">
       <c r="A383" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B383" s="38" t="s">
-        <v>664</v>
-      </c>
-      <c r="C383" s="44" t="s">
-        <v>590</v>
-      </c>
-      <c r="D383" s="38" t="s">
-        <v>591</v>
-      </c>
-      <c r="E383" s="38"/>
-      <c r="F383" s="38" t="s">
-        <v>1148</v>
-      </c>
-      <c r="G383" s="44" t="s">
-        <v>1115</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="C383" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D383" s="41"/>
+      <c r="E383" s="41"/>
+      <c r="F383" s="41"/>
+      <c r="G383" s="41"/>
     </row>
     <row r="384" spans="1:7">
       <c r="A384" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B384" s="38" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C384" s="44" t="s">
-        <v>666</v>
+        <v>590</v>
       </c>
       <c r="D384" s="38" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E384" s="46"/>
+        <v>591</v>
+      </c>
+      <c r="E384" s="38"/>
       <c r="F384" s="38" t="s">
         <v>1148</v>
       </c>
-      <c r="G384" s="44"/>
+      <c r="G384" s="44" t="s">
+        <v>1115</v>
+      </c>
     </row>
     <row r="385" spans="1:7">
       <c r="A385" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B385" s="38" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C385" s="44" t="s">
-        <v>631</v>
+        <v>666</v>
       </c>
       <c r="D385" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="E385" s="38"/>
+        <v>1109</v>
+      </c>
+      <c r="E385" s="46"/>
       <c r="F385" s="38" t="s">
         <v>1148</v>
       </c>
@@ -15347,36 +15407,34 @@
         <v>58</v>
       </c>
       <c r="B386" s="38" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C386" s="44" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D386" s="38" t="s">
-        <v>1107</v>
+        <v>597</v>
       </c>
       <c r="E386" s="38"/>
       <c r="F386" s="38" t="s">
         <v>1148</v>
       </c>
-      <c r="G386" s="38"/>
+      <c r="G386" s="44"/>
     </row>
     <row r="387" spans="1:7">
       <c r="A387" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B387" s="38" t="s">
-        <v>669</v>
-      </c>
-      <c r="C387" s="40" t="s">
-        <v>635</v>
+        <v>668</v>
+      </c>
+      <c r="C387" s="44" t="s">
+        <v>633</v>
       </c>
       <c r="D387" s="38" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E387" s="38" t="s">
-        <v>636</v>
-      </c>
+        <v>1107</v>
+      </c>
+      <c r="E387" s="38"/>
       <c r="F387" s="38" t="s">
         <v>1148</v>
       </c>
@@ -15386,121 +15444,127 @@
       <c r="A388" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B388" s="38">
-        <v>11.3</v>
-      </c>
-      <c r="C388" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D388" s="41"/>
-      <c r="E388" s="41"/>
-      <c r="F388" s="41"/>
-      <c r="G388" s="41"/>
+      <c r="B388" s="38" t="s">
+        <v>669</v>
+      </c>
+      <c r="C388" s="40" t="s">
+        <v>635</v>
+      </c>
+      <c r="D388" s="38" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E388" s="38" t="s">
+        <v>636</v>
+      </c>
+      <c r="F388" s="38" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G388" s="38"/>
     </row>
     <row r="389" spans="1:7">
       <c r="A389" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B389" s="38" t="s">
-        <v>670</v>
-      </c>
-      <c r="C389" s="41" t="s">
-        <v>42</v>
+      <c r="B389" s="38">
+        <v>11.3</v>
+      </c>
+      <c r="C389" s="37" t="s">
+        <v>45</v>
       </c>
       <c r="D389" s="41"/>
       <c r="E389" s="41"/>
       <c r="F389" s="41"/>
       <c r="G389" s="41"/>
     </row>
-    <row r="390" spans="1:7" ht="45">
+    <row r="390" spans="1:7">
       <c r="A390" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B390" s="38" t="s">
+        <v>670</v>
+      </c>
+      <c r="C390" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D390" s="41"/>
+      <c r="E390" s="41"/>
+      <c r="F390" s="41"/>
+      <c r="G390" s="41"/>
+    </row>
+    <row r="391" spans="1:7" ht="45">
+      <c r="A391" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B391" s="38" t="s">
         <v>671</v>
       </c>
-      <c r="C390" s="44" t="s">
+      <c r="C391" s="44" t="s">
         <v>672</v>
       </c>
-      <c r="D390" s="38">
+      <c r="D391" s="38">
         <v>78.3</v>
       </c>
-      <c r="E390" s="38" t="s">
+      <c r="E391" s="38" t="s">
         <v>1280</v>
-      </c>
-      <c r="F390" s="38" t="s">
-        <v>1149</v>
-      </c>
-      <c r="G390" s="44" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7" ht="30">
-      <c r="A391" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B391" s="38" t="s">
-        <v>673</v>
-      </c>
-      <c r="C391" s="38" t="s">
-        <v>674</v>
-      </c>
-      <c r="D391" s="38" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E391" s="40" t="s">
-        <v>1278</v>
       </c>
       <c r="F391" s="38" t="s">
         <v>1149</v>
       </c>
-      <c r="G391" s="38"/>
-    </row>
-    <row r="392" spans="1:7">
+      <c r="G391" s="44" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" ht="30">
       <c r="A392" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B392" s="38" t="s">
-        <v>675</v>
-      </c>
-      <c r="C392" s="44" t="s">
-        <v>676</v>
-      </c>
-      <c r="D392" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E392" s="38" t="s">
-        <v>1280</v>
+        <v>673</v>
+      </c>
+      <c r="C392" s="38" t="s">
+        <v>674</v>
+      </c>
+      <c r="D392" s="38" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E392" s="40" t="s">
+        <v>1278</v>
       </c>
       <c r="F392" s="38" t="s">
         <v>1149</v>
       </c>
-      <c r="G392" s="44"/>
+      <c r="G392" s="38"/>
     </row>
     <row r="393" spans="1:7">
       <c r="A393" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B393" s="38" t="s">
-        <v>677</v>
-      </c>
-      <c r="C393" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D393" s="41"/>
-      <c r="E393" s="41"/>
-      <c r="F393" s="41"/>
-      <c r="G393" s="41"/>
+        <v>675</v>
+      </c>
+      <c r="C393" s="44" t="s">
+        <v>676</v>
+      </c>
+      <c r="D393" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E393" s="38" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F393" s="38" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G393" s="44"/>
     </row>
     <row r="394" spans="1:7">
       <c r="A394" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B394" s="38" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C394" s="41" t="s">
-        <v>644</v>
+        <v>43</v>
       </c>
       <c r="D394" s="41"/>
       <c r="E394" s="41"/>
@@ -15512,53 +15576,49 @@
         <v>58</v>
       </c>
       <c r="B395" s="38" t="s">
-        <v>679</v>
-      </c>
-      <c r="C395" s="44" t="s">
-        <v>680</v>
-      </c>
-      <c r="D395" s="38" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E395" s="38"/>
-      <c r="F395" s="38" t="s">
-        <v>1149</v>
-      </c>
-      <c r="G395" s="44" t="s">
-        <v>681</v>
-      </c>
+        <v>678</v>
+      </c>
+      <c r="C395" s="41" t="s">
+        <v>644</v>
+      </c>
+      <c r="D395" s="41"/>
+      <c r="E395" s="41"/>
+      <c r="F395" s="41"/>
+      <c r="G395" s="41"/>
     </row>
     <row r="396" spans="1:7">
       <c r="A396" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B396" s="38" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C396" s="44" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D396" s="38" t="s">
-        <v>684</v>
+        <v>1069</v>
       </c>
       <c r="E396" s="38"/>
       <c r="F396" s="38" t="s">
         <v>1149</v>
       </c>
-      <c r="G396" s="44"/>
+      <c r="G396" s="44" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="397" spans="1:7">
       <c r="A397" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B397" s="38" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C397" s="44" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D397" s="38" t="s">
-        <v>580</v>
+        <v>684</v>
       </c>
       <c r="E397" s="38"/>
       <c r="F397" s="38" t="s">
@@ -15566,18 +15626,18 @@
       </c>
       <c r="G397" s="44"/>
     </row>
-    <row r="398" spans="1:7" ht="30">
+    <row r="398" spans="1:7">
       <c r="A398" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B398" s="38" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C398" s="44" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D398" s="38" t="s">
-        <v>603</v>
+        <v>580</v>
       </c>
       <c r="E398" s="38"/>
       <c r="F398" s="38" t="s">
@@ -15585,18 +15645,18 @@
       </c>
       <c r="G398" s="44"/>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" ht="30">
       <c r="A399" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B399" s="38" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C399" s="44" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D399" s="38" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="E399" s="38"/>
       <c r="F399" s="38" t="s">
@@ -15604,18 +15664,18 @@
       </c>
       <c r="G399" s="44"/>
     </row>
-    <row r="400" spans="1:7" ht="30">
+    <row r="400" spans="1:7">
       <c r="A400" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B400" s="38" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C400" s="44" t="s">
-        <v>659</v>
+        <v>690</v>
       </c>
       <c r="D400" s="38" t="s">
-        <v>586</v>
+        <v>618</v>
       </c>
       <c r="E400" s="38"/>
       <c r="F400" s="38" t="s">
@@ -15623,132 +15683,132 @@
       </c>
       <c r="G400" s="44"/>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" ht="30">
       <c r="A401" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B401" s="38" t="s">
-        <v>692</v>
-      </c>
-      <c r="C401" s="41" t="s">
-        <v>620</v>
-      </c>
-      <c r="D401" s="41"/>
-      <c r="E401" s="41"/>
-      <c r="F401" s="41"/>
-      <c r="G401" s="41"/>
+        <v>691</v>
+      </c>
+      <c r="C401" s="44" t="s">
+        <v>659</v>
+      </c>
+      <c r="D401" s="38" t="s">
+        <v>586</v>
+      </c>
+      <c r="E401" s="38"/>
+      <c r="F401" s="38" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G401" s="44"/>
     </row>
     <row r="402" spans="1:7">
       <c r="A402" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B402" s="38" t="s">
-        <v>693</v>
-      </c>
-      <c r="C402" s="44" t="s">
-        <v>622</v>
-      </c>
-      <c r="D402" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="E402" s="38"/>
-      <c r="F402" s="38" t="s">
-        <v>1149</v>
-      </c>
-      <c r="G402" s="44" t="s">
-        <v>1102</v>
-      </c>
+        <v>692</v>
+      </c>
+      <c r="C402" s="41" t="s">
+        <v>620</v>
+      </c>
+      <c r="D402" s="41"/>
+      <c r="E402" s="41"/>
+      <c r="F402" s="41"/>
+      <c r="G402" s="41"/>
     </row>
     <row r="403" spans="1:7">
       <c r="A403" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B403" s="38" t="s">
-        <v>694</v>
-      </c>
-      <c r="C403" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D403" s="40" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E403" s="40" t="s">
-        <v>1128</v>
-      </c>
+        <v>693</v>
+      </c>
+      <c r="C403" s="44" t="s">
+        <v>622</v>
+      </c>
+      <c r="D403" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="E403" s="38"/>
       <c r="F403" s="38" t="s">
         <v>1149</v>
       </c>
-      <c r="G403" s="38"/>
+      <c r="G403" s="44" t="s">
+        <v>1102</v>
+      </c>
     </row>
     <row r="404" spans="1:7">
       <c r="A404" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B404" s="38" t="s">
-        <v>695</v>
-      </c>
-      <c r="C404" s="41" t="s">
-        <v>626</v>
-      </c>
-      <c r="D404" s="41"/>
-      <c r="E404" s="41"/>
-      <c r="F404" s="41"/>
-      <c r="G404" s="41"/>
+        <v>694</v>
+      </c>
+      <c r="C404" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="D404" s="40" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E404" s="40" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F404" s="38" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G404" s="38"/>
     </row>
     <row r="405" spans="1:7">
       <c r="A405" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B405" s="38" t="s">
-        <v>696</v>
-      </c>
-      <c r="C405" s="44" t="s">
-        <v>590</v>
-      </c>
-      <c r="D405" s="38" t="s">
-        <v>591</v>
-      </c>
-      <c r="E405" s="38"/>
-      <c r="F405" s="38" t="s">
-        <v>1149</v>
-      </c>
-      <c r="G405" s="44" t="s">
-        <v>1115</v>
-      </c>
+        <v>695</v>
+      </c>
+      <c r="C405" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D405" s="41"/>
+      <c r="E405" s="41"/>
+      <c r="F405" s="41"/>
+      <c r="G405" s="41"/>
     </row>
     <row r="406" spans="1:7">
       <c r="A406" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B406" s="38" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C406" s="44" t="s">
-        <v>666</v>
+        <v>590</v>
       </c>
       <c r="D406" s="38" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E406" s="46"/>
+        <v>591</v>
+      </c>
+      <c r="E406" s="38"/>
       <c r="F406" s="38" t="s">
         <v>1149</v>
       </c>
-      <c r="G406" s="44"/>
+      <c r="G406" s="44" t="s">
+        <v>1115</v>
+      </c>
     </row>
     <row r="407" spans="1:7">
       <c r="A407" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B407" s="38" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C407" s="44" t="s">
-        <v>631</v>
+        <v>666</v>
       </c>
       <c r="D407" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="E407" s="38"/>
+        <v>1109</v>
+      </c>
+      <c r="E407" s="46"/>
       <c r="F407" s="38" t="s">
         <v>1149</v>
       </c>
@@ -15759,36 +15819,34 @@
         <v>58</v>
       </c>
       <c r="B408" s="38" t="s">
-        <v>699</v>
-      </c>
-      <c r="C408" s="38" t="s">
-        <v>633</v>
+        <v>698</v>
+      </c>
+      <c r="C408" s="44" t="s">
+        <v>631</v>
       </c>
       <c r="D408" s="38" t="s">
-        <v>1107</v>
+        <v>597</v>
       </c>
       <c r="E408" s="38"/>
       <c r="F408" s="38" t="s">
         <v>1149</v>
       </c>
-      <c r="G408" s="38"/>
+      <c r="G408" s="44"/>
     </row>
     <row r="409" spans="1:7">
       <c r="A409" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B409" s="38" t="s">
-        <v>700</v>
-      </c>
-      <c r="C409" s="40" t="s">
-        <v>635</v>
+        <v>699</v>
+      </c>
+      <c r="C409" s="38" t="s">
+        <v>633</v>
       </c>
       <c r="D409" s="38" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E409" s="38" t="s">
-        <v>636</v>
-      </c>
+        <v>1107</v>
+      </c>
+      <c r="E409" s="38"/>
       <c r="F409" s="38" t="s">
         <v>1149</v>
       </c>
@@ -15798,91 +15856,91 @@
       <c r="A410" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B410" s="38">
-        <v>11.4</v>
-      </c>
-      <c r="C410" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D410" s="41"/>
-      <c r="E410" s="41"/>
-      <c r="F410" s="41"/>
-      <c r="G410" s="41"/>
+      <c r="B410" s="38" t="s">
+        <v>700</v>
+      </c>
+      <c r="C410" s="40" t="s">
+        <v>635</v>
+      </c>
+      <c r="D410" s="38" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E410" s="38" t="s">
+        <v>636</v>
+      </c>
+      <c r="F410" s="38" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G410" s="38"/>
     </row>
     <row r="411" spans="1:7">
       <c r="A411" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B411" s="38" t="s">
-        <v>701</v>
-      </c>
-      <c r="C411" s="41" t="s">
-        <v>42</v>
+      <c r="B411" s="38">
+        <v>11.4</v>
+      </c>
+      <c r="C411" s="37" t="s">
+        <v>46</v>
       </c>
       <c r="D411" s="41"/>
       <c r="E411" s="41"/>
       <c r="F411" s="41"/>
       <c r="G411" s="41"/>
     </row>
-    <row r="412" spans="1:7" ht="45">
+    <row r="412" spans="1:7">
       <c r="A412" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B412" s="38" t="s">
+        <v>701</v>
+      </c>
+      <c r="C412" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D412" s="41"/>
+      <c r="E412" s="41"/>
+      <c r="F412" s="41"/>
+      <c r="G412" s="41"/>
+    </row>
+    <row r="413" spans="1:7" ht="45">
+      <c r="A413" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B413" s="38" t="s">
         <v>702</v>
       </c>
-      <c r="C412" s="44" t="s">
+      <c r="C413" s="44" t="s">
         <v>672</v>
       </c>
-      <c r="D412" s="38">
+      <c r="D413" s="38">
         <v>78.3</v>
       </c>
-      <c r="E412" s="3" t="s">
+      <c r="E413" s="3" t="s">
         <v>1284</v>
-      </c>
-      <c r="F412" s="38" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G412" s="44" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7">
-      <c r="A413" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B413" s="38" t="s">
-        <v>703</v>
-      </c>
-      <c r="C413" s="44" t="s">
-        <v>704</v>
-      </c>
-      <c r="D413" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E413" s="38" t="s">
-        <v>1279</v>
       </c>
       <c r="F413" s="38" t="s">
         <v>1150</v>
       </c>
-      <c r="G413" s="44"/>
+      <c r="G413" s="44" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="414" spans="1:7">
       <c r="A414" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B414" s="38" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C414" s="44" t="s">
-        <v>676</v>
+        <v>704</v>
       </c>
       <c r="D414" s="38">
         <v>78.099999999999994</v>
       </c>
       <c r="E414" s="38" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F414" s="38" t="s">
         <v>1150</v>
@@ -15894,25 +15952,31 @@
         <v>58</v>
       </c>
       <c r="B415" s="38" t="s">
-        <v>706</v>
-      </c>
-      <c r="C415" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D415" s="41"/>
-      <c r="E415" s="41"/>
-      <c r="F415" s="41"/>
-      <c r="G415" s="41"/>
+        <v>705</v>
+      </c>
+      <c r="C415" s="44" t="s">
+        <v>676</v>
+      </c>
+      <c r="D415" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E415" s="38" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F415" s="38" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G415" s="44"/>
     </row>
     <row r="416" spans="1:7">
       <c r="A416" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B416" s="38" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C416" s="41" t="s">
-        <v>644</v>
+        <v>43</v>
       </c>
       <c r="D416" s="41"/>
       <c r="E416" s="41"/>
@@ -15924,53 +15988,49 @@
         <v>58</v>
       </c>
       <c r="B417" s="38" t="s">
-        <v>708</v>
-      </c>
-      <c r="C417" s="38" t="s">
-        <v>646</v>
-      </c>
-      <c r="D417" s="38" t="s">
-        <v>648</v>
-      </c>
-      <c r="E417" s="38"/>
-      <c r="F417" s="38" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G417" s="38" t="s">
-        <v>709</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="C417" s="41" t="s">
+        <v>644</v>
+      </c>
+      <c r="D417" s="41"/>
+      <c r="E417" s="41"/>
+      <c r="F417" s="41"/>
+      <c r="G417" s="41"/>
     </row>
     <row r="418" spans="1:7">
       <c r="A418" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B418" s="38" t="s">
-        <v>710</v>
-      </c>
-      <c r="C418" s="44" t="s">
-        <v>711</v>
+        <v>708</v>
+      </c>
+      <c r="C418" s="38" t="s">
+        <v>646</v>
       </c>
       <c r="D418" s="38" t="s">
-        <v>577</v>
+        <v>648</v>
       </c>
       <c r="E418" s="38"/>
       <c r="F418" s="38" t="s">
         <v>1150</v>
       </c>
-      <c r="G418" s="44"/>
+      <c r="G418" s="38" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="419" spans="1:7">
       <c r="A419" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B419" s="38" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C419" s="44" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D419" s="38" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E419" s="38"/>
       <c r="F419" s="38" t="s">
@@ -15983,87 +16043,87 @@
         <v>58</v>
       </c>
       <c r="B420" s="38" t="s">
-        <v>714</v>
-      </c>
-      <c r="C420" s="38" t="s">
-        <v>715</v>
+        <v>712</v>
+      </c>
+      <c r="C420" s="44" t="s">
+        <v>713</v>
       </c>
       <c r="D420" s="38" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="E420" s="38"/>
       <c r="F420" s="38" t="s">
         <v>1150</v>
       </c>
-      <c r="G420" s="38"/>
+      <c r="G420" s="44"/>
     </row>
     <row r="421" spans="1:7">
       <c r="A421" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B421" s="38" t="s">
-        <v>716</v>
-      </c>
-      <c r="C421" s="41" t="s">
-        <v>717</v>
-      </c>
-      <c r="D421" s="41"/>
-      <c r="E421" s="41"/>
-      <c r="F421" s="41"/>
-      <c r="G421" s="41"/>
+        <v>714</v>
+      </c>
+      <c r="C421" s="38" t="s">
+        <v>715</v>
+      </c>
+      <c r="D421" s="38" t="s">
+        <v>586</v>
+      </c>
+      <c r="E421" s="38"/>
+      <c r="F421" s="38" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G421" s="38"/>
     </row>
     <row r="422" spans="1:7">
       <c r="A422" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B422" s="38" t="s">
-        <v>718</v>
-      </c>
-      <c r="C422" s="62" t="s">
-        <v>1296</v>
-      </c>
-      <c r="D422" s="38" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E422" s="38"/>
-      <c r="F422" s="38" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G422" s="38" t="s">
-        <v>720</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="C422" s="41" t="s">
+        <v>717</v>
+      </c>
+      <c r="D422" s="41"/>
+      <c r="E422" s="41"/>
+      <c r="F422" s="41"/>
+      <c r="G422" s="41"/>
     </row>
     <row r="423" spans="1:7">
       <c r="A423" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B423" s="38" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C423" s="62" t="s">
-        <v>1297</v>
-      </c>
-      <c r="D423" s="40" t="s">
-        <v>721</v>
-      </c>
-      <c r="E423" s="40"/>
+        <v>1296</v>
+      </c>
+      <c r="D423" s="38" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E423" s="38"/>
       <c r="F423" s="38" t="s">
         <v>1150</v>
       </c>
-      <c r="G423" s="38"/>
+      <c r="G423" s="38" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="424" spans="1:7">
       <c r="A424" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B424" s="38" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C424" s="62" t="s">
-        <v>726</v>
+        <v>1297</v>
       </c>
       <c r="D424" s="40" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E424" s="40"/>
       <c r="F424" s="38" t="s">
@@ -16076,68 +16136,68 @@
         <v>58</v>
       </c>
       <c r="B425" s="38" t="s">
-        <v>727</v>
-      </c>
-      <c r="C425" s="41" t="s">
-        <v>626</v>
-      </c>
-      <c r="D425" s="41"/>
-      <c r="E425" s="41"/>
-      <c r="F425" s="41"/>
-      <c r="G425" s="41"/>
+        <v>725</v>
+      </c>
+      <c r="C425" s="62" t="s">
+        <v>726</v>
+      </c>
+      <c r="D425" s="40" t="s">
+        <v>724</v>
+      </c>
+      <c r="E425" s="40"/>
+      <c r="F425" s="38" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G425" s="38"/>
     </row>
     <row r="426" spans="1:7">
       <c r="A426" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B426" s="38" t="s">
-        <v>728</v>
-      </c>
-      <c r="C426" s="44" t="s">
-        <v>590</v>
-      </c>
-      <c r="D426" s="40" t="s">
-        <v>591</v>
-      </c>
-      <c r="E426" s="40"/>
-      <c r="F426" s="38" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G426" s="44" t="s">
-        <v>729</v>
-      </c>
+        <v>727</v>
+      </c>
+      <c r="C426" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D426" s="41"/>
+      <c r="E426" s="41"/>
+      <c r="F426" s="41"/>
+      <c r="G426" s="41"/>
     </row>
     <row r="427" spans="1:7">
       <c r="A427" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B427" s="38" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C427" s="44" t="s">
-        <v>731</v>
+        <v>590</v>
       </c>
       <c r="D427" s="40" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E427" s="40"/>
       <c r="F427" s="38" t="s">
         <v>1150</v>
       </c>
-      <c r="G427" s="44"/>
+      <c r="G427" s="44" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="428" spans="1:7">
       <c r="A428" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B428" s="38" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C428" s="44" t="s">
-        <v>631</v>
+        <v>731</v>
       </c>
       <c r="D428" s="40" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E428" s="40"/>
       <c r="F428" s="38" t="s">
@@ -16150,10 +16210,10 @@
         <v>58</v>
       </c>
       <c r="B429" s="38" t="s">
-        <v>733</v>
-      </c>
-      <c r="C429" s="38" t="s">
-        <v>633</v>
+        <v>732</v>
+      </c>
+      <c r="C429" s="44" t="s">
+        <v>631</v>
       </c>
       <c r="D429" s="40" t="s">
         <v>597</v>
@@ -16162,39 +16222,39 @@
       <c r="F429" s="38" t="s">
         <v>1150</v>
       </c>
-      <c r="G429" s="38"/>
+      <c r="G429" s="44"/>
     </row>
     <row r="430" spans="1:7">
       <c r="A430" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B430" s="38" t="s">
-        <v>734</v>
-      </c>
-      <c r="C430" s="44" t="s">
-        <v>599</v>
+        <v>733</v>
+      </c>
+      <c r="C430" s="38" t="s">
+        <v>633</v>
       </c>
       <c r="D430" s="40" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E430" s="40"/>
       <c r="F430" s="38" t="s">
         <v>1150</v>
       </c>
-      <c r="G430" s="44"/>
-    </row>
-    <row r="431" spans="1:7" ht="30">
+      <c r="G430" s="38"/>
+    </row>
+    <row r="431" spans="1:7">
       <c r="A431" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B431" s="38" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C431" s="44" t="s">
-        <v>688</v>
+        <v>599</v>
       </c>
       <c r="D431" s="40" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E431" s="40"/>
       <c r="F431" s="38" t="s">
@@ -16202,53 +16262,51 @@
       </c>
       <c r="G431" s="44"/>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" ht="30">
       <c r="A432" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B432" s="38" t="s">
-        <v>736</v>
-      </c>
-      <c r="C432" s="41" t="s">
-        <v>605</v>
-      </c>
-      <c r="D432" s="41"/>
-      <c r="E432" s="41"/>
+        <v>735</v>
+      </c>
+      <c r="C432" s="44" t="s">
+        <v>688</v>
+      </c>
+      <c r="D432" s="40" t="s">
+        <v>603</v>
+      </c>
+      <c r="E432" s="40"/>
       <c r="F432" s="38" t="s">
         <v>1150</v>
       </c>
-      <c r="G432" s="41"/>
-    </row>
-    <row r="433" spans="1:7" ht="45">
+      <c r="G432" s="44"/>
+    </row>
+    <row r="433" spans="1:7">
       <c r="A433" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B433" s="38" t="s">
-        <v>737</v>
-      </c>
-      <c r="C433" s="44" t="s">
-        <v>608</v>
-      </c>
-      <c r="D433" s="40" t="s">
-        <v>606</v>
-      </c>
-      <c r="E433" s="40"/>
+        <v>736</v>
+      </c>
+      <c r="C433" s="41" t="s">
+        <v>605</v>
+      </c>
+      <c r="D433" s="41"/>
+      <c r="E433" s="41"/>
       <c r="F433" s="38" t="s">
         <v>1150</v>
       </c>
-      <c r="G433" s="44" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="434" spans="1:7" ht="30">
+      <c r="G433" s="41"/>
+    </row>
+    <row r="434" spans="1:7" ht="45">
       <c r="A434" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B434" s="38" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C434" s="44" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D434" s="40" t="s">
         <v>606</v>
@@ -16257,17 +16315,19 @@
       <c r="F434" s="38" t="s">
         <v>1150</v>
       </c>
-      <c r="G434" s="44"/>
-    </row>
-    <row r="435" spans="1:7">
+      <c r="G434" s="44" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" ht="30">
       <c r="A435" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B435" s="38" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C435" s="44" t="s">
-        <v>741</v>
+        <v>610</v>
       </c>
       <c r="D435" s="40" t="s">
         <v>606</v>
@@ -16276,171 +16336,171 @@
       <c r="F435" s="38" t="s">
         <v>1150</v>
       </c>
-      <c r="G435" s="44" t="s">
-        <v>606</v>
-      </c>
+      <c r="G435" s="44"/>
     </row>
     <row r="436" spans="1:7">
       <c r="A436" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B436" s="38" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C436" s="44" t="s">
-        <v>690</v>
-      </c>
-      <c r="D436" s="38" t="s">
-        <v>618</v>
+        <v>741</v>
+      </c>
+      <c r="D436" s="40" t="s">
+        <v>606</v>
       </c>
       <c r="E436" s="40"/>
       <c r="F436" s="38" t="s">
         <v>1150</v>
       </c>
-      <c r="G436" s="44"/>
+      <c r="G436" s="44" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="437" spans="1:7">
       <c r="A437" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B437" s="38" t="s">
-        <v>743</v>
-      </c>
-      <c r="C437" s="41" t="s">
-        <v>620</v>
-      </c>
-      <c r="D437" s="41"/>
-      <c r="E437" s="41"/>
+        <v>742</v>
+      </c>
+      <c r="C437" s="44" t="s">
+        <v>690</v>
+      </c>
+      <c r="D437" s="38" t="s">
+        <v>618</v>
+      </c>
+      <c r="E437" s="40"/>
       <c r="F437" s="38" t="s">
         <v>1150</v>
       </c>
-      <c r="G437" s="41"/>
+      <c r="G437" s="44"/>
     </row>
     <row r="438" spans="1:7">
       <c r="A438" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B438" s="38" t="s">
-        <v>744</v>
-      </c>
-      <c r="C438" s="44" t="s">
-        <v>622</v>
-      </c>
-      <c r="D438" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="E438" s="40"/>
+        <v>743</v>
+      </c>
+      <c r="C438" s="41" t="s">
+        <v>620</v>
+      </c>
+      <c r="D438" s="41"/>
+      <c r="E438" s="41"/>
       <c r="F438" s="38" t="s">
         <v>1150</v>
       </c>
-      <c r="G438" s="44" t="s">
-        <v>1102</v>
-      </c>
+      <c r="G438" s="41"/>
     </row>
     <row r="439" spans="1:7">
       <c r="A439" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B439" s="38" t="s">
-        <v>745</v>
-      </c>
-      <c r="C439" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D439" s="40" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E439" s="40" t="s">
-        <v>1128</v>
-      </c>
+        <v>744</v>
+      </c>
+      <c r="C439" s="44" t="s">
+        <v>622</v>
+      </c>
+      <c r="D439" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="E439" s="40"/>
       <c r="F439" s="38" t="s">
         <v>1150</v>
       </c>
-      <c r="G439" s="38"/>
+      <c r="G439" s="44" t="s">
+        <v>1102</v>
+      </c>
     </row>
     <row r="440" spans="1:7">
       <c r="A440" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B440" s="38" t="s">
-        <v>746</v>
-      </c>
-      <c r="C440" s="41" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D440" s="41"/>
-      <c r="E440" s="41"/>
+        <v>745</v>
+      </c>
+      <c r="C440" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="D440" s="40" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E440" s="40" t="s">
+        <v>1128</v>
+      </c>
       <c r="F440" s="38" t="s">
         <v>1150</v>
       </c>
-      <c r="G440" s="41"/>
+      <c r="G440" s="38"/>
     </row>
     <row r="441" spans="1:7">
       <c r="A441" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B441" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="C441" s="40" t="s">
-        <v>635</v>
-      </c>
-      <c r="D441" s="38" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E441" s="38" t="s">
-        <v>636</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="C441" s="41" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D441" s="41"/>
+      <c r="E441" s="41"/>
       <c r="F441" s="38" t="s">
         <v>1150</v>
       </c>
-      <c r="G441" s="38"/>
+      <c r="G441" s="41"/>
     </row>
     <row r="442" spans="1:7">
       <c r="A442" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B442" s="38">
-        <v>11.5</v>
-      </c>
-      <c r="C442" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D442" s="41"/>
-      <c r="E442" s="41"/>
+      <c r="B442" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="C442" s="40" t="s">
+        <v>635</v>
+      </c>
+      <c r="D442" s="38" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E442" s="38" t="s">
+        <v>636</v>
+      </c>
       <c r="F442" s="38" t="s">
         <v>1150</v>
       </c>
-      <c r="G442" s="37"/>
+      <c r="G442" s="38"/>
     </row>
     <row r="443" spans="1:7">
       <c r="A443" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B443" s="38" t="s">
-        <v>752</v>
-      </c>
-      <c r="C443" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D443" s="38"/>
-      <c r="E443" s="44" t="s">
-        <v>279</v>
-      </c>
+      <c r="B443" s="38">
+        <v>11.5</v>
+      </c>
+      <c r="C443" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D443" s="41"/>
+      <c r="E443" s="41"/>
       <c r="F443" s="38" t="s">
         <v>1150</v>
       </c>
-      <c r="G443" s="44"/>
+      <c r="G443" s="37"/>
     </row>
     <row r="444" spans="1:7">
       <c r="A444" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B444" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C444" s="44" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D444" s="38"/>
       <c r="E444" s="44" t="s">
@@ -16456,10 +16516,10 @@
         <v>58</v>
       </c>
       <c r="B445" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C445" s="44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D445" s="38"/>
       <c r="E445" s="44" t="s">
@@ -16474,47 +16534,47 @@
       <c r="A446" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B446" s="38">
-        <v>11.6</v>
-      </c>
-      <c r="C446" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D446" s="41"/>
-      <c r="E446" s="37"/>
+      <c r="B446" s="38" t="s">
+        <v>754</v>
+      </c>
+      <c r="C446" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D446" s="38"/>
+      <c r="E446" s="44" t="s">
+        <v>279</v>
+      </c>
       <c r="F446" s="38" t="s">
         <v>1150</v>
       </c>
-      <c r="G446" s="37"/>
+      <c r="G446" s="44"/>
     </row>
     <row r="447" spans="1:7">
       <c r="A447" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B447" s="38" t="s">
-        <v>755</v>
-      </c>
-      <c r="C447" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D447" s="38"/>
-      <c r="E447" s="44" t="s">
-        <v>279</v>
-      </c>
+      <c r="B447" s="38">
+        <v>11.6</v>
+      </c>
+      <c r="C447" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D447" s="41"/>
+      <c r="E447" s="37"/>
       <c r="F447" s="38" t="s">
         <v>1150</v>
       </c>
-      <c r="G447" s="44"/>
+      <c r="G447" s="37"/>
     </row>
     <row r="448" spans="1:7">
       <c r="A448" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B448" s="38" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C448" s="44" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D448" s="38"/>
       <c r="E448" s="44" t="s">
@@ -16529,85 +16589,85 @@
       <c r="A449" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B449" s="38">
-        <v>11.7</v>
-      </c>
-      <c r="C449" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D449" s="41"/>
-      <c r="E449" s="41"/>
+      <c r="B449" s="38" t="s">
+        <v>756</v>
+      </c>
+      <c r="C449" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D449" s="38"/>
+      <c r="E449" s="44" t="s">
+        <v>279</v>
+      </c>
       <c r="F449" s="38" t="s">
-        <v>1143</v>
-      </c>
-      <c r="G449" s="37"/>
+        <v>1150</v>
+      </c>
+      <c r="G449" s="44"/>
     </row>
     <row r="450" spans="1:7">
       <c r="A450" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B450" s="38" t="s">
-        <v>757</v>
-      </c>
-      <c r="C450" s="41" t="s">
-        <v>42</v>
+      <c r="B450" s="38">
+        <v>11.7</v>
+      </c>
+      <c r="C450" s="37" t="s">
+        <v>51</v>
       </c>
       <c r="D450" s="41"/>
       <c r="E450" s="41"/>
       <c r="F450" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G450" s="41"/>
-    </row>
-    <row r="451" spans="1:7" ht="45">
+      <c r="G450" s="37"/>
+    </row>
+    <row r="451" spans="1:7">
       <c r="A451" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B451" s="38" t="s">
-        <v>758</v>
-      </c>
-      <c r="C451" s="44" t="s">
-        <v>672</v>
-      </c>
-      <c r="D451" s="38">
-        <v>78.3</v>
-      </c>
-      <c r="E451" s="38"/>
+        <v>757</v>
+      </c>
+      <c r="C451" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D451" s="41"/>
+      <c r="E451" s="41"/>
       <c r="F451" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G451" s="44" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="452" spans="1:7">
+      <c r="G451" s="41"/>
+    </row>
+    <row r="452" spans="1:7" ht="45">
       <c r="A452" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B452" s="38" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C452" s="44" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="D452" s="38">
-        <v>78.099999999999994</v>
+        <v>78.3</v>
       </c>
       <c r="E452" s="38"/>
       <c r="F452" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G452" s="44"/>
+      <c r="G452" s="44" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="453" spans="1:7">
       <c r="A453" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B453" s="38" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C453" s="44" t="s">
-        <v>676</v>
+        <v>704</v>
       </c>
       <c r="D453" s="38">
         <v>78.099999999999994</v>
@@ -16623,27 +16683,29 @@
         <v>58</v>
       </c>
       <c r="B454" s="38" t="s">
-        <v>761</v>
-      </c>
-      <c r="C454" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D454" s="41"/>
-      <c r="E454" s="41"/>
+        <v>760</v>
+      </c>
+      <c r="C454" s="44" t="s">
+        <v>676</v>
+      </c>
+      <c r="D454" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E454" s="38"/>
       <c r="F454" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G454" s="41"/>
+      <c r="G454" s="44"/>
     </row>
     <row r="455" spans="1:7">
       <c r="A455" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B455" s="38" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C455" s="41" t="s">
-        <v>644</v>
+        <v>43</v>
       </c>
       <c r="D455" s="41"/>
       <c r="E455" s="41"/>
@@ -16657,72 +16719,70 @@
         <v>58</v>
       </c>
       <c r="B456" s="38" t="s">
-        <v>763</v>
-      </c>
-      <c r="C456" s="44" t="s">
-        <v>764</v>
-      </c>
-      <c r="D456" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="E456" s="38"/>
+        <v>762</v>
+      </c>
+      <c r="C456" s="41" t="s">
+        <v>644</v>
+      </c>
+      <c r="D456" s="41"/>
+      <c r="E456" s="41"/>
       <c r="F456" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G456" s="44" t="s">
-        <v>1105</v>
-      </c>
+      <c r="G456" s="41"/>
     </row>
     <row r="457" spans="1:7">
       <c r="A457" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B457" s="38" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C457" s="44" t="s">
-        <v>713</v>
+        <v>764</v>
       </c>
       <c r="D457" s="38" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E457" s="38"/>
       <c r="F457" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G457" s="44"/>
+      <c r="G457" s="44" t="s">
+        <v>1105</v>
+      </c>
     </row>
     <row r="458" spans="1:7">
       <c r="A458" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B458" s="38" t="s">
-        <v>766</v>
-      </c>
-      <c r="C458" s="40" t="s">
-        <v>767</v>
+        <v>765</v>
+      </c>
+      <c r="C458" s="44" t="s">
+        <v>713</v>
       </c>
       <c r="D458" s="38" t="s">
-        <v>1106</v>
+        <v>580</v>
       </c>
       <c r="E458" s="38"/>
       <c r="F458" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G458" s="38"/>
-    </row>
-    <row r="459" spans="1:7" ht="30">
+      <c r="G458" s="44"/>
+    </row>
+    <row r="459" spans="1:7">
       <c r="A459" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B459" s="38" t="s">
-        <v>768</v>
-      </c>
-      <c r="C459" s="38" t="s">
-        <v>769</v>
+        <v>766</v>
+      </c>
+      <c r="C459" s="40" t="s">
+        <v>767</v>
       </c>
       <c r="D459" s="38" t="s">
-        <v>618</v>
+        <v>1106</v>
       </c>
       <c r="E459" s="38"/>
       <c r="F459" s="38" t="s">
@@ -16735,49 +16795,49 @@
         <v>58</v>
       </c>
       <c r="B460" s="38" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C460" s="38" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D460" s="38"/>
+        <v>769</v>
+      </c>
+      <c r="D460" s="38" t="s">
+        <v>618</v>
+      </c>
       <c r="E460" s="38"/>
       <c r="F460" s="38" t="s">
         <v>1143</v>
       </c>
       <c r="G460" s="38"/>
     </row>
-    <row r="461" spans="1:7" ht="30">
+    <row r="461" spans="1:7">
       <c r="A461" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B461" s="38" t="s">
-        <v>1126</v>
+        <v>770</v>
       </c>
       <c r="C461" s="38" t="s">
-        <v>771</v>
-      </c>
-      <c r="D461" s="38" t="s">
-        <v>586</v>
-      </c>
+        <v>1125</v>
+      </c>
+      <c r="D461" s="38"/>
       <c r="E461" s="38"/>
       <c r="F461" s="38" t="s">
         <v>1143</v>
       </c>
       <c r="G461" s="38"/>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" ht="30">
       <c r="A462" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B462" s="38" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C462" s="38" t="s">
-        <v>1124</v>
+        <v>771</v>
       </c>
       <c r="D462" s="38" t="s">
-        <v>724</v>
+        <v>586</v>
       </c>
       <c r="E462" s="38"/>
       <c r="F462" s="38" t="s">
@@ -16790,127 +16850,127 @@
         <v>58</v>
       </c>
       <c r="B463" s="38" t="s">
-        <v>773</v>
-      </c>
-      <c r="C463" s="41" t="s">
-        <v>620</v>
-      </c>
-      <c r="D463" s="41"/>
-      <c r="E463" s="41"/>
+        <v>1127</v>
+      </c>
+      <c r="C463" s="38" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D463" s="38" t="s">
+        <v>724</v>
+      </c>
+      <c r="E463" s="38"/>
       <c r="F463" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G463" s="41"/>
+      <c r="G463" s="38"/>
     </row>
     <row r="464" spans="1:7">
       <c r="A464" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B464" s="38" t="s">
-        <v>774</v>
-      </c>
-      <c r="C464" s="44" t="s">
-        <v>622</v>
-      </c>
-      <c r="D464" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="E464" s="38"/>
+        <v>773</v>
+      </c>
+      <c r="C464" s="41" t="s">
+        <v>620</v>
+      </c>
+      <c r="D464" s="41"/>
+      <c r="E464" s="41"/>
       <c r="F464" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G464" s="44" t="s">
-        <v>1102</v>
-      </c>
+      <c r="G464" s="41"/>
     </row>
     <row r="465" spans="1:7">
       <c r="A465" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B465" s="38" t="s">
-        <v>775</v>
-      </c>
-      <c r="C465" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="D465" s="40" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E465" s="40"/>
+        <v>774</v>
+      </c>
+      <c r="C465" s="44" t="s">
+        <v>622</v>
+      </c>
+      <c r="D465" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="E465" s="38"/>
       <c r="F465" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G465" s="38"/>
+      <c r="G465" s="44" t="s">
+        <v>1102</v>
+      </c>
     </row>
     <row r="466" spans="1:7">
       <c r="A466" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B466" s="38" t="s">
-        <v>776</v>
-      </c>
-      <c r="C466" s="41" t="s">
-        <v>626</v>
-      </c>
-      <c r="D466" s="41"/>
-      <c r="E466" s="41"/>
+        <v>775</v>
+      </c>
+      <c r="C466" s="40" t="s">
+        <v>624</v>
+      </c>
+      <c r="D466" s="40" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E466" s="40"/>
       <c r="F466" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G466" s="41"/>
+      <c r="G466" s="38"/>
     </row>
     <row r="467" spans="1:7">
       <c r="A467" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B467" s="38" t="s">
-        <v>777</v>
-      </c>
-      <c r="C467" s="44" t="s">
-        <v>590</v>
-      </c>
-      <c r="D467" s="38" t="s">
-        <v>591</v>
-      </c>
-      <c r="E467" s="38"/>
+        <v>776</v>
+      </c>
+      <c r="C467" s="41" t="s">
+        <v>626</v>
+      </c>
+      <c r="D467" s="41"/>
+      <c r="E467" s="41"/>
       <c r="F467" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G467" s="44" t="s">
-        <v>1103</v>
-      </c>
+      <c r="G467" s="41"/>
     </row>
     <row r="468" spans="1:7">
       <c r="A468" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B468" s="38" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C468" s="44" t="s">
-        <v>666</v>
+        <v>590</v>
       </c>
       <c r="D468" s="38" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E468" s="38"/>
       <c r="F468" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G468" s="44"/>
+      <c r="G468" s="44" t="s">
+        <v>1103</v>
+      </c>
     </row>
     <row r="469" spans="1:7">
       <c r="A469" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B469" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C469" s="44" t="s">
-        <v>631</v>
+        <v>666</v>
       </c>
       <c r="D469" s="38" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E469" s="38"/>
       <c r="F469" s="38" t="s">
@@ -16923,32 +16983,32 @@
         <v>58</v>
       </c>
       <c r="B470" s="38" t="s">
-        <v>780</v>
-      </c>
-      <c r="C470" s="38" t="s">
-        <v>633</v>
+        <v>779</v>
+      </c>
+      <c r="C470" s="44" t="s">
+        <v>631</v>
       </c>
       <c r="D470" s="38" t="s">
-        <v>1107</v>
+        <v>597</v>
       </c>
       <c r="E470" s="38"/>
       <c r="F470" s="38" t="s">
         <v>1143</v>
       </c>
-      <c r="G470" s="38"/>
+      <c r="G470" s="44"/>
     </row>
     <row r="471" spans="1:7">
       <c r="A471" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B471" s="38" t="s">
-        <v>781</v>
-      </c>
-      <c r="C471" s="40" t="s">
-        <v>635</v>
+        <v>780</v>
+      </c>
+      <c r="C471" s="38" t="s">
+        <v>633</v>
       </c>
       <c r="D471" s="38" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="E471" s="38"/>
       <c r="F471" s="38" t="s">
@@ -16956,8 +17016,27 @@
       </c>
       <c r="G471" s="38"/>
     </row>
+    <row r="472" spans="1:7">
+      <c r="A472" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B472" s="38" t="s">
+        <v>781</v>
+      </c>
+      <c r="C472" s="40" t="s">
+        <v>635</v>
+      </c>
+      <c r="D472" s="38" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E472" s="38"/>
+      <c r="F472" s="38" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G472" s="38"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G471" xr:uid="{D331C0AB-26E8-4A68-9DCE-42FE6AA1F39D}"/>
+  <autoFilter ref="A1:G472" xr:uid="{D331C0AB-26E8-4A68-9DCE-42FE6AA1F39D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -16970,14 +17049,14 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="45.09765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="81.3984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="45.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="81.375" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.8984375" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -17061,7 +17140,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="140.4">
+    <row r="5" spans="1:7" ht="126">
       <c r="A5" s="3" t="s">
         <v>71</v>
       </c>
@@ -17117,16 +17196,16 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.5" style="29" customWidth="1"/>
     <col min="2" max="2" width="68.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.8984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="4" customWidth="1"/>
     <col min="4" max="4" width="100" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="22.8984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.875" style="4" customWidth="1"/>
     <col min="7" max="7" width="20" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.8984375" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -18285,7 +18364,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:1025" ht="31.2">
+    <row r="8" spans="1:1025" ht="31.5">
       <c r="A8" s="3" t="s">
         <v>810</v>
       </c>
@@ -18838,7 +18917,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="78">
+    <row r="37" spans="1:7" ht="63">
       <c r="A37" s="3" t="s">
         <v>257</v>
       </c>
@@ -18859,7 +18938,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="31.2">
+    <row r="38" spans="1:7" ht="31.5">
       <c r="A38" s="3" t="s">
         <v>526</v>
       </c>
@@ -18935,7 +19014,7 @@
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="46.8">
+    <row r="42" spans="1:7" ht="47.25">
       <c r="A42" s="3" t="s">
         <v>274</v>
       </c>
@@ -19213,25 +19292,25 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:IV49"/>
+  <dimension ref="A1:IV50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView showGridLines="0" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D50" sqref="A1:D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" style="29" customWidth="1"/>
-    <col min="2" max="2" width="47.3984375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.8984375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="80.8984375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="47.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="80.875" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.8984375" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.8984375" style="19" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="24" customFormat="1" ht="30.9" customHeight="1">
+    <row r="1" spans="1:256" s="24" customFormat="1" ht="30.95" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>782</v>
       </c>
@@ -19533,7 +19612,7 @@
         <v>863</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>292</v>
+        <v>1304</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="30" t="s">
@@ -20225,7 +20304,7 @@
       </c>
       <c r="G39" s="30"/>
     </row>
-    <row r="40" spans="1:7" ht="30.9" customHeight="1">
+    <row r="40" spans="1:7" ht="30.95" customHeight="1">
       <c r="A40" s="30" t="s">
         <v>949</v>
       </c>
@@ -20278,7 +20357,7 @@
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
     </row>
-    <row r="43" spans="1:7" ht="30.9" customHeight="1">
+    <row r="43" spans="1:7" ht="30.95" customHeight="1">
       <c r="A43" s="30" t="s">
         <v>959</v>
       </c>
@@ -20386,22 +20465,22 @@
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
     </row>
-    <row r="49" spans="1:256" s="57" customFormat="1" ht="31.2">
+    <row r="49" spans="1:256" s="57" customFormat="1" ht="31.5">
       <c r="A49" s="31" t="s">
         <v>979</v>
       </c>
       <c r="B49" s="30" t="s">
         <v>860</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="66" t="s">
         <v>980</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="66" t="s">
         <v>1093</v>
       </c>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
       <c r="H49" s="56"/>
       <c r="I49" s="56"/>
       <c r="J49" s="56"/>
@@ -20652,9 +20731,26 @@
       <c r="IU49" s="56"/>
       <c r="IV49" s="56"/>
     </row>
+    <row r="50" spans="1:256">
+      <c r="A50" s="31" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="68"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;P</oddFooter>
   </headerFooter>
@@ -20670,17 +20766,17 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.5" style="29" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="44.3984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="41.3984375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="41.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="4" customWidth="1"/>
     <col min="7" max="7" width="29" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.8984375" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.8984375" style="19" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -21382,7 +21478,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="31.2">
+    <row r="24" spans="1:7" ht="31.5">
       <c r="A24" s="32" t="s">
         <v>1153</v>
       </c>
@@ -21399,7 +21495,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
     </row>
-    <row r="25" spans="1:7" ht="46.8">
+    <row r="25" spans="1:7" ht="47.25">
       <c r="A25" s="32" t="s">
         <v>1157</v>
       </c>
@@ -21416,7 +21512,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
     </row>
-    <row r="26" spans="1:7" ht="31.2">
+    <row r="26" spans="1:7" ht="31.5">
       <c r="A26" s="32" t="s">
         <v>1159</v>
       </c>
@@ -21433,7 +21529,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
     </row>
-    <row r="27" spans="1:7" ht="46.8">
+    <row r="27" spans="1:7" ht="47.25">
       <c r="A27" s="32" t="s">
         <v>1162</v>
       </c>
@@ -21450,7 +21546,7 @@
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
     </row>
-    <row r="28" spans="1:7" ht="46.8">
+    <row r="28" spans="1:7" ht="47.25">
       <c r="A28" s="32" t="s">
         <v>1165</v>
       </c>
@@ -21467,7 +21563,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
     </row>
-    <row r="29" spans="1:7" ht="46.8">
+    <row r="29" spans="1:7" ht="31.5">
       <c r="A29" s="32" t="s">
         <v>1168</v>
       </c>
@@ -21484,7 +21580,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
     </row>
-    <row r="30" spans="1:7" ht="46.8">
+    <row r="30" spans="1:7" ht="47.25">
       <c r="A30" s="32" t="s">
         <v>1171</v>
       </c>
@@ -21517,16 +21613,16 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="54.59765625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.8984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="75.59765625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="132.3984375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="54.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="75.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="132.375" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.8984375" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.8984375" style="19" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -21840,7 +21936,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:256" ht="62.4">
+    <row r="4" spans="1:256" ht="63">
       <c r="A4" s="5" t="s">
         <v>1033</v>
       </c>
@@ -21873,21 +21969,21 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.5" style="25" customWidth="1"/>
-    <col min="2" max="2" width="53.3984375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="53.375" style="20" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="20" customWidth="1"/>
     <col min="4" max="4" width="44.5" style="20" customWidth="1"/>
-    <col min="5" max="5" width="31.8984375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="31.875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="20" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="20" customWidth="1"/>
-    <col min="8" max="256" width="8.8984375" style="20" customWidth="1"/>
-    <col min="257" max="1025" width="8.8984375" style="21" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="20" customWidth="1"/>
+    <col min="257" max="1025" width="8.875" style="21" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
@@ -22586,7 +22682,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="31.2">
+    <row r="23" spans="1:7" ht="31.5">
       <c r="A23" s="30" t="s">
         <v>1109</v>
       </c>
@@ -22639,7 +22735,7 @@
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
     </row>
-    <row r="26" spans="1:7" ht="31.2">
+    <row r="26" spans="1:7" ht="31.5">
       <c r="A26" s="30" t="s">
         <v>1104</v>
       </c>
@@ -22689,16 +22785,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19" style="22" customWidth="1"/>
-    <col min="2" max="2" width="53.3984375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="53.375" style="19" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="19" customWidth="1"/>
     <col min="4" max="4" width="25" style="19" customWidth="1"/>
     <col min="5" max="5" width="46" style="19" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="19" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="19" customWidth="1"/>
-    <col min="8" max="1025" width="8.8984375" style="19" customWidth="1"/>
+    <col min="8" max="1025" width="8.875" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>

--- a/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geoff\gsa-devel\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D83060D-AAE9-4B0A-BB4D-EDC10D923E94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE320434-456E-4E6C-9EAB-09C399F32D87}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="17070" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3775" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3776" uniqueCount="1309">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -4815,13 +4815,13 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="57.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="57.3984375" style="4" customWidth="1"/>
     <col min="3" max="5" width="10.5" style="4" customWidth="1"/>
-    <col min="6" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
+    <col min="6" max="256" width="8.8984375" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -5478,7 +5478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="31.5">
+    <row r="74" spans="1:5" ht="31.2">
       <c r="A74" s="3" t="s">
         <v>205</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="31.5">
+    <row r="85" spans="1:2" ht="31.2">
       <c r="A85" s="3" t="s">
         <v>217</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="31.5">
+    <row r="96" spans="1:2" ht="31.2">
       <c r="A96" s="3" t="s">
         <v>229</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" ht="31.2">
       <c r="A107" s="3" t="s">
         <v>240</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="31.5">
+    <row r="114" spans="1:2" ht="31.2">
       <c r="A114" s="3" t="s">
         <v>255</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="28.5">
+    <row r="116" spans="1:2" ht="27.6">
       <c r="A116" s="3" t="s">
         <v>258</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="47.25">
+    <row r="121" spans="1:2" ht="46.8">
       <c r="A121" s="3" t="s">
         <v>267</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="63">
+    <row r="123" spans="1:2" ht="62.4">
       <c r="A123" s="3" t="s">
         <v>272</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="31.5">
+    <row r="142" spans="1:2" ht="31.2">
       <c r="A142" s="3" t="s">
         <v>296</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="31.5">
+    <row r="144" spans="1:2" ht="31.2">
       <c r="A144" s="3" t="s">
         <v>301</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="47.25">
+    <row r="145" spans="1:2" ht="46.8">
       <c r="A145" s="3" t="s">
         <v>303</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="47.25">
+    <row r="146" spans="1:2" ht="46.8">
       <c r="A146" s="3" t="s">
         <v>305</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="47.25">
+    <row r="149" spans="1:2" ht="46.8">
       <c r="A149" s="3" t="s">
         <v>311</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="63">
+    <row r="151" spans="1:2" ht="62.4">
       <c r="A151" s="3" t="s">
         <v>315</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="31.5">
+    <row r="152" spans="1:2" ht="31.2">
       <c r="A152" s="3" t="s">
         <v>317</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="31.5">
+    <row r="153" spans="1:2" ht="31.2">
       <c r="A153" s="3" t="s">
         <v>319</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="31.5">
+    <row r="161" spans="1:2" ht="31.2">
       <c r="A161" s="3" t="s">
         <v>327</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="31.5">
+    <row r="163" spans="1:2" ht="31.2">
       <c r="A163" s="3" t="s">
         <v>329</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="31.5">
+    <row r="164" spans="1:2" ht="31.2">
       <c r="A164" s="3" t="s">
         <v>330</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="47.25">
+    <row r="165" spans="1:2" ht="46.8">
       <c r="A165" s="3" t="s">
         <v>332</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="31.5">
+    <row r="168" spans="1:2" ht="31.2">
       <c r="A168" s="3" t="s">
         <v>336</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="63">
+    <row r="170" spans="1:2" ht="62.4">
       <c r="A170" s="3" t="s">
         <v>340</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="31.5">
+    <row r="171" spans="1:2" ht="31.2">
       <c r="A171" s="3" t="s">
         <v>341</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="31.5">
+    <row r="172" spans="1:2" ht="31.2">
       <c r="A172" s="3" t="s">
         <v>342</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="47.25">
+    <row r="184" spans="1:2" ht="46.8">
       <c r="A184" s="3" t="s">
         <v>332</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" ht="31.2">
       <c r="A186" s="3" t="s">
         <v>358</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="31.5">
+    <row r="187" spans="1:2" ht="31.2">
       <c r="A187" s="3" t="s">
         <v>360</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="63">
+    <row r="189" spans="1:2" ht="62.4">
       <c r="A189" s="3" t="s">
         <v>363</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="31.5">
+    <row r="190" spans="1:2" ht="31.2">
       <c r="A190" s="3" t="s">
         <v>364</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="31.5">
+    <row r="191" spans="1:2" ht="31.2">
       <c r="A191" s="3" t="s">
         <v>365</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="47.25">
+    <row r="197" spans="1:2" ht="46.8">
       <c r="A197" s="3" t="s">
         <v>375</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="47.25">
+    <row r="198" spans="1:2" ht="46.8">
       <c r="A198" s="3" t="s">
         <v>377</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="31.5">
+    <row r="201" spans="1:2" ht="31.2">
       <c r="A201" s="3" t="s">
         <v>382</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="31.5">
+    <row r="202" spans="1:2" ht="31.2">
       <c r="A202" s="3" t="s">
         <v>384</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="31.5">
+    <row r="215" spans="1:2" ht="31.2">
       <c r="A215" s="3" t="s">
         <v>409</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="47.25">
+    <row r="233" spans="1:2" ht="46.8">
       <c r="A233" s="3" t="s">
         <v>432</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="31.5">
+    <row r="235" spans="1:2" ht="31.2">
       <c r="A235" s="3" t="s">
         <v>439</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="31.5">
+    <row r="236" spans="1:2" ht="31.2">
       <c r="A236" s="3" t="s">
         <v>442</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" ht="31.2">
       <c r="A238" s="3" t="s">
         <v>448</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="47.25">
+    <row r="239" spans="1:2" ht="62.4">
       <c r="A239" s="3" t="s">
         <v>451</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="47.25">
+    <row r="240" spans="1:2" ht="46.8">
       <c r="A240" s="3" t="s">
         <v>454</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="78.75">
+    <row r="241" spans="1:2" ht="78">
       <c r="A241" s="3" t="s">
         <v>457</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="47.25">
+    <row r="242" spans="1:2" ht="62.4">
       <c r="A242" s="3" t="s">
         <v>460</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="78.75">
+    <row r="243" spans="1:2" ht="78">
       <c r="A243" s="3" t="s">
         <v>463</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="31.5">
+    <row r="244" spans="1:2" ht="31.2">
       <c r="A244" s="3" t="s">
         <v>466</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="47.25">
+    <row r="247" spans="1:2" ht="46.8">
       <c r="A247" s="3" t="s">
         <v>471</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="31.5">
+    <row r="249" spans="1:2" ht="31.2">
       <c r="A249" s="3" t="s">
         <v>476</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="31.5">
+    <row r="250" spans="1:2" ht="31.2">
       <c r="A250" s="3" t="s">
         <v>478</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" ht="31.2">
       <c r="A252" s="3" t="s">
         <v>481</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="31.5">
+    <row r="254" spans="1:2" ht="31.2">
       <c r="A254" s="3" t="s">
         <v>484</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="31.5">
+    <row r="255" spans="1:2" ht="31.2">
       <c r="A255" s="3" t="s">
         <v>486</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="31.5">
+    <row r="256" spans="1:2" ht="31.2">
       <c r="A256" s="3" t="s">
         <v>489</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="47.25">
+    <row r="257" spans="1:2" ht="46.8">
       <c r="A257" s="3" t="s">
         <v>491</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="47.25">
+    <row r="258" spans="1:2" ht="62.4">
       <c r="A258" s="3" t="s">
         <v>494</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="63">
+    <row r="259" spans="1:2" ht="62.4">
       <c r="A259" s="3" t="s">
         <v>496</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="78.75">
+    <row r="260" spans="1:2" ht="78">
       <c r="A260" s="3" t="s">
         <v>498</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="78.75">
+    <row r="261" spans="1:2" ht="78">
       <c r="A261" s="3" t="s">
         <v>500</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="47.25">
+    <row r="262" spans="1:2" ht="46.8">
       <c r="A262" s="3" t="s">
         <v>503</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="47.25">
+    <row r="265" spans="1:2" ht="46.8">
       <c r="A265" s="3" t="s">
         <v>507</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="31.5">
+    <row r="267" spans="1:2" ht="31.2">
       <c r="A267" s="3" t="s">
         <v>509</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="31.5">
+    <row r="268" spans="1:2" ht="31.2">
       <c r="A268" s="3" t="s">
         <v>510</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" ht="31.2">
       <c r="A270" s="3" t="s">
         <v>512</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="31.5">
+    <row r="272" spans="1:2" ht="31.2">
       <c r="A272" s="3" t="s">
         <v>514</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="31.5">
+    <row r="273" spans="1:2" ht="31.2">
       <c r="A273" s="3" t="s">
         <v>515</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="31.5">
+    <row r="274" spans="1:2" ht="31.2">
       <c r="A274" s="3" t="s">
         <v>516</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="47.25">
+    <row r="275" spans="1:2" ht="46.8">
       <c r="A275" s="3" t="s">
         <v>517</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="47.25">
+    <row r="276" spans="1:2" ht="62.4">
       <c r="A276" s="3" t="s">
         <v>518</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="63">
+    <row r="277" spans="1:2" ht="62.4">
       <c r="A277" s="3" t="s">
         <v>519</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="78.75">
+    <row r="278" spans="1:2" ht="78">
       <c r="A278" s="3" t="s">
         <v>520</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="78.75">
+    <row r="279" spans="1:2" ht="78">
       <c r="A279" s="3" t="s">
         <v>521</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="47.25">
+    <row r="280" spans="1:2" ht="46.8">
       <c r="A280" s="3" t="s">
         <v>522</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="31.5">
+    <row r="283" spans="1:2" ht="31.2">
       <c r="A283" s="3" t="s">
         <v>524</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="31.5">
+    <row r="285" spans="1:2" ht="31.2">
       <c r="A285" s="3" t="s">
         <v>528</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="47.25">
+    <row r="288" spans="1:2" ht="46.8">
       <c r="A288" s="3" t="s">
         <v>537</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="78.75">
+    <row r="291" spans="1:2" ht="78">
       <c r="A291" s="3" t="s">
         <v>545</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="47.25">
+    <row r="294" spans="1:2" ht="46.8">
       <c r="A294" s="3" t="s">
         <v>549</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="31.5">
+    <row r="296" spans="1:2" ht="31.2">
       <c r="A296" s="3" t="s">
         <v>551</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="31.5">
+    <row r="297" spans="1:2" ht="31.2">
       <c r="A297" s="3" t="s">
         <v>552</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" ht="31.2">
       <c r="A299" s="3" t="s">
         <v>554</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="31.5">
+    <row r="301" spans="1:2" ht="31.2">
       <c r="A301" s="3" t="s">
         <v>556</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="31.5">
+    <row r="302" spans="1:2" ht="31.2">
       <c r="A302" s="3" t="s">
         <v>557</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="31.5">
+    <row r="303" spans="1:2" ht="31.2">
       <c r="A303" s="3" t="s">
         <v>558</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="47.25">
+    <row r="304" spans="1:2" ht="46.8">
       <c r="A304" s="3" t="s">
         <v>559</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="47.25">
+    <row r="305" spans="1:2" ht="62.4">
       <c r="A305" s="3" t="s">
         <v>560</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="63">
+    <row r="306" spans="1:2" ht="62.4">
       <c r="A306" s="3" t="s">
         <v>561</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="78.75">
+    <row r="307" spans="1:2" ht="78">
       <c r="A307" s="3" t="s">
         <v>562</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="78.75">
+    <row r="308" spans="1:2" ht="78">
       <c r="A308" s="3" t="s">
         <v>563</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="47.25">
+    <row r="309" spans="1:2" ht="46.8">
       <c r="A309" s="3" t="s">
         <v>564</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="94.5">
+    <row r="313" spans="1:2" ht="93.6">
       <c r="A313" s="3" t="s">
         <v>566</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="31.5">
+    <row r="314" spans="1:2" ht="31.2">
       <c r="A314" s="3" t="s">
         <v>569</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="31.5">
+    <row r="320" spans="1:2" ht="31.2">
       <c r="A320" s="3" t="s">
         <v>584</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="31.5">
+    <row r="324" spans="1:2" ht="46.8">
       <c r="A324" s="3" t="s">
         <v>595</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="31.5">
+    <row r="326" spans="1:2" ht="31.2">
       <c r="A326" s="3" t="s">
         <v>601</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="63">
+    <row r="328" spans="1:2" ht="62.4">
       <c r="A328" s="3" t="s">
         <v>607</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="47.25">
+    <row r="329" spans="1:2" ht="46.8">
       <c r="A329" s="3" t="s">
         <v>609</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="31.5">
+    <row r="331" spans="1:2" ht="31.2">
       <c r="A331" s="3" t="s">
         <v>613</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="31.5">
+    <row r="332" spans="1:2" ht="31.2">
       <c r="A332" s="3" t="s">
         <v>616</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="31.5">
+    <row r="339" spans="1:2" ht="31.2">
       <c r="A339" s="3" t="s">
         <v>630</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="94.5">
+    <row r="344" spans="1:2" ht="93.6">
       <c r="A344" s="3" t="s">
         <v>638</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="31.5">
+    <row r="345" spans="1:2" ht="31.2">
       <c r="A345" s="3" t="s">
         <v>639</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="31.5">
+    <row r="351" spans="1:2" ht="31.2">
       <c r="A351" s="3" t="s">
         <v>652</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="31.5">
+    <row r="352" spans="1:2" ht="31.2">
       <c r="A352" s="3" t="s">
         <v>654</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="31.5">
+    <row r="353" spans="1:2" ht="31.2">
       <c r="A353" s="3" t="s">
         <v>656</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="31.5">
+    <row r="354" spans="1:2" ht="46.8">
       <c r="A354" s="3" t="s">
         <v>658</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="31.5">
+    <row r="361" spans="1:2" ht="31.2">
       <c r="A361" s="3" t="s">
         <v>667</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="78.75">
+    <row r="366" spans="1:2" ht="78">
       <c r="A366" s="3" t="s">
         <v>671</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="31.5">
+    <row r="367" spans="1:2" ht="31.2">
       <c r="A367" s="3" t="s">
         <v>673</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="31.5">
+    <row r="371" spans="1:2" ht="31.2">
       <c r="A371" s="3" t="s">
         <v>679</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="31.5">
+    <row r="372" spans="1:2" ht="31.2">
       <c r="A372" s="3" t="s">
         <v>682</v>
       </c>
@@ -7878,7 +7878,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="31.5">
+    <row r="374" spans="1:2" ht="31.2">
       <c r="A374" s="3" t="s">
         <v>687</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="31.5">
+    <row r="375" spans="1:2" ht="31.2">
       <c r="A375" s="3" t="s">
         <v>689</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="31.5">
+    <row r="376" spans="1:2" ht="46.8">
       <c r="A376" s="3" t="s">
         <v>691</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="31.5">
+    <row r="383" spans="1:2" ht="31.2">
       <c r="A383" s="3" t="s">
         <v>698</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="78.75">
+    <row r="388" spans="1:2" ht="78">
       <c r="A388" s="3" t="s">
         <v>702</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="31.5">
+    <row r="389" spans="1:2" ht="31.2">
       <c r="A389" s="3" t="s">
         <v>703</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="31.5">
+    <row r="396" spans="1:2" ht="31.2">
       <c r="A396" s="3" t="s">
         <v>714</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="31.5">
+    <row r="399" spans="1:2" ht="31.2">
       <c r="A399" s="3" t="s">
         <v>722</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="31.5">
+    <row r="404" spans="1:2" ht="31.2">
       <c r="A404" s="3" t="s">
         <v>732</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="31.5">
+    <row r="407" spans="1:2" ht="31.2">
       <c r="A407" s="3" t="s">
         <v>735</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="63">
+    <row r="409" spans="1:2" ht="62.4">
       <c r="A409" s="3" t="s">
         <v>737</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="47.25">
+    <row r="410" spans="1:2" ht="46.8">
       <c r="A410" s="3" t="s">
         <v>739</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="31.5">
+    <row r="412" spans="1:2" ht="31.2">
       <c r="A412" s="3" t="s">
         <v>742</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="31.5">
+    <row r="419" spans="1:2" ht="31.2">
       <c r="A419" s="3" t="s">
         <v>749</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="78.75">
+    <row r="431" spans="1:2" ht="78">
       <c r="A431" s="3" t="s">
         <v>758</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="31.5">
+    <row r="432" spans="1:2" ht="31.2">
       <c r="A432" s="3" t="s">
         <v>759</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="31.5">
+    <row r="439" spans="1:2" ht="31.2">
       <c r="A439" s="3" t="s">
         <v>768</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="47.25">
+    <row r="440" spans="1:2" ht="46.8">
       <c r="A440" s="3" t="s">
         <v>770</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="31.5">
+    <row r="448" spans="1:2" ht="31.2">
       <c r="A448" s="3" t="s">
         <v>779</v>
       </c>
@@ -8509,25 +8509,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172"/>
+    <sheetView tabSelected="1" topLeftCell="A325" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F333" sqref="F333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="52" customWidth="1"/>
+    <col min="1" max="1" width="17.8984375" style="52" customWidth="1"/>
     <col min="2" max="2" width="12" style="50" customWidth="1"/>
     <col min="3" max="3" width="91.5" style="50" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="50" customWidth="1"/>
-    <col min="5" max="5" width="155.375" style="50" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="62.75" style="50" customWidth="1"/>
-    <col min="7" max="7" width="84.625" style="50" customWidth="1"/>
+    <col min="4" max="4" width="20.3984375" style="50" customWidth="1"/>
+    <col min="5" max="5" width="155.3984375" style="50" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="62.69921875" style="50" customWidth="1"/>
+    <col min="7" max="7" width="84.59765625" style="50" customWidth="1"/>
     <col min="8" max="8" width="9" style="51"/>
     <col min="9" max="1027" width="8.5" style="34" customWidth="1"/>
     <col min="1028" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="54" customFormat="1" ht="15.75">
+    <row r="1" spans="1:8" s="54" customFormat="1" ht="15.6">
       <c r="A1" s="33" t="s">
         <v>52</v>
       </c>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="H1" s="53"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:8" ht="15.6">
       <c r="A2" s="35" t="s">
         <v>58</v>
       </c>
@@ -11457,7 +11457,7 @@
       <c r="F157" s="37"/>
       <c r="G157" s="41"/>
     </row>
-    <row r="158" spans="1:7" ht="15.75">
+    <row r="158" spans="1:7" ht="15.6">
       <c r="A158" s="35" t="s">
         <v>58</v>
       </c>
@@ -11760,7 +11760,7 @@
       <c r="F175" s="40"/>
       <c r="G175" s="38"/>
     </row>
-    <row r="176" spans="1:8" ht="30">
+    <row r="176" spans="1:8" ht="45">
       <c r="A176" s="38" t="s">
         <v>58</v>
       </c>
@@ -12081,7 +12081,7 @@
       <c r="F194" s="40"/>
       <c r="G194" s="38"/>
     </row>
-    <row r="195" spans="1:7" ht="30">
+    <row r="195" spans="1:7" ht="45">
       <c r="A195" s="38" t="s">
         <v>58</v>
       </c>
@@ -12402,7 +12402,7 @@
       <c r="F213" s="40"/>
       <c r="G213" s="38"/>
     </row>
-    <row r="214" spans="1:7" ht="30">
+    <row r="214" spans="1:7" ht="45">
       <c r="A214" s="38" t="s">
         <v>58</v>
       </c>
@@ -12623,7 +12623,7 @@
       <c r="F226" s="38"/>
       <c r="G226" s="38"/>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" ht="30">
       <c r="A227" s="38" t="s">
         <v>58</v>
       </c>
@@ -13080,7 +13080,7 @@
       <c r="F253" s="38"/>
       <c r="G253" s="38"/>
     </row>
-    <row r="254" spans="1:7" ht="15.75">
+    <row r="254" spans="1:7" ht="15.6">
       <c r="A254" s="38" t="s">
         <v>58</v>
       </c>
@@ -13505,7 +13505,7 @@
       <c r="F278" s="38"/>
       <c r="G278" s="44"/>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" ht="30">
       <c r="A279" s="38" t="s">
         <v>58</v>
       </c>
@@ -13811,7 +13811,7 @@
       <c r="F296" s="38"/>
       <c r="G296" s="44"/>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" ht="30">
       <c r="A297" s="38" t="s">
         <v>58</v>
       </c>
@@ -14300,7 +14300,7 @@
       <c r="F325" s="38"/>
       <c r="G325" s="38"/>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" ht="30">
       <c r="A326" s="38" t="s">
         <v>58</v>
       </c>
@@ -14433,7 +14433,9 @@
         <v>502</v>
       </c>
       <c r="E333" s="38"/>
-      <c r="F333" s="38"/>
+      <c r="F333" s="38" t="s">
+        <v>1300</v>
+      </c>
       <c r="G333" s="38"/>
     </row>
     <row r="334" spans="1:7" ht="30">
@@ -14455,7 +14457,7 @@
       </c>
       <c r="G334" s="38"/>
     </row>
-    <row r="335" spans="1:7" ht="15.75">
+    <row r="335" spans="1:7" ht="15.6">
       <c r="A335" s="38" t="s">
         <v>58</v>
       </c>
@@ -17049,14 +17051,14 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="45.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="81.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="45.09765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="81.3984375" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -17140,7 +17142,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="126">
+    <row r="5" spans="1:7" ht="140.4">
       <c r="A5" s="3" t="s">
         <v>71</v>
       </c>
@@ -17196,16 +17198,16 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.5" style="29" customWidth="1"/>
     <col min="2" max="2" width="68.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" style="4" customWidth="1"/>
     <col min="4" max="4" width="100" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="22.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.8984375" style="4" customWidth="1"/>
     <col min="7" max="7" width="20" style="4" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="4" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="4" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -18364,7 +18366,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:1025" ht="31.5">
+    <row r="8" spans="1:1025" ht="31.2">
       <c r="A8" s="3" t="s">
         <v>810</v>
       </c>
@@ -18917,7 +18919,7 @@
       </c>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="63">
+    <row r="37" spans="1:7" ht="78">
       <c r="A37" s="3" t="s">
         <v>257</v>
       </c>
@@ -18938,7 +18940,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="31.5">
+    <row r="38" spans="1:7" ht="31.2">
       <c r="A38" s="3" t="s">
         <v>526</v>
       </c>
@@ -19014,7 +19016,7 @@
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="47.25">
+    <row r="42" spans="1:7" ht="46.8">
       <c r="A42" s="3" t="s">
         <v>274</v>
       </c>
@@ -19298,19 +19300,19 @@
       <selection activeCell="D50" sqref="A1:D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="47.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="80.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="47.3984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="80.8984375" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="24" customFormat="1" ht="30.95" customHeight="1">
+    <row r="1" spans="1:256" s="24" customFormat="1" ht="30.9" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>782</v>
       </c>
@@ -20304,7 +20306,7 @@
       </c>
       <c r="G39" s="30"/>
     </row>
-    <row r="40" spans="1:7" ht="30.95" customHeight="1">
+    <row r="40" spans="1:7" ht="30.9" customHeight="1">
       <c r="A40" s="30" t="s">
         <v>949</v>
       </c>
@@ -20357,7 +20359,7 @@
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
     </row>
-    <row r="43" spans="1:7" ht="30.95" customHeight="1">
+    <row r="43" spans="1:7" ht="30.9" customHeight="1">
       <c r="A43" s="30" t="s">
         <v>959</v>
       </c>
@@ -20465,7 +20467,7 @@
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
     </row>
-    <row r="49" spans="1:256" s="57" customFormat="1" ht="31.5">
+    <row r="49" spans="1:256" s="57" customFormat="1" ht="31.2">
       <c r="A49" s="31" t="s">
         <v>979</v>
       </c>
@@ -20766,17 +20768,17 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.5" style="29" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="41.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.3984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="41.3984375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" style="4" customWidth="1"/>
     <col min="7" max="7" width="29" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -21478,7 +21480,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="31.5">
+    <row r="24" spans="1:7" ht="31.2">
       <c r="A24" s="32" t="s">
         <v>1153</v>
       </c>
@@ -21495,7 +21497,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
     </row>
-    <row r="25" spans="1:7" ht="47.25">
+    <row r="25" spans="1:7" ht="46.8">
       <c r="A25" s="32" t="s">
         <v>1157</v>
       </c>
@@ -21512,7 +21514,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
     </row>
-    <row r="26" spans="1:7" ht="31.5">
+    <row r="26" spans="1:7" ht="31.2">
       <c r="A26" s="32" t="s">
         <v>1159</v>
       </c>
@@ -21529,7 +21531,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
     </row>
-    <row r="27" spans="1:7" ht="47.25">
+    <row r="27" spans="1:7" ht="46.8">
       <c r="A27" s="32" t="s">
         <v>1162</v>
       </c>
@@ -21546,7 +21548,7 @@
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
     </row>
-    <row r="28" spans="1:7" ht="47.25">
+    <row r="28" spans="1:7" ht="46.8">
       <c r="A28" s="32" t="s">
         <v>1165</v>
       </c>
@@ -21563,7 +21565,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
     </row>
-    <row r="29" spans="1:7" ht="31.5">
+    <row r="29" spans="1:7" ht="46.8">
       <c r="A29" s="32" t="s">
         <v>1168</v>
       </c>
@@ -21580,7 +21582,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
     </row>
-    <row r="30" spans="1:7" ht="47.25">
+    <row r="30" spans="1:7" ht="46.8">
       <c r="A30" s="32" t="s">
         <v>1171</v>
       </c>
@@ -21613,16 +21615,16 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="54.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="75.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="132.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="54.59765625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="75.59765625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="132.3984375" style="4" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="4" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="4" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="19" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="4" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -21936,7 +21938,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:256" ht="63">
+    <row r="4" spans="1:256" ht="62.4">
       <c r="A4" s="5" t="s">
         <v>1033</v>
       </c>
@@ -21973,17 +21975,17 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.5" style="25" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="53.3984375" style="20" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="20" customWidth="1"/>
     <col min="4" max="4" width="44.5" style="20" customWidth="1"/>
-    <col min="5" max="5" width="31.875" style="20" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="31.8984375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="20" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="20" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="20" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="21" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="20" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="21" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
@@ -22682,7 +22684,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="31.5">
+    <row r="23" spans="1:7" ht="31.2">
       <c r="A23" s="30" t="s">
         <v>1109</v>
       </c>
@@ -22735,7 +22737,7 @@
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
     </row>
-    <row r="26" spans="1:7" ht="31.5">
+    <row r="26" spans="1:7" ht="31.2">
       <c r="A26" s="30" t="s">
         <v>1104</v>
       </c>
@@ -22785,16 +22787,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="19" style="22" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="53.3984375" style="19" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="19" customWidth="1"/>
     <col min="4" max="4" width="25" style="19" customWidth="1"/>
     <col min="5" max="5" width="46" style="19" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="19" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="19" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="19" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="19" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>

--- a/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/85b_test_definitions_PIV_ICAM_Test_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geoff\gsa-devel\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE320434-456E-4E6C-9EAB-09C399F32D87}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866942E5-93E3-4F4D-89D8-D447F575A356}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,14 @@
     <sheet name="Placeholders" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Steps Overview'!$A$1:$G$472</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Steps Overview'!$B$1:$B$472</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3776" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3776" uniqueCount="1310">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3960,6 +3960,9 @@
   </si>
   <si>
     <t>The Patron Header Version field has a value of 0x03.</t>
+  </si>
+  <si>
+    <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID:2.16.840.1.101.3.2.1.48.11,X509_CERTIFICATE_FOR_DIGITAL_SIGNATURE_OID:2.16.840.1.101.3.2.1.48.9|2.16.840.1.101.3.2.1.48.12,X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID:2.16.840.1.101.3.2.1.48.9|2.16.840.1.101.3.2.1.48.12,X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.2.1.48.13,CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.2.1.48.86</t>
   </si>
 </sst>
 </file>
@@ -8509,8 +8512,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <sel